--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="Sprint5_0606_0612" sheetId="5" r:id="rId4"/>
     <sheet name="Sprint6'7'8_0625_0715" sheetId="7" r:id="rId5"/>
     <sheet name="Sprint9_0716_0722" sheetId="8" r:id="rId6"/>
-    <sheet name="Sprint10_0723_0729" sheetId="9" r:id="rId7"/>
+    <sheet name="Sprint01_0805_1205" sheetId="9" r:id="rId7"/>
+    <sheet name="Sprint02_1305_1905" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$1:$G$106</definedName>
@@ -56,8 +57,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tu Huynh</author>
+  </authors>
+  <commentList>
+    <comment ref="L11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DEAD LINE</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="373">
   <si>
     <t>Introduction</t>
   </si>
@@ -1043,9 +1078,6 @@
     <t>&lt;Integrate&gt; Class page</t>
   </si>
   <si>
-    <t>SPRINT 10 FROM 23/7 TO 29/7</t>
-  </si>
-  <si>
     <t>GROUP 6</t>
   </si>
   <si>
@@ -1107,6 +1139,105 @@
   </si>
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>13/05</t>
+  </si>
+  <si>
+    <t>14/05</t>
+  </si>
+  <si>
+    <t>15/05</t>
+  </si>
+  <si>
+    <t>16/05</t>
+  </si>
+  <si>
+    <t>17/05</t>
+  </si>
+  <si>
+    <t>18/05</t>
+  </si>
+  <si>
+    <t>+Assignment Tests</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>SPRINT 01 FROM 08/05 TO 12/05</t>
+  </si>
+  <si>
+    <t>TuHM</t>
+  </si>
+  <si>
+    <t>ThiBT</t>
+  </si>
+  <si>
+    <t>TanND</t>
+  </si>
+  <si>
+    <t>AnhAN</t>
+  </si>
+  <si>
+    <t>19/05</t>
+  </si>
+  <si>
+    <t>SPRINT 02 FROM 08/05 TO 12/05</t>
+  </si>
+  <si>
+    <t>Report 1</t>
+  </si>
+  <si>
+    <t>+List Recent Tests</t>
+  </si>
+  <si>
+    <t>+List Running Tests</t>
+  </si>
+  <si>
+    <t>+List Tests on Month tab</t>
+  </si>
+  <si>
+    <t>Tests &amp; Assessment</t>
+  </si>
+  <si>
+    <t>New Tests Page</t>
+  </si>
+  <si>
+    <t>+Create tests function</t>
+  </si>
+  <si>
+    <t>+Reuse tests function</t>
+  </si>
+  <si>
+    <t>+Import tests function</t>
+  </si>
+  <si>
+    <t>Searching function</t>
+  </si>
+  <si>
+    <t>+Search on tests page</t>
+  </si>
+  <si>
+    <t>+Search on student page</t>
+  </si>
+  <si>
+    <t>+Search on teacher page</t>
+  </si>
+  <si>
+    <t>Appointment function</t>
+  </si>
+  <si>
+    <t>+Appointment for student</t>
+  </si>
+  <si>
+    <t>+Appointment for teacher</t>
+  </si>
+  <si>
+    <t>+Appointment email for student</t>
+  </si>
+  <si>
+    <t>+Appointment email for teacher</t>
   </si>
 </sst>
 </file>
@@ -1115,9 +1246,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="dd/mm"/>
+    <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1261,8 +1392,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1380,6 +1517,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1909,7 +2058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="336">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -2696,27 +2845,48 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2732,176 +2902,231 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="22" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="20" fillId="21" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="20" fillId="21" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="124">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -2917,24 +3142,540 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2943,6 +3684,377 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -6916,21 +8028,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:N30" totalsRowShown="0" headerRowDxfId="100" headerRowBorderDxfId="99" tableBorderDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:N30" totalsRowShown="0" headerRowDxfId="123" headerRowBorderDxfId="122" tableBorderDxfId="121">
   <autoFilter ref="B10:N30"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="97"/>
-    <tableColumn id="2" name="Task description" dataDxfId="96"/>
-    <tableColumn id="3" name="Type" dataDxfId="95"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="94"/>
-    <tableColumn id="5" name="Status" dataDxfId="93"/>
-    <tableColumn id="8" name="(W)23/5" dataDxfId="92"/>
-    <tableColumn id="9" name="(Th)24/5" dataDxfId="91"/>
-    <tableColumn id="10" name="(Fr)25/5" dataDxfId="90"/>
-    <tableColumn id="11" name="(Sa)26/5" dataDxfId="89"/>
-    <tableColumn id="12" name="(Su)27/5" dataDxfId="88"/>
+    <tableColumn id="1" name="No." dataDxfId="120"/>
+    <tableColumn id="2" name="Task description" dataDxfId="119"/>
+    <tableColumn id="3" name="Type" dataDxfId="118"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="117"/>
+    <tableColumn id="5" name="Status" dataDxfId="116"/>
+    <tableColumn id="8" name="(W)23/5" dataDxfId="115"/>
+    <tableColumn id="9" name="(Th)24/5" dataDxfId="114"/>
+    <tableColumn id="10" name="(Fr)25/5" dataDxfId="113"/>
+    <tableColumn id="11" name="(Sa)26/5" dataDxfId="112"/>
+    <tableColumn id="12" name="(Su)27/5" dataDxfId="111"/>
     <tableColumn id="13" name="(Mo)28/5"/>
-    <tableColumn id="14" name="(Tu)29/5" dataDxfId="87"/>
+    <tableColumn id="14" name="(Tu)29/5" dataDxfId="110"/>
     <tableColumn id="7" name="End Sprint"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6938,122 +8050,152 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:O28" totalsRowShown="0" headerRowDxfId="86" headerRowBorderDxfId="85" tableBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:O28" totalsRowShown="0" headerRowDxfId="109" headerRowBorderDxfId="108" tableBorderDxfId="107">
   <autoFilter ref="B10:O28"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="83"/>
-    <tableColumn id="2" name="Task description" dataDxfId="82"/>
-    <tableColumn id="3" name="Type" dataDxfId="81"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="80"/>
-    <tableColumn id="5" name="Status" dataDxfId="79"/>
-    <tableColumn id="17" name="Percentage" dataDxfId="78"/>
-    <tableColumn id="8" name="(W)30/5" dataDxfId="77"/>
-    <tableColumn id="9" name="(Th)31/5" dataDxfId="76"/>
-    <tableColumn id="10" name="(Fr)1/6" dataDxfId="75"/>
-    <tableColumn id="11" name="(Sa)2/6" dataDxfId="74"/>
-    <tableColumn id="12" name="(Su)3/6" dataDxfId="73"/>
+    <tableColumn id="1" name="No." dataDxfId="106"/>
+    <tableColumn id="2" name="Task description" dataDxfId="105"/>
+    <tableColumn id="3" name="Type" dataDxfId="104"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="103"/>
+    <tableColumn id="5" name="Status" dataDxfId="102"/>
+    <tableColumn id="17" name="Percentage" dataDxfId="101"/>
+    <tableColumn id="8" name="(W)30/5" dataDxfId="100"/>
+    <tableColumn id="9" name="(Th)31/5" dataDxfId="99"/>
+    <tableColumn id="10" name="(Fr)1/6" dataDxfId="98"/>
+    <tableColumn id="11" name="(Sa)2/6" dataDxfId="97"/>
+    <tableColumn id="12" name="(Su)3/6" dataDxfId="96"/>
     <tableColumn id="13" name="(Mo)4/6"/>
-    <tableColumn id="14" name="(Tu)5/6" dataDxfId="72"/>
-    <tableColumn id="7" name="End Sprint" dataDxfId="71"/>
+    <tableColumn id="14" name="(Tu)5/6" dataDxfId="95"/>
+    <tableColumn id="7" name="End Sprint" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B10:N27" totalsRowShown="0" headerRowDxfId="70" headerRowBorderDxfId="69" tableBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B10:N27" totalsRowShown="0" headerRowDxfId="93" headerRowBorderDxfId="92" tableBorderDxfId="91">
   <autoFilter ref="B10:N27"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="67"/>
-    <tableColumn id="2" name="Task description" dataDxfId="66"/>
-    <tableColumn id="3" name="Type" dataDxfId="65"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="64"/>
-    <tableColumn id="5" name="Status" dataDxfId="63"/>
-    <tableColumn id="8" name="(W)06/6" dataDxfId="62"/>
-    <tableColumn id="9" name="(Th)07/6" dataDxfId="61"/>
-    <tableColumn id="10" name="(Fr)08/6" dataDxfId="60"/>
-    <tableColumn id="11" name="(Sa)09/6" dataDxfId="59"/>
-    <tableColumn id="12" name="(Su)10/6" dataDxfId="58"/>
+    <tableColumn id="1" name="No." dataDxfId="90"/>
+    <tableColumn id="2" name="Task description" dataDxfId="89"/>
+    <tableColumn id="3" name="Type" dataDxfId="88"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="87"/>
+    <tableColumn id="5" name="Status" dataDxfId="86"/>
+    <tableColumn id="8" name="(W)06/6" dataDxfId="85"/>
+    <tableColumn id="9" name="(Th)07/6" dataDxfId="84"/>
+    <tableColumn id="10" name="(Fr)08/6" dataDxfId="83"/>
+    <tableColumn id="11" name="(Sa)09/6" dataDxfId="82"/>
+    <tableColumn id="12" name="(Su)10/6" dataDxfId="81"/>
     <tableColumn id="13" name="(Mo)11/6"/>
-    <tableColumn id="14" name="(Tu)12/6" dataDxfId="57"/>
-    <tableColumn id="7" name="End Sprint" dataDxfId="56"/>
+    <tableColumn id="14" name="(Tu)12/6" dataDxfId="80"/>
+    <tableColumn id="7" name="End Sprint" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B10:AA76" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B10:AA76" totalsRowShown="0" headerRowDxfId="78" headerRowBorderDxfId="77" tableBorderDxfId="76">
   <autoFilter ref="B10:AA76"/>
   <tableColumns count="26">
-    <tableColumn id="1" name="No." dataDxfId="52"/>
-    <tableColumn id="2" name="Task description" dataDxfId="51"/>
-    <tableColumn id="3" name="Type" dataDxfId="50"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="49"/>
-    <tableColumn id="5" name="Status" dataDxfId="48"/>
-    <tableColumn id="8" name="25/6" dataDxfId="47"/>
-    <tableColumn id="9" name="26/6" dataDxfId="46"/>
-    <tableColumn id="10" name="27/6" dataDxfId="45"/>
-    <tableColumn id="11" name="28/6" dataDxfId="44"/>
-    <tableColumn id="12" name="29/6" dataDxfId="43"/>
+    <tableColumn id="1" name="No." dataDxfId="75"/>
+    <tableColumn id="2" name="Task description" dataDxfId="74"/>
+    <tableColumn id="3" name="Type" dataDxfId="73"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="72"/>
+    <tableColumn id="5" name="Status" dataDxfId="71"/>
+    <tableColumn id="8" name="25/6" dataDxfId="70"/>
+    <tableColumn id="9" name="26/6" dataDxfId="69"/>
+    <tableColumn id="10" name="27/6" dataDxfId="68"/>
+    <tableColumn id="11" name="28/6" dataDxfId="67"/>
+    <tableColumn id="12" name="29/6" dataDxfId="66"/>
     <tableColumn id="13" name="30/6"/>
-    <tableColumn id="14" name="1/7" dataDxfId="42"/>
-    <tableColumn id="6" name="2/7" dataDxfId="41"/>
-    <tableColumn id="7" name="3/7" dataDxfId="40"/>
-    <tableColumn id="15" name="4/7" dataDxfId="39"/>
-    <tableColumn id="16" name="5/7" dataDxfId="38"/>
-    <tableColumn id="17" name="6/7" dataDxfId="37"/>
-    <tableColumn id="24" name="7/7" dataDxfId="36"/>
-    <tableColumn id="23" name="8/7" dataDxfId="35"/>
-    <tableColumn id="22" name="9/7" dataDxfId="34"/>
-    <tableColumn id="21" name="10/7" dataDxfId="33"/>
-    <tableColumn id="20" name="11/7" dataDxfId="32"/>
-    <tableColumn id="18" name="12/7" dataDxfId="31"/>
-    <tableColumn id="25" name="13/7" dataDxfId="30"/>
-    <tableColumn id="26" name="14/7" dataDxfId="29"/>
-    <tableColumn id="19" name="End" dataDxfId="28"/>
+    <tableColumn id="14" name="1/7" dataDxfId="65"/>
+    <tableColumn id="6" name="2/7" dataDxfId="64"/>
+    <tableColumn id="7" name="3/7" dataDxfId="63"/>
+    <tableColumn id="15" name="4/7" dataDxfId="62"/>
+    <tableColumn id="16" name="5/7" dataDxfId="61"/>
+    <tableColumn id="17" name="6/7" dataDxfId="60"/>
+    <tableColumn id="24" name="7/7" dataDxfId="59"/>
+    <tableColumn id="23" name="8/7" dataDxfId="58"/>
+    <tableColumn id="22" name="9/7" dataDxfId="57"/>
+    <tableColumn id="21" name="10/7" dataDxfId="56"/>
+    <tableColumn id="20" name="11/7" dataDxfId="55"/>
+    <tableColumn id="18" name="12/7" dataDxfId="54"/>
+    <tableColumn id="25" name="13/7" dataDxfId="53"/>
+    <tableColumn id="26" name="14/7" dataDxfId="52"/>
+    <tableColumn id="19" name="End" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B10:N56" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B10:N56" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48">
   <autoFilter ref="B10:N56"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="24"/>
-    <tableColumn id="2" name="Task description" dataDxfId="23"/>
-    <tableColumn id="3" name="Type" dataDxfId="22"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="21"/>
-    <tableColumn id="5" name="Status" dataDxfId="20"/>
-    <tableColumn id="8" name="16/7" dataDxfId="19"/>
-    <tableColumn id="9" name="17/7" dataDxfId="18"/>
-    <tableColumn id="10" name="18/7" dataDxfId="17"/>
-    <tableColumn id="11" name="19/7" dataDxfId="16"/>
-    <tableColumn id="12" name="20/7" dataDxfId="15"/>
+    <tableColumn id="1" name="No." dataDxfId="47"/>
+    <tableColumn id="2" name="Task description" dataDxfId="46"/>
+    <tableColumn id="3" name="Type" dataDxfId="45"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="44"/>
+    <tableColumn id="5" name="Status" dataDxfId="43"/>
+    <tableColumn id="8" name="16/7" dataDxfId="42"/>
+    <tableColumn id="9" name="17/7" dataDxfId="41"/>
+    <tableColumn id="10" name="18/7" dataDxfId="40"/>
+    <tableColumn id="11" name="19/7" dataDxfId="39"/>
+    <tableColumn id="12" name="20/7" dataDxfId="38"/>
     <tableColumn id="13" name="21/7"/>
-    <tableColumn id="14" name="22/7" dataDxfId="14"/>
-    <tableColumn id="19" name="End" dataDxfId="13"/>
+    <tableColumn id="14" name="22/7" dataDxfId="37"/>
+    <tableColumn id="19" name="End" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:L53" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="B10:L53"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="No." dataDxfId="9"/>
-    <tableColumn id="2" name="Task description" dataDxfId="8"/>
-    <tableColumn id="3" name="Type" dataDxfId="7"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="6"/>
-    <tableColumn id="5" name="Status" dataDxfId="5"/>
-    <tableColumn id="8" name="08/05" dataDxfId="4"/>
-    <tableColumn id="9" name="09/05" dataDxfId="3"/>
-    <tableColumn id="10" name="10/05" dataDxfId="2"/>
-    <tableColumn id="11" name="11/05" dataDxfId="1"/>
-    <tableColumn id="12" name="12/05" dataDxfId="0"/>
-    <tableColumn id="13" name="End"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+  <autoFilter ref="B10:M54">
+    <filterColumn colId="5"/>
+  </autoFilter>
+  <tableColumns count="12">
+    <tableColumn id="1" name="No." dataDxfId="32"/>
+    <tableColumn id="2" name="Task description" dataDxfId="31"/>
+    <tableColumn id="3" name="Type" dataDxfId="30"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="29"/>
+    <tableColumn id="5" name="Status" dataDxfId="28"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="19"/>
+    <tableColumn id="8" name="08/05" dataDxfId="27"/>
+    <tableColumn id="9" name="09/05" dataDxfId="26"/>
+    <tableColumn id="10" name="10/05" dataDxfId="25"/>
+    <tableColumn id="11" name="11/05" dataDxfId="24"/>
+    <tableColumn id="12" name="12/05" dataDxfId="23"/>
+    <tableColumn id="13" name="End" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+  <autoFilter ref="B10:O54">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="18"/>
+    <tableColumn id="2" name="Task description" dataDxfId="17"/>
+    <tableColumn id="3" name="Type" dataDxfId="16"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="15"/>
+    <tableColumn id="5" name="Status" dataDxfId="14"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="13"/>
+    <tableColumn id="8" name="13/05" dataDxfId="12"/>
+    <tableColumn id="9" name="14/05" dataDxfId="11"/>
+    <tableColumn id="10" name="15/05" dataDxfId="10"/>
+    <tableColumn id="11" name="16/05" dataDxfId="9"/>
+    <tableColumn id="12" name="17/05" dataDxfId="8"/>
+    <tableColumn id="13" name="18/05" dataDxfId="7"/>
+    <tableColumn id="14" name="19/05" dataDxfId="1"/>
+    <tableColumn id="15" name="End" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7434,7 +8576,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="C14" s="276">
+      <c r="C14" s="274">
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -7445,7 +8587,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="C15" s="277"/>
+      <c r="C15" s="275"/>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
@@ -7453,28 +8595,28 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="C16" s="277"/>
+      <c r="C16" s="275"/>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="277"/>
+      <c r="C17" s="275"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="278"/>
+      <c r="C18" s="281"/>
       <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="281">
+      <c r="C19" s="288">
         <v>3</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -7485,7 +8627,7 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="282"/>
+      <c r="C20" s="289"/>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
@@ -7495,7 +8637,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="282"/>
+      <c r="C21" s="289"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -7505,42 +8647,42 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="282"/>
+      <c r="C22" s="289"/>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="282"/>
+      <c r="C23" s="289"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="282"/>
+      <c r="C24" s="289"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="282"/>
+      <c r="C25" s="289"/>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="283"/>
+      <c r="C26" s="290"/>
       <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="53"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="276">
+      <c r="C27" s="274">
         <v>4</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -7551,56 +8693,56 @@
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="277"/>
+      <c r="C28" s="275"/>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="277"/>
+      <c r="C29" s="275"/>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="277"/>
+      <c r="C30" s="275"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="277"/>
+      <c r="C31" s="275"/>
       <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="277"/>
+      <c r="C32" s="275"/>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="C33" s="277"/>
+      <c r="C33" s="275"/>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="C34" s="278"/>
+      <c r="C34" s="281"/>
       <c r="D34" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="273">
+      <c r="C35" s="280">
         <v>5</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -7611,14 +8753,14 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="274"/>
+      <c r="C36" s="278"/>
       <c r="D36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="274"/>
+      <c r="C37" s="278"/>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
@@ -7626,14 +8768,14 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="275"/>
+      <c r="C38" s="285"/>
       <c r="D38" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="49"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="276">
+      <c r="C39" s="274">
         <v>6</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -7644,21 +8786,21 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="277"/>
+      <c r="C40" s="275"/>
       <c r="D40" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="278"/>
+      <c r="C41" s="281"/>
       <c r="D41" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="279" t="s">
+      <c r="C42" s="286" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -7669,7 +8811,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="C43" s="280"/>
+      <c r="C43" s="287"/>
       <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
@@ -7709,10 +8851,10 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="C52" s="286" t="s">
+      <c r="C52" s="284" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="286"/>
+      <c r="D52" s="284"/>
       <c r="E52" s="42"/>
     </row>
     <row r="53" spans="2:5">
@@ -7734,10 +8876,10 @@
       <c r="E54" s="40"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="C55" s="284" t="s">
+      <c r="C55" s="282" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="285"/>
+      <c r="D55" s="283"/>
       <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5">
@@ -7759,10 +8901,10 @@
       <c r="E57" s="40"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="C58" s="284" t="s">
+      <c r="C58" s="282" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="285"/>
+      <c r="D58" s="283"/>
       <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5">
@@ -7775,7 +8917,7 @@
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="C60" s="277">
+      <c r="C60" s="275">
         <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
@@ -7784,70 +8926,70 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="C61" s="277"/>
+      <c r="C61" s="275"/>
       <c r="D61" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="C62" s="277"/>
+      <c r="C62" s="275"/>
       <c r="D62" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="C63" s="277"/>
+      <c r="C63" s="275"/>
       <c r="D63" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="C64" s="277"/>
+      <c r="C64" s="275"/>
       <c r="D64" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="277"/>
+      <c r="C65" s="275"/>
       <c r="D65" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="277"/>
+      <c r="C66" s="275"/>
       <c r="D66" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="18"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="277"/>
+      <c r="C67" s="275"/>
       <c r="D67" s="32" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="277"/>
+      <c r="C68" s="275"/>
       <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="278"/>
+      <c r="C69" s="281"/>
       <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="18"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="273">
+      <c r="C70" s="280">
         <v>2</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -7856,35 +8998,35 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="274"/>
+      <c r="C71" s="278"/>
       <c r="D71" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="3:5">
-      <c r="C72" s="274"/>
+      <c r="C72" s="278"/>
       <c r="D72" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="274"/>
+      <c r="C73" s="278"/>
       <c r="D73" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="274"/>
+      <c r="C74" s="278"/>
       <c r="D74" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="49"/>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="276">
+      <c r="C75" s="274">
         <v>3</v>
       </c>
       <c r="D75" s="44" t="s">
@@ -7893,42 +9035,42 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="277"/>
+      <c r="C76" s="275"/>
       <c r="D76" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="277"/>
+      <c r="C77" s="275"/>
       <c r="D77" s="33" t="s">
         <v>72</v>
       </c>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="277"/>
+      <c r="C78" s="275"/>
       <c r="D78" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E78" s="18"/>
     </row>
     <row r="79" spans="3:5">
-      <c r="C79" s="277"/>
+      <c r="C79" s="275"/>
       <c r="D79" s="33" t="s">
         <v>74</v>
       </c>
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C80" s="287"/>
+      <c r="C80" s="276"/>
       <c r="D80" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="3:5">
-      <c r="C81" s="288">
+      <c r="C81" s="277">
         <v>4</v>
       </c>
       <c r="D81" s="57" t="s">
@@ -7937,63 +9079,63 @@
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="274"/>
+      <c r="C82" s="278"/>
       <c r="D82" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E82" s="48"/>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="274"/>
+      <c r="C83" s="278"/>
       <c r="D83" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="3:5">
-      <c r="C84" s="274"/>
+      <c r="C84" s="278"/>
       <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="48"/>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="274"/>
+      <c r="C85" s="278"/>
       <c r="D85" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="48"/>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="274"/>
+      <c r="C86" s="278"/>
       <c r="D86" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="48"/>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="274"/>
+      <c r="C87" s="278"/>
       <c r="D87" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="274"/>
+      <c r="C88" s="278"/>
       <c r="D88" s="34" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="48"/>
     </row>
     <row r="89" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C89" s="289"/>
+      <c r="C89" s="279"/>
       <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="3:5">
-      <c r="C90" s="276">
+      <c r="C90" s="274">
         <v>5</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -8002,28 +9144,28 @@
       <c r="E90" s="18"/>
     </row>
     <row r="91" spans="3:5">
-      <c r="C91" s="277"/>
+      <c r="C91" s="275"/>
       <c r="D91" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="3:5">
-      <c r="C92" s="277"/>
+      <c r="C92" s="275"/>
       <c r="D92" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="3:5">
-      <c r="C93" s="277"/>
+      <c r="C93" s="275"/>
       <c r="D93" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="3:5">
-      <c r="C94" s="273">
+      <c r="C94" s="280">
         <v>6</v>
       </c>
       <c r="D94" s="57" t="s">
@@ -8032,21 +9174,21 @@
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="274"/>
+      <c r="C95" s="278"/>
       <c r="D95" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="274"/>
+      <c r="C96" s="278"/>
       <c r="D96" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="48"/>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="276">
+      <c r="C97" s="274">
         <v>7</v>
       </c>
       <c r="D97" s="44" t="s">
@@ -8055,35 +9197,35 @@
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="277"/>
+      <c r="C98" s="275"/>
       <c r="D98" s="32" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="18"/>
     </row>
     <row r="99" spans="3:5">
-      <c r="C99" s="277"/>
+      <c r="C99" s="275"/>
       <c r="D99" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="18"/>
     </row>
     <row r="100" spans="3:5">
-      <c r="C100" s="277"/>
+      <c r="C100" s="275"/>
       <c r="D100" s="32" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="18"/>
     </row>
     <row r="101" spans="3:5">
-      <c r="C101" s="278"/>
+      <c r="C101" s="281"/>
       <c r="D101" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="18"/>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="273">
+      <c r="C102" s="280">
         <v>8</v>
       </c>
       <c r="D102" s="57" t="s">
@@ -8092,21 +9234,21 @@
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="3:5">
-      <c r="C103" s="274"/>
+      <c r="C103" s="278"/>
       <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="3:5">
-      <c r="C104" s="274"/>
+      <c r="C104" s="278"/>
       <c r="D104" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="48"/>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="276" t="s">
+      <c r="C105" s="274" t="s">
         <v>99</v>
       </c>
       <c r="D105" s="58" t="s">
@@ -8117,12 +9259,23 @@
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="277"/>
+      <c r="C106" s="275"/>
       <c r="D106" s="38"/>
       <c r="E106" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C75:C80"/>
     <mergeCell ref="C81:C89"/>
@@ -8130,17 +9283,6 @@
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C27:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
@@ -10674,12 +11816,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:27" ht="18">
-      <c r="B7" s="290" t="s">
+      <c r="B7" s="291" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="290"/>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
     </row>
     <row r="10" spans="2:27" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -14855,12 +15997,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:14" ht="18">
-      <c r="B7" s="290" t="s">
+      <c r="B7" s="291" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="290"/>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
     </row>
     <row r="10" spans="2:14" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -16435,10 +17577,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:N117"/>
+  <dimension ref="B2:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16448,819 +17590,979 @@
     <col min="3" max="3" width="45.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="97" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="97" customWidth="1"/>
-    <col min="7" max="14" width="9.7109375" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" style="97" customWidth="1"/>
+    <col min="8" max="15" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18">
+    <row r="2" spans="2:13" ht="18">
       <c r="B2" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="156"/>
     </row>
-    <row r="3" spans="2:12" ht="18">
+    <row r="3" spans="2:13" ht="18">
       <c r="B3" s="13"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:13">
       <c r="C4" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="C5" s="14" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
-      <c r="C5" s="14" t="s">
+    <row r="6" spans="2:13">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="2:13" ht="18">
+      <c r="B7" s="291" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+    </row>
+    <row r="10" spans="2:13" s="107" customFormat="1" ht="12" customHeight="1">
+      <c r="B10" s="293" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="294" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="294" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="294" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="294" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="328" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="295" t="s">
+        <v>322</v>
+      </c>
+      <c r="I10" s="295" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="2:12" ht="18">
-      <c r="B7" s="290" t="s">
-        <v>319</v>
-      </c>
-      <c r="C7" s="290"/>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
-    </row>
-    <row r="10" spans="2:12" s="107" customFormat="1" ht="12" customHeight="1">
-      <c r="B10" s="117" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="117" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="118" t="s">
+      <c r="J10" s="294" t="s">
+        <v>323</v>
+      </c>
+      <c r="K10" s="294" t="s">
+        <v>324</v>
+      </c>
+      <c r="L10" s="294" t="s">
+        <v>325</v>
+      </c>
+      <c r="M10" s="308" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="309">
+        <v>1</v>
+      </c>
+      <c r="C11" s="310" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="311" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="312"/>
+      <c r="F11" s="313"/>
+      <c r="G11" s="313"/>
+      <c r="H11" s="311"/>
+      <c r="I11" s="311"/>
+      <c r="J11" s="311"/>
+      <c r="K11" s="311"/>
+      <c r="L11" s="311"/>
+      <c r="M11" s="314"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="315">
+        <v>2</v>
+      </c>
+      <c r="C12" s="316" t="s">
+        <v>330</v>
+      </c>
+      <c r="D12" s="311" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="312" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" s="313" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="313">
+        <v>3</v>
+      </c>
+      <c r="H12" s="311">
+        <v>3</v>
+      </c>
+      <c r="I12" s="317">
+        <v>3</v>
+      </c>
+      <c r="J12" s="317">
+        <v>2</v>
+      </c>
+      <c r="K12" s="317">
+        <v>1</v>
+      </c>
+      <c r="L12" s="317">
+        <v>0</v>
+      </c>
+      <c r="M12" s="318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="309">
+        <v>3</v>
+      </c>
+      <c r="C13" s="316" t="s">
+        <v>331</v>
+      </c>
+      <c r="D13" s="311" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="312" t="s">
+        <v>328</v>
+      </c>
+      <c r="F13" s="313" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="313">
+        <v>3</v>
+      </c>
+      <c r="H13" s="311">
+        <v>3</v>
+      </c>
+      <c r="I13" s="317">
+        <v>3</v>
+      </c>
+      <c r="J13" s="317">
+        <v>3</v>
+      </c>
+      <c r="K13" s="317">
+        <v>2</v>
+      </c>
+      <c r="L13" s="317">
+        <v>1</v>
+      </c>
+      <c r="M13" s="318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="315">
+        <v>4</v>
+      </c>
+      <c r="C14" s="316" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" s="311" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="312" t="s">
+        <v>328</v>
+      </c>
+      <c r="F14" s="313" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="313">
+        <v>3</v>
+      </c>
+      <c r="H14" s="311">
+        <v>3</v>
+      </c>
+      <c r="I14" s="317">
+        <v>3</v>
+      </c>
+      <c r="J14" s="317">
+        <v>3</v>
+      </c>
+      <c r="K14" s="317">
+        <v>2</v>
+      </c>
+      <c r="L14" s="317">
+        <v>1</v>
+      </c>
+      <c r="M14" s="318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="309">
+        <v>5</v>
+      </c>
+      <c r="C15" s="310" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" s="311" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="312"/>
+      <c r="F15" s="313"/>
+      <c r="G15" s="313"/>
+      <c r="H15" s="311"/>
+      <c r="I15" s="317"/>
+      <c r="J15" s="317"/>
+      <c r="K15" s="317"/>
+      <c r="L15" s="311"/>
+      <c r="M15" s="314"/>
+    </row>
+    <row r="16" spans="2:13" s="197" customFormat="1">
+      <c r="B16" s="315">
+        <v>6</v>
+      </c>
+      <c r="C16" s="316" t="s">
+        <v>334</v>
+      </c>
+      <c r="D16" s="311" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="312" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" s="313" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="313">
+        <v>3</v>
+      </c>
+      <c r="H16" s="311">
+        <v>3</v>
+      </c>
+      <c r="I16" s="317">
+        <v>3</v>
+      </c>
+      <c r="J16" s="317">
+        <v>3</v>
+      </c>
+      <c r="K16" s="317">
+        <v>2</v>
+      </c>
+      <c r="L16" s="317">
+        <v>1</v>
+      </c>
+      <c r="M16" s="318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" s="197" customFormat="1">
+      <c r="B17" s="309">
+        <v>7</v>
+      </c>
+      <c r="C17" s="316" t="s">
+        <v>335</v>
+      </c>
+      <c r="D17" s="311" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="312" t="s">
+        <v>326</v>
+      </c>
+      <c r="F17" s="313" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="313">
+        <v>4</v>
+      </c>
+      <c r="H17" s="311">
+        <v>3</v>
+      </c>
+      <c r="I17" s="317">
+        <v>2</v>
+      </c>
+      <c r="J17" s="317">
+        <v>1</v>
+      </c>
+      <c r="K17" s="317">
+        <v>0</v>
+      </c>
+      <c r="L17" s="317">
+        <v>0</v>
+      </c>
+      <c r="M17" s="318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" s="197" customFormat="1">
+      <c r="B18" s="315">
+        <v>8</v>
+      </c>
+      <c r="C18" s="316" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="311" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="312" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" s="313" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="313">
+        <v>2</v>
+      </c>
+      <c r="H18" s="311">
+        <v>2</v>
+      </c>
+      <c r="I18" s="317">
+        <v>2</v>
+      </c>
+      <c r="J18" s="317">
+        <v>2</v>
+      </c>
+      <c r="K18" s="317">
+        <v>2</v>
+      </c>
+      <c r="L18" s="317">
+        <v>1</v>
+      </c>
+      <c r="M18" s="318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" s="197" customFormat="1">
+      <c r="B19" s="309">
+        <v>9</v>
+      </c>
+      <c r="C19" s="310" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" s="311" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="312"/>
+      <c r="F19" s="313"/>
+      <c r="G19" s="313"/>
+      <c r="H19" s="311"/>
+      <c r="I19" s="317"/>
+      <c r="J19" s="317"/>
+      <c r="K19" s="311"/>
+      <c r="L19" s="301"/>
+      <c r="M19" s="302"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="315">
+        <v>10</v>
+      </c>
+      <c r="C20" s="316" t="s">
+        <v>337</v>
+      </c>
+      <c r="D20" s="311" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="312" t="s">
+        <v>327</v>
+      </c>
+      <c r="F20" s="313" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="313">
+        <v>4</v>
+      </c>
+      <c r="H20" s="303">
+        <v>4</v>
+      </c>
+      <c r="I20" s="311">
+        <v>4</v>
+      </c>
+      <c r="J20" s="311">
+        <v>2</v>
+      </c>
+      <c r="K20" s="311">
+        <v>2</v>
+      </c>
+      <c r="L20" s="311">
+        <v>0</v>
+      </c>
+      <c r="M20" s="314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="309">
+        <v>11</v>
+      </c>
+      <c r="C21" s="316" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="311" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="312" t="s">
+        <v>327</v>
+      </c>
+      <c r="F21" s="313" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="313">
+        <v>4</v>
+      </c>
+      <c r="H21" s="311">
+        <v>4</v>
+      </c>
+      <c r="I21" s="311">
+        <v>4</v>
+      </c>
+      <c r="J21" s="311">
+        <v>3</v>
+      </c>
+      <c r="K21" s="311">
+        <v>3</v>
+      </c>
+      <c r="L21" s="311">
+        <v>1</v>
+      </c>
+      <c r="M21" s="314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="315">
+        <v>12</v>
+      </c>
+      <c r="C22" s="316"/>
+      <c r="D22" s="311"/>
+      <c r="E22" s="312"/>
+      <c r="F22" s="313"/>
+      <c r="G22" s="313"/>
+      <c r="H22" s="311"/>
+      <c r="I22" s="311"/>
+      <c r="J22" s="311"/>
+      <c r="K22" s="311"/>
+      <c r="L22" s="311"/>
+      <c r="M22" s="314"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="309">
+        <v>13</v>
+      </c>
+      <c r="C23" s="316"/>
+      <c r="D23" s="311"/>
+      <c r="E23" s="312"/>
+      <c r="F23" s="313"/>
+      <c r="G23" s="313"/>
+      <c r="H23" s="311"/>
+      <c r="I23" s="311"/>
+      <c r="J23" s="311"/>
+      <c r="K23" s="311"/>
+      <c r="L23" s="311"/>
+      <c r="M23" s="314"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="315">
+        <v>14</v>
+      </c>
+      <c r="C24" s="316"/>
+      <c r="D24" s="311"/>
+      <c r="E24" s="312"/>
+      <c r="F24" s="313"/>
+      <c r="G24" s="313"/>
+      <c r="H24" s="311"/>
+      <c r="I24" s="317"/>
+      <c r="J24" s="317"/>
+      <c r="K24" s="317"/>
+      <c r="L24" s="317"/>
+      <c r="M24" s="318"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="309">
+        <v>15</v>
+      </c>
+      <c r="C25" s="316"/>
+      <c r="D25" s="311"/>
+      <c r="E25" s="312"/>
+      <c r="F25" s="313"/>
+      <c r="G25" s="313"/>
+      <c r="H25" s="311"/>
+      <c r="I25" s="317"/>
+      <c r="J25" s="317"/>
+      <c r="K25" s="317"/>
+      <c r="L25" s="317"/>
+      <c r="M25" s="318"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="315">
+        <v>16</v>
+      </c>
+      <c r="C26" s="316"/>
+      <c r="D26" s="311"/>
+      <c r="E26" s="312"/>
+      <c r="F26" s="313"/>
+      <c r="G26" s="313"/>
+      <c r="H26" s="311"/>
+      <c r="I26" s="317"/>
+      <c r="J26" s="317"/>
+      <c r="K26" s="317"/>
+      <c r="L26" s="317"/>
+      <c r="M26" s="318"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="309">
+        <v>17</v>
+      </c>
+      <c r="C27" s="316"/>
+      <c r="D27" s="311"/>
+      <c r="E27" s="312"/>
+      <c r="F27" s="313"/>
+      <c r="G27" s="313"/>
+      <c r="H27" s="311"/>
+      <c r="I27" s="317"/>
+      <c r="J27" s="317"/>
+      <c r="K27" s="317"/>
+      <c r="L27" s="317"/>
+      <c r="M27" s="318"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="315">
+        <v>18</v>
+      </c>
+      <c r="C28" s="316"/>
+      <c r="D28" s="311"/>
+      <c r="E28" s="312"/>
+      <c r="F28" s="313"/>
+      <c r="G28" s="313"/>
+      <c r="H28" s="311"/>
+      <c r="I28" s="317"/>
+      <c r="J28" s="317"/>
+      <c r="K28" s="317"/>
+      <c r="L28" s="317"/>
+      <c r="M28" s="318"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="309">
+        <v>19</v>
+      </c>
+      <c r="C29" s="304"/>
+      <c r="D29" s="301"/>
+      <c r="E29" s="305"/>
+      <c r="F29" s="306"/>
+      <c r="G29" s="306"/>
+      <c r="H29" s="301"/>
+      <c r="I29" s="301"/>
+      <c r="J29" s="301"/>
+      <c r="K29" s="301"/>
+      <c r="L29" s="301"/>
+      <c r="M29" s="302"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="315">
+        <v>20</v>
+      </c>
+      <c r="C30" s="319"/>
+      <c r="D30" s="311"/>
+      <c r="E30" s="312"/>
+      <c r="F30" s="313"/>
+      <c r="G30" s="313"/>
+      <c r="H30" s="311"/>
+      <c r="I30" s="311"/>
+      <c r="J30" s="311"/>
+      <c r="K30" s="311"/>
+      <c r="L30" s="311"/>
+      <c r="M30" s="314"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="309">
+        <v>21</v>
+      </c>
+      <c r="C31" s="304"/>
+      <c r="D31" s="301"/>
+      <c r="E31" s="305"/>
+      <c r="F31" s="306"/>
+      <c r="G31" s="306"/>
+      <c r="H31" s="301"/>
+      <c r="I31" s="301"/>
+      <c r="J31" s="301"/>
+      <c r="K31" s="301"/>
+      <c r="L31" s="301"/>
+      <c r="M31" s="302"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="315">
+        <v>22</v>
+      </c>
+      <c r="C32" s="316"/>
+      <c r="D32" s="311"/>
+      <c r="E32" s="312"/>
+      <c r="F32" s="313"/>
+      <c r="G32" s="313"/>
+      <c r="H32" s="311"/>
+      <c r="I32" s="311"/>
+      <c r="J32" s="311"/>
+      <c r="K32" s="311"/>
+      <c r="L32" s="311"/>
+      <c r="M32" s="314"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="309">
+        <v>23</v>
+      </c>
+      <c r="C33" s="304"/>
+      <c r="D33" s="301"/>
+      <c r="E33" s="305"/>
+      <c r="F33" s="306"/>
+      <c r="G33" s="306"/>
+      <c r="H33" s="301"/>
+      <c r="I33" s="301"/>
+      <c r="J33" s="301"/>
+      <c r="K33" s="301"/>
+      <c r="L33" s="301"/>
+      <c r="M33" s="302"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="315">
+        <v>24</v>
+      </c>
+      <c r="C34" s="304"/>
+      <c r="D34" s="301"/>
+      <c r="E34" s="305"/>
+      <c r="F34" s="306"/>
+      <c r="G34" s="306"/>
+      <c r="H34" s="301"/>
+      <c r="I34" s="301"/>
+      <c r="J34" s="301"/>
+      <c r="K34" s="301"/>
+      <c r="L34" s="301"/>
+      <c r="M34" s="302"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="309">
+        <v>25</v>
+      </c>
+      <c r="C35" s="319"/>
+      <c r="D35" s="311"/>
+      <c r="E35" s="312"/>
+      <c r="F35" s="313"/>
+      <c r="G35" s="313"/>
+      <c r="H35" s="311"/>
+      <c r="I35" s="311"/>
+      <c r="J35" s="311"/>
+      <c r="K35" s="311"/>
+      <c r="L35" s="311"/>
+      <c r="M35" s="314"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="315">
+        <v>26</v>
+      </c>
+      <c r="C36" s="312"/>
+      <c r="D36" s="311"/>
+      <c r="E36" s="312"/>
+      <c r="F36" s="313"/>
+      <c r="G36" s="313"/>
+      <c r="H36" s="311"/>
+      <c r="I36" s="311"/>
+      <c r="J36" s="311"/>
+      <c r="K36" s="311"/>
+      <c r="L36" s="311"/>
+      <c r="M36" s="314"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="309">
+        <v>27</v>
+      </c>
+      <c r="C37" s="312"/>
+      <c r="D37" s="311"/>
+      <c r="E37" s="312"/>
+      <c r="F37" s="313"/>
+      <c r="G37" s="313"/>
+      <c r="H37" s="311"/>
+      <c r="I37" s="311"/>
+      <c r="J37" s="311"/>
+      <c r="K37" s="311"/>
+      <c r="L37" s="311"/>
+      <c r="M37" s="314"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="315">
+        <v>28</v>
+      </c>
+      <c r="C38" s="312"/>
+      <c r="D38" s="311"/>
+      <c r="E38" s="312"/>
+      <c r="F38" s="313"/>
+      <c r="G38" s="313"/>
+      <c r="H38" s="311"/>
+      <c r="I38" s="311"/>
+      <c r="J38" s="311"/>
+      <c r="K38" s="311"/>
+      <c r="L38" s="311"/>
+      <c r="M38" s="314"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="309">
+        <v>29</v>
+      </c>
+      <c r="C39" s="319"/>
+      <c r="D39" s="311"/>
+      <c r="E39" s="312"/>
+      <c r="F39" s="313"/>
+      <c r="G39" s="313"/>
+      <c r="H39" s="311"/>
+      <c r="I39" s="311"/>
+      <c r="J39" s="311"/>
+      <c r="K39" s="311"/>
+      <c r="L39" s="311"/>
+      <c r="M39" s="314"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="315">
+        <v>30</v>
+      </c>
+      <c r="C40" s="319"/>
+      <c r="D40" s="311"/>
+      <c r="E40" s="312"/>
+      <c r="F40" s="313"/>
+      <c r="G40" s="313"/>
+      <c r="H40" s="311"/>
+      <c r="I40" s="311"/>
+      <c r="J40" s="311"/>
+      <c r="K40" s="311"/>
+      <c r="L40" s="311"/>
+      <c r="M40" s="314"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="309">
+        <v>31</v>
+      </c>
+      <c r="C41" s="319"/>
+      <c r="D41" s="311"/>
+      <c r="E41" s="312"/>
+      <c r="F41" s="313"/>
+      <c r="G41" s="313"/>
+      <c r="H41" s="311"/>
+      <c r="I41" s="311"/>
+      <c r="J41" s="311"/>
+      <c r="K41" s="311"/>
+      <c r="L41" s="311"/>
+      <c r="M41" s="314"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="315">
+        <v>32</v>
+      </c>
+      <c r="C42" s="319"/>
+      <c r="D42" s="311"/>
+      <c r="E42" s="312"/>
+      <c r="F42" s="313"/>
+      <c r="G42" s="313"/>
+      <c r="H42" s="311"/>
+      <c r="I42" s="311"/>
+      <c r="J42" s="311"/>
+      <c r="K42" s="311"/>
+      <c r="L42" s="311"/>
+      <c r="M42" s="314"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="309">
+        <v>33</v>
+      </c>
+      <c r="C43" s="319"/>
+      <c r="D43" s="311"/>
+      <c r="E43" s="312"/>
+      <c r="F43" s="313"/>
+      <c r="G43" s="313"/>
+      <c r="H43" s="311"/>
+      <c r="I43" s="311"/>
+      <c r="J43" s="311"/>
+      <c r="K43" s="311"/>
+      <c r="L43" s="311"/>
+      <c r="M43" s="314"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="315">
+        <v>34</v>
+      </c>
+      <c r="C44" s="316"/>
+      <c r="D44" s="311"/>
+      <c r="E44" s="312"/>
+      <c r="F44" s="313"/>
+      <c r="G44" s="313"/>
+      <c r="H44" s="311"/>
+      <c r="I44" s="311"/>
+      <c r="J44" s="311"/>
+      <c r="K44" s="311"/>
+      <c r="L44" s="311"/>
+      <c r="M44" s="314"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="309">
+        <v>35</v>
+      </c>
+      <c r="C45" s="319"/>
+      <c r="D45" s="311"/>
+      <c r="E45" s="312"/>
+      <c r="F45" s="313"/>
+      <c r="G45" s="313"/>
+      <c r="H45" s="311"/>
+      <c r="I45" s="311"/>
+      <c r="J45" s="311"/>
+      <c r="K45" s="311"/>
+      <c r="L45" s="311"/>
+      <c r="M45" s="314"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="315">
+        <v>36</v>
+      </c>
+      <c r="C46" s="319"/>
+      <c r="D46" s="311"/>
+      <c r="E46" s="312"/>
+      <c r="F46" s="313"/>
+      <c r="G46" s="313"/>
+      <c r="H46" s="311"/>
+      <c r="I46" s="311"/>
+      <c r="J46" s="311"/>
+      <c r="K46" s="311"/>
+      <c r="L46" s="311"/>
+      <c r="M46" s="314"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="309">
+        <v>37</v>
+      </c>
+      <c r="C47" s="319"/>
+      <c r="D47" s="311"/>
+      <c r="E47" s="312"/>
+      <c r="F47" s="313"/>
+      <c r="G47" s="313"/>
+      <c r="H47" s="311"/>
+      <c r="I47" s="311"/>
+      <c r="J47" s="311"/>
+      <c r="K47" s="311"/>
+      <c r="L47" s="311"/>
+      <c r="M47" s="314"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="315">
+        <v>38</v>
+      </c>
+      <c r="C48" s="319"/>
+      <c r="D48" s="311"/>
+      <c r="E48" s="312"/>
+      <c r="F48" s="313"/>
+      <c r="G48" s="313"/>
+      <c r="H48" s="311"/>
+      <c r="I48" s="311"/>
+      <c r="J48" s="311"/>
+      <c r="K48" s="311"/>
+      <c r="L48" s="311"/>
+      <c r="M48" s="314"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="309">
+        <v>39</v>
+      </c>
+      <c r="C49" s="316"/>
+      <c r="D49" s="307"/>
+      <c r="E49" s="312"/>
+      <c r="F49" s="313"/>
+      <c r="G49" s="313"/>
+      <c r="H49" s="311"/>
+      <c r="I49" s="311"/>
+      <c r="J49" s="311"/>
+      <c r="K49" s="311"/>
+      <c r="L49" s="311"/>
+      <c r="M49" s="314"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="315">
+        <v>40</v>
+      </c>
+      <c r="C50" s="316"/>
+      <c r="D50" s="307"/>
+      <c r="E50" s="312"/>
+      <c r="F50" s="313"/>
+      <c r="G50" s="313"/>
+      <c r="H50" s="311"/>
+      <c r="I50" s="311"/>
+      <c r="J50" s="311"/>
+      <c r="K50" s="311"/>
+      <c r="L50" s="311"/>
+      <c r="M50" s="314"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="309">
+        <v>41</v>
+      </c>
+      <c r="C51" s="316"/>
+      <c r="D51" s="307"/>
+      <c r="E51" s="312"/>
+      <c r="F51" s="313"/>
+      <c r="G51" s="313"/>
+      <c r="H51" s="311"/>
+      <c r="I51" s="311"/>
+      <c r="J51" s="311"/>
+      <c r="K51" s="311"/>
+      <c r="L51" s="311"/>
+      <c r="M51" s="314"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="315">
+        <v>42</v>
+      </c>
+      <c r="C52" s="316"/>
+      <c r="D52" s="307"/>
+      <c r="E52" s="312"/>
+      <c r="F52" s="313"/>
+      <c r="G52" s="313"/>
+      <c r="H52" s="311"/>
+      <c r="I52" s="311"/>
+      <c r="J52" s="311"/>
+      <c r="K52" s="311"/>
+      <c r="L52" s="311"/>
+      <c r="M52" s="314"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="309">
+        <v>43</v>
+      </c>
+      <c r="C53" s="320"/>
+      <c r="D53" s="311"/>
+      <c r="E53" s="312"/>
+      <c r="F53" s="313"/>
+      <c r="G53" s="313"/>
+      <c r="H53" s="313"/>
+      <c r="I53" s="313"/>
+      <c r="J53" s="313"/>
+      <c r="K53" s="313"/>
+      <c r="L53" s="313"/>
+      <c r="M53" s="321"/>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="322" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="323"/>
+      <c r="D54" s="324"/>
+      <c r="E54" s="325"/>
+      <c r="F54" s="326"/>
+      <c r="G54" s="326"/>
+      <c r="H54" s="326"/>
+      <c r="I54" s="326"/>
+      <c r="J54" s="326"/>
+      <c r="K54" s="326"/>
+      <c r="L54" s="326"/>
+      <c r="M54" s="327"/>
+    </row>
+    <row r="101" spans="2:15" s="97" customFormat="1">
+      <c r="B101" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="118" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="119" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="292" t="s">
-        <v>323</v>
-      </c>
-      <c r="H10" s="292" t="s">
-        <v>322</v>
-      </c>
-      <c r="I10" s="293" t="s">
-        <v>324</v>
-      </c>
-      <c r="J10" s="293" t="s">
-        <v>325</v>
-      </c>
-      <c r="K10" s="293" t="s">
-        <v>326</v>
-      </c>
-      <c r="L10" s="294" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="121">
-        <v>1</v>
-      </c>
-      <c r="C11" s="99" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="126" t="s">
-        <v>329</v>
-      </c>
-      <c r="F11" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="182">
-        <v>2</v>
-      </c>
-      <c r="C12" s="135" t="s">
-        <v>331</v>
-      </c>
-      <c r="D12" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="126" t="s">
-        <v>329</v>
-      </c>
-      <c r="F12" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="G12" s="134"/>
-      <c r="H12" s="272"/>
-      <c r="I12" s="272"/>
-      <c r="J12" s="272"/>
-      <c r="K12" s="272"/>
-      <c r="L12" s="272"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="121">
-        <v>3</v>
-      </c>
-      <c r="C13" s="135" t="s">
-        <v>332</v>
-      </c>
-      <c r="D13" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="126" t="s">
-        <v>329</v>
-      </c>
-      <c r="F13" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="G13" s="134"/>
-      <c r="H13" s="272"/>
-      <c r="I13" s="272"/>
-      <c r="J13" s="272"/>
-      <c r="K13" s="272"/>
-      <c r="L13" s="272"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="182">
-        <v>4</v>
-      </c>
-      <c r="C14" s="135" t="s">
-        <v>333</v>
-      </c>
-      <c r="D14" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="126" t="s">
-        <v>329</v>
-      </c>
-      <c r="F14" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="G14" s="134"/>
-      <c r="H14" s="272"/>
-      <c r="I14" s="272"/>
-      <c r="J14" s="272"/>
-      <c r="K14" s="272"/>
-      <c r="L14" s="272"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="121">
-        <v>5</v>
-      </c>
-      <c r="C15" s="295" t="s">
-        <v>334</v>
-      </c>
-      <c r="D15" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="126" t="s">
-        <v>327</v>
-      </c>
-      <c r="F15" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="G15" s="134"/>
-      <c r="H15" s="272"/>
-      <c r="I15" s="272"/>
-      <c r="J15" s="272"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-    </row>
-    <row r="16" spans="2:12" s="197" customFormat="1">
-      <c r="B16" s="182">
-        <v>6</v>
-      </c>
-      <c r="C16" s="135" t="s">
-        <v>335</v>
-      </c>
-      <c r="D16" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="126" t="s">
-        <v>327</v>
-      </c>
-      <c r="F16" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="G16" s="134"/>
-      <c r="H16" s="272"/>
-      <c r="I16" s="272"/>
-      <c r="J16" s="272"/>
-      <c r="K16" s="272"/>
-      <c r="L16" s="272"/>
-    </row>
-    <row r="17" spans="2:12" s="197" customFormat="1">
-      <c r="B17" s="121">
-        <v>7</v>
-      </c>
-      <c r="C17" s="135" t="s">
-        <v>336</v>
-      </c>
-      <c r="D17" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="126" t="s">
-        <v>327</v>
-      </c>
-      <c r="F17" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="G17" s="134"/>
-      <c r="H17" s="272"/>
-      <c r="I17" s="272"/>
-      <c r="J17" s="272"/>
-      <c r="K17" s="272"/>
-      <c r="L17" s="272"/>
-    </row>
-    <row r="18" spans="2:12" s="197" customFormat="1">
-      <c r="B18" s="182">
-        <v>8</v>
-      </c>
-      <c r="C18" s="295" t="s">
-        <v>337</v>
-      </c>
-      <c r="D18" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="126" t="s">
-        <v>328</v>
-      </c>
-      <c r="F18" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="G18" s="134"/>
-      <c r="H18" s="272"/>
-      <c r="I18" s="272"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="193"/>
-      <c r="L18" s="194"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="121">
-        <v>9</v>
-      </c>
-      <c r="C19" s="135" t="s">
-        <v>338</v>
-      </c>
-      <c r="D19" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="126" t="s">
-        <v>328</v>
-      </c>
-      <c r="F19" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="G19" s="190"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="127"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="182">
-        <v>10</v>
-      </c>
-      <c r="C20" s="135" t="s">
-        <v>339</v>
-      </c>
-      <c r="D20" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="126" t="s">
-        <v>328</v>
-      </c>
-      <c r="F20" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="G20" s="134"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="164"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="121">
-        <v>11</v>
-      </c>
-      <c r="C21" s="135"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="182">
-        <v>12</v>
-      </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="121">
-        <v>13</v>
-      </c>
-      <c r="C23" s="135"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="272"/>
-      <c r="I23" s="272"/>
-      <c r="J23" s="272"/>
-      <c r="K23" s="272"/>
-      <c r="L23" s="272"/>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="182">
-        <v>14</v>
-      </c>
-      <c r="C24" s="135"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="272"/>
-      <c r="I24" s="272"/>
-      <c r="J24" s="272"/>
-      <c r="K24" s="272"/>
-      <c r="L24" s="272"/>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="121">
-        <v>15</v>
-      </c>
-      <c r="C25" s="135"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="272"/>
-      <c r="I25" s="272"/>
-      <c r="J25" s="272"/>
-      <c r="K25" s="272"/>
-      <c r="L25" s="272"/>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="182">
-        <v>16</v>
-      </c>
-      <c r="C26" s="135"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="272"/>
-      <c r="I26" s="272"/>
-      <c r="J26" s="272"/>
-      <c r="K26" s="272"/>
-      <c r="L26" s="272"/>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="121">
-        <v>17</v>
-      </c>
-      <c r="C27" s="135"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="272"/>
-      <c r="I27" s="272"/>
-      <c r="J27" s="272"/>
-      <c r="K27" s="272"/>
-      <c r="L27" s="272"/>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="182">
-        <v>18</v>
-      </c>
-      <c r="C28" s="291"/>
-      <c r="D28" s="194"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="198"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="193"/>
-      <c r="L28" s="194"/>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="121">
-        <v>19</v>
-      </c>
-      <c r="C29" s="207"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="134"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="134"/>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="182">
-        <v>20</v>
-      </c>
-      <c r="C30" s="291"/>
-      <c r="D30" s="194"/>
-      <c r="E30" s="195"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="198"/>
-      <c r="H30" s="198"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="193"/>
-      <c r="L30" s="194"/>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="121">
-        <v>21</v>
-      </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="127"/>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="182">
-        <v>22</v>
-      </c>
-      <c r="C32" s="291"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="195"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="198"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="193"/>
-      <c r="L32" s="194"/>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="121">
-        <v>23</v>
-      </c>
-      <c r="C33" s="291"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="195"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="198"/>
-      <c r="H33" s="198"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="193"/>
-      <c r="L33" s="194"/>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="182">
-        <v>24</v>
-      </c>
-      <c r="C34" s="207"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="127"/>
-      <c r="K34" s="121"/>
-      <c r="L34" s="127"/>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="B35" s="121">
-        <v>25</v>
-      </c>
-      <c r="C35" s="126"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="134"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="121"/>
-      <c r="L35" s="127"/>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="182">
-        <v>26</v>
-      </c>
-      <c r="C36" s="126"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="127"/>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="182"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="134"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="121"/>
-      <c r="L37" s="127"/>
-    </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="121">
-        <v>27</v>
-      </c>
-      <c r="C38" s="207"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="127"/>
-      <c r="K38" s="121"/>
-      <c r="L38" s="127"/>
-    </row>
-    <row r="39" spans="2:12">
-      <c r="B39" s="182">
-        <v>28</v>
-      </c>
-      <c r="C39" s="207"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="121"/>
-      <c r="L39" s="127"/>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="B40" s="121">
-        <v>29</v>
-      </c>
-      <c r="C40" s="207"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="134"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="134"/>
-      <c r="J40" s="127"/>
-      <c r="K40" s="121"/>
-      <c r="L40" s="127"/>
-    </row>
-    <row r="41" spans="2:12">
-      <c r="B41" s="182">
-        <v>30</v>
-      </c>
-      <c r="C41" s="207"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="134"/>
-      <c r="H41" s="134"/>
-      <c r="I41" s="134"/>
-      <c r="J41" s="134"/>
-      <c r="K41" s="134"/>
-      <c r="L41" s="134"/>
-    </row>
-    <row r="42" spans="2:12">
-      <c r="B42" s="182"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="134"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="134"/>
-      <c r="L42" s="134"/>
-    </row>
-    <row r="43" spans="2:12">
-      <c r="B43" s="121">
-        <v>31</v>
-      </c>
-      <c r="C43" s="135"/>
-      <c r="D43" s="127"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="127"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="127"/>
-    </row>
-    <row r="44" spans="2:12">
-      <c r="B44" s="182">
-        <v>32</v>
-      </c>
-      <c r="C44" s="207"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="134"/>
-      <c r="H44" s="134"/>
-      <c r="I44" s="134"/>
-      <c r="J44" s="127"/>
-      <c r="K44" s="121"/>
-      <c r="L44" s="127"/>
-    </row>
-    <row r="45" spans="2:12">
-      <c r="B45" s="121">
-        <v>33</v>
-      </c>
-      <c r="C45" s="207"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="121"/>
-      <c r="L45" s="127"/>
-    </row>
-    <row r="46" spans="2:12">
-      <c r="B46" s="182">
-        <v>34</v>
-      </c>
-      <c r="C46" s="207"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="134"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="134"/>
-      <c r="J46" s="127"/>
-      <c r="K46" s="121"/>
-      <c r="L46" s="127"/>
-    </row>
-    <row r="47" spans="2:12">
-      <c r="B47" s="121">
-        <v>35</v>
-      </c>
-      <c r="C47" s="207"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="134"/>
-      <c r="I47" s="134"/>
-      <c r="J47" s="134"/>
-      <c r="K47" s="134"/>
-      <c r="L47" s="134"/>
-    </row>
-    <row r="48" spans="2:12">
-      <c r="B48" s="182">
-        <v>36</v>
-      </c>
-      <c r="C48" s="135"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="134"/>
-      <c r="I48" s="134"/>
-      <c r="J48" s="127"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="127"/>
-    </row>
-    <row r="49" spans="2:12">
-      <c r="B49" s="121">
-        <v>37</v>
-      </c>
-      <c r="C49" s="135"/>
-      <c r="D49" s="159"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
-      <c r="J49" s="127"/>
-      <c r="K49" s="121"/>
-      <c r="L49" s="127"/>
-    </row>
-    <row r="50" spans="2:12">
-      <c r="B50" s="182">
-        <v>38</v>
-      </c>
-      <c r="C50" s="135"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="127"/>
-      <c r="K50" s="121"/>
-      <c r="L50" s="127"/>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="B51" s="121">
-        <v>39</v>
-      </c>
-      <c r="C51" s="135"/>
-      <c r="D51" s="159"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
-      <c r="J51" s="127"/>
-      <c r="K51" s="121"/>
-      <c r="L51" s="127"/>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="B52" s="80"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="136"/>
-      <c r="I52" s="136"/>
-      <c r="J52" s="96"/>
-      <c r="K52" s="137"/>
-      <c r="L52" s="96"/>
-    </row>
-    <row r="53" spans="2:12">
-      <c r="B53" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="88"/>
-      <c r="D53" s="160"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="154"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-    </row>
-    <row r="100" spans="2:14" s="97" customFormat="1">
-      <c r="B100" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" s="63" t="s">
+      <c r="C101" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="E100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-      <c r="K100"/>
-      <c r="L100"/>
-      <c r="M100"/>
-      <c r="N100"/>
-    </row>
-    <row r="101" spans="2:14" s="97" customFormat="1">
-      <c r="B101"/>
-      <c r="C101" s="63" t="s">
-        <v>108</v>
-      </c>
       <c r="E101"/>
-      <c r="G101"/>
       <c r="H101"/>
       <c r="I101"/>
       <c r="J101"/>
@@ -17268,14 +18570,14 @@
       <c r="L101"/>
       <c r="M101"/>
       <c r="N101"/>
-    </row>
-    <row r="102" spans="2:14" s="97" customFormat="1">
+      <c r="O101"/>
+    </row>
+    <row r="102" spans="2:15" s="97" customFormat="1">
       <c r="B102"/>
       <c r="C102" s="63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E102"/>
-      <c r="G102"/>
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102"/>
@@ -17283,14 +18585,14 @@
       <c r="L102"/>
       <c r="M102"/>
       <c r="N102"/>
-    </row>
-    <row r="103" spans="2:14" s="97" customFormat="1">
+      <c r="O102"/>
+    </row>
+    <row r="103" spans="2:15" s="97" customFormat="1">
       <c r="B103"/>
       <c r="C103" s="63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E103"/>
-      <c r="G103"/>
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103"/>
@@ -17298,14 +18600,14 @@
       <c r="L103"/>
       <c r="M103"/>
       <c r="N103"/>
-    </row>
-    <row r="104" spans="2:14" s="97" customFormat="1">
+      <c r="O103"/>
+    </row>
+    <row r="104" spans="2:15" s="97" customFormat="1">
       <c r="B104"/>
-      <c r="C104" s="64" t="s">
-        <v>125</v>
+      <c r="C104" s="63" t="s">
+        <v>110</v>
       </c>
       <c r="E104"/>
-      <c r="G104"/>
       <c r="H104"/>
       <c r="I104"/>
       <c r="J104"/>
@@ -17313,14 +18615,14 @@
       <c r="L104"/>
       <c r="M104"/>
       <c r="N104"/>
-    </row>
-    <row r="105" spans="2:14" s="97" customFormat="1">
-      <c r="B105" t="s">
-        <v>111</v>
-      </c>
-      <c r="C105"/>
+      <c r="O104"/>
+    </row>
+    <row r="105" spans="2:15" s="97" customFormat="1">
+      <c r="B105"/>
+      <c r="C105" s="64" t="s">
+        <v>125</v>
+      </c>
       <c r="E105"/>
-      <c r="G105"/>
       <c r="H105"/>
       <c r="I105"/>
       <c r="J105"/>
@@ -17328,14 +18630,14 @@
       <c r="L105"/>
       <c r="M105"/>
       <c r="N105"/>
-    </row>
-    <row r="106" spans="2:14" s="97" customFormat="1">
-      <c r="B106"/>
-      <c r="C106" s="64" t="s">
-        <v>327</v>
-      </c>
+      <c r="O105"/>
+    </row>
+    <row r="106" spans="2:15" s="97" customFormat="1">
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106"/>
       <c r="E106"/>
-      <c r="G106"/>
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106"/>
@@ -17343,14 +18645,14 @@
       <c r="L106"/>
       <c r="M106"/>
       <c r="N106"/>
-    </row>
-    <row r="107" spans="2:14" s="97" customFormat="1">
+      <c r="O106"/>
+    </row>
+    <row r="107" spans="2:15" s="97" customFormat="1">
       <c r="B107"/>
       <c r="C107" s="64" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E107"/>
-      <c r="G107"/>
       <c r="H107"/>
       <c r="I107"/>
       <c r="J107"/>
@@ -17358,14 +18660,14 @@
       <c r="L107"/>
       <c r="M107"/>
       <c r="N107"/>
-    </row>
-    <row r="108" spans="2:14" s="97" customFormat="1">
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="2:15" s="97" customFormat="1">
       <c r="B108"/>
       <c r="C108" s="64" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E108"/>
-      <c r="G108"/>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108"/>
@@ -17373,14 +18675,14 @@
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108"/>
-    </row>
-    <row r="109" spans="2:14" s="97" customFormat="1">
+      <c r="O108"/>
+    </row>
+    <row r="109" spans="2:15" s="97" customFormat="1">
       <c r="B109"/>
       <c r="C109" s="64" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
       <c r="E109"/>
-      <c r="G109"/>
       <c r="H109"/>
       <c r="I109"/>
       <c r="J109"/>
@@ -17388,29 +18690,29 @@
       <c r="L109"/>
       <c r="M109"/>
       <c r="N109"/>
-    </row>
-    <row r="111" spans="2:14" s="97" customFormat="1">
-      <c r="B111" t="s">
+      <c r="O109"/>
+    </row>
+    <row r="110" spans="2:15" s="97" customFormat="1">
+      <c r="B110"/>
+      <c r="C110" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+    </row>
+    <row r="112" spans="2:15" s="97" customFormat="1">
+      <c r="B112" t="s">
         <v>106</v>
       </c>
-      <c r="C111"/>
-      <c r="E111"/>
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
-      <c r="J111"/>
-      <c r="K111"/>
-      <c r="L111"/>
-      <c r="M111"/>
-      <c r="N111"/>
-    </row>
-    <row r="112" spans="2:14" s="97" customFormat="1">
-      <c r="B112"/>
-      <c r="C112" s="64" t="s">
-        <v>340</v>
-      </c>
+      <c r="C112"/>
       <c r="E112"/>
-      <c r="G112"/>
       <c r="H112"/>
       <c r="I112"/>
       <c r="J112"/>
@@ -17418,14 +18720,14 @@
       <c r="L112"/>
       <c r="M112"/>
       <c r="N112"/>
-    </row>
-    <row r="113" spans="2:14" s="97" customFormat="1">
+      <c r="O112"/>
+    </row>
+    <row r="113" spans="2:15" s="97" customFormat="1">
       <c r="B113"/>
       <c r="C113" s="64" t="s">
-        <v>117</v>
+        <v>339</v>
       </c>
       <c r="E113"/>
-      <c r="G113"/>
       <c r="H113"/>
       <c r="I113"/>
       <c r="J113"/>
@@ -17433,14 +18735,14 @@
       <c r="L113"/>
       <c r="M113"/>
       <c r="N113"/>
-    </row>
-    <row r="114" spans="2:14" s="97" customFormat="1">
+      <c r="O113"/>
+    </row>
+    <row r="114" spans="2:15" s="97" customFormat="1">
       <c r="B114"/>
       <c r="C114" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E114"/>
-      <c r="G114"/>
       <c r="H114"/>
       <c r="I114"/>
       <c r="J114"/>
@@ -17448,14 +18750,14 @@
       <c r="L114"/>
       <c r="M114"/>
       <c r="N114"/>
-    </row>
-    <row r="115" spans="2:14" s="97" customFormat="1">
+      <c r="O114"/>
+    </row>
+    <row r="115" spans="2:15" s="97" customFormat="1">
       <c r="B115"/>
       <c r="C115" s="64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E115"/>
-      <c r="G115"/>
       <c r="H115"/>
       <c r="I115"/>
       <c r="J115"/>
@@ -17463,14 +18765,14 @@
       <c r="L115"/>
       <c r="M115"/>
       <c r="N115"/>
-    </row>
-    <row r="116" spans="2:14" s="97" customFormat="1">
+      <c r="O115"/>
+    </row>
+    <row r="116" spans="2:15" s="97" customFormat="1">
       <c r="B116"/>
       <c r="C116" s="64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E116"/>
-      <c r="G116"/>
       <c r="H116"/>
       <c r="I116"/>
       <c r="J116"/>
@@ -17478,14 +18780,14 @@
       <c r="L116"/>
       <c r="M116"/>
       <c r="N116"/>
-    </row>
-    <row r="117" spans="2:14" s="97" customFormat="1">
+      <c r="O116"/>
+    </row>
+    <row r="117" spans="2:15" s="97" customFormat="1">
       <c r="B117"/>
       <c r="C117" s="64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E117"/>
-      <c r="G117"/>
       <c r="H117"/>
       <c r="I117"/>
       <c r="J117"/>
@@ -17493,29 +18795,45 @@
       <c r="L117"/>
       <c r="M117"/>
       <c r="N117"/>
+      <c r="O117"/>
+    </row>
+    <row r="118" spans="2:15" s="97" customFormat="1">
+      <c r="B118"/>
+      <c r="C118" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B7:E7"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48:D51">
-      <formula1>$C$116:$C$120</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:D52">
+      <formula1>$C$117:$C$121</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D52:D53 D38:D47 D11:D33">
-      <formula1>$C$100:$C$104</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D53:D54 D11:D34 D39:D48">
+      <formula1>$C$101:$C$105</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F52:F90">
-      <formula1>$C$113:$C$117</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F53:F91">
+      <formula1>$C$114:$C$118</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34:D37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:D38">
+      <formula1>$C$108:$C$111</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E11:E52">
       <formula1>$C$107:$C$110</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E11:E51">
-      <formula1>$C$106:$C$109</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F51">
-      <formula1>$C$112:$C$117</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F52">
+      <formula1>$C$113:$C$118</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17524,4 +18842,1427 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:O119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="97" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" style="97" customWidth="1"/>
+    <col min="8" max="15" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="18">
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="3" spans="2:15" ht="18">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="C4" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="C5" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" ht="18">
+      <c r="B7" s="291" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+    </row>
+    <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
+      <c r="B10" s="293" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="294" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="294" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="294" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="294" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="328" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="272" t="s">
+        <v>340</v>
+      </c>
+      <c r="I10" s="272" t="s">
+        <v>341</v>
+      </c>
+      <c r="J10" s="273" t="s">
+        <v>342</v>
+      </c>
+      <c r="K10" s="273" t="s">
+        <v>343</v>
+      </c>
+      <c r="L10" s="273" t="s">
+        <v>344</v>
+      </c>
+      <c r="M10" s="273" t="s">
+        <v>345</v>
+      </c>
+      <c r="N10" s="292" t="s">
+        <v>353</v>
+      </c>
+      <c r="O10" s="333" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="309">
+        <v>1</v>
+      </c>
+      <c r="C11" s="296" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" s="311" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="312" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="313" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="313">
+        <v>2</v>
+      </c>
+      <c r="H11" s="311">
+        <v>2</v>
+      </c>
+      <c r="I11" s="311">
+        <v>2</v>
+      </c>
+      <c r="J11" s="311">
+        <v>2</v>
+      </c>
+      <c r="K11" s="311"/>
+      <c r="L11" s="334"/>
+      <c r="M11" s="314"/>
+      <c r="N11" s="331"/>
+      <c r="O11" s="331"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="315">
+        <v>2</v>
+      </c>
+      <c r="C12" s="296" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="311"/>
+      <c r="E12" s="312"/>
+      <c r="F12" s="313"/>
+      <c r="G12" s="313"/>
+      <c r="H12" s="311"/>
+      <c r="I12" s="317"/>
+      <c r="J12" s="317"/>
+      <c r="K12" s="317"/>
+      <c r="L12" s="317"/>
+      <c r="M12" s="318"/>
+      <c r="N12" s="329"/>
+      <c r="O12" s="329"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="309">
+        <v>3</v>
+      </c>
+      <c r="C13" s="300" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" s="311" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="312" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" s="313" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="313">
+        <v>5</v>
+      </c>
+      <c r="H13" s="311">
+        <v>5</v>
+      </c>
+      <c r="I13" s="317">
+        <v>5</v>
+      </c>
+      <c r="J13" s="317">
+        <v>5</v>
+      </c>
+      <c r="K13" s="317"/>
+      <c r="L13" s="317"/>
+      <c r="M13" s="318"/>
+      <c r="N13" s="329"/>
+      <c r="O13" s="329"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="315">
+        <v>4</v>
+      </c>
+      <c r="C14" s="300" t="s">
+        <v>357</v>
+      </c>
+      <c r="D14" s="311" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="312" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" s="313" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="313">
+        <v>5</v>
+      </c>
+      <c r="H14" s="311">
+        <v>5</v>
+      </c>
+      <c r="I14" s="317">
+        <v>5</v>
+      </c>
+      <c r="J14" s="317">
+        <v>5</v>
+      </c>
+      <c r="K14" s="317"/>
+      <c r="L14" s="317"/>
+      <c r="M14" s="318"/>
+      <c r="N14" s="329"/>
+      <c r="O14" s="329"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="309">
+        <v>5</v>
+      </c>
+      <c r="C15" s="300" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="311" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="312" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" s="313" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="313">
+        <v>4</v>
+      </c>
+      <c r="H15" s="311">
+        <v>4</v>
+      </c>
+      <c r="I15" s="317">
+        <v>4</v>
+      </c>
+      <c r="J15" s="317">
+        <v>4</v>
+      </c>
+      <c r="K15" s="317"/>
+      <c r="L15" s="311"/>
+      <c r="M15" s="314"/>
+      <c r="N15" s="329"/>
+      <c r="O15" s="329"/>
+    </row>
+    <row r="16" spans="2:15" s="197" customFormat="1">
+      <c r="B16" s="315">
+        <v>6</v>
+      </c>
+      <c r="C16" s="296" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" s="311"/>
+      <c r="E16" s="312"/>
+      <c r="F16" s="313"/>
+      <c r="G16" s="313"/>
+      <c r="H16" s="311"/>
+      <c r="I16" s="317"/>
+      <c r="J16" s="317"/>
+      <c r="K16" s="317"/>
+      <c r="L16" s="317"/>
+      <c r="M16" s="318"/>
+      <c r="N16" s="330"/>
+      <c r="O16" s="330"/>
+    </row>
+    <row r="17" spans="2:15" s="197" customFormat="1">
+      <c r="B17" s="309">
+        <v>7</v>
+      </c>
+      <c r="C17" s="300" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="311" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="312" t="s">
+        <v>349</v>
+      </c>
+      <c r="F17" s="313" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="313">
+        <v>6</v>
+      </c>
+      <c r="H17" s="311">
+        <v>6</v>
+      </c>
+      <c r="I17" s="317">
+        <v>6</v>
+      </c>
+      <c r="J17" s="317">
+        <v>6</v>
+      </c>
+      <c r="K17" s="317"/>
+      <c r="L17" s="317"/>
+      <c r="M17" s="318"/>
+      <c r="N17" s="330"/>
+      <c r="O17" s="330"/>
+    </row>
+    <row r="18" spans="2:15" s="197" customFormat="1">
+      <c r="B18" s="315">
+        <v>8</v>
+      </c>
+      <c r="C18" s="300" t="s">
+        <v>362</v>
+      </c>
+      <c r="D18" s="297" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="298" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" s="299" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="313">
+        <v>4</v>
+      </c>
+      <c r="H18" s="311">
+        <v>4</v>
+      </c>
+      <c r="I18" s="317">
+        <v>4</v>
+      </c>
+      <c r="J18" s="317">
+        <v>4</v>
+      </c>
+      <c r="K18" s="317"/>
+      <c r="L18" s="317"/>
+      <c r="M18" s="318"/>
+      <c r="N18" s="330"/>
+      <c r="O18" s="330"/>
+    </row>
+    <row r="19" spans="2:15" s="197" customFormat="1">
+      <c r="B19" s="309">
+        <v>9</v>
+      </c>
+      <c r="C19" s="300" t="s">
+        <v>363</v>
+      </c>
+      <c r="D19" s="297" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="298" t="s">
+        <v>349</v>
+      </c>
+      <c r="F19" s="299" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="313">
+        <v>6</v>
+      </c>
+      <c r="H19" s="311">
+        <v>6</v>
+      </c>
+      <c r="I19" s="317">
+        <v>6</v>
+      </c>
+      <c r="J19" s="317">
+        <v>6</v>
+      </c>
+      <c r="K19" s="311"/>
+      <c r="L19" s="301"/>
+      <c r="M19" s="302"/>
+      <c r="N19" s="330"/>
+      <c r="O19" s="330"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="315">
+        <v>10</v>
+      </c>
+      <c r="C20" s="296" t="s">
+        <v>364</v>
+      </c>
+      <c r="D20" s="311"/>
+      <c r="E20" s="312"/>
+      <c r="F20" s="313"/>
+      <c r="G20" s="313"/>
+      <c r="H20" s="303"/>
+      <c r="I20" s="311"/>
+      <c r="J20" s="311"/>
+      <c r="K20" s="311"/>
+      <c r="L20" s="311"/>
+      <c r="M20" s="314"/>
+      <c r="N20" s="329"/>
+      <c r="O20" s="329"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="309">
+        <v>11</v>
+      </c>
+      <c r="C21" s="300" t="s">
+        <v>365</v>
+      </c>
+      <c r="D21" s="297" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="298" t="s">
+        <v>352</v>
+      </c>
+      <c r="F21" s="299" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="313">
+        <v>5</v>
+      </c>
+      <c r="H21" s="311">
+        <v>5</v>
+      </c>
+      <c r="I21" s="311">
+        <v>5</v>
+      </c>
+      <c r="J21" s="311">
+        <v>5</v>
+      </c>
+      <c r="K21" s="311"/>
+      <c r="L21" s="311"/>
+      <c r="M21" s="314"/>
+      <c r="N21" s="329"/>
+      <c r="O21" s="329"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="315">
+        <v>12</v>
+      </c>
+      <c r="C22" s="300" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" s="311" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="312" t="s">
+        <v>352</v>
+      </c>
+      <c r="F22" s="313" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="313">
+        <v>5</v>
+      </c>
+      <c r="H22" s="311">
+        <v>5</v>
+      </c>
+      <c r="I22" s="311">
+        <v>5</v>
+      </c>
+      <c r="J22" s="311">
+        <v>5</v>
+      </c>
+      <c r="K22" s="311"/>
+      <c r="L22" s="311"/>
+      <c r="M22" s="314"/>
+      <c r="N22" s="329"/>
+      <c r="O22" s="329"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="309">
+        <v>13</v>
+      </c>
+      <c r="C23" s="300" t="s">
+        <v>367</v>
+      </c>
+      <c r="D23" s="297" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="298" t="s">
+        <v>352</v>
+      </c>
+      <c r="F23" s="299" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="313">
+        <v>5</v>
+      </c>
+      <c r="H23" s="311">
+        <v>5</v>
+      </c>
+      <c r="I23" s="311">
+        <v>5</v>
+      </c>
+      <c r="J23" s="311">
+        <v>5</v>
+      </c>
+      <c r="K23" s="311"/>
+      <c r="L23" s="311"/>
+      <c r="M23" s="314"/>
+      <c r="N23" s="329"/>
+      <c r="O23" s="329"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="315">
+        <v>14</v>
+      </c>
+      <c r="C24" s="296" t="s">
+        <v>368</v>
+      </c>
+      <c r="D24" s="311"/>
+      <c r="E24" s="312"/>
+      <c r="F24" s="313"/>
+      <c r="G24" s="313"/>
+      <c r="H24" s="311"/>
+      <c r="I24" s="317"/>
+      <c r="J24" s="317"/>
+      <c r="K24" s="317"/>
+      <c r="L24" s="317"/>
+      <c r="M24" s="318"/>
+      <c r="N24" s="329"/>
+      <c r="O24" s="329"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="309">
+        <v>15</v>
+      </c>
+      <c r="C25" s="300" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" s="311" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="312" t="s">
+        <v>350</v>
+      </c>
+      <c r="F25" s="313" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="313">
+        <v>5</v>
+      </c>
+      <c r="H25" s="311">
+        <v>5</v>
+      </c>
+      <c r="I25" s="317">
+        <v>5</v>
+      </c>
+      <c r="J25" s="317">
+        <v>5</v>
+      </c>
+      <c r="K25" s="317"/>
+      <c r="L25" s="317"/>
+      <c r="M25" s="318"/>
+      <c r="N25" s="329"/>
+      <c r="O25" s="329"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="315">
+        <v>16</v>
+      </c>
+      <c r="C26" s="335" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" s="297" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="298" t="s">
+        <v>350</v>
+      </c>
+      <c r="F26" s="313" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="313">
+        <v>2</v>
+      </c>
+      <c r="H26" s="311">
+        <v>2</v>
+      </c>
+      <c r="I26" s="317">
+        <v>2</v>
+      </c>
+      <c r="J26" s="317">
+        <v>2</v>
+      </c>
+      <c r="K26" s="317"/>
+      <c r="L26" s="317"/>
+      <c r="M26" s="318"/>
+      <c r="N26" s="329"/>
+      <c r="O26" s="329"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="309">
+        <v>17</v>
+      </c>
+      <c r="C27" s="300" t="s">
+        <v>370</v>
+      </c>
+      <c r="D27" s="311" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="312" t="s">
+        <v>350</v>
+      </c>
+      <c r="F27" s="299" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="313">
+        <v>5</v>
+      </c>
+      <c r="H27" s="311">
+        <v>5</v>
+      </c>
+      <c r="I27" s="317">
+        <v>5</v>
+      </c>
+      <c r="J27" s="317">
+        <v>5</v>
+      </c>
+      <c r="K27" s="317"/>
+      <c r="L27" s="317"/>
+      <c r="M27" s="318"/>
+      <c r="N27" s="329"/>
+      <c r="O27" s="329"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="315">
+        <v>18</v>
+      </c>
+      <c r="C28" s="335" t="s">
+        <v>372</v>
+      </c>
+      <c r="D28" s="311" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="312" t="s">
+        <v>350</v>
+      </c>
+      <c r="F28" s="299" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="313">
+        <v>2</v>
+      </c>
+      <c r="H28" s="311">
+        <v>2</v>
+      </c>
+      <c r="I28" s="317">
+        <v>2</v>
+      </c>
+      <c r="J28" s="317">
+        <v>2</v>
+      </c>
+      <c r="K28" s="317"/>
+      <c r="L28" s="317"/>
+      <c r="M28" s="318"/>
+      <c r="N28" s="329"/>
+      <c r="O28" s="329"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="309">
+        <v>19</v>
+      </c>
+      <c r="C29" s="304"/>
+      <c r="D29" s="301"/>
+      <c r="E29" s="305"/>
+      <c r="F29" s="306"/>
+      <c r="G29" s="306"/>
+      <c r="H29" s="301"/>
+      <c r="I29" s="301"/>
+      <c r="J29" s="301"/>
+      <c r="K29" s="301"/>
+      <c r="L29" s="301"/>
+      <c r="M29" s="302"/>
+      <c r="N29" s="329"/>
+      <c r="O29" s="329"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="315">
+        <v>20</v>
+      </c>
+      <c r="C30" s="319"/>
+      <c r="D30" s="311"/>
+      <c r="E30" s="312"/>
+      <c r="F30" s="313"/>
+      <c r="G30" s="313"/>
+      <c r="H30" s="311"/>
+      <c r="I30" s="311"/>
+      <c r="J30" s="311"/>
+      <c r="K30" s="311"/>
+      <c r="L30" s="311"/>
+      <c r="M30" s="314"/>
+      <c r="N30" s="329"/>
+      <c r="O30" s="329"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="309">
+        <v>21</v>
+      </c>
+      <c r="C31" s="304"/>
+      <c r="D31" s="301"/>
+      <c r="E31" s="305"/>
+      <c r="F31" s="306"/>
+      <c r="G31" s="306"/>
+      <c r="H31" s="301"/>
+      <c r="I31" s="301"/>
+      <c r="J31" s="301"/>
+      <c r="K31" s="301"/>
+      <c r="L31" s="301"/>
+      <c r="M31" s="302"/>
+      <c r="N31" s="329"/>
+      <c r="O31" s="329"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="315">
+        <v>22</v>
+      </c>
+      <c r="C32" s="316"/>
+      <c r="D32" s="311"/>
+      <c r="E32" s="312"/>
+      <c r="F32" s="313"/>
+      <c r="G32" s="313"/>
+      <c r="H32" s="311"/>
+      <c r="I32" s="311"/>
+      <c r="J32" s="311"/>
+      <c r="K32" s="311"/>
+      <c r="L32" s="311"/>
+      <c r="M32" s="314"/>
+      <c r="N32" s="329"/>
+      <c r="O32" s="329"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="309">
+        <v>23</v>
+      </c>
+      <c r="C33" s="304"/>
+      <c r="D33" s="301"/>
+      <c r="E33" s="305"/>
+      <c r="F33" s="306"/>
+      <c r="G33" s="306"/>
+      <c r="H33" s="301"/>
+      <c r="I33" s="301"/>
+      <c r="J33" s="301"/>
+      <c r="K33" s="301"/>
+      <c r="L33" s="301"/>
+      <c r="M33" s="302"/>
+      <c r="N33" s="329"/>
+      <c r="O33" s="329"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="315">
+        <v>24</v>
+      </c>
+      <c r="C34" s="304"/>
+      <c r="D34" s="301"/>
+      <c r="E34" s="305"/>
+      <c r="F34" s="306"/>
+      <c r="G34" s="306"/>
+      <c r="H34" s="301"/>
+      <c r="I34" s="301"/>
+      <c r="J34" s="301"/>
+      <c r="K34" s="301"/>
+      <c r="L34" s="301"/>
+      <c r="M34" s="302"/>
+      <c r="N34" s="329"/>
+      <c r="O34" s="329"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="309">
+        <v>25</v>
+      </c>
+      <c r="C35" s="319"/>
+      <c r="D35" s="311"/>
+      <c r="E35" s="312"/>
+      <c r="F35" s="313"/>
+      <c r="G35" s="313"/>
+      <c r="H35" s="311"/>
+      <c r="I35" s="311"/>
+      <c r="J35" s="311"/>
+      <c r="K35" s="311"/>
+      <c r="L35" s="311"/>
+      <c r="M35" s="314"/>
+      <c r="N35" s="329"/>
+      <c r="O35" s="329"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="315">
+        <v>26</v>
+      </c>
+      <c r="C36" s="312"/>
+      <c r="D36" s="311"/>
+      <c r="E36" s="312"/>
+      <c r="F36" s="313"/>
+      <c r="G36" s="313"/>
+      <c r="H36" s="311"/>
+      <c r="I36" s="311"/>
+      <c r="J36" s="311"/>
+      <c r="K36" s="311"/>
+      <c r="L36" s="311"/>
+      <c r="M36" s="314"/>
+      <c r="N36" s="329"/>
+      <c r="O36" s="329"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="309">
+        <v>27</v>
+      </c>
+      <c r="C37" s="312"/>
+      <c r="D37" s="311"/>
+      <c r="E37" s="312"/>
+      <c r="F37" s="313"/>
+      <c r="G37" s="313"/>
+      <c r="H37" s="311"/>
+      <c r="I37" s="311"/>
+      <c r="J37" s="311"/>
+      <c r="K37" s="311"/>
+      <c r="L37" s="311"/>
+      <c r="M37" s="314"/>
+      <c r="N37" s="329"/>
+      <c r="O37" s="329"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="315">
+        <v>28</v>
+      </c>
+      <c r="C38" s="312"/>
+      <c r="D38" s="311"/>
+      <c r="E38" s="312"/>
+      <c r="F38" s="313"/>
+      <c r="G38" s="313"/>
+      <c r="H38" s="311"/>
+      <c r="I38" s="311"/>
+      <c r="J38" s="311"/>
+      <c r="K38" s="311"/>
+      <c r="L38" s="311"/>
+      <c r="M38" s="314"/>
+      <c r="N38" s="329"/>
+      <c r="O38" s="329"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="309">
+        <v>29</v>
+      </c>
+      <c r="C39" s="319"/>
+      <c r="D39" s="311"/>
+      <c r="E39" s="312"/>
+      <c r="F39" s="313"/>
+      <c r="G39" s="313"/>
+      <c r="H39" s="311"/>
+      <c r="I39" s="311"/>
+      <c r="J39" s="311"/>
+      <c r="K39" s="311"/>
+      <c r="L39" s="311"/>
+      <c r="M39" s="314"/>
+      <c r="N39" s="329"/>
+      <c r="O39" s="329"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="315">
+        <v>30</v>
+      </c>
+      <c r="C40" s="319"/>
+      <c r="D40" s="311"/>
+      <c r="E40" s="312"/>
+      <c r="F40" s="313"/>
+      <c r="G40" s="313"/>
+      <c r="H40" s="311"/>
+      <c r="I40" s="311"/>
+      <c r="J40" s="311"/>
+      <c r="K40" s="311"/>
+      <c r="L40" s="311"/>
+      <c r="M40" s="314"/>
+      <c r="N40" s="329"/>
+      <c r="O40" s="329"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="309">
+        <v>31</v>
+      </c>
+      <c r="C41" s="319"/>
+      <c r="D41" s="311"/>
+      <c r="E41" s="312"/>
+      <c r="F41" s="313"/>
+      <c r="G41" s="313"/>
+      <c r="H41" s="311"/>
+      <c r="I41" s="311"/>
+      <c r="J41" s="311"/>
+      <c r="K41" s="311"/>
+      <c r="L41" s="311"/>
+      <c r="M41" s="314"/>
+      <c r="N41" s="329"/>
+      <c r="O41" s="329"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="315">
+        <v>32</v>
+      </c>
+      <c r="C42" s="319"/>
+      <c r="D42" s="311"/>
+      <c r="E42" s="312"/>
+      <c r="F42" s="313"/>
+      <c r="G42" s="313"/>
+      <c r="H42" s="311"/>
+      <c r="I42" s="311"/>
+      <c r="J42" s="311"/>
+      <c r="K42" s="311"/>
+      <c r="L42" s="311"/>
+      <c r="M42" s="314"/>
+      <c r="N42" s="329"/>
+      <c r="O42" s="329"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="309">
+        <v>33</v>
+      </c>
+      <c r="C43" s="319"/>
+      <c r="D43" s="311"/>
+      <c r="E43" s="312"/>
+      <c r="F43" s="313"/>
+      <c r="G43" s="313"/>
+      <c r="H43" s="311"/>
+      <c r="I43" s="311"/>
+      <c r="J43" s="311"/>
+      <c r="K43" s="311"/>
+      <c r="L43" s="311"/>
+      <c r="M43" s="314"/>
+      <c r="N43" s="329"/>
+      <c r="O43" s="329"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="315">
+        <v>34</v>
+      </c>
+      <c r="C44" s="316"/>
+      <c r="D44" s="311"/>
+      <c r="E44" s="312"/>
+      <c r="F44" s="313"/>
+      <c r="G44" s="313"/>
+      <c r="H44" s="311"/>
+      <c r="I44" s="311"/>
+      <c r="J44" s="311"/>
+      <c r="K44" s="311"/>
+      <c r="L44" s="311"/>
+      <c r="M44" s="314"/>
+      <c r="N44" s="329"/>
+      <c r="O44" s="329"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="309">
+        <v>35</v>
+      </c>
+      <c r="C45" s="319"/>
+      <c r="D45" s="311"/>
+      <c r="E45" s="312"/>
+      <c r="F45" s="313"/>
+      <c r="G45" s="313"/>
+      <c r="H45" s="311"/>
+      <c r="I45" s="311"/>
+      <c r="J45" s="311"/>
+      <c r="K45" s="311"/>
+      <c r="L45" s="311"/>
+      <c r="M45" s="314"/>
+      <c r="N45" s="329"/>
+      <c r="O45" s="329"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="315">
+        <v>36</v>
+      </c>
+      <c r="C46" s="319"/>
+      <c r="D46" s="311"/>
+      <c r="E46" s="312"/>
+      <c r="F46" s="313"/>
+      <c r="G46" s="313"/>
+      <c r="H46" s="311"/>
+      <c r="I46" s="311"/>
+      <c r="J46" s="311"/>
+      <c r="K46" s="311"/>
+      <c r="L46" s="311"/>
+      <c r="M46" s="314"/>
+      <c r="N46" s="329"/>
+      <c r="O46" s="329"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="309">
+        <v>37</v>
+      </c>
+      <c r="C47" s="319"/>
+      <c r="D47" s="311"/>
+      <c r="E47" s="312"/>
+      <c r="F47" s="313"/>
+      <c r="G47" s="313"/>
+      <c r="H47" s="311"/>
+      <c r="I47" s="311"/>
+      <c r="J47" s="311"/>
+      <c r="K47" s="311"/>
+      <c r="L47" s="311"/>
+      <c r="M47" s="314"/>
+      <c r="N47" s="329"/>
+      <c r="O47" s="329"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="315">
+        <v>38</v>
+      </c>
+      <c r="C48" s="319"/>
+      <c r="D48" s="311"/>
+      <c r="E48" s="312"/>
+      <c r="F48" s="313"/>
+      <c r="G48" s="313"/>
+      <c r="H48" s="311"/>
+      <c r="I48" s="311"/>
+      <c r="J48" s="311"/>
+      <c r="K48" s="311"/>
+      <c r="L48" s="311"/>
+      <c r="M48" s="314"/>
+      <c r="N48" s="329"/>
+      <c r="O48" s="329"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="309">
+        <v>39</v>
+      </c>
+      <c r="C49" s="316"/>
+      <c r="D49" s="307"/>
+      <c r="E49" s="312"/>
+      <c r="F49" s="313"/>
+      <c r="G49" s="313"/>
+      <c r="H49" s="311"/>
+      <c r="I49" s="311"/>
+      <c r="J49" s="311"/>
+      <c r="K49" s="311"/>
+      <c r="L49" s="311"/>
+      <c r="M49" s="314"/>
+      <c r="N49" s="329"/>
+      <c r="O49" s="329"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="315">
+        <v>40</v>
+      </c>
+      <c r="C50" s="316"/>
+      <c r="D50" s="307"/>
+      <c r="E50" s="312"/>
+      <c r="F50" s="313"/>
+      <c r="G50" s="313"/>
+      <c r="H50" s="311"/>
+      <c r="I50" s="311"/>
+      <c r="J50" s="311"/>
+      <c r="K50" s="311"/>
+      <c r="L50" s="311"/>
+      <c r="M50" s="314"/>
+      <c r="N50" s="329"/>
+      <c r="O50" s="329"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="309">
+        <v>41</v>
+      </c>
+      <c r="C51" s="316"/>
+      <c r="D51" s="307"/>
+      <c r="E51" s="312"/>
+      <c r="F51" s="313"/>
+      <c r="G51" s="313"/>
+      <c r="H51" s="311"/>
+      <c r="I51" s="311"/>
+      <c r="J51" s="311"/>
+      <c r="K51" s="311"/>
+      <c r="L51" s="311"/>
+      <c r="M51" s="314"/>
+      <c r="N51" s="329"/>
+      <c r="O51" s="329"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="315">
+        <v>42</v>
+      </c>
+      <c r="C52" s="316"/>
+      <c r="D52" s="307"/>
+      <c r="E52" s="312"/>
+      <c r="F52" s="313"/>
+      <c r="G52" s="313"/>
+      <c r="H52" s="311"/>
+      <c r="I52" s="311"/>
+      <c r="J52" s="311"/>
+      <c r="K52" s="311"/>
+      <c r="L52" s="311"/>
+      <c r="M52" s="314"/>
+      <c r="N52" s="329"/>
+      <c r="O52" s="329"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="309">
+        <v>43</v>
+      </c>
+      <c r="C53" s="320"/>
+      <c r="D53" s="311"/>
+      <c r="E53" s="312"/>
+      <c r="F53" s="313"/>
+      <c r="G53" s="313"/>
+      <c r="H53" s="313"/>
+      <c r="I53" s="313"/>
+      <c r="J53" s="313"/>
+      <c r="K53" s="313"/>
+      <c r="L53" s="313"/>
+      <c r="M53" s="321"/>
+      <c r="N53" s="329"/>
+      <c r="O53" s="329"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="322" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="323"/>
+      <c r="D54" s="324"/>
+      <c r="E54" s="325"/>
+      <c r="F54" s="326"/>
+      <c r="G54" s="326"/>
+      <c r="H54" s="326"/>
+      <c r="I54" s="326"/>
+      <c r="J54" s="326"/>
+      <c r="K54" s="326"/>
+      <c r="L54" s="326"/>
+      <c r="M54" s="327"/>
+      <c r="N54" s="332"/>
+      <c r="O54" s="332"/>
+    </row>
+    <row r="101" spans="2:15" s="97" customFormat="1">
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+    </row>
+    <row r="102" spans="2:15" s="97" customFormat="1">
+      <c r="B102"/>
+      <c r="C102" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+    </row>
+    <row r="103" spans="2:15" s="97" customFormat="1">
+      <c r="B103"/>
+      <c r="C103" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+    </row>
+    <row r="104" spans="2:15" s="97" customFormat="1">
+      <c r="B104"/>
+      <c r="C104" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+    </row>
+    <row r="105" spans="2:15" s="97" customFormat="1">
+      <c r="B105"/>
+      <c r="C105" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+    </row>
+    <row r="106" spans="2:15" s="97" customFormat="1">
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106"/>
+      <c r="E106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+    </row>
+    <row r="107" spans="2:15" s="97" customFormat="1">
+      <c r="B107"/>
+      <c r="C107" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="E107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="2:15" s="97" customFormat="1">
+      <c r="B108"/>
+      <c r="C108" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="E108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+    </row>
+    <row r="109" spans="2:15" s="97" customFormat="1">
+      <c r="B109"/>
+      <c r="C109" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+    </row>
+    <row r="110" spans="2:15" s="97" customFormat="1">
+      <c r="B110"/>
+      <c r="C110" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="E110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+    </row>
+    <row r="111" spans="2:15" s="97" customFormat="1">
+      <c r="B111"/>
+      <c r="C111" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+    </row>
+    <row r="113" spans="2:15" s="97" customFormat="1">
+      <c r="B113" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113"/>
+      <c r="E113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+    </row>
+    <row r="114" spans="2:15" s="97" customFormat="1">
+      <c r="B114"/>
+      <c r="C114" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="E114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+    </row>
+    <row r="115" spans="2:15" s="97" customFormat="1">
+      <c r="B115"/>
+      <c r="C115" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+    </row>
+    <row r="116" spans="2:15" s="97" customFormat="1">
+      <c r="B116"/>
+      <c r="C116" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+    </row>
+    <row r="117" spans="2:15" s="97" customFormat="1">
+      <c r="B117"/>
+      <c r="C117" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+    </row>
+    <row r="118" spans="2:15" s="97" customFormat="1">
+      <c r="B118"/>
+      <c r="C118" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+    </row>
+    <row r="119" spans="2:15" s="97" customFormat="1">
+      <c r="B119"/>
+      <c r="C119" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F52">
+      <formula1>$C$114:$C$119</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E11:E54">
+      <formula1>$C$107:$C$111</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:D38">
+      <formula1>$C$108:$C$112</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F53:F91">
+      <formula1>$C$115:$C$119</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D53:D54 D39:D48 D11:D34">
+      <formula1>$C$101:$C$105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:D52">
+      <formula1>$C$118:$C$122</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="28" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -2058,7 +2058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="336">
+  <cellXfs count="348">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -2851,60 +2851,6 @@
     <xf numFmtId="164" fontId="0" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3014,19 +2960,109 @@
     <xf numFmtId="1" fontId="0" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="22" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="20" fillId="21" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="20" fillId="21" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3046,13 +3082,13 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment textRotation="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3083,17 +3119,395 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment textRotation="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -3112,15 +3526,6 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -3173,6 +3578,15 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3583,29 +3997,15 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3619,8 +4019,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3652,6 +4050,15 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3684,377 +4091,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -8152,48 +8188,48 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="B10:M54">
     <filterColumn colId="5"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="No." dataDxfId="32"/>
-    <tableColumn id="2" name="Task description" dataDxfId="31"/>
-    <tableColumn id="3" name="Type" dataDxfId="30"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="29"/>
-    <tableColumn id="5" name="Status" dataDxfId="28"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="19"/>
-    <tableColumn id="8" name="08/05" dataDxfId="27"/>
-    <tableColumn id="9" name="09/05" dataDxfId="26"/>
-    <tableColumn id="10" name="10/05" dataDxfId="25"/>
-    <tableColumn id="11" name="11/05" dataDxfId="24"/>
-    <tableColumn id="12" name="12/05" dataDxfId="23"/>
-    <tableColumn id="13" name="End" dataDxfId="22"/>
+    <tableColumn id="1" name="No." dataDxfId="30"/>
+    <tableColumn id="2" name="Task description" dataDxfId="29"/>
+    <tableColumn id="3" name="Type" dataDxfId="28"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="27"/>
+    <tableColumn id="5" name="Status" dataDxfId="26"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="25"/>
+    <tableColumn id="8" name="08/05" dataDxfId="24"/>
+    <tableColumn id="9" name="09/05" dataDxfId="23"/>
+    <tableColumn id="10" name="10/05" dataDxfId="22"/>
+    <tableColumn id="11" name="11/05" dataDxfId="21"/>
+    <tableColumn id="12" name="12/05" dataDxfId="20"/>
+    <tableColumn id="13" name="End" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="B10:O54">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="18"/>
-    <tableColumn id="2" name="Task description" dataDxfId="17"/>
-    <tableColumn id="3" name="Type" dataDxfId="16"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="15"/>
-    <tableColumn id="5" name="Status" dataDxfId="14"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="13"/>
-    <tableColumn id="8" name="13/05" dataDxfId="12"/>
-    <tableColumn id="9" name="14/05" dataDxfId="11"/>
-    <tableColumn id="10" name="15/05" dataDxfId="10"/>
-    <tableColumn id="11" name="16/05" dataDxfId="9"/>
-    <tableColumn id="12" name="17/05" dataDxfId="8"/>
-    <tableColumn id="13" name="18/05" dataDxfId="7"/>
+    <tableColumn id="1" name="No." dataDxfId="13"/>
+    <tableColumn id="2" name="Task description" dataDxfId="12"/>
+    <tableColumn id="3" name="Type" dataDxfId="11"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="10"/>
+    <tableColumn id="5" name="Status" dataDxfId="9"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="8"/>
+    <tableColumn id="8" name="13/05" dataDxfId="7"/>
+    <tableColumn id="9" name="14/05" dataDxfId="6"/>
+    <tableColumn id="10" name="15/05" dataDxfId="5"/>
+    <tableColumn id="11" name="16/05" dataDxfId="4"/>
+    <tableColumn id="12" name="17/05" dataDxfId="3"/>
+    <tableColumn id="13" name="18/05" dataDxfId="2"/>
     <tableColumn id="14" name="19/05" dataDxfId="1"/>
     <tableColumn id="15" name="End" dataDxfId="0"/>
   </tableColumns>
@@ -8576,7 +8612,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="C14" s="274">
+      <c r="C14" s="316">
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -8587,7 +8623,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="C15" s="275"/>
+      <c r="C15" s="317"/>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
@@ -8595,28 +8631,28 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="C16" s="275"/>
+      <c r="C16" s="317"/>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="275"/>
+      <c r="C17" s="317"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="281"/>
+      <c r="C18" s="318"/>
       <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="288">
+      <c r="C19" s="321">
         <v>3</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -8627,7 +8663,7 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="289"/>
+      <c r="C20" s="322"/>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
@@ -8637,7 +8673,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="289"/>
+      <c r="C21" s="322"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -8647,42 +8683,42 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="289"/>
+      <c r="C22" s="322"/>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="289"/>
+      <c r="C23" s="322"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="289"/>
+      <c r="C24" s="322"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="289"/>
+      <c r="C25" s="322"/>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="290"/>
+      <c r="C26" s="323"/>
       <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="53"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="274">
+      <c r="C27" s="316">
         <v>4</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -8693,56 +8729,56 @@
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="275"/>
+      <c r="C28" s="317"/>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="275"/>
+      <c r="C29" s="317"/>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="275"/>
+      <c r="C30" s="317"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="275"/>
+      <c r="C31" s="317"/>
       <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="275"/>
+      <c r="C32" s="317"/>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="C33" s="275"/>
+      <c r="C33" s="317"/>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="C34" s="281"/>
+      <c r="C34" s="318"/>
       <c r="D34" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="280">
+      <c r="C35" s="313">
         <v>5</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -8753,14 +8789,14 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="278"/>
+      <c r="C36" s="314"/>
       <c r="D36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="278"/>
+      <c r="C37" s="314"/>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
@@ -8768,14 +8804,14 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="285"/>
+      <c r="C38" s="315"/>
       <c r="D38" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="49"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="274">
+      <c r="C39" s="316">
         <v>6</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -8786,21 +8822,21 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="275"/>
+      <c r="C40" s="317"/>
       <c r="D40" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="281"/>
+      <c r="C41" s="318"/>
       <c r="D41" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="286" t="s">
+      <c r="C42" s="319" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -8811,7 +8847,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="C43" s="287"/>
+      <c r="C43" s="320"/>
       <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
@@ -8851,10 +8887,10 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="C52" s="284" t="s">
+      <c r="C52" s="326" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="284"/>
+      <c r="D52" s="326"/>
       <c r="E52" s="42"/>
     </row>
     <row r="53" spans="2:5">
@@ -8876,10 +8912,10 @@
       <c r="E54" s="40"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="C55" s="282" t="s">
+      <c r="C55" s="324" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="283"/>
+      <c r="D55" s="325"/>
       <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5">
@@ -8901,10 +8937,10 @@
       <c r="E57" s="40"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="C58" s="282" t="s">
+      <c r="C58" s="324" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="283"/>
+      <c r="D58" s="325"/>
       <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5">
@@ -8917,7 +8953,7 @@
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="C60" s="275">
+      <c r="C60" s="317">
         <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
@@ -8926,70 +8962,70 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="C61" s="275"/>
+      <c r="C61" s="317"/>
       <c r="D61" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="C62" s="275"/>
+      <c r="C62" s="317"/>
       <c r="D62" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="C63" s="275"/>
+      <c r="C63" s="317"/>
       <c r="D63" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="C64" s="275"/>
+      <c r="C64" s="317"/>
       <c r="D64" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="275"/>
+      <c r="C65" s="317"/>
       <c r="D65" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="275"/>
+      <c r="C66" s="317"/>
       <c r="D66" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="18"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="275"/>
+      <c r="C67" s="317"/>
       <c r="D67" s="32" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="275"/>
+      <c r="C68" s="317"/>
       <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="281"/>
+      <c r="C69" s="318"/>
       <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="18"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="280">
+      <c r="C70" s="313">
         <v>2</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -8998,35 +9034,35 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="278"/>
+      <c r="C71" s="314"/>
       <c r="D71" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="3:5">
-      <c r="C72" s="278"/>
+      <c r="C72" s="314"/>
       <c r="D72" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="278"/>
+      <c r="C73" s="314"/>
       <c r="D73" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="278"/>
+      <c r="C74" s="314"/>
       <c r="D74" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="49"/>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="274">
+      <c r="C75" s="316">
         <v>3</v>
       </c>
       <c r="D75" s="44" t="s">
@@ -9035,42 +9071,42 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="275"/>
+      <c r="C76" s="317"/>
       <c r="D76" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="275"/>
+      <c r="C77" s="317"/>
       <c r="D77" s="33" t="s">
         <v>72</v>
       </c>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="275"/>
+      <c r="C78" s="317"/>
       <c r="D78" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E78" s="18"/>
     </row>
     <row r="79" spans="3:5">
-      <c r="C79" s="275"/>
+      <c r="C79" s="317"/>
       <c r="D79" s="33" t="s">
         <v>74</v>
       </c>
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C80" s="276"/>
+      <c r="C80" s="327"/>
       <c r="D80" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="3:5">
-      <c r="C81" s="277">
+      <c r="C81" s="328">
         <v>4</v>
       </c>
       <c r="D81" s="57" t="s">
@@ -9079,63 +9115,63 @@
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="278"/>
+      <c r="C82" s="314"/>
       <c r="D82" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E82" s="48"/>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="278"/>
+      <c r="C83" s="314"/>
       <c r="D83" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="3:5">
-      <c r="C84" s="278"/>
+      <c r="C84" s="314"/>
       <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="48"/>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="278"/>
+      <c r="C85" s="314"/>
       <c r="D85" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="48"/>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="278"/>
+      <c r="C86" s="314"/>
       <c r="D86" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="48"/>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="278"/>
+      <c r="C87" s="314"/>
       <c r="D87" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="278"/>
+      <c r="C88" s="314"/>
       <c r="D88" s="34" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="48"/>
     </row>
     <row r="89" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C89" s="279"/>
+      <c r="C89" s="329"/>
       <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="3:5">
-      <c r="C90" s="274">
+      <c r="C90" s="316">
         <v>5</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -9144,28 +9180,28 @@
       <c r="E90" s="18"/>
     </row>
     <row r="91" spans="3:5">
-      <c r="C91" s="275"/>
+      <c r="C91" s="317"/>
       <c r="D91" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="3:5">
-      <c r="C92" s="275"/>
+      <c r="C92" s="317"/>
       <c r="D92" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="3:5">
-      <c r="C93" s="275"/>
+      <c r="C93" s="317"/>
       <c r="D93" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="3:5">
-      <c r="C94" s="280">
+      <c r="C94" s="313">
         <v>6</v>
       </c>
       <c r="D94" s="57" t="s">
@@ -9174,21 +9210,21 @@
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="278"/>
+      <c r="C95" s="314"/>
       <c r="D95" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="278"/>
+      <c r="C96" s="314"/>
       <c r="D96" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="48"/>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="274">
+      <c r="C97" s="316">
         <v>7</v>
       </c>
       <c r="D97" s="44" t="s">
@@ -9197,35 +9233,35 @@
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="275"/>
+      <c r="C98" s="317"/>
       <c r="D98" s="32" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="18"/>
     </row>
     <row r="99" spans="3:5">
-      <c r="C99" s="275"/>
+      <c r="C99" s="317"/>
       <c r="D99" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="18"/>
     </row>
     <row r="100" spans="3:5">
-      <c r="C100" s="275"/>
+      <c r="C100" s="317"/>
       <c r="D100" s="32" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="18"/>
     </row>
     <row r="101" spans="3:5">
-      <c r="C101" s="281"/>
+      <c r="C101" s="318"/>
       <c r="D101" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="18"/>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="280">
+      <c r="C102" s="313">
         <v>8</v>
       </c>
       <c r="D102" s="57" t="s">
@@ -9234,21 +9270,21 @@
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="3:5">
-      <c r="C103" s="278"/>
+      <c r="C103" s="314"/>
       <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="3:5">
-      <c r="C104" s="278"/>
+      <c r="C104" s="314"/>
       <c r="D104" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="48"/>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="274" t="s">
+      <c r="C105" s="316" t="s">
         <v>99</v>
       </c>
       <c r="D105" s="58" t="s">
@@ -9259,23 +9295,12 @@
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="275"/>
+      <c r="C106" s="317"/>
       <c r="D106" s="38"/>
       <c r="E106" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C75:C80"/>
     <mergeCell ref="C81:C89"/>
@@ -9283,6 +9308,17 @@
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C27:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
@@ -11816,12 +11852,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:27" ht="18">
-      <c r="B7" s="291" t="s">
+      <c r="B7" s="330" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
+      <c r="C7" s="330"/>
+      <c r="D7" s="330"/>
+      <c r="E7" s="330"/>
     </row>
     <row r="10" spans="2:27" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -15997,12 +16033,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:14" ht="18">
-      <c r="B7" s="291" t="s">
+      <c r="B7" s="330" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
+      <c r="C7" s="330"/>
+      <c r="D7" s="330"/>
+      <c r="E7" s="330"/>
     </row>
     <row r="10" spans="2:14" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -17618,942 +17654,942 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:13" ht="18">
-      <c r="B7" s="291" t="s">
+      <c r="B7" s="330" t="s">
         <v>348</v>
       </c>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
+      <c r="C7" s="330"/>
+      <c r="D7" s="330"/>
+      <c r="E7" s="330"/>
     </row>
     <row r="10" spans="2:13" s="107" customFormat="1" ht="12" customHeight="1">
-      <c r="B10" s="293" t="s">
+      <c r="B10" s="275" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="294" t="s">
+      <c r="C10" s="276" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="294" t="s">
+      <c r="D10" s="276" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="294" t="s">
+      <c r="E10" s="276" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="294" t="s">
+      <c r="F10" s="276" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="328" t="s">
+      <c r="G10" s="310" t="s">
         <v>347</v>
       </c>
-      <c r="H10" s="295" t="s">
+      <c r="H10" s="277" t="s">
         <v>322</v>
       </c>
-      <c r="I10" s="295" t="s">
+      <c r="I10" s="277" t="s">
         <v>321</v>
       </c>
-      <c r="J10" s="294" t="s">
+      <c r="J10" s="276" t="s">
         <v>323</v>
       </c>
-      <c r="K10" s="294" t="s">
+      <c r="K10" s="276" t="s">
         <v>324</v>
       </c>
-      <c r="L10" s="294" t="s">
+      <c r="L10" s="276" t="s">
         <v>325</v>
       </c>
-      <c r="M10" s="308" t="s">
+      <c r="M10" s="290" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="309">
+      <c r="B11" s="291">
         <v>1</v>
       </c>
-      <c r="C11" s="310" t="s">
+      <c r="C11" s="292" t="s">
         <v>329</v>
       </c>
-      <c r="D11" s="311" t="s">
+      <c r="D11" s="293" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="312"/>
-      <c r="F11" s="313"/>
-      <c r="G11" s="313"/>
-      <c r="H11" s="311"/>
-      <c r="I11" s="311"/>
-      <c r="J11" s="311"/>
-      <c r="K11" s="311"/>
-      <c r="L11" s="311"/>
-      <c r="M11" s="314"/>
+      <c r="E11" s="294"/>
+      <c r="F11" s="295"/>
+      <c r="G11" s="295"/>
+      <c r="H11" s="293"/>
+      <c r="I11" s="293"/>
+      <c r="J11" s="293"/>
+      <c r="K11" s="293"/>
+      <c r="L11" s="293"/>
+      <c r="M11" s="296"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="315">
+      <c r="B12" s="297">
         <v>2</v>
       </c>
-      <c r="C12" s="316" t="s">
+      <c r="C12" s="298" t="s">
         <v>330</v>
       </c>
-      <c r="D12" s="311" t="s">
+      <c r="D12" s="293" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="312" t="s">
+      <c r="E12" s="294" t="s">
         <v>328</v>
       </c>
-      <c r="F12" s="313" t="s">
+      <c r="F12" s="295" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="313">
+      <c r="G12" s="295">
         <v>3</v>
       </c>
-      <c r="H12" s="311">
+      <c r="H12" s="293">
         <v>3</v>
       </c>
-      <c r="I12" s="317">
+      <c r="I12" s="299">
         <v>3</v>
       </c>
-      <c r="J12" s="317">
+      <c r="J12" s="299">
         <v>2</v>
       </c>
-      <c r="K12" s="317">
+      <c r="K12" s="299">
         <v>1</v>
       </c>
-      <c r="L12" s="317">
-        <v>0</v>
-      </c>
-      <c r="M12" s="318">
+      <c r="L12" s="299">
+        <v>0</v>
+      </c>
+      <c r="M12" s="300">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="309">
+      <c r="B13" s="291">
         <v>3</v>
       </c>
-      <c r="C13" s="316" t="s">
+      <c r="C13" s="298" t="s">
         <v>331</v>
       </c>
-      <c r="D13" s="311" t="s">
+      <c r="D13" s="293" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="312" t="s">
+      <c r="E13" s="294" t="s">
         <v>328</v>
       </c>
-      <c r="F13" s="313" t="s">
+      <c r="F13" s="295" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="313">
+      <c r="G13" s="295">
         <v>3</v>
       </c>
-      <c r="H13" s="311">
+      <c r="H13" s="293">
         <v>3</v>
       </c>
-      <c r="I13" s="317">
+      <c r="I13" s="299">
         <v>3</v>
       </c>
-      <c r="J13" s="317">
+      <c r="J13" s="299">
         <v>3</v>
       </c>
-      <c r="K13" s="317">
+      <c r="K13" s="299">
         <v>2</v>
       </c>
-      <c r="L13" s="317">
+      <c r="L13" s="299">
         <v>1</v>
       </c>
-      <c r="M13" s="318">
+      <c r="M13" s="300">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="315">
+      <c r="B14" s="297">
         <v>4</v>
       </c>
-      <c r="C14" s="316" t="s">
+      <c r="C14" s="298" t="s">
         <v>332</v>
       </c>
-      <c r="D14" s="311" t="s">
+      <c r="D14" s="293" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="312" t="s">
+      <c r="E14" s="294" t="s">
         <v>328</v>
       </c>
-      <c r="F14" s="313" t="s">
+      <c r="F14" s="295" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="313">
+      <c r="G14" s="295">
         <v>3</v>
       </c>
-      <c r="H14" s="311">
+      <c r="H14" s="293">
         <v>3</v>
       </c>
-      <c r="I14" s="317">
+      <c r="I14" s="299">
         <v>3</v>
       </c>
-      <c r="J14" s="317">
+      <c r="J14" s="299">
         <v>3</v>
       </c>
-      <c r="K14" s="317">
+      <c r="K14" s="299">
         <v>2</v>
       </c>
-      <c r="L14" s="317">
+      <c r="L14" s="299">
         <v>1</v>
       </c>
-      <c r="M14" s="318">
+      <c r="M14" s="300">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="309">
+      <c r="B15" s="291">
         <v>5</v>
       </c>
-      <c r="C15" s="310" t="s">
+      <c r="C15" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="311" t="s">
+      <c r="D15" s="293" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="312"/>
-      <c r="F15" s="313"/>
-      <c r="G15" s="313"/>
-      <c r="H15" s="311"/>
-      <c r="I15" s="317"/>
-      <c r="J15" s="317"/>
-      <c r="K15" s="317"/>
-      <c r="L15" s="311"/>
-      <c r="M15" s="314"/>
+      <c r="E15" s="294"/>
+      <c r="F15" s="295"/>
+      <c r="G15" s="295"/>
+      <c r="H15" s="293"/>
+      <c r="I15" s="299"/>
+      <c r="J15" s="299"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="293"/>
+      <c r="M15" s="296"/>
     </row>
     <row r="16" spans="2:13" s="197" customFormat="1">
-      <c r="B16" s="315">
+      <c r="B16" s="297">
         <v>6</v>
       </c>
-      <c r="C16" s="316" t="s">
+      <c r="C16" s="298" t="s">
         <v>334</v>
       </c>
-      <c r="D16" s="311" t="s">
+      <c r="D16" s="293" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="312" t="s">
+      <c r="E16" s="294" t="s">
         <v>326</v>
       </c>
-      <c r="F16" s="313" t="s">
+      <c r="F16" s="295" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="313">
+      <c r="G16" s="295">
         <v>3</v>
       </c>
-      <c r="H16" s="311">
+      <c r="H16" s="293">
         <v>3</v>
       </c>
-      <c r="I16" s="317">
+      <c r="I16" s="299">
         <v>3</v>
       </c>
-      <c r="J16" s="317">
+      <c r="J16" s="299">
         <v>3</v>
       </c>
-      <c r="K16" s="317">
+      <c r="K16" s="299">
         <v>2</v>
       </c>
-      <c r="L16" s="317">
+      <c r="L16" s="299">
         <v>1</v>
       </c>
-      <c r="M16" s="318">
+      <c r="M16" s="300">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:13" s="197" customFormat="1">
-      <c r="B17" s="309">
+      <c r="B17" s="291">
         <v>7</v>
       </c>
-      <c r="C17" s="316" t="s">
+      <c r="C17" s="298" t="s">
         <v>335</v>
       </c>
-      <c r="D17" s="311" t="s">
+      <c r="D17" s="293" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="312" t="s">
+      <c r="E17" s="294" t="s">
         <v>326</v>
       </c>
-      <c r="F17" s="313" t="s">
+      <c r="F17" s="295" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="313">
+      <c r="G17" s="295">
         <v>4</v>
       </c>
-      <c r="H17" s="311">
+      <c r="H17" s="293">
         <v>3</v>
       </c>
-      <c r="I17" s="317">
+      <c r="I17" s="299">
         <v>2</v>
       </c>
-      <c r="J17" s="317">
+      <c r="J17" s="299">
         <v>1</v>
       </c>
-      <c r="K17" s="317">
-        <v>0</v>
-      </c>
-      <c r="L17" s="317">
-        <v>0</v>
-      </c>
-      <c r="M17" s="318">
+      <c r="K17" s="299">
+        <v>0</v>
+      </c>
+      <c r="L17" s="299">
+        <v>0</v>
+      </c>
+      <c r="M17" s="300">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:13" s="197" customFormat="1">
-      <c r="B18" s="315">
+      <c r="B18" s="297">
         <v>8</v>
       </c>
-      <c r="C18" s="316" t="s">
+      <c r="C18" s="298" t="s">
         <v>346</v>
       </c>
-      <c r="D18" s="311" t="s">
+      <c r="D18" s="293" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="312" t="s">
+      <c r="E18" s="294" t="s">
         <v>326</v>
       </c>
-      <c r="F18" s="313" t="s">
+      <c r="F18" s="295" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="313">
+      <c r="G18" s="295">
         <v>2</v>
       </c>
-      <c r="H18" s="311">
+      <c r="H18" s="293">
         <v>2</v>
       </c>
-      <c r="I18" s="317">
+      <c r="I18" s="299">
         <v>2</v>
       </c>
-      <c r="J18" s="317">
+      <c r="J18" s="299">
         <v>2</v>
       </c>
-      <c r="K18" s="317">
+      <c r="K18" s="299">
         <v>2</v>
       </c>
-      <c r="L18" s="317">
+      <c r="L18" s="299">
         <v>1</v>
       </c>
-      <c r="M18" s="318">
+      <c r="M18" s="300">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:13" s="197" customFormat="1">
-      <c r="B19" s="309">
+      <c r="B19" s="291">
         <v>9</v>
       </c>
-      <c r="C19" s="310" t="s">
+      <c r="C19" s="292" t="s">
         <v>336</v>
       </c>
-      <c r="D19" s="311" t="s">
+      <c r="D19" s="293" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="312"/>
-      <c r="F19" s="313"/>
-      <c r="G19" s="313"/>
-      <c r="H19" s="311"/>
-      <c r="I19" s="317"/>
-      <c r="J19" s="317"/>
-      <c r="K19" s="311"/>
-      <c r="L19" s="301"/>
-      <c r="M19" s="302"/>
+      <c r="E19" s="294"/>
+      <c r="F19" s="295"/>
+      <c r="G19" s="295"/>
+      <c r="H19" s="293"/>
+      <c r="I19" s="299"/>
+      <c r="J19" s="299"/>
+      <c r="K19" s="293"/>
+      <c r="L19" s="283"/>
+      <c r="M19" s="284"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="315">
+      <c r="B20" s="297">
         <v>10</v>
       </c>
-      <c r="C20" s="316" t="s">
+      <c r="C20" s="298" t="s">
         <v>337</v>
       </c>
-      <c r="D20" s="311" t="s">
+      <c r="D20" s="293" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="312" t="s">
+      <c r="E20" s="294" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="313" t="s">
+      <c r="F20" s="295" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="313">
+      <c r="G20" s="295">
         <v>4</v>
       </c>
-      <c r="H20" s="303">
+      <c r="H20" s="285">
         <v>4</v>
       </c>
-      <c r="I20" s="311">
+      <c r="I20" s="293">
         <v>4</v>
       </c>
-      <c r="J20" s="311">
+      <c r="J20" s="293">
         <v>2</v>
       </c>
-      <c r="K20" s="311">
+      <c r="K20" s="293">
         <v>2</v>
       </c>
-      <c r="L20" s="311">
-        <v>0</v>
-      </c>
-      <c r="M20" s="314">
+      <c r="L20" s="293">
+        <v>0</v>
+      </c>
+      <c r="M20" s="296">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="309">
+      <c r="B21" s="291">
         <v>11</v>
       </c>
-      <c r="C21" s="316" t="s">
+      <c r="C21" s="298" t="s">
         <v>338</v>
       </c>
-      <c r="D21" s="311" t="s">
+      <c r="D21" s="293" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="312" t="s">
+      <c r="E21" s="294" t="s">
         <v>327</v>
       </c>
-      <c r="F21" s="313" t="s">
+      <c r="F21" s="295" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="313">
+      <c r="G21" s="295">
         <v>4</v>
       </c>
-      <c r="H21" s="311">
+      <c r="H21" s="293">
         <v>4</v>
       </c>
-      <c r="I21" s="311">
+      <c r="I21" s="293">
         <v>4</v>
       </c>
-      <c r="J21" s="311">
+      <c r="J21" s="293">
         <v>3</v>
       </c>
-      <c r="K21" s="311">
+      <c r="K21" s="293">
         <v>3</v>
       </c>
-      <c r="L21" s="311">
+      <c r="L21" s="293">
         <v>1</v>
       </c>
-      <c r="M21" s="314">
+      <c r="M21" s="296">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="315">
+      <c r="B22" s="297">
         <v>12</v>
       </c>
-      <c r="C22" s="316"/>
-      <c r="D22" s="311"/>
-      <c r="E22" s="312"/>
-      <c r="F22" s="313"/>
-      <c r="G22" s="313"/>
-      <c r="H22" s="311"/>
-      <c r="I22" s="311"/>
-      <c r="J22" s="311"/>
-      <c r="K22" s="311"/>
-      <c r="L22" s="311"/>
-      <c r="M22" s="314"/>
+      <c r="C22" s="298"/>
+      <c r="D22" s="293"/>
+      <c r="E22" s="294"/>
+      <c r="F22" s="295"/>
+      <c r="G22" s="295"/>
+      <c r="H22" s="293"/>
+      <c r="I22" s="293"/>
+      <c r="J22" s="293"/>
+      <c r="K22" s="293"/>
+      <c r="L22" s="293"/>
+      <c r="M22" s="296"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="309">
+      <c r="B23" s="291">
         <v>13</v>
       </c>
-      <c r="C23" s="316"/>
-      <c r="D23" s="311"/>
-      <c r="E23" s="312"/>
-      <c r="F23" s="313"/>
-      <c r="G23" s="313"/>
-      <c r="H23" s="311"/>
-      <c r="I23" s="311"/>
-      <c r="J23" s="311"/>
-      <c r="K23" s="311"/>
-      <c r="L23" s="311"/>
-      <c r="M23" s="314"/>
+      <c r="C23" s="298"/>
+      <c r="D23" s="293"/>
+      <c r="E23" s="294"/>
+      <c r="F23" s="295"/>
+      <c r="G23" s="295"/>
+      <c r="H23" s="293"/>
+      <c r="I23" s="293"/>
+      <c r="J23" s="293"/>
+      <c r="K23" s="293"/>
+      <c r="L23" s="293"/>
+      <c r="M23" s="296"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="315">
+      <c r="B24" s="297">
         <v>14</v>
       </c>
-      <c r="C24" s="316"/>
-      <c r="D24" s="311"/>
-      <c r="E24" s="312"/>
-      <c r="F24" s="313"/>
-      <c r="G24" s="313"/>
-      <c r="H24" s="311"/>
-      <c r="I24" s="317"/>
-      <c r="J24" s="317"/>
-      <c r="K24" s="317"/>
-      <c r="L24" s="317"/>
-      <c r="M24" s="318"/>
+      <c r="C24" s="298"/>
+      <c r="D24" s="293"/>
+      <c r="E24" s="294"/>
+      <c r="F24" s="295"/>
+      <c r="G24" s="295"/>
+      <c r="H24" s="293"/>
+      <c r="I24" s="299"/>
+      <c r="J24" s="299"/>
+      <c r="K24" s="299"/>
+      <c r="L24" s="299"/>
+      <c r="M24" s="300"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="309">
+      <c r="B25" s="291">
         <v>15</v>
       </c>
-      <c r="C25" s="316"/>
-      <c r="D25" s="311"/>
-      <c r="E25" s="312"/>
-      <c r="F25" s="313"/>
-      <c r="G25" s="313"/>
-      <c r="H25" s="311"/>
-      <c r="I25" s="317"/>
-      <c r="J25" s="317"/>
-      <c r="K25" s="317"/>
-      <c r="L25" s="317"/>
-      <c r="M25" s="318"/>
+      <c r="C25" s="298"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="294"/>
+      <c r="F25" s="295"/>
+      <c r="G25" s="295"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="299"/>
+      <c r="J25" s="299"/>
+      <c r="K25" s="299"/>
+      <c r="L25" s="299"/>
+      <c r="M25" s="300"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="315">
+      <c r="B26" s="297">
         <v>16</v>
       </c>
-      <c r="C26" s="316"/>
-      <c r="D26" s="311"/>
-      <c r="E26" s="312"/>
-      <c r="F26" s="313"/>
-      <c r="G26" s="313"/>
-      <c r="H26" s="311"/>
-      <c r="I26" s="317"/>
-      <c r="J26" s="317"/>
-      <c r="K26" s="317"/>
-      <c r="L26" s="317"/>
-      <c r="M26" s="318"/>
+      <c r="C26" s="298"/>
+      <c r="D26" s="293"/>
+      <c r="E26" s="294"/>
+      <c r="F26" s="295"/>
+      <c r="G26" s="295"/>
+      <c r="H26" s="293"/>
+      <c r="I26" s="299"/>
+      <c r="J26" s="299"/>
+      <c r="K26" s="299"/>
+      <c r="L26" s="299"/>
+      <c r="M26" s="300"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="309">
+      <c r="B27" s="291">
         <v>17</v>
       </c>
-      <c r="C27" s="316"/>
-      <c r="D27" s="311"/>
-      <c r="E27" s="312"/>
-      <c r="F27" s="313"/>
-      <c r="G27" s="313"/>
-      <c r="H27" s="311"/>
-      <c r="I27" s="317"/>
-      <c r="J27" s="317"/>
-      <c r="K27" s="317"/>
-      <c r="L27" s="317"/>
-      <c r="M27" s="318"/>
+      <c r="C27" s="298"/>
+      <c r="D27" s="293"/>
+      <c r="E27" s="294"/>
+      <c r="F27" s="295"/>
+      <c r="G27" s="295"/>
+      <c r="H27" s="293"/>
+      <c r="I27" s="299"/>
+      <c r="J27" s="299"/>
+      <c r="K27" s="299"/>
+      <c r="L27" s="299"/>
+      <c r="M27" s="300"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="315">
+      <c r="B28" s="297">
         <v>18</v>
       </c>
-      <c r="C28" s="316"/>
-      <c r="D28" s="311"/>
-      <c r="E28" s="312"/>
-      <c r="F28" s="313"/>
-      <c r="G28" s="313"/>
-      <c r="H28" s="311"/>
-      <c r="I28" s="317"/>
-      <c r="J28" s="317"/>
-      <c r="K28" s="317"/>
-      <c r="L28" s="317"/>
-      <c r="M28" s="318"/>
+      <c r="C28" s="298"/>
+      <c r="D28" s="293"/>
+      <c r="E28" s="294"/>
+      <c r="F28" s="295"/>
+      <c r="G28" s="295"/>
+      <c r="H28" s="293"/>
+      <c r="I28" s="299"/>
+      <c r="J28" s="299"/>
+      <c r="K28" s="299"/>
+      <c r="L28" s="299"/>
+      <c r="M28" s="300"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="309">
+      <c r="B29" s="291">
         <v>19</v>
       </c>
-      <c r="C29" s="304"/>
-      <c r="D29" s="301"/>
-      <c r="E29" s="305"/>
-      <c r="F29" s="306"/>
-      <c r="G29" s="306"/>
-      <c r="H29" s="301"/>
-      <c r="I29" s="301"/>
-      <c r="J29" s="301"/>
-      <c r="K29" s="301"/>
-      <c r="L29" s="301"/>
-      <c r="M29" s="302"/>
+      <c r="C29" s="286"/>
+      <c r="D29" s="283"/>
+      <c r="E29" s="287"/>
+      <c r="F29" s="288"/>
+      <c r="G29" s="288"/>
+      <c r="H29" s="283"/>
+      <c r="I29" s="283"/>
+      <c r="J29" s="283"/>
+      <c r="K29" s="283"/>
+      <c r="L29" s="283"/>
+      <c r="M29" s="284"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="315">
+      <c r="B30" s="297">
         <v>20</v>
       </c>
-      <c r="C30" s="319"/>
-      <c r="D30" s="311"/>
-      <c r="E30" s="312"/>
-      <c r="F30" s="313"/>
-      <c r="G30" s="313"/>
-      <c r="H30" s="311"/>
-      <c r="I30" s="311"/>
-      <c r="J30" s="311"/>
-      <c r="K30" s="311"/>
-      <c r="L30" s="311"/>
-      <c r="M30" s="314"/>
+      <c r="C30" s="301"/>
+      <c r="D30" s="293"/>
+      <c r="E30" s="294"/>
+      <c r="F30" s="295"/>
+      <c r="G30" s="295"/>
+      <c r="H30" s="293"/>
+      <c r="I30" s="293"/>
+      <c r="J30" s="293"/>
+      <c r="K30" s="293"/>
+      <c r="L30" s="293"/>
+      <c r="M30" s="296"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="309">
+      <c r="B31" s="291">
         <v>21</v>
       </c>
-      <c r="C31" s="304"/>
-      <c r="D31" s="301"/>
-      <c r="E31" s="305"/>
-      <c r="F31" s="306"/>
-      <c r="G31" s="306"/>
-      <c r="H31" s="301"/>
-      <c r="I31" s="301"/>
-      <c r="J31" s="301"/>
-      <c r="K31" s="301"/>
-      <c r="L31" s="301"/>
-      <c r="M31" s="302"/>
+      <c r="C31" s="286"/>
+      <c r="D31" s="283"/>
+      <c r="E31" s="287"/>
+      <c r="F31" s="288"/>
+      <c r="G31" s="288"/>
+      <c r="H31" s="283"/>
+      <c r="I31" s="283"/>
+      <c r="J31" s="283"/>
+      <c r="K31" s="283"/>
+      <c r="L31" s="283"/>
+      <c r="M31" s="284"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="315">
+      <c r="B32" s="297">
         <v>22</v>
       </c>
-      <c r="C32" s="316"/>
-      <c r="D32" s="311"/>
-      <c r="E32" s="312"/>
-      <c r="F32" s="313"/>
-      <c r="G32" s="313"/>
-      <c r="H32" s="311"/>
-      <c r="I32" s="311"/>
-      <c r="J32" s="311"/>
-      <c r="K32" s="311"/>
-      <c r="L32" s="311"/>
-      <c r="M32" s="314"/>
+      <c r="C32" s="298"/>
+      <c r="D32" s="293"/>
+      <c r="E32" s="294"/>
+      <c r="F32" s="295"/>
+      <c r="G32" s="295"/>
+      <c r="H32" s="293"/>
+      <c r="I32" s="293"/>
+      <c r="J32" s="293"/>
+      <c r="K32" s="293"/>
+      <c r="L32" s="293"/>
+      <c r="M32" s="296"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="309">
+      <c r="B33" s="291">
         <v>23</v>
       </c>
-      <c r="C33" s="304"/>
-      <c r="D33" s="301"/>
-      <c r="E33" s="305"/>
-      <c r="F33" s="306"/>
-      <c r="G33" s="306"/>
-      <c r="H33" s="301"/>
-      <c r="I33" s="301"/>
-      <c r="J33" s="301"/>
-      <c r="K33" s="301"/>
-      <c r="L33" s="301"/>
-      <c r="M33" s="302"/>
+      <c r="C33" s="286"/>
+      <c r="D33" s="283"/>
+      <c r="E33" s="287"/>
+      <c r="F33" s="288"/>
+      <c r="G33" s="288"/>
+      <c r="H33" s="283"/>
+      <c r="I33" s="283"/>
+      <c r="J33" s="283"/>
+      <c r="K33" s="283"/>
+      <c r="L33" s="283"/>
+      <c r="M33" s="284"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="315">
+      <c r="B34" s="297">
         <v>24</v>
       </c>
-      <c r="C34" s="304"/>
-      <c r="D34" s="301"/>
-      <c r="E34" s="305"/>
-      <c r="F34" s="306"/>
-      <c r="G34" s="306"/>
-      <c r="H34" s="301"/>
-      <c r="I34" s="301"/>
-      <c r="J34" s="301"/>
-      <c r="K34" s="301"/>
-      <c r="L34" s="301"/>
-      <c r="M34" s="302"/>
+      <c r="C34" s="286"/>
+      <c r="D34" s="283"/>
+      <c r="E34" s="287"/>
+      <c r="F34" s="288"/>
+      <c r="G34" s="288"/>
+      <c r="H34" s="283"/>
+      <c r="I34" s="283"/>
+      <c r="J34" s="283"/>
+      <c r="K34" s="283"/>
+      <c r="L34" s="283"/>
+      <c r="M34" s="284"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="309">
+      <c r="B35" s="291">
         <v>25</v>
       </c>
-      <c r="C35" s="319"/>
-      <c r="D35" s="311"/>
-      <c r="E35" s="312"/>
-      <c r="F35" s="313"/>
-      <c r="G35" s="313"/>
-      <c r="H35" s="311"/>
-      <c r="I35" s="311"/>
-      <c r="J35" s="311"/>
-      <c r="K35" s="311"/>
-      <c r="L35" s="311"/>
-      <c r="M35" s="314"/>
+      <c r="C35" s="301"/>
+      <c r="D35" s="293"/>
+      <c r="E35" s="294"/>
+      <c r="F35" s="295"/>
+      <c r="G35" s="295"/>
+      <c r="H35" s="293"/>
+      <c r="I35" s="293"/>
+      <c r="J35" s="293"/>
+      <c r="K35" s="293"/>
+      <c r="L35" s="293"/>
+      <c r="M35" s="296"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="315">
+      <c r="B36" s="297">
         <v>26</v>
       </c>
-      <c r="C36" s="312"/>
-      <c r="D36" s="311"/>
-      <c r="E36" s="312"/>
-      <c r="F36" s="313"/>
-      <c r="G36" s="313"/>
-      <c r="H36" s="311"/>
-      <c r="I36" s="311"/>
-      <c r="J36" s="311"/>
-      <c r="K36" s="311"/>
-      <c r="L36" s="311"/>
-      <c r="M36" s="314"/>
+      <c r="C36" s="294"/>
+      <c r="D36" s="293"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="295"/>
+      <c r="G36" s="295"/>
+      <c r="H36" s="293"/>
+      <c r="I36" s="293"/>
+      <c r="J36" s="293"/>
+      <c r="K36" s="293"/>
+      <c r="L36" s="293"/>
+      <c r="M36" s="296"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="309">
+      <c r="B37" s="291">
         <v>27</v>
       </c>
-      <c r="C37" s="312"/>
-      <c r="D37" s="311"/>
-      <c r="E37" s="312"/>
-      <c r="F37" s="313"/>
-      <c r="G37" s="313"/>
-      <c r="H37" s="311"/>
-      <c r="I37" s="311"/>
-      <c r="J37" s="311"/>
-      <c r="K37" s="311"/>
-      <c r="L37" s="311"/>
-      <c r="M37" s="314"/>
+      <c r="C37" s="294"/>
+      <c r="D37" s="293"/>
+      <c r="E37" s="294"/>
+      <c r="F37" s="295"/>
+      <c r="G37" s="295"/>
+      <c r="H37" s="293"/>
+      <c r="I37" s="293"/>
+      <c r="J37" s="293"/>
+      <c r="K37" s="293"/>
+      <c r="L37" s="293"/>
+      <c r="M37" s="296"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="315">
+      <c r="B38" s="297">
         <v>28</v>
       </c>
-      <c r="C38" s="312"/>
-      <c r="D38" s="311"/>
-      <c r="E38" s="312"/>
-      <c r="F38" s="313"/>
-      <c r="G38" s="313"/>
-      <c r="H38" s="311"/>
-      <c r="I38" s="311"/>
-      <c r="J38" s="311"/>
-      <c r="K38" s="311"/>
-      <c r="L38" s="311"/>
-      <c r="M38" s="314"/>
+      <c r="C38" s="294"/>
+      <c r="D38" s="293"/>
+      <c r="E38" s="294"/>
+      <c r="F38" s="295"/>
+      <c r="G38" s="295"/>
+      <c r="H38" s="293"/>
+      <c r="I38" s="293"/>
+      <c r="J38" s="293"/>
+      <c r="K38" s="293"/>
+      <c r="L38" s="293"/>
+      <c r="M38" s="296"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="309">
+      <c r="B39" s="291">
         <v>29</v>
       </c>
-      <c r="C39" s="319"/>
-      <c r="D39" s="311"/>
-      <c r="E39" s="312"/>
-      <c r="F39" s="313"/>
-      <c r="G39" s="313"/>
-      <c r="H39" s="311"/>
-      <c r="I39" s="311"/>
-      <c r="J39" s="311"/>
-      <c r="K39" s="311"/>
-      <c r="L39" s="311"/>
-      <c r="M39" s="314"/>
+      <c r="C39" s="301"/>
+      <c r="D39" s="293"/>
+      <c r="E39" s="294"/>
+      <c r="F39" s="295"/>
+      <c r="G39" s="295"/>
+      <c r="H39" s="293"/>
+      <c r="I39" s="293"/>
+      <c r="J39" s="293"/>
+      <c r="K39" s="293"/>
+      <c r="L39" s="293"/>
+      <c r="M39" s="296"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="315">
+      <c r="B40" s="297">
         <v>30</v>
       </c>
-      <c r="C40" s="319"/>
-      <c r="D40" s="311"/>
-      <c r="E40" s="312"/>
-      <c r="F40" s="313"/>
-      <c r="G40" s="313"/>
-      <c r="H40" s="311"/>
-      <c r="I40" s="311"/>
-      <c r="J40" s="311"/>
-      <c r="K40" s="311"/>
-      <c r="L40" s="311"/>
-      <c r="M40" s="314"/>
+      <c r="C40" s="301"/>
+      <c r="D40" s="293"/>
+      <c r="E40" s="294"/>
+      <c r="F40" s="295"/>
+      <c r="G40" s="295"/>
+      <c r="H40" s="293"/>
+      <c r="I40" s="293"/>
+      <c r="J40" s="293"/>
+      <c r="K40" s="293"/>
+      <c r="L40" s="293"/>
+      <c r="M40" s="296"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="309">
+      <c r="B41" s="291">
         <v>31</v>
       </c>
-      <c r="C41" s="319"/>
-      <c r="D41" s="311"/>
-      <c r="E41" s="312"/>
-      <c r="F41" s="313"/>
-      <c r="G41" s="313"/>
-      <c r="H41" s="311"/>
-      <c r="I41" s="311"/>
-      <c r="J41" s="311"/>
-      <c r="K41" s="311"/>
-      <c r="L41" s="311"/>
-      <c r="M41" s="314"/>
+      <c r="C41" s="301"/>
+      <c r="D41" s="293"/>
+      <c r="E41" s="294"/>
+      <c r="F41" s="295"/>
+      <c r="G41" s="295"/>
+      <c r="H41" s="293"/>
+      <c r="I41" s="293"/>
+      <c r="J41" s="293"/>
+      <c r="K41" s="293"/>
+      <c r="L41" s="293"/>
+      <c r="M41" s="296"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="315">
+      <c r="B42" s="297">
         <v>32</v>
       </c>
-      <c r="C42" s="319"/>
-      <c r="D42" s="311"/>
-      <c r="E42" s="312"/>
-      <c r="F42" s="313"/>
-      <c r="G42" s="313"/>
-      <c r="H42" s="311"/>
-      <c r="I42" s="311"/>
-      <c r="J42" s="311"/>
-      <c r="K42" s="311"/>
-      <c r="L42" s="311"/>
-      <c r="M42" s="314"/>
+      <c r="C42" s="301"/>
+      <c r="D42" s="293"/>
+      <c r="E42" s="294"/>
+      <c r="F42" s="295"/>
+      <c r="G42" s="295"/>
+      <c r="H42" s="293"/>
+      <c r="I42" s="293"/>
+      <c r="J42" s="293"/>
+      <c r="K42" s="293"/>
+      <c r="L42" s="293"/>
+      <c r="M42" s="296"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="309">
+      <c r="B43" s="291">
         <v>33</v>
       </c>
-      <c r="C43" s="319"/>
-      <c r="D43" s="311"/>
-      <c r="E43" s="312"/>
-      <c r="F43" s="313"/>
-      <c r="G43" s="313"/>
-      <c r="H43" s="311"/>
-      <c r="I43" s="311"/>
-      <c r="J43" s="311"/>
-      <c r="K43" s="311"/>
-      <c r="L43" s="311"/>
-      <c r="M43" s="314"/>
+      <c r="C43" s="301"/>
+      <c r="D43" s="293"/>
+      <c r="E43" s="294"/>
+      <c r="F43" s="295"/>
+      <c r="G43" s="295"/>
+      <c r="H43" s="293"/>
+      <c r="I43" s="293"/>
+      <c r="J43" s="293"/>
+      <c r="K43" s="293"/>
+      <c r="L43" s="293"/>
+      <c r="M43" s="296"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="315">
+      <c r="B44" s="297">
         <v>34</v>
       </c>
-      <c r="C44" s="316"/>
-      <c r="D44" s="311"/>
-      <c r="E44" s="312"/>
-      <c r="F44" s="313"/>
-      <c r="G44" s="313"/>
-      <c r="H44" s="311"/>
-      <c r="I44" s="311"/>
-      <c r="J44" s="311"/>
-      <c r="K44" s="311"/>
-      <c r="L44" s="311"/>
-      <c r="M44" s="314"/>
+      <c r="C44" s="298"/>
+      <c r="D44" s="293"/>
+      <c r="E44" s="294"/>
+      <c r="F44" s="295"/>
+      <c r="G44" s="295"/>
+      <c r="H44" s="293"/>
+      <c r="I44" s="293"/>
+      <c r="J44" s="293"/>
+      <c r="K44" s="293"/>
+      <c r="L44" s="293"/>
+      <c r="M44" s="296"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="309">
+      <c r="B45" s="291">
         <v>35</v>
       </c>
-      <c r="C45" s="319"/>
-      <c r="D45" s="311"/>
-      <c r="E45" s="312"/>
-      <c r="F45" s="313"/>
-      <c r="G45" s="313"/>
-      <c r="H45" s="311"/>
-      <c r="I45" s="311"/>
-      <c r="J45" s="311"/>
-      <c r="K45" s="311"/>
-      <c r="L45" s="311"/>
-      <c r="M45" s="314"/>
+      <c r="C45" s="301"/>
+      <c r="D45" s="293"/>
+      <c r="E45" s="294"/>
+      <c r="F45" s="295"/>
+      <c r="G45" s="295"/>
+      <c r="H45" s="293"/>
+      <c r="I45" s="293"/>
+      <c r="J45" s="293"/>
+      <c r="K45" s="293"/>
+      <c r="L45" s="293"/>
+      <c r="M45" s="296"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="315">
+      <c r="B46" s="297">
         <v>36</v>
       </c>
-      <c r="C46" s="319"/>
-      <c r="D46" s="311"/>
-      <c r="E46" s="312"/>
-      <c r="F46" s="313"/>
-      <c r="G46" s="313"/>
-      <c r="H46" s="311"/>
-      <c r="I46" s="311"/>
-      <c r="J46" s="311"/>
-      <c r="K46" s="311"/>
-      <c r="L46" s="311"/>
-      <c r="M46" s="314"/>
+      <c r="C46" s="301"/>
+      <c r="D46" s="293"/>
+      <c r="E46" s="294"/>
+      <c r="F46" s="295"/>
+      <c r="G46" s="295"/>
+      <c r="H46" s="293"/>
+      <c r="I46" s="293"/>
+      <c r="J46" s="293"/>
+      <c r="K46" s="293"/>
+      <c r="L46" s="293"/>
+      <c r="M46" s="296"/>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="309">
+      <c r="B47" s="291">
         <v>37</v>
       </c>
-      <c r="C47" s="319"/>
-      <c r="D47" s="311"/>
-      <c r="E47" s="312"/>
-      <c r="F47" s="313"/>
-      <c r="G47" s="313"/>
-      <c r="H47" s="311"/>
-      <c r="I47" s="311"/>
-      <c r="J47" s="311"/>
-      <c r="K47" s="311"/>
-      <c r="L47" s="311"/>
-      <c r="M47" s="314"/>
+      <c r="C47" s="301"/>
+      <c r="D47" s="293"/>
+      <c r="E47" s="294"/>
+      <c r="F47" s="295"/>
+      <c r="G47" s="295"/>
+      <c r="H47" s="293"/>
+      <c r="I47" s="293"/>
+      <c r="J47" s="293"/>
+      <c r="K47" s="293"/>
+      <c r="L47" s="293"/>
+      <c r="M47" s="296"/>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="315">
+      <c r="B48" s="297">
         <v>38</v>
       </c>
-      <c r="C48" s="319"/>
-      <c r="D48" s="311"/>
-      <c r="E48" s="312"/>
-      <c r="F48" s="313"/>
-      <c r="G48" s="313"/>
-      <c r="H48" s="311"/>
-      <c r="I48" s="311"/>
-      <c r="J48" s="311"/>
-      <c r="K48" s="311"/>
-      <c r="L48" s="311"/>
-      <c r="M48" s="314"/>
+      <c r="C48" s="301"/>
+      <c r="D48" s="293"/>
+      <c r="E48" s="294"/>
+      <c r="F48" s="295"/>
+      <c r="G48" s="295"/>
+      <c r="H48" s="293"/>
+      <c r="I48" s="293"/>
+      <c r="J48" s="293"/>
+      <c r="K48" s="293"/>
+      <c r="L48" s="293"/>
+      <c r="M48" s="296"/>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="309">
+      <c r="B49" s="291">
         <v>39</v>
       </c>
-      <c r="C49" s="316"/>
-      <c r="D49" s="307"/>
-      <c r="E49" s="312"/>
-      <c r="F49" s="313"/>
-      <c r="G49" s="313"/>
-      <c r="H49" s="311"/>
-      <c r="I49" s="311"/>
-      <c r="J49" s="311"/>
-      <c r="K49" s="311"/>
-      <c r="L49" s="311"/>
-      <c r="M49" s="314"/>
+      <c r="C49" s="298"/>
+      <c r="D49" s="289"/>
+      <c r="E49" s="294"/>
+      <c r="F49" s="295"/>
+      <c r="G49" s="295"/>
+      <c r="H49" s="293"/>
+      <c r="I49" s="293"/>
+      <c r="J49" s="293"/>
+      <c r="K49" s="293"/>
+      <c r="L49" s="293"/>
+      <c r="M49" s="296"/>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="315">
+      <c r="B50" s="297">
         <v>40</v>
       </c>
-      <c r="C50" s="316"/>
-      <c r="D50" s="307"/>
-      <c r="E50" s="312"/>
-      <c r="F50" s="313"/>
-      <c r="G50" s="313"/>
-      <c r="H50" s="311"/>
-      <c r="I50" s="311"/>
-      <c r="J50" s="311"/>
-      <c r="K50" s="311"/>
-      <c r="L50" s="311"/>
-      <c r="M50" s="314"/>
+      <c r="C50" s="298"/>
+      <c r="D50" s="289"/>
+      <c r="E50" s="294"/>
+      <c r="F50" s="295"/>
+      <c r="G50" s="295"/>
+      <c r="H50" s="293"/>
+      <c r="I50" s="293"/>
+      <c r="J50" s="293"/>
+      <c r="K50" s="293"/>
+      <c r="L50" s="293"/>
+      <c r="M50" s="296"/>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="309">
+      <c r="B51" s="291">
         <v>41</v>
       </c>
-      <c r="C51" s="316"/>
-      <c r="D51" s="307"/>
-      <c r="E51" s="312"/>
-      <c r="F51" s="313"/>
-      <c r="G51" s="313"/>
-      <c r="H51" s="311"/>
-      <c r="I51" s="311"/>
-      <c r="J51" s="311"/>
-      <c r="K51" s="311"/>
-      <c r="L51" s="311"/>
-      <c r="M51" s="314"/>
+      <c r="C51" s="298"/>
+      <c r="D51" s="289"/>
+      <c r="E51" s="294"/>
+      <c r="F51" s="295"/>
+      <c r="G51" s="295"/>
+      <c r="H51" s="293"/>
+      <c r="I51" s="293"/>
+      <c r="J51" s="293"/>
+      <c r="K51" s="293"/>
+      <c r="L51" s="293"/>
+      <c r="M51" s="296"/>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="315">
+      <c r="B52" s="297">
         <v>42</v>
       </c>
-      <c r="C52" s="316"/>
-      <c r="D52" s="307"/>
-      <c r="E52" s="312"/>
-      <c r="F52" s="313"/>
-      <c r="G52" s="313"/>
-      <c r="H52" s="311"/>
-      <c r="I52" s="311"/>
-      <c r="J52" s="311"/>
-      <c r="K52" s="311"/>
-      <c r="L52" s="311"/>
-      <c r="M52" s="314"/>
+      <c r="C52" s="298"/>
+      <c r="D52" s="289"/>
+      <c r="E52" s="294"/>
+      <c r="F52" s="295"/>
+      <c r="G52" s="295"/>
+      <c r="H52" s="293"/>
+      <c r="I52" s="293"/>
+      <c r="J52" s="293"/>
+      <c r="K52" s="293"/>
+      <c r="L52" s="293"/>
+      <c r="M52" s="296"/>
     </row>
     <row r="53" spans="2:13">
-      <c r="B53" s="309">
+      <c r="B53" s="291">
         <v>43</v>
       </c>
-      <c r="C53" s="320"/>
-      <c r="D53" s="311"/>
-      <c r="E53" s="312"/>
-      <c r="F53" s="313"/>
-      <c r="G53" s="313"/>
-      <c r="H53" s="313"/>
-      <c r="I53" s="313"/>
-      <c r="J53" s="313"/>
-      <c r="K53" s="313"/>
-      <c r="L53" s="313"/>
-      <c r="M53" s="321"/>
+      <c r="C53" s="302"/>
+      <c r="D53" s="293"/>
+      <c r="E53" s="294"/>
+      <c r="F53" s="295"/>
+      <c r="G53" s="295"/>
+      <c r="H53" s="295"/>
+      <c r="I53" s="295"/>
+      <c r="J53" s="295"/>
+      <c r="K53" s="295"/>
+      <c r="L53" s="295"/>
+      <c r="M53" s="303"/>
     </row>
     <row r="54" spans="2:13">
-      <c r="B54" s="322" t="s">
+      <c r="B54" s="304" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="323"/>
-      <c r="D54" s="324"/>
-      <c r="E54" s="325"/>
-      <c r="F54" s="326"/>
-      <c r="G54" s="326"/>
-      <c r="H54" s="326"/>
-      <c r="I54" s="326"/>
-      <c r="J54" s="326"/>
-      <c r="K54" s="326"/>
-      <c r="L54" s="326"/>
-      <c r="M54" s="327"/>
+      <c r="C54" s="305"/>
+      <c r="D54" s="306"/>
+      <c r="E54" s="307"/>
+      <c r="F54" s="308"/>
+      <c r="G54" s="308"/>
+      <c r="H54" s="308"/>
+      <c r="I54" s="308"/>
+      <c r="J54" s="308"/>
+      <c r="K54" s="308"/>
+      <c r="L54" s="308"/>
+      <c r="M54" s="309"/>
     </row>
     <row r="101" spans="2:15" s="97" customFormat="1">
       <c r="B101" t="s">
@@ -18849,7 +18885,7 @@
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18887,30 +18923,30 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="291" t="s">
+      <c r="B7" s="330" t="s">
         <v>354</v>
       </c>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
+      <c r="C7" s="330"/>
+      <c r="D7" s="330"/>
+      <c r="E7" s="330"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
-      <c r="B10" s="293" t="s">
+      <c r="B10" s="275" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="294" t="s">
+      <c r="C10" s="276" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="294" t="s">
+      <c r="D10" s="276" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="294" t="s">
+      <c r="E10" s="276" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="294" t="s">
+      <c r="F10" s="276" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="328" t="s">
+      <c r="G10" s="310" t="s">
         <v>347</v>
       </c>
       <c r="H10" s="272" t="s">
@@ -18931,1036 +18967,1064 @@
       <c r="M10" s="273" t="s">
         <v>345</v>
       </c>
-      <c r="N10" s="292" t="s">
+      <c r="N10" s="274" t="s">
         <v>353</v>
       </c>
-      <c r="O10" s="333" t="s">
+      <c r="O10" s="311" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="309">
+      <c r="B11" s="291">
         <v>1</v>
       </c>
-      <c r="C11" s="296" t="s">
+      <c r="C11" s="278" t="s">
         <v>355</v>
       </c>
-      <c r="D11" s="311" t="s">
+      <c r="D11" s="293" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="312" t="s">
+      <c r="E11" s="294" t="s">
         <v>351</v>
       </c>
-      <c r="F11" s="313" t="s">
+      <c r="F11" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="313">
+      <c r="G11" s="331">
         <v>2</v>
       </c>
-      <c r="H11" s="311">
+      <c r="H11" s="332">
         <v>2</v>
       </c>
-      <c r="I11" s="311">
+      <c r="I11" s="332">
         <v>2</v>
       </c>
-      <c r="J11" s="311">
+      <c r="J11" s="332">
         <v>2</v>
       </c>
-      <c r="K11" s="311"/>
-      <c r="L11" s="334"/>
-      <c r="M11" s="314"/>
-      <c r="N11" s="331"/>
-      <c r="O11" s="331"/>
+      <c r="K11" s="332">
+        <v>1</v>
+      </c>
+      <c r="L11" s="333"/>
+      <c r="M11" s="334"/>
+      <c r="N11" s="335"/>
+      <c r="O11" s="335"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="315">
+      <c r="B12" s="297">
         <v>2</v>
       </c>
-      <c r="C12" s="296" t="s">
+      <c r="C12" s="278" t="s">
         <v>359</v>
       </c>
-      <c r="D12" s="311"/>
-      <c r="E12" s="312"/>
-      <c r="F12" s="313"/>
-      <c r="G12" s="313"/>
-      <c r="H12" s="311"/>
-      <c r="I12" s="317"/>
-      <c r="J12" s="317"/>
-      <c r="K12" s="317"/>
-      <c r="L12" s="317"/>
-      <c r="M12" s="318"/>
-      <c r="N12" s="329"/>
-      <c r="O12" s="329"/>
+      <c r="D12" s="293"/>
+      <c r="E12" s="294"/>
+      <c r="F12" s="295"/>
+      <c r="G12" s="331"/>
+      <c r="H12" s="332"/>
+      <c r="I12" s="336"/>
+      <c r="J12" s="336"/>
+      <c r="K12" s="336"/>
+      <c r="L12" s="336"/>
+      <c r="M12" s="337"/>
+      <c r="N12" s="338"/>
+      <c r="O12" s="338"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="309">
+      <c r="B13" s="291">
         <v>3</v>
       </c>
-      <c r="C13" s="300" t="s">
+      <c r="C13" s="282" t="s">
         <v>356</v>
       </c>
-      <c r="D13" s="311" t="s">
+      <c r="D13" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="312" t="s">
+      <c r="E13" s="294" t="s">
         <v>351</v>
       </c>
-      <c r="F13" s="313" t="s">
+      <c r="F13" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="313">
+      <c r="G13" s="331">
         <v>5</v>
       </c>
-      <c r="H13" s="311">
+      <c r="H13" s="332">
         <v>5</v>
       </c>
-      <c r="I13" s="317">
+      <c r="I13" s="336">
         <v>5</v>
       </c>
-      <c r="J13" s="317">
+      <c r="J13" s="336">
         <v>5</v>
       </c>
-      <c r="K13" s="317"/>
-      <c r="L13" s="317"/>
-      <c r="M13" s="318"/>
-      <c r="N13" s="329"/>
-      <c r="O13" s="329"/>
+      <c r="K13" s="336">
+        <v>5</v>
+      </c>
+      <c r="L13" s="336"/>
+      <c r="M13" s="337"/>
+      <c r="N13" s="338"/>
+      <c r="O13" s="338"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="315">
+      <c r="B14" s="297">
         <v>4</v>
       </c>
-      <c r="C14" s="300" t="s">
+      <c r="C14" s="282" t="s">
         <v>357</v>
       </c>
-      <c r="D14" s="311" t="s">
+      <c r="D14" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="312" t="s">
+      <c r="E14" s="294" t="s">
         <v>351</v>
       </c>
-      <c r="F14" s="313" t="s">
+      <c r="F14" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="313">
+      <c r="G14" s="331">
         <v>5</v>
       </c>
-      <c r="H14" s="311">
+      <c r="H14" s="332">
         <v>5</v>
       </c>
-      <c r="I14" s="317">
+      <c r="I14" s="336">
         <v>5</v>
       </c>
-      <c r="J14" s="317">
+      <c r="J14" s="336">
         <v>5</v>
       </c>
-      <c r="K14" s="317"/>
-      <c r="L14" s="317"/>
-      <c r="M14" s="318"/>
-      <c r="N14" s="329"/>
-      <c r="O14" s="329"/>
+      <c r="K14" s="336">
+        <v>5</v>
+      </c>
+      <c r="L14" s="336"/>
+      <c r="M14" s="337"/>
+      <c r="N14" s="338"/>
+      <c r="O14" s="338"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="309">
+      <c r="B15" s="291">
         <v>5</v>
       </c>
-      <c r="C15" s="300" t="s">
+      <c r="C15" s="282" t="s">
         <v>358</v>
       </c>
-      <c r="D15" s="311" t="s">
+      <c r="D15" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="312" t="s">
+      <c r="E15" s="294" t="s">
         <v>351</v>
       </c>
-      <c r="F15" s="313" t="s">
+      <c r="F15" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="313">
+      <c r="G15" s="331">
         <v>4</v>
       </c>
-      <c r="H15" s="311">
+      <c r="H15" s="332">
         <v>4</v>
       </c>
-      <c r="I15" s="317">
+      <c r="I15" s="336">
         <v>4</v>
       </c>
-      <c r="J15" s="317">
+      <c r="J15" s="336">
         <v>4</v>
       </c>
-      <c r="K15" s="317"/>
-      <c r="L15" s="311"/>
-      <c r="M15" s="314"/>
-      <c r="N15" s="329"/>
-      <c r="O15" s="329"/>
+      <c r="K15" s="336">
+        <v>4</v>
+      </c>
+      <c r="L15" s="332"/>
+      <c r="M15" s="334"/>
+      <c r="N15" s="338"/>
+      <c r="O15" s="338"/>
     </row>
     <row r="16" spans="2:15" s="197" customFormat="1">
-      <c r="B16" s="315">
+      <c r="B16" s="297">
         <v>6</v>
       </c>
-      <c r="C16" s="296" t="s">
+      <c r="C16" s="278" t="s">
         <v>360</v>
       </c>
-      <c r="D16" s="311"/>
-      <c r="E16" s="312"/>
-      <c r="F16" s="313"/>
-      <c r="G16" s="313"/>
-      <c r="H16" s="311"/>
-      <c r="I16" s="317"/>
-      <c r="J16" s="317"/>
-      <c r="K16" s="317"/>
-      <c r="L16" s="317"/>
-      <c r="M16" s="318"/>
-      <c r="N16" s="330"/>
-      <c r="O16" s="330"/>
+      <c r="D16" s="293"/>
+      <c r="E16" s="294"/>
+      <c r="F16" s="295"/>
+      <c r="G16" s="331"/>
+      <c r="H16" s="332"/>
+      <c r="I16" s="336"/>
+      <c r="J16" s="336"/>
+      <c r="K16" s="336"/>
+      <c r="L16" s="336"/>
+      <c r="M16" s="337"/>
+      <c r="N16" s="339"/>
+      <c r="O16" s="339"/>
     </row>
     <row r="17" spans="2:15" s="197" customFormat="1">
-      <c r="B17" s="309">
+      <c r="B17" s="291">
         <v>7</v>
       </c>
-      <c r="C17" s="300" t="s">
+      <c r="C17" s="282" t="s">
         <v>361</v>
       </c>
-      <c r="D17" s="311" t="s">
+      <c r="D17" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="312" t="s">
+      <c r="E17" s="294" t="s">
         <v>349</v>
       </c>
-      <c r="F17" s="313" t="s">
+      <c r="F17" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="313">
+      <c r="G17" s="331">
         <v>6</v>
       </c>
-      <c r="H17" s="311">
+      <c r="H17" s="332">
         <v>6</v>
       </c>
-      <c r="I17" s="317">
+      <c r="I17" s="336">
         <v>6</v>
       </c>
-      <c r="J17" s="317">
+      <c r="J17" s="336">
         <v>6</v>
       </c>
-      <c r="K17" s="317"/>
-      <c r="L17" s="317"/>
-      <c r="M17" s="318"/>
-      <c r="N17" s="330"/>
-      <c r="O17" s="330"/>
+      <c r="K17" s="336">
+        <v>5</v>
+      </c>
+      <c r="L17" s="336"/>
+      <c r="M17" s="337"/>
+      <c r="N17" s="339"/>
+      <c r="O17" s="339"/>
     </row>
     <row r="18" spans="2:15" s="197" customFormat="1">
-      <c r="B18" s="315">
+      <c r="B18" s="297">
         <v>8</v>
       </c>
-      <c r="C18" s="300" t="s">
+      <c r="C18" s="282" t="s">
         <v>362</v>
       </c>
-      <c r="D18" s="297" t="s">
+      <c r="D18" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="298" t="s">
+      <c r="E18" s="280" t="s">
         <v>349</v>
       </c>
-      <c r="F18" s="299" t="s">
+      <c r="F18" s="281" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="313">
+      <c r="G18" s="331">
         <v>4</v>
       </c>
-      <c r="H18" s="311">
+      <c r="H18" s="332">
         <v>4</v>
       </c>
-      <c r="I18" s="317">
+      <c r="I18" s="336">
         <v>4</v>
       </c>
-      <c r="J18" s="317">
+      <c r="J18" s="336">
         <v>4</v>
       </c>
-      <c r="K18" s="317"/>
-      <c r="L18" s="317"/>
-      <c r="M18" s="318"/>
-      <c r="N18" s="330"/>
-      <c r="O18" s="330"/>
+      <c r="K18" s="336">
+        <v>4</v>
+      </c>
+      <c r="L18" s="336"/>
+      <c r="M18" s="337"/>
+      <c r="N18" s="339"/>
+      <c r="O18" s="339"/>
     </row>
     <row r="19" spans="2:15" s="197" customFormat="1">
-      <c r="B19" s="309">
+      <c r="B19" s="291">
         <v>9</v>
       </c>
-      <c r="C19" s="300" t="s">
+      <c r="C19" s="282" t="s">
         <v>363</v>
       </c>
-      <c r="D19" s="297" t="s">
+      <c r="D19" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="298" t="s">
+      <c r="E19" s="280" t="s">
         <v>349</v>
       </c>
-      <c r="F19" s="299" t="s">
+      <c r="F19" s="281" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="313">
+      <c r="G19" s="331">
         <v>6</v>
       </c>
-      <c r="H19" s="311">
+      <c r="H19" s="332">
         <v>6</v>
       </c>
-      <c r="I19" s="317">
+      <c r="I19" s="336">
         <v>6</v>
       </c>
-      <c r="J19" s="317">
+      <c r="J19" s="336">
         <v>6</v>
       </c>
-      <c r="K19" s="311"/>
-      <c r="L19" s="301"/>
-      <c r="M19" s="302"/>
-      <c r="N19" s="330"/>
-      <c r="O19" s="330"/>
+      <c r="K19" s="332">
+        <v>6</v>
+      </c>
+      <c r="L19" s="340"/>
+      <c r="M19" s="341"/>
+      <c r="N19" s="339"/>
+      <c r="O19" s="339"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="315">
+      <c r="B20" s="297">
         <v>10</v>
       </c>
-      <c r="C20" s="296" t="s">
+      <c r="C20" s="278" t="s">
         <v>364</v>
       </c>
-      <c r="D20" s="311"/>
-      <c r="E20" s="312"/>
-      <c r="F20" s="313"/>
-      <c r="G20" s="313"/>
-      <c r="H20" s="303"/>
-      <c r="I20" s="311"/>
-      <c r="J20" s="311"/>
-      <c r="K20" s="311"/>
-      <c r="L20" s="311"/>
-      <c r="M20" s="314"/>
-      <c r="N20" s="329"/>
-      <c r="O20" s="329"/>
+      <c r="D20" s="293"/>
+      <c r="E20" s="294"/>
+      <c r="F20" s="295"/>
+      <c r="G20" s="331"/>
+      <c r="H20" s="342"/>
+      <c r="I20" s="332"/>
+      <c r="J20" s="332"/>
+      <c r="K20" s="332"/>
+      <c r="L20" s="332"/>
+      <c r="M20" s="334"/>
+      <c r="N20" s="338"/>
+      <c r="O20" s="338"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="309">
+      <c r="B21" s="291">
         <v>11</v>
       </c>
-      <c r="C21" s="300" t="s">
+      <c r="C21" s="282" t="s">
         <v>365</v>
       </c>
-      <c r="D21" s="297" t="s">
+      <c r="D21" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="298" t="s">
+      <c r="E21" s="280" t="s">
         <v>352</v>
       </c>
-      <c r="F21" s="299" t="s">
+      <c r="F21" s="281" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="313">
+      <c r="G21" s="331">
         <v>5</v>
       </c>
-      <c r="H21" s="311">
+      <c r="H21" s="332">
         <v>5</v>
       </c>
-      <c r="I21" s="311">
+      <c r="I21" s="332">
         <v>5</v>
       </c>
-      <c r="J21" s="311">
+      <c r="J21" s="332">
         <v>5</v>
       </c>
-      <c r="K21" s="311"/>
-      <c r="L21" s="311"/>
-      <c r="M21" s="314"/>
-      <c r="N21" s="329"/>
-      <c r="O21" s="329"/>
+      <c r="K21" s="332">
+        <v>4</v>
+      </c>
+      <c r="L21" s="332"/>
+      <c r="M21" s="334"/>
+      <c r="N21" s="338"/>
+      <c r="O21" s="338"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="315">
+      <c r="B22" s="297">
         <v>12</v>
       </c>
-      <c r="C22" s="300" t="s">
+      <c r="C22" s="282" t="s">
         <v>366</v>
       </c>
-      <c r="D22" s="311" t="s">
+      <c r="D22" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="312" t="s">
+      <c r="E22" s="294" t="s">
         <v>352</v>
       </c>
-      <c r="F22" s="313" t="s">
+      <c r="F22" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="313">
+      <c r="G22" s="331">
         <v>5</v>
       </c>
-      <c r="H22" s="311">
+      <c r="H22" s="332">
         <v>5</v>
       </c>
-      <c r="I22" s="311">
+      <c r="I22" s="332">
         <v>5</v>
       </c>
-      <c r="J22" s="311">
+      <c r="J22" s="332">
         <v>5</v>
       </c>
-      <c r="K22" s="311"/>
-      <c r="L22" s="311"/>
-      <c r="M22" s="314"/>
-      <c r="N22" s="329"/>
-      <c r="O22" s="329"/>
+      <c r="K22" s="332">
+        <v>5</v>
+      </c>
+      <c r="L22" s="332"/>
+      <c r="M22" s="334"/>
+      <c r="N22" s="338"/>
+      <c r="O22" s="338"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="309">
+      <c r="B23" s="291">
         <v>13</v>
       </c>
-      <c r="C23" s="300" t="s">
+      <c r="C23" s="282" t="s">
         <v>367</v>
       </c>
-      <c r="D23" s="297" t="s">
+      <c r="D23" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="298" t="s">
+      <c r="E23" s="280" t="s">
         <v>352</v>
       </c>
-      <c r="F23" s="299" t="s">
+      <c r="F23" s="281" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="313">
+      <c r="G23" s="331">
         <v>5</v>
       </c>
-      <c r="H23" s="311">
+      <c r="H23" s="332">
         <v>5</v>
       </c>
-      <c r="I23" s="311">
+      <c r="I23" s="332">
         <v>5</v>
       </c>
-      <c r="J23" s="311">
+      <c r="J23" s="332">
         <v>5</v>
       </c>
-      <c r="K23" s="311"/>
-      <c r="L23" s="311"/>
-      <c r="M23" s="314"/>
-      <c r="N23" s="329"/>
-      <c r="O23" s="329"/>
+      <c r="K23" s="332">
+        <v>5</v>
+      </c>
+      <c r="L23" s="332"/>
+      <c r="M23" s="334"/>
+      <c r="N23" s="338"/>
+      <c r="O23" s="338"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="315">
+      <c r="B24" s="297">
         <v>14</v>
       </c>
-      <c r="C24" s="296" t="s">
+      <c r="C24" s="278" t="s">
         <v>368</v>
       </c>
-      <c r="D24" s="311"/>
-      <c r="E24" s="312"/>
-      <c r="F24" s="313"/>
-      <c r="G24" s="313"/>
-      <c r="H24" s="311"/>
-      <c r="I24" s="317"/>
-      <c r="J24" s="317"/>
-      <c r="K24" s="317"/>
-      <c r="L24" s="317"/>
-      <c r="M24" s="318"/>
-      <c r="N24" s="329"/>
-      <c r="O24" s="329"/>
+      <c r="D24" s="293"/>
+      <c r="E24" s="294"/>
+      <c r="F24" s="295"/>
+      <c r="G24" s="331"/>
+      <c r="H24" s="332"/>
+      <c r="I24" s="336"/>
+      <c r="J24" s="336"/>
+      <c r="K24" s="336"/>
+      <c r="L24" s="336"/>
+      <c r="M24" s="337"/>
+      <c r="N24" s="338"/>
+      <c r="O24" s="338"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="309">
+      <c r="B25" s="291">
         <v>15</v>
       </c>
-      <c r="C25" s="300" t="s">
+      <c r="C25" s="282" t="s">
         <v>369</v>
       </c>
-      <c r="D25" s="311" t="s">
+      <c r="D25" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="312" t="s">
+      <c r="E25" s="294" t="s">
         <v>350</v>
       </c>
-      <c r="F25" s="313" t="s">
+      <c r="F25" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="313">
+      <c r="G25" s="331">
         <v>5</v>
       </c>
-      <c r="H25" s="311">
+      <c r="H25" s="332">
         <v>5</v>
       </c>
-      <c r="I25" s="317">
+      <c r="I25" s="336">
         <v>5</v>
       </c>
-      <c r="J25" s="317">
+      <c r="J25" s="336">
         <v>5</v>
       </c>
-      <c r="K25" s="317"/>
-      <c r="L25" s="317"/>
-      <c r="M25" s="318"/>
-      <c r="N25" s="329"/>
-      <c r="O25" s="329"/>
+      <c r="K25" s="336">
+        <v>4.5</v>
+      </c>
+      <c r="L25" s="336"/>
+      <c r="M25" s="337"/>
+      <c r="N25" s="338"/>
+      <c r="O25" s="338"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="315">
+      <c r="B26" s="297">
         <v>16</v>
       </c>
-      <c r="C26" s="335" t="s">
+      <c r="C26" s="312" t="s">
         <v>371</v>
       </c>
-      <c r="D26" s="297" t="s">
+      <c r="D26" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="298" t="s">
+      <c r="E26" s="280" t="s">
         <v>350</v>
       </c>
-      <c r="F26" s="313" t="s">
+      <c r="F26" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="313">
+      <c r="G26" s="331">
         <v>2</v>
       </c>
-      <c r="H26" s="311">
+      <c r="H26" s="332">
         <v>2</v>
       </c>
-      <c r="I26" s="317">
+      <c r="I26" s="336">
         <v>2</v>
       </c>
-      <c r="J26" s="317">
+      <c r="J26" s="336">
         <v>2</v>
       </c>
-      <c r="K26" s="317"/>
-      <c r="L26" s="317"/>
-      <c r="M26" s="318"/>
-      <c r="N26" s="329"/>
-      <c r="O26" s="329"/>
+      <c r="K26" s="336">
+        <v>2</v>
+      </c>
+      <c r="L26" s="336"/>
+      <c r="M26" s="337"/>
+      <c r="N26" s="338"/>
+      <c r="O26" s="338"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="309">
+      <c r="B27" s="291">
         <v>17</v>
       </c>
-      <c r="C27" s="300" t="s">
+      <c r="C27" s="282" t="s">
         <v>370</v>
       </c>
-      <c r="D27" s="311" t="s">
+      <c r="D27" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="312" t="s">
+      <c r="E27" s="294" t="s">
         <v>350</v>
       </c>
-      <c r="F27" s="299" t="s">
+      <c r="F27" s="281" t="s">
         <v>117</v>
       </c>
-      <c r="G27" s="313">
+      <c r="G27" s="331">
         <v>5</v>
       </c>
-      <c r="H27" s="311">
+      <c r="H27" s="332">
         <v>5</v>
       </c>
-      <c r="I27" s="317">
+      <c r="I27" s="336">
         <v>5</v>
       </c>
-      <c r="J27" s="317">
+      <c r="J27" s="336">
         <v>5</v>
       </c>
-      <c r="K27" s="317"/>
-      <c r="L27" s="317"/>
-      <c r="M27" s="318"/>
-      <c r="N27" s="329"/>
-      <c r="O27" s="329"/>
+      <c r="K27" s="336">
+        <v>4.5</v>
+      </c>
+      <c r="L27" s="336"/>
+      <c r="M27" s="337"/>
+      <c r="N27" s="338"/>
+      <c r="O27" s="338"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="315">
+      <c r="B28" s="297">
         <v>18</v>
       </c>
-      <c r="C28" s="335" t="s">
+      <c r="C28" s="312" t="s">
         <v>372</v>
       </c>
-      <c r="D28" s="311" t="s">
+      <c r="D28" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="312" t="s">
+      <c r="E28" s="294" t="s">
         <v>350</v>
       </c>
-      <c r="F28" s="299" t="s">
+      <c r="F28" s="281" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="313">
+      <c r="G28" s="331">
         <v>2</v>
       </c>
-      <c r="H28" s="311">
+      <c r="H28" s="332">
         <v>2</v>
       </c>
-      <c r="I28" s="317">
+      <c r="I28" s="336">
         <v>2</v>
       </c>
-      <c r="J28" s="317">
+      <c r="J28" s="336">
         <v>2</v>
       </c>
-      <c r="K28" s="317"/>
-      <c r="L28" s="317"/>
-      <c r="M28" s="318"/>
-      <c r="N28" s="329"/>
-      <c r="O28" s="329"/>
+      <c r="K28" s="336">
+        <v>2</v>
+      </c>
+      <c r="L28" s="336"/>
+      <c r="M28" s="337"/>
+      <c r="N28" s="338"/>
+      <c r="O28" s="338"/>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="309">
+      <c r="B29" s="291">
         <v>19</v>
       </c>
-      <c r="C29" s="304"/>
-      <c r="D29" s="301"/>
-      <c r="E29" s="305"/>
-      <c r="F29" s="306"/>
-      <c r="G29" s="306"/>
-      <c r="H29" s="301"/>
-      <c r="I29" s="301"/>
-      <c r="J29" s="301"/>
-      <c r="K29" s="301"/>
-      <c r="L29" s="301"/>
-      <c r="M29" s="302"/>
-      <c r="N29" s="329"/>
-      <c r="O29" s="329"/>
+      <c r="C29" s="286"/>
+      <c r="D29" s="283"/>
+      <c r="E29" s="287"/>
+      <c r="F29" s="288"/>
+      <c r="G29" s="343"/>
+      <c r="H29" s="340"/>
+      <c r="I29" s="340"/>
+      <c r="J29" s="340"/>
+      <c r="K29" s="340"/>
+      <c r="L29" s="340"/>
+      <c r="M29" s="341"/>
+      <c r="N29" s="338"/>
+      <c r="O29" s="338"/>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="315">
+      <c r="B30" s="297">
         <v>20</v>
       </c>
-      <c r="C30" s="319"/>
-      <c r="D30" s="311"/>
-      <c r="E30" s="312"/>
-      <c r="F30" s="313"/>
-      <c r="G30" s="313"/>
-      <c r="H30" s="311"/>
-      <c r="I30" s="311"/>
-      <c r="J30" s="311"/>
-      <c r="K30" s="311"/>
-      <c r="L30" s="311"/>
-      <c r="M30" s="314"/>
-      <c r="N30" s="329"/>
-      <c r="O30" s="329"/>
+      <c r="C30" s="301"/>
+      <c r="D30" s="293"/>
+      <c r="E30" s="294"/>
+      <c r="F30" s="295"/>
+      <c r="G30" s="331"/>
+      <c r="H30" s="332"/>
+      <c r="I30" s="332"/>
+      <c r="J30" s="332"/>
+      <c r="K30" s="332"/>
+      <c r="L30" s="332"/>
+      <c r="M30" s="334"/>
+      <c r="N30" s="338"/>
+      <c r="O30" s="338"/>
     </row>
     <row r="31" spans="2:15">
-      <c r="B31" s="309">
+      <c r="B31" s="291">
         <v>21</v>
       </c>
-      <c r="C31" s="304"/>
-      <c r="D31" s="301"/>
-      <c r="E31" s="305"/>
-      <c r="F31" s="306"/>
-      <c r="G31" s="306"/>
-      <c r="H31" s="301"/>
-      <c r="I31" s="301"/>
-      <c r="J31" s="301"/>
-      <c r="K31" s="301"/>
-      <c r="L31" s="301"/>
-      <c r="M31" s="302"/>
-      <c r="N31" s="329"/>
-      <c r="O31" s="329"/>
+      <c r="C31" s="286"/>
+      <c r="D31" s="283"/>
+      <c r="E31" s="287"/>
+      <c r="F31" s="288"/>
+      <c r="G31" s="343"/>
+      <c r="H31" s="340"/>
+      <c r="I31" s="340"/>
+      <c r="J31" s="340"/>
+      <c r="K31" s="340"/>
+      <c r="L31" s="340"/>
+      <c r="M31" s="341"/>
+      <c r="N31" s="338"/>
+      <c r="O31" s="338"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="315">
+      <c r="B32" s="297">
         <v>22</v>
       </c>
-      <c r="C32" s="316"/>
-      <c r="D32" s="311"/>
-      <c r="E32" s="312"/>
-      <c r="F32" s="313"/>
-      <c r="G32" s="313"/>
-      <c r="H32" s="311"/>
-      <c r="I32" s="311"/>
-      <c r="J32" s="311"/>
-      <c r="K32" s="311"/>
-      <c r="L32" s="311"/>
-      <c r="M32" s="314"/>
-      <c r="N32" s="329"/>
-      <c r="O32" s="329"/>
+      <c r="C32" s="298"/>
+      <c r="D32" s="293"/>
+      <c r="E32" s="294"/>
+      <c r="F32" s="295"/>
+      <c r="G32" s="331"/>
+      <c r="H32" s="332"/>
+      <c r="I32" s="332"/>
+      <c r="J32" s="332"/>
+      <c r="K32" s="332"/>
+      <c r="L32" s="332"/>
+      <c r="M32" s="334"/>
+      <c r="N32" s="338"/>
+      <c r="O32" s="338"/>
     </row>
     <row r="33" spans="2:15">
-      <c r="B33" s="309">
+      <c r="B33" s="291">
         <v>23</v>
       </c>
-      <c r="C33" s="304"/>
-      <c r="D33" s="301"/>
-      <c r="E33" s="305"/>
-      <c r="F33" s="306"/>
-      <c r="G33" s="306"/>
-      <c r="H33" s="301"/>
-      <c r="I33" s="301"/>
-      <c r="J33" s="301"/>
-      <c r="K33" s="301"/>
-      <c r="L33" s="301"/>
-      <c r="M33" s="302"/>
-      <c r="N33" s="329"/>
-      <c r="O33" s="329"/>
+      <c r="C33" s="286"/>
+      <c r="D33" s="283"/>
+      <c r="E33" s="287"/>
+      <c r="F33" s="288"/>
+      <c r="G33" s="343"/>
+      <c r="H33" s="340"/>
+      <c r="I33" s="340"/>
+      <c r="J33" s="340"/>
+      <c r="K33" s="340"/>
+      <c r="L33" s="340"/>
+      <c r="M33" s="341"/>
+      <c r="N33" s="338"/>
+      <c r="O33" s="338"/>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="315">
+      <c r="B34" s="297">
         <v>24</v>
       </c>
-      <c r="C34" s="304"/>
-      <c r="D34" s="301"/>
-      <c r="E34" s="305"/>
-      <c r="F34" s="306"/>
-      <c r="G34" s="306"/>
-      <c r="H34" s="301"/>
-      <c r="I34" s="301"/>
-      <c r="J34" s="301"/>
-      <c r="K34" s="301"/>
-      <c r="L34" s="301"/>
-      <c r="M34" s="302"/>
-      <c r="N34" s="329"/>
-      <c r="O34" s="329"/>
+      <c r="C34" s="286"/>
+      <c r="D34" s="283"/>
+      <c r="E34" s="287"/>
+      <c r="F34" s="288"/>
+      <c r="G34" s="343"/>
+      <c r="H34" s="340"/>
+      <c r="I34" s="340"/>
+      <c r="J34" s="340"/>
+      <c r="K34" s="340"/>
+      <c r="L34" s="340"/>
+      <c r="M34" s="341"/>
+      <c r="N34" s="338"/>
+      <c r="O34" s="338"/>
     </row>
     <row r="35" spans="2:15">
-      <c r="B35" s="309">
+      <c r="B35" s="291">
         <v>25</v>
       </c>
-      <c r="C35" s="319"/>
-      <c r="D35" s="311"/>
-      <c r="E35" s="312"/>
-      <c r="F35" s="313"/>
-      <c r="G35" s="313"/>
-      <c r="H35" s="311"/>
-      <c r="I35" s="311"/>
-      <c r="J35" s="311"/>
-      <c r="K35" s="311"/>
-      <c r="L35" s="311"/>
-      <c r="M35" s="314"/>
-      <c r="N35" s="329"/>
-      <c r="O35" s="329"/>
+      <c r="C35" s="301"/>
+      <c r="D35" s="293"/>
+      <c r="E35" s="294"/>
+      <c r="F35" s="295"/>
+      <c r="G35" s="331"/>
+      <c r="H35" s="332"/>
+      <c r="I35" s="332"/>
+      <c r="J35" s="332"/>
+      <c r="K35" s="332"/>
+      <c r="L35" s="332"/>
+      <c r="M35" s="334"/>
+      <c r="N35" s="338"/>
+      <c r="O35" s="338"/>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="315">
+      <c r="B36" s="297">
         <v>26</v>
       </c>
-      <c r="C36" s="312"/>
-      <c r="D36" s="311"/>
-      <c r="E36" s="312"/>
-      <c r="F36" s="313"/>
-      <c r="G36" s="313"/>
-      <c r="H36" s="311"/>
-      <c r="I36" s="311"/>
-      <c r="J36" s="311"/>
-      <c r="K36" s="311"/>
-      <c r="L36" s="311"/>
-      <c r="M36" s="314"/>
-      <c r="N36" s="329"/>
-      <c r="O36" s="329"/>
+      <c r="C36" s="294"/>
+      <c r="D36" s="293"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="295"/>
+      <c r="G36" s="331"/>
+      <c r="H36" s="332"/>
+      <c r="I36" s="332"/>
+      <c r="J36" s="332"/>
+      <c r="K36" s="332"/>
+      <c r="L36" s="332"/>
+      <c r="M36" s="334"/>
+      <c r="N36" s="338"/>
+      <c r="O36" s="338"/>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="309">
+      <c r="B37" s="291">
         <v>27</v>
       </c>
-      <c r="C37" s="312"/>
-      <c r="D37" s="311"/>
-      <c r="E37" s="312"/>
-      <c r="F37" s="313"/>
-      <c r="G37" s="313"/>
-      <c r="H37" s="311"/>
-      <c r="I37" s="311"/>
-      <c r="J37" s="311"/>
-      <c r="K37" s="311"/>
-      <c r="L37" s="311"/>
-      <c r="M37" s="314"/>
-      <c r="N37" s="329"/>
-      <c r="O37" s="329"/>
+      <c r="C37" s="294"/>
+      <c r="D37" s="293"/>
+      <c r="E37" s="294"/>
+      <c r="F37" s="295"/>
+      <c r="G37" s="331"/>
+      <c r="H37" s="332"/>
+      <c r="I37" s="332"/>
+      <c r="J37" s="332"/>
+      <c r="K37" s="332"/>
+      <c r="L37" s="332"/>
+      <c r="M37" s="334"/>
+      <c r="N37" s="338"/>
+      <c r="O37" s="338"/>
     </row>
     <row r="38" spans="2:15">
-      <c r="B38" s="315">
+      <c r="B38" s="297">
         <v>28</v>
       </c>
-      <c r="C38" s="312"/>
-      <c r="D38" s="311"/>
-      <c r="E38" s="312"/>
-      <c r="F38" s="313"/>
-      <c r="G38" s="313"/>
-      <c r="H38" s="311"/>
-      <c r="I38" s="311"/>
-      <c r="J38" s="311"/>
-      <c r="K38" s="311"/>
-      <c r="L38" s="311"/>
-      <c r="M38" s="314"/>
-      <c r="N38" s="329"/>
-      <c r="O38" s="329"/>
+      <c r="C38" s="294"/>
+      <c r="D38" s="293"/>
+      <c r="E38" s="294"/>
+      <c r="F38" s="295"/>
+      <c r="G38" s="331"/>
+      <c r="H38" s="332"/>
+      <c r="I38" s="332"/>
+      <c r="J38" s="332"/>
+      <c r="K38" s="332"/>
+      <c r="L38" s="332"/>
+      <c r="M38" s="334"/>
+      <c r="N38" s="338"/>
+      <c r="O38" s="338"/>
     </row>
     <row r="39" spans="2:15">
-      <c r="B39" s="309">
+      <c r="B39" s="291">
         <v>29</v>
       </c>
-      <c r="C39" s="319"/>
-      <c r="D39" s="311"/>
-      <c r="E39" s="312"/>
-      <c r="F39" s="313"/>
-      <c r="G39" s="313"/>
-      <c r="H39" s="311"/>
-      <c r="I39" s="311"/>
-      <c r="J39" s="311"/>
-      <c r="K39" s="311"/>
-      <c r="L39" s="311"/>
-      <c r="M39" s="314"/>
-      <c r="N39" s="329"/>
-      <c r="O39" s="329"/>
+      <c r="C39" s="301"/>
+      <c r="D39" s="293"/>
+      <c r="E39" s="294"/>
+      <c r="F39" s="295"/>
+      <c r="G39" s="331"/>
+      <c r="H39" s="332"/>
+      <c r="I39" s="332"/>
+      <c r="J39" s="332"/>
+      <c r="K39" s="332"/>
+      <c r="L39" s="332"/>
+      <c r="M39" s="334"/>
+      <c r="N39" s="338"/>
+      <c r="O39" s="338"/>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" s="315">
+      <c r="B40" s="297">
         <v>30</v>
       </c>
-      <c r="C40" s="319"/>
-      <c r="D40" s="311"/>
-      <c r="E40" s="312"/>
-      <c r="F40" s="313"/>
-      <c r="G40" s="313"/>
-      <c r="H40" s="311"/>
-      <c r="I40" s="311"/>
-      <c r="J40" s="311"/>
-      <c r="K40" s="311"/>
-      <c r="L40" s="311"/>
-      <c r="M40" s="314"/>
-      <c r="N40" s="329"/>
-      <c r="O40" s="329"/>
+      <c r="C40" s="301"/>
+      <c r="D40" s="293"/>
+      <c r="E40" s="294"/>
+      <c r="F40" s="295"/>
+      <c r="G40" s="331"/>
+      <c r="H40" s="332"/>
+      <c r="I40" s="332"/>
+      <c r="J40" s="332"/>
+      <c r="K40" s="332"/>
+      <c r="L40" s="332"/>
+      <c r="M40" s="334"/>
+      <c r="N40" s="338"/>
+      <c r="O40" s="338"/>
     </row>
     <row r="41" spans="2:15">
-      <c r="B41" s="309">
+      <c r="B41" s="291">
         <v>31</v>
       </c>
-      <c r="C41" s="319"/>
-      <c r="D41" s="311"/>
-      <c r="E41" s="312"/>
-      <c r="F41" s="313"/>
-      <c r="G41" s="313"/>
-      <c r="H41" s="311"/>
-      <c r="I41" s="311"/>
-      <c r="J41" s="311"/>
-      <c r="K41" s="311"/>
-      <c r="L41" s="311"/>
-      <c r="M41" s="314"/>
-      <c r="N41" s="329"/>
-      <c r="O41" s="329"/>
+      <c r="C41" s="301"/>
+      <c r="D41" s="293"/>
+      <c r="E41" s="294"/>
+      <c r="F41" s="295"/>
+      <c r="G41" s="331"/>
+      <c r="H41" s="332"/>
+      <c r="I41" s="332"/>
+      <c r="J41" s="332"/>
+      <c r="K41" s="332"/>
+      <c r="L41" s="332"/>
+      <c r="M41" s="334"/>
+      <c r="N41" s="338"/>
+      <c r="O41" s="338"/>
     </row>
     <row r="42" spans="2:15">
-      <c r="B42" s="315">
+      <c r="B42" s="297">
         <v>32</v>
       </c>
-      <c r="C42" s="319"/>
-      <c r="D42" s="311"/>
-      <c r="E42" s="312"/>
-      <c r="F42" s="313"/>
-      <c r="G42" s="313"/>
-      <c r="H42" s="311"/>
-      <c r="I42" s="311"/>
-      <c r="J42" s="311"/>
-      <c r="K42" s="311"/>
-      <c r="L42" s="311"/>
-      <c r="M42" s="314"/>
-      <c r="N42" s="329"/>
-      <c r="O42" s="329"/>
+      <c r="C42" s="301"/>
+      <c r="D42" s="293"/>
+      <c r="E42" s="294"/>
+      <c r="F42" s="295"/>
+      <c r="G42" s="331"/>
+      <c r="H42" s="332"/>
+      <c r="I42" s="332"/>
+      <c r="J42" s="332"/>
+      <c r="K42" s="332"/>
+      <c r="L42" s="332"/>
+      <c r="M42" s="334"/>
+      <c r="N42" s="338"/>
+      <c r="O42" s="338"/>
     </row>
     <row r="43" spans="2:15">
-      <c r="B43" s="309">
+      <c r="B43" s="291">
         <v>33</v>
       </c>
-      <c r="C43" s="319"/>
-      <c r="D43" s="311"/>
-      <c r="E43" s="312"/>
-      <c r="F43" s="313"/>
-      <c r="G43" s="313"/>
-      <c r="H43" s="311"/>
-      <c r="I43" s="311"/>
-      <c r="J43" s="311"/>
-      <c r="K43" s="311"/>
-      <c r="L43" s="311"/>
-      <c r="M43" s="314"/>
-      <c r="N43" s="329"/>
-      <c r="O43" s="329"/>
+      <c r="C43" s="301"/>
+      <c r="D43" s="293"/>
+      <c r="E43" s="294"/>
+      <c r="F43" s="295"/>
+      <c r="G43" s="331"/>
+      <c r="H43" s="332"/>
+      <c r="I43" s="332"/>
+      <c r="J43" s="332"/>
+      <c r="K43" s="332"/>
+      <c r="L43" s="332"/>
+      <c r="M43" s="334"/>
+      <c r="N43" s="338"/>
+      <c r="O43" s="338"/>
     </row>
     <row r="44" spans="2:15">
-      <c r="B44" s="315">
+      <c r="B44" s="297">
         <v>34</v>
       </c>
-      <c r="C44" s="316"/>
-      <c r="D44" s="311"/>
-      <c r="E44" s="312"/>
-      <c r="F44" s="313"/>
-      <c r="G44" s="313"/>
-      <c r="H44" s="311"/>
-      <c r="I44" s="311"/>
-      <c r="J44" s="311"/>
-      <c r="K44" s="311"/>
-      <c r="L44" s="311"/>
-      <c r="M44" s="314"/>
-      <c r="N44" s="329"/>
-      <c r="O44" s="329"/>
+      <c r="C44" s="298"/>
+      <c r="D44" s="293"/>
+      <c r="E44" s="294"/>
+      <c r="F44" s="295"/>
+      <c r="G44" s="331"/>
+      <c r="H44" s="332"/>
+      <c r="I44" s="332"/>
+      <c r="J44" s="332"/>
+      <c r="K44" s="332"/>
+      <c r="L44" s="332"/>
+      <c r="M44" s="334"/>
+      <c r="N44" s="338"/>
+      <c r="O44" s="338"/>
     </row>
     <row r="45" spans="2:15">
-      <c r="B45" s="309">
+      <c r="B45" s="291">
         <v>35</v>
       </c>
-      <c r="C45" s="319"/>
-      <c r="D45" s="311"/>
-      <c r="E45" s="312"/>
-      <c r="F45" s="313"/>
-      <c r="G45" s="313"/>
-      <c r="H45" s="311"/>
-      <c r="I45" s="311"/>
-      <c r="J45" s="311"/>
-      <c r="K45" s="311"/>
-      <c r="L45" s="311"/>
-      <c r="M45" s="314"/>
-      <c r="N45" s="329"/>
-      <c r="O45" s="329"/>
+      <c r="C45" s="301"/>
+      <c r="D45" s="293"/>
+      <c r="E45" s="294"/>
+      <c r="F45" s="295"/>
+      <c r="G45" s="331"/>
+      <c r="H45" s="332"/>
+      <c r="I45" s="332"/>
+      <c r="J45" s="332"/>
+      <c r="K45" s="332"/>
+      <c r="L45" s="332"/>
+      <c r="M45" s="334"/>
+      <c r="N45" s="338"/>
+      <c r="O45" s="338"/>
     </row>
     <row r="46" spans="2:15">
-      <c r="B46" s="315">
+      <c r="B46" s="297">
         <v>36</v>
       </c>
-      <c r="C46" s="319"/>
-      <c r="D46" s="311"/>
-      <c r="E46" s="312"/>
-      <c r="F46" s="313"/>
-      <c r="G46" s="313"/>
-      <c r="H46" s="311"/>
-      <c r="I46" s="311"/>
-      <c r="J46" s="311"/>
-      <c r="K46" s="311"/>
-      <c r="L46" s="311"/>
-      <c r="M46" s="314"/>
-      <c r="N46" s="329"/>
-      <c r="O46" s="329"/>
+      <c r="C46" s="301"/>
+      <c r="D46" s="293"/>
+      <c r="E46" s="294"/>
+      <c r="F46" s="295"/>
+      <c r="G46" s="331"/>
+      <c r="H46" s="332"/>
+      <c r="I46" s="332"/>
+      <c r="J46" s="332"/>
+      <c r="K46" s="332"/>
+      <c r="L46" s="332"/>
+      <c r="M46" s="334"/>
+      <c r="N46" s="338"/>
+      <c r="O46" s="338"/>
     </row>
     <row r="47" spans="2:15">
-      <c r="B47" s="309">
+      <c r="B47" s="291">
         <v>37</v>
       </c>
-      <c r="C47" s="319"/>
-      <c r="D47" s="311"/>
-      <c r="E47" s="312"/>
-      <c r="F47" s="313"/>
-      <c r="G47" s="313"/>
-      <c r="H47" s="311"/>
-      <c r="I47" s="311"/>
-      <c r="J47" s="311"/>
-      <c r="K47" s="311"/>
-      <c r="L47" s="311"/>
-      <c r="M47" s="314"/>
-      <c r="N47" s="329"/>
-      <c r="O47" s="329"/>
+      <c r="C47" s="301"/>
+      <c r="D47" s="293"/>
+      <c r="E47" s="294"/>
+      <c r="F47" s="295"/>
+      <c r="G47" s="331"/>
+      <c r="H47" s="332"/>
+      <c r="I47" s="332"/>
+      <c r="J47" s="332"/>
+      <c r="K47" s="332"/>
+      <c r="L47" s="332"/>
+      <c r="M47" s="334"/>
+      <c r="N47" s="338"/>
+      <c r="O47" s="338"/>
     </row>
     <row r="48" spans="2:15">
-      <c r="B48" s="315">
+      <c r="B48" s="297">
         <v>38</v>
       </c>
-      <c r="C48" s="319"/>
-      <c r="D48" s="311"/>
-      <c r="E48" s="312"/>
-      <c r="F48" s="313"/>
-      <c r="G48" s="313"/>
-      <c r="H48" s="311"/>
-      <c r="I48" s="311"/>
-      <c r="J48" s="311"/>
-      <c r="K48" s="311"/>
-      <c r="L48" s="311"/>
-      <c r="M48" s="314"/>
-      <c r="N48" s="329"/>
-      <c r="O48" s="329"/>
+      <c r="C48" s="301"/>
+      <c r="D48" s="293"/>
+      <c r="E48" s="294"/>
+      <c r="F48" s="295"/>
+      <c r="G48" s="331"/>
+      <c r="H48" s="332"/>
+      <c r="I48" s="332"/>
+      <c r="J48" s="332"/>
+      <c r="K48" s="332"/>
+      <c r="L48" s="332"/>
+      <c r="M48" s="334"/>
+      <c r="N48" s="338"/>
+      <c r="O48" s="338"/>
     </row>
     <row r="49" spans="2:15">
-      <c r="B49" s="309">
+      <c r="B49" s="291">
         <v>39</v>
       </c>
-      <c r="C49" s="316"/>
-      <c r="D49" s="307"/>
-      <c r="E49" s="312"/>
-      <c r="F49" s="313"/>
-      <c r="G49" s="313"/>
-      <c r="H49" s="311"/>
-      <c r="I49" s="311"/>
-      <c r="J49" s="311"/>
-      <c r="K49" s="311"/>
-      <c r="L49" s="311"/>
-      <c r="M49" s="314"/>
-      <c r="N49" s="329"/>
-      <c r="O49" s="329"/>
+      <c r="C49" s="298"/>
+      <c r="D49" s="289"/>
+      <c r="E49" s="294"/>
+      <c r="F49" s="295"/>
+      <c r="G49" s="331"/>
+      <c r="H49" s="332"/>
+      <c r="I49" s="332"/>
+      <c r="J49" s="332"/>
+      <c r="K49" s="332"/>
+      <c r="L49" s="332"/>
+      <c r="M49" s="334"/>
+      <c r="N49" s="338"/>
+      <c r="O49" s="338"/>
     </row>
     <row r="50" spans="2:15">
-      <c r="B50" s="315">
+      <c r="B50" s="297">
         <v>40</v>
       </c>
-      <c r="C50" s="316"/>
-      <c r="D50" s="307"/>
-      <c r="E50" s="312"/>
-      <c r="F50" s="313"/>
-      <c r="G50" s="313"/>
-      <c r="H50" s="311"/>
-      <c r="I50" s="311"/>
-      <c r="J50" s="311"/>
-      <c r="K50" s="311"/>
-      <c r="L50" s="311"/>
-      <c r="M50" s="314"/>
-      <c r="N50" s="329"/>
-      <c r="O50" s="329"/>
+      <c r="C50" s="298"/>
+      <c r="D50" s="289"/>
+      <c r="E50" s="294"/>
+      <c r="F50" s="295"/>
+      <c r="G50" s="331"/>
+      <c r="H50" s="332"/>
+      <c r="I50" s="332"/>
+      <c r="J50" s="332"/>
+      <c r="K50" s="332"/>
+      <c r="L50" s="332"/>
+      <c r="M50" s="334"/>
+      <c r="N50" s="338"/>
+      <c r="O50" s="338"/>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="309">
+      <c r="B51" s="291">
         <v>41</v>
       </c>
-      <c r="C51" s="316"/>
-      <c r="D51" s="307"/>
-      <c r="E51" s="312"/>
-      <c r="F51" s="313"/>
-      <c r="G51" s="313"/>
-      <c r="H51" s="311"/>
-      <c r="I51" s="311"/>
-      <c r="J51" s="311"/>
-      <c r="K51" s="311"/>
-      <c r="L51" s="311"/>
-      <c r="M51" s="314"/>
-      <c r="N51" s="329"/>
-      <c r="O51" s="329"/>
+      <c r="C51" s="298"/>
+      <c r="D51" s="289"/>
+      <c r="E51" s="294"/>
+      <c r="F51" s="295"/>
+      <c r="G51" s="331"/>
+      <c r="H51" s="332"/>
+      <c r="I51" s="332"/>
+      <c r="J51" s="332"/>
+      <c r="K51" s="332"/>
+      <c r="L51" s="332"/>
+      <c r="M51" s="334"/>
+      <c r="N51" s="338"/>
+      <c r="O51" s="338"/>
     </row>
     <row r="52" spans="2:15">
-      <c r="B52" s="315">
+      <c r="B52" s="297">
         <v>42</v>
       </c>
-      <c r="C52" s="316"/>
-      <c r="D52" s="307"/>
-      <c r="E52" s="312"/>
-      <c r="F52" s="313"/>
-      <c r="G52" s="313"/>
-      <c r="H52" s="311"/>
-      <c r="I52" s="311"/>
-      <c r="J52" s="311"/>
-      <c r="K52" s="311"/>
-      <c r="L52" s="311"/>
-      <c r="M52" s="314"/>
-      <c r="N52" s="329"/>
-      <c r="O52" s="329"/>
+      <c r="C52" s="298"/>
+      <c r="D52" s="289"/>
+      <c r="E52" s="294"/>
+      <c r="F52" s="295"/>
+      <c r="G52" s="331"/>
+      <c r="H52" s="332"/>
+      <c r="I52" s="332"/>
+      <c r="J52" s="332"/>
+      <c r="K52" s="332"/>
+      <c r="L52" s="332"/>
+      <c r="M52" s="334"/>
+      <c r="N52" s="338"/>
+      <c r="O52" s="338"/>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" s="309">
+      <c r="B53" s="291">
         <v>43</v>
       </c>
-      <c r="C53" s="320"/>
-      <c r="D53" s="311"/>
-      <c r="E53" s="312"/>
-      <c r="F53" s="313"/>
-      <c r="G53" s="313"/>
-      <c r="H53" s="313"/>
-      <c r="I53" s="313"/>
-      <c r="J53" s="313"/>
-      <c r="K53" s="313"/>
-      <c r="L53" s="313"/>
-      <c r="M53" s="321"/>
-      <c r="N53" s="329"/>
-      <c r="O53" s="329"/>
+      <c r="C53" s="302"/>
+      <c r="D53" s="293"/>
+      <c r="E53" s="294"/>
+      <c r="F53" s="295"/>
+      <c r="G53" s="331"/>
+      <c r="H53" s="331"/>
+      <c r="I53" s="331"/>
+      <c r="J53" s="331"/>
+      <c r="K53" s="331"/>
+      <c r="L53" s="331"/>
+      <c r="M53" s="344"/>
+      <c r="N53" s="338"/>
+      <c r="O53" s="338"/>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="322" t="s">
+      <c r="B54" s="304" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="323"/>
-      <c r="D54" s="324"/>
-      <c r="E54" s="325"/>
-      <c r="F54" s="326"/>
-      <c r="G54" s="326"/>
-      <c r="H54" s="326"/>
-      <c r="I54" s="326"/>
-      <c r="J54" s="326"/>
-      <c r="K54" s="326"/>
-      <c r="L54" s="326"/>
-      <c r="M54" s="327"/>
-      <c r="N54" s="332"/>
-      <c r="O54" s="332"/>
+      <c r="C54" s="305"/>
+      <c r="D54" s="306"/>
+      <c r="E54" s="307"/>
+      <c r="F54" s="308"/>
+      <c r="G54" s="345"/>
+      <c r="H54" s="345"/>
+      <c r="I54" s="345"/>
+      <c r="J54" s="345"/>
+      <c r="K54" s="345"/>
+      <c r="L54" s="345"/>
+      <c r="M54" s="346"/>
+      <c r="N54" s="347"/>
+      <c r="O54" s="347"/>
     </row>
     <row r="101" spans="2:15" s="97" customFormat="1">
       <c r="B101" t="s">

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -1183,9 +1183,6 @@
     <t>19/05</t>
   </si>
   <si>
-    <t>SPRINT 02 FROM 08/05 TO 12/05</t>
-  </si>
-  <si>
     <t>Report 1</t>
   </si>
   <si>
@@ -1238,6 +1235,9 @@
   </si>
   <si>
     <t>+Appointment email for teacher</t>
+  </si>
+  <si>
+    <t>SPRINT 02 FROM 13/05 TO 19/05</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="348">
+  <cellXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -2966,60 +2966,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3063,6 +3009,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -8612,7 +8615,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="C14" s="316">
+      <c r="C14" s="330">
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -8623,7 +8626,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="C15" s="317"/>
+      <c r="C15" s="331"/>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
@@ -8631,28 +8634,28 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="C16" s="317"/>
+      <c r="C16" s="331"/>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="317"/>
+      <c r="C17" s="331"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="318"/>
+      <c r="C18" s="337"/>
       <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="321">
+      <c r="C19" s="344">
         <v>3</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -8663,7 +8666,7 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="322"/>
+      <c r="C20" s="345"/>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
@@ -8673,7 +8676,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="322"/>
+      <c r="C21" s="345"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -8683,42 +8686,42 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="322"/>
+      <c r="C22" s="345"/>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="322"/>
+      <c r="C23" s="345"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="322"/>
+      <c r="C24" s="345"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="322"/>
+      <c r="C25" s="345"/>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="323"/>
+      <c r="C26" s="346"/>
       <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="53"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="316">
+      <c r="C27" s="330">
         <v>4</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -8729,56 +8732,56 @@
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="317"/>
+      <c r="C28" s="331"/>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="317"/>
+      <c r="C29" s="331"/>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="317"/>
+      <c r="C30" s="331"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="317"/>
+      <c r="C31" s="331"/>
       <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="317"/>
+      <c r="C32" s="331"/>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="C33" s="317"/>
+      <c r="C33" s="331"/>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="C34" s="318"/>
+      <c r="C34" s="337"/>
       <c r="D34" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="313">
+      <c r="C35" s="336">
         <v>5</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -8789,14 +8792,14 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="314"/>
+      <c r="C36" s="334"/>
       <c r="D36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="314"/>
+      <c r="C37" s="334"/>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
@@ -8804,14 +8807,14 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="315"/>
+      <c r="C38" s="341"/>
       <c r="D38" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="49"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="316">
+      <c r="C39" s="330">
         <v>6</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -8822,21 +8825,21 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="317"/>
+      <c r="C40" s="331"/>
       <c r="D40" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="318"/>
+      <c r="C41" s="337"/>
       <c r="D41" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="319" t="s">
+      <c r="C42" s="342" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -8847,7 +8850,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="C43" s="320"/>
+      <c r="C43" s="343"/>
       <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
@@ -8887,10 +8890,10 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="C52" s="326" t="s">
+      <c r="C52" s="340" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="326"/>
+      <c r="D52" s="340"/>
       <c r="E52" s="42"/>
     </row>
     <row r="53" spans="2:5">
@@ -8912,10 +8915,10 @@
       <c r="E54" s="40"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="C55" s="324" t="s">
+      <c r="C55" s="338" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="325"/>
+      <c r="D55" s="339"/>
       <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5">
@@ -8937,10 +8940,10 @@
       <c r="E57" s="40"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="C58" s="324" t="s">
+      <c r="C58" s="338" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="325"/>
+      <c r="D58" s="339"/>
       <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5">
@@ -8953,7 +8956,7 @@
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="C60" s="317">
+      <c r="C60" s="331">
         <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
@@ -8962,70 +8965,70 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="C61" s="317"/>
+      <c r="C61" s="331"/>
       <c r="D61" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="C62" s="317"/>
+      <c r="C62" s="331"/>
       <c r="D62" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="C63" s="317"/>
+      <c r="C63" s="331"/>
       <c r="D63" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="C64" s="317"/>
+      <c r="C64" s="331"/>
       <c r="D64" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="317"/>
+      <c r="C65" s="331"/>
       <c r="D65" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="317"/>
+      <c r="C66" s="331"/>
       <c r="D66" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="18"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="317"/>
+      <c r="C67" s="331"/>
       <c r="D67" s="32" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="317"/>
+      <c r="C68" s="331"/>
       <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="318"/>
+      <c r="C69" s="337"/>
       <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="18"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="313">
+      <c r="C70" s="336">
         <v>2</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -9034,35 +9037,35 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="314"/>
+      <c r="C71" s="334"/>
       <c r="D71" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="3:5">
-      <c r="C72" s="314"/>
+      <c r="C72" s="334"/>
       <c r="D72" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="314"/>
+      <c r="C73" s="334"/>
       <c r="D73" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="314"/>
+      <c r="C74" s="334"/>
       <c r="D74" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="49"/>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="316">
+      <c r="C75" s="330">
         <v>3</v>
       </c>
       <c r="D75" s="44" t="s">
@@ -9071,42 +9074,42 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="317"/>
+      <c r="C76" s="331"/>
       <c r="D76" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="317"/>
+      <c r="C77" s="331"/>
       <c r="D77" s="33" t="s">
         <v>72</v>
       </c>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="317"/>
+      <c r="C78" s="331"/>
       <c r="D78" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E78" s="18"/>
     </row>
     <row r="79" spans="3:5">
-      <c r="C79" s="317"/>
+      <c r="C79" s="331"/>
       <c r="D79" s="33" t="s">
         <v>74</v>
       </c>
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C80" s="327"/>
+      <c r="C80" s="332"/>
       <c r="D80" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="3:5">
-      <c r="C81" s="328">
+      <c r="C81" s="333">
         <v>4</v>
       </c>
       <c r="D81" s="57" t="s">
@@ -9115,63 +9118,63 @@
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="314"/>
+      <c r="C82" s="334"/>
       <c r="D82" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E82" s="48"/>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="314"/>
+      <c r="C83" s="334"/>
       <c r="D83" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="3:5">
-      <c r="C84" s="314"/>
+      <c r="C84" s="334"/>
       <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="48"/>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="314"/>
+      <c r="C85" s="334"/>
       <c r="D85" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="48"/>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="314"/>
+      <c r="C86" s="334"/>
       <c r="D86" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="48"/>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="314"/>
+      <c r="C87" s="334"/>
       <c r="D87" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="314"/>
+      <c r="C88" s="334"/>
       <c r="D88" s="34" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="48"/>
     </row>
     <row r="89" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C89" s="329"/>
+      <c r="C89" s="335"/>
       <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="3:5">
-      <c r="C90" s="316">
+      <c r="C90" s="330">
         <v>5</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -9180,28 +9183,28 @@
       <c r="E90" s="18"/>
     </row>
     <row r="91" spans="3:5">
-      <c r="C91" s="317"/>
+      <c r="C91" s="331"/>
       <c r="D91" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="3:5">
-      <c r="C92" s="317"/>
+      <c r="C92" s="331"/>
       <c r="D92" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="3:5">
-      <c r="C93" s="317"/>
+      <c r="C93" s="331"/>
       <c r="D93" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="3:5">
-      <c r="C94" s="313">
+      <c r="C94" s="336">
         <v>6</v>
       </c>
       <c r="D94" s="57" t="s">
@@ -9210,21 +9213,21 @@
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="314"/>
+      <c r="C95" s="334"/>
       <c r="D95" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="314"/>
+      <c r="C96" s="334"/>
       <c r="D96" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="48"/>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="316">
+      <c r="C97" s="330">
         <v>7</v>
       </c>
       <c r="D97" s="44" t="s">
@@ -9233,35 +9236,35 @@
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="317"/>
+      <c r="C98" s="331"/>
       <c r="D98" s="32" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="18"/>
     </row>
     <row r="99" spans="3:5">
-      <c r="C99" s="317"/>
+      <c r="C99" s="331"/>
       <c r="D99" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="18"/>
     </row>
     <row r="100" spans="3:5">
-      <c r="C100" s="317"/>
+      <c r="C100" s="331"/>
       <c r="D100" s="32" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="18"/>
     </row>
     <row r="101" spans="3:5">
-      <c r="C101" s="318"/>
+      <c r="C101" s="337"/>
       <c r="D101" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="18"/>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="313">
+      <c r="C102" s="336">
         <v>8</v>
       </c>
       <c r="D102" s="57" t="s">
@@ -9270,21 +9273,21 @@
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="3:5">
-      <c r="C103" s="314"/>
+      <c r="C103" s="334"/>
       <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="3:5">
-      <c r="C104" s="314"/>
+      <c r="C104" s="334"/>
       <c r="D104" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="48"/>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="316" t="s">
+      <c r="C105" s="330" t="s">
         <v>99</v>
       </c>
       <c r="D105" s="58" t="s">
@@ -9295,12 +9298,23 @@
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="317"/>
+      <c r="C106" s="331"/>
       <c r="D106" s="38"/>
       <c r="E106" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C75:C80"/>
     <mergeCell ref="C81:C89"/>
@@ -9308,17 +9322,6 @@
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C27:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
@@ -11852,12 +11855,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:27" ht="18">
-      <c r="B7" s="330" t="s">
+      <c r="B7" s="347" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="330"/>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
+      <c r="C7" s="347"/>
+      <c r="D7" s="347"/>
+      <c r="E7" s="347"/>
     </row>
     <row r="10" spans="2:27" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -16033,12 +16036,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:14" ht="18">
-      <c r="B7" s="330" t="s">
+      <c r="B7" s="347" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="330"/>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
+      <c r="C7" s="347"/>
+      <c r="D7" s="347"/>
+      <c r="E7" s="347"/>
     </row>
     <row r="10" spans="2:14" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -17654,12 +17657,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:13" ht="18">
-      <c r="B7" s="330" t="s">
+      <c r="B7" s="347" t="s">
         <v>348</v>
       </c>
-      <c r="C7" s="330"/>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
+      <c r="C7" s="347"/>
+      <c r="D7" s="347"/>
+      <c r="E7" s="347"/>
     </row>
     <row r="10" spans="2:13" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -18885,7 +18888,7 @@
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18923,12 +18926,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="330" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" s="330"/>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
+      <c r="B7" s="347" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" s="347"/>
+      <c r="D7" s="347"/>
+      <c r="E7" s="347"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -18979,7 +18982,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="278" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D11" s="293" t="s">
         <v>125</v>
@@ -18990,52 +18993,54 @@
       <c r="F11" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="331">
-        <v>2</v>
-      </c>
-      <c r="H11" s="332">
-        <v>2</v>
-      </c>
-      <c r="I11" s="332">
-        <v>2</v>
-      </c>
-      <c r="J11" s="332">
-        <v>2</v>
-      </c>
-      <c r="K11" s="332">
+      <c r="G11" s="313">
+        <v>2</v>
+      </c>
+      <c r="H11" s="314">
+        <v>2</v>
+      </c>
+      <c r="I11" s="314">
+        <v>2</v>
+      </c>
+      <c r="J11" s="314">
+        <v>2</v>
+      </c>
+      <c r="K11" s="314">
         <v>1</v>
       </c>
-      <c r="L11" s="333"/>
-      <c r="M11" s="334"/>
-      <c r="N11" s="335"/>
-      <c r="O11" s="335"/>
+      <c r="L11" s="315">
+        <v>0</v>
+      </c>
+      <c r="M11" s="316"/>
+      <c r="N11" s="317"/>
+      <c r="O11" s="317"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="297">
         <v>2</v>
       </c>
       <c r="C12" s="278" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D12" s="293"/>
       <c r="E12" s="294"/>
       <c r="F12" s="295"/>
-      <c r="G12" s="331"/>
-      <c r="H12" s="332"/>
-      <c r="I12" s="336"/>
-      <c r="J12" s="336"/>
-      <c r="K12" s="336"/>
-      <c r="L12" s="336"/>
-      <c r="M12" s="337"/>
-      <c r="N12" s="338"/>
-      <c r="O12" s="338"/>
+      <c r="G12" s="313"/>
+      <c r="H12" s="314"/>
+      <c r="I12" s="318"/>
+      <c r="J12" s="318"/>
+      <c r="K12" s="318"/>
+      <c r="L12" s="318"/>
+      <c r="M12" s="319"/>
+      <c r="N12" s="320"/>
+      <c r="O12" s="320"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="291">
         <v>3</v>
       </c>
       <c r="C13" s="282" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D13" s="293" t="s">
         <v>107</v>
@@ -19046,32 +19051,34 @@
       <c r="F13" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="331">
+      <c r="G13" s="313">
         <v>5</v>
       </c>
-      <c r="H13" s="332">
+      <c r="H13" s="314">
         <v>5</v>
       </c>
-      <c r="I13" s="336">
+      <c r="I13" s="318">
         <v>5</v>
       </c>
-      <c r="J13" s="336">
+      <c r="J13" s="318">
         <v>5</v>
       </c>
-      <c r="K13" s="336">
+      <c r="K13" s="318">
         <v>5</v>
       </c>
-      <c r="L13" s="336"/>
-      <c r="M13" s="337"/>
-      <c r="N13" s="338"/>
-      <c r="O13" s="338"/>
+      <c r="L13" s="318">
+        <v>2</v>
+      </c>
+      <c r="M13" s="319"/>
+      <c r="N13" s="320"/>
+      <c r="O13" s="320"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="297">
         <v>4</v>
       </c>
       <c r="C14" s="282" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D14" s="293" t="s">
         <v>107</v>
@@ -19082,32 +19089,34 @@
       <c r="F14" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="331">
+      <c r="G14" s="313">
         <v>5</v>
       </c>
-      <c r="H14" s="332">
+      <c r="H14" s="314">
         <v>5</v>
       </c>
-      <c r="I14" s="336">
+      <c r="I14" s="318">
         <v>5</v>
       </c>
-      <c r="J14" s="336">
+      <c r="J14" s="318">
         <v>5</v>
       </c>
-      <c r="K14" s="336">
+      <c r="K14" s="318">
         <v>5</v>
       </c>
-      <c r="L14" s="336"/>
-      <c r="M14" s="337"/>
-      <c r="N14" s="338"/>
-      <c r="O14" s="338"/>
+      <c r="L14" s="318">
+        <v>2</v>
+      </c>
+      <c r="M14" s="319"/>
+      <c r="N14" s="320"/>
+      <c r="O14" s="320"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="291">
         <v>5</v>
       </c>
       <c r="C15" s="282" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D15" s="293" t="s">
         <v>107</v>
@@ -19118,52 +19127,54 @@
       <c r="F15" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="331">
+      <c r="G15" s="313">
         <v>4</v>
       </c>
-      <c r="H15" s="332">
+      <c r="H15" s="314">
         <v>4</v>
       </c>
-      <c r="I15" s="336">
+      <c r="I15" s="318">
         <v>4</v>
       </c>
-      <c r="J15" s="336">
+      <c r="J15" s="318">
         <v>4</v>
       </c>
-      <c r="K15" s="336">
+      <c r="K15" s="318">
         <v>4</v>
       </c>
-      <c r="L15" s="332"/>
-      <c r="M15" s="334"/>
-      <c r="N15" s="338"/>
-      <c r="O15" s="338"/>
+      <c r="L15" s="314">
+        <v>3</v>
+      </c>
+      <c r="M15" s="316"/>
+      <c r="N15" s="320"/>
+      <c r="O15" s="320"/>
     </row>
     <row r="16" spans="2:15" s="197" customFormat="1">
       <c r="B16" s="297">
         <v>6</v>
       </c>
       <c r="C16" s="278" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D16" s="293"/>
       <c r="E16" s="294"/>
       <c r="F16" s="295"/>
-      <c r="G16" s="331"/>
-      <c r="H16" s="332"/>
-      <c r="I16" s="336"/>
-      <c r="J16" s="336"/>
-      <c r="K16" s="336"/>
-      <c r="L16" s="336"/>
-      <c r="M16" s="337"/>
-      <c r="N16" s="339"/>
-      <c r="O16" s="339"/>
+      <c r="G16" s="313"/>
+      <c r="H16" s="314"/>
+      <c r="I16" s="318"/>
+      <c r="J16" s="318"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="318"/>
+      <c r="M16" s="319"/>
+      <c r="N16" s="321"/>
+      <c r="O16" s="321"/>
     </row>
     <row r="17" spans="2:15" s="197" customFormat="1">
       <c r="B17" s="291">
         <v>7</v>
       </c>
       <c r="C17" s="282" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D17" s="293" t="s">
         <v>107</v>
@@ -19174,32 +19185,34 @@
       <c r="F17" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="331">
+      <c r="G17" s="313">
         <v>6</v>
       </c>
-      <c r="H17" s="332">
+      <c r="H17" s="314">
         <v>6</v>
       </c>
-      <c r="I17" s="336">
+      <c r="I17" s="318">
         <v>6</v>
       </c>
-      <c r="J17" s="336">
+      <c r="J17" s="318">
         <v>6</v>
       </c>
-      <c r="K17" s="336">
+      <c r="K17" s="318">
         <v>5</v>
       </c>
-      <c r="L17" s="336"/>
-      <c r="M17" s="337"/>
-      <c r="N17" s="339"/>
-      <c r="O17" s="339"/>
+      <c r="L17" s="318">
+        <v>2</v>
+      </c>
+      <c r="M17" s="319"/>
+      <c r="N17" s="321"/>
+      <c r="O17" s="321"/>
     </row>
     <row r="18" spans="2:15" s="197" customFormat="1">
       <c r="B18" s="297">
         <v>8</v>
       </c>
       <c r="C18" s="282" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D18" s="279" t="s">
         <v>107</v>
@@ -19210,32 +19223,34 @@
       <c r="F18" s="281" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="331">
+      <c r="G18" s="313">
         <v>4</v>
       </c>
-      <c r="H18" s="332">
+      <c r="H18" s="314">
         <v>4</v>
       </c>
-      <c r="I18" s="336">
+      <c r="I18" s="318">
         <v>4</v>
       </c>
-      <c r="J18" s="336">
+      <c r="J18" s="318">
         <v>4</v>
       </c>
-      <c r="K18" s="336">
+      <c r="K18" s="318">
         <v>4</v>
       </c>
-      <c r="L18" s="336"/>
-      <c r="M18" s="337"/>
-      <c r="N18" s="339"/>
-      <c r="O18" s="339"/>
+      <c r="L18" s="318">
+        <v>4</v>
+      </c>
+      <c r="M18" s="319"/>
+      <c r="N18" s="321"/>
+      <c r="O18" s="321"/>
     </row>
     <row r="19" spans="2:15" s="197" customFormat="1">
       <c r="B19" s="291">
         <v>9</v>
       </c>
       <c r="C19" s="282" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D19" s="279" t="s">
         <v>107</v>
@@ -19246,52 +19261,54 @@
       <c r="F19" s="281" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="331">
+      <c r="G19" s="313">
         <v>6</v>
       </c>
-      <c r="H19" s="332">
+      <c r="H19" s="314">
         <v>6</v>
       </c>
-      <c r="I19" s="336">
+      <c r="I19" s="318">
         <v>6</v>
       </c>
-      <c r="J19" s="336">
+      <c r="J19" s="318">
         <v>6</v>
       </c>
-      <c r="K19" s="332">
+      <c r="K19" s="314">
         <v>6</v>
       </c>
-      <c r="L19" s="340"/>
-      <c r="M19" s="341"/>
-      <c r="N19" s="339"/>
-      <c r="O19" s="339"/>
+      <c r="L19" s="348">
+        <v>6</v>
+      </c>
+      <c r="M19" s="323"/>
+      <c r="N19" s="321"/>
+      <c r="O19" s="321"/>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="297">
         <v>10</v>
       </c>
       <c r="C20" s="278" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D20" s="293"/>
       <c r="E20" s="294"/>
       <c r="F20" s="295"/>
-      <c r="G20" s="331"/>
-      <c r="H20" s="342"/>
-      <c r="I20" s="332"/>
-      <c r="J20" s="332"/>
-      <c r="K20" s="332"/>
-      <c r="L20" s="332"/>
-      <c r="M20" s="334"/>
-      <c r="N20" s="338"/>
-      <c r="O20" s="338"/>
+      <c r="G20" s="313"/>
+      <c r="H20" s="324"/>
+      <c r="I20" s="314"/>
+      <c r="J20" s="314"/>
+      <c r="K20" s="314"/>
+      <c r="L20" s="314"/>
+      <c r="M20" s="316"/>
+      <c r="N20" s="320"/>
+      <c r="O20" s="320"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="291">
         <v>11</v>
       </c>
       <c r="C21" s="282" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D21" s="279" t="s">
         <v>107</v>
@@ -19302,32 +19319,34 @@
       <c r="F21" s="281" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="331">
+      <c r="G21" s="313">
         <v>5</v>
       </c>
-      <c r="H21" s="332">
+      <c r="H21" s="314">
         <v>5</v>
       </c>
-      <c r="I21" s="332">
+      <c r="I21" s="314">
         <v>5</v>
       </c>
-      <c r="J21" s="332">
+      <c r="J21" s="314">
         <v>5</v>
       </c>
-      <c r="K21" s="332">
+      <c r="K21" s="314">
         <v>4</v>
       </c>
-      <c r="L21" s="332"/>
-      <c r="M21" s="334"/>
-      <c r="N21" s="338"/>
-      <c r="O21" s="338"/>
+      <c r="L21" s="314">
+        <v>3</v>
+      </c>
+      <c r="M21" s="316"/>
+      <c r="N21" s="320"/>
+      <c r="O21" s="320"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="297">
         <v>12</v>
       </c>
       <c r="C22" s="282" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D22" s="293" t="s">
         <v>107</v>
@@ -19338,32 +19357,34 @@
       <c r="F22" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="331">
+      <c r="G22" s="313">
         <v>5</v>
       </c>
-      <c r="H22" s="332">
+      <c r="H22" s="314">
         <v>5</v>
       </c>
-      <c r="I22" s="332">
+      <c r="I22" s="314">
         <v>5</v>
       </c>
-      <c r="J22" s="332">
+      <c r="J22" s="314">
         <v>5</v>
       </c>
-      <c r="K22" s="332">
+      <c r="K22" s="314">
         <v>5</v>
       </c>
-      <c r="L22" s="332"/>
-      <c r="M22" s="334"/>
-      <c r="N22" s="338"/>
-      <c r="O22" s="338"/>
+      <c r="L22" s="314">
+        <v>4.5</v>
+      </c>
+      <c r="M22" s="316"/>
+      <c r="N22" s="320"/>
+      <c r="O22" s="320"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="291">
         <v>13</v>
       </c>
       <c r="C23" s="282" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D23" s="279" t="s">
         <v>107</v>
@@ -19374,52 +19395,54 @@
       <c r="F23" s="281" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="331">
+      <c r="G23" s="313">
         <v>5</v>
       </c>
-      <c r="H23" s="332">
+      <c r="H23" s="314">
         <v>5</v>
       </c>
-      <c r="I23" s="332">
+      <c r="I23" s="314">
         <v>5</v>
       </c>
-      <c r="J23" s="332">
+      <c r="J23" s="314">
         <v>5</v>
       </c>
-      <c r="K23" s="332">
+      <c r="K23" s="314">
         <v>5</v>
       </c>
-      <c r="L23" s="332"/>
-      <c r="M23" s="334"/>
-      <c r="N23" s="338"/>
-      <c r="O23" s="338"/>
+      <c r="L23" s="314">
+        <v>4.5</v>
+      </c>
+      <c r="M23" s="316"/>
+      <c r="N23" s="320"/>
+      <c r="O23" s="320"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="297">
         <v>14</v>
       </c>
       <c r="C24" s="278" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D24" s="293"/>
       <c r="E24" s="294"/>
       <c r="F24" s="295"/>
-      <c r="G24" s="331"/>
-      <c r="H24" s="332"/>
-      <c r="I24" s="336"/>
-      <c r="J24" s="336"/>
-      <c r="K24" s="336"/>
-      <c r="L24" s="336"/>
-      <c r="M24" s="337"/>
-      <c r="N24" s="338"/>
-      <c r="O24" s="338"/>
+      <c r="G24" s="313"/>
+      <c r="H24" s="314"/>
+      <c r="I24" s="318"/>
+      <c r="J24" s="318"/>
+      <c r="K24" s="318"/>
+      <c r="L24" s="318"/>
+      <c r="M24" s="319"/>
+      <c r="N24" s="320"/>
+      <c r="O24" s="320"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="291">
         <v>15</v>
       </c>
       <c r="C25" s="282" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D25" s="293" t="s">
         <v>107</v>
@@ -19430,32 +19453,34 @@
       <c r="F25" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="331">
+      <c r="G25" s="313">
         <v>5</v>
       </c>
-      <c r="H25" s="332">
+      <c r="H25" s="314">
         <v>5</v>
       </c>
-      <c r="I25" s="336">
+      <c r="I25" s="318">
         <v>5</v>
       </c>
-      <c r="J25" s="336">
+      <c r="J25" s="318">
         <v>5</v>
       </c>
-      <c r="K25" s="336">
+      <c r="K25" s="318">
         <v>4.5</v>
       </c>
-      <c r="L25" s="336"/>
-      <c r="M25" s="337"/>
-      <c r="N25" s="338"/>
-      <c r="O25" s="338"/>
+      <c r="L25" s="318">
+        <v>4</v>
+      </c>
+      <c r="M25" s="319"/>
+      <c r="N25" s="320"/>
+      <c r="O25" s="320"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="297">
         <v>16</v>
       </c>
       <c r="C26" s="312" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D26" s="279" t="s">
         <v>107</v>
@@ -19466,32 +19491,34 @@
       <c r="F26" s="295" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="331">
-        <v>2</v>
-      </c>
-      <c r="H26" s="332">
-        <v>2</v>
-      </c>
-      <c r="I26" s="336">
-        <v>2</v>
-      </c>
-      <c r="J26" s="336">
-        <v>2</v>
-      </c>
-      <c r="K26" s="336">
-        <v>2</v>
-      </c>
-      <c r="L26" s="336"/>
-      <c r="M26" s="337"/>
-      <c r="N26" s="338"/>
-      <c r="O26" s="338"/>
+      <c r="G26" s="313">
+        <v>2</v>
+      </c>
+      <c r="H26" s="314">
+        <v>2</v>
+      </c>
+      <c r="I26" s="318">
+        <v>2</v>
+      </c>
+      <c r="J26" s="318">
+        <v>2</v>
+      </c>
+      <c r="K26" s="318">
+        <v>2</v>
+      </c>
+      <c r="L26" s="318">
+        <v>2</v>
+      </c>
+      <c r="M26" s="319"/>
+      <c r="N26" s="320"/>
+      <c r="O26" s="320"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="291">
         <v>17</v>
       </c>
       <c r="C27" s="282" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D27" s="293" t="s">
         <v>107</v>
@@ -19502,32 +19529,34 @@
       <c r="F27" s="281" t="s">
         <v>117</v>
       </c>
-      <c r="G27" s="331">
+      <c r="G27" s="313">
         <v>5</v>
       </c>
-      <c r="H27" s="332">
+      <c r="H27" s="314">
         <v>5</v>
       </c>
-      <c r="I27" s="336">
+      <c r="I27" s="318">
         <v>5</v>
       </c>
-      <c r="J27" s="336">
+      <c r="J27" s="318">
         <v>5</v>
       </c>
-      <c r="K27" s="336">
+      <c r="K27" s="318">
         <v>4.5</v>
       </c>
-      <c r="L27" s="336"/>
-      <c r="M27" s="337"/>
-      <c r="N27" s="338"/>
-      <c r="O27" s="338"/>
+      <c r="L27" s="318">
+        <v>4</v>
+      </c>
+      <c r="M27" s="319"/>
+      <c r="N27" s="320"/>
+      <c r="O27" s="320"/>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="297">
         <v>18</v>
       </c>
       <c r="C28" s="312" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D28" s="293" t="s">
         <v>107</v>
@@ -19538,25 +19567,27 @@
       <c r="F28" s="281" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="331">
-        <v>2</v>
-      </c>
-      <c r="H28" s="332">
-        <v>2</v>
-      </c>
-      <c r="I28" s="336">
-        <v>2</v>
-      </c>
-      <c r="J28" s="336">
-        <v>2</v>
-      </c>
-      <c r="K28" s="336">
-        <v>2</v>
-      </c>
-      <c r="L28" s="336"/>
-      <c r="M28" s="337"/>
-      <c r="N28" s="338"/>
-      <c r="O28" s="338"/>
+      <c r="G28" s="313">
+        <v>2</v>
+      </c>
+      <c r="H28" s="314">
+        <v>2</v>
+      </c>
+      <c r="I28" s="318">
+        <v>2</v>
+      </c>
+      <c r="J28" s="318">
+        <v>2</v>
+      </c>
+      <c r="K28" s="318">
+        <v>2</v>
+      </c>
+      <c r="L28" s="318">
+        <v>2</v>
+      </c>
+      <c r="M28" s="319"/>
+      <c r="N28" s="320"/>
+      <c r="O28" s="320"/>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="291">
@@ -19566,15 +19597,15 @@
       <c r="D29" s="283"/>
       <c r="E29" s="287"/>
       <c r="F29" s="288"/>
-      <c r="G29" s="343"/>
-      <c r="H29" s="340"/>
-      <c r="I29" s="340"/>
-      <c r="J29" s="340"/>
-      <c r="K29" s="340"/>
-      <c r="L29" s="340"/>
-      <c r="M29" s="341"/>
-      <c r="N29" s="338"/>
-      <c r="O29" s="338"/>
+      <c r="G29" s="325"/>
+      <c r="H29" s="322"/>
+      <c r="I29" s="322"/>
+      <c r="J29" s="322"/>
+      <c r="K29" s="322"/>
+      <c r="L29" s="322"/>
+      <c r="M29" s="323"/>
+      <c r="N29" s="320"/>
+      <c r="O29" s="320"/>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="297">
@@ -19584,15 +19615,15 @@
       <c r="D30" s="293"/>
       <c r="E30" s="294"/>
       <c r="F30" s="295"/>
-      <c r="G30" s="331"/>
-      <c r="H30" s="332"/>
-      <c r="I30" s="332"/>
-      <c r="J30" s="332"/>
-      <c r="K30" s="332"/>
-      <c r="L30" s="332"/>
-      <c r="M30" s="334"/>
-      <c r="N30" s="338"/>
-      <c r="O30" s="338"/>
+      <c r="G30" s="313"/>
+      <c r="H30" s="314"/>
+      <c r="I30" s="314"/>
+      <c r="J30" s="314"/>
+      <c r="K30" s="314"/>
+      <c r="L30" s="314"/>
+      <c r="M30" s="316"/>
+      <c r="N30" s="320"/>
+      <c r="O30" s="320"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="291">
@@ -19602,15 +19633,15 @@
       <c r="D31" s="283"/>
       <c r="E31" s="287"/>
       <c r="F31" s="288"/>
-      <c r="G31" s="343"/>
-      <c r="H31" s="340"/>
-      <c r="I31" s="340"/>
-      <c r="J31" s="340"/>
-      <c r="K31" s="340"/>
-      <c r="L31" s="340"/>
-      <c r="M31" s="341"/>
-      <c r="N31" s="338"/>
-      <c r="O31" s="338"/>
+      <c r="G31" s="325"/>
+      <c r="H31" s="322"/>
+      <c r="I31" s="322"/>
+      <c r="J31" s="322"/>
+      <c r="K31" s="322"/>
+      <c r="L31" s="322"/>
+      <c r="M31" s="323"/>
+      <c r="N31" s="320"/>
+      <c r="O31" s="320"/>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="297">
@@ -19620,15 +19651,15 @@
       <c r="D32" s="293"/>
       <c r="E32" s="294"/>
       <c r="F32" s="295"/>
-      <c r="G32" s="331"/>
-      <c r="H32" s="332"/>
-      <c r="I32" s="332"/>
-      <c r="J32" s="332"/>
-      <c r="K32" s="332"/>
-      <c r="L32" s="332"/>
-      <c r="M32" s="334"/>
-      <c r="N32" s="338"/>
-      <c r="O32" s="338"/>
+      <c r="G32" s="313"/>
+      <c r="H32" s="314"/>
+      <c r="I32" s="314"/>
+      <c r="J32" s="314"/>
+      <c r="K32" s="314"/>
+      <c r="L32" s="314"/>
+      <c r="M32" s="316"/>
+      <c r="N32" s="320"/>
+      <c r="O32" s="320"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="291">
@@ -19638,15 +19669,15 @@
       <c r="D33" s="283"/>
       <c r="E33" s="287"/>
       <c r="F33" s="288"/>
-      <c r="G33" s="343"/>
-      <c r="H33" s="340"/>
-      <c r="I33" s="340"/>
-      <c r="J33" s="340"/>
-      <c r="K33" s="340"/>
-      <c r="L33" s="340"/>
-      <c r="M33" s="341"/>
-      <c r="N33" s="338"/>
-      <c r="O33" s="338"/>
+      <c r="G33" s="325"/>
+      <c r="H33" s="322"/>
+      <c r="I33" s="322"/>
+      <c r="J33" s="322"/>
+      <c r="K33" s="322"/>
+      <c r="L33" s="322"/>
+      <c r="M33" s="323"/>
+      <c r="N33" s="320"/>
+      <c r="O33" s="320"/>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="297">
@@ -19656,15 +19687,15 @@
       <c r="D34" s="283"/>
       <c r="E34" s="287"/>
       <c r="F34" s="288"/>
-      <c r="G34" s="343"/>
-      <c r="H34" s="340"/>
-      <c r="I34" s="340"/>
-      <c r="J34" s="340"/>
-      <c r="K34" s="340"/>
-      <c r="L34" s="340"/>
-      <c r="M34" s="341"/>
-      <c r="N34" s="338"/>
-      <c r="O34" s="338"/>
+      <c r="G34" s="325"/>
+      <c r="H34" s="322"/>
+      <c r="I34" s="322"/>
+      <c r="J34" s="322"/>
+      <c r="K34" s="322"/>
+      <c r="L34" s="322"/>
+      <c r="M34" s="323"/>
+      <c r="N34" s="320"/>
+      <c r="O34" s="320"/>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="291">
@@ -19674,15 +19705,15 @@
       <c r="D35" s="293"/>
       <c r="E35" s="294"/>
       <c r="F35" s="295"/>
-      <c r="G35" s="331"/>
-      <c r="H35" s="332"/>
-      <c r="I35" s="332"/>
-      <c r="J35" s="332"/>
-      <c r="K35" s="332"/>
-      <c r="L35" s="332"/>
-      <c r="M35" s="334"/>
-      <c r="N35" s="338"/>
-      <c r="O35" s="338"/>
+      <c r="G35" s="313"/>
+      <c r="H35" s="314"/>
+      <c r="I35" s="314"/>
+      <c r="J35" s="314"/>
+      <c r="K35" s="314"/>
+      <c r="L35" s="314"/>
+      <c r="M35" s="316"/>
+      <c r="N35" s="320"/>
+      <c r="O35" s="320"/>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="297">
@@ -19692,15 +19723,15 @@
       <c r="D36" s="293"/>
       <c r="E36" s="294"/>
       <c r="F36" s="295"/>
-      <c r="G36" s="331"/>
-      <c r="H36" s="332"/>
-      <c r="I36" s="332"/>
-      <c r="J36" s="332"/>
-      <c r="K36" s="332"/>
-      <c r="L36" s="332"/>
-      <c r="M36" s="334"/>
-      <c r="N36" s="338"/>
-      <c r="O36" s="338"/>
+      <c r="G36" s="313"/>
+      <c r="H36" s="314"/>
+      <c r="I36" s="314"/>
+      <c r="J36" s="314"/>
+      <c r="K36" s="314"/>
+      <c r="L36" s="314"/>
+      <c r="M36" s="316"/>
+      <c r="N36" s="320"/>
+      <c r="O36" s="320"/>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="291">
@@ -19710,15 +19741,15 @@
       <c r="D37" s="293"/>
       <c r="E37" s="294"/>
       <c r="F37" s="295"/>
-      <c r="G37" s="331"/>
-      <c r="H37" s="332"/>
-      <c r="I37" s="332"/>
-      <c r="J37" s="332"/>
-      <c r="K37" s="332"/>
-      <c r="L37" s="332"/>
-      <c r="M37" s="334"/>
-      <c r="N37" s="338"/>
-      <c r="O37" s="338"/>
+      <c r="G37" s="313"/>
+      <c r="H37" s="314"/>
+      <c r="I37" s="314"/>
+      <c r="J37" s="314"/>
+      <c r="K37" s="314"/>
+      <c r="L37" s="314"/>
+      <c r="M37" s="316"/>
+      <c r="N37" s="320"/>
+      <c r="O37" s="320"/>
     </row>
     <row r="38" spans="2:15">
       <c r="B38" s="297">
@@ -19728,15 +19759,15 @@
       <c r="D38" s="293"/>
       <c r="E38" s="294"/>
       <c r="F38" s="295"/>
-      <c r="G38" s="331"/>
-      <c r="H38" s="332"/>
-      <c r="I38" s="332"/>
-      <c r="J38" s="332"/>
-      <c r="K38" s="332"/>
-      <c r="L38" s="332"/>
-      <c r="M38" s="334"/>
-      <c r="N38" s="338"/>
-      <c r="O38" s="338"/>
+      <c r="G38" s="313"/>
+      <c r="H38" s="314"/>
+      <c r="I38" s="314"/>
+      <c r="J38" s="314"/>
+      <c r="K38" s="314"/>
+      <c r="L38" s="314"/>
+      <c r="M38" s="316"/>
+      <c r="N38" s="320"/>
+      <c r="O38" s="320"/>
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="291">
@@ -19746,15 +19777,15 @@
       <c r="D39" s="293"/>
       <c r="E39" s="294"/>
       <c r="F39" s="295"/>
-      <c r="G39" s="331"/>
-      <c r="H39" s="332"/>
-      <c r="I39" s="332"/>
-      <c r="J39" s="332"/>
-      <c r="K39" s="332"/>
-      <c r="L39" s="332"/>
-      <c r="M39" s="334"/>
-      <c r="N39" s="338"/>
-      <c r="O39" s="338"/>
+      <c r="G39" s="313"/>
+      <c r="H39" s="314"/>
+      <c r="I39" s="314"/>
+      <c r="J39" s="314"/>
+      <c r="K39" s="314"/>
+      <c r="L39" s="314"/>
+      <c r="M39" s="316"/>
+      <c r="N39" s="320"/>
+      <c r="O39" s="320"/>
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="297">
@@ -19764,15 +19795,15 @@
       <c r="D40" s="293"/>
       <c r="E40" s="294"/>
       <c r="F40" s="295"/>
-      <c r="G40" s="331"/>
-      <c r="H40" s="332"/>
-      <c r="I40" s="332"/>
-      <c r="J40" s="332"/>
-      <c r="K40" s="332"/>
-      <c r="L40" s="332"/>
-      <c r="M40" s="334"/>
-      <c r="N40" s="338"/>
-      <c r="O40" s="338"/>
+      <c r="G40" s="313"/>
+      <c r="H40" s="314"/>
+      <c r="I40" s="314"/>
+      <c r="J40" s="314"/>
+      <c r="K40" s="314"/>
+      <c r="L40" s="314"/>
+      <c r="M40" s="316"/>
+      <c r="N40" s="320"/>
+      <c r="O40" s="320"/>
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="291">
@@ -19782,15 +19813,15 @@
       <c r="D41" s="293"/>
       <c r="E41" s="294"/>
       <c r="F41" s="295"/>
-      <c r="G41" s="331"/>
-      <c r="H41" s="332"/>
-      <c r="I41" s="332"/>
-      <c r="J41" s="332"/>
-      <c r="K41" s="332"/>
-      <c r="L41" s="332"/>
-      <c r="M41" s="334"/>
-      <c r="N41" s="338"/>
-      <c r="O41" s="338"/>
+      <c r="G41" s="313"/>
+      <c r="H41" s="314"/>
+      <c r="I41" s="314"/>
+      <c r="J41" s="314"/>
+      <c r="K41" s="314"/>
+      <c r="L41" s="314"/>
+      <c r="M41" s="316"/>
+      <c r="N41" s="320"/>
+      <c r="O41" s="320"/>
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="297">
@@ -19800,15 +19831,15 @@
       <c r="D42" s="293"/>
       <c r="E42" s="294"/>
       <c r="F42" s="295"/>
-      <c r="G42" s="331"/>
-      <c r="H42" s="332"/>
-      <c r="I42" s="332"/>
-      <c r="J42" s="332"/>
-      <c r="K42" s="332"/>
-      <c r="L42" s="332"/>
-      <c r="M42" s="334"/>
-      <c r="N42" s="338"/>
-      <c r="O42" s="338"/>
+      <c r="G42" s="313"/>
+      <c r="H42" s="314"/>
+      <c r="I42" s="314"/>
+      <c r="J42" s="314"/>
+      <c r="K42" s="314"/>
+      <c r="L42" s="314"/>
+      <c r="M42" s="316"/>
+      <c r="N42" s="320"/>
+      <c r="O42" s="320"/>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="291">
@@ -19818,15 +19849,15 @@
       <c r="D43" s="293"/>
       <c r="E43" s="294"/>
       <c r="F43" s="295"/>
-      <c r="G43" s="331"/>
-      <c r="H43" s="332"/>
-      <c r="I43" s="332"/>
-      <c r="J43" s="332"/>
-      <c r="K43" s="332"/>
-      <c r="L43" s="332"/>
-      <c r="M43" s="334"/>
-      <c r="N43" s="338"/>
-      <c r="O43" s="338"/>
+      <c r="G43" s="313"/>
+      <c r="H43" s="314"/>
+      <c r="I43" s="314"/>
+      <c r="J43" s="314"/>
+      <c r="K43" s="314"/>
+      <c r="L43" s="314"/>
+      <c r="M43" s="316"/>
+      <c r="N43" s="320"/>
+      <c r="O43" s="320"/>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="297">
@@ -19836,15 +19867,15 @@
       <c r="D44" s="293"/>
       <c r="E44" s="294"/>
       <c r="F44" s="295"/>
-      <c r="G44" s="331"/>
-      <c r="H44" s="332"/>
-      <c r="I44" s="332"/>
-      <c r="J44" s="332"/>
-      <c r="K44" s="332"/>
-      <c r="L44" s="332"/>
-      <c r="M44" s="334"/>
-      <c r="N44" s="338"/>
-      <c r="O44" s="338"/>
+      <c r="G44" s="313"/>
+      <c r="H44" s="314"/>
+      <c r="I44" s="314"/>
+      <c r="J44" s="314"/>
+      <c r="K44" s="314"/>
+      <c r="L44" s="314"/>
+      <c r="M44" s="316"/>
+      <c r="N44" s="320"/>
+      <c r="O44" s="320"/>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="291">
@@ -19854,15 +19885,15 @@
       <c r="D45" s="293"/>
       <c r="E45" s="294"/>
       <c r="F45" s="295"/>
-      <c r="G45" s="331"/>
-      <c r="H45" s="332"/>
-      <c r="I45" s="332"/>
-      <c r="J45" s="332"/>
-      <c r="K45" s="332"/>
-      <c r="L45" s="332"/>
-      <c r="M45" s="334"/>
-      <c r="N45" s="338"/>
-      <c r="O45" s="338"/>
+      <c r="G45" s="313"/>
+      <c r="H45" s="314"/>
+      <c r="I45" s="314"/>
+      <c r="J45" s="314"/>
+      <c r="K45" s="314"/>
+      <c r="L45" s="314"/>
+      <c r="M45" s="316"/>
+      <c r="N45" s="320"/>
+      <c r="O45" s="320"/>
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="297">
@@ -19872,15 +19903,15 @@
       <c r="D46" s="293"/>
       <c r="E46" s="294"/>
       <c r="F46" s="295"/>
-      <c r="G46" s="331"/>
-      <c r="H46" s="332"/>
-      <c r="I46" s="332"/>
-      <c r="J46" s="332"/>
-      <c r="K46" s="332"/>
-      <c r="L46" s="332"/>
-      <c r="M46" s="334"/>
-      <c r="N46" s="338"/>
-      <c r="O46" s="338"/>
+      <c r="G46" s="313"/>
+      <c r="H46" s="314"/>
+      <c r="I46" s="314"/>
+      <c r="J46" s="314"/>
+      <c r="K46" s="314"/>
+      <c r="L46" s="314"/>
+      <c r="M46" s="316"/>
+      <c r="N46" s="320"/>
+      <c r="O46" s="320"/>
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="291">
@@ -19890,15 +19921,15 @@
       <c r="D47" s="293"/>
       <c r="E47" s="294"/>
       <c r="F47" s="295"/>
-      <c r="G47" s="331"/>
-      <c r="H47" s="332"/>
-      <c r="I47" s="332"/>
-      <c r="J47" s="332"/>
-      <c r="K47" s="332"/>
-      <c r="L47" s="332"/>
-      <c r="M47" s="334"/>
-      <c r="N47" s="338"/>
-      <c r="O47" s="338"/>
+      <c r="G47" s="313"/>
+      <c r="H47" s="314"/>
+      <c r="I47" s="314"/>
+      <c r="J47" s="314"/>
+      <c r="K47" s="314"/>
+      <c r="L47" s="314"/>
+      <c r="M47" s="316"/>
+      <c r="N47" s="320"/>
+      <c r="O47" s="320"/>
     </row>
     <row r="48" spans="2:15">
       <c r="B48" s="297">
@@ -19908,15 +19939,15 @@
       <c r="D48" s="293"/>
       <c r="E48" s="294"/>
       <c r="F48" s="295"/>
-      <c r="G48" s="331"/>
-      <c r="H48" s="332"/>
-      <c r="I48" s="332"/>
-      <c r="J48" s="332"/>
-      <c r="K48" s="332"/>
-      <c r="L48" s="332"/>
-      <c r="M48" s="334"/>
-      <c r="N48" s="338"/>
-      <c r="O48" s="338"/>
+      <c r="G48" s="313"/>
+      <c r="H48" s="314"/>
+      <c r="I48" s="314"/>
+      <c r="J48" s="314"/>
+      <c r="K48" s="314"/>
+      <c r="L48" s="314"/>
+      <c r="M48" s="316"/>
+      <c r="N48" s="320"/>
+      <c r="O48" s="320"/>
     </row>
     <row r="49" spans="2:15">
       <c r="B49" s="291">
@@ -19926,15 +19957,15 @@
       <c r="D49" s="289"/>
       <c r="E49" s="294"/>
       <c r="F49" s="295"/>
-      <c r="G49" s="331"/>
-      <c r="H49" s="332"/>
-      <c r="I49" s="332"/>
-      <c r="J49" s="332"/>
-      <c r="K49" s="332"/>
-      <c r="L49" s="332"/>
-      <c r="M49" s="334"/>
-      <c r="N49" s="338"/>
-      <c r="O49" s="338"/>
+      <c r="G49" s="313"/>
+      <c r="H49" s="314"/>
+      <c r="I49" s="314"/>
+      <c r="J49" s="314"/>
+      <c r="K49" s="314"/>
+      <c r="L49" s="314"/>
+      <c r="M49" s="316"/>
+      <c r="N49" s="320"/>
+      <c r="O49" s="320"/>
     </row>
     <row r="50" spans="2:15">
       <c r="B50" s="297">
@@ -19944,15 +19975,15 @@
       <c r="D50" s="289"/>
       <c r="E50" s="294"/>
       <c r="F50" s="295"/>
-      <c r="G50" s="331"/>
-      <c r="H50" s="332"/>
-      <c r="I50" s="332"/>
-      <c r="J50" s="332"/>
-      <c r="K50" s="332"/>
-      <c r="L50" s="332"/>
-      <c r="M50" s="334"/>
-      <c r="N50" s="338"/>
-      <c r="O50" s="338"/>
+      <c r="G50" s="313"/>
+      <c r="H50" s="314"/>
+      <c r="I50" s="314"/>
+      <c r="J50" s="314"/>
+      <c r="K50" s="314"/>
+      <c r="L50" s="314"/>
+      <c r="M50" s="316"/>
+      <c r="N50" s="320"/>
+      <c r="O50" s="320"/>
     </row>
     <row r="51" spans="2:15">
       <c r="B51" s="291">
@@ -19962,15 +19993,15 @@
       <c r="D51" s="289"/>
       <c r="E51" s="294"/>
       <c r="F51" s="295"/>
-      <c r="G51" s="331"/>
-      <c r="H51" s="332"/>
-      <c r="I51" s="332"/>
-      <c r="J51" s="332"/>
-      <c r="K51" s="332"/>
-      <c r="L51" s="332"/>
-      <c r="M51" s="334"/>
-      <c r="N51" s="338"/>
-      <c r="O51" s="338"/>
+      <c r="G51" s="313"/>
+      <c r="H51" s="314"/>
+      <c r="I51" s="314"/>
+      <c r="J51" s="314"/>
+      <c r="K51" s="314"/>
+      <c r="L51" s="314"/>
+      <c r="M51" s="316"/>
+      <c r="N51" s="320"/>
+      <c r="O51" s="320"/>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" s="297">
@@ -19980,15 +20011,15 @@
       <c r="D52" s="289"/>
       <c r="E52" s="294"/>
       <c r="F52" s="295"/>
-      <c r="G52" s="331"/>
-      <c r="H52" s="332"/>
-      <c r="I52" s="332"/>
-      <c r="J52" s="332"/>
-      <c r="K52" s="332"/>
-      <c r="L52" s="332"/>
-      <c r="M52" s="334"/>
-      <c r="N52" s="338"/>
-      <c r="O52" s="338"/>
+      <c r="G52" s="313"/>
+      <c r="H52" s="314"/>
+      <c r="I52" s="314"/>
+      <c r="J52" s="314"/>
+      <c r="K52" s="314"/>
+      <c r="L52" s="314"/>
+      <c r="M52" s="316"/>
+      <c r="N52" s="320"/>
+      <c r="O52" s="320"/>
     </row>
     <row r="53" spans="2:15">
       <c r="B53" s="291">
@@ -19998,15 +20029,15 @@
       <c r="D53" s="293"/>
       <c r="E53" s="294"/>
       <c r="F53" s="295"/>
-      <c r="G53" s="331"/>
-      <c r="H53" s="331"/>
-      <c r="I53" s="331"/>
-      <c r="J53" s="331"/>
-      <c r="K53" s="331"/>
-      <c r="L53" s="331"/>
-      <c r="M53" s="344"/>
-      <c r="N53" s="338"/>
-      <c r="O53" s="338"/>
+      <c r="G53" s="313"/>
+      <c r="H53" s="313"/>
+      <c r="I53" s="313"/>
+      <c r="J53" s="313"/>
+      <c r="K53" s="313"/>
+      <c r="L53" s="313"/>
+      <c r="M53" s="326"/>
+      <c r="N53" s="320"/>
+      <c r="O53" s="320"/>
     </row>
     <row r="54" spans="2:15">
       <c r="B54" s="304" t="s">
@@ -20016,15 +20047,15 @@
       <c r="D54" s="306"/>
       <c r="E54" s="307"/>
       <c r="F54" s="308"/>
-      <c r="G54" s="345"/>
-      <c r="H54" s="345"/>
-      <c r="I54" s="345"/>
-      <c r="J54" s="345"/>
-      <c r="K54" s="345"/>
-      <c r="L54" s="345"/>
-      <c r="M54" s="346"/>
-      <c r="N54" s="347"/>
-      <c r="O54" s="347"/>
+      <c r="G54" s="327"/>
+      <c r="H54" s="327"/>
+      <c r="I54" s="327"/>
+      <c r="J54" s="327"/>
+      <c r="K54" s="327"/>
+      <c r="L54" s="327"/>
+      <c r="M54" s="328"/>
+      <c r="N54" s="329"/>
+      <c r="O54" s="329"/>
     </row>
     <row r="101" spans="2:15" s="97" customFormat="1">
       <c r="B101" t="s">

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Sprint9_0716_0722" sheetId="8" r:id="rId6"/>
     <sheet name="Sprint01_0805_1205" sheetId="9" r:id="rId7"/>
     <sheet name="Sprint02_1305_1905" sheetId="10" r:id="rId8"/>
+    <sheet name="Sprint02_2005_2605" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$1:$G$106</definedName>
@@ -91,8 +92,210 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tu Huynh</author>
+  </authors>
+  <commentList>
+    <comment ref="G14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="392">
   <si>
     <t>Introduction</t>
   </si>
@@ -1238,6 +1441,63 @@
   </si>
   <si>
     <t>SPRINT 02 FROM 13/05 TO 19/05</t>
+  </si>
+  <si>
+    <t>Report 2 - Project management plan</t>
+  </si>
+  <si>
+    <t>20/05</t>
+  </si>
+  <si>
+    <t>21/05</t>
+  </si>
+  <si>
+    <t>22/05</t>
+  </si>
+  <si>
+    <t>23/05</t>
+  </si>
+  <si>
+    <t>24/05</t>
+  </si>
+  <si>
+    <t>25/05</t>
+  </si>
+  <si>
+    <t>26/05</t>
+  </si>
+  <si>
+    <t>Report 2 - Coding Convention</t>
+  </si>
+  <si>
+    <t>+List Tests on Month Tab</t>
+  </si>
+  <si>
+    <t>+List Tests status on schedul/calendar</t>
+  </si>
+  <si>
+    <t>Report 2 - Problem definition</t>
+  </si>
+  <si>
+    <t>Report 2 - Project organization</t>
+  </si>
+  <si>
+    <t>+Setting Apply function</t>
+  </si>
+  <si>
+    <t>+List Student &amp; Teacher</t>
+  </si>
+  <si>
+    <t>New Tests Page - Invitation function</t>
+  </si>
+  <si>
+    <t>+Add user in Invitation</t>
+  </si>
+  <si>
+    <t>+Delete user in Invitation</t>
+  </si>
+  <si>
+    <t>+Create Invitation</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="372">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -2978,15 +3238,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3008,70 +3265,659 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="124">
+  <dxfs count="143">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3083,15 +3929,16 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill>
-          <fgColor rgb="FF000000"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment textRotation="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3099,14 +3946,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3128,8 +3969,8 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment textRotation="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3142,8 +3983,41 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3160,23 +4034,20 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -3193,7 +4064,8 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3206,8 +4078,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3224,7 +4094,8 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3237,8 +4108,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3255,7 +4124,8 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3268,8 +4138,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3286,7 +4154,8 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3299,8 +4168,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3317,7 +4184,8 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3355,8 +4223,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3369,8 +4237,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3388,7 +4254,7 @@
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -8067,21 +8933,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:N30" totalsRowShown="0" headerRowDxfId="123" headerRowBorderDxfId="122" tableBorderDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:N30" totalsRowShown="0" headerRowDxfId="142" headerRowBorderDxfId="141" tableBorderDxfId="140">
   <autoFilter ref="B10:N30"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="120"/>
-    <tableColumn id="2" name="Task description" dataDxfId="119"/>
-    <tableColumn id="3" name="Type" dataDxfId="118"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="117"/>
-    <tableColumn id="5" name="Status" dataDxfId="116"/>
-    <tableColumn id="8" name="(W)23/5" dataDxfId="115"/>
-    <tableColumn id="9" name="(Th)24/5" dataDxfId="114"/>
-    <tableColumn id="10" name="(Fr)25/5" dataDxfId="113"/>
-    <tableColumn id="11" name="(Sa)26/5" dataDxfId="112"/>
-    <tableColumn id="12" name="(Su)27/5" dataDxfId="111"/>
+    <tableColumn id="1" name="No." dataDxfId="139"/>
+    <tableColumn id="2" name="Task description" dataDxfId="138"/>
+    <tableColumn id="3" name="Type" dataDxfId="137"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="136"/>
+    <tableColumn id="5" name="Status" dataDxfId="135"/>
+    <tableColumn id="8" name="(W)23/5" dataDxfId="134"/>
+    <tableColumn id="9" name="(Th)24/5" dataDxfId="133"/>
+    <tableColumn id="10" name="(Fr)25/5" dataDxfId="132"/>
+    <tableColumn id="11" name="(Sa)26/5" dataDxfId="131"/>
+    <tableColumn id="12" name="(Su)27/5" dataDxfId="130"/>
     <tableColumn id="13" name="(Mo)28/5"/>
-    <tableColumn id="14" name="(Tu)29/5" dataDxfId="110"/>
+    <tableColumn id="14" name="(Tu)29/5" dataDxfId="129"/>
     <tableColumn id="7" name="End Sprint"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8089,152 +8955,179 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:O28" totalsRowShown="0" headerRowDxfId="109" headerRowBorderDxfId="108" tableBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:O28" totalsRowShown="0" headerRowDxfId="128" headerRowBorderDxfId="127" tableBorderDxfId="126">
   <autoFilter ref="B10:O28"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="106"/>
-    <tableColumn id="2" name="Task description" dataDxfId="105"/>
-    <tableColumn id="3" name="Type" dataDxfId="104"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="103"/>
-    <tableColumn id="5" name="Status" dataDxfId="102"/>
-    <tableColumn id="17" name="Percentage" dataDxfId="101"/>
-    <tableColumn id="8" name="(W)30/5" dataDxfId="100"/>
-    <tableColumn id="9" name="(Th)31/5" dataDxfId="99"/>
-    <tableColumn id="10" name="(Fr)1/6" dataDxfId="98"/>
-    <tableColumn id="11" name="(Sa)2/6" dataDxfId="97"/>
-    <tableColumn id="12" name="(Su)3/6" dataDxfId="96"/>
+    <tableColumn id="1" name="No." dataDxfId="125"/>
+    <tableColumn id="2" name="Task description" dataDxfId="124"/>
+    <tableColumn id="3" name="Type" dataDxfId="123"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="122"/>
+    <tableColumn id="5" name="Status" dataDxfId="121"/>
+    <tableColumn id="17" name="Percentage" dataDxfId="120"/>
+    <tableColumn id="8" name="(W)30/5" dataDxfId="119"/>
+    <tableColumn id="9" name="(Th)31/5" dataDxfId="118"/>
+    <tableColumn id="10" name="(Fr)1/6" dataDxfId="117"/>
+    <tableColumn id="11" name="(Sa)2/6" dataDxfId="116"/>
+    <tableColumn id="12" name="(Su)3/6" dataDxfId="115"/>
     <tableColumn id="13" name="(Mo)4/6"/>
-    <tableColumn id="14" name="(Tu)5/6" dataDxfId="95"/>
-    <tableColumn id="7" name="End Sprint" dataDxfId="94"/>
+    <tableColumn id="14" name="(Tu)5/6" dataDxfId="114"/>
+    <tableColumn id="7" name="End Sprint" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B10:N27" totalsRowShown="0" headerRowDxfId="93" headerRowBorderDxfId="92" tableBorderDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B10:N27" totalsRowShown="0" headerRowDxfId="112" headerRowBorderDxfId="111" tableBorderDxfId="110">
   <autoFilter ref="B10:N27"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="90"/>
-    <tableColumn id="2" name="Task description" dataDxfId="89"/>
-    <tableColumn id="3" name="Type" dataDxfId="88"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="87"/>
-    <tableColumn id="5" name="Status" dataDxfId="86"/>
-    <tableColumn id="8" name="(W)06/6" dataDxfId="85"/>
-    <tableColumn id="9" name="(Th)07/6" dataDxfId="84"/>
-    <tableColumn id="10" name="(Fr)08/6" dataDxfId="83"/>
-    <tableColumn id="11" name="(Sa)09/6" dataDxfId="82"/>
-    <tableColumn id="12" name="(Su)10/6" dataDxfId="81"/>
+    <tableColumn id="1" name="No." dataDxfId="109"/>
+    <tableColumn id="2" name="Task description" dataDxfId="108"/>
+    <tableColumn id="3" name="Type" dataDxfId="107"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="106"/>
+    <tableColumn id="5" name="Status" dataDxfId="105"/>
+    <tableColumn id="8" name="(W)06/6" dataDxfId="104"/>
+    <tableColumn id="9" name="(Th)07/6" dataDxfId="103"/>
+    <tableColumn id="10" name="(Fr)08/6" dataDxfId="102"/>
+    <tableColumn id="11" name="(Sa)09/6" dataDxfId="101"/>
+    <tableColumn id="12" name="(Su)10/6" dataDxfId="100"/>
     <tableColumn id="13" name="(Mo)11/6"/>
-    <tableColumn id="14" name="(Tu)12/6" dataDxfId="80"/>
-    <tableColumn id="7" name="End Sprint" dataDxfId="79"/>
+    <tableColumn id="14" name="(Tu)12/6" dataDxfId="99"/>
+    <tableColumn id="7" name="End Sprint" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B10:AA76" totalsRowShown="0" headerRowDxfId="78" headerRowBorderDxfId="77" tableBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B10:AA76" totalsRowShown="0" headerRowDxfId="97" headerRowBorderDxfId="96" tableBorderDxfId="95">
   <autoFilter ref="B10:AA76"/>
   <tableColumns count="26">
-    <tableColumn id="1" name="No." dataDxfId="75"/>
-    <tableColumn id="2" name="Task description" dataDxfId="74"/>
-    <tableColumn id="3" name="Type" dataDxfId="73"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="72"/>
-    <tableColumn id="5" name="Status" dataDxfId="71"/>
-    <tableColumn id="8" name="25/6" dataDxfId="70"/>
-    <tableColumn id="9" name="26/6" dataDxfId="69"/>
-    <tableColumn id="10" name="27/6" dataDxfId="68"/>
-    <tableColumn id="11" name="28/6" dataDxfId="67"/>
-    <tableColumn id="12" name="29/6" dataDxfId="66"/>
+    <tableColumn id="1" name="No." dataDxfId="94"/>
+    <tableColumn id="2" name="Task description" dataDxfId="93"/>
+    <tableColumn id="3" name="Type" dataDxfId="92"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="91"/>
+    <tableColumn id="5" name="Status" dataDxfId="90"/>
+    <tableColumn id="8" name="25/6" dataDxfId="89"/>
+    <tableColumn id="9" name="26/6" dataDxfId="88"/>
+    <tableColumn id="10" name="27/6" dataDxfId="87"/>
+    <tableColumn id="11" name="28/6" dataDxfId="86"/>
+    <tableColumn id="12" name="29/6" dataDxfId="85"/>
     <tableColumn id="13" name="30/6"/>
-    <tableColumn id="14" name="1/7" dataDxfId="65"/>
-    <tableColumn id="6" name="2/7" dataDxfId="64"/>
-    <tableColumn id="7" name="3/7" dataDxfId="63"/>
-    <tableColumn id="15" name="4/7" dataDxfId="62"/>
-    <tableColumn id="16" name="5/7" dataDxfId="61"/>
-    <tableColumn id="17" name="6/7" dataDxfId="60"/>
-    <tableColumn id="24" name="7/7" dataDxfId="59"/>
-    <tableColumn id="23" name="8/7" dataDxfId="58"/>
-    <tableColumn id="22" name="9/7" dataDxfId="57"/>
-    <tableColumn id="21" name="10/7" dataDxfId="56"/>
-    <tableColumn id="20" name="11/7" dataDxfId="55"/>
-    <tableColumn id="18" name="12/7" dataDxfId="54"/>
-    <tableColumn id="25" name="13/7" dataDxfId="53"/>
-    <tableColumn id="26" name="14/7" dataDxfId="52"/>
-    <tableColumn id="19" name="End" dataDxfId="51"/>
+    <tableColumn id="14" name="1/7" dataDxfId="84"/>
+    <tableColumn id="6" name="2/7" dataDxfId="83"/>
+    <tableColumn id="7" name="3/7" dataDxfId="82"/>
+    <tableColumn id="15" name="4/7" dataDxfId="81"/>
+    <tableColumn id="16" name="5/7" dataDxfId="80"/>
+    <tableColumn id="17" name="6/7" dataDxfId="79"/>
+    <tableColumn id="24" name="7/7" dataDxfId="78"/>
+    <tableColumn id="23" name="8/7" dataDxfId="77"/>
+    <tableColumn id="22" name="9/7" dataDxfId="76"/>
+    <tableColumn id="21" name="10/7" dataDxfId="75"/>
+    <tableColumn id="20" name="11/7" dataDxfId="74"/>
+    <tableColumn id="18" name="12/7" dataDxfId="73"/>
+    <tableColumn id="25" name="13/7" dataDxfId="72"/>
+    <tableColumn id="26" name="14/7" dataDxfId="71"/>
+    <tableColumn id="19" name="End" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B10:N56" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B10:N56" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67">
   <autoFilter ref="B10:N56"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="47"/>
-    <tableColumn id="2" name="Task description" dataDxfId="46"/>
-    <tableColumn id="3" name="Type" dataDxfId="45"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="44"/>
-    <tableColumn id="5" name="Status" dataDxfId="43"/>
-    <tableColumn id="8" name="16/7" dataDxfId="42"/>
-    <tableColumn id="9" name="17/7" dataDxfId="41"/>
-    <tableColumn id="10" name="18/7" dataDxfId="40"/>
-    <tableColumn id="11" name="19/7" dataDxfId="39"/>
-    <tableColumn id="12" name="20/7" dataDxfId="38"/>
+    <tableColumn id="1" name="No." dataDxfId="66"/>
+    <tableColumn id="2" name="Task description" dataDxfId="65"/>
+    <tableColumn id="3" name="Type" dataDxfId="64"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="63"/>
+    <tableColumn id="5" name="Status" dataDxfId="62"/>
+    <tableColumn id="8" name="16/7" dataDxfId="61"/>
+    <tableColumn id="9" name="17/7" dataDxfId="60"/>
+    <tableColumn id="10" name="18/7" dataDxfId="59"/>
+    <tableColumn id="11" name="19/7" dataDxfId="58"/>
+    <tableColumn id="12" name="20/7" dataDxfId="57"/>
     <tableColumn id="13" name="21/7"/>
-    <tableColumn id="14" name="22/7" dataDxfId="37"/>
-    <tableColumn id="19" name="End" dataDxfId="36"/>
+    <tableColumn id="14" name="22/7" dataDxfId="56"/>
+    <tableColumn id="19" name="End" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51" totalsRowBorderDxfId="50">
   <autoFilter ref="B10:M54">
     <filterColumn colId="5"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="No." dataDxfId="30"/>
-    <tableColumn id="2" name="Task description" dataDxfId="29"/>
-    <tableColumn id="3" name="Type" dataDxfId="28"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="27"/>
-    <tableColumn id="5" name="Status" dataDxfId="26"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="25"/>
-    <tableColumn id="8" name="08/05" dataDxfId="24"/>
-    <tableColumn id="9" name="09/05" dataDxfId="23"/>
-    <tableColumn id="10" name="10/05" dataDxfId="22"/>
-    <tableColumn id="11" name="11/05" dataDxfId="21"/>
-    <tableColumn id="12" name="12/05" dataDxfId="20"/>
-    <tableColumn id="13" name="End" dataDxfId="19"/>
+    <tableColumn id="1" name="No." dataDxfId="49"/>
+    <tableColumn id="2" name="Task description" dataDxfId="48"/>
+    <tableColumn id="3" name="Type" dataDxfId="47"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="46"/>
+    <tableColumn id="5" name="Status" dataDxfId="45"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="44"/>
+    <tableColumn id="8" name="08/05" dataDxfId="43"/>
+    <tableColumn id="9" name="09/05" dataDxfId="42"/>
+    <tableColumn id="10" name="10/05" dataDxfId="41"/>
+    <tableColumn id="11" name="11/05" dataDxfId="40"/>
+    <tableColumn id="12" name="12/05" dataDxfId="39"/>
+    <tableColumn id="13" name="End" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="B10:O54">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="13"/>
-    <tableColumn id="2" name="Task description" dataDxfId="12"/>
-    <tableColumn id="3" name="Type" dataDxfId="11"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="10"/>
-    <tableColumn id="5" name="Status" dataDxfId="9"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="8"/>
-    <tableColumn id="8" name="13/05" dataDxfId="7"/>
-    <tableColumn id="9" name="14/05" dataDxfId="6"/>
-    <tableColumn id="10" name="15/05" dataDxfId="5"/>
-    <tableColumn id="11" name="16/05" dataDxfId="4"/>
-    <tableColumn id="12" name="17/05" dataDxfId="3"/>
-    <tableColumn id="13" name="18/05" dataDxfId="2"/>
-    <tableColumn id="14" name="19/05" dataDxfId="1"/>
-    <tableColumn id="15" name="End" dataDxfId="0"/>
+    <tableColumn id="1" name="No." dataDxfId="32"/>
+    <tableColumn id="2" name="Task description" dataDxfId="31"/>
+    <tableColumn id="3" name="Type" dataDxfId="30"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="29"/>
+    <tableColumn id="5" name="Status" dataDxfId="28"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="27"/>
+    <tableColumn id="8" name="13/05" dataDxfId="26"/>
+    <tableColumn id="9" name="14/05" dataDxfId="25"/>
+    <tableColumn id="10" name="15/05" dataDxfId="24"/>
+    <tableColumn id="11" name="16/05" dataDxfId="23"/>
+    <tableColumn id="12" name="17/05" dataDxfId="22"/>
+    <tableColumn id="13" name="18/05" dataDxfId="21"/>
+    <tableColumn id="14" name="19/05" dataDxfId="20"/>
+    <tableColumn id="15" name="End" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13456789" displayName="Table13456789" ref="B10:O54" totalsRowShown="0" headerRowDxfId="18" dataDxfId="0" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="B10:O54">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="14"/>
+    <tableColumn id="2" name="Task description" dataDxfId="13"/>
+    <tableColumn id="3" name="Type" dataDxfId="12"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="11"/>
+    <tableColumn id="5" name="Status" dataDxfId="10"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="9"/>
+    <tableColumn id="8" name="20/05" dataDxfId="8"/>
+    <tableColumn id="9" name="21/05" dataDxfId="7"/>
+    <tableColumn id="10" name="22/05" dataDxfId="6"/>
+    <tableColumn id="11" name="23/05" dataDxfId="5"/>
+    <tableColumn id="12" name="24/05" dataDxfId="4"/>
+    <tableColumn id="13" name="25/05" dataDxfId="3"/>
+    <tableColumn id="14" name="26/05" dataDxfId="2"/>
+    <tableColumn id="15" name="End" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8648,14 +9541,14 @@
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="337"/>
+      <c r="C18" s="332"/>
       <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="344">
+      <c r="C19" s="335">
         <v>3</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -8666,7 +9559,7 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="345"/>
+      <c r="C20" s="336"/>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
@@ -8676,7 +9569,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="345"/>
+      <c r="C21" s="336"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -8686,35 +9579,35 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="345"/>
+      <c r="C22" s="336"/>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="345"/>
+      <c r="C23" s="336"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="345"/>
+      <c r="C24" s="336"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="345"/>
+      <c r="C25" s="336"/>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="346"/>
+      <c r="C26" s="337"/>
       <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
@@ -8774,14 +9667,14 @@
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="C34" s="337"/>
+      <c r="C34" s="332"/>
       <c r="D34" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="336">
+      <c r="C35" s="327">
         <v>5</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -8792,14 +9685,14 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="334"/>
+      <c r="C36" s="328"/>
       <c r="D36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="334"/>
+      <c r="C37" s="328"/>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
@@ -8807,7 +9700,7 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="341"/>
+      <c r="C38" s="329"/>
       <c r="D38" s="29" t="s">
         <v>23</v>
       </c>
@@ -8832,14 +9725,14 @@
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="337"/>
+      <c r="C41" s="332"/>
       <c r="D41" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="342" t="s">
+      <c r="C42" s="333" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -8850,7 +9743,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="C43" s="343"/>
+      <c r="C43" s="334"/>
       <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
@@ -9021,14 +9914,14 @@
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="337"/>
+      <c r="C69" s="332"/>
       <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="18"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="336">
+      <c r="C70" s="327">
         <v>2</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -9037,28 +9930,28 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="334"/>
+      <c r="C71" s="328"/>
       <c r="D71" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="3:5">
-      <c r="C72" s="334"/>
+      <c r="C72" s="328"/>
       <c r="D72" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="334"/>
+      <c r="C73" s="328"/>
       <c r="D73" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="334"/>
+      <c r="C74" s="328"/>
       <c r="D74" s="32" t="s">
         <v>134</v>
       </c>
@@ -9102,14 +9995,14 @@
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C80" s="332"/>
+      <c r="C80" s="341"/>
       <c r="D80" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="3:5">
-      <c r="C81" s="333">
+      <c r="C81" s="342">
         <v>4</v>
       </c>
       <c r="D81" s="57" t="s">
@@ -9118,56 +10011,56 @@
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="334"/>
+      <c r="C82" s="328"/>
       <c r="D82" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E82" s="48"/>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="334"/>
+      <c r="C83" s="328"/>
       <c r="D83" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="3:5">
-      <c r="C84" s="334"/>
+      <c r="C84" s="328"/>
       <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="48"/>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="334"/>
+      <c r="C85" s="328"/>
       <c r="D85" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="48"/>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="334"/>
+      <c r="C86" s="328"/>
       <c r="D86" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="48"/>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="334"/>
+      <c r="C87" s="328"/>
       <c r="D87" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="334"/>
+      <c r="C88" s="328"/>
       <c r="D88" s="34" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="48"/>
     </row>
     <row r="89" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C89" s="335"/>
+      <c r="C89" s="343"/>
       <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
@@ -9204,7 +10097,7 @@
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="3:5">
-      <c r="C94" s="336">
+      <c r="C94" s="327">
         <v>6</v>
       </c>
       <c r="D94" s="57" t="s">
@@ -9213,14 +10106,14 @@
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="334"/>
+      <c r="C95" s="328"/>
       <c r="D95" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="334"/>
+      <c r="C96" s="328"/>
       <c r="D96" s="32" t="s">
         <v>90</v>
       </c>
@@ -9257,14 +10150,14 @@
       <c r="E100" s="18"/>
     </row>
     <row r="101" spans="3:5">
-      <c r="C101" s="337"/>
+      <c r="C101" s="332"/>
       <c r="D101" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="18"/>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="336">
+      <c r="C102" s="327">
         <v>8</v>
       </c>
       <c r="D102" s="57" t="s">
@@ -9273,14 +10166,14 @@
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="3:5">
-      <c r="C103" s="334"/>
+      <c r="C103" s="328"/>
       <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="3:5">
-      <c r="C104" s="334"/>
+      <c r="C104" s="328"/>
       <c r="D104" s="32" t="s">
         <v>98</v>
       </c>
@@ -9304,17 +10197,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C75:C80"/>
     <mergeCell ref="C81:C89"/>
@@ -9322,6 +10204,17 @@
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C27:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
@@ -11855,12 +12748,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:27" ht="18">
-      <c r="B7" s="347" t="s">
+      <c r="B7" s="344" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="347"/>
-      <c r="D7" s="347"/>
-      <c r="E7" s="347"/>
+      <c r="C7" s="344"/>
+      <c r="D7" s="344"/>
+      <c r="E7" s="344"/>
     </row>
     <row r="10" spans="2:27" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -16036,12 +16929,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:14" ht="18">
-      <c r="B7" s="347" t="s">
+      <c r="B7" s="344" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="347"/>
-      <c r="D7" s="347"/>
-      <c r="E7" s="347"/>
+      <c r="C7" s="344"/>
+      <c r="D7" s="344"/>
+      <c r="E7" s="344"/>
     </row>
     <row r="10" spans="2:14" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -17657,12 +18550,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:13" ht="18">
-      <c r="B7" s="347" t="s">
+      <c r="B7" s="344" t="s">
         <v>348</v>
       </c>
-      <c r="C7" s="347"/>
-      <c r="D7" s="347"/>
-      <c r="E7" s="347"/>
+      <c r="C7" s="344"/>
+      <c r="D7" s="344"/>
+      <c r="E7" s="344"/>
     </row>
     <row r="10" spans="2:13" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -18887,8 +19780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18926,12 +19819,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="347" t="s">
+      <c r="B7" s="344" t="s">
         <v>372</v>
       </c>
-      <c r="C7" s="347"/>
-      <c r="D7" s="347"/>
-      <c r="E7" s="347"/>
+      <c r="C7" s="344"/>
+      <c r="D7" s="344"/>
+      <c r="E7" s="344"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -19011,9 +19904,15 @@
       <c r="L11" s="315">
         <v>0</v>
       </c>
-      <c r="M11" s="316"/>
-      <c r="N11" s="317"/>
-      <c r="O11" s="317"/>
+      <c r="M11" s="316">
+        <v>0</v>
+      </c>
+      <c r="N11" s="345">
+        <v>0</v>
+      </c>
+      <c r="O11" s="345">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="297">
@@ -19027,13 +19926,13 @@
       <c r="F12" s="295"/>
       <c r="G12" s="313"/>
       <c r="H12" s="314"/>
-      <c r="I12" s="318"/>
-      <c r="J12" s="318"/>
-      <c r="K12" s="318"/>
-      <c r="L12" s="318"/>
-      <c r="M12" s="319"/>
-      <c r="N12" s="320"/>
-      <c r="O12" s="320"/>
+      <c r="I12" s="317"/>
+      <c r="J12" s="317"/>
+      <c r="K12" s="317"/>
+      <c r="L12" s="317"/>
+      <c r="M12" s="318"/>
+      <c r="N12" s="346"/>
+      <c r="O12" s="346"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="291">
@@ -19057,21 +19956,27 @@
       <c r="H13" s="314">
         <v>5</v>
       </c>
-      <c r="I13" s="318">
+      <c r="I13" s="317">
         <v>5</v>
       </c>
-      <c r="J13" s="318">
+      <c r="J13" s="317">
         <v>5</v>
       </c>
-      <c r="K13" s="318">
+      <c r="K13" s="317">
         <v>5</v>
       </c>
-      <c r="L13" s="318">
+      <c r="L13" s="317">
         <v>2</v>
       </c>
-      <c r="M13" s="319"/>
-      <c r="N13" s="320"/>
-      <c r="O13" s="320"/>
+      <c r="M13" s="318">
+        <v>0</v>
+      </c>
+      <c r="N13" s="346">
+        <v>0</v>
+      </c>
+      <c r="O13" s="346">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="297">
@@ -19095,21 +20000,27 @@
       <c r="H14" s="314">
         <v>5</v>
       </c>
-      <c r="I14" s="318">
+      <c r="I14" s="317">
         <v>5</v>
       </c>
-      <c r="J14" s="318">
+      <c r="J14" s="317">
         <v>5</v>
       </c>
-      <c r="K14" s="318">
+      <c r="K14" s="317">
         <v>5</v>
       </c>
-      <c r="L14" s="318">
+      <c r="L14" s="317">
         <v>2</v>
       </c>
-      <c r="M14" s="319"/>
-      <c r="N14" s="320"/>
-      <c r="O14" s="320"/>
+      <c r="M14" s="318">
+        <v>1</v>
+      </c>
+      <c r="N14" s="346">
+        <v>0</v>
+      </c>
+      <c r="O14" s="346">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="291">
@@ -19133,21 +20044,27 @@
       <c r="H15" s="314">
         <v>4</v>
       </c>
-      <c r="I15" s="318">
+      <c r="I15" s="317">
         <v>4</v>
       </c>
-      <c r="J15" s="318">
+      <c r="J15" s="317">
         <v>4</v>
       </c>
-      <c r="K15" s="318">
+      <c r="K15" s="317">
         <v>4</v>
       </c>
       <c r="L15" s="314">
         <v>3</v>
       </c>
-      <c r="M15" s="316"/>
-      <c r="N15" s="320"/>
-      <c r="O15" s="320"/>
+      <c r="M15" s="316">
+        <v>2</v>
+      </c>
+      <c r="N15" s="346">
+        <v>2</v>
+      </c>
+      <c r="O15" s="346">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:15" s="197" customFormat="1">
       <c r="B16" s="297">
@@ -19161,13 +20078,13 @@
       <c r="F16" s="295"/>
       <c r="G16" s="313"/>
       <c r="H16" s="314"/>
-      <c r="I16" s="318"/>
-      <c r="J16" s="318"/>
-      <c r="K16" s="318"/>
-      <c r="L16" s="318"/>
-      <c r="M16" s="319"/>
-      <c r="N16" s="321"/>
-      <c r="O16" s="321"/>
+      <c r="I16" s="317"/>
+      <c r="J16" s="317"/>
+      <c r="K16" s="317"/>
+      <c r="L16" s="317"/>
+      <c r="M16" s="318"/>
+      <c r="N16" s="347"/>
+      <c r="O16" s="347"/>
     </row>
     <row r="17" spans="2:15" s="197" customFormat="1">
       <c r="B17" s="291">
@@ -19191,21 +20108,27 @@
       <c r="H17" s="314">
         <v>6</v>
       </c>
-      <c r="I17" s="318">
+      <c r="I17" s="317">
         <v>6</v>
       </c>
-      <c r="J17" s="318">
+      <c r="J17" s="317">
         <v>6</v>
       </c>
-      <c r="K17" s="318">
+      <c r="K17" s="317">
         <v>5</v>
       </c>
-      <c r="L17" s="318">
+      <c r="L17" s="317">
         <v>2</v>
       </c>
-      <c r="M17" s="319"/>
-      <c r="N17" s="321"/>
-      <c r="O17" s="321"/>
+      <c r="M17" s="349">
+        <v>2</v>
+      </c>
+      <c r="N17" s="350">
+        <v>2</v>
+      </c>
+      <c r="O17" s="350">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="2:15" s="197" customFormat="1">
       <c r="B18" s="297">
@@ -19229,21 +20152,27 @@
       <c r="H18" s="314">
         <v>4</v>
       </c>
-      <c r="I18" s="318">
+      <c r="I18" s="317">
         <v>4</v>
       </c>
-      <c r="J18" s="318">
+      <c r="J18" s="317">
         <v>4</v>
       </c>
-      <c r="K18" s="318">
+      <c r="K18" s="317">
         <v>4</v>
       </c>
-      <c r="L18" s="318">
+      <c r="L18" s="317">
         <v>4</v>
       </c>
-      <c r="M18" s="319"/>
-      <c r="N18" s="321"/>
-      <c r="O18" s="321"/>
+      <c r="M18" s="349">
+        <v>4</v>
+      </c>
+      <c r="N18" s="350">
+        <v>4</v>
+      </c>
+      <c r="O18" s="350">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="2:15" s="197" customFormat="1">
       <c r="B19" s="291">
@@ -19267,21 +20196,27 @@
       <c r="H19" s="314">
         <v>6</v>
       </c>
-      <c r="I19" s="318">
+      <c r="I19" s="317">
         <v>6</v>
       </c>
-      <c r="J19" s="318">
+      <c r="J19" s="317">
         <v>6</v>
       </c>
       <c r="K19" s="314">
         <v>6</v>
       </c>
-      <c r="L19" s="348">
+      <c r="L19" s="326">
         <v>6</v>
       </c>
-      <c r="M19" s="323"/>
-      <c r="N19" s="321"/>
-      <c r="O19" s="321"/>
+      <c r="M19" s="351">
+        <v>6</v>
+      </c>
+      <c r="N19" s="350">
+        <v>6</v>
+      </c>
+      <c r="O19" s="350">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="297">
@@ -19294,14 +20229,14 @@
       <c r="E20" s="294"/>
       <c r="F20" s="295"/>
       <c r="G20" s="313"/>
-      <c r="H20" s="324"/>
+      <c r="H20" s="321"/>
       <c r="I20" s="314"/>
       <c r="J20" s="314"/>
       <c r="K20" s="314"/>
       <c r="L20" s="314"/>
       <c r="M20" s="316"/>
-      <c r="N20" s="320"/>
-      <c r="O20" s="320"/>
+      <c r="N20" s="346"/>
+      <c r="O20" s="346"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="291">
@@ -19337,9 +20272,15 @@
       <c r="L21" s="314">
         <v>3</v>
       </c>
-      <c r="M21" s="316"/>
-      <c r="N21" s="320"/>
-      <c r="O21" s="320"/>
+      <c r="M21" s="316">
+        <v>1</v>
+      </c>
+      <c r="N21" s="346">
+        <v>0</v>
+      </c>
+      <c r="O21" s="346">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="297">
@@ -19375,9 +20316,15 @@
       <c r="L22" s="314">
         <v>4.5</v>
       </c>
-      <c r="M22" s="316"/>
-      <c r="N22" s="320"/>
-      <c r="O22" s="320"/>
+      <c r="M22" s="316">
+        <v>1</v>
+      </c>
+      <c r="N22" s="346">
+        <v>0</v>
+      </c>
+      <c r="O22" s="346">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="291">
@@ -19413,9 +20360,15 @@
       <c r="L23" s="314">
         <v>4.5</v>
       </c>
-      <c r="M23" s="316"/>
-      <c r="N23" s="320"/>
-      <c r="O23" s="320"/>
+      <c r="M23" s="316">
+        <v>1</v>
+      </c>
+      <c r="N23" s="346">
+        <v>0</v>
+      </c>
+      <c r="O23" s="346">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="297">
@@ -19429,13 +20382,13 @@
       <c r="F24" s="295"/>
       <c r="G24" s="313"/>
       <c r="H24" s="314"/>
-      <c r="I24" s="318"/>
-      <c r="J24" s="318"/>
-      <c r="K24" s="318"/>
-      <c r="L24" s="318"/>
-      <c r="M24" s="319"/>
-      <c r="N24" s="320"/>
-      <c r="O24" s="320"/>
+      <c r="I24" s="317"/>
+      <c r="J24" s="317"/>
+      <c r="K24" s="317"/>
+      <c r="L24" s="317"/>
+      <c r="M24" s="318"/>
+      <c r="N24" s="346"/>
+      <c r="O24" s="346"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="291">
@@ -19459,21 +20412,27 @@
       <c r="H25" s="314">
         <v>5</v>
       </c>
-      <c r="I25" s="318">
+      <c r="I25" s="317">
         <v>5</v>
       </c>
-      <c r="J25" s="318">
+      <c r="J25" s="317">
         <v>5</v>
       </c>
-      <c r="K25" s="318">
+      <c r="K25" s="317">
         <v>4.5</v>
       </c>
-      <c r="L25" s="318">
+      <c r="L25" s="317">
         <v>4</v>
       </c>
-      <c r="M25" s="319"/>
-      <c r="N25" s="320"/>
-      <c r="O25" s="320"/>
+      <c r="M25" s="318">
+        <v>4</v>
+      </c>
+      <c r="N25" s="346">
+        <v>4</v>
+      </c>
+      <c r="O25" s="346">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="297">
@@ -19497,21 +20456,27 @@
       <c r="H26" s="314">
         <v>2</v>
       </c>
-      <c r="I26" s="318">
+      <c r="I26" s="317">
         <v>2</v>
       </c>
-      <c r="J26" s="318">
+      <c r="J26" s="317">
         <v>2</v>
       </c>
-      <c r="K26" s="318">
+      <c r="K26" s="317">
         <v>2</v>
       </c>
-      <c r="L26" s="318">
+      <c r="L26" s="317">
         <v>2</v>
       </c>
-      <c r="M26" s="319"/>
-      <c r="N26" s="320"/>
-      <c r="O26" s="320"/>
+      <c r="M26" s="318">
+        <v>2</v>
+      </c>
+      <c r="N26" s="346">
+        <v>2</v>
+      </c>
+      <c r="O26" s="346">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="291">
@@ -19535,21 +20500,27 @@
       <c r="H27" s="314">
         <v>5</v>
       </c>
-      <c r="I27" s="318">
+      <c r="I27" s="317">
         <v>5</v>
       </c>
-      <c r="J27" s="318">
+      <c r="J27" s="317">
         <v>5</v>
       </c>
-      <c r="K27" s="318">
+      <c r="K27" s="317">
         <v>4.5</v>
       </c>
-      <c r="L27" s="318">
+      <c r="L27" s="317">
         <v>4</v>
       </c>
-      <c r="M27" s="319"/>
-      <c r="N27" s="320"/>
-      <c r="O27" s="320"/>
+      <c r="M27" s="318">
+        <v>4</v>
+      </c>
+      <c r="N27" s="346">
+        <v>4</v>
+      </c>
+      <c r="O27" s="346">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="297">
@@ -19573,21 +20544,27 @@
       <c r="H28" s="314">
         <v>2</v>
       </c>
-      <c r="I28" s="318">
+      <c r="I28" s="317">
         <v>2</v>
       </c>
-      <c r="J28" s="318">
+      <c r="J28" s="317">
         <v>2</v>
       </c>
-      <c r="K28" s="318">
+      <c r="K28" s="317">
         <v>2</v>
       </c>
-      <c r="L28" s="318">
+      <c r="L28" s="317">
         <v>2</v>
       </c>
-      <c r="M28" s="319"/>
-      <c r="N28" s="320"/>
-      <c r="O28" s="320"/>
+      <c r="M28" s="318">
+        <v>2</v>
+      </c>
+      <c r="N28" s="346">
+        <v>2</v>
+      </c>
+      <c r="O28" s="346">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="291">
@@ -19597,15 +20574,15 @@
       <c r="D29" s="283"/>
       <c r="E29" s="287"/>
       <c r="F29" s="288"/>
-      <c r="G29" s="325"/>
-      <c r="H29" s="322"/>
-      <c r="I29" s="322"/>
-      <c r="J29" s="322"/>
-      <c r="K29" s="322"/>
-      <c r="L29" s="322"/>
-      <c r="M29" s="323"/>
-      <c r="N29" s="320"/>
-      <c r="O29" s="320"/>
+      <c r="G29" s="322"/>
+      <c r="H29" s="319"/>
+      <c r="I29" s="319"/>
+      <c r="J29" s="319"/>
+      <c r="K29" s="319"/>
+      <c r="L29" s="319"/>
+      <c r="M29" s="320"/>
+      <c r="N29" s="346"/>
+      <c r="O29" s="346"/>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="297">
@@ -19622,8 +20599,8 @@
       <c r="K30" s="314"/>
       <c r="L30" s="314"/>
       <c r="M30" s="316"/>
-      <c r="N30" s="320"/>
-      <c r="O30" s="320"/>
+      <c r="N30" s="346"/>
+      <c r="O30" s="346"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="291">
@@ -19633,15 +20610,15 @@
       <c r="D31" s="283"/>
       <c r="E31" s="287"/>
       <c r="F31" s="288"/>
-      <c r="G31" s="325"/>
-      <c r="H31" s="322"/>
-      <c r="I31" s="322"/>
-      <c r="J31" s="322"/>
-      <c r="K31" s="322"/>
-      <c r="L31" s="322"/>
-      <c r="M31" s="323"/>
-      <c r="N31" s="320"/>
-      <c r="O31" s="320"/>
+      <c r="G31" s="322"/>
+      <c r="H31" s="319"/>
+      <c r="I31" s="319"/>
+      <c r="J31" s="319"/>
+      <c r="K31" s="319"/>
+      <c r="L31" s="319"/>
+      <c r="M31" s="320"/>
+      <c r="N31" s="346"/>
+      <c r="O31" s="346"/>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="297">
@@ -19658,8 +20635,8 @@
       <c r="K32" s="314"/>
       <c r="L32" s="314"/>
       <c r="M32" s="316"/>
-      <c r="N32" s="320"/>
-      <c r="O32" s="320"/>
+      <c r="N32" s="346"/>
+      <c r="O32" s="346"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="291">
@@ -19669,15 +20646,15 @@
       <c r="D33" s="283"/>
       <c r="E33" s="287"/>
       <c r="F33" s="288"/>
-      <c r="G33" s="325"/>
-      <c r="H33" s="322"/>
-      <c r="I33" s="322"/>
-      <c r="J33" s="322"/>
-      <c r="K33" s="322"/>
-      <c r="L33" s="322"/>
-      <c r="M33" s="323"/>
-      <c r="N33" s="320"/>
-      <c r="O33" s="320"/>
+      <c r="G33" s="322"/>
+      <c r="H33" s="319"/>
+      <c r="I33" s="319"/>
+      <c r="J33" s="319"/>
+      <c r="K33" s="319"/>
+      <c r="L33" s="319"/>
+      <c r="M33" s="320"/>
+      <c r="N33" s="346"/>
+      <c r="O33" s="346"/>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="297">
@@ -19687,15 +20664,15 @@
       <c r="D34" s="283"/>
       <c r="E34" s="287"/>
       <c r="F34" s="288"/>
-      <c r="G34" s="325"/>
-      <c r="H34" s="322"/>
-      <c r="I34" s="322"/>
-      <c r="J34" s="322"/>
-      <c r="K34" s="322"/>
-      <c r="L34" s="322"/>
-      <c r="M34" s="323"/>
-      <c r="N34" s="320"/>
-      <c r="O34" s="320"/>
+      <c r="G34" s="322"/>
+      <c r="H34" s="319"/>
+      <c r="I34" s="319"/>
+      <c r="J34" s="319"/>
+      <c r="K34" s="319"/>
+      <c r="L34" s="319"/>
+      <c r="M34" s="320"/>
+      <c r="N34" s="346"/>
+      <c r="O34" s="346"/>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="291">
@@ -19712,8 +20689,8 @@
       <c r="K35" s="314"/>
       <c r="L35" s="314"/>
       <c r="M35" s="316"/>
-      <c r="N35" s="320"/>
-      <c r="O35" s="320"/>
+      <c r="N35" s="346"/>
+      <c r="O35" s="346"/>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="297">
@@ -19730,8 +20707,8 @@
       <c r="K36" s="314"/>
       <c r="L36" s="314"/>
       <c r="M36" s="316"/>
-      <c r="N36" s="320"/>
-      <c r="O36" s="320"/>
+      <c r="N36" s="346"/>
+      <c r="O36" s="346"/>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="291">
@@ -19748,8 +20725,8 @@
       <c r="K37" s="314"/>
       <c r="L37" s="314"/>
       <c r="M37" s="316"/>
-      <c r="N37" s="320"/>
-      <c r="O37" s="320"/>
+      <c r="N37" s="346"/>
+      <c r="O37" s="346"/>
     </row>
     <row r="38" spans="2:15">
       <c r="B38" s="297">
@@ -19766,8 +20743,8 @@
       <c r="K38" s="314"/>
       <c r="L38" s="314"/>
       <c r="M38" s="316"/>
-      <c r="N38" s="320"/>
-      <c r="O38" s="320"/>
+      <c r="N38" s="346"/>
+      <c r="O38" s="346"/>
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="291">
@@ -19784,8 +20761,8 @@
       <c r="K39" s="314"/>
       <c r="L39" s="314"/>
       <c r="M39" s="316"/>
-      <c r="N39" s="320"/>
-      <c r="O39" s="320"/>
+      <c r="N39" s="346"/>
+      <c r="O39" s="346"/>
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="297">
@@ -19802,8 +20779,8 @@
       <c r="K40" s="314"/>
       <c r="L40" s="314"/>
       <c r="M40" s="316"/>
-      <c r="N40" s="320"/>
-      <c r="O40" s="320"/>
+      <c r="N40" s="346"/>
+      <c r="O40" s="346"/>
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="291">
@@ -19820,8 +20797,8 @@
       <c r="K41" s="314"/>
       <c r="L41" s="314"/>
       <c r="M41" s="316"/>
-      <c r="N41" s="320"/>
-      <c r="O41" s="320"/>
+      <c r="N41" s="346"/>
+      <c r="O41" s="346"/>
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="297">
@@ -19838,8 +20815,8 @@
       <c r="K42" s="314"/>
       <c r="L42" s="314"/>
       <c r="M42" s="316"/>
-      <c r="N42" s="320"/>
-      <c r="O42" s="320"/>
+      <c r="N42" s="346"/>
+      <c r="O42" s="346"/>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="291">
@@ -19856,8 +20833,8 @@
       <c r="K43" s="314"/>
       <c r="L43" s="314"/>
       <c r="M43" s="316"/>
-      <c r="N43" s="320"/>
-      <c r="O43" s="320"/>
+      <c r="N43" s="346"/>
+      <c r="O43" s="346"/>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="297">
@@ -19874,8 +20851,8 @@
       <c r="K44" s="314"/>
       <c r="L44" s="314"/>
       <c r="M44" s="316"/>
-      <c r="N44" s="320"/>
-      <c r="O44" s="320"/>
+      <c r="N44" s="346"/>
+      <c r="O44" s="346"/>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="291">
@@ -19892,8 +20869,8 @@
       <c r="K45" s="314"/>
       <c r="L45" s="314"/>
       <c r="M45" s="316"/>
-      <c r="N45" s="320"/>
-      <c r="O45" s="320"/>
+      <c r="N45" s="346"/>
+      <c r="O45" s="346"/>
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="297">
@@ -19910,8 +20887,8 @@
       <c r="K46" s="314"/>
       <c r="L46" s="314"/>
       <c r="M46" s="316"/>
-      <c r="N46" s="320"/>
-      <c r="O46" s="320"/>
+      <c r="N46" s="346"/>
+      <c r="O46" s="346"/>
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="291">
@@ -19928,8 +20905,8 @@
       <c r="K47" s="314"/>
       <c r="L47" s="314"/>
       <c r="M47" s="316"/>
-      <c r="N47" s="320"/>
-      <c r="O47" s="320"/>
+      <c r="N47" s="346"/>
+      <c r="O47" s="346"/>
     </row>
     <row r="48" spans="2:15">
       <c r="B48" s="297">
@@ -19946,8 +20923,8 @@
       <c r="K48" s="314"/>
       <c r="L48" s="314"/>
       <c r="M48" s="316"/>
-      <c r="N48" s="320"/>
-      <c r="O48" s="320"/>
+      <c r="N48" s="346"/>
+      <c r="O48" s="346"/>
     </row>
     <row r="49" spans="2:15">
       <c r="B49" s="291">
@@ -19964,8 +20941,8 @@
       <c r="K49" s="314"/>
       <c r="L49" s="314"/>
       <c r="M49" s="316"/>
-      <c r="N49" s="320"/>
-      <c r="O49" s="320"/>
+      <c r="N49" s="346"/>
+      <c r="O49" s="346"/>
     </row>
     <row r="50" spans="2:15">
       <c r="B50" s="297">
@@ -19982,8 +20959,8 @@
       <c r="K50" s="314"/>
       <c r="L50" s="314"/>
       <c r="M50" s="316"/>
-      <c r="N50" s="320"/>
-      <c r="O50" s="320"/>
+      <c r="N50" s="346"/>
+      <c r="O50" s="346"/>
     </row>
     <row r="51" spans="2:15">
       <c r="B51" s="291">
@@ -20000,8 +20977,8 @@
       <c r="K51" s="314"/>
       <c r="L51" s="314"/>
       <c r="M51" s="316"/>
-      <c r="N51" s="320"/>
-      <c r="O51" s="320"/>
+      <c r="N51" s="346"/>
+      <c r="O51" s="346"/>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" s="297">
@@ -20018,8 +20995,8 @@
       <c r="K52" s="314"/>
       <c r="L52" s="314"/>
       <c r="M52" s="316"/>
-      <c r="N52" s="320"/>
-      <c r="O52" s="320"/>
+      <c r="N52" s="346"/>
+      <c r="O52" s="346"/>
     </row>
     <row r="53" spans="2:15">
       <c r="B53" s="291">
@@ -20035,9 +21012,9 @@
       <c r="J53" s="313"/>
       <c r="K53" s="313"/>
       <c r="L53" s="313"/>
-      <c r="M53" s="326"/>
-      <c r="N53" s="320"/>
-      <c r="O53" s="320"/>
+      <c r="M53" s="323"/>
+      <c r="N53" s="346"/>
+      <c r="O53" s="346"/>
     </row>
     <row r="54" spans="2:15">
       <c r="B54" s="304" t="s">
@@ -20047,15 +21024,15 @@
       <c r="D54" s="306"/>
       <c r="E54" s="307"/>
       <c r="F54" s="308"/>
-      <c r="G54" s="327"/>
-      <c r="H54" s="327"/>
-      <c r="I54" s="327"/>
-      <c r="J54" s="327"/>
-      <c r="K54" s="327"/>
-      <c r="L54" s="327"/>
-      <c r="M54" s="328"/>
-      <c r="N54" s="329"/>
-      <c r="O54" s="329"/>
+      <c r="G54" s="324"/>
+      <c r="H54" s="324"/>
+      <c r="I54" s="324"/>
+      <c r="J54" s="324"/>
+      <c r="K54" s="324"/>
+      <c r="L54" s="324"/>
+      <c r="M54" s="325"/>
+      <c r="N54" s="348"/>
+      <c r="O54" s="348"/>
     </row>
     <row r="101" spans="2:15" s="97" customFormat="1">
       <c r="B101" t="s">
@@ -20360,4 +21337,1385 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:O119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="97" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" style="97" customWidth="1"/>
+    <col min="8" max="15" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="18">
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="3" spans="2:15" ht="18">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="C4" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="C5" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" ht="18">
+      <c r="B7" s="344" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" s="344"/>
+      <c r="D7" s="344"/>
+      <c r="E7" s="344"/>
+    </row>
+    <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
+      <c r="B10" s="275" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="276" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="276" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="276" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="276" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="310" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="272" t="s">
+        <v>374</v>
+      </c>
+      <c r="I10" s="272" t="s">
+        <v>375</v>
+      </c>
+      <c r="J10" s="273" t="s">
+        <v>376</v>
+      </c>
+      <c r="K10" s="273" t="s">
+        <v>377</v>
+      </c>
+      <c r="L10" s="273" t="s">
+        <v>378</v>
+      </c>
+      <c r="M10" s="273" t="s">
+        <v>379</v>
+      </c>
+      <c r="N10" s="274" t="s">
+        <v>380</v>
+      </c>
+      <c r="O10" s="311" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="353">
+        <v>1</v>
+      </c>
+      <c r="C11" s="352" t="s">
+        <v>373</v>
+      </c>
+      <c r="D11" s="289" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="354" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="321">
+        <v>8</v>
+      </c>
+      <c r="H11" s="326"/>
+      <c r="I11" s="326"/>
+      <c r="J11" s="326"/>
+      <c r="K11" s="326"/>
+      <c r="L11" s="326"/>
+      <c r="M11" s="351"/>
+      <c r="N11" s="355"/>
+      <c r="O11" s="355"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="356">
+        <v>2</v>
+      </c>
+      <c r="C12" s="352" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" s="289" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="354" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="321">
+        <v>2</v>
+      </c>
+      <c r="H12" s="326"/>
+      <c r="I12" s="357"/>
+      <c r="J12" s="357"/>
+      <c r="K12" s="357"/>
+      <c r="L12" s="357"/>
+      <c r="M12" s="349"/>
+      <c r="N12" s="350"/>
+      <c r="O12" s="350"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="353">
+        <v>3</v>
+      </c>
+      <c r="C13" s="352" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="289"/>
+      <c r="E13" s="354"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="326"/>
+      <c r="I13" s="357"/>
+      <c r="J13" s="357"/>
+      <c r="K13" s="357"/>
+      <c r="L13" s="357"/>
+      <c r="M13" s="349"/>
+      <c r="N13" s="350"/>
+      <c r="O13" s="350"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="356">
+        <v>4</v>
+      </c>
+      <c r="C14" s="358" t="s">
+        <v>382</v>
+      </c>
+      <c r="D14" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="354" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="321">
+        <v>2</v>
+      </c>
+      <c r="H14" s="326"/>
+      <c r="I14" s="357"/>
+      <c r="J14" s="357"/>
+      <c r="K14" s="357"/>
+      <c r="L14" s="357"/>
+      <c r="M14" s="349"/>
+      <c r="N14" s="350"/>
+      <c r="O14" s="350"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="353">
+        <v>5</v>
+      </c>
+      <c r="C15" s="358" t="s">
+        <v>383</v>
+      </c>
+      <c r="D15" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="354" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="321">
+        <v>4</v>
+      </c>
+      <c r="H15" s="326"/>
+      <c r="I15" s="357"/>
+      <c r="J15" s="357"/>
+      <c r="K15" s="357"/>
+      <c r="L15" s="326"/>
+      <c r="M15" s="351"/>
+      <c r="N15" s="350"/>
+      <c r="O15" s="350"/>
+    </row>
+    <row r="16" spans="2:15" s="197" customFormat="1">
+      <c r="B16" s="356">
+        <v>6</v>
+      </c>
+      <c r="C16" s="352" t="s">
+        <v>359</v>
+      </c>
+      <c r="D16" s="289"/>
+      <c r="E16" s="354"/>
+      <c r="F16" s="285"/>
+      <c r="G16" s="321"/>
+      <c r="H16" s="326"/>
+      <c r="I16" s="357"/>
+      <c r="J16" s="357"/>
+      <c r="K16" s="357"/>
+      <c r="L16" s="357"/>
+      <c r="M16" s="349"/>
+      <c r="N16" s="350"/>
+      <c r="O16" s="350"/>
+    </row>
+    <row r="17" spans="2:15" s="197" customFormat="1">
+      <c r="B17" s="353">
+        <v>7</v>
+      </c>
+      <c r="C17" s="358" t="s">
+        <v>360</v>
+      </c>
+      <c r="D17" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="354" t="s">
+        <v>349</v>
+      </c>
+      <c r="F17" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="321">
+        <v>2</v>
+      </c>
+      <c r="H17" s="326"/>
+      <c r="I17" s="357"/>
+      <c r="J17" s="357"/>
+      <c r="K17" s="357"/>
+      <c r="L17" s="357"/>
+      <c r="M17" s="349"/>
+      <c r="N17" s="350"/>
+      <c r="O17" s="350"/>
+    </row>
+    <row r="18" spans="2:15" s="197" customFormat="1">
+      <c r="B18" s="356">
+        <v>8</v>
+      </c>
+      <c r="C18" s="358" t="s">
+        <v>361</v>
+      </c>
+      <c r="D18" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="354" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="321">
+        <v>4</v>
+      </c>
+      <c r="H18" s="326"/>
+      <c r="I18" s="357"/>
+      <c r="J18" s="357"/>
+      <c r="K18" s="357"/>
+      <c r="L18" s="357"/>
+      <c r="M18" s="349"/>
+      <c r="N18" s="350"/>
+      <c r="O18" s="350"/>
+    </row>
+    <row r="19" spans="2:15" s="197" customFormat="1">
+      <c r="B19" s="353">
+        <v>9</v>
+      </c>
+      <c r="C19" s="358" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="354" t="s">
+        <v>349</v>
+      </c>
+      <c r="F19" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="321">
+        <v>6</v>
+      </c>
+      <c r="H19" s="326"/>
+      <c r="I19" s="357"/>
+      <c r="J19" s="357"/>
+      <c r="K19" s="326"/>
+      <c r="L19" s="326"/>
+      <c r="M19" s="351"/>
+      <c r="N19" s="350"/>
+      <c r="O19" s="350"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="356">
+        <v>10</v>
+      </c>
+      <c r="C20" s="352" t="s">
+        <v>384</v>
+      </c>
+      <c r="D20" s="289" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="354" t="s">
+        <v>349</v>
+      </c>
+      <c r="F20" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="321">
+        <v>3</v>
+      </c>
+      <c r="H20" s="321"/>
+      <c r="I20" s="326"/>
+      <c r="J20" s="326"/>
+      <c r="K20" s="326"/>
+      <c r="L20" s="326"/>
+      <c r="M20" s="351"/>
+      <c r="N20" s="350"/>
+      <c r="O20" s="350"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="353">
+        <v>11</v>
+      </c>
+      <c r="C21" s="352" t="s">
+        <v>385</v>
+      </c>
+      <c r="D21" s="289" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="354" t="s">
+        <v>349</v>
+      </c>
+      <c r="F21" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="321">
+        <v>3</v>
+      </c>
+      <c r="H21" s="326"/>
+      <c r="I21" s="326"/>
+      <c r="J21" s="326"/>
+      <c r="K21" s="326"/>
+      <c r="L21" s="326"/>
+      <c r="M21" s="351"/>
+      <c r="N21" s="350"/>
+      <c r="O21" s="350"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="356">
+        <v>12</v>
+      </c>
+      <c r="C22" s="352" t="s">
+        <v>367</v>
+      </c>
+      <c r="D22" s="289"/>
+      <c r="E22" s="354"/>
+      <c r="F22" s="285"/>
+      <c r="G22" s="321"/>
+      <c r="H22" s="326"/>
+      <c r="I22" s="357"/>
+      <c r="J22" s="357"/>
+      <c r="K22" s="357"/>
+      <c r="L22" s="357"/>
+      <c r="M22" s="349"/>
+      <c r="N22" s="350"/>
+      <c r="O22" s="350"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="353">
+        <v>13</v>
+      </c>
+      <c r="C23" s="358" t="s">
+        <v>368</v>
+      </c>
+      <c r="D23" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="354" t="s">
+        <v>350</v>
+      </c>
+      <c r="F23" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="321">
+        <v>5</v>
+      </c>
+      <c r="H23" s="326"/>
+      <c r="I23" s="357"/>
+      <c r="J23" s="357"/>
+      <c r="K23" s="357"/>
+      <c r="L23" s="357"/>
+      <c r="M23" s="349"/>
+      <c r="N23" s="350"/>
+      <c r="O23" s="350"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="356">
+        <v>14</v>
+      </c>
+      <c r="C24" s="359" t="s">
+        <v>370</v>
+      </c>
+      <c r="D24" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="354" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="321">
+        <v>2</v>
+      </c>
+      <c r="H24" s="326"/>
+      <c r="I24" s="357"/>
+      <c r="J24" s="357"/>
+      <c r="K24" s="357"/>
+      <c r="L24" s="357"/>
+      <c r="M24" s="349"/>
+      <c r="N24" s="350"/>
+      <c r="O24" s="350"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="353">
+        <v>15</v>
+      </c>
+      <c r="C25" s="358" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="354" t="s">
+        <v>350</v>
+      </c>
+      <c r="F25" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="321">
+        <v>5</v>
+      </c>
+      <c r="H25" s="326"/>
+      <c r="I25" s="357"/>
+      <c r="J25" s="357"/>
+      <c r="K25" s="357"/>
+      <c r="L25" s="357"/>
+      <c r="M25" s="349"/>
+      <c r="N25" s="350"/>
+      <c r="O25" s="350"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="356">
+        <v>16</v>
+      </c>
+      <c r="C26" s="359" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="354" t="s">
+        <v>350</v>
+      </c>
+      <c r="F26" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="321">
+        <v>2</v>
+      </c>
+      <c r="H26" s="326"/>
+      <c r="I26" s="357"/>
+      <c r="J26" s="357"/>
+      <c r="K26" s="357"/>
+      <c r="L26" s="357"/>
+      <c r="M26" s="349"/>
+      <c r="N26" s="350"/>
+      <c r="O26" s="350"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="353">
+        <v>17</v>
+      </c>
+      <c r="C27" s="352" t="s">
+        <v>359</v>
+      </c>
+      <c r="D27" s="289"/>
+      <c r="E27" s="354"/>
+      <c r="F27" s="285"/>
+      <c r="G27" s="321"/>
+      <c r="H27" s="326"/>
+      <c r="I27" s="357"/>
+      <c r="J27" s="357"/>
+      <c r="K27" s="357"/>
+      <c r="L27" s="357"/>
+      <c r="M27" s="349"/>
+      <c r="N27" s="350"/>
+      <c r="O27" s="350"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="356">
+        <v>18</v>
+      </c>
+      <c r="C28" s="359" t="s">
+        <v>386</v>
+      </c>
+      <c r="D28" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="354" t="s">
+        <v>350</v>
+      </c>
+      <c r="F28" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="321">
+        <v>4</v>
+      </c>
+      <c r="H28" s="326"/>
+      <c r="I28" s="357"/>
+      <c r="J28" s="357"/>
+      <c r="K28" s="357"/>
+      <c r="L28" s="357"/>
+      <c r="M28" s="349"/>
+      <c r="N28" s="350"/>
+      <c r="O28" s="350"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="353">
+        <v>19</v>
+      </c>
+      <c r="C29" s="352" t="s">
+        <v>388</v>
+      </c>
+      <c r="D29" s="289"/>
+      <c r="E29" s="354"/>
+      <c r="F29" s="285"/>
+      <c r="G29" s="321"/>
+      <c r="H29" s="326"/>
+      <c r="I29" s="326"/>
+      <c r="J29" s="326"/>
+      <c r="K29" s="326"/>
+      <c r="L29" s="326"/>
+      <c r="M29" s="351"/>
+      <c r="N29" s="350"/>
+      <c r="O29" s="350"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="356">
+        <v>20</v>
+      </c>
+      <c r="C30" s="358" t="s">
+        <v>387</v>
+      </c>
+      <c r="D30" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="354" t="s">
+        <v>352</v>
+      </c>
+      <c r="F30" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="321">
+        <v>5</v>
+      </c>
+      <c r="H30" s="326"/>
+      <c r="I30" s="326"/>
+      <c r="J30" s="326"/>
+      <c r="K30" s="326"/>
+      <c r="L30" s="326"/>
+      <c r="M30" s="351"/>
+      <c r="N30" s="350"/>
+      <c r="O30" s="350"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="353">
+        <v>21</v>
+      </c>
+      <c r="C31" s="359" t="s">
+        <v>391</v>
+      </c>
+      <c r="D31" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="354" t="s">
+        <v>352</v>
+      </c>
+      <c r="F31" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="321">
+        <v>4</v>
+      </c>
+      <c r="H31" s="326"/>
+      <c r="I31" s="326"/>
+      <c r="J31" s="326"/>
+      <c r="K31" s="326"/>
+      <c r="L31" s="326"/>
+      <c r="M31" s="351"/>
+      <c r="N31" s="350"/>
+      <c r="O31" s="350"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="356">
+        <v>22</v>
+      </c>
+      <c r="C32" s="358" t="s">
+        <v>389</v>
+      </c>
+      <c r="D32" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="354" t="s">
+        <v>352</v>
+      </c>
+      <c r="F32" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="321">
+        <v>4</v>
+      </c>
+      <c r="H32" s="326"/>
+      <c r="I32" s="326"/>
+      <c r="J32" s="326"/>
+      <c r="K32" s="326"/>
+      <c r="L32" s="326"/>
+      <c r="M32" s="351"/>
+      <c r="N32" s="350"/>
+      <c r="O32" s="350"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="353">
+        <v>23</v>
+      </c>
+      <c r="C33" s="358" t="s">
+        <v>390</v>
+      </c>
+      <c r="D33" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="354" t="s">
+        <v>352</v>
+      </c>
+      <c r="F33" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="321">
+        <v>4</v>
+      </c>
+      <c r="H33" s="326"/>
+      <c r="I33" s="326"/>
+      <c r="J33" s="326"/>
+      <c r="K33" s="326"/>
+      <c r="L33" s="326"/>
+      <c r="M33" s="351"/>
+      <c r="N33" s="350"/>
+      <c r="O33" s="350"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="356">
+        <v>24</v>
+      </c>
+      <c r="C34" s="360"/>
+      <c r="D34" s="289"/>
+      <c r="E34" s="354"/>
+      <c r="F34" s="285"/>
+      <c r="G34" s="321"/>
+      <c r="H34" s="326"/>
+      <c r="I34" s="326"/>
+      <c r="J34" s="326"/>
+      <c r="K34" s="326"/>
+      <c r="L34" s="326"/>
+      <c r="M34" s="351"/>
+      <c r="N34" s="350"/>
+      <c r="O34" s="350"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="353">
+        <v>25</v>
+      </c>
+      <c r="C35" s="360"/>
+      <c r="D35" s="289"/>
+      <c r="E35" s="354"/>
+      <c r="F35" s="285"/>
+      <c r="G35" s="321"/>
+      <c r="H35" s="326"/>
+      <c r="I35" s="326"/>
+      <c r="J35" s="326"/>
+      <c r="K35" s="326"/>
+      <c r="L35" s="326"/>
+      <c r="M35" s="351"/>
+      <c r="N35" s="350"/>
+      <c r="O35" s="350"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="356">
+        <v>26</v>
+      </c>
+      <c r="C36" s="354"/>
+      <c r="D36" s="289"/>
+      <c r="E36" s="354"/>
+      <c r="F36" s="285"/>
+      <c r="G36" s="321"/>
+      <c r="H36" s="326"/>
+      <c r="I36" s="326"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="326"/>
+      <c r="L36" s="326"/>
+      <c r="M36" s="351"/>
+      <c r="N36" s="350"/>
+      <c r="O36" s="350"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="353">
+        <v>27</v>
+      </c>
+      <c r="C37" s="354"/>
+      <c r="D37" s="289"/>
+      <c r="E37" s="354"/>
+      <c r="F37" s="285"/>
+      <c r="G37" s="321"/>
+      <c r="H37" s="326"/>
+      <c r="I37" s="326"/>
+      <c r="J37" s="326"/>
+      <c r="K37" s="326"/>
+      <c r="L37" s="326"/>
+      <c r="M37" s="351"/>
+      <c r="N37" s="350"/>
+      <c r="O37" s="350"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="356">
+        <v>28</v>
+      </c>
+      <c r="C38" s="354"/>
+      <c r="D38" s="289"/>
+      <c r="E38" s="354"/>
+      <c r="F38" s="285"/>
+      <c r="G38" s="321"/>
+      <c r="H38" s="326"/>
+      <c r="I38" s="326"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="326"/>
+      <c r="L38" s="326"/>
+      <c r="M38" s="351"/>
+      <c r="N38" s="350"/>
+      <c r="O38" s="350"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="353">
+        <v>29</v>
+      </c>
+      <c r="C39" s="361"/>
+      <c r="D39" s="289"/>
+      <c r="E39" s="354"/>
+      <c r="F39" s="285"/>
+      <c r="G39" s="321"/>
+      <c r="H39" s="326"/>
+      <c r="I39" s="326"/>
+      <c r="J39" s="326"/>
+      <c r="K39" s="326"/>
+      <c r="L39" s="326"/>
+      <c r="M39" s="351"/>
+      <c r="N39" s="350"/>
+      <c r="O39" s="350"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="356">
+        <v>30</v>
+      </c>
+      <c r="C40" s="361"/>
+      <c r="D40" s="289"/>
+      <c r="E40" s="354"/>
+      <c r="F40" s="285"/>
+      <c r="G40" s="321"/>
+      <c r="H40" s="326"/>
+      <c r="I40" s="326"/>
+      <c r="J40" s="326"/>
+      <c r="K40" s="326"/>
+      <c r="L40" s="326"/>
+      <c r="M40" s="351"/>
+      <c r="N40" s="350"/>
+      <c r="O40" s="350"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="353">
+        <v>31</v>
+      </c>
+      <c r="C41" s="361"/>
+      <c r="D41" s="289"/>
+      <c r="E41" s="354"/>
+      <c r="F41" s="285"/>
+      <c r="G41" s="321"/>
+      <c r="H41" s="326"/>
+      <c r="I41" s="326"/>
+      <c r="J41" s="326"/>
+      <c r="K41" s="326"/>
+      <c r="L41" s="326"/>
+      <c r="M41" s="351"/>
+      <c r="N41" s="350"/>
+      <c r="O41" s="350"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="356">
+        <v>32</v>
+      </c>
+      <c r="C42" s="361"/>
+      <c r="D42" s="289"/>
+      <c r="E42" s="354"/>
+      <c r="F42" s="285"/>
+      <c r="G42" s="321"/>
+      <c r="H42" s="326"/>
+      <c r="I42" s="326"/>
+      <c r="J42" s="326"/>
+      <c r="K42" s="326"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="351"/>
+      <c r="N42" s="350"/>
+      <c r="O42" s="350"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="353">
+        <v>33</v>
+      </c>
+      <c r="C43" s="361"/>
+      <c r="D43" s="289"/>
+      <c r="E43" s="354"/>
+      <c r="F43" s="285"/>
+      <c r="G43" s="321"/>
+      <c r="H43" s="326"/>
+      <c r="I43" s="326"/>
+      <c r="J43" s="326"/>
+      <c r="K43" s="326"/>
+      <c r="L43" s="326"/>
+      <c r="M43" s="351"/>
+      <c r="N43" s="350"/>
+      <c r="O43" s="350"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="356">
+        <v>34</v>
+      </c>
+      <c r="C44" s="358"/>
+      <c r="D44" s="289"/>
+      <c r="E44" s="354"/>
+      <c r="F44" s="285"/>
+      <c r="G44" s="321"/>
+      <c r="H44" s="326"/>
+      <c r="I44" s="326"/>
+      <c r="J44" s="326"/>
+      <c r="K44" s="326"/>
+      <c r="L44" s="326"/>
+      <c r="M44" s="351"/>
+      <c r="N44" s="350"/>
+      <c r="O44" s="350"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="353">
+        <v>35</v>
+      </c>
+      <c r="C45" s="361"/>
+      <c r="D45" s="289"/>
+      <c r="E45" s="354"/>
+      <c r="F45" s="285"/>
+      <c r="G45" s="321"/>
+      <c r="H45" s="326"/>
+      <c r="I45" s="326"/>
+      <c r="J45" s="326"/>
+      <c r="K45" s="326"/>
+      <c r="L45" s="326"/>
+      <c r="M45" s="351"/>
+      <c r="N45" s="350"/>
+      <c r="O45" s="350"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="356">
+        <v>36</v>
+      </c>
+      <c r="C46" s="361"/>
+      <c r="D46" s="289"/>
+      <c r="E46" s="354"/>
+      <c r="F46" s="285"/>
+      <c r="G46" s="321"/>
+      <c r="H46" s="326"/>
+      <c r="I46" s="326"/>
+      <c r="J46" s="326"/>
+      <c r="K46" s="326"/>
+      <c r="L46" s="326"/>
+      <c r="M46" s="351"/>
+      <c r="N46" s="350"/>
+      <c r="O46" s="350"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="353">
+        <v>37</v>
+      </c>
+      <c r="C47" s="361"/>
+      <c r="D47" s="289"/>
+      <c r="E47" s="354"/>
+      <c r="F47" s="285"/>
+      <c r="G47" s="321"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="326"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="351"/>
+      <c r="N47" s="350"/>
+      <c r="O47" s="350"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="356">
+        <v>38</v>
+      </c>
+      <c r="C48" s="361"/>
+      <c r="D48" s="289"/>
+      <c r="E48" s="354"/>
+      <c r="F48" s="285"/>
+      <c r="G48" s="321"/>
+      <c r="H48" s="326"/>
+      <c r="I48" s="326"/>
+      <c r="J48" s="326"/>
+      <c r="K48" s="326"/>
+      <c r="L48" s="326"/>
+      <c r="M48" s="351"/>
+      <c r="N48" s="350"/>
+      <c r="O48" s="350"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="353">
+        <v>39</v>
+      </c>
+      <c r="C49" s="358"/>
+      <c r="D49" s="289"/>
+      <c r="E49" s="354"/>
+      <c r="F49" s="285"/>
+      <c r="G49" s="321"/>
+      <c r="H49" s="326"/>
+      <c r="I49" s="326"/>
+      <c r="J49" s="326"/>
+      <c r="K49" s="326"/>
+      <c r="L49" s="326"/>
+      <c r="M49" s="351"/>
+      <c r="N49" s="350"/>
+      <c r="O49" s="350"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="356">
+        <v>40</v>
+      </c>
+      <c r="C50" s="358"/>
+      <c r="D50" s="289"/>
+      <c r="E50" s="354"/>
+      <c r="F50" s="285"/>
+      <c r="G50" s="321"/>
+      <c r="H50" s="326"/>
+      <c r="I50" s="326"/>
+      <c r="J50" s="326"/>
+      <c r="K50" s="326"/>
+      <c r="L50" s="326"/>
+      <c r="M50" s="351"/>
+      <c r="N50" s="350"/>
+      <c r="O50" s="350"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="353">
+        <v>41</v>
+      </c>
+      <c r="C51" s="358"/>
+      <c r="D51" s="289"/>
+      <c r="E51" s="354"/>
+      <c r="F51" s="285"/>
+      <c r="G51" s="321"/>
+      <c r="H51" s="326"/>
+      <c r="I51" s="326"/>
+      <c r="J51" s="326"/>
+      <c r="K51" s="326"/>
+      <c r="L51" s="326"/>
+      <c r="M51" s="351"/>
+      <c r="N51" s="350"/>
+      <c r="O51" s="350"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="356">
+        <v>42</v>
+      </c>
+      <c r="C52" s="358"/>
+      <c r="D52" s="289"/>
+      <c r="E52" s="354"/>
+      <c r="F52" s="285"/>
+      <c r="G52" s="321"/>
+      <c r="H52" s="326"/>
+      <c r="I52" s="326"/>
+      <c r="J52" s="326"/>
+      <c r="K52" s="326"/>
+      <c r="L52" s="326"/>
+      <c r="M52" s="351"/>
+      <c r="N52" s="350"/>
+      <c r="O52" s="350"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="353">
+        <v>43</v>
+      </c>
+      <c r="C53" s="362"/>
+      <c r="D53" s="289"/>
+      <c r="E53" s="354"/>
+      <c r="F53" s="285"/>
+      <c r="G53" s="321"/>
+      <c r="H53" s="321"/>
+      <c r="I53" s="321"/>
+      <c r="J53" s="321"/>
+      <c r="K53" s="321"/>
+      <c r="L53" s="321"/>
+      <c r="M53" s="363"/>
+      <c r="N53" s="350"/>
+      <c r="O53" s="350"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="364" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="365"/>
+      <c r="D54" s="366"/>
+      <c r="E54" s="367"/>
+      <c r="F54" s="368"/>
+      <c r="G54" s="369"/>
+      <c r="H54" s="369"/>
+      <c r="I54" s="369"/>
+      <c r="J54" s="369"/>
+      <c r="K54" s="369"/>
+      <c r="L54" s="369"/>
+      <c r="M54" s="370"/>
+      <c r="N54" s="371"/>
+      <c r="O54" s="371"/>
+    </row>
+    <row r="101" spans="2:15" s="97" customFormat="1">
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+    </row>
+    <row r="102" spans="2:15" s="97" customFormat="1">
+      <c r="B102"/>
+      <c r="C102" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+    </row>
+    <row r="103" spans="2:15" s="97" customFormat="1">
+      <c r="B103"/>
+      <c r="C103" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+    </row>
+    <row r="104" spans="2:15" s="97" customFormat="1">
+      <c r="B104"/>
+      <c r="C104" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+    </row>
+    <row r="105" spans="2:15" s="97" customFormat="1">
+      <c r="B105"/>
+      <c r="C105" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+    </row>
+    <row r="106" spans="2:15" s="97" customFormat="1">
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106"/>
+      <c r="E106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+    </row>
+    <row r="107" spans="2:15" s="97" customFormat="1">
+      <c r="B107"/>
+      <c r="C107" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="E107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="2:15" s="97" customFormat="1">
+      <c r="B108"/>
+      <c r="C108" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="E108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+    </row>
+    <row r="109" spans="2:15" s="97" customFormat="1">
+      <c r="B109"/>
+      <c r="C109" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+    </row>
+    <row r="110" spans="2:15" s="97" customFormat="1">
+      <c r="B110"/>
+      <c r="C110" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="E110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+    </row>
+    <row r="111" spans="2:15" s="97" customFormat="1">
+      <c r="B111"/>
+      <c r="C111" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+    </row>
+    <row r="113" spans="2:15" s="97" customFormat="1">
+      <c r="B113" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113"/>
+      <c r="E113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+    </row>
+    <row r="114" spans="2:15" s="97" customFormat="1">
+      <c r="B114"/>
+      <c r="C114" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="E114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+    </row>
+    <row r="115" spans="2:15" s="97" customFormat="1">
+      <c r="B115"/>
+      <c r="C115" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+    </row>
+    <row r="116" spans="2:15" s="97" customFormat="1">
+      <c r="B116"/>
+      <c r="C116" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+    </row>
+    <row r="117" spans="2:15" s="97" customFormat="1">
+      <c r="B117"/>
+      <c r="C117" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+    </row>
+    <row r="118" spans="2:15" s="97" customFormat="1">
+      <c r="B118"/>
+      <c r="C118" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+    </row>
+    <row r="119" spans="2:15" s="97" customFormat="1">
+      <c r="B119"/>
+      <c r="C119" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:D52">
+      <formula1>$C$118:$C$122</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D53:D54 D39:D48 D11:D34">
+      <formula1>$C$101:$C$105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F53:F91">
+      <formula1>$C$115:$C$119</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:D38">
+      <formula1>$C$108:$C$112</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E11:E54">
+      <formula1>$C$107:$C$111</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F52">
+      <formula1>$C$114:$C$119</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="28" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -3268,60 +3268,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3398,6 +3344,60 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3405,6 +3405,478 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="143">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3438,484 +3910,12 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -9107,27 +9107,27 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13456789" displayName="Table13456789" ref="B10:O54" totalsRowShown="0" headerRowDxfId="18" dataDxfId="0" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13456789" displayName="Table13456789" ref="B10:O54" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="B10:O54">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="14"/>
-    <tableColumn id="2" name="Task description" dataDxfId="13"/>
-    <tableColumn id="3" name="Type" dataDxfId="12"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="11"/>
-    <tableColumn id="5" name="Status" dataDxfId="10"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="9"/>
-    <tableColumn id="8" name="20/05" dataDxfId="8"/>
-    <tableColumn id="9" name="21/05" dataDxfId="7"/>
-    <tableColumn id="10" name="22/05" dataDxfId="6"/>
-    <tableColumn id="11" name="23/05" dataDxfId="5"/>
-    <tableColumn id="12" name="24/05" dataDxfId="4"/>
-    <tableColumn id="13" name="25/05" dataDxfId="3"/>
-    <tableColumn id="14" name="26/05" dataDxfId="2"/>
-    <tableColumn id="15" name="End" dataDxfId="1"/>
+    <tableColumn id="1" name="No." dataDxfId="13"/>
+    <tableColumn id="2" name="Task description" dataDxfId="12"/>
+    <tableColumn id="3" name="Type" dataDxfId="11"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="10"/>
+    <tableColumn id="5" name="Status" dataDxfId="9"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="8"/>
+    <tableColumn id="8" name="20/05" dataDxfId="7"/>
+    <tableColumn id="9" name="21/05" dataDxfId="6"/>
+    <tableColumn id="10" name="22/05" dataDxfId="5"/>
+    <tableColumn id="11" name="23/05" dataDxfId="4"/>
+    <tableColumn id="12" name="24/05" dataDxfId="3"/>
+    <tableColumn id="13" name="25/05" dataDxfId="2"/>
+    <tableColumn id="14" name="26/05" dataDxfId="1"/>
+    <tableColumn id="15" name="End" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9508,7 +9508,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="C14" s="330">
+      <c r="C14" s="354">
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -9519,7 +9519,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="C15" s="331"/>
+      <c r="C15" s="355"/>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
@@ -9527,28 +9527,28 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="C16" s="331"/>
+      <c r="C16" s="355"/>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="331"/>
+      <c r="C17" s="355"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="332"/>
+      <c r="C18" s="361"/>
       <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="335">
+      <c r="C19" s="368">
         <v>3</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -9559,7 +9559,7 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="336"/>
+      <c r="C20" s="369"/>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
@@ -9569,7 +9569,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="336"/>
+      <c r="C21" s="369"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -9579,42 +9579,42 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="336"/>
+      <c r="C22" s="369"/>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="336"/>
+      <c r="C23" s="369"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="336"/>
+      <c r="C24" s="369"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="336"/>
+      <c r="C25" s="369"/>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="337"/>
+      <c r="C26" s="370"/>
       <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="53"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="330">
+      <c r="C27" s="354">
         <v>4</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -9625,56 +9625,56 @@
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="331"/>
+      <c r="C28" s="355"/>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="331"/>
+      <c r="C29" s="355"/>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="331"/>
+      <c r="C30" s="355"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="331"/>
+      <c r="C31" s="355"/>
       <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="331"/>
+      <c r="C32" s="355"/>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="C33" s="331"/>
+      <c r="C33" s="355"/>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="C34" s="332"/>
+      <c r="C34" s="361"/>
       <c r="D34" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="327">
+      <c r="C35" s="360">
         <v>5</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -9685,14 +9685,14 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="328"/>
+      <c r="C36" s="358"/>
       <c r="D36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="328"/>
+      <c r="C37" s="358"/>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
@@ -9700,14 +9700,14 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="329"/>
+      <c r="C38" s="365"/>
       <c r="D38" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="49"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="330">
+      <c r="C39" s="354">
         <v>6</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -9718,21 +9718,21 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="331"/>
+      <c r="C40" s="355"/>
       <c r="D40" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="332"/>
+      <c r="C41" s="361"/>
       <c r="D41" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="333" t="s">
+      <c r="C42" s="366" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -9743,7 +9743,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="C43" s="334"/>
+      <c r="C43" s="367"/>
       <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
@@ -9783,10 +9783,10 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="C52" s="340" t="s">
+      <c r="C52" s="364" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="340"/>
+      <c r="D52" s="364"/>
       <c r="E52" s="42"/>
     </row>
     <row r="53" spans="2:5">
@@ -9808,10 +9808,10 @@
       <c r="E54" s="40"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="C55" s="338" t="s">
+      <c r="C55" s="362" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="339"/>
+      <c r="D55" s="363"/>
       <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5">
@@ -9833,10 +9833,10 @@
       <c r="E57" s="40"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="C58" s="338" t="s">
+      <c r="C58" s="362" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="339"/>
+      <c r="D58" s="363"/>
       <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5">
@@ -9849,7 +9849,7 @@
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="C60" s="331">
+      <c r="C60" s="355">
         <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
@@ -9858,70 +9858,70 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="C61" s="331"/>
+      <c r="C61" s="355"/>
       <c r="D61" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="C62" s="331"/>
+      <c r="C62" s="355"/>
       <c r="D62" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="C63" s="331"/>
+      <c r="C63" s="355"/>
       <c r="D63" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="C64" s="331"/>
+      <c r="C64" s="355"/>
       <c r="D64" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="331"/>
+      <c r="C65" s="355"/>
       <c r="D65" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="331"/>
+      <c r="C66" s="355"/>
       <c r="D66" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="18"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="331"/>
+      <c r="C67" s="355"/>
       <c r="D67" s="32" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="331"/>
+      <c r="C68" s="355"/>
       <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="332"/>
+      <c r="C69" s="361"/>
       <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="18"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="327">
+      <c r="C70" s="360">
         <v>2</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -9930,35 +9930,35 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="328"/>
+      <c r="C71" s="358"/>
       <c r="D71" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="3:5">
-      <c r="C72" s="328"/>
+      <c r="C72" s="358"/>
       <c r="D72" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="328"/>
+      <c r="C73" s="358"/>
       <c r="D73" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="328"/>
+      <c r="C74" s="358"/>
       <c r="D74" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="49"/>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="330">
+      <c r="C75" s="354">
         <v>3</v>
       </c>
       <c r="D75" s="44" t="s">
@@ -9967,42 +9967,42 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="331"/>
+      <c r="C76" s="355"/>
       <c r="D76" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="331"/>
+      <c r="C77" s="355"/>
       <c r="D77" s="33" t="s">
         <v>72</v>
       </c>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="331"/>
+      <c r="C78" s="355"/>
       <c r="D78" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E78" s="18"/>
     </row>
     <row r="79" spans="3:5">
-      <c r="C79" s="331"/>
+      <c r="C79" s="355"/>
       <c r="D79" s="33" t="s">
         <v>74</v>
       </c>
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C80" s="341"/>
+      <c r="C80" s="356"/>
       <c r="D80" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="3:5">
-      <c r="C81" s="342">
+      <c r="C81" s="357">
         <v>4</v>
       </c>
       <c r="D81" s="57" t="s">
@@ -10011,63 +10011,63 @@
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="328"/>
+      <c r="C82" s="358"/>
       <c r="D82" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E82" s="48"/>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="328"/>
+      <c r="C83" s="358"/>
       <c r="D83" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="3:5">
-      <c r="C84" s="328"/>
+      <c r="C84" s="358"/>
       <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="48"/>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="328"/>
+      <c r="C85" s="358"/>
       <c r="D85" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="48"/>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="328"/>
+      <c r="C86" s="358"/>
       <c r="D86" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="48"/>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="328"/>
+      <c r="C87" s="358"/>
       <c r="D87" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="328"/>
+      <c r="C88" s="358"/>
       <c r="D88" s="34" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="48"/>
     </row>
     <row r="89" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C89" s="343"/>
+      <c r="C89" s="359"/>
       <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="3:5">
-      <c r="C90" s="330">
+      <c r="C90" s="354">
         <v>5</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -10076,28 +10076,28 @@
       <c r="E90" s="18"/>
     </row>
     <row r="91" spans="3:5">
-      <c r="C91" s="331"/>
+      <c r="C91" s="355"/>
       <c r="D91" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="3:5">
-      <c r="C92" s="331"/>
+      <c r="C92" s="355"/>
       <c r="D92" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="3:5">
-      <c r="C93" s="331"/>
+      <c r="C93" s="355"/>
       <c r="D93" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="3:5">
-      <c r="C94" s="327">
+      <c r="C94" s="360">
         <v>6</v>
       </c>
       <c r="D94" s="57" t="s">
@@ -10106,21 +10106,21 @@
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="328"/>
+      <c r="C95" s="358"/>
       <c r="D95" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="328"/>
+      <c r="C96" s="358"/>
       <c r="D96" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="48"/>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="330">
+      <c r="C97" s="354">
         <v>7</v>
       </c>
       <c r="D97" s="44" t="s">
@@ -10129,35 +10129,35 @@
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="331"/>
+      <c r="C98" s="355"/>
       <c r="D98" s="32" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="18"/>
     </row>
     <row r="99" spans="3:5">
-      <c r="C99" s="331"/>
+      <c r="C99" s="355"/>
       <c r="D99" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="18"/>
     </row>
     <row r="100" spans="3:5">
-      <c r="C100" s="331"/>
+      <c r="C100" s="355"/>
       <c r="D100" s="32" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="18"/>
     </row>
     <row r="101" spans="3:5">
-      <c r="C101" s="332"/>
+      <c r="C101" s="361"/>
       <c r="D101" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="18"/>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="327">
+      <c r="C102" s="360">
         <v>8</v>
       </c>
       <c r="D102" s="57" t="s">
@@ -10166,21 +10166,21 @@
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="3:5">
-      <c r="C103" s="328"/>
+      <c r="C103" s="358"/>
       <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="3:5">
-      <c r="C104" s="328"/>
+      <c r="C104" s="358"/>
       <c r="D104" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="48"/>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="330" t="s">
+      <c r="C105" s="354" t="s">
         <v>99</v>
       </c>
       <c r="D105" s="58" t="s">
@@ -10191,12 +10191,23 @@
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="331"/>
+      <c r="C106" s="355"/>
       <c r="D106" s="38"/>
       <c r="E106" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C75:C80"/>
     <mergeCell ref="C81:C89"/>
@@ -10204,17 +10215,6 @@
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C27:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
@@ -12748,12 +12748,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:27" ht="18">
-      <c r="B7" s="344" t="s">
+      <c r="B7" s="371" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="344"/>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
+      <c r="C7" s="371"/>
+      <c r="D7" s="371"/>
+      <c r="E7" s="371"/>
     </row>
     <row r="10" spans="2:27" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -16929,12 +16929,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:14" ht="18">
-      <c r="B7" s="344" t="s">
+      <c r="B7" s="371" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="344"/>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
+      <c r="C7" s="371"/>
+      <c r="D7" s="371"/>
+      <c r="E7" s="371"/>
     </row>
     <row r="10" spans="2:14" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -18550,12 +18550,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:13" ht="18">
-      <c r="B7" s="344" t="s">
+      <c r="B7" s="371" t="s">
         <v>348</v>
       </c>
-      <c r="C7" s="344"/>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
+      <c r="C7" s="371"/>
+      <c r="D7" s="371"/>
+      <c r="E7" s="371"/>
     </row>
     <row r="10" spans="2:13" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -19819,12 +19819,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="344" t="s">
+      <c r="B7" s="371" t="s">
         <v>372</v>
       </c>
-      <c r="C7" s="344"/>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
+      <c r="C7" s="371"/>
+      <c r="D7" s="371"/>
+      <c r="E7" s="371"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -19907,10 +19907,10 @@
       <c r="M11" s="316">
         <v>0</v>
       </c>
-      <c r="N11" s="345">
-        <v>0</v>
-      </c>
-      <c r="O11" s="345">
+      <c r="N11" s="327">
+        <v>0</v>
+      </c>
+      <c r="O11" s="327">
         <v>0</v>
       </c>
     </row>
@@ -19931,8 +19931,8 @@
       <c r="K12" s="317"/>
       <c r="L12" s="317"/>
       <c r="M12" s="318"/>
-      <c r="N12" s="346"/>
-      <c r="O12" s="346"/>
+      <c r="N12" s="328"/>
+      <c r="O12" s="328"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="291">
@@ -19971,10 +19971,10 @@
       <c r="M13" s="318">
         <v>0</v>
       </c>
-      <c r="N13" s="346">
-        <v>0</v>
-      </c>
-      <c r="O13" s="346">
+      <c r="N13" s="328">
+        <v>0</v>
+      </c>
+      <c r="O13" s="328">
         <v>0</v>
       </c>
     </row>
@@ -20015,10 +20015,10 @@
       <c r="M14" s="318">
         <v>1</v>
       </c>
-      <c r="N14" s="346">
-        <v>0</v>
-      </c>
-      <c r="O14" s="346">
+      <c r="N14" s="328">
+        <v>0</v>
+      </c>
+      <c r="O14" s="328">
         <v>0</v>
       </c>
     </row>
@@ -20059,10 +20059,10 @@
       <c r="M15" s="316">
         <v>2</v>
       </c>
-      <c r="N15" s="346">
+      <c r="N15" s="328">
         <v>2</v>
       </c>
-      <c r="O15" s="346">
+      <c r="O15" s="328">
         <v>2</v>
       </c>
     </row>
@@ -20083,8 +20083,8 @@
       <c r="K16" s="317"/>
       <c r="L16" s="317"/>
       <c r="M16" s="318"/>
-      <c r="N16" s="347"/>
-      <c r="O16" s="347"/>
+      <c r="N16" s="329"/>
+      <c r="O16" s="329"/>
     </row>
     <row r="17" spans="2:15" s="197" customFormat="1">
       <c r="B17" s="291">
@@ -20120,13 +20120,13 @@
       <c r="L17" s="317">
         <v>2</v>
       </c>
-      <c r="M17" s="349">
+      <c r="M17" s="331">
         <v>2</v>
       </c>
-      <c r="N17" s="350">
+      <c r="N17" s="332">
         <v>2</v>
       </c>
-      <c r="O17" s="350">
+      <c r="O17" s="332">
         <v>2</v>
       </c>
     </row>
@@ -20164,13 +20164,13 @@
       <c r="L18" s="317">
         <v>4</v>
       </c>
-      <c r="M18" s="349">
+      <c r="M18" s="331">
         <v>4</v>
       </c>
-      <c r="N18" s="350">
+      <c r="N18" s="332">
         <v>4</v>
       </c>
-      <c r="O18" s="350">
+      <c r="O18" s="332">
         <v>4</v>
       </c>
     </row>
@@ -20208,13 +20208,13 @@
       <c r="L19" s="326">
         <v>6</v>
       </c>
-      <c r="M19" s="351">
+      <c r="M19" s="333">
         <v>6</v>
       </c>
-      <c r="N19" s="350">
+      <c r="N19" s="332">
         <v>6</v>
       </c>
-      <c r="O19" s="350">
+      <c r="O19" s="332">
         <v>6</v>
       </c>
     </row>
@@ -20235,8 +20235,8 @@
       <c r="K20" s="314"/>
       <c r="L20" s="314"/>
       <c r="M20" s="316"/>
-      <c r="N20" s="346"/>
-      <c r="O20" s="346"/>
+      <c r="N20" s="328"/>
+      <c r="O20" s="328"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="291">
@@ -20275,10 +20275,10 @@
       <c r="M21" s="316">
         <v>1</v>
       </c>
-      <c r="N21" s="346">
-        <v>0</v>
-      </c>
-      <c r="O21" s="346">
+      <c r="N21" s="328">
+        <v>0</v>
+      </c>
+      <c r="O21" s="328">
         <v>0</v>
       </c>
     </row>
@@ -20319,10 +20319,10 @@
       <c r="M22" s="316">
         <v>1</v>
       </c>
-      <c r="N22" s="346">
-        <v>0</v>
-      </c>
-      <c r="O22" s="346">
+      <c r="N22" s="328">
+        <v>0</v>
+      </c>
+      <c r="O22" s="328">
         <v>0</v>
       </c>
     </row>
@@ -20363,10 +20363,10 @@
       <c r="M23" s="316">
         <v>1</v>
       </c>
-      <c r="N23" s="346">
-        <v>0</v>
-      </c>
-      <c r="O23" s="346">
+      <c r="N23" s="328">
+        <v>0</v>
+      </c>
+      <c r="O23" s="328">
         <v>0</v>
       </c>
     </row>
@@ -20387,8 +20387,8 @@
       <c r="K24" s="317"/>
       <c r="L24" s="317"/>
       <c r="M24" s="318"/>
-      <c r="N24" s="346"/>
-      <c r="O24" s="346"/>
+      <c r="N24" s="328"/>
+      <c r="O24" s="328"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="291">
@@ -20427,10 +20427,10 @@
       <c r="M25" s="318">
         <v>4</v>
       </c>
-      <c r="N25" s="346">
+      <c r="N25" s="328">
         <v>4</v>
       </c>
-      <c r="O25" s="346">
+      <c r="O25" s="328">
         <v>4</v>
       </c>
     </row>
@@ -20471,10 +20471,10 @@
       <c r="M26" s="318">
         <v>2</v>
       </c>
-      <c r="N26" s="346">
+      <c r="N26" s="328">
         <v>2</v>
       </c>
-      <c r="O26" s="346">
+      <c r="O26" s="328">
         <v>2</v>
       </c>
     </row>
@@ -20515,10 +20515,10 @@
       <c r="M27" s="318">
         <v>4</v>
       </c>
-      <c r="N27" s="346">
+      <c r="N27" s="328">
         <v>4</v>
       </c>
-      <c r="O27" s="346">
+      <c r="O27" s="328">
         <v>4</v>
       </c>
     </row>
@@ -20559,10 +20559,10 @@
       <c r="M28" s="318">
         <v>2</v>
       </c>
-      <c r="N28" s="346">
+      <c r="N28" s="328">
         <v>2</v>
       </c>
-      <c r="O28" s="346">
+      <c r="O28" s="328">
         <v>2</v>
       </c>
     </row>
@@ -20581,8 +20581,8 @@
       <c r="K29" s="319"/>
       <c r="L29" s="319"/>
       <c r="M29" s="320"/>
-      <c r="N29" s="346"/>
-      <c r="O29" s="346"/>
+      <c r="N29" s="328"/>
+      <c r="O29" s="328"/>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="297">
@@ -20599,8 +20599,8 @@
       <c r="K30" s="314"/>
       <c r="L30" s="314"/>
       <c r="M30" s="316"/>
-      <c r="N30" s="346"/>
-      <c r="O30" s="346"/>
+      <c r="N30" s="328"/>
+      <c r="O30" s="328"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="291">
@@ -20617,8 +20617,8 @@
       <c r="K31" s="319"/>
       <c r="L31" s="319"/>
       <c r="M31" s="320"/>
-      <c r="N31" s="346"/>
-      <c r="O31" s="346"/>
+      <c r="N31" s="328"/>
+      <c r="O31" s="328"/>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="297">
@@ -20635,8 +20635,8 @@
       <c r="K32" s="314"/>
       <c r="L32" s="314"/>
       <c r="M32" s="316"/>
-      <c r="N32" s="346"/>
-      <c r="O32" s="346"/>
+      <c r="N32" s="328"/>
+      <c r="O32" s="328"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="291">
@@ -20653,8 +20653,8 @@
       <c r="K33" s="319"/>
       <c r="L33" s="319"/>
       <c r="M33" s="320"/>
-      <c r="N33" s="346"/>
-      <c r="O33" s="346"/>
+      <c r="N33" s="328"/>
+      <c r="O33" s="328"/>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="297">
@@ -20671,8 +20671,8 @@
       <c r="K34" s="319"/>
       <c r="L34" s="319"/>
       <c r="M34" s="320"/>
-      <c r="N34" s="346"/>
-      <c r="O34" s="346"/>
+      <c r="N34" s="328"/>
+      <c r="O34" s="328"/>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="291">
@@ -20689,8 +20689,8 @@
       <c r="K35" s="314"/>
       <c r="L35" s="314"/>
       <c r="M35" s="316"/>
-      <c r="N35" s="346"/>
-      <c r="O35" s="346"/>
+      <c r="N35" s="328"/>
+      <c r="O35" s="328"/>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="297">
@@ -20707,8 +20707,8 @@
       <c r="K36" s="314"/>
       <c r="L36" s="314"/>
       <c r="M36" s="316"/>
-      <c r="N36" s="346"/>
-      <c r="O36" s="346"/>
+      <c r="N36" s="328"/>
+      <c r="O36" s="328"/>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="291">
@@ -20725,8 +20725,8 @@
       <c r="K37" s="314"/>
       <c r="L37" s="314"/>
       <c r="M37" s="316"/>
-      <c r="N37" s="346"/>
-      <c r="O37" s="346"/>
+      <c r="N37" s="328"/>
+      <c r="O37" s="328"/>
     </row>
     <row r="38" spans="2:15">
       <c r="B38" s="297">
@@ -20743,8 +20743,8 @@
       <c r="K38" s="314"/>
       <c r="L38" s="314"/>
       <c r="M38" s="316"/>
-      <c r="N38" s="346"/>
-      <c r="O38" s="346"/>
+      <c r="N38" s="328"/>
+      <c r="O38" s="328"/>
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="291">
@@ -20761,8 +20761,8 @@
       <c r="K39" s="314"/>
       <c r="L39" s="314"/>
       <c r="M39" s="316"/>
-      <c r="N39" s="346"/>
-      <c r="O39" s="346"/>
+      <c r="N39" s="328"/>
+      <c r="O39" s="328"/>
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="297">
@@ -20779,8 +20779,8 @@
       <c r="K40" s="314"/>
       <c r="L40" s="314"/>
       <c r="M40" s="316"/>
-      <c r="N40" s="346"/>
-      <c r="O40" s="346"/>
+      <c r="N40" s="328"/>
+      <c r="O40" s="328"/>
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="291">
@@ -20797,8 +20797,8 @@
       <c r="K41" s="314"/>
       <c r="L41" s="314"/>
       <c r="M41" s="316"/>
-      <c r="N41" s="346"/>
-      <c r="O41" s="346"/>
+      <c r="N41" s="328"/>
+      <c r="O41" s="328"/>
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="297">
@@ -20815,8 +20815,8 @@
       <c r="K42" s="314"/>
       <c r="L42" s="314"/>
       <c r="M42" s="316"/>
-      <c r="N42" s="346"/>
-      <c r="O42" s="346"/>
+      <c r="N42" s="328"/>
+      <c r="O42" s="328"/>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="291">
@@ -20833,8 +20833,8 @@
       <c r="K43" s="314"/>
       <c r="L43" s="314"/>
       <c r="M43" s="316"/>
-      <c r="N43" s="346"/>
-      <c r="O43" s="346"/>
+      <c r="N43" s="328"/>
+      <c r="O43" s="328"/>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="297">
@@ -20851,8 +20851,8 @@
       <c r="K44" s="314"/>
       <c r="L44" s="314"/>
       <c r="M44" s="316"/>
-      <c r="N44" s="346"/>
-      <c r="O44" s="346"/>
+      <c r="N44" s="328"/>
+      <c r="O44" s="328"/>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="291">
@@ -20869,8 +20869,8 @@
       <c r="K45" s="314"/>
       <c r="L45" s="314"/>
       <c r="M45" s="316"/>
-      <c r="N45" s="346"/>
-      <c r="O45" s="346"/>
+      <c r="N45" s="328"/>
+      <c r="O45" s="328"/>
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="297">
@@ -20887,8 +20887,8 @@
       <c r="K46" s="314"/>
       <c r="L46" s="314"/>
       <c r="M46" s="316"/>
-      <c r="N46" s="346"/>
-      <c r="O46" s="346"/>
+      <c r="N46" s="328"/>
+      <c r="O46" s="328"/>
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="291">
@@ -20905,8 +20905,8 @@
       <c r="K47" s="314"/>
       <c r="L47" s="314"/>
       <c r="M47" s="316"/>
-      <c r="N47" s="346"/>
-      <c r="O47" s="346"/>
+      <c r="N47" s="328"/>
+      <c r="O47" s="328"/>
     </row>
     <row r="48" spans="2:15">
       <c r="B48" s="297">
@@ -20923,8 +20923,8 @@
       <c r="K48" s="314"/>
       <c r="L48" s="314"/>
       <c r="M48" s="316"/>
-      <c r="N48" s="346"/>
-      <c r="O48" s="346"/>
+      <c r="N48" s="328"/>
+      <c r="O48" s="328"/>
     </row>
     <row r="49" spans="2:15">
       <c r="B49" s="291">
@@ -20941,8 +20941,8 @@
       <c r="K49" s="314"/>
       <c r="L49" s="314"/>
       <c r="M49" s="316"/>
-      <c r="N49" s="346"/>
-      <c r="O49" s="346"/>
+      <c r="N49" s="328"/>
+      <c r="O49" s="328"/>
     </row>
     <row r="50" spans="2:15">
       <c r="B50" s="297">
@@ -20959,8 +20959,8 @@
       <c r="K50" s="314"/>
       <c r="L50" s="314"/>
       <c r="M50" s="316"/>
-      <c r="N50" s="346"/>
-      <c r="O50" s="346"/>
+      <c r="N50" s="328"/>
+      <c r="O50" s="328"/>
     </row>
     <row r="51" spans="2:15">
       <c r="B51" s="291">
@@ -20977,8 +20977,8 @@
       <c r="K51" s="314"/>
       <c r="L51" s="314"/>
       <c r="M51" s="316"/>
-      <c r="N51" s="346"/>
-      <c r="O51" s="346"/>
+      <c r="N51" s="328"/>
+      <c r="O51" s="328"/>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" s="297">
@@ -20995,8 +20995,8 @@
       <c r="K52" s="314"/>
       <c r="L52" s="314"/>
       <c r="M52" s="316"/>
-      <c r="N52" s="346"/>
-      <c r="O52" s="346"/>
+      <c r="N52" s="328"/>
+      <c r="O52" s="328"/>
     </row>
     <row r="53" spans="2:15">
       <c r="B53" s="291">
@@ -21013,8 +21013,8 @@
       <c r="K53" s="313"/>
       <c r="L53" s="313"/>
       <c r="M53" s="323"/>
-      <c r="N53" s="346"/>
-      <c r="O53" s="346"/>
+      <c r="N53" s="328"/>
+      <c r="O53" s="328"/>
     </row>
     <row r="54" spans="2:15">
       <c r="B54" s="304" t="s">
@@ -21031,8 +21031,8 @@
       <c r="K54" s="324"/>
       <c r="L54" s="324"/>
       <c r="M54" s="325"/>
-      <c r="N54" s="348"/>
-      <c r="O54" s="348"/>
+      <c r="N54" s="330"/>
+      <c r="O54" s="330"/>
     </row>
     <row r="101" spans="2:15" s="97" customFormat="1">
       <c r="B101" t="s">
@@ -21344,7 +21344,7 @@
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21382,12 +21382,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="344" t="s">
+      <c r="B7" s="371" t="s">
         <v>372</v>
       </c>
-      <c r="C7" s="344"/>
-      <c r="D7" s="344"/>
-      <c r="E7" s="344"/>
+      <c r="C7" s="371"/>
+      <c r="D7" s="371"/>
+      <c r="E7" s="371"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -21434,16 +21434,16 @@
       </c>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="353">
+      <c r="B11" s="335">
         <v>1</v>
       </c>
-      <c r="C11" s="352" t="s">
+      <c r="C11" s="334" t="s">
         <v>373</v>
       </c>
       <c r="D11" s="289" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="354" t="s">
+      <c r="E11" s="336" t="s">
         <v>351</v>
       </c>
       <c r="F11" s="285" t="s">
@@ -21452,26 +21452,28 @@
       <c r="G11" s="321">
         <v>8</v>
       </c>
-      <c r="H11" s="326"/>
+      <c r="H11" s="326">
+        <v>6</v>
+      </c>
       <c r="I11" s="326"/>
       <c r="J11" s="326"/>
       <c r="K11" s="326"/>
       <c r="L11" s="326"/>
-      <c r="M11" s="351"/>
-      <c r="N11" s="355"/>
-      <c r="O11" s="355"/>
+      <c r="M11" s="333"/>
+      <c r="N11" s="337"/>
+      <c r="O11" s="337"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="356">
+      <c r="B12" s="338">
         <v>2</v>
       </c>
-      <c r="C12" s="352" t="s">
+      <c r="C12" s="334" t="s">
         <v>381</v>
       </c>
       <c r="D12" s="289" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="354" t="s">
+      <c r="E12" s="336" t="s">
         <v>351</v>
       </c>
       <c r="F12" s="285" t="s">
@@ -21480,46 +21482,48 @@
       <c r="G12" s="321">
         <v>2</v>
       </c>
-      <c r="H12" s="326"/>
-      <c r="I12" s="357"/>
-      <c r="J12" s="357"/>
-      <c r="K12" s="357"/>
-      <c r="L12" s="357"/>
-      <c r="M12" s="349"/>
-      <c r="N12" s="350"/>
-      <c r="O12" s="350"/>
+      <c r="H12" s="326">
+        <v>2</v>
+      </c>
+      <c r="I12" s="339"/>
+      <c r="J12" s="339"/>
+      <c r="K12" s="339"/>
+      <c r="L12" s="339"/>
+      <c r="M12" s="331"/>
+      <c r="N12" s="332"/>
+      <c r="O12" s="332"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="353">
+      <c r="B13" s="335">
         <v>3</v>
       </c>
-      <c r="C13" s="352" t="s">
+      <c r="C13" s="334" t="s">
         <v>358</v>
       </c>
       <c r="D13" s="289"/>
-      <c r="E13" s="354"/>
+      <c r="E13" s="336"/>
       <c r="F13" s="285"/>
       <c r="G13" s="321"/>
       <c r="H13" s="326"/>
-      <c r="I13" s="357"/>
-      <c r="J13" s="357"/>
-      <c r="K13" s="357"/>
-      <c r="L13" s="357"/>
-      <c r="M13" s="349"/>
-      <c r="N13" s="350"/>
-      <c r="O13" s="350"/>
+      <c r="I13" s="339"/>
+      <c r="J13" s="339"/>
+      <c r="K13" s="339"/>
+      <c r="L13" s="339"/>
+      <c r="M13" s="331"/>
+      <c r="N13" s="332"/>
+      <c r="O13" s="332"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="356">
+      <c r="B14" s="338">
         <v>4</v>
       </c>
-      <c r="C14" s="358" t="s">
+      <c r="C14" s="340" t="s">
         <v>382</v>
       </c>
       <c r="D14" s="289" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="354" t="s">
+      <c r="E14" s="336" t="s">
         <v>351</v>
       </c>
       <c r="F14" s="285" t="s">
@@ -21528,26 +21532,28 @@
       <c r="G14" s="321">
         <v>2</v>
       </c>
-      <c r="H14" s="326"/>
-      <c r="I14" s="357"/>
-      <c r="J14" s="357"/>
-      <c r="K14" s="357"/>
-      <c r="L14" s="357"/>
-      <c r="M14" s="349"/>
-      <c r="N14" s="350"/>
-      <c r="O14" s="350"/>
+      <c r="H14" s="326">
+        <v>2</v>
+      </c>
+      <c r="I14" s="339"/>
+      <c r="J14" s="339"/>
+      <c r="K14" s="339"/>
+      <c r="L14" s="339"/>
+      <c r="M14" s="331"/>
+      <c r="N14" s="332"/>
+      <c r="O14" s="332"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="353">
+      <c r="B15" s="335">
         <v>5</v>
       </c>
-      <c r="C15" s="358" t="s">
+      <c r="C15" s="340" t="s">
         <v>383</v>
       </c>
       <c r="D15" s="289" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="354" t="s">
+      <c r="E15" s="336" t="s">
         <v>351</v>
       </c>
       <c r="F15" s="285" t="s">
@@ -21556,46 +21562,48 @@
       <c r="G15" s="321">
         <v>4</v>
       </c>
-      <c r="H15" s="326"/>
-      <c r="I15" s="357"/>
-      <c r="J15" s="357"/>
-      <c r="K15" s="357"/>
+      <c r="H15" s="326">
+        <v>4</v>
+      </c>
+      <c r="I15" s="339"/>
+      <c r="J15" s="339"/>
+      <c r="K15" s="339"/>
       <c r="L15" s="326"/>
-      <c r="M15" s="351"/>
-      <c r="N15" s="350"/>
-      <c r="O15" s="350"/>
+      <c r="M15" s="333"/>
+      <c r="N15" s="332"/>
+      <c r="O15" s="332"/>
     </row>
     <row r="16" spans="2:15" s="197" customFormat="1">
-      <c r="B16" s="356">
+      <c r="B16" s="338">
         <v>6</v>
       </c>
-      <c r="C16" s="352" t="s">
+      <c r="C16" s="334" t="s">
         <v>359</v>
       </c>
       <c r="D16" s="289"/>
-      <c r="E16" s="354"/>
+      <c r="E16" s="336"/>
       <c r="F16" s="285"/>
       <c r="G16" s="321"/>
       <c r="H16" s="326"/>
-      <c r="I16" s="357"/>
-      <c r="J16" s="357"/>
-      <c r="K16" s="357"/>
-      <c r="L16" s="357"/>
-      <c r="M16" s="349"/>
-      <c r="N16" s="350"/>
-      <c r="O16" s="350"/>
+      <c r="I16" s="339"/>
+      <c r="J16" s="339"/>
+      <c r="K16" s="339"/>
+      <c r="L16" s="339"/>
+      <c r="M16" s="331"/>
+      <c r="N16" s="332"/>
+      <c r="O16" s="332"/>
     </row>
     <row r="17" spans="2:15" s="197" customFormat="1">
-      <c r="B17" s="353">
+      <c r="B17" s="335">
         <v>7</v>
       </c>
-      <c r="C17" s="358" t="s">
+      <c r="C17" s="340" t="s">
         <v>360</v>
       </c>
       <c r="D17" s="289" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="354" t="s">
+      <c r="E17" s="336" t="s">
         <v>349</v>
       </c>
       <c r="F17" s="285" t="s">
@@ -21604,26 +21612,28 @@
       <c r="G17" s="321">
         <v>2</v>
       </c>
-      <c r="H17" s="326"/>
-      <c r="I17" s="357"/>
-      <c r="J17" s="357"/>
-      <c r="K17" s="357"/>
-      <c r="L17" s="357"/>
-      <c r="M17" s="349"/>
-      <c r="N17" s="350"/>
-      <c r="O17" s="350"/>
+      <c r="H17" s="326">
+        <v>2</v>
+      </c>
+      <c r="I17" s="339"/>
+      <c r="J17" s="339"/>
+      <c r="K17" s="339"/>
+      <c r="L17" s="339"/>
+      <c r="M17" s="331"/>
+      <c r="N17" s="332"/>
+      <c r="O17" s="332"/>
     </row>
     <row r="18" spans="2:15" s="197" customFormat="1">
-      <c r="B18" s="356">
+      <c r="B18" s="338">
         <v>8</v>
       </c>
-      <c r="C18" s="358" t="s">
+      <c r="C18" s="340" t="s">
         <v>361</v>
       </c>
       <c r="D18" s="289" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="354" t="s">
+      <c r="E18" s="336" t="s">
         <v>349</v>
       </c>
       <c r="F18" s="285" t="s">
@@ -21632,26 +21642,28 @@
       <c r="G18" s="321">
         <v>4</v>
       </c>
-      <c r="H18" s="326"/>
-      <c r="I18" s="357"/>
-      <c r="J18" s="357"/>
-      <c r="K18" s="357"/>
-      <c r="L18" s="357"/>
-      <c r="M18" s="349"/>
-      <c r="N18" s="350"/>
-      <c r="O18" s="350"/>
+      <c r="H18" s="326">
+        <v>4</v>
+      </c>
+      <c r="I18" s="339"/>
+      <c r="J18" s="339"/>
+      <c r="K18" s="339"/>
+      <c r="L18" s="339"/>
+      <c r="M18" s="331"/>
+      <c r="N18" s="332"/>
+      <c r="O18" s="332"/>
     </row>
     <row r="19" spans="2:15" s="197" customFormat="1">
-      <c r="B19" s="353">
+      <c r="B19" s="335">
         <v>9</v>
       </c>
-      <c r="C19" s="358" t="s">
+      <c r="C19" s="340" t="s">
         <v>362</v>
       </c>
       <c r="D19" s="289" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="354" t="s">
+      <c r="E19" s="336" t="s">
         <v>349</v>
       </c>
       <c r="F19" s="285" t="s">
@@ -21660,26 +21672,28 @@
       <c r="G19" s="321">
         <v>6</v>
       </c>
-      <c r="H19" s="326"/>
-      <c r="I19" s="357"/>
-      <c r="J19" s="357"/>
+      <c r="H19" s="326">
+        <v>6</v>
+      </c>
+      <c r="I19" s="339"/>
+      <c r="J19" s="339"/>
       <c r="K19" s="326"/>
       <c r="L19" s="326"/>
-      <c r="M19" s="351"/>
-      <c r="N19" s="350"/>
-      <c r="O19" s="350"/>
+      <c r="M19" s="333"/>
+      <c r="N19" s="332"/>
+      <c r="O19" s="332"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="356">
+      <c r="B20" s="338">
         <v>10</v>
       </c>
-      <c r="C20" s="352" t="s">
+      <c r="C20" s="334" t="s">
         <v>384</v>
       </c>
       <c r="D20" s="289" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="354" t="s">
+      <c r="E20" s="336" t="s">
         <v>349</v>
       </c>
       <c r="F20" s="285" t="s">
@@ -21688,26 +21702,28 @@
       <c r="G20" s="321">
         <v>3</v>
       </c>
-      <c r="H20" s="321"/>
+      <c r="H20" s="321">
+        <v>0</v>
+      </c>
       <c r="I20" s="326"/>
       <c r="J20" s="326"/>
       <c r="K20" s="326"/>
       <c r="L20" s="326"/>
-      <c r="M20" s="351"/>
-      <c r="N20" s="350"/>
-      <c r="O20" s="350"/>
+      <c r="M20" s="333"/>
+      <c r="N20" s="332"/>
+      <c r="O20" s="332"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="353">
+      <c r="B21" s="335">
         <v>11</v>
       </c>
-      <c r="C21" s="352" t="s">
+      <c r="C21" s="334" t="s">
         <v>385</v>
       </c>
       <c r="D21" s="289" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="354" t="s">
+      <c r="E21" s="336" t="s">
         <v>349</v>
       </c>
       <c r="F21" s="285" t="s">
@@ -21716,46 +21732,48 @@
       <c r="G21" s="321">
         <v>3</v>
       </c>
-      <c r="H21" s="326"/>
+      <c r="H21" s="326">
+        <v>2</v>
+      </c>
       <c r="I21" s="326"/>
       <c r="J21" s="326"/>
       <c r="K21" s="326"/>
       <c r="L21" s="326"/>
-      <c r="M21" s="351"/>
-      <c r="N21" s="350"/>
-      <c r="O21" s="350"/>
+      <c r="M21" s="333"/>
+      <c r="N21" s="332"/>
+      <c r="O21" s="332"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="356">
+      <c r="B22" s="338">
         <v>12</v>
       </c>
-      <c r="C22" s="352" t="s">
+      <c r="C22" s="334" t="s">
         <v>367</v>
       </c>
       <c r="D22" s="289"/>
-      <c r="E22" s="354"/>
+      <c r="E22" s="336"/>
       <c r="F22" s="285"/>
       <c r="G22" s="321"/>
       <c r="H22" s="326"/>
-      <c r="I22" s="357"/>
-      <c r="J22" s="357"/>
-      <c r="K22" s="357"/>
-      <c r="L22" s="357"/>
-      <c r="M22" s="349"/>
-      <c r="N22" s="350"/>
-      <c r="O22" s="350"/>
+      <c r="I22" s="339"/>
+      <c r="J22" s="339"/>
+      <c r="K22" s="339"/>
+      <c r="L22" s="339"/>
+      <c r="M22" s="331"/>
+      <c r="N22" s="332"/>
+      <c r="O22" s="332"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="353">
+      <c r="B23" s="335">
         <v>13</v>
       </c>
-      <c r="C23" s="358" t="s">
+      <c r="C23" s="340" t="s">
         <v>368</v>
       </c>
       <c r="D23" s="289" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="354" t="s">
+      <c r="E23" s="336" t="s">
         <v>350</v>
       </c>
       <c r="F23" s="285" t="s">
@@ -21765,25 +21783,25 @@
         <v>5</v>
       </c>
       <c r="H23" s="326"/>
-      <c r="I23" s="357"/>
-      <c r="J23" s="357"/>
-      <c r="K23" s="357"/>
-      <c r="L23" s="357"/>
-      <c r="M23" s="349"/>
-      <c r="N23" s="350"/>
-      <c r="O23" s="350"/>
+      <c r="I23" s="339"/>
+      <c r="J23" s="339"/>
+      <c r="K23" s="339"/>
+      <c r="L23" s="339"/>
+      <c r="M23" s="331"/>
+      <c r="N23" s="332"/>
+      <c r="O23" s="332"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="356">
+      <c r="B24" s="338">
         <v>14</v>
       </c>
-      <c r="C24" s="359" t="s">
+      <c r="C24" s="341" t="s">
         <v>370</v>
       </c>
       <c r="D24" s="289" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="354" t="s">
+      <c r="E24" s="336" t="s">
         <v>350</v>
       </c>
       <c r="F24" s="285" t="s">
@@ -21793,25 +21811,25 @@
         <v>2</v>
       </c>
       <c r="H24" s="326"/>
-      <c r="I24" s="357"/>
-      <c r="J24" s="357"/>
-      <c r="K24" s="357"/>
-      <c r="L24" s="357"/>
-      <c r="M24" s="349"/>
-      <c r="N24" s="350"/>
-      <c r="O24" s="350"/>
+      <c r="I24" s="339"/>
+      <c r="J24" s="339"/>
+      <c r="K24" s="339"/>
+      <c r="L24" s="339"/>
+      <c r="M24" s="331"/>
+      <c r="N24" s="332"/>
+      <c r="O24" s="332"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="353">
+      <c r="B25" s="335">
         <v>15</v>
       </c>
-      <c r="C25" s="358" t="s">
+      <c r="C25" s="340" t="s">
         <v>369</v>
       </c>
       <c r="D25" s="289" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="354" t="s">
+      <c r="E25" s="336" t="s">
         <v>350</v>
       </c>
       <c r="F25" s="285" t="s">
@@ -21821,25 +21839,25 @@
         <v>5</v>
       </c>
       <c r="H25" s="326"/>
-      <c r="I25" s="357"/>
-      <c r="J25" s="357"/>
-      <c r="K25" s="357"/>
-      <c r="L25" s="357"/>
-      <c r="M25" s="349"/>
-      <c r="N25" s="350"/>
-      <c r="O25" s="350"/>
+      <c r="I25" s="339"/>
+      <c r="J25" s="339"/>
+      <c r="K25" s="339"/>
+      <c r="L25" s="339"/>
+      <c r="M25" s="331"/>
+      <c r="N25" s="332"/>
+      <c r="O25" s="332"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="356">
+      <c r="B26" s="338">
         <v>16</v>
       </c>
-      <c r="C26" s="359" t="s">
+      <c r="C26" s="341" t="s">
         <v>371</v>
       </c>
       <c r="D26" s="289" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="354" t="s">
+      <c r="E26" s="336" t="s">
         <v>350</v>
       </c>
       <c r="F26" s="285" t="s">
@@ -21849,45 +21867,45 @@
         <v>2</v>
       </c>
       <c r="H26" s="326"/>
-      <c r="I26" s="357"/>
-      <c r="J26" s="357"/>
-      <c r="K26" s="357"/>
-      <c r="L26" s="357"/>
-      <c r="M26" s="349"/>
-      <c r="N26" s="350"/>
-      <c r="O26" s="350"/>
+      <c r="I26" s="339"/>
+      <c r="J26" s="339"/>
+      <c r="K26" s="339"/>
+      <c r="L26" s="339"/>
+      <c r="M26" s="331"/>
+      <c r="N26" s="332"/>
+      <c r="O26" s="332"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="353">
+      <c r="B27" s="335">
         <v>17</v>
       </c>
-      <c r="C27" s="352" t="s">
+      <c r="C27" s="334" t="s">
         <v>359</v>
       </c>
       <c r="D27" s="289"/>
-      <c r="E27" s="354"/>
+      <c r="E27" s="336"/>
       <c r="F27" s="285"/>
       <c r="G27" s="321"/>
       <c r="H27" s="326"/>
-      <c r="I27" s="357"/>
-      <c r="J27" s="357"/>
-      <c r="K27" s="357"/>
-      <c r="L27" s="357"/>
-      <c r="M27" s="349"/>
-      <c r="N27" s="350"/>
-      <c r="O27" s="350"/>
+      <c r="I27" s="339"/>
+      <c r="J27" s="339"/>
+      <c r="K27" s="339"/>
+      <c r="L27" s="339"/>
+      <c r="M27" s="331"/>
+      <c r="N27" s="332"/>
+      <c r="O27" s="332"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="356">
+      <c r="B28" s="338">
         <v>18</v>
       </c>
-      <c r="C28" s="359" t="s">
+      <c r="C28" s="341" t="s">
         <v>386</v>
       </c>
       <c r="D28" s="289" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="354" t="s">
+      <c r="E28" s="336" t="s">
         <v>350</v>
       </c>
       <c r="F28" s="285" t="s">
@@ -21897,23 +21915,23 @@
         <v>4</v>
       </c>
       <c r="H28" s="326"/>
-      <c r="I28" s="357"/>
-      <c r="J28" s="357"/>
-      <c r="K28" s="357"/>
-      <c r="L28" s="357"/>
-      <c r="M28" s="349"/>
-      <c r="N28" s="350"/>
-      <c r="O28" s="350"/>
+      <c r="I28" s="339"/>
+      <c r="J28" s="339"/>
+      <c r="K28" s="339"/>
+      <c r="L28" s="339"/>
+      <c r="M28" s="331"/>
+      <c r="N28" s="332"/>
+      <c r="O28" s="332"/>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="353">
+      <c r="B29" s="335">
         <v>19</v>
       </c>
-      <c r="C29" s="352" t="s">
+      <c r="C29" s="334" t="s">
         <v>388</v>
       </c>
       <c r="D29" s="289"/>
-      <c r="E29" s="354"/>
+      <c r="E29" s="336"/>
       <c r="F29" s="285"/>
       <c r="G29" s="321"/>
       <c r="H29" s="326"/>
@@ -21921,21 +21939,21 @@
       <c r="J29" s="326"/>
       <c r="K29" s="326"/>
       <c r="L29" s="326"/>
-      <c r="M29" s="351"/>
-      <c r="N29" s="350"/>
-      <c r="O29" s="350"/>
+      <c r="M29" s="333"/>
+      <c r="N29" s="332"/>
+      <c r="O29" s="332"/>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="356">
+      <c r="B30" s="338">
         <v>20</v>
       </c>
-      <c r="C30" s="358" t="s">
+      <c r="C30" s="340" t="s">
         <v>387</v>
       </c>
       <c r="D30" s="289" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="354" t="s">
+      <c r="E30" s="336" t="s">
         <v>352</v>
       </c>
       <c r="F30" s="285" t="s">
@@ -21944,26 +21962,30 @@
       <c r="G30" s="321">
         <v>5</v>
       </c>
-      <c r="H30" s="326"/>
-      <c r="I30" s="326"/>
+      <c r="H30" s="326">
+        <v>3</v>
+      </c>
+      <c r="I30" s="326">
+        <v>0</v>
+      </c>
       <c r="J30" s="326"/>
       <c r="K30" s="326"/>
       <c r="L30" s="326"/>
-      <c r="M30" s="351"/>
-      <c r="N30" s="350"/>
-      <c r="O30" s="350"/>
+      <c r="M30" s="333"/>
+      <c r="N30" s="332"/>
+      <c r="O30" s="332"/>
     </row>
     <row r="31" spans="2:15">
-      <c r="B31" s="353">
+      <c r="B31" s="335">
         <v>21</v>
       </c>
-      <c r="C31" s="359" t="s">
+      <c r="C31" s="341" t="s">
         <v>391</v>
       </c>
       <c r="D31" s="289" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="354" t="s">
+      <c r="E31" s="336" t="s">
         <v>352</v>
       </c>
       <c r="F31" s="285" t="s">
@@ -21977,21 +21999,21 @@
       <c r="J31" s="326"/>
       <c r="K31" s="326"/>
       <c r="L31" s="326"/>
-      <c r="M31" s="351"/>
-      <c r="N31" s="350"/>
-      <c r="O31" s="350"/>
+      <c r="M31" s="333"/>
+      <c r="N31" s="332"/>
+      <c r="O31" s="332"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="356">
+      <c r="B32" s="338">
         <v>22</v>
       </c>
-      <c r="C32" s="358" t="s">
+      <c r="C32" s="340" t="s">
         <v>389</v>
       </c>
       <c r="D32" s="289" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="354" t="s">
+      <c r="E32" s="336" t="s">
         <v>352</v>
       </c>
       <c r="F32" s="285" t="s">
@@ -22005,21 +22027,21 @@
       <c r="J32" s="326"/>
       <c r="K32" s="326"/>
       <c r="L32" s="326"/>
-      <c r="M32" s="351"/>
-      <c r="N32" s="350"/>
-      <c r="O32" s="350"/>
+      <c r="M32" s="333"/>
+      <c r="N32" s="332"/>
+      <c r="O32" s="332"/>
     </row>
     <row r="33" spans="2:15">
-      <c r="B33" s="353">
+      <c r="B33" s="335">
         <v>23</v>
       </c>
-      <c r="C33" s="358" t="s">
+      <c r="C33" s="340" t="s">
         <v>390</v>
       </c>
       <c r="D33" s="289" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="354" t="s">
+      <c r="E33" s="336" t="s">
         <v>352</v>
       </c>
       <c r="F33" s="285" t="s">
@@ -22033,17 +22055,17 @@
       <c r="J33" s="326"/>
       <c r="K33" s="326"/>
       <c r="L33" s="326"/>
-      <c r="M33" s="351"/>
-      <c r="N33" s="350"/>
-      <c r="O33" s="350"/>
+      <c r="M33" s="333"/>
+      <c r="N33" s="332"/>
+      <c r="O33" s="332"/>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="356">
+      <c r="B34" s="338">
         <v>24</v>
       </c>
-      <c r="C34" s="360"/>
+      <c r="C34" s="342"/>
       <c r="D34" s="289"/>
-      <c r="E34" s="354"/>
+      <c r="E34" s="336"/>
       <c r="F34" s="285"/>
       <c r="G34" s="321"/>
       <c r="H34" s="326"/>
@@ -22051,17 +22073,17 @@
       <c r="J34" s="326"/>
       <c r="K34" s="326"/>
       <c r="L34" s="326"/>
-      <c r="M34" s="351"/>
-      <c r="N34" s="350"/>
-      <c r="O34" s="350"/>
+      <c r="M34" s="333"/>
+      <c r="N34" s="332"/>
+      <c r="O34" s="332"/>
     </row>
     <row r="35" spans="2:15">
-      <c r="B35" s="353">
+      <c r="B35" s="335">
         <v>25</v>
       </c>
-      <c r="C35" s="360"/>
+      <c r="C35" s="342"/>
       <c r="D35" s="289"/>
-      <c r="E35" s="354"/>
+      <c r="E35" s="336"/>
       <c r="F35" s="285"/>
       <c r="G35" s="321"/>
       <c r="H35" s="326"/>
@@ -22069,17 +22091,17 @@
       <c r="J35" s="326"/>
       <c r="K35" s="326"/>
       <c r="L35" s="326"/>
-      <c r="M35" s="351"/>
-      <c r="N35" s="350"/>
-      <c r="O35" s="350"/>
+      <c r="M35" s="333"/>
+      <c r="N35" s="332"/>
+      <c r="O35" s="332"/>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="356">
+      <c r="B36" s="338">
         <v>26</v>
       </c>
-      <c r="C36" s="354"/>
+      <c r="C36" s="336"/>
       <c r="D36" s="289"/>
-      <c r="E36" s="354"/>
+      <c r="E36" s="336"/>
       <c r="F36" s="285"/>
       <c r="G36" s="321"/>
       <c r="H36" s="326"/>
@@ -22087,17 +22109,17 @@
       <c r="J36" s="326"/>
       <c r="K36" s="326"/>
       <c r="L36" s="326"/>
-      <c r="M36" s="351"/>
-      <c r="N36" s="350"/>
-      <c r="O36" s="350"/>
+      <c r="M36" s="333"/>
+      <c r="N36" s="332"/>
+      <c r="O36" s="332"/>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="353">
+      <c r="B37" s="335">
         <v>27</v>
       </c>
-      <c r="C37" s="354"/>
+      <c r="C37" s="336"/>
       <c r="D37" s="289"/>
-      <c r="E37" s="354"/>
+      <c r="E37" s="336"/>
       <c r="F37" s="285"/>
       <c r="G37" s="321"/>
       <c r="H37" s="326"/>
@@ -22105,17 +22127,17 @@
       <c r="J37" s="326"/>
       <c r="K37" s="326"/>
       <c r="L37" s="326"/>
-      <c r="M37" s="351"/>
-      <c r="N37" s="350"/>
-      <c r="O37" s="350"/>
+      <c r="M37" s="333"/>
+      <c r="N37" s="332"/>
+      <c r="O37" s="332"/>
     </row>
     <row r="38" spans="2:15">
-      <c r="B38" s="356">
+      <c r="B38" s="338">
         <v>28</v>
       </c>
-      <c r="C38" s="354"/>
+      <c r="C38" s="336"/>
       <c r="D38" s="289"/>
-      <c r="E38" s="354"/>
+      <c r="E38" s="336"/>
       <c r="F38" s="285"/>
       <c r="G38" s="321"/>
       <c r="H38" s="326"/>
@@ -22123,17 +22145,17 @@
       <c r="J38" s="326"/>
       <c r="K38" s="326"/>
       <c r="L38" s="326"/>
-      <c r="M38" s="351"/>
-      <c r="N38" s="350"/>
-      <c r="O38" s="350"/>
+      <c r="M38" s="333"/>
+      <c r="N38" s="332"/>
+      <c r="O38" s="332"/>
     </row>
     <row r="39" spans="2:15">
-      <c r="B39" s="353">
+      <c r="B39" s="335">
         <v>29</v>
       </c>
-      <c r="C39" s="361"/>
+      <c r="C39" s="343"/>
       <c r="D39" s="289"/>
-      <c r="E39" s="354"/>
+      <c r="E39" s="336"/>
       <c r="F39" s="285"/>
       <c r="G39" s="321"/>
       <c r="H39" s="326"/>
@@ -22141,17 +22163,17 @@
       <c r="J39" s="326"/>
       <c r="K39" s="326"/>
       <c r="L39" s="326"/>
-      <c r="M39" s="351"/>
-      <c r="N39" s="350"/>
-      <c r="O39" s="350"/>
+      <c r="M39" s="333"/>
+      <c r="N39" s="332"/>
+      <c r="O39" s="332"/>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" s="356">
+      <c r="B40" s="338">
         <v>30</v>
       </c>
-      <c r="C40" s="361"/>
+      <c r="C40" s="343"/>
       <c r="D40" s="289"/>
-      <c r="E40" s="354"/>
+      <c r="E40" s="336"/>
       <c r="F40" s="285"/>
       <c r="G40" s="321"/>
       <c r="H40" s="326"/>
@@ -22159,17 +22181,17 @@
       <c r="J40" s="326"/>
       <c r="K40" s="326"/>
       <c r="L40" s="326"/>
-      <c r="M40" s="351"/>
-      <c r="N40" s="350"/>
-      <c r="O40" s="350"/>
+      <c r="M40" s="333"/>
+      <c r="N40" s="332"/>
+      <c r="O40" s="332"/>
     </row>
     <row r="41" spans="2:15">
-      <c r="B41" s="353">
+      <c r="B41" s="335">
         <v>31</v>
       </c>
-      <c r="C41" s="361"/>
+      <c r="C41" s="343"/>
       <c r="D41" s="289"/>
-      <c r="E41" s="354"/>
+      <c r="E41" s="336"/>
       <c r="F41" s="285"/>
       <c r="G41" s="321"/>
       <c r="H41" s="326"/>
@@ -22177,17 +22199,17 @@
       <c r="J41" s="326"/>
       <c r="K41" s="326"/>
       <c r="L41" s="326"/>
-      <c r="M41" s="351"/>
-      <c r="N41" s="350"/>
-      <c r="O41" s="350"/>
+      <c r="M41" s="333"/>
+      <c r="N41" s="332"/>
+      <c r="O41" s="332"/>
     </row>
     <row r="42" spans="2:15">
-      <c r="B42" s="356">
+      <c r="B42" s="338">
         <v>32</v>
       </c>
-      <c r="C42" s="361"/>
+      <c r="C42" s="343"/>
       <c r="D42" s="289"/>
-      <c r="E42" s="354"/>
+      <c r="E42" s="336"/>
       <c r="F42" s="285"/>
       <c r="G42" s="321"/>
       <c r="H42" s="326"/>
@@ -22195,17 +22217,17 @@
       <c r="J42" s="326"/>
       <c r="K42" s="326"/>
       <c r="L42" s="326"/>
-      <c r="M42" s="351"/>
-      <c r="N42" s="350"/>
-      <c r="O42" s="350"/>
+      <c r="M42" s="333"/>
+      <c r="N42" s="332"/>
+      <c r="O42" s="332"/>
     </row>
     <row r="43" spans="2:15">
-      <c r="B43" s="353">
+      <c r="B43" s="335">
         <v>33</v>
       </c>
-      <c r="C43" s="361"/>
+      <c r="C43" s="343"/>
       <c r="D43" s="289"/>
-      <c r="E43" s="354"/>
+      <c r="E43" s="336"/>
       <c r="F43" s="285"/>
       <c r="G43" s="321"/>
       <c r="H43" s="326"/>
@@ -22213,17 +22235,17 @@
       <c r="J43" s="326"/>
       <c r="K43" s="326"/>
       <c r="L43" s="326"/>
-      <c r="M43" s="351"/>
-      <c r="N43" s="350"/>
-      <c r="O43" s="350"/>
+      <c r="M43" s="333"/>
+      <c r="N43" s="332"/>
+      <c r="O43" s="332"/>
     </row>
     <row r="44" spans="2:15">
-      <c r="B44" s="356">
+      <c r="B44" s="338">
         <v>34</v>
       </c>
-      <c r="C44" s="358"/>
+      <c r="C44" s="340"/>
       <c r="D44" s="289"/>
-      <c r="E44" s="354"/>
+      <c r="E44" s="336"/>
       <c r="F44" s="285"/>
       <c r="G44" s="321"/>
       <c r="H44" s="326"/>
@@ -22231,17 +22253,17 @@
       <c r="J44" s="326"/>
       <c r="K44" s="326"/>
       <c r="L44" s="326"/>
-      <c r="M44" s="351"/>
-      <c r="N44" s="350"/>
-      <c r="O44" s="350"/>
+      <c r="M44" s="333"/>
+      <c r="N44" s="332"/>
+      <c r="O44" s="332"/>
     </row>
     <row r="45" spans="2:15">
-      <c r="B45" s="353">
+      <c r="B45" s="335">
         <v>35</v>
       </c>
-      <c r="C45" s="361"/>
+      <c r="C45" s="343"/>
       <c r="D45" s="289"/>
-      <c r="E45" s="354"/>
+      <c r="E45" s="336"/>
       <c r="F45" s="285"/>
       <c r="G45" s="321"/>
       <c r="H45" s="326"/>
@@ -22249,17 +22271,17 @@
       <c r="J45" s="326"/>
       <c r="K45" s="326"/>
       <c r="L45" s="326"/>
-      <c r="M45" s="351"/>
-      <c r="N45" s="350"/>
-      <c r="O45" s="350"/>
+      <c r="M45" s="333"/>
+      <c r="N45" s="332"/>
+      <c r="O45" s="332"/>
     </row>
     <row r="46" spans="2:15">
-      <c r="B46" s="356">
+      <c r="B46" s="338">
         <v>36</v>
       </c>
-      <c r="C46" s="361"/>
+      <c r="C46" s="343"/>
       <c r="D46" s="289"/>
-      <c r="E46" s="354"/>
+      <c r="E46" s="336"/>
       <c r="F46" s="285"/>
       <c r="G46" s="321"/>
       <c r="H46" s="326"/>
@@ -22267,17 +22289,17 @@
       <c r="J46" s="326"/>
       <c r="K46" s="326"/>
       <c r="L46" s="326"/>
-      <c r="M46" s="351"/>
-      <c r="N46" s="350"/>
-      <c r="O46" s="350"/>
+      <c r="M46" s="333"/>
+      <c r="N46" s="332"/>
+      <c r="O46" s="332"/>
     </row>
     <row r="47" spans="2:15">
-      <c r="B47" s="353">
+      <c r="B47" s="335">
         <v>37</v>
       </c>
-      <c r="C47" s="361"/>
+      <c r="C47" s="343"/>
       <c r="D47" s="289"/>
-      <c r="E47" s="354"/>
+      <c r="E47" s="336"/>
       <c r="F47" s="285"/>
       <c r="G47" s="321"/>
       <c r="H47" s="326"/>
@@ -22285,17 +22307,17 @@
       <c r="J47" s="326"/>
       <c r="K47" s="326"/>
       <c r="L47" s="326"/>
-      <c r="M47" s="351"/>
-      <c r="N47" s="350"/>
-      <c r="O47" s="350"/>
+      <c r="M47" s="333"/>
+      <c r="N47" s="332"/>
+      <c r="O47" s="332"/>
     </row>
     <row r="48" spans="2:15">
-      <c r="B48" s="356">
+      <c r="B48" s="338">
         <v>38</v>
       </c>
-      <c r="C48" s="361"/>
+      <c r="C48" s="343"/>
       <c r="D48" s="289"/>
-      <c r="E48" s="354"/>
+      <c r="E48" s="336"/>
       <c r="F48" s="285"/>
       <c r="G48" s="321"/>
       <c r="H48" s="326"/>
@@ -22303,17 +22325,17 @@
       <c r="J48" s="326"/>
       <c r="K48" s="326"/>
       <c r="L48" s="326"/>
-      <c r="M48" s="351"/>
-      <c r="N48" s="350"/>
-      <c r="O48" s="350"/>
+      <c r="M48" s="333"/>
+      <c r="N48" s="332"/>
+      <c r="O48" s="332"/>
     </row>
     <row r="49" spans="2:15">
-      <c r="B49" s="353">
+      <c r="B49" s="335">
         <v>39</v>
       </c>
-      <c r="C49" s="358"/>
+      <c r="C49" s="340"/>
       <c r="D49" s="289"/>
-      <c r="E49" s="354"/>
+      <c r="E49" s="336"/>
       <c r="F49" s="285"/>
       <c r="G49" s="321"/>
       <c r="H49" s="326"/>
@@ -22321,17 +22343,17 @@
       <c r="J49" s="326"/>
       <c r="K49" s="326"/>
       <c r="L49" s="326"/>
-      <c r="M49" s="351"/>
-      <c r="N49" s="350"/>
-      <c r="O49" s="350"/>
+      <c r="M49" s="333"/>
+      <c r="N49" s="332"/>
+      <c r="O49" s="332"/>
     </row>
     <row r="50" spans="2:15">
-      <c r="B50" s="356">
+      <c r="B50" s="338">
         <v>40</v>
       </c>
-      <c r="C50" s="358"/>
+      <c r="C50" s="340"/>
       <c r="D50" s="289"/>
-      <c r="E50" s="354"/>
+      <c r="E50" s="336"/>
       <c r="F50" s="285"/>
       <c r="G50" s="321"/>
       <c r="H50" s="326"/>
@@ -22339,17 +22361,17 @@
       <c r="J50" s="326"/>
       <c r="K50" s="326"/>
       <c r="L50" s="326"/>
-      <c r="M50" s="351"/>
-      <c r="N50" s="350"/>
-      <c r="O50" s="350"/>
+      <c r="M50" s="333"/>
+      <c r="N50" s="332"/>
+      <c r="O50" s="332"/>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="353">
+      <c r="B51" s="335">
         <v>41</v>
       </c>
-      <c r="C51" s="358"/>
+      <c r="C51" s="340"/>
       <c r="D51" s="289"/>
-      <c r="E51" s="354"/>
+      <c r="E51" s="336"/>
       <c r="F51" s="285"/>
       <c r="G51" s="321"/>
       <c r="H51" s="326"/>
@@ -22357,17 +22379,17 @@
       <c r="J51" s="326"/>
       <c r="K51" s="326"/>
       <c r="L51" s="326"/>
-      <c r="M51" s="351"/>
-      <c r="N51" s="350"/>
-      <c r="O51" s="350"/>
+      <c r="M51" s="333"/>
+      <c r="N51" s="332"/>
+      <c r="O51" s="332"/>
     </row>
     <row r="52" spans="2:15">
-      <c r="B52" s="356">
+      <c r="B52" s="338">
         <v>42</v>
       </c>
-      <c r="C52" s="358"/>
+      <c r="C52" s="340"/>
       <c r="D52" s="289"/>
-      <c r="E52" s="354"/>
+      <c r="E52" s="336"/>
       <c r="F52" s="285"/>
       <c r="G52" s="321"/>
       <c r="H52" s="326"/>
@@ -22375,17 +22397,17 @@
       <c r="J52" s="326"/>
       <c r="K52" s="326"/>
       <c r="L52" s="326"/>
-      <c r="M52" s="351"/>
-      <c r="N52" s="350"/>
-      <c r="O52" s="350"/>
+      <c r="M52" s="333"/>
+      <c r="N52" s="332"/>
+      <c r="O52" s="332"/>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" s="353">
+      <c r="B53" s="335">
         <v>43</v>
       </c>
-      <c r="C53" s="362"/>
+      <c r="C53" s="344"/>
       <c r="D53" s="289"/>
-      <c r="E53" s="354"/>
+      <c r="E53" s="336"/>
       <c r="F53" s="285"/>
       <c r="G53" s="321"/>
       <c r="H53" s="321"/>
@@ -22393,27 +22415,27 @@
       <c r="J53" s="321"/>
       <c r="K53" s="321"/>
       <c r="L53" s="321"/>
-      <c r="M53" s="363"/>
-      <c r="N53" s="350"/>
-      <c r="O53" s="350"/>
+      <c r="M53" s="345"/>
+      <c r="N53" s="332"/>
+      <c r="O53" s="332"/>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="364" t="s">
+      <c r="B54" s="346" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="365"/>
-      <c r="D54" s="366"/>
-      <c r="E54" s="367"/>
-      <c r="F54" s="368"/>
-      <c r="G54" s="369"/>
-      <c r="H54" s="369"/>
-      <c r="I54" s="369"/>
-      <c r="J54" s="369"/>
-      <c r="K54" s="369"/>
-      <c r="L54" s="369"/>
-      <c r="M54" s="370"/>
-      <c r="N54" s="371"/>
-      <c r="O54" s="371"/>
+      <c r="C54" s="347"/>
+      <c r="D54" s="348"/>
+      <c r="E54" s="349"/>
+      <c r="F54" s="350"/>
+      <c r="G54" s="351"/>
+      <c r="H54" s="351"/>
+      <c r="I54" s="351"/>
+      <c r="J54" s="351"/>
+      <c r="K54" s="351"/>
+      <c r="L54" s="351"/>
+      <c r="M54" s="352"/>
+      <c r="N54" s="353"/>
+      <c r="O54" s="353"/>
     </row>
     <row r="101" spans="2:15" s="97" customFormat="1">
       <c r="B101" t="s">

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -21344,7 +21344,7 @@
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21705,7 +21705,9 @@
       <c r="H20" s="321">
         <v>0</v>
       </c>
-      <c r="I20" s="326"/>
+      <c r="I20" s="326">
+        <v>0</v>
+      </c>
       <c r="J20" s="326"/>
       <c r="K20" s="326"/>
       <c r="L20" s="326"/>
@@ -21735,7 +21737,9 @@
       <c r="H21" s="326">
         <v>2</v>
       </c>
-      <c r="I21" s="326"/>
+      <c r="I21" s="326">
+        <v>0</v>
+      </c>
       <c r="J21" s="326"/>
       <c r="K21" s="326"/>
       <c r="L21" s="326"/>
@@ -21782,8 +21786,12 @@
       <c r="G23" s="321">
         <v>5</v>
       </c>
-      <c r="H23" s="326"/>
-      <c r="I23" s="339"/>
+      <c r="H23" s="326">
+        <v>5</v>
+      </c>
+      <c r="I23" s="339">
+        <v>4</v>
+      </c>
       <c r="J23" s="339"/>
       <c r="K23" s="339"/>
       <c r="L23" s="339"/>
@@ -21810,7 +21818,9 @@
       <c r="G24" s="321">
         <v>2</v>
       </c>
-      <c r="H24" s="326"/>
+      <c r="H24" s="326">
+        <v>2</v>
+      </c>
       <c r="I24" s="339"/>
       <c r="J24" s="339"/>
       <c r="K24" s="339"/>
@@ -21838,8 +21848,12 @@
       <c r="G25" s="321">
         <v>5</v>
       </c>
-      <c r="H25" s="326"/>
-      <c r="I25" s="339"/>
+      <c r="H25" s="326">
+        <v>5</v>
+      </c>
+      <c r="I25" s="339">
+        <v>4</v>
+      </c>
       <c r="J25" s="339"/>
       <c r="K25" s="339"/>
       <c r="L25" s="339"/>
@@ -21866,7 +21880,9 @@
       <c r="G26" s="321">
         <v>2</v>
       </c>
-      <c r="H26" s="326"/>
+      <c r="H26" s="326">
+        <v>2</v>
+      </c>
       <c r="I26" s="339"/>
       <c r="J26" s="339"/>
       <c r="K26" s="339"/>
@@ -21914,7 +21930,9 @@
       <c r="G28" s="321">
         <v>4</v>
       </c>
-      <c r="H28" s="326"/>
+      <c r="H28" s="326">
+        <v>4</v>
+      </c>
       <c r="I28" s="339"/>
       <c r="J28" s="339"/>
       <c r="K28" s="339"/>
@@ -21994,7 +22012,9 @@
       <c r="G31" s="321">
         <v>4</v>
       </c>
-      <c r="H31" s="326"/>
+      <c r="H31" s="326">
+        <v>4</v>
+      </c>
       <c r="I31" s="326"/>
       <c r="J31" s="326"/>
       <c r="K31" s="326"/>
@@ -22022,7 +22042,9 @@
       <c r="G32" s="321">
         <v>4</v>
       </c>
-      <c r="H32" s="326"/>
+      <c r="H32" s="326">
+        <v>4</v>
+      </c>
       <c r="I32" s="326"/>
       <c r="J32" s="326"/>
       <c r="K32" s="326"/>
@@ -22050,7 +22072,9 @@
       <c r="G33" s="321">
         <v>4</v>
       </c>
-      <c r="H33" s="326"/>
+      <c r="H33" s="326">
+        <v>4</v>
+      </c>
       <c r="I33" s="326"/>
       <c r="J33" s="326"/>
       <c r="K33" s="326"/>

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sprint9_0716_0722" sheetId="8" r:id="rId6"/>
     <sheet name="Sprint01_0805_1205" sheetId="9" r:id="rId7"/>
     <sheet name="Sprint02_1305_1905" sheetId="10" r:id="rId8"/>
-    <sheet name="Sprint02_2005_2605" sheetId="11" r:id="rId9"/>
+    <sheet name="Sprint03_2005_2605" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$1:$G$106</definedName>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="393">
   <si>
     <t>Introduction</t>
   </si>
@@ -1498,6 +1498,9 @@
   </si>
   <si>
     <t>+Create Invitation</t>
+  </si>
+  <si>
+    <t>SPRINT 03 FROM 20/05 TO 26/05</t>
   </si>
 </sst>
 </file>
@@ -3345,55 +3348,55 @@
     <xf numFmtId="0" fontId="21" fillId="21" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9508,7 +9511,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="C14" s="354">
+      <c r="C14" s="357">
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -9519,7 +9522,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="C15" s="355"/>
+      <c r="C15" s="358"/>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
@@ -9527,28 +9530,28 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="C16" s="355"/>
+      <c r="C16" s="358"/>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="355"/>
+      <c r="C17" s="358"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="361"/>
+      <c r="C18" s="359"/>
       <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="368">
+      <c r="C19" s="362">
         <v>3</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -9559,7 +9562,7 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="369"/>
+      <c r="C20" s="363"/>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
@@ -9569,7 +9572,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="369"/>
+      <c r="C21" s="363"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -9579,42 +9582,42 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="369"/>
+      <c r="C22" s="363"/>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="369"/>
+      <c r="C23" s="363"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="369"/>
+      <c r="C24" s="363"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="369"/>
+      <c r="C25" s="363"/>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="370"/>
+      <c r="C26" s="364"/>
       <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="53"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="354">
+      <c r="C27" s="357">
         <v>4</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -9625,56 +9628,56 @@
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="355"/>
+      <c r="C28" s="358"/>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="355"/>
+      <c r="C29" s="358"/>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="355"/>
+      <c r="C30" s="358"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="355"/>
+      <c r="C31" s="358"/>
       <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="355"/>
+      <c r="C32" s="358"/>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="C33" s="355"/>
+      <c r="C33" s="358"/>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="C34" s="361"/>
+      <c r="C34" s="359"/>
       <c r="D34" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="360">
+      <c r="C35" s="354">
         <v>5</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -9685,14 +9688,14 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="358"/>
+      <c r="C36" s="355"/>
       <c r="D36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="358"/>
+      <c r="C37" s="355"/>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
@@ -9700,14 +9703,14 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="365"/>
+      <c r="C38" s="356"/>
       <c r="D38" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="49"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="354">
+      <c r="C39" s="357">
         <v>6</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -9718,21 +9721,21 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="355"/>
+      <c r="C40" s="358"/>
       <c r="D40" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="361"/>
+      <c r="C41" s="359"/>
       <c r="D41" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="366" t="s">
+      <c r="C42" s="360" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -9743,7 +9746,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="C43" s="367"/>
+      <c r="C43" s="361"/>
       <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
@@ -9783,10 +9786,10 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="C52" s="364" t="s">
+      <c r="C52" s="367" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="364"/>
+      <c r="D52" s="367"/>
       <c r="E52" s="42"/>
     </row>
     <row r="53" spans="2:5">
@@ -9808,10 +9811,10 @@
       <c r="E54" s="40"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="C55" s="362" t="s">
+      <c r="C55" s="365" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="363"/>
+      <c r="D55" s="366"/>
       <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5">
@@ -9833,10 +9836,10 @@
       <c r="E57" s="40"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="C58" s="362" t="s">
+      <c r="C58" s="365" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="363"/>
+      <c r="D58" s="366"/>
       <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5">
@@ -9849,7 +9852,7 @@
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="C60" s="355">
+      <c r="C60" s="358">
         <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
@@ -9858,70 +9861,70 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="C61" s="355"/>
+      <c r="C61" s="358"/>
       <c r="D61" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="C62" s="355"/>
+      <c r="C62" s="358"/>
       <c r="D62" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="C63" s="355"/>
+      <c r="C63" s="358"/>
       <c r="D63" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="C64" s="355"/>
+      <c r="C64" s="358"/>
       <c r="D64" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="355"/>
+      <c r="C65" s="358"/>
       <c r="D65" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="355"/>
+      <c r="C66" s="358"/>
       <c r="D66" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="18"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="355"/>
+      <c r="C67" s="358"/>
       <c r="D67" s="32" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="355"/>
+      <c r="C68" s="358"/>
       <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="361"/>
+      <c r="C69" s="359"/>
       <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="18"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="360">
+      <c r="C70" s="354">
         <v>2</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -9930,35 +9933,35 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="358"/>
+      <c r="C71" s="355"/>
       <c r="D71" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="3:5">
-      <c r="C72" s="358"/>
+      <c r="C72" s="355"/>
       <c r="D72" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="358"/>
+      <c r="C73" s="355"/>
       <c r="D73" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="358"/>
+      <c r="C74" s="355"/>
       <c r="D74" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="49"/>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="354">
+      <c r="C75" s="357">
         <v>3</v>
       </c>
       <c r="D75" s="44" t="s">
@@ -9967,42 +9970,42 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="355"/>
+      <c r="C76" s="358"/>
       <c r="D76" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="355"/>
+      <c r="C77" s="358"/>
       <c r="D77" s="33" t="s">
         <v>72</v>
       </c>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="355"/>
+      <c r="C78" s="358"/>
       <c r="D78" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E78" s="18"/>
     </row>
     <row r="79" spans="3:5">
-      <c r="C79" s="355"/>
+      <c r="C79" s="358"/>
       <c r="D79" s="33" t="s">
         <v>74</v>
       </c>
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C80" s="356"/>
+      <c r="C80" s="368"/>
       <c r="D80" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="3:5">
-      <c r="C81" s="357">
+      <c r="C81" s="369">
         <v>4</v>
       </c>
       <c r="D81" s="57" t="s">
@@ -10011,63 +10014,63 @@
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="358"/>
+      <c r="C82" s="355"/>
       <c r="D82" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E82" s="48"/>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="358"/>
+      <c r="C83" s="355"/>
       <c r="D83" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="3:5">
-      <c r="C84" s="358"/>
+      <c r="C84" s="355"/>
       <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="48"/>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="358"/>
+      <c r="C85" s="355"/>
       <c r="D85" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="48"/>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="358"/>
+      <c r="C86" s="355"/>
       <c r="D86" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="48"/>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="358"/>
+      <c r="C87" s="355"/>
       <c r="D87" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="358"/>
+      <c r="C88" s="355"/>
       <c r="D88" s="34" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="48"/>
     </row>
     <row r="89" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C89" s="359"/>
+      <c r="C89" s="370"/>
       <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="3:5">
-      <c r="C90" s="354">
+      <c r="C90" s="357">
         <v>5</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -10076,28 +10079,28 @@
       <c r="E90" s="18"/>
     </row>
     <row r="91" spans="3:5">
-      <c r="C91" s="355"/>
+      <c r="C91" s="358"/>
       <c r="D91" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="3:5">
-      <c r="C92" s="355"/>
+      <c r="C92" s="358"/>
       <c r="D92" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="3:5">
-      <c r="C93" s="355"/>
+      <c r="C93" s="358"/>
       <c r="D93" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="3:5">
-      <c r="C94" s="360">
+      <c r="C94" s="354">
         <v>6</v>
       </c>
       <c r="D94" s="57" t="s">
@@ -10106,21 +10109,21 @@
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="358"/>
+      <c r="C95" s="355"/>
       <c r="D95" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="358"/>
+      <c r="C96" s="355"/>
       <c r="D96" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="48"/>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="354">
+      <c r="C97" s="357">
         <v>7</v>
       </c>
       <c r="D97" s="44" t="s">
@@ -10129,35 +10132,35 @@
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="355"/>
+      <c r="C98" s="358"/>
       <c r="D98" s="32" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="18"/>
     </row>
     <row r="99" spans="3:5">
-      <c r="C99" s="355"/>
+      <c r="C99" s="358"/>
       <c r="D99" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="18"/>
     </row>
     <row r="100" spans="3:5">
-      <c r="C100" s="355"/>
+      <c r="C100" s="358"/>
       <c r="D100" s="32" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="18"/>
     </row>
     <row r="101" spans="3:5">
-      <c r="C101" s="361"/>
+      <c r="C101" s="359"/>
       <c r="D101" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="18"/>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="360">
+      <c r="C102" s="354">
         <v>8</v>
       </c>
       <c r="D102" s="57" t="s">
@@ -10166,21 +10169,21 @@
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="3:5">
-      <c r="C103" s="358"/>
+      <c r="C103" s="355"/>
       <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="3:5">
-      <c r="C104" s="358"/>
+      <c r="C104" s="355"/>
       <c r="D104" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="48"/>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="354" t="s">
+      <c r="C105" s="357" t="s">
         <v>99</v>
       </c>
       <c r="D105" s="58" t="s">
@@ -10191,23 +10194,12 @@
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="355"/>
+      <c r="C106" s="358"/>
       <c r="D106" s="38"/>
       <c r="E106" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C75:C80"/>
     <mergeCell ref="C81:C89"/>
@@ -10215,6 +10207,17 @@
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C27:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
@@ -18512,7 +18515,7 @@
   <dimension ref="B2:O118"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18632,19 +18635,19 @@
         <v>119</v>
       </c>
       <c r="G12" s="295">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H12" s="293">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I12" s="299">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J12" s="299">
+        <v>5</v>
+      </c>
+      <c r="K12" s="299">
         <v>2</v>
-      </c>
-      <c r="K12" s="299">
-        <v>1</v>
       </c>
       <c r="L12" s="299">
         <v>0</v>
@@ -18670,22 +18673,22 @@
         <v>119</v>
       </c>
       <c r="G13" s="295">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H13" s="293">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I13" s="299">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J13" s="299">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13" s="299">
         <v>2</v>
       </c>
       <c r="L13" s="299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="300">
         <v>0</v>
@@ -18708,22 +18711,22 @@
         <v>119</v>
       </c>
       <c r="G14" s="295">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H14" s="293">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I14" s="299">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J14" s="299">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K14" s="299">
         <v>2</v>
       </c>
       <c r="L14" s="299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="300">
         <v>0</v>
@@ -18766,22 +18769,22 @@
         <v>119</v>
       </c>
       <c r="G16" s="295">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H16" s="293">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I16" s="299">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J16" s="299">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16" s="299">
         <v>2</v>
       </c>
       <c r="L16" s="299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="300">
         <v>0</v>
@@ -18804,19 +18807,19 @@
         <v>119</v>
       </c>
       <c r="G17" s="295">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H17" s="293">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I17" s="299">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J17" s="299">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K17" s="299">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L17" s="299">
         <v>0</v>
@@ -18842,22 +18845,22 @@
         <v>119</v>
       </c>
       <c r="G18" s="295">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H18" s="293">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I18" s="299">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J18" s="299">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" s="299">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" s="299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="300">
         <v>0</v>
@@ -18900,19 +18903,19 @@
         <v>119</v>
       </c>
       <c r="G20" s="295">
+        <v>25</v>
+      </c>
+      <c r="H20" s="285">
+        <v>20</v>
+      </c>
+      <c r="I20" s="293">
+        <v>18</v>
+      </c>
+      <c r="J20" s="293">
+        <v>12</v>
+      </c>
+      <c r="K20" s="293">
         <v>4</v>
-      </c>
-      <c r="H20" s="285">
-        <v>4</v>
-      </c>
-      <c r="I20" s="293">
-        <v>4</v>
-      </c>
-      <c r="J20" s="293">
-        <v>2</v>
-      </c>
-      <c r="K20" s="293">
-        <v>2</v>
       </c>
       <c r="L20" s="293">
         <v>0</v>
@@ -18938,22 +18941,22 @@
         <v>119</v>
       </c>
       <c r="G21" s="295">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H21" s="293">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I21" s="293">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J21" s="293">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K21" s="293">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L21" s="293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="296">
         <v>0</v>
@@ -19781,7 +19784,7 @@
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19884,22 +19887,22 @@
         <v>351</v>
       </c>
       <c r="F11" s="295" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G11" s="313">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H11" s="314">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I11" s="314">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J11" s="314">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K11" s="314">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" s="315">
         <v>0</v>
@@ -19948,28 +19951,28 @@
         <v>351</v>
       </c>
       <c r="F13" s="295" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G13" s="313">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H13" s="314">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I13" s="317">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J13" s="317">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K13" s="317">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L13" s="317">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" s="318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="328">
         <v>0</v>
@@ -19992,10 +19995,10 @@
         <v>351</v>
       </c>
       <c r="F14" s="295" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G14" s="313">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H14" s="314">
         <v>5</v>
@@ -20039,31 +20042,31 @@
         <v>117</v>
       </c>
       <c r="G15" s="313">
+        <v>15</v>
+      </c>
+      <c r="H15" s="314">
+        <v>13</v>
+      </c>
+      <c r="I15" s="317">
+        <v>12</v>
+      </c>
+      <c r="J15" s="317">
+        <v>10</v>
+      </c>
+      <c r="K15" s="317">
+        <v>8</v>
+      </c>
+      <c r="L15" s="314">
+        <v>6</v>
+      </c>
+      <c r="M15" s="316">
         <v>4</v>
       </c>
-      <c r="H15" s="314">
+      <c r="N15" s="328">
         <v>4</v>
       </c>
-      <c r="I15" s="317">
+      <c r="O15" s="328">
         <v>4</v>
-      </c>
-      <c r="J15" s="317">
-        <v>4</v>
-      </c>
-      <c r="K15" s="317">
-        <v>4</v>
-      </c>
-      <c r="L15" s="314">
-        <v>3</v>
-      </c>
-      <c r="M15" s="316">
-        <v>2</v>
-      </c>
-      <c r="N15" s="328">
-        <v>2</v>
-      </c>
-      <c r="O15" s="328">
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:15" s="197" customFormat="1">
@@ -20103,31 +20106,31 @@
         <v>117</v>
       </c>
       <c r="G17" s="313">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H17" s="314">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I17" s="317">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J17" s="317">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K17" s="317">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="L17" s="317">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M17" s="331">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N17" s="332">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="O17" s="332">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:15" s="197" customFormat="1">
@@ -20147,31 +20150,31 @@
         <v>117</v>
       </c>
       <c r="G18" s="313">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H18" s="314">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I18" s="317">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J18" s="317">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K18" s="317">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L18" s="317">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M18" s="331">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N18" s="332">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O18" s="332">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:15" s="197" customFormat="1">
@@ -20191,31 +20194,31 @@
         <v>117</v>
       </c>
       <c r="G19" s="313">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H19" s="314">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I19" s="317">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J19" s="317">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K19" s="314">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L19" s="326">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M19" s="333">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N19" s="332">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O19" s="332">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:15">
@@ -20251,29 +20254,29 @@
       <c r="E21" s="280" t="s">
         <v>352</v>
       </c>
-      <c r="F21" s="281" t="s">
-        <v>117</v>
+      <c r="F21" s="295" t="s">
+        <v>119</v>
       </c>
       <c r="G21" s="313">
+        <v>15</v>
+      </c>
+      <c r="H21" s="314">
+        <v>15</v>
+      </c>
+      <c r="I21" s="314">
+        <v>15</v>
+      </c>
+      <c r="J21" s="314">
+        <v>15</v>
+      </c>
+      <c r="K21" s="314">
+        <v>10</v>
+      </c>
+      <c r="L21" s="314">
         <v>5</v>
       </c>
-      <c r="H21" s="314">
-        <v>5</v>
-      </c>
-      <c r="I21" s="314">
-        <v>5</v>
-      </c>
-      <c r="J21" s="314">
-        <v>5</v>
-      </c>
-      <c r="K21" s="314">
-        <v>4</v>
-      </c>
-      <c r="L21" s="314">
-        <v>3</v>
-      </c>
       <c r="M21" s="316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" s="328">
         <v>0</v>
@@ -20296,28 +20299,28 @@
         <v>352</v>
       </c>
       <c r="F22" s="295" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G22" s="313">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H22" s="314">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I22" s="314">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J22" s="314">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K22" s="314">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L22" s="314">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M22" s="316">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22" s="328">
         <v>0</v>
@@ -20339,29 +20342,29 @@
       <c r="E23" s="280" t="s">
         <v>352</v>
       </c>
-      <c r="F23" s="281" t="s">
-        <v>117</v>
+      <c r="F23" s="295" t="s">
+        <v>119</v>
       </c>
       <c r="G23" s="313">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H23" s="314">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I23" s="314">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J23" s="314">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K23" s="314">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L23" s="314">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M23" s="316">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" s="328">
         <v>0</v>
@@ -20407,31 +20410,31 @@
         <v>117</v>
       </c>
       <c r="G25" s="313">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H25" s="314">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I25" s="317">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J25" s="317">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K25" s="317">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="L25" s="317">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M25" s="318">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N25" s="328">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O25" s="328">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:15">
@@ -20451,31 +20454,31 @@
         <v>117</v>
       </c>
       <c r="G26" s="313">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H26" s="314">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I26" s="317">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J26" s="317">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K26" s="317">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L26" s="317">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M26" s="318">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N26" s="328">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O26" s="328">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:15">
@@ -20495,31 +20498,31 @@
         <v>117</v>
       </c>
       <c r="G27" s="313">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H27" s="314">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I27" s="317">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J27" s="317">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K27" s="317">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="L27" s="317">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M27" s="318">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N27" s="328">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O27" s="328">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:15">
@@ -20539,31 +20542,31 @@
         <v>117</v>
       </c>
       <c r="G28" s="313">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H28" s="314">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I28" s="317">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J28" s="317">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K28" s="317">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L28" s="317">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M28" s="318">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N28" s="328">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O28" s="328">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:15">
@@ -21343,8 +21346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21383,7 +21386,7 @@
     </row>
     <row r="7" spans="2:15" ht="18">
       <c r="B7" s="371" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C7" s="371"/>
       <c r="D7" s="371"/>
@@ -21450,11 +21453,9 @@
         <v>117</v>
       </c>
       <c r="G11" s="321">
-        <v>8</v>
-      </c>
-      <c r="H11" s="326">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H11" s="326"/>
       <c r="I11" s="326"/>
       <c r="J11" s="326"/>
       <c r="K11" s="326"/>
@@ -21480,11 +21481,9 @@
         <v>117</v>
       </c>
       <c r="G12" s="321">
-        <v>2</v>
-      </c>
-      <c r="H12" s="326">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H12" s="326"/>
       <c r="I12" s="339"/>
       <c r="J12" s="339"/>
       <c r="K12" s="339"/>
@@ -21530,11 +21529,9 @@
         <v>117</v>
       </c>
       <c r="G14" s="321">
-        <v>2</v>
-      </c>
-      <c r="H14" s="326">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H14" s="326"/>
       <c r="I14" s="339"/>
       <c r="J14" s="339"/>
       <c r="K14" s="339"/>
@@ -21560,11 +21557,9 @@
         <v>117</v>
       </c>
       <c r="G15" s="321">
-        <v>4</v>
-      </c>
-      <c r="H15" s="326">
-        <v>4</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H15" s="326"/>
       <c r="I15" s="339"/>
       <c r="J15" s="339"/>
       <c r="K15" s="339"/>
@@ -21610,11 +21605,9 @@
         <v>117</v>
       </c>
       <c r="G17" s="321">
-        <v>2</v>
-      </c>
-      <c r="H17" s="326">
-        <v>2</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H17" s="326"/>
       <c r="I17" s="339"/>
       <c r="J17" s="339"/>
       <c r="K17" s="339"/>
@@ -21640,11 +21633,9 @@
         <v>117</v>
       </c>
       <c r="G18" s="321">
-        <v>4</v>
-      </c>
-      <c r="H18" s="326">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H18" s="326"/>
       <c r="I18" s="339"/>
       <c r="J18" s="339"/>
       <c r="K18" s="339"/>
@@ -21670,11 +21661,9 @@
         <v>117</v>
       </c>
       <c r="G19" s="321">
-        <v>6</v>
-      </c>
-      <c r="H19" s="326">
-        <v>6</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H19" s="326"/>
       <c r="I19" s="339"/>
       <c r="J19" s="339"/>
       <c r="K19" s="326"/>
@@ -21700,14 +21689,10 @@
         <v>117</v>
       </c>
       <c r="G20" s="321">
-        <v>3</v>
-      </c>
-      <c r="H20" s="321">
-        <v>0</v>
-      </c>
-      <c r="I20" s="326">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H20" s="321"/>
+      <c r="I20" s="326"/>
       <c r="J20" s="326"/>
       <c r="K20" s="326"/>
       <c r="L20" s="326"/>
@@ -21732,14 +21717,10 @@
         <v>117</v>
       </c>
       <c r="G21" s="321">
-        <v>3</v>
-      </c>
-      <c r="H21" s="326">
-        <v>2</v>
-      </c>
-      <c r="I21" s="326">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H21" s="326"/>
+      <c r="I21" s="326"/>
       <c r="J21" s="326"/>
       <c r="K21" s="326"/>
       <c r="L21" s="326"/>
@@ -21784,14 +21765,10 @@
         <v>117</v>
       </c>
       <c r="G23" s="321">
-        <v>5</v>
-      </c>
-      <c r="H23" s="326">
-        <v>5</v>
-      </c>
-      <c r="I23" s="339">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H23" s="326"/>
+      <c r="I23" s="339"/>
       <c r="J23" s="339"/>
       <c r="K23" s="339"/>
       <c r="L23" s="339"/>
@@ -21816,11 +21793,9 @@
         <v>117</v>
       </c>
       <c r="G24" s="321">
-        <v>2</v>
-      </c>
-      <c r="H24" s="326">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H24" s="326"/>
       <c r="I24" s="339"/>
       <c r="J24" s="339"/>
       <c r="K24" s="339"/>
@@ -21846,14 +21821,10 @@
         <v>117</v>
       </c>
       <c r="G25" s="321">
-        <v>5</v>
-      </c>
-      <c r="H25" s="326">
-        <v>5</v>
-      </c>
-      <c r="I25" s="339">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H25" s="326"/>
+      <c r="I25" s="339"/>
       <c r="J25" s="339"/>
       <c r="K25" s="339"/>
       <c r="L25" s="339"/>
@@ -21878,11 +21849,9 @@
         <v>117</v>
       </c>
       <c r="G26" s="321">
-        <v>2</v>
-      </c>
-      <c r="H26" s="326">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H26" s="326"/>
       <c r="I26" s="339"/>
       <c r="J26" s="339"/>
       <c r="K26" s="339"/>
@@ -21928,11 +21897,9 @@
         <v>117</v>
       </c>
       <c r="G28" s="321">
-        <v>4</v>
-      </c>
-      <c r="H28" s="326">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H28" s="326"/>
       <c r="I28" s="339"/>
       <c r="J28" s="339"/>
       <c r="K28" s="339"/>
@@ -21978,14 +21945,10 @@
         <v>117</v>
       </c>
       <c r="G30" s="321">
-        <v>5</v>
-      </c>
-      <c r="H30" s="326">
-        <v>3</v>
-      </c>
-      <c r="I30" s="326">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H30" s="326"/>
+      <c r="I30" s="326"/>
       <c r="J30" s="326"/>
       <c r="K30" s="326"/>
       <c r="L30" s="326"/>
@@ -22010,11 +21973,9 @@
         <v>117</v>
       </c>
       <c r="G31" s="321">
-        <v>4</v>
-      </c>
-      <c r="H31" s="326">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H31" s="326"/>
       <c r="I31" s="326"/>
       <c r="J31" s="326"/>
       <c r="K31" s="326"/>
@@ -22040,11 +22001,9 @@
         <v>117</v>
       </c>
       <c r="G32" s="321">
-        <v>4</v>
-      </c>
-      <c r="H32" s="326">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H32" s="326"/>
       <c r="I32" s="326"/>
       <c r="J32" s="326"/>
       <c r="K32" s="326"/>
@@ -22070,11 +22029,9 @@
         <v>117</v>
       </c>
       <c r="G33" s="321">
-        <v>4</v>
-      </c>
-      <c r="H33" s="326">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H33" s="326"/>
       <c r="I33" s="326"/>
       <c r="J33" s="326"/>
       <c r="K33" s="326"/>

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -18515,7 +18515,7 @@
   <dimension ref="B2:O118"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E21" sqref="B10:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19784,7 +19784,7 @@
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="B10" sqref="B10:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21347,7 +21347,7 @@
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="B10" sqref="B10:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Sprint01_0805_1205" sheetId="9" r:id="rId7"/>
     <sheet name="Sprint02_1305_1905" sheetId="10" r:id="rId8"/>
     <sheet name="Sprint03_2005_2605" sheetId="11" r:id="rId9"/>
+    <sheet name="Sprint04_2705_0206" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$1:$G$106</definedName>
@@ -294,8 +295,210 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tu Huynh</author>
+  </authors>
+  <commentList>
+    <comment ref="G14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="397">
   <si>
     <t>Introduction</t>
   </si>
@@ -1501,6 +1704,18 @@
   </si>
   <si>
     <t>SPRINT 03 FROM 20/05 TO 26/05</t>
+  </si>
+  <si>
+    <t>SPRINT 04 FROM 27/05 TO 02/06</t>
+  </si>
+  <si>
+    <t>Report 3- Use Case Detail (20)</t>
+  </si>
+  <si>
+    <t>Report 3- Use Case Detail (10)</t>
+  </si>
+  <si>
+    <t>Report 3- User Requirement Specify</t>
   </si>
 </sst>
 </file>
@@ -3348,24 +3563,42 @@
     <xf numFmtId="0" fontId="21" fillId="21" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3379,24 +3612,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3407,7 +3622,552 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="143">
+  <dxfs count="162">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8936,21 +9696,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:N30" totalsRowShown="0" headerRowDxfId="142" headerRowBorderDxfId="141" tableBorderDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:N30" totalsRowShown="0" headerRowDxfId="161" headerRowBorderDxfId="160" tableBorderDxfId="159">
   <autoFilter ref="B10:N30"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="139"/>
-    <tableColumn id="2" name="Task description" dataDxfId="138"/>
-    <tableColumn id="3" name="Type" dataDxfId="137"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="136"/>
-    <tableColumn id="5" name="Status" dataDxfId="135"/>
-    <tableColumn id="8" name="(W)23/5" dataDxfId="134"/>
-    <tableColumn id="9" name="(Th)24/5" dataDxfId="133"/>
-    <tableColumn id="10" name="(Fr)25/5" dataDxfId="132"/>
-    <tableColumn id="11" name="(Sa)26/5" dataDxfId="131"/>
-    <tableColumn id="12" name="(Su)27/5" dataDxfId="130"/>
+    <tableColumn id="1" name="No." dataDxfId="158"/>
+    <tableColumn id="2" name="Task description" dataDxfId="157"/>
+    <tableColumn id="3" name="Type" dataDxfId="156"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="155"/>
+    <tableColumn id="5" name="Status" dataDxfId="154"/>
+    <tableColumn id="8" name="(W)23/5" dataDxfId="153"/>
+    <tableColumn id="9" name="(Th)24/5" dataDxfId="152"/>
+    <tableColumn id="10" name="(Fr)25/5" dataDxfId="151"/>
+    <tableColumn id="11" name="(Sa)26/5" dataDxfId="150"/>
+    <tableColumn id="12" name="(Su)27/5" dataDxfId="149"/>
     <tableColumn id="13" name="(Mo)28/5"/>
-    <tableColumn id="14" name="(Tu)29/5" dataDxfId="129"/>
+    <tableColumn id="14" name="(Tu)29/5" dataDxfId="148"/>
     <tableColumn id="7" name="End Sprint"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8958,132 +9718,159 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:O28" totalsRowShown="0" headerRowDxfId="128" headerRowBorderDxfId="127" tableBorderDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:O28" totalsRowShown="0" headerRowDxfId="147" headerRowBorderDxfId="146" tableBorderDxfId="145">
   <autoFilter ref="B10:O28"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="125"/>
-    <tableColumn id="2" name="Task description" dataDxfId="124"/>
-    <tableColumn id="3" name="Type" dataDxfId="123"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="122"/>
-    <tableColumn id="5" name="Status" dataDxfId="121"/>
-    <tableColumn id="17" name="Percentage" dataDxfId="120"/>
-    <tableColumn id="8" name="(W)30/5" dataDxfId="119"/>
-    <tableColumn id="9" name="(Th)31/5" dataDxfId="118"/>
-    <tableColumn id="10" name="(Fr)1/6" dataDxfId="117"/>
-    <tableColumn id="11" name="(Sa)2/6" dataDxfId="116"/>
-    <tableColumn id="12" name="(Su)3/6" dataDxfId="115"/>
+    <tableColumn id="1" name="No." dataDxfId="144"/>
+    <tableColumn id="2" name="Task description" dataDxfId="143"/>
+    <tableColumn id="3" name="Type" dataDxfId="142"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="141"/>
+    <tableColumn id="5" name="Status" dataDxfId="140"/>
+    <tableColumn id="17" name="Percentage" dataDxfId="139"/>
+    <tableColumn id="8" name="(W)30/5" dataDxfId="138"/>
+    <tableColumn id="9" name="(Th)31/5" dataDxfId="137"/>
+    <tableColumn id="10" name="(Fr)1/6" dataDxfId="136"/>
+    <tableColumn id="11" name="(Sa)2/6" dataDxfId="135"/>
+    <tableColumn id="12" name="(Su)3/6" dataDxfId="134"/>
     <tableColumn id="13" name="(Mo)4/6"/>
-    <tableColumn id="14" name="(Tu)5/6" dataDxfId="114"/>
-    <tableColumn id="7" name="End Sprint" dataDxfId="113"/>
+    <tableColumn id="14" name="(Tu)5/6" dataDxfId="133"/>
+    <tableColumn id="7" name="End Sprint" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B10:N27" totalsRowShown="0" headerRowDxfId="112" headerRowBorderDxfId="111" tableBorderDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B10:N27" totalsRowShown="0" headerRowDxfId="131" headerRowBorderDxfId="130" tableBorderDxfId="129">
   <autoFilter ref="B10:N27"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="109"/>
-    <tableColumn id="2" name="Task description" dataDxfId="108"/>
-    <tableColumn id="3" name="Type" dataDxfId="107"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="106"/>
-    <tableColumn id="5" name="Status" dataDxfId="105"/>
-    <tableColumn id="8" name="(W)06/6" dataDxfId="104"/>
-    <tableColumn id="9" name="(Th)07/6" dataDxfId="103"/>
-    <tableColumn id="10" name="(Fr)08/6" dataDxfId="102"/>
-    <tableColumn id="11" name="(Sa)09/6" dataDxfId="101"/>
-    <tableColumn id="12" name="(Su)10/6" dataDxfId="100"/>
+    <tableColumn id="1" name="No." dataDxfId="128"/>
+    <tableColumn id="2" name="Task description" dataDxfId="127"/>
+    <tableColumn id="3" name="Type" dataDxfId="126"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="125"/>
+    <tableColumn id="5" name="Status" dataDxfId="124"/>
+    <tableColumn id="8" name="(W)06/6" dataDxfId="123"/>
+    <tableColumn id="9" name="(Th)07/6" dataDxfId="122"/>
+    <tableColumn id="10" name="(Fr)08/6" dataDxfId="121"/>
+    <tableColumn id="11" name="(Sa)09/6" dataDxfId="120"/>
+    <tableColumn id="12" name="(Su)10/6" dataDxfId="119"/>
     <tableColumn id="13" name="(Mo)11/6"/>
-    <tableColumn id="14" name="(Tu)12/6" dataDxfId="99"/>
-    <tableColumn id="7" name="End Sprint" dataDxfId="98"/>
+    <tableColumn id="14" name="(Tu)12/6" dataDxfId="118"/>
+    <tableColumn id="7" name="End Sprint" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B10:AA76" totalsRowShown="0" headerRowDxfId="97" headerRowBorderDxfId="96" tableBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B10:AA76" totalsRowShown="0" headerRowDxfId="116" headerRowBorderDxfId="115" tableBorderDxfId="114">
   <autoFilter ref="B10:AA76"/>
   <tableColumns count="26">
-    <tableColumn id="1" name="No." dataDxfId="94"/>
-    <tableColumn id="2" name="Task description" dataDxfId="93"/>
-    <tableColumn id="3" name="Type" dataDxfId="92"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="91"/>
-    <tableColumn id="5" name="Status" dataDxfId="90"/>
-    <tableColumn id="8" name="25/6" dataDxfId="89"/>
-    <tableColumn id="9" name="26/6" dataDxfId="88"/>
-    <tableColumn id="10" name="27/6" dataDxfId="87"/>
-    <tableColumn id="11" name="28/6" dataDxfId="86"/>
-    <tableColumn id="12" name="29/6" dataDxfId="85"/>
+    <tableColumn id="1" name="No." dataDxfId="113"/>
+    <tableColumn id="2" name="Task description" dataDxfId="112"/>
+    <tableColumn id="3" name="Type" dataDxfId="111"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="110"/>
+    <tableColumn id="5" name="Status" dataDxfId="109"/>
+    <tableColumn id="8" name="25/6" dataDxfId="108"/>
+    <tableColumn id="9" name="26/6" dataDxfId="107"/>
+    <tableColumn id="10" name="27/6" dataDxfId="106"/>
+    <tableColumn id="11" name="28/6" dataDxfId="105"/>
+    <tableColumn id="12" name="29/6" dataDxfId="104"/>
     <tableColumn id="13" name="30/6"/>
-    <tableColumn id="14" name="1/7" dataDxfId="84"/>
-    <tableColumn id="6" name="2/7" dataDxfId="83"/>
-    <tableColumn id="7" name="3/7" dataDxfId="82"/>
-    <tableColumn id="15" name="4/7" dataDxfId="81"/>
-    <tableColumn id="16" name="5/7" dataDxfId="80"/>
-    <tableColumn id="17" name="6/7" dataDxfId="79"/>
-    <tableColumn id="24" name="7/7" dataDxfId="78"/>
-    <tableColumn id="23" name="8/7" dataDxfId="77"/>
-    <tableColumn id="22" name="9/7" dataDxfId="76"/>
-    <tableColumn id="21" name="10/7" dataDxfId="75"/>
-    <tableColumn id="20" name="11/7" dataDxfId="74"/>
-    <tableColumn id="18" name="12/7" dataDxfId="73"/>
-    <tableColumn id="25" name="13/7" dataDxfId="72"/>
-    <tableColumn id="26" name="14/7" dataDxfId="71"/>
-    <tableColumn id="19" name="End" dataDxfId="70"/>
+    <tableColumn id="14" name="1/7" dataDxfId="103"/>
+    <tableColumn id="6" name="2/7" dataDxfId="102"/>
+    <tableColumn id="7" name="3/7" dataDxfId="101"/>
+    <tableColumn id="15" name="4/7" dataDxfId="100"/>
+    <tableColumn id="16" name="5/7" dataDxfId="99"/>
+    <tableColumn id="17" name="6/7" dataDxfId="98"/>
+    <tableColumn id="24" name="7/7" dataDxfId="97"/>
+    <tableColumn id="23" name="8/7" dataDxfId="96"/>
+    <tableColumn id="22" name="9/7" dataDxfId="95"/>
+    <tableColumn id="21" name="10/7" dataDxfId="94"/>
+    <tableColumn id="20" name="11/7" dataDxfId="93"/>
+    <tableColumn id="18" name="12/7" dataDxfId="92"/>
+    <tableColumn id="25" name="13/7" dataDxfId="91"/>
+    <tableColumn id="26" name="14/7" dataDxfId="90"/>
+    <tableColumn id="19" name="End" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B10:N56" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B10:N56" totalsRowShown="0" headerRowDxfId="88" headerRowBorderDxfId="87" tableBorderDxfId="86">
   <autoFilter ref="B10:N56"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="66"/>
-    <tableColumn id="2" name="Task description" dataDxfId="65"/>
-    <tableColumn id="3" name="Type" dataDxfId="64"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="63"/>
-    <tableColumn id="5" name="Status" dataDxfId="62"/>
-    <tableColumn id="8" name="16/7" dataDxfId="61"/>
-    <tableColumn id="9" name="17/7" dataDxfId="60"/>
-    <tableColumn id="10" name="18/7" dataDxfId="59"/>
-    <tableColumn id="11" name="19/7" dataDxfId="58"/>
-    <tableColumn id="12" name="20/7" dataDxfId="57"/>
+    <tableColumn id="1" name="No." dataDxfId="85"/>
+    <tableColumn id="2" name="Task description" dataDxfId="84"/>
+    <tableColumn id="3" name="Type" dataDxfId="83"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="82"/>
+    <tableColumn id="5" name="Status" dataDxfId="81"/>
+    <tableColumn id="8" name="16/7" dataDxfId="80"/>
+    <tableColumn id="9" name="17/7" dataDxfId="79"/>
+    <tableColumn id="10" name="18/7" dataDxfId="78"/>
+    <tableColumn id="11" name="19/7" dataDxfId="77"/>
+    <tableColumn id="12" name="20/7" dataDxfId="76"/>
     <tableColumn id="13" name="21/7"/>
-    <tableColumn id="14" name="22/7" dataDxfId="56"/>
-    <tableColumn id="19" name="End" dataDxfId="55"/>
+    <tableColumn id="14" name="22/7" dataDxfId="75"/>
+    <tableColumn id="19" name="End" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51" totalsRowBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <autoFilter ref="B10:M54">
     <filterColumn colId="5"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="No." dataDxfId="49"/>
-    <tableColumn id="2" name="Task description" dataDxfId="48"/>
-    <tableColumn id="3" name="Type" dataDxfId="47"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="46"/>
-    <tableColumn id="5" name="Status" dataDxfId="45"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="44"/>
-    <tableColumn id="8" name="08/05" dataDxfId="43"/>
-    <tableColumn id="9" name="09/05" dataDxfId="42"/>
-    <tableColumn id="10" name="10/05" dataDxfId="41"/>
-    <tableColumn id="11" name="11/05" dataDxfId="40"/>
-    <tableColumn id="12" name="12/05" dataDxfId="39"/>
-    <tableColumn id="13" name="End" dataDxfId="38"/>
+    <tableColumn id="1" name="No." dataDxfId="68"/>
+    <tableColumn id="2" name="Task description" dataDxfId="67"/>
+    <tableColumn id="3" name="Type" dataDxfId="66"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="65"/>
+    <tableColumn id="5" name="Status" dataDxfId="64"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="63"/>
+    <tableColumn id="8" name="08/05" dataDxfId="62"/>
+    <tableColumn id="9" name="09/05" dataDxfId="61"/>
+    <tableColumn id="10" name="10/05" dataDxfId="60"/>
+    <tableColumn id="11" name="11/05" dataDxfId="59"/>
+    <tableColumn id="12" name="12/05" dataDxfId="58"/>
+    <tableColumn id="13" name="End" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+  <autoFilter ref="B10:O54">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="51"/>
+    <tableColumn id="2" name="Task description" dataDxfId="50"/>
+    <tableColumn id="3" name="Type" dataDxfId="49"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="48"/>
+    <tableColumn id="5" name="Status" dataDxfId="47"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="46"/>
+    <tableColumn id="8" name="13/05" dataDxfId="45"/>
+    <tableColumn id="9" name="14/05" dataDxfId="44"/>
+    <tableColumn id="10" name="15/05" dataDxfId="43"/>
+    <tableColumn id="11" name="16/05" dataDxfId="42"/>
+    <tableColumn id="12" name="17/05" dataDxfId="41"/>
+    <tableColumn id="13" name="18/05" dataDxfId="40"/>
+    <tableColumn id="14" name="19/05" dataDxfId="39"/>
+    <tableColumn id="15" name="End" dataDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13456789" displayName="Table13456789" ref="B10:O54" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="B10:O54">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
@@ -9096,41 +9883,41 @@
     <tableColumn id="4" name="Assign To" dataDxfId="29"/>
     <tableColumn id="5" name="Status" dataDxfId="28"/>
     <tableColumn id="7" name="Estimate" dataDxfId="27"/>
-    <tableColumn id="8" name="13/05" dataDxfId="26"/>
-    <tableColumn id="9" name="14/05" dataDxfId="25"/>
-    <tableColumn id="10" name="15/05" dataDxfId="24"/>
-    <tableColumn id="11" name="16/05" dataDxfId="23"/>
-    <tableColumn id="12" name="17/05" dataDxfId="22"/>
-    <tableColumn id="13" name="18/05" dataDxfId="21"/>
-    <tableColumn id="14" name="19/05" dataDxfId="20"/>
+    <tableColumn id="8" name="20/05" dataDxfId="26"/>
+    <tableColumn id="9" name="21/05" dataDxfId="25"/>
+    <tableColumn id="10" name="22/05" dataDxfId="24"/>
+    <tableColumn id="11" name="23/05" dataDxfId="23"/>
+    <tableColumn id="12" name="24/05" dataDxfId="22"/>
+    <tableColumn id="13" name="25/05" dataDxfId="21"/>
+    <tableColumn id="14" name="26/05" dataDxfId="20"/>
     <tableColumn id="15" name="End" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13456789" displayName="Table13456789" ref="B10:O54" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1345678910" displayName="Table1345678910" ref="B10:O54" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
   <autoFilter ref="B10:O54">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="13"/>
-    <tableColumn id="2" name="Task description" dataDxfId="12"/>
-    <tableColumn id="3" name="Type" dataDxfId="11"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="10"/>
-    <tableColumn id="5" name="Status" dataDxfId="9"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="8"/>
-    <tableColumn id="8" name="20/05" dataDxfId="7"/>
-    <tableColumn id="9" name="21/05" dataDxfId="6"/>
-    <tableColumn id="10" name="22/05" dataDxfId="5"/>
-    <tableColumn id="11" name="23/05" dataDxfId="4"/>
-    <tableColumn id="12" name="24/05" dataDxfId="3"/>
-    <tableColumn id="13" name="25/05" dataDxfId="2"/>
-    <tableColumn id="14" name="26/05" dataDxfId="1"/>
-    <tableColumn id="15" name="End" dataDxfId="0"/>
+    <tableColumn id="1" name="No." dataDxfId="18"/>
+    <tableColumn id="2" name="Task description" dataDxfId="17"/>
+    <tableColumn id="3" name="Type" dataDxfId="16"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="15"/>
+    <tableColumn id="5" name="Status" dataDxfId="14"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="13"/>
+    <tableColumn id="8" name="20/05" dataDxfId="12"/>
+    <tableColumn id="9" name="21/05" dataDxfId="11"/>
+    <tableColumn id="10" name="22/05" dataDxfId="10"/>
+    <tableColumn id="11" name="23/05" dataDxfId="9"/>
+    <tableColumn id="12" name="24/05" dataDxfId="8"/>
+    <tableColumn id="13" name="25/05" dataDxfId="7"/>
+    <tableColumn id="14" name="26/05" dataDxfId="6"/>
+    <tableColumn id="15" name="End" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9511,7 +10298,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="C14" s="357">
+      <c r="C14" s="354">
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -9522,7 +10309,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="C15" s="358"/>
+      <c r="C15" s="355"/>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
@@ -9530,28 +10317,28 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="C16" s="358"/>
+      <c r="C16" s="355"/>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="358"/>
+      <c r="C17" s="355"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="359"/>
+      <c r="C18" s="361"/>
       <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="362">
+      <c r="C19" s="368">
         <v>3</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -9562,7 +10349,7 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="363"/>
+      <c r="C20" s="369"/>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
@@ -9572,7 +10359,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="363"/>
+      <c r="C21" s="369"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -9582,42 +10369,42 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="363"/>
+      <c r="C22" s="369"/>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="363"/>
+      <c r="C23" s="369"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="363"/>
+      <c r="C24" s="369"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="363"/>
+      <c r="C25" s="369"/>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="364"/>
+      <c r="C26" s="370"/>
       <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="53"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="357">
+      <c r="C27" s="354">
         <v>4</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -9628,56 +10415,56 @@
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="358"/>
+      <c r="C28" s="355"/>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="358"/>
+      <c r="C29" s="355"/>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="358"/>
+      <c r="C30" s="355"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="358"/>
+      <c r="C31" s="355"/>
       <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="358"/>
+      <c r="C32" s="355"/>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="C33" s="358"/>
+      <c r="C33" s="355"/>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="C34" s="359"/>
+      <c r="C34" s="361"/>
       <c r="D34" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="354">
+      <c r="C35" s="360">
         <v>5</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -9688,14 +10475,14 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="355"/>
+      <c r="C36" s="358"/>
       <c r="D36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="355"/>
+      <c r="C37" s="358"/>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
@@ -9703,14 +10490,14 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="356"/>
+      <c r="C38" s="365"/>
       <c r="D38" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="49"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="357">
+      <c r="C39" s="354">
         <v>6</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -9721,21 +10508,21 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="358"/>
+      <c r="C40" s="355"/>
       <c r="D40" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="359"/>
+      <c r="C41" s="361"/>
       <c r="D41" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="360" t="s">
+      <c r="C42" s="366" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -9746,7 +10533,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="C43" s="361"/>
+      <c r="C43" s="367"/>
       <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
@@ -9786,10 +10573,10 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="C52" s="367" t="s">
+      <c r="C52" s="364" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="367"/>
+      <c r="D52" s="364"/>
       <c r="E52" s="42"/>
     </row>
     <row r="53" spans="2:5">
@@ -9811,10 +10598,10 @@
       <c r="E54" s="40"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="C55" s="365" t="s">
+      <c r="C55" s="362" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="366"/>
+      <c r="D55" s="363"/>
       <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5">
@@ -9836,10 +10623,10 @@
       <c r="E57" s="40"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="C58" s="365" t="s">
+      <c r="C58" s="362" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="366"/>
+      <c r="D58" s="363"/>
       <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5">
@@ -9852,7 +10639,7 @@
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="C60" s="358">
+      <c r="C60" s="355">
         <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
@@ -9861,70 +10648,70 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="C61" s="358"/>
+      <c r="C61" s="355"/>
       <c r="D61" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="C62" s="358"/>
+      <c r="C62" s="355"/>
       <c r="D62" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="C63" s="358"/>
+      <c r="C63" s="355"/>
       <c r="D63" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="C64" s="358"/>
+      <c r="C64" s="355"/>
       <c r="D64" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="358"/>
+      <c r="C65" s="355"/>
       <c r="D65" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="358"/>
+      <c r="C66" s="355"/>
       <c r="D66" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="18"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="358"/>
+      <c r="C67" s="355"/>
       <c r="D67" s="32" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="358"/>
+      <c r="C68" s="355"/>
       <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="359"/>
+      <c r="C69" s="361"/>
       <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="18"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="354">
+      <c r="C70" s="360">
         <v>2</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -9933,35 +10720,35 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="355"/>
+      <c r="C71" s="358"/>
       <c r="D71" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="3:5">
-      <c r="C72" s="355"/>
+      <c r="C72" s="358"/>
       <c r="D72" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="355"/>
+      <c r="C73" s="358"/>
       <c r="D73" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="355"/>
+      <c r="C74" s="358"/>
       <c r="D74" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="49"/>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="357">
+      <c r="C75" s="354">
         <v>3</v>
       </c>
       <c r="D75" s="44" t="s">
@@ -9970,42 +10757,42 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="358"/>
+      <c r="C76" s="355"/>
       <c r="D76" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="358"/>
+      <c r="C77" s="355"/>
       <c r="D77" s="33" t="s">
         <v>72</v>
       </c>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="358"/>
+      <c r="C78" s="355"/>
       <c r="D78" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E78" s="18"/>
     </row>
     <row r="79" spans="3:5">
-      <c r="C79" s="358"/>
+      <c r="C79" s="355"/>
       <c r="D79" s="33" t="s">
         <v>74</v>
       </c>
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C80" s="368"/>
+      <c r="C80" s="356"/>
       <c r="D80" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="3:5">
-      <c r="C81" s="369">
+      <c r="C81" s="357">
         <v>4</v>
       </c>
       <c r="D81" s="57" t="s">
@@ -10014,63 +10801,63 @@
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="355"/>
+      <c r="C82" s="358"/>
       <c r="D82" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E82" s="48"/>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="355"/>
+      <c r="C83" s="358"/>
       <c r="D83" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="3:5">
-      <c r="C84" s="355"/>
+      <c r="C84" s="358"/>
       <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="48"/>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="355"/>
+      <c r="C85" s="358"/>
       <c r="D85" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="48"/>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="355"/>
+      <c r="C86" s="358"/>
       <c r="D86" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="48"/>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="355"/>
+      <c r="C87" s="358"/>
       <c r="D87" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="355"/>
+      <c r="C88" s="358"/>
       <c r="D88" s="34" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="48"/>
     </row>
     <row r="89" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C89" s="370"/>
+      <c r="C89" s="359"/>
       <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="3:5">
-      <c r="C90" s="357">
+      <c r="C90" s="354">
         <v>5</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -10079,28 +10866,28 @@
       <c r="E90" s="18"/>
     </row>
     <row r="91" spans="3:5">
-      <c r="C91" s="358"/>
+      <c r="C91" s="355"/>
       <c r="D91" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="3:5">
-      <c r="C92" s="358"/>
+      <c r="C92" s="355"/>
       <c r="D92" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="3:5">
-      <c r="C93" s="358"/>
+      <c r="C93" s="355"/>
       <c r="D93" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="3:5">
-      <c r="C94" s="354">
+      <c r="C94" s="360">
         <v>6</v>
       </c>
       <c r="D94" s="57" t="s">
@@ -10109,21 +10896,21 @@
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="355"/>
+      <c r="C95" s="358"/>
       <c r="D95" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="355"/>
+      <c r="C96" s="358"/>
       <c r="D96" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="48"/>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="357">
+      <c r="C97" s="354">
         <v>7</v>
       </c>
       <c r="D97" s="44" t="s">
@@ -10132,35 +10919,35 @@
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="358"/>
+      <c r="C98" s="355"/>
       <c r="D98" s="32" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="18"/>
     </row>
     <row r="99" spans="3:5">
-      <c r="C99" s="358"/>
+      <c r="C99" s="355"/>
       <c r="D99" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="18"/>
     </row>
     <row r="100" spans="3:5">
-      <c r="C100" s="358"/>
+      <c r="C100" s="355"/>
       <c r="D100" s="32" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="18"/>
     </row>
     <row r="101" spans="3:5">
-      <c r="C101" s="359"/>
+      <c r="C101" s="361"/>
       <c r="D101" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="18"/>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="354">
+      <c r="C102" s="360">
         <v>8</v>
       </c>
       <c r="D102" s="57" t="s">
@@ -10169,21 +10956,21 @@
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="3:5">
-      <c r="C103" s="355"/>
+      <c r="C103" s="358"/>
       <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="3:5">
-      <c r="C104" s="355"/>
+      <c r="C104" s="358"/>
       <c r="D104" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="48"/>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="357" t="s">
+      <c r="C105" s="354" t="s">
         <v>99</v>
       </c>
       <c r="D105" s="58" t="s">
@@ -10194,12 +10981,23 @@
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="358"/>
+      <c r="C106" s="355"/>
       <c r="D106" s="38"/>
       <c r="E106" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C75:C80"/>
     <mergeCell ref="C81:C89"/>
@@ -10207,20 +11005,1678 @@
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C27:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:O119"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="97" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" style="97" customWidth="1"/>
+    <col min="8" max="15" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="18">
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="3" spans="2:15" ht="18">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="C4" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="C5" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" ht="18">
+      <c r="B7" s="371" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="371"/>
+      <c r="D7" s="371"/>
+      <c r="E7" s="371"/>
+    </row>
+    <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
+      <c r="B10" s="275" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="276" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="276" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="276" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="276" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="310" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="272" t="s">
+        <v>374</v>
+      </c>
+      <c r="I10" s="272" t="s">
+        <v>375</v>
+      </c>
+      <c r="J10" s="273" t="s">
+        <v>376</v>
+      </c>
+      <c r="K10" s="273" t="s">
+        <v>377</v>
+      </c>
+      <c r="L10" s="273" t="s">
+        <v>378</v>
+      </c>
+      <c r="M10" s="273" t="s">
+        <v>379</v>
+      </c>
+      <c r="N10" s="274" t="s">
+        <v>380</v>
+      </c>
+      <c r="O10" s="311" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="335">
+        <v>1</v>
+      </c>
+      <c r="C11" s="334" t="s">
+        <v>394</v>
+      </c>
+      <c r="D11" s="289" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="336" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="321">
+        <v>5</v>
+      </c>
+      <c r="H11" s="326">
+        <v>4</v>
+      </c>
+      <c r="I11" s="326">
+        <v>4</v>
+      </c>
+      <c r="J11" s="326">
+        <v>4</v>
+      </c>
+      <c r="K11" s="326">
+        <v>3</v>
+      </c>
+      <c r="L11" s="326">
+        <v>2</v>
+      </c>
+      <c r="M11" s="333">
+        <v>0</v>
+      </c>
+      <c r="N11" s="337">
+        <v>0</v>
+      </c>
+      <c r="O11" s="337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="338">
+        <v>2</v>
+      </c>
+      <c r="C12" s="334" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" s="289" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="336" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="321">
+        <v>5</v>
+      </c>
+      <c r="H12" s="326">
+        <v>4</v>
+      </c>
+      <c r="I12" s="339">
+        <v>3</v>
+      </c>
+      <c r="J12" s="339">
+        <v>3</v>
+      </c>
+      <c r="K12" s="339">
+        <v>2</v>
+      </c>
+      <c r="L12" s="339">
+        <v>0</v>
+      </c>
+      <c r="M12" s="331">
+        <v>0</v>
+      </c>
+      <c r="N12" s="332">
+        <v>0</v>
+      </c>
+      <c r="O12" s="332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="335">
+        <v>3</v>
+      </c>
+      <c r="C13" s="334" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="289"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="326"/>
+      <c r="I13" s="339"/>
+      <c r="J13" s="339"/>
+      <c r="K13" s="339"/>
+      <c r="L13" s="339"/>
+      <c r="M13" s="331"/>
+      <c r="N13" s="332"/>
+      <c r="O13" s="332"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="338">
+        <v>4</v>
+      </c>
+      <c r="C14" s="340" t="s">
+        <v>382</v>
+      </c>
+      <c r="D14" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="336" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="321">
+        <v>20</v>
+      </c>
+      <c r="H14" s="326">
+        <v>18</v>
+      </c>
+      <c r="I14" s="339">
+        <v>15</v>
+      </c>
+      <c r="J14" s="339">
+        <v>12</v>
+      </c>
+      <c r="K14" s="339">
+        <v>10</v>
+      </c>
+      <c r="L14" s="339">
+        <v>7</v>
+      </c>
+      <c r="M14" s="331">
+        <v>4</v>
+      </c>
+      <c r="N14" s="332">
+        <v>0</v>
+      </c>
+      <c r="O14" s="332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="335">
+        <v>5</v>
+      </c>
+      <c r="C15" s="340" t="s">
+        <v>383</v>
+      </c>
+      <c r="D15" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="336" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="321">
+        <v>20</v>
+      </c>
+      <c r="H15" s="326">
+        <v>18</v>
+      </c>
+      <c r="I15" s="339">
+        <v>15</v>
+      </c>
+      <c r="J15" s="339">
+        <v>10</v>
+      </c>
+      <c r="K15" s="339">
+        <v>8</v>
+      </c>
+      <c r="L15" s="326">
+        <v>5</v>
+      </c>
+      <c r="M15" s="333">
+        <v>3</v>
+      </c>
+      <c r="N15" s="332">
+        <v>0</v>
+      </c>
+      <c r="O15" s="332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" s="197" customFormat="1">
+      <c r="B16" s="338">
+        <v>6</v>
+      </c>
+      <c r="C16" s="334" t="s">
+        <v>359</v>
+      </c>
+      <c r="D16" s="289"/>
+      <c r="E16" s="336"/>
+      <c r="F16" s="285"/>
+      <c r="G16" s="321"/>
+      <c r="H16" s="326"/>
+      <c r="I16" s="339"/>
+      <c r="J16" s="339"/>
+      <c r="K16" s="339"/>
+      <c r="L16" s="339"/>
+      <c r="M16" s="331"/>
+      <c r="N16" s="332"/>
+      <c r="O16" s="332"/>
+    </row>
+    <row r="17" spans="2:15" s="197" customFormat="1">
+      <c r="B17" s="335">
+        <v>7</v>
+      </c>
+      <c r="C17" s="340" t="s">
+        <v>360</v>
+      </c>
+      <c r="D17" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="336" t="s">
+        <v>349</v>
+      </c>
+      <c r="F17" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="321">
+        <v>15</v>
+      </c>
+      <c r="H17" s="326">
+        <v>12</v>
+      </c>
+      <c r="I17" s="339">
+        <v>10</v>
+      </c>
+      <c r="J17" s="339">
+        <v>8</v>
+      </c>
+      <c r="K17" s="339">
+        <v>6</v>
+      </c>
+      <c r="L17" s="339">
+        <v>5</v>
+      </c>
+      <c r="M17" s="331">
+        <v>3</v>
+      </c>
+      <c r="N17" s="332">
+        <v>0</v>
+      </c>
+      <c r="O17" s="332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" s="197" customFormat="1">
+      <c r="B18" s="338">
+        <v>8</v>
+      </c>
+      <c r="C18" s="340" t="s">
+        <v>361</v>
+      </c>
+      <c r="D18" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="336" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="321">
+        <v>10</v>
+      </c>
+      <c r="H18" s="326">
+        <v>10</v>
+      </c>
+      <c r="I18" s="339">
+        <v>10</v>
+      </c>
+      <c r="J18" s="339">
+        <v>10</v>
+      </c>
+      <c r="K18" s="339">
+        <v>10</v>
+      </c>
+      <c r="L18" s="339">
+        <v>10</v>
+      </c>
+      <c r="M18" s="331">
+        <v>10</v>
+      </c>
+      <c r="N18" s="332">
+        <v>10</v>
+      </c>
+      <c r="O18" s="332">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" s="197" customFormat="1">
+      <c r="B19" s="335">
+        <v>9</v>
+      </c>
+      <c r="C19" s="340" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="336" t="s">
+        <v>349</v>
+      </c>
+      <c r="F19" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="321">
+        <v>15</v>
+      </c>
+      <c r="H19" s="326">
+        <v>15</v>
+      </c>
+      <c r="I19" s="339">
+        <v>15</v>
+      </c>
+      <c r="J19" s="339">
+        <v>15</v>
+      </c>
+      <c r="K19" s="326">
+        <v>15</v>
+      </c>
+      <c r="L19" s="326">
+        <v>15</v>
+      </c>
+      <c r="M19" s="333">
+        <v>15</v>
+      </c>
+      <c r="N19" s="332">
+        <v>15</v>
+      </c>
+      <c r="O19" s="332">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="338">
+        <v>10</v>
+      </c>
+      <c r="C20" s="334" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20" s="289" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="336" t="s">
+        <v>349</v>
+      </c>
+      <c r="F20" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="321">
+        <v>10</v>
+      </c>
+      <c r="H20" s="321">
+        <v>8</v>
+      </c>
+      <c r="I20" s="326">
+        <v>6</v>
+      </c>
+      <c r="J20" s="326">
+        <v>4</v>
+      </c>
+      <c r="K20" s="326">
+        <v>3</v>
+      </c>
+      <c r="L20" s="326">
+        <v>0</v>
+      </c>
+      <c r="M20" s="333">
+        <v>0</v>
+      </c>
+      <c r="N20" s="332">
+        <v>0</v>
+      </c>
+      <c r="O20" s="332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="335">
+        <v>11</v>
+      </c>
+      <c r="C21" s="334" t="s">
+        <v>396</v>
+      </c>
+      <c r="D21" s="289" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="336" t="s">
+        <v>349</v>
+      </c>
+      <c r="F21" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="321">
+        <v>10</v>
+      </c>
+      <c r="H21" s="326">
+        <v>8</v>
+      </c>
+      <c r="I21" s="326">
+        <v>6</v>
+      </c>
+      <c r="J21" s="326">
+        <v>3</v>
+      </c>
+      <c r="K21" s="326">
+        <v>2</v>
+      </c>
+      <c r="L21" s="326">
+        <v>0</v>
+      </c>
+      <c r="M21" s="333">
+        <v>0</v>
+      </c>
+      <c r="N21" s="332">
+        <v>0</v>
+      </c>
+      <c r="O21" s="332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="338">
+        <v>12</v>
+      </c>
+      <c r="C22" s="334" t="s">
+        <v>367</v>
+      </c>
+      <c r="D22" s="289"/>
+      <c r="E22" s="336"/>
+      <c r="F22" s="285"/>
+      <c r="G22" s="321"/>
+      <c r="H22" s="326"/>
+      <c r="I22" s="339"/>
+      <c r="J22" s="339"/>
+      <c r="K22" s="339"/>
+      <c r="L22" s="339"/>
+      <c r="M22" s="331"/>
+      <c r="N22" s="332"/>
+      <c r="O22" s="332"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="335">
+        <v>13</v>
+      </c>
+      <c r="C23" s="340" t="s">
+        <v>368</v>
+      </c>
+      <c r="D23" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="336" t="s">
+        <v>350</v>
+      </c>
+      <c r="F23" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="321">
+        <v>12</v>
+      </c>
+      <c r="H23" s="326">
+        <v>12</v>
+      </c>
+      <c r="I23" s="339">
+        <v>12</v>
+      </c>
+      <c r="J23" s="339">
+        <v>11</v>
+      </c>
+      <c r="K23" s="339">
+        <v>11</v>
+      </c>
+      <c r="L23" s="339">
+        <v>10</v>
+      </c>
+      <c r="M23" s="331">
+        <v>10</v>
+      </c>
+      <c r="N23" s="332">
+        <v>10</v>
+      </c>
+      <c r="O23" s="332">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="338">
+        <v>14</v>
+      </c>
+      <c r="C24" s="341" t="s">
+        <v>370</v>
+      </c>
+      <c r="D24" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="336" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="321">
+        <v>12</v>
+      </c>
+      <c r="H24" s="326">
+        <v>12</v>
+      </c>
+      <c r="I24" s="339">
+        <v>12</v>
+      </c>
+      <c r="J24" s="339">
+        <v>12</v>
+      </c>
+      <c r="K24" s="339">
+        <v>12</v>
+      </c>
+      <c r="L24" s="339">
+        <v>12</v>
+      </c>
+      <c r="M24" s="331">
+        <v>12</v>
+      </c>
+      <c r="N24" s="332">
+        <v>12</v>
+      </c>
+      <c r="O24" s="332">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="335">
+        <v>15</v>
+      </c>
+      <c r="C25" s="340" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="336" t="s">
+        <v>350</v>
+      </c>
+      <c r="F25" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="321">
+        <v>12</v>
+      </c>
+      <c r="H25" s="326">
+        <v>12</v>
+      </c>
+      <c r="I25" s="339">
+        <v>12</v>
+      </c>
+      <c r="J25" s="339">
+        <v>11</v>
+      </c>
+      <c r="K25" s="339">
+        <v>11</v>
+      </c>
+      <c r="L25" s="339">
+        <v>10</v>
+      </c>
+      <c r="M25" s="331">
+        <v>10</v>
+      </c>
+      <c r="N25" s="332">
+        <v>10</v>
+      </c>
+      <c r="O25" s="332">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="338">
+        <v>16</v>
+      </c>
+      <c r="C26" s="341" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="336" t="s">
+        <v>350</v>
+      </c>
+      <c r="F26" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="321">
+        <v>12</v>
+      </c>
+      <c r="H26" s="326">
+        <v>12</v>
+      </c>
+      <c r="I26" s="339">
+        <v>12</v>
+      </c>
+      <c r="J26" s="339">
+        <v>12</v>
+      </c>
+      <c r="K26" s="339">
+        <v>12</v>
+      </c>
+      <c r="L26" s="339">
+        <v>12</v>
+      </c>
+      <c r="M26" s="331">
+        <v>12</v>
+      </c>
+      <c r="N26" s="332">
+        <v>12</v>
+      </c>
+      <c r="O26" s="332">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="335">
+        <v>17</v>
+      </c>
+      <c r="C27" s="334" t="s">
+        <v>359</v>
+      </c>
+      <c r="D27" s="289"/>
+      <c r="E27" s="336"/>
+      <c r="F27" s="285"/>
+      <c r="G27" s="321"/>
+      <c r="H27" s="326"/>
+      <c r="I27" s="339"/>
+      <c r="J27" s="339"/>
+      <c r="K27" s="339"/>
+      <c r="L27" s="339"/>
+      <c r="M27" s="331"/>
+      <c r="N27" s="332"/>
+      <c r="O27" s="332"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="338">
+        <v>18</v>
+      </c>
+      <c r="C28" s="341" t="s">
+        <v>386</v>
+      </c>
+      <c r="D28" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="336" t="s">
+        <v>350</v>
+      </c>
+      <c r="F28" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="321">
+        <v>12</v>
+      </c>
+      <c r="H28" s="326">
+        <v>12</v>
+      </c>
+      <c r="I28" s="339">
+        <v>12</v>
+      </c>
+      <c r="J28" s="339">
+        <v>12</v>
+      </c>
+      <c r="K28" s="339">
+        <v>12</v>
+      </c>
+      <c r="L28" s="339">
+        <v>12</v>
+      </c>
+      <c r="M28" s="331">
+        <v>12</v>
+      </c>
+      <c r="N28" s="332">
+        <v>12</v>
+      </c>
+      <c r="O28" s="332">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="335">
+        <v>19</v>
+      </c>
+      <c r="C29" s="334" t="s">
+        <v>388</v>
+      </c>
+      <c r="D29" s="289"/>
+      <c r="E29" s="336"/>
+      <c r="F29" s="285"/>
+      <c r="G29" s="321"/>
+      <c r="H29" s="326"/>
+      <c r="I29" s="326"/>
+      <c r="J29" s="326"/>
+      <c r="K29" s="326"/>
+      <c r="L29" s="326"/>
+      <c r="M29" s="333"/>
+      <c r="N29" s="332"/>
+      <c r="O29" s="332"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="338">
+        <v>20</v>
+      </c>
+      <c r="C30" s="340" t="s">
+        <v>387</v>
+      </c>
+      <c r="D30" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="336" t="s">
+        <v>352</v>
+      </c>
+      <c r="F30" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="321">
+        <v>20</v>
+      </c>
+      <c r="H30" s="326">
+        <v>18</v>
+      </c>
+      <c r="I30" s="326">
+        <v>15</v>
+      </c>
+      <c r="J30" s="326">
+        <v>12</v>
+      </c>
+      <c r="K30" s="326">
+        <v>8</v>
+      </c>
+      <c r="L30" s="326">
+        <v>5</v>
+      </c>
+      <c r="M30" s="333">
+        <v>3</v>
+      </c>
+      <c r="N30" s="332">
+        <v>0</v>
+      </c>
+      <c r="O30" s="332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="335">
+        <v>21</v>
+      </c>
+      <c r="C31" s="341" t="s">
+        <v>391</v>
+      </c>
+      <c r="D31" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="336" t="s">
+        <v>352</v>
+      </c>
+      <c r="F31" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="321">
+        <v>12</v>
+      </c>
+      <c r="H31" s="326">
+        <v>12</v>
+      </c>
+      <c r="I31" s="326">
+        <v>12</v>
+      </c>
+      <c r="J31" s="326">
+        <v>12</v>
+      </c>
+      <c r="K31" s="326">
+        <v>12</v>
+      </c>
+      <c r="L31" s="326">
+        <v>12</v>
+      </c>
+      <c r="M31" s="333">
+        <v>12</v>
+      </c>
+      <c r="N31" s="332">
+        <v>12</v>
+      </c>
+      <c r="O31" s="332">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="338">
+        <v>22</v>
+      </c>
+      <c r="C32" s="340" t="s">
+        <v>389</v>
+      </c>
+      <c r="D32" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="336" t="s">
+        <v>352</v>
+      </c>
+      <c r="F32" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="321">
+        <v>12</v>
+      </c>
+      <c r="H32" s="326">
+        <v>12</v>
+      </c>
+      <c r="I32" s="326">
+        <v>12</v>
+      </c>
+      <c r="J32" s="326">
+        <v>12</v>
+      </c>
+      <c r="K32" s="326">
+        <v>12</v>
+      </c>
+      <c r="L32" s="326">
+        <v>12</v>
+      </c>
+      <c r="M32" s="333">
+        <v>12</v>
+      </c>
+      <c r="N32" s="332">
+        <v>12</v>
+      </c>
+      <c r="O32" s="332">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="335">
+        <v>23</v>
+      </c>
+      <c r="C33" s="340" t="s">
+        <v>390</v>
+      </c>
+      <c r="D33" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="336" t="s">
+        <v>352</v>
+      </c>
+      <c r="F33" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="321">
+        <v>12</v>
+      </c>
+      <c r="H33" s="326">
+        <v>12</v>
+      </c>
+      <c r="I33" s="326">
+        <v>12</v>
+      </c>
+      <c r="J33" s="326">
+        <v>12</v>
+      </c>
+      <c r="K33" s="326">
+        <v>12</v>
+      </c>
+      <c r="L33" s="326">
+        <v>12</v>
+      </c>
+      <c r="M33" s="333">
+        <v>12</v>
+      </c>
+      <c r="N33" s="332">
+        <v>12</v>
+      </c>
+      <c r="O33" s="332">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="338">
+        <v>24</v>
+      </c>
+      <c r="C34" s="342"/>
+      <c r="D34" s="289"/>
+      <c r="E34" s="336"/>
+      <c r="F34" s="285"/>
+      <c r="G34" s="321"/>
+      <c r="H34" s="326"/>
+      <c r="I34" s="326"/>
+      <c r="J34" s="326"/>
+      <c r="K34" s="326"/>
+      <c r="L34" s="326"/>
+      <c r="M34" s="333"/>
+      <c r="N34" s="332"/>
+      <c r="O34" s="332"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="335">
+        <v>25</v>
+      </c>
+      <c r="C35" s="342"/>
+      <c r="D35" s="289"/>
+      <c r="E35" s="336"/>
+      <c r="F35" s="285"/>
+      <c r="G35" s="321"/>
+      <c r="H35" s="326"/>
+      <c r="I35" s="326"/>
+      <c r="J35" s="326"/>
+      <c r="K35" s="326"/>
+      <c r="L35" s="326"/>
+      <c r="M35" s="333"/>
+      <c r="N35" s="332"/>
+      <c r="O35" s="332"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="338">
+        <v>26</v>
+      </c>
+      <c r="C36" s="336"/>
+      <c r="D36" s="289"/>
+      <c r="E36" s="336"/>
+      <c r="F36" s="285"/>
+      <c r="G36" s="321"/>
+      <c r="H36" s="326"/>
+      <c r="I36" s="326"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="326"/>
+      <c r="L36" s="326"/>
+      <c r="M36" s="333"/>
+      <c r="N36" s="332"/>
+      <c r="O36" s="332"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="335">
+        <v>27</v>
+      </c>
+      <c r="C37" s="336"/>
+      <c r="D37" s="289"/>
+      <c r="E37" s="336"/>
+      <c r="F37" s="285"/>
+      <c r="G37" s="321"/>
+      <c r="H37" s="326"/>
+      <c r="I37" s="326"/>
+      <c r="J37" s="326"/>
+      <c r="K37" s="326"/>
+      <c r="L37" s="326"/>
+      <c r="M37" s="333"/>
+      <c r="N37" s="332"/>
+      <c r="O37" s="332"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="338">
+        <v>28</v>
+      </c>
+      <c r="C38" s="336"/>
+      <c r="D38" s="289"/>
+      <c r="E38" s="336"/>
+      <c r="F38" s="285"/>
+      <c r="G38" s="321"/>
+      <c r="H38" s="326"/>
+      <c r="I38" s="326"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="326"/>
+      <c r="L38" s="326"/>
+      <c r="M38" s="333"/>
+      <c r="N38" s="332"/>
+      <c r="O38" s="332"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="335">
+        <v>29</v>
+      </c>
+      <c r="C39" s="343"/>
+      <c r="D39" s="289"/>
+      <c r="E39" s="336"/>
+      <c r="F39" s="285"/>
+      <c r="G39" s="321"/>
+      <c r="H39" s="326"/>
+      <c r="I39" s="326"/>
+      <c r="J39" s="326"/>
+      <c r="K39" s="326"/>
+      <c r="L39" s="326"/>
+      <c r="M39" s="333"/>
+      <c r="N39" s="332"/>
+      <c r="O39" s="332"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="338">
+        <v>30</v>
+      </c>
+      <c r="C40" s="343"/>
+      <c r="D40" s="289"/>
+      <c r="E40" s="336"/>
+      <c r="F40" s="285"/>
+      <c r="G40" s="321"/>
+      <c r="H40" s="326"/>
+      <c r="I40" s="326"/>
+      <c r="J40" s="326"/>
+      <c r="K40" s="326"/>
+      <c r="L40" s="326"/>
+      <c r="M40" s="333"/>
+      <c r="N40" s="332"/>
+      <c r="O40" s="332"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="335">
+        <v>31</v>
+      </c>
+      <c r="C41" s="343"/>
+      <c r="D41" s="289"/>
+      <c r="E41" s="336"/>
+      <c r="F41" s="285"/>
+      <c r="G41" s="321"/>
+      <c r="H41" s="326"/>
+      <c r="I41" s="326"/>
+      <c r="J41" s="326"/>
+      <c r="K41" s="326"/>
+      <c r="L41" s="326"/>
+      <c r="M41" s="333"/>
+      <c r="N41" s="332"/>
+      <c r="O41" s="332"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="338">
+        <v>32</v>
+      </c>
+      <c r="C42" s="343"/>
+      <c r="D42" s="289"/>
+      <c r="E42" s="336"/>
+      <c r="F42" s="285"/>
+      <c r="G42" s="321"/>
+      <c r="H42" s="326"/>
+      <c r="I42" s="326"/>
+      <c r="J42" s="326"/>
+      <c r="K42" s="326"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="333"/>
+      <c r="N42" s="332"/>
+      <c r="O42" s="332"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="335">
+        <v>33</v>
+      </c>
+      <c r="C43" s="343"/>
+      <c r="D43" s="289"/>
+      <c r="E43" s="336"/>
+      <c r="F43" s="285"/>
+      <c r="G43" s="321"/>
+      <c r="H43" s="326"/>
+      <c r="I43" s="326"/>
+      <c r="J43" s="326"/>
+      <c r="K43" s="326"/>
+      <c r="L43" s="326"/>
+      <c r="M43" s="333"/>
+      <c r="N43" s="332"/>
+      <c r="O43" s="332"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="338">
+        <v>34</v>
+      </c>
+      <c r="C44" s="340"/>
+      <c r="D44" s="289"/>
+      <c r="E44" s="336"/>
+      <c r="F44" s="285"/>
+      <c r="G44" s="321"/>
+      <c r="H44" s="326"/>
+      <c r="I44" s="326"/>
+      <c r="J44" s="326"/>
+      <c r="K44" s="326"/>
+      <c r="L44" s="326"/>
+      <c r="M44" s="333"/>
+      <c r="N44" s="332"/>
+      <c r="O44" s="332"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="335">
+        <v>35</v>
+      </c>
+      <c r="C45" s="343"/>
+      <c r="D45" s="289"/>
+      <c r="E45" s="336"/>
+      <c r="F45" s="285"/>
+      <c r="G45" s="321"/>
+      <c r="H45" s="326"/>
+      <c r="I45" s="326"/>
+      <c r="J45" s="326"/>
+      <c r="K45" s="326"/>
+      <c r="L45" s="326"/>
+      <c r="M45" s="333"/>
+      <c r="N45" s="332"/>
+      <c r="O45" s="332"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="338">
+        <v>36</v>
+      </c>
+      <c r="C46" s="343"/>
+      <c r="D46" s="289"/>
+      <c r="E46" s="336"/>
+      <c r="F46" s="285"/>
+      <c r="G46" s="321"/>
+      <c r="H46" s="326"/>
+      <c r="I46" s="326"/>
+      <c r="J46" s="326"/>
+      <c r="K46" s="326"/>
+      <c r="L46" s="326"/>
+      <c r="M46" s="333"/>
+      <c r="N46" s="332"/>
+      <c r="O46" s="332"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="335">
+        <v>37</v>
+      </c>
+      <c r="C47" s="343"/>
+      <c r="D47" s="289"/>
+      <c r="E47" s="336"/>
+      <c r="F47" s="285"/>
+      <c r="G47" s="321"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="326"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="333"/>
+      <c r="N47" s="332"/>
+      <c r="O47" s="332"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="338">
+        <v>38</v>
+      </c>
+      <c r="C48" s="343"/>
+      <c r="D48" s="289"/>
+      <c r="E48" s="336"/>
+      <c r="F48" s="285"/>
+      <c r="G48" s="321"/>
+      <c r="H48" s="326"/>
+      <c r="I48" s="326"/>
+      <c r="J48" s="326"/>
+      <c r="K48" s="326"/>
+      <c r="L48" s="326"/>
+      <c r="M48" s="333"/>
+      <c r="N48" s="332"/>
+      <c r="O48" s="332"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="335">
+        <v>39</v>
+      </c>
+      <c r="C49" s="340"/>
+      <c r="D49" s="289"/>
+      <c r="E49" s="336"/>
+      <c r="F49" s="285"/>
+      <c r="G49" s="321"/>
+      <c r="H49" s="326"/>
+      <c r="I49" s="326"/>
+      <c r="J49" s="326"/>
+      <c r="K49" s="326"/>
+      <c r="L49" s="326"/>
+      <c r="M49" s="333"/>
+      <c r="N49" s="332"/>
+      <c r="O49" s="332"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="338">
+        <v>40</v>
+      </c>
+      <c r="C50" s="340"/>
+      <c r="D50" s="289"/>
+      <c r="E50" s="336"/>
+      <c r="F50" s="285"/>
+      <c r="G50" s="321"/>
+      <c r="H50" s="326"/>
+      <c r="I50" s="326"/>
+      <c r="J50" s="326"/>
+      <c r="K50" s="326"/>
+      <c r="L50" s="326"/>
+      <c r="M50" s="333"/>
+      <c r="N50" s="332"/>
+      <c r="O50" s="332"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="335">
+        <v>41</v>
+      </c>
+      <c r="C51" s="340"/>
+      <c r="D51" s="289"/>
+      <c r="E51" s="336"/>
+      <c r="F51" s="285"/>
+      <c r="G51" s="321"/>
+      <c r="H51" s="326"/>
+      <c r="I51" s="326"/>
+      <c r="J51" s="326"/>
+      <c r="K51" s="326"/>
+      <c r="L51" s="326"/>
+      <c r="M51" s="333"/>
+      <c r="N51" s="332"/>
+      <c r="O51" s="332"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="338">
+        <v>42</v>
+      </c>
+      <c r="C52" s="340"/>
+      <c r="D52" s="289"/>
+      <c r="E52" s="336"/>
+      <c r="F52" s="285"/>
+      <c r="G52" s="321"/>
+      <c r="H52" s="326"/>
+      <c r="I52" s="326"/>
+      <c r="J52" s="326"/>
+      <c r="K52" s="326"/>
+      <c r="L52" s="326"/>
+      <c r="M52" s="333"/>
+      <c r="N52" s="332"/>
+      <c r="O52" s="332"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="335">
+        <v>43</v>
+      </c>
+      <c r="C53" s="344"/>
+      <c r="D53" s="289"/>
+      <c r="E53" s="336"/>
+      <c r="F53" s="285"/>
+      <c r="G53" s="321"/>
+      <c r="H53" s="321"/>
+      <c r="I53" s="321"/>
+      <c r="J53" s="321"/>
+      <c r="K53" s="321"/>
+      <c r="L53" s="321"/>
+      <c r="M53" s="345"/>
+      <c r="N53" s="332"/>
+      <c r="O53" s="332"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="346" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="347"/>
+      <c r="D54" s="348"/>
+      <c r="E54" s="349"/>
+      <c r="F54" s="350"/>
+      <c r="G54" s="351"/>
+      <c r="H54" s="351"/>
+      <c r="I54" s="351"/>
+      <c r="J54" s="351"/>
+      <c r="K54" s="351"/>
+      <c r="L54" s="351"/>
+      <c r="M54" s="352"/>
+      <c r="N54" s="353"/>
+      <c r="O54" s="353"/>
+    </row>
+    <row r="101" spans="2:15" s="97" customFormat="1">
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+    </row>
+    <row r="102" spans="2:15" s="97" customFormat="1">
+      <c r="B102"/>
+      <c r="C102" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+    </row>
+    <row r="103" spans="2:15" s="97" customFormat="1">
+      <c r="B103"/>
+      <c r="C103" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+    </row>
+    <row r="104" spans="2:15" s="97" customFormat="1">
+      <c r="B104"/>
+      <c r="C104" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+    </row>
+    <row r="105" spans="2:15" s="97" customFormat="1">
+      <c r="B105"/>
+      <c r="C105" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+    </row>
+    <row r="106" spans="2:15" s="97" customFormat="1">
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106"/>
+      <c r="E106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+    </row>
+    <row r="107" spans="2:15" s="97" customFormat="1">
+      <c r="B107"/>
+      <c r="C107" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="E107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="2:15" s="97" customFormat="1">
+      <c r="B108"/>
+      <c r="C108" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="E108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+    </row>
+    <row r="109" spans="2:15" s="97" customFormat="1">
+      <c r="B109"/>
+      <c r="C109" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+    </row>
+    <row r="110" spans="2:15" s="97" customFormat="1">
+      <c r="B110"/>
+      <c r="C110" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="E110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+    </row>
+    <row r="111" spans="2:15" s="97" customFormat="1">
+      <c r="B111"/>
+      <c r="C111" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+    </row>
+    <row r="113" spans="2:15" s="97" customFormat="1">
+      <c r="B113" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113"/>
+      <c r="E113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+    </row>
+    <row r="114" spans="2:15" s="97" customFormat="1">
+      <c r="B114"/>
+      <c r="C114" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="E114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+    </row>
+    <row r="115" spans="2:15" s="97" customFormat="1">
+      <c r="B115"/>
+      <c r="C115" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+    </row>
+    <row r="116" spans="2:15" s="97" customFormat="1">
+      <c r="B116"/>
+      <c r="C116" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+    </row>
+    <row r="117" spans="2:15" s="97" customFormat="1">
+      <c r="B117"/>
+      <c r="C117" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+    </row>
+    <row r="118" spans="2:15" s="97" customFormat="1">
+      <c r="B118"/>
+      <c r="C118" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+    </row>
+    <row r="119" spans="2:15" s="97" customFormat="1">
+      <c r="B119"/>
+      <c r="C119" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F52">
+      <formula1>$C$114:$C$119</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E11:E54">
+      <formula1>$C$107:$C$111</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:D38">
+      <formula1>$C$108:$C$112</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F53:F91">
+      <formula1>$C$115:$C$119</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D53:D54 D39:D48 D11:D34">
+      <formula1>$C$101:$C$105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:D52">
+      <formula1>$C$118:$C$122</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="28" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -21347,7 +23803,7 @@
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E33"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21450,19 +23906,35 @@
         <v>351</v>
       </c>
       <c r="F11" s="285" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G11" s="321">
         <v>5</v>
       </c>
-      <c r="H11" s="326"/>
-      <c r="I11" s="326"/>
-      <c r="J11" s="326"/>
-      <c r="K11" s="326"/>
-      <c r="L11" s="326"/>
-      <c r="M11" s="333"/>
-      <c r="N11" s="337"/>
-      <c r="O11" s="337"/>
+      <c r="H11" s="326">
+        <v>4</v>
+      </c>
+      <c r="I11" s="326">
+        <v>4</v>
+      </c>
+      <c r="J11" s="326">
+        <v>4</v>
+      </c>
+      <c r="K11" s="326">
+        <v>3</v>
+      </c>
+      <c r="L11" s="326">
+        <v>2</v>
+      </c>
+      <c r="M11" s="333">
+        <v>0</v>
+      </c>
+      <c r="N11" s="337">
+        <v>0</v>
+      </c>
+      <c r="O11" s="337">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="338">
@@ -21478,19 +23950,35 @@
         <v>351</v>
       </c>
       <c r="F12" s="285" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G12" s="321">
         <v>5</v>
       </c>
-      <c r="H12" s="326"/>
-      <c r="I12" s="339"/>
-      <c r="J12" s="339"/>
-      <c r="K12" s="339"/>
-      <c r="L12" s="339"/>
-      <c r="M12" s="331"/>
-      <c r="N12" s="332"/>
-      <c r="O12" s="332"/>
+      <c r="H12" s="326">
+        <v>4</v>
+      </c>
+      <c r="I12" s="339">
+        <v>3</v>
+      </c>
+      <c r="J12" s="339">
+        <v>3</v>
+      </c>
+      <c r="K12" s="339">
+        <v>2</v>
+      </c>
+      <c r="L12" s="339">
+        <v>0</v>
+      </c>
+      <c r="M12" s="331">
+        <v>0</v>
+      </c>
+      <c r="N12" s="332">
+        <v>0</v>
+      </c>
+      <c r="O12" s="332">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="335">
@@ -21526,19 +24014,35 @@
         <v>351</v>
       </c>
       <c r="F14" s="285" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G14" s="321">
         <v>20</v>
       </c>
-      <c r="H14" s="326"/>
-      <c r="I14" s="339"/>
-      <c r="J14" s="339"/>
-      <c r="K14" s="339"/>
-      <c r="L14" s="339"/>
-      <c r="M14" s="331"/>
-      <c r="N14" s="332"/>
-      <c r="O14" s="332"/>
+      <c r="H14" s="326">
+        <v>18</v>
+      </c>
+      <c r="I14" s="339">
+        <v>15</v>
+      </c>
+      <c r="J14" s="339">
+        <v>12</v>
+      </c>
+      <c r="K14" s="339">
+        <v>10</v>
+      </c>
+      <c r="L14" s="339">
+        <v>7</v>
+      </c>
+      <c r="M14" s="331">
+        <v>4</v>
+      </c>
+      <c r="N14" s="332">
+        <v>0</v>
+      </c>
+      <c r="O14" s="332">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="335">
@@ -21554,19 +24058,35 @@
         <v>351</v>
       </c>
       <c r="F15" s="285" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G15" s="321">
         <v>20</v>
       </c>
-      <c r="H15" s="326"/>
-      <c r="I15" s="339"/>
-      <c r="J15" s="339"/>
-      <c r="K15" s="339"/>
-      <c r="L15" s="326"/>
-      <c r="M15" s="333"/>
-      <c r="N15" s="332"/>
-      <c r="O15" s="332"/>
+      <c r="H15" s="326">
+        <v>18</v>
+      </c>
+      <c r="I15" s="339">
+        <v>15</v>
+      </c>
+      <c r="J15" s="339">
+        <v>10</v>
+      </c>
+      <c r="K15" s="339">
+        <v>8</v>
+      </c>
+      <c r="L15" s="326">
+        <v>5</v>
+      </c>
+      <c r="M15" s="333">
+        <v>3</v>
+      </c>
+      <c r="N15" s="332">
+        <v>0</v>
+      </c>
+      <c r="O15" s="332">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:15" s="197" customFormat="1">
       <c r="B16" s="338">
@@ -21602,19 +24122,35 @@
         <v>349</v>
       </c>
       <c r="F17" s="285" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G17" s="321">
         <v>15</v>
       </c>
-      <c r="H17" s="326"/>
-      <c r="I17" s="339"/>
-      <c r="J17" s="339"/>
-      <c r="K17" s="339"/>
-      <c r="L17" s="339"/>
-      <c r="M17" s="331"/>
-      <c r="N17" s="332"/>
-      <c r="O17" s="332"/>
+      <c r="H17" s="326">
+        <v>12</v>
+      </c>
+      <c r="I17" s="339">
+        <v>10</v>
+      </c>
+      <c r="J17" s="339">
+        <v>8</v>
+      </c>
+      <c r="K17" s="339">
+        <v>6</v>
+      </c>
+      <c r="L17" s="339">
+        <v>5</v>
+      </c>
+      <c r="M17" s="331">
+        <v>3</v>
+      </c>
+      <c r="N17" s="332">
+        <v>0</v>
+      </c>
+      <c r="O17" s="332">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:15" s="197" customFormat="1">
       <c r="B18" s="338">
@@ -21635,14 +24171,30 @@
       <c r="G18" s="321">
         <v>10</v>
       </c>
-      <c r="H18" s="326"/>
-      <c r="I18" s="339"/>
-      <c r="J18" s="339"/>
-      <c r="K18" s="339"/>
-      <c r="L18" s="339"/>
-      <c r="M18" s="331"/>
-      <c r="N18" s="332"/>
-      <c r="O18" s="332"/>
+      <c r="H18" s="326">
+        <v>10</v>
+      </c>
+      <c r="I18" s="339">
+        <v>10</v>
+      </c>
+      <c r="J18" s="339">
+        <v>10</v>
+      </c>
+      <c r="K18" s="339">
+        <v>10</v>
+      </c>
+      <c r="L18" s="339">
+        <v>10</v>
+      </c>
+      <c r="M18" s="331">
+        <v>10</v>
+      </c>
+      <c r="N18" s="332">
+        <v>10</v>
+      </c>
+      <c r="O18" s="332">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="2:15" s="197" customFormat="1">
       <c r="B19" s="335">
@@ -21663,14 +24215,30 @@
       <c r="G19" s="321">
         <v>15</v>
       </c>
-      <c r="H19" s="326"/>
-      <c r="I19" s="339"/>
-      <c r="J19" s="339"/>
-      <c r="K19" s="326"/>
-      <c r="L19" s="326"/>
-      <c r="M19" s="333"/>
-      <c r="N19" s="332"/>
-      <c r="O19" s="332"/>
+      <c r="H19" s="326">
+        <v>15</v>
+      </c>
+      <c r="I19" s="339">
+        <v>15</v>
+      </c>
+      <c r="J19" s="339">
+        <v>15</v>
+      </c>
+      <c r="K19" s="326">
+        <v>15</v>
+      </c>
+      <c r="L19" s="326">
+        <v>15</v>
+      </c>
+      <c r="M19" s="333">
+        <v>15</v>
+      </c>
+      <c r="N19" s="332">
+        <v>15</v>
+      </c>
+      <c r="O19" s="332">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="338">
@@ -21686,19 +24254,35 @@
         <v>349</v>
       </c>
       <c r="F20" s="285" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G20" s="321">
         <v>10</v>
       </c>
-      <c r="H20" s="321"/>
-      <c r="I20" s="326"/>
-      <c r="J20" s="326"/>
-      <c r="K20" s="326"/>
-      <c r="L20" s="326"/>
-      <c r="M20" s="333"/>
-      <c r="N20" s="332"/>
-      <c r="O20" s="332"/>
+      <c r="H20" s="321">
+        <v>8</v>
+      </c>
+      <c r="I20" s="326">
+        <v>6</v>
+      </c>
+      <c r="J20" s="326">
+        <v>4</v>
+      </c>
+      <c r="K20" s="326">
+        <v>3</v>
+      </c>
+      <c r="L20" s="326">
+        <v>0</v>
+      </c>
+      <c r="M20" s="333">
+        <v>0</v>
+      </c>
+      <c r="N20" s="332">
+        <v>0</v>
+      </c>
+      <c r="O20" s="332">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="335">
@@ -21714,19 +24298,35 @@
         <v>349</v>
       </c>
       <c r="F21" s="285" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G21" s="321">
         <v>10</v>
       </c>
-      <c r="H21" s="326"/>
-      <c r="I21" s="326"/>
-      <c r="J21" s="326"/>
-      <c r="K21" s="326"/>
-      <c r="L21" s="326"/>
-      <c r="M21" s="333"/>
-      <c r="N21" s="332"/>
-      <c r="O21" s="332"/>
+      <c r="H21" s="326">
+        <v>8</v>
+      </c>
+      <c r="I21" s="326">
+        <v>6</v>
+      </c>
+      <c r="J21" s="326">
+        <v>3</v>
+      </c>
+      <c r="K21" s="326">
+        <v>2</v>
+      </c>
+      <c r="L21" s="326">
+        <v>0</v>
+      </c>
+      <c r="M21" s="333">
+        <v>0</v>
+      </c>
+      <c r="N21" s="332">
+        <v>0</v>
+      </c>
+      <c r="O21" s="332">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="338">
@@ -21767,14 +24367,30 @@
       <c r="G23" s="321">
         <v>12</v>
       </c>
-      <c r="H23" s="326"/>
-      <c r="I23" s="339"/>
-      <c r="J23" s="339"/>
-      <c r="K23" s="339"/>
-      <c r="L23" s="339"/>
-      <c r="M23" s="331"/>
-      <c r="N23" s="332"/>
-      <c r="O23" s="332"/>
+      <c r="H23" s="326">
+        <v>12</v>
+      </c>
+      <c r="I23" s="339">
+        <v>12</v>
+      </c>
+      <c r="J23" s="339">
+        <v>11</v>
+      </c>
+      <c r="K23" s="339">
+        <v>11</v>
+      </c>
+      <c r="L23" s="339">
+        <v>10</v>
+      </c>
+      <c r="M23" s="331">
+        <v>10</v>
+      </c>
+      <c r="N23" s="332">
+        <v>10</v>
+      </c>
+      <c r="O23" s="332">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="338">
@@ -21795,14 +24411,30 @@
       <c r="G24" s="321">
         <v>12</v>
       </c>
-      <c r="H24" s="326"/>
-      <c r="I24" s="339"/>
-      <c r="J24" s="339"/>
-      <c r="K24" s="339"/>
-      <c r="L24" s="339"/>
-      <c r="M24" s="331"/>
-      <c r="N24" s="332"/>
-      <c r="O24" s="332"/>
+      <c r="H24" s="326">
+        <v>12</v>
+      </c>
+      <c r="I24" s="339">
+        <v>12</v>
+      </c>
+      <c r="J24" s="339">
+        <v>12</v>
+      </c>
+      <c r="K24" s="339">
+        <v>12</v>
+      </c>
+      <c r="L24" s="339">
+        <v>12</v>
+      </c>
+      <c r="M24" s="331">
+        <v>12</v>
+      </c>
+      <c r="N24" s="332">
+        <v>12</v>
+      </c>
+      <c r="O24" s="332">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="335">
@@ -21823,14 +24455,30 @@
       <c r="G25" s="321">
         <v>12</v>
       </c>
-      <c r="H25" s="326"/>
-      <c r="I25" s="339"/>
-      <c r="J25" s="339"/>
-      <c r="K25" s="339"/>
-      <c r="L25" s="339"/>
-      <c r="M25" s="331"/>
-      <c r="N25" s="332"/>
-      <c r="O25" s="332"/>
+      <c r="H25" s="326">
+        <v>12</v>
+      </c>
+      <c r="I25" s="339">
+        <v>12</v>
+      </c>
+      <c r="J25" s="339">
+        <v>11</v>
+      </c>
+      <c r="K25" s="339">
+        <v>11</v>
+      </c>
+      <c r="L25" s="339">
+        <v>10</v>
+      </c>
+      <c r="M25" s="331">
+        <v>10</v>
+      </c>
+      <c r="N25" s="332">
+        <v>10</v>
+      </c>
+      <c r="O25" s="332">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="338">
@@ -21851,14 +24499,30 @@
       <c r="G26" s="321">
         <v>12</v>
       </c>
-      <c r="H26" s="326"/>
-      <c r="I26" s="339"/>
-      <c r="J26" s="339"/>
-      <c r="K26" s="339"/>
-      <c r="L26" s="339"/>
-      <c r="M26" s="331"/>
-      <c r="N26" s="332"/>
-      <c r="O26" s="332"/>
+      <c r="H26" s="326">
+        <v>12</v>
+      </c>
+      <c r="I26" s="339">
+        <v>12</v>
+      </c>
+      <c r="J26" s="339">
+        <v>12</v>
+      </c>
+      <c r="K26" s="339">
+        <v>12</v>
+      </c>
+      <c r="L26" s="339">
+        <v>12</v>
+      </c>
+      <c r="M26" s="331">
+        <v>12</v>
+      </c>
+      <c r="N26" s="332">
+        <v>12</v>
+      </c>
+      <c r="O26" s="332">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="335">
@@ -21899,14 +24563,30 @@
       <c r="G28" s="321">
         <v>12</v>
       </c>
-      <c r="H28" s="326"/>
-      <c r="I28" s="339"/>
-      <c r="J28" s="339"/>
-      <c r="K28" s="339"/>
-      <c r="L28" s="339"/>
-      <c r="M28" s="331"/>
-      <c r="N28" s="332"/>
-      <c r="O28" s="332"/>
+      <c r="H28" s="326">
+        <v>12</v>
+      </c>
+      <c r="I28" s="339">
+        <v>12</v>
+      </c>
+      <c r="J28" s="339">
+        <v>12</v>
+      </c>
+      <c r="K28" s="339">
+        <v>12</v>
+      </c>
+      <c r="L28" s="339">
+        <v>12</v>
+      </c>
+      <c r="M28" s="331">
+        <v>12</v>
+      </c>
+      <c r="N28" s="332">
+        <v>12</v>
+      </c>
+      <c r="O28" s="332">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="335">
@@ -21942,19 +24622,35 @@
         <v>352</v>
       </c>
       <c r="F30" s="285" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G30" s="321">
         <v>20</v>
       </c>
-      <c r="H30" s="326"/>
-      <c r="I30" s="326"/>
-      <c r="J30" s="326"/>
-      <c r="K30" s="326"/>
-      <c r="L30" s="326"/>
-      <c r="M30" s="333"/>
-      <c r="N30" s="332"/>
-      <c r="O30" s="332"/>
+      <c r="H30" s="326">
+        <v>18</v>
+      </c>
+      <c r="I30" s="326">
+        <v>15</v>
+      </c>
+      <c r="J30" s="326">
+        <v>12</v>
+      </c>
+      <c r="K30" s="326">
+        <v>8</v>
+      </c>
+      <c r="L30" s="326">
+        <v>5</v>
+      </c>
+      <c r="M30" s="333">
+        <v>3</v>
+      </c>
+      <c r="N30" s="332">
+        <v>0</v>
+      </c>
+      <c r="O30" s="332">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="335">
@@ -21975,14 +24671,30 @@
       <c r="G31" s="321">
         <v>12</v>
       </c>
-      <c r="H31" s="326"/>
-      <c r="I31" s="326"/>
-      <c r="J31" s="326"/>
-      <c r="K31" s="326"/>
-      <c r="L31" s="326"/>
-      <c r="M31" s="333"/>
-      <c r="N31" s="332"/>
-      <c r="O31" s="332"/>
+      <c r="H31" s="326">
+        <v>12</v>
+      </c>
+      <c r="I31" s="326">
+        <v>12</v>
+      </c>
+      <c r="J31" s="326">
+        <v>12</v>
+      </c>
+      <c r="K31" s="326">
+        <v>12</v>
+      </c>
+      <c r="L31" s="326">
+        <v>12</v>
+      </c>
+      <c r="M31" s="333">
+        <v>12</v>
+      </c>
+      <c r="N31" s="332">
+        <v>12</v>
+      </c>
+      <c r="O31" s="332">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="338">
@@ -22003,14 +24715,30 @@
       <c r="G32" s="321">
         <v>12</v>
       </c>
-      <c r="H32" s="326"/>
-      <c r="I32" s="326"/>
-      <c r="J32" s="326"/>
-      <c r="K32" s="326"/>
-      <c r="L32" s="326"/>
-      <c r="M32" s="333"/>
-      <c r="N32" s="332"/>
-      <c r="O32" s="332"/>
+      <c r="H32" s="326">
+        <v>12</v>
+      </c>
+      <c r="I32" s="326">
+        <v>12</v>
+      </c>
+      <c r="J32" s="326">
+        <v>12</v>
+      </c>
+      <c r="K32" s="326">
+        <v>12</v>
+      </c>
+      <c r="L32" s="326">
+        <v>12</v>
+      </c>
+      <c r="M32" s="333">
+        <v>12</v>
+      </c>
+      <c r="N32" s="332">
+        <v>12</v>
+      </c>
+      <c r="O32" s="332">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="335">
@@ -22031,14 +24759,30 @@
       <c r="G33" s="321">
         <v>12</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326"/>
-      <c r="J33" s="326"/>
-      <c r="K33" s="326"/>
-      <c r="L33" s="326"/>
-      <c r="M33" s="333"/>
-      <c r="N33" s="332"/>
-      <c r="O33" s="332"/>
+      <c r="H33" s="326">
+        <v>12</v>
+      </c>
+      <c r="I33" s="326">
+        <v>12</v>
+      </c>
+      <c r="J33" s="326">
+        <v>12</v>
+      </c>
+      <c r="K33" s="326">
+        <v>12</v>
+      </c>
+      <c r="L33" s="326">
+        <v>12</v>
+      </c>
+      <c r="M33" s="333">
+        <v>12</v>
+      </c>
+      <c r="N33" s="332">
+        <v>12</v>
+      </c>
+      <c r="O33" s="332">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="338">

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -311,17 +311,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Tu Huynh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sprint 2</t>
+          <t>Tu Huynh:May Span TWO Sprint</t>
         </r>
       </text>
     </comment>
@@ -333,7 +323,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Tu Huynh:</t>
         </r>
@@ -342,10 +332,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Sprint 2</t>
+Sprint 3</t>
         </r>
       </text>
     </comment>
@@ -369,7 +359,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Sprint 2</t>
+Sprint 3</t>
         </r>
       </text>
     </comment>
@@ -381,7 +371,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Tu Huynh:</t>
         </r>
@@ -390,10 +380,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Sprint 2</t>
+Sprint 3 of ThiBT</t>
         </r>
       </text>
     </comment>
@@ -417,7 +407,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Sprint 2</t>
+Sprint 3</t>
         </r>
       </text>
     </comment>
@@ -441,7 +431,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Sprint 2</t>
+Sprint 3</t>
         </r>
       </text>
     </comment>
@@ -465,7 +455,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Sprint 2</t>
+Sprint 3</t>
         </r>
       </text>
     </comment>
@@ -489,7 +479,79 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Sprint 2</t>
+Sprint 3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 3</t>
         </r>
       </text>
     </comment>
@@ -498,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="410">
   <si>
     <t>Introduction</t>
   </si>
@@ -1717,6 +1779,45 @@
   <si>
     <t>Report 3- User Requirement Specify</t>
   </si>
+  <si>
+    <t>Do Test</t>
+  </si>
+  <si>
+    <t>+Do Test Layout</t>
+  </si>
+  <si>
+    <t>27/05</t>
+  </si>
+  <si>
+    <t>28/05</t>
+  </si>
+  <si>
+    <t>29/05</t>
+  </si>
+  <si>
+    <t>30/05</t>
+  </si>
+  <si>
+    <t>31/05</t>
+  </si>
+  <si>
+    <t>01/06</t>
+  </si>
+  <si>
+    <t>02/05</t>
+  </si>
+  <si>
+    <t>+Do Test Function</t>
+  </si>
+  <si>
+    <t>List upcoming Tests</t>
+  </si>
+  <si>
+    <t>+Appointment UnAssign for teacher/student</t>
+  </si>
+  <si>
+    <t>+Invite User outside of system</t>
+  </si>
 </sst>
 </file>
 
@@ -1726,7 +1827,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1875,6 +1976,28 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="23">
@@ -2536,7 +2659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="372">
+  <cellXfs count="386">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -3616,6 +3739,46 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9910,13 +10073,13 @@
     <tableColumn id="4" name="Assign To" dataDxfId="15"/>
     <tableColumn id="5" name="Status" dataDxfId="14"/>
     <tableColumn id="7" name="Estimate" dataDxfId="13"/>
-    <tableColumn id="8" name="20/05" dataDxfId="12"/>
-    <tableColumn id="9" name="21/05" dataDxfId="11"/>
-    <tableColumn id="10" name="22/05" dataDxfId="10"/>
-    <tableColumn id="11" name="23/05" dataDxfId="9"/>
-    <tableColumn id="12" name="24/05" dataDxfId="8"/>
-    <tableColumn id="13" name="25/05" dataDxfId="7"/>
-    <tableColumn id="14" name="26/05" dataDxfId="6"/>
+    <tableColumn id="8" name="27/05" dataDxfId="12"/>
+    <tableColumn id="9" name="28/05" dataDxfId="11"/>
+    <tableColumn id="10" name="29/05" dataDxfId="10"/>
+    <tableColumn id="11" name="30/05" dataDxfId="9"/>
+    <tableColumn id="12" name="31/05" dataDxfId="8"/>
+    <tableColumn id="13" name="01/06" dataDxfId="7"/>
+    <tableColumn id="14" name="02/05" dataDxfId="6"/>
     <tableColumn id="15" name="End" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11015,8 +11178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O119"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11081,25 +11244,25 @@
         <v>347</v>
       </c>
       <c r="H10" s="272" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="I10" s="272" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="J10" s="273" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="K10" s="273" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="L10" s="273" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="M10" s="273" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="N10" s="274" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="O10" s="311" t="s">
         <v>284</v>
@@ -11122,88 +11285,56 @@
         <v>117</v>
       </c>
       <c r="G11" s="321">
-        <v>5</v>
-      </c>
-      <c r="H11" s="326">
-        <v>4</v>
-      </c>
-      <c r="I11" s="326">
-        <v>4</v>
-      </c>
-      <c r="J11" s="326">
-        <v>4</v>
-      </c>
-      <c r="K11" s="326">
-        <v>3</v>
-      </c>
-      <c r="L11" s="326">
-        <v>2</v>
-      </c>
-      <c r="M11" s="333">
-        <v>0</v>
-      </c>
-      <c r="N11" s="337">
-        <v>0</v>
-      </c>
-      <c r="O11" s="337">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H11" s="326"/>
+      <c r="I11" s="326"/>
+      <c r="J11" s="326"/>
+      <c r="K11" s="326"/>
+      <c r="L11" s="326"/>
+      <c r="M11" s="333"/>
+      <c r="N11" s="337"/>
+      <c r="O11" s="337"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="338">
         <v>2</v>
       </c>
       <c r="C12" s="334" t="s">
-        <v>381</v>
-      </c>
-      <c r="D12" s="289" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="336" t="s">
-        <v>351</v>
-      </c>
-      <c r="F12" s="285" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="321">
-        <v>5</v>
-      </c>
-      <c r="H12" s="326">
-        <v>4</v>
-      </c>
-      <c r="I12" s="339">
-        <v>3</v>
-      </c>
-      <c r="J12" s="339">
-        <v>3</v>
-      </c>
-      <c r="K12" s="339">
-        <v>2</v>
-      </c>
-      <c r="L12" s="339">
-        <v>0</v>
-      </c>
-      <c r="M12" s="331">
-        <v>0</v>
-      </c>
-      <c r="N12" s="332">
-        <v>0</v>
-      </c>
-      <c r="O12" s="332">
-        <v>0</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="D12" s="289"/>
+      <c r="E12" s="336"/>
+      <c r="F12" s="285"/>
+      <c r="G12" s="321"/>
+      <c r="H12" s="326"/>
+      <c r="I12" s="339"/>
+      <c r="J12" s="339"/>
+      <c r="K12" s="339"/>
+      <c r="L12" s="339"/>
+      <c r="M12" s="331"/>
+      <c r="N12" s="332"/>
+      <c r="O12" s="332"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="335">
         <v>3</v>
       </c>
-      <c r="C13" s="334" t="s">
-        <v>358</v>
-      </c>
-      <c r="D13" s="289"/>
-      <c r="E13" s="336"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="321"/>
+      <c r="C13" s="340" t="s">
+        <v>398</v>
+      </c>
+      <c r="D13" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="336" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" s="285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="321">
+        <v>15</v>
+      </c>
       <c r="H13" s="326"/>
       <c r="I13" s="339"/>
       <c r="J13" s="339"/>
@@ -11218,7 +11349,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="340" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="D14" s="289" t="s">
         <v>107</v>
@@ -11230,76 +11361,44 @@
         <v>117</v>
       </c>
       <c r="G14" s="321">
-        <v>20</v>
-      </c>
-      <c r="H14" s="326">
-        <v>18</v>
-      </c>
-      <c r="I14" s="339">
-        <v>15</v>
-      </c>
-      <c r="J14" s="339">
-        <v>12</v>
-      </c>
-      <c r="K14" s="339">
-        <v>10</v>
-      </c>
-      <c r="L14" s="339">
-        <v>7</v>
-      </c>
-      <c r="M14" s="331">
-        <v>4</v>
-      </c>
-      <c r="N14" s="332">
-        <v>0</v>
-      </c>
-      <c r="O14" s="332">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H14" s="326"/>
+      <c r="I14" s="339"/>
+      <c r="J14" s="339"/>
+      <c r="K14" s="339"/>
+      <c r="L14" s="339"/>
+      <c r="M14" s="331"/>
+      <c r="N14" s="332"/>
+      <c r="O14" s="332"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="335">
         <v>5</v>
       </c>
-      <c r="C15" s="340" t="s">
-        <v>383</v>
-      </c>
-      <c r="D15" s="289" t="s">
+      <c r="C15" s="384" t="s">
+        <v>407</v>
+      </c>
+      <c r="D15" s="375" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="336" t="s">
+      <c r="E15" s="373" t="s">
         <v>351</v>
       </c>
-      <c r="F15" s="285" t="s">
+      <c r="F15" s="375" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="321">
-        <v>20</v>
-      </c>
-      <c r="H15" s="326">
-        <v>18</v>
-      </c>
-      <c r="I15" s="339">
-        <v>15</v>
-      </c>
-      <c r="J15" s="339">
+      <c r="G15" s="378">
         <v>10</v>
       </c>
-      <c r="K15" s="339">
-        <v>8</v>
-      </c>
-      <c r="L15" s="326">
-        <v>5</v>
-      </c>
-      <c r="M15" s="333">
-        <v>3</v>
-      </c>
-      <c r="N15" s="332">
-        <v>0</v>
-      </c>
-      <c r="O15" s="332">
-        <v>0</v>
-      </c>
+      <c r="H15" s="326"/>
+      <c r="I15" s="339"/>
+      <c r="J15" s="339"/>
+      <c r="K15" s="339"/>
+      <c r="L15" s="326"/>
+      <c r="M15" s="333"/>
+      <c r="N15" s="332"/>
+      <c r="O15" s="332"/>
     </row>
     <row r="16" spans="2:15" s="197" customFormat="1">
       <c r="B16" s="338">
@@ -11325,8 +11424,8 @@
       <c r="B17" s="335">
         <v>7</v>
       </c>
-      <c r="C17" s="340" t="s">
-        <v>360</v>
+      <c r="C17" s="372" t="s">
+        <v>361</v>
       </c>
       <c r="D17" s="289" t="s">
         <v>107</v>
@@ -11338,120 +11437,72 @@
         <v>117</v>
       </c>
       <c r="G17" s="321">
-        <v>15</v>
-      </c>
-      <c r="H17" s="326">
-        <v>12</v>
-      </c>
-      <c r="I17" s="339">
         <v>10</v>
       </c>
-      <c r="J17" s="339">
-        <v>8</v>
-      </c>
-      <c r="K17" s="339">
-        <v>6</v>
-      </c>
-      <c r="L17" s="339">
-        <v>5</v>
-      </c>
-      <c r="M17" s="331">
-        <v>3</v>
-      </c>
-      <c r="N17" s="332">
-        <v>0</v>
-      </c>
-      <c r="O17" s="332">
-        <v>0</v>
-      </c>
+      <c r="H17" s="326"/>
+      <c r="I17" s="339"/>
+      <c r="J17" s="339"/>
+      <c r="K17" s="339"/>
+      <c r="L17" s="339"/>
+      <c r="M17" s="331"/>
+      <c r="N17" s="332"/>
+      <c r="O17" s="332"/>
     </row>
     <row r="18" spans="2:15" s="197" customFormat="1">
       <c r="B18" s="338">
         <v>8</v>
       </c>
-      <c r="C18" s="340" t="s">
-        <v>361</v>
-      </c>
-      <c r="D18" s="289" t="s">
+      <c r="C18" s="372" t="s">
+        <v>362</v>
+      </c>
+      <c r="D18" s="374" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="336" t="s">
+      <c r="E18" s="376" t="s">
         <v>349</v>
       </c>
-      <c r="F18" s="285" t="s">
+      <c r="F18" s="377" t="s">
         <v>117</v>
       </c>
       <c r="G18" s="321">
-        <v>10</v>
-      </c>
-      <c r="H18" s="326">
-        <v>10</v>
-      </c>
-      <c r="I18" s="339">
-        <v>10</v>
-      </c>
-      <c r="J18" s="339">
-        <v>10</v>
-      </c>
-      <c r="K18" s="339">
-        <v>10</v>
-      </c>
-      <c r="L18" s="339">
-        <v>10</v>
-      </c>
-      <c r="M18" s="331">
-        <v>10</v>
-      </c>
-      <c r="N18" s="332">
-        <v>10</v>
-      </c>
-      <c r="O18" s="332">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H18" s="326"/>
+      <c r="I18" s="339"/>
+      <c r="J18" s="339"/>
+      <c r="K18" s="339"/>
+      <c r="L18" s="339"/>
+      <c r="M18" s="331"/>
+      <c r="N18" s="332"/>
+      <c r="O18" s="332"/>
     </row>
     <row r="19" spans="2:15" s="197" customFormat="1">
       <c r="B19" s="335">
         <v>9</v>
       </c>
-      <c r="C19" s="340" t="s">
-        <v>362</v>
-      </c>
-      <c r="D19" s="289" t="s">
+      <c r="C19" s="341" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" s="375" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="336" t="s">
+      <c r="E19" s="373" t="s">
         <v>349</v>
       </c>
-      <c r="F19" s="285" t="s">
+      <c r="F19" s="375" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="321">
-        <v>15</v>
-      </c>
-      <c r="H19" s="326">
-        <v>15</v>
-      </c>
-      <c r="I19" s="339">
-        <v>15</v>
-      </c>
-      <c r="J19" s="339">
-        <v>15</v>
-      </c>
-      <c r="K19" s="326">
-        <v>15</v>
-      </c>
-      <c r="L19" s="326">
-        <v>15</v>
-      </c>
-      <c r="M19" s="333">
-        <v>15</v>
-      </c>
-      <c r="N19" s="332">
-        <v>15</v>
-      </c>
-      <c r="O19" s="332">
-        <v>15</v>
-      </c>
+      <c r="G19" s="378">
+        <v>12</v>
+      </c>
+      <c r="H19" s="326"/>
+      <c r="I19" s="339"/>
+      <c r="J19" s="339"/>
+      <c r="K19" s="326"/>
+      <c r="L19" s="326"/>
+      <c r="M19" s="333"/>
+      <c r="N19" s="332"/>
+      <c r="O19" s="332"/>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="338">
@@ -11460,42 +11511,26 @@
       <c r="C20" s="334" t="s">
         <v>395</v>
       </c>
-      <c r="D20" s="289" t="s">
+      <c r="D20" s="375" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="336" t="s">
+      <c r="E20" s="373" t="s">
         <v>349</v>
       </c>
-      <c r="F20" s="285" t="s">
+      <c r="F20" s="375" t="s">
         <v>117</v>
       </c>
       <c r="G20" s="321">
         <v>10</v>
       </c>
-      <c r="H20" s="321">
-        <v>8</v>
-      </c>
-      <c r="I20" s="326">
-        <v>6</v>
-      </c>
-      <c r="J20" s="326">
-        <v>4</v>
-      </c>
-      <c r="K20" s="326">
-        <v>3</v>
-      </c>
-      <c r="L20" s="326">
-        <v>0</v>
-      </c>
-      <c r="M20" s="333">
-        <v>0</v>
-      </c>
-      <c r="N20" s="332">
-        <v>0</v>
-      </c>
-      <c r="O20" s="332">
-        <v>0</v>
-      </c>
+      <c r="H20" s="321"/>
+      <c r="I20" s="326"/>
+      <c r="J20" s="326"/>
+      <c r="K20" s="326"/>
+      <c r="L20" s="326"/>
+      <c r="M20" s="333"/>
+      <c r="N20" s="332"/>
+      <c r="O20" s="332"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="335">
@@ -11514,32 +11549,16 @@
         <v>117</v>
       </c>
       <c r="G21" s="321">
-        <v>10</v>
-      </c>
-      <c r="H21" s="326">
-        <v>8</v>
-      </c>
-      <c r="I21" s="326">
-        <v>6</v>
-      </c>
-      <c r="J21" s="326">
-        <v>3</v>
-      </c>
-      <c r="K21" s="326">
-        <v>2</v>
-      </c>
-      <c r="L21" s="326">
-        <v>0</v>
-      </c>
-      <c r="M21" s="333">
-        <v>0</v>
-      </c>
-      <c r="N21" s="332">
-        <v>0</v>
-      </c>
-      <c r="O21" s="332">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H21" s="326"/>
+      <c r="I21" s="326"/>
+      <c r="J21" s="326"/>
+      <c r="K21" s="326"/>
+      <c r="L21" s="326"/>
+      <c r="M21" s="333"/>
+      <c r="N21" s="332"/>
+      <c r="O21" s="332"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="338">
@@ -11548,10 +11567,10 @@
       <c r="C22" s="334" t="s">
         <v>367</v>
       </c>
-      <c r="D22" s="289"/>
-      <c r="E22" s="336"/>
-      <c r="F22" s="285"/>
-      <c r="G22" s="321"/>
+      <c r="D22" s="375"/>
+      <c r="E22" s="373"/>
+      <c r="F22" s="375"/>
+      <c r="G22" s="378"/>
       <c r="H22" s="326"/>
       <c r="I22" s="339"/>
       <c r="J22" s="339"/>
@@ -11578,176 +11597,120 @@
         <v>117</v>
       </c>
       <c r="G23" s="321">
-        <v>12</v>
-      </c>
-      <c r="H23" s="326">
-        <v>12</v>
-      </c>
-      <c r="I23" s="339">
-        <v>12</v>
-      </c>
-      <c r="J23" s="339">
-        <v>11</v>
-      </c>
-      <c r="K23" s="339">
-        <v>11</v>
-      </c>
-      <c r="L23" s="339">
         <v>10</v>
       </c>
-      <c r="M23" s="331">
-        <v>10</v>
-      </c>
-      <c r="N23" s="332">
-        <v>10</v>
-      </c>
-      <c r="O23" s="332">
-        <v>10</v>
-      </c>
+      <c r="H23" s="380"/>
+      <c r="I23" s="382"/>
+      <c r="J23" s="382"/>
+      <c r="K23" s="382"/>
+      <c r="L23" s="382"/>
+      <c r="M23" s="382"/>
+      <c r="N23" s="383"/>
+      <c r="O23" s="383"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="338">
         <v>14</v>
       </c>
-      <c r="C24" s="341" t="s">
+      <c r="C24" s="379" t="s">
         <v>370</v>
       </c>
-      <c r="D24" s="289" t="s">
+      <c r="D24" s="374" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="336" t="s">
+      <c r="E24" s="376" t="s">
         <v>350</v>
       </c>
-      <c r="F24" s="285" t="s">
+      <c r="F24" s="377" t="s">
         <v>117</v>
       </c>
-      <c r="G24" s="321">
+      <c r="G24" s="378">
         <v>12</v>
       </c>
-      <c r="H24" s="326">
-        <v>12</v>
-      </c>
-      <c r="I24" s="339">
-        <v>12</v>
-      </c>
-      <c r="J24" s="339">
-        <v>12</v>
-      </c>
-      <c r="K24" s="339">
-        <v>12</v>
-      </c>
-      <c r="L24" s="339">
-        <v>12</v>
-      </c>
-      <c r="M24" s="331">
-        <v>12</v>
-      </c>
-      <c r="N24" s="332">
-        <v>12</v>
-      </c>
-      <c r="O24" s="332">
-        <v>12</v>
-      </c>
+      <c r="H24" s="380"/>
+      <c r="I24" s="382"/>
+      <c r="J24" s="382"/>
+      <c r="K24" s="382"/>
+      <c r="L24" s="382"/>
+      <c r="M24" s="382"/>
+      <c r="N24" s="383"/>
+      <c r="O24" s="383"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="335">
         <v>15</v>
       </c>
-      <c r="C25" s="340" t="s">
+      <c r="C25" s="372" t="s">
         <v>369</v>
       </c>
-      <c r="D25" s="289" t="s">
+      <c r="D25" s="374" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="336" t="s">
+      <c r="E25" s="376" t="s">
         <v>350</v>
       </c>
-      <c r="F25" s="285" t="s">
+      <c r="F25" s="377" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="321">
-        <v>12</v>
-      </c>
-      <c r="H25" s="326">
-        <v>12</v>
-      </c>
-      <c r="I25" s="339">
-        <v>12</v>
-      </c>
-      <c r="J25" s="339">
-        <v>11</v>
-      </c>
-      <c r="K25" s="339">
-        <v>11</v>
-      </c>
-      <c r="L25" s="339">
+      <c r="G25" s="378">
         <v>10</v>
       </c>
-      <c r="M25" s="331">
-        <v>10</v>
-      </c>
-      <c r="N25" s="332">
-        <v>10</v>
-      </c>
-      <c r="O25" s="332">
-        <v>10</v>
-      </c>
+      <c r="H25" s="380"/>
+      <c r="I25" s="382"/>
+      <c r="J25" s="382"/>
+      <c r="K25" s="382"/>
+      <c r="L25" s="382"/>
+      <c r="M25" s="382"/>
+      <c r="N25" s="383"/>
+      <c r="O25" s="383"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="338">
         <v>16</v>
       </c>
-      <c r="C26" s="341" t="s">
+      <c r="C26" s="379" t="s">
         <v>371</v>
       </c>
-      <c r="D26" s="289" t="s">
+      <c r="D26" s="374" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="336" t="s">
+      <c r="E26" s="376" t="s">
         <v>350</v>
       </c>
-      <c r="F26" s="285" t="s">
+      <c r="F26" s="377" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="321">
+      <c r="G26" s="378">
         <v>12</v>
       </c>
-      <c r="H26" s="326">
-        <v>12</v>
-      </c>
-      <c r="I26" s="339">
-        <v>12</v>
-      </c>
-      <c r="J26" s="339">
-        <v>12</v>
-      </c>
-      <c r="K26" s="339">
-        <v>12</v>
-      </c>
-      <c r="L26" s="339">
-        <v>12</v>
-      </c>
-      <c r="M26" s="331">
-        <v>12</v>
-      </c>
-      <c r="N26" s="332">
-        <v>12</v>
-      </c>
-      <c r="O26" s="332">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15">
+      <c r="H26" s="381"/>
+      <c r="I26" s="381"/>
+      <c r="J26" s="381"/>
+      <c r="K26" s="381"/>
+      <c r="L26" s="381"/>
+      <c r="M26" s="381"/>
+      <c r="N26" s="383"/>
+      <c r="O26" s="383"/>
+    </row>
+    <row r="27" spans="2:15" ht="36" customHeight="1">
       <c r="B27" s="335">
         <v>17</v>
       </c>
-      <c r="C27" s="334" t="s">
-        <v>359</v>
-      </c>
-      <c r="D27" s="289"/>
-      <c r="E27" s="336"/>
-      <c r="F27" s="285"/>
-      <c r="G27" s="321"/>
+      <c r="C27" s="385" t="s">
+        <v>408</v>
+      </c>
+      <c r="D27" s="375" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="376" t="s">
+        <v>350</v>
+      </c>
+      <c r="F27" s="377" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="378">
+        <v>10</v>
+      </c>
       <c r="H27" s="326"/>
       <c r="I27" s="339"/>
       <c r="J27" s="339"/>
@@ -11761,45 +11724,19 @@
       <c r="B28" s="338">
         <v>18</v>
       </c>
-      <c r="C28" s="341" t="s">
-        <v>386</v>
-      </c>
-      <c r="D28" s="289" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="336" t="s">
-        <v>350</v>
-      </c>
-      <c r="F28" s="285" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="321">
-        <v>12</v>
-      </c>
-      <c r="H28" s="326">
-        <v>12</v>
-      </c>
-      <c r="I28" s="339">
-        <v>12</v>
-      </c>
-      <c r="J28" s="339">
-        <v>12</v>
-      </c>
-      <c r="K28" s="339">
-        <v>12</v>
-      </c>
-      <c r="L28" s="339">
-        <v>12</v>
-      </c>
-      <c r="M28" s="331">
-        <v>12</v>
-      </c>
-      <c r="N28" s="332">
-        <v>12</v>
-      </c>
-      <c r="O28" s="332">
-        <v>12</v>
-      </c>
+      <c r="C28" s="334"/>
+      <c r="D28" s="289"/>
+      <c r="E28" s="336"/>
+      <c r="F28" s="285"/>
+      <c r="G28" s="321"/>
+      <c r="H28" s="326"/>
+      <c r="I28" s="339"/>
+      <c r="J28" s="339"/>
+      <c r="K28" s="339"/>
+      <c r="L28" s="339"/>
+      <c r="M28" s="331"/>
+      <c r="N28" s="332"/>
+      <c r="O28" s="332"/>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="335">
@@ -11825,8 +11762,8 @@
       <c r="B30" s="338">
         <v>20</v>
       </c>
-      <c r="C30" s="340" t="s">
-        <v>387</v>
+      <c r="C30" s="341" t="s">
+        <v>391</v>
       </c>
       <c r="D30" s="289" t="s">
         <v>107</v>
@@ -11838,127 +11775,79 @@
         <v>117</v>
       </c>
       <c r="G30" s="321">
-        <v>20</v>
-      </c>
-      <c r="H30" s="326">
-        <v>18</v>
-      </c>
-      <c r="I30" s="326">
-        <v>15</v>
-      </c>
-      <c r="J30" s="326">
         <v>12</v>
       </c>
-      <c r="K30" s="326">
-        <v>8</v>
-      </c>
-      <c r="L30" s="326">
-        <v>5</v>
-      </c>
-      <c r="M30" s="333">
-        <v>3</v>
-      </c>
-      <c r="N30" s="332">
-        <v>0</v>
-      </c>
-      <c r="O30" s="332">
-        <v>0</v>
-      </c>
+      <c r="H30" s="326"/>
+      <c r="I30" s="326"/>
+      <c r="J30" s="326"/>
+      <c r="K30" s="326"/>
+      <c r="L30" s="326"/>
+      <c r="M30" s="333"/>
+      <c r="N30" s="332"/>
+      <c r="O30" s="332"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="335">
         <v>21</v>
       </c>
-      <c r="C31" s="341" t="s">
-        <v>391</v>
-      </c>
-      <c r="D31" s="289" t="s">
+      <c r="C31" s="372" t="s">
+        <v>389</v>
+      </c>
+      <c r="D31" s="374" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="336" t="s">
+      <c r="E31" s="376" t="s">
         <v>352</v>
       </c>
-      <c r="F31" s="285" t="s">
+      <c r="F31" s="377" t="s">
         <v>117</v>
       </c>
-      <c r="G31" s="321">
+      <c r="G31" s="378">
         <v>12</v>
       </c>
-      <c r="H31" s="326">
-        <v>12</v>
-      </c>
-      <c r="I31" s="326">
-        <v>12</v>
-      </c>
-      <c r="J31" s="326">
-        <v>12</v>
-      </c>
-      <c r="K31" s="326">
-        <v>12</v>
-      </c>
-      <c r="L31" s="326">
-        <v>12</v>
-      </c>
-      <c r="M31" s="333">
-        <v>12</v>
-      </c>
-      <c r="N31" s="332">
-        <v>12</v>
-      </c>
-      <c r="O31" s="332">
-        <v>12</v>
-      </c>
+      <c r="H31" s="326"/>
+      <c r="I31" s="326"/>
+      <c r="J31" s="326"/>
+      <c r="K31" s="326"/>
+      <c r="L31" s="326"/>
+      <c r="M31" s="333"/>
+      <c r="N31" s="332"/>
+      <c r="O31" s="332"/>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="338">
         <v>22</v>
       </c>
-      <c r="C32" s="340" t="s">
-        <v>389</v>
-      </c>
-      <c r="D32" s="289" t="s">
+      <c r="C32" s="372" t="s">
+        <v>390</v>
+      </c>
+      <c r="D32" s="374" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="336" t="s">
+      <c r="E32" s="376" t="s">
         <v>352</v>
       </c>
-      <c r="F32" s="285" t="s">
+      <c r="F32" s="377" t="s">
         <v>117</v>
       </c>
-      <c r="G32" s="321">
+      <c r="G32" s="378">
         <v>12</v>
       </c>
-      <c r="H32" s="326">
-        <v>12</v>
-      </c>
-      <c r="I32" s="326">
-        <v>12</v>
-      </c>
-      <c r="J32" s="326">
-        <v>12</v>
-      </c>
-      <c r="K32" s="326">
-        <v>12</v>
-      </c>
-      <c r="L32" s="326">
-        <v>12</v>
-      </c>
-      <c r="M32" s="333">
-        <v>12</v>
-      </c>
-      <c r="N32" s="332">
-        <v>12</v>
-      </c>
-      <c r="O32" s="332">
-        <v>12</v>
-      </c>
+      <c r="H32" s="326"/>
+      <c r="I32" s="326"/>
+      <c r="J32" s="326"/>
+      <c r="K32" s="326"/>
+      <c r="L32" s="326"/>
+      <c r="M32" s="333"/>
+      <c r="N32" s="332"/>
+      <c r="O32" s="332"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="335">
         <v>23</v>
       </c>
       <c r="C33" s="340" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="D33" s="289" t="s">
         <v>107</v>
@@ -11970,32 +11859,16 @@
         <v>117</v>
       </c>
       <c r="G33" s="321">
-        <v>12</v>
-      </c>
-      <c r="H33" s="326">
-        <v>12</v>
-      </c>
-      <c r="I33" s="326">
-        <v>12</v>
-      </c>
-      <c r="J33" s="326">
-        <v>12</v>
-      </c>
-      <c r="K33" s="326">
-        <v>12</v>
-      </c>
-      <c r="L33" s="326">
-        <v>12</v>
-      </c>
-      <c r="M33" s="333">
-        <v>12</v>
-      </c>
-      <c r="N33" s="332">
-        <v>12</v>
-      </c>
-      <c r="O33" s="332">
-        <v>12</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H33" s="326"/>
+      <c r="I33" s="326"/>
+      <c r="J33" s="326"/>
+      <c r="K33" s="326"/>
+      <c r="L33" s="326"/>
+      <c r="M33" s="333"/>
+      <c r="N33" s="332"/>
+      <c r="O33" s="332"/>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="338">
@@ -12019,11 +11892,11 @@
       <c r="B35" s="335">
         <v>25</v>
       </c>
-      <c r="C35" s="342"/>
-      <c r="D35" s="289"/>
-      <c r="E35" s="336"/>
-      <c r="F35" s="285"/>
-      <c r="G35" s="321"/>
+      <c r="C35" s="373"/>
+      <c r="D35" s="375"/>
+      <c r="E35" s="373"/>
+      <c r="F35" s="375"/>
+      <c r="G35" s="378"/>
       <c r="H35" s="326"/>
       <c r="I35" s="326"/>
       <c r="J35" s="326"/>
@@ -12037,11 +11910,11 @@
       <c r="B36" s="338">
         <v>26</v>
       </c>
-      <c r="C36" s="336"/>
-      <c r="D36" s="289"/>
-      <c r="E36" s="336"/>
-      <c r="F36" s="285"/>
-      <c r="G36" s="321"/>
+      <c r="C36" s="373"/>
+      <c r="D36" s="375"/>
+      <c r="E36" s="373"/>
+      <c r="F36" s="375"/>
+      <c r="G36" s="378"/>
       <c r="H36" s="326"/>
       <c r="I36" s="326"/>
       <c r="J36" s="326"/>
@@ -12055,11 +11928,11 @@
       <c r="B37" s="335">
         <v>27</v>
       </c>
-      <c r="C37" s="336"/>
-      <c r="D37" s="289"/>
-      <c r="E37" s="336"/>
-      <c r="F37" s="285"/>
-      <c r="G37" s="321"/>
+      <c r="C37" s="373"/>
+      <c r="D37" s="375"/>
+      <c r="E37" s="373"/>
+      <c r="F37" s="375"/>
+      <c r="G37" s="378"/>
       <c r="H37" s="326"/>
       <c r="I37" s="326"/>
       <c r="J37" s="326"/>
@@ -12073,11 +11946,11 @@
       <c r="B38" s="338">
         <v>28</v>
       </c>
-      <c r="C38" s="336"/>
-      <c r="D38" s="289"/>
-      <c r="E38" s="336"/>
-      <c r="F38" s="285"/>
-      <c r="G38" s="321"/>
+      <c r="C38" s="373"/>
+      <c r="D38" s="375"/>
+      <c r="E38" s="373"/>
+      <c r="F38" s="375"/>
+      <c r="G38" s="378"/>
       <c r="H38" s="326"/>
       <c r="I38" s="326"/>
       <c r="J38" s="326"/>
@@ -12091,11 +11964,11 @@
       <c r="B39" s="335">
         <v>29</v>
       </c>
-      <c r="C39" s="343"/>
-      <c r="D39" s="289"/>
-      <c r="E39" s="336"/>
-      <c r="F39" s="285"/>
-      <c r="G39" s="321"/>
+      <c r="C39" s="373"/>
+      <c r="D39" s="375"/>
+      <c r="E39" s="373"/>
+      <c r="F39" s="375"/>
+      <c r="G39" s="378"/>
       <c r="H39" s="326"/>
       <c r="I39" s="326"/>
       <c r="J39" s="326"/>
@@ -12109,11 +11982,11 @@
       <c r="B40" s="338">
         <v>30</v>
       </c>
-      <c r="C40" s="343"/>
-      <c r="D40" s="289"/>
-      <c r="E40" s="336"/>
-      <c r="F40" s="285"/>
-      <c r="G40" s="321"/>
+      <c r="C40" s="373"/>
+      <c r="D40" s="375"/>
+      <c r="E40" s="373"/>
+      <c r="F40" s="375"/>
+      <c r="G40" s="378"/>
       <c r="H40" s="326"/>
       <c r="I40" s="326"/>
       <c r="J40" s="326"/>
@@ -12127,11 +12000,11 @@
       <c r="B41" s="335">
         <v>31</v>
       </c>
-      <c r="C41" s="343"/>
-      <c r="D41" s="289"/>
-      <c r="E41" s="336"/>
-      <c r="F41" s="285"/>
-      <c r="G41" s="321"/>
+      <c r="C41" s="373"/>
+      <c r="D41" s="375"/>
+      <c r="E41" s="373"/>
+      <c r="F41" s="375"/>
+      <c r="G41" s="378"/>
       <c r="H41" s="326"/>
       <c r="I41" s="326"/>
       <c r="J41" s="326"/>
@@ -12145,11 +12018,11 @@
       <c r="B42" s="338">
         <v>32</v>
       </c>
-      <c r="C42" s="343"/>
-      <c r="D42" s="289"/>
-      <c r="E42" s="336"/>
-      <c r="F42" s="285"/>
-      <c r="G42" s="321"/>
+      <c r="C42" s="373"/>
+      <c r="D42" s="375"/>
+      <c r="E42" s="373"/>
+      <c r="F42" s="375"/>
+      <c r="G42" s="378"/>
       <c r="H42" s="326"/>
       <c r="I42" s="326"/>
       <c r="J42" s="326"/>
@@ -12163,11 +12036,11 @@
       <c r="B43" s="335">
         <v>33</v>
       </c>
-      <c r="C43" s="343"/>
-      <c r="D43" s="289"/>
-      <c r="E43" s="336"/>
-      <c r="F43" s="285"/>
-      <c r="G43" s="321"/>
+      <c r="C43" s="373"/>
+      <c r="D43" s="375"/>
+      <c r="E43" s="373"/>
+      <c r="F43" s="375"/>
+      <c r="G43" s="378"/>
       <c r="H43" s="326"/>
       <c r="I43" s="326"/>
       <c r="J43" s="326"/>
@@ -12181,11 +12054,11 @@
       <c r="B44" s="338">
         <v>34</v>
       </c>
-      <c r="C44" s="340"/>
-      <c r="D44" s="289"/>
-      <c r="E44" s="336"/>
-      <c r="F44" s="285"/>
-      <c r="G44" s="321"/>
+      <c r="C44" s="373"/>
+      <c r="D44" s="375"/>
+      <c r="E44" s="373"/>
+      <c r="F44" s="375"/>
+      <c r="G44" s="378"/>
       <c r="H44" s="326"/>
       <c r="I44" s="326"/>
       <c r="J44" s="326"/>
@@ -12199,11 +12072,11 @@
       <c r="B45" s="335">
         <v>35</v>
       </c>
-      <c r="C45" s="343"/>
-      <c r="D45" s="289"/>
-      <c r="E45" s="336"/>
-      <c r="F45" s="285"/>
-      <c r="G45" s="321"/>
+      <c r="C45" s="373"/>
+      <c r="D45" s="375"/>
+      <c r="E45" s="373"/>
+      <c r="F45" s="375"/>
+      <c r="G45" s="378"/>
       <c r="H45" s="326"/>
       <c r="I45" s="326"/>
       <c r="J45" s="326"/>
@@ -12217,11 +12090,11 @@
       <c r="B46" s="338">
         <v>36</v>
       </c>
-      <c r="C46" s="343"/>
-      <c r="D46" s="289"/>
-      <c r="E46" s="336"/>
-      <c r="F46" s="285"/>
-      <c r="G46" s="321"/>
+      <c r="C46" s="373"/>
+      <c r="D46" s="375"/>
+      <c r="E46" s="373"/>
+      <c r="F46" s="375"/>
+      <c r="G46" s="378"/>
       <c r="H46" s="326"/>
       <c r="I46" s="326"/>
       <c r="J46" s="326"/>
@@ -12235,11 +12108,11 @@
       <c r="B47" s="335">
         <v>37</v>
       </c>
-      <c r="C47" s="343"/>
-      <c r="D47" s="289"/>
-      <c r="E47" s="336"/>
-      <c r="F47" s="285"/>
-      <c r="G47" s="321"/>
+      <c r="C47" s="373"/>
+      <c r="D47" s="375"/>
+      <c r="E47" s="373"/>
+      <c r="F47" s="375"/>
+      <c r="G47" s="378"/>
       <c r="H47" s="326"/>
       <c r="I47" s="326"/>
       <c r="J47" s="326"/>
@@ -12253,11 +12126,11 @@
       <c r="B48" s="338">
         <v>38</v>
       </c>
-      <c r="C48" s="343"/>
-      <c r="D48" s="289"/>
-      <c r="E48" s="336"/>
-      <c r="F48" s="285"/>
-      <c r="G48" s="321"/>
+      <c r="C48" s="373"/>
+      <c r="D48" s="375"/>
+      <c r="E48" s="373"/>
+      <c r="F48" s="375"/>
+      <c r="G48" s="378"/>
       <c r="H48" s="326"/>
       <c r="I48" s="326"/>
       <c r="J48" s="326"/>
@@ -12271,11 +12144,11 @@
       <c r="B49" s="335">
         <v>39</v>
       </c>
-      <c r="C49" s="340"/>
-      <c r="D49" s="289"/>
-      <c r="E49" s="336"/>
-      <c r="F49" s="285"/>
-      <c r="G49" s="321"/>
+      <c r="C49" s="373"/>
+      <c r="D49" s="375"/>
+      <c r="E49" s="373"/>
+      <c r="F49" s="375"/>
+      <c r="G49" s="378"/>
       <c r="H49" s="326"/>
       <c r="I49" s="326"/>
       <c r="J49" s="326"/>
@@ -12289,11 +12162,11 @@
       <c r="B50" s="338">
         <v>40</v>
       </c>
-      <c r="C50" s="340"/>
-      <c r="D50" s="289"/>
-      <c r="E50" s="336"/>
-      <c r="F50" s="285"/>
-      <c r="G50" s="321"/>
+      <c r="C50" s="373"/>
+      <c r="D50" s="375"/>
+      <c r="E50" s="373"/>
+      <c r="F50" s="375"/>
+      <c r="G50" s="378"/>
       <c r="H50" s="326"/>
       <c r="I50" s="326"/>
       <c r="J50" s="326"/>
@@ -12307,11 +12180,11 @@
       <c r="B51" s="335">
         <v>41</v>
       </c>
-      <c r="C51" s="340"/>
-      <c r="D51" s="289"/>
-      <c r="E51" s="336"/>
-      <c r="F51" s="285"/>
-      <c r="G51" s="321"/>
+      <c r="C51" s="373"/>
+      <c r="D51" s="375"/>
+      <c r="E51" s="373"/>
+      <c r="F51" s="375"/>
+      <c r="G51" s="378"/>
       <c r="H51" s="326"/>
       <c r="I51" s="326"/>
       <c r="J51" s="326"/>
@@ -12651,24 +12524,18 @@
   <mergeCells count="1">
     <mergeCell ref="B7:E7"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F52">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F52:F54 F11:F14 F16:F34">
       <formula1>$C$114:$C$119</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E11:E54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E52:E54 E11:E14 E16:E34">
       <formula1>$C$107:$C$111</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:D38">
-      <formula1>$C$108:$C$112</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F53:F91">
-      <formula1>$C$115:$C$119</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D53:D54 D39:D48 D11:D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D52:D54 D11:D14 D16:D26 D28:D34">
       <formula1>$C$101:$C$105</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:D52">
-      <formula1>$C$118:$C$122</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F55:F91">
+      <formula1>$C$115:$C$119</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23802,8 +23669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -483,6 +483,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="G29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tu Huynh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint 3</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G30" authorId="0">
       <text>
         <r>
@@ -531,30 +555,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tu Huynh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Sprint 3</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -1804,9 +1804,6 @@
     <t>01/06</t>
   </si>
   <si>
-    <t>02/05</t>
-  </si>
-  <si>
     <t>+Do Test Function</t>
   </si>
   <si>
@@ -1817,6 +1814,9 @@
   </si>
   <si>
     <t>+Invite User outside of system</t>
+  </si>
+  <si>
+    <t>02/06</t>
   </si>
 </sst>
 </file>
@@ -2659,7 +2659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="386">
+  <cellXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -3686,99 +3686,152 @@
     <xf numFmtId="0" fontId="21" fillId="21" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3787,19 +3840,460 @@
   </cellStyles>
   <dxfs count="162">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -3840,7 +4334,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment textRotation="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -3850,6 +4344,15 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3882,453 +4385,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -10060,27 +10116,27 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1345678910" displayName="Table1345678910" ref="B10:O54" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1345678910" displayName="Table1345678910" ref="B10:O54" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="B10:O54">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="18"/>
-    <tableColumn id="2" name="Task description" dataDxfId="17"/>
-    <tableColumn id="3" name="Type" dataDxfId="16"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="15"/>
-    <tableColumn id="5" name="Status" dataDxfId="14"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="13"/>
-    <tableColumn id="8" name="27/05" dataDxfId="12"/>
-    <tableColumn id="9" name="28/05" dataDxfId="11"/>
-    <tableColumn id="10" name="29/05" dataDxfId="10"/>
-    <tableColumn id="11" name="30/05" dataDxfId="9"/>
-    <tableColumn id="12" name="31/05" dataDxfId="8"/>
-    <tableColumn id="13" name="01/06" dataDxfId="7"/>
-    <tableColumn id="14" name="02/05" dataDxfId="6"/>
-    <tableColumn id="15" name="End" dataDxfId="5"/>
+    <tableColumn id="1" name="No." dataDxfId="13"/>
+    <tableColumn id="2" name="Task description" dataDxfId="12"/>
+    <tableColumn id="3" name="Type" dataDxfId="11"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="10"/>
+    <tableColumn id="5" name="Status" dataDxfId="9"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="8"/>
+    <tableColumn id="8" name="27/05" dataDxfId="7"/>
+    <tableColumn id="9" name="28/05" dataDxfId="6"/>
+    <tableColumn id="10" name="29/05" dataDxfId="5"/>
+    <tableColumn id="11" name="30/05" dataDxfId="4"/>
+    <tableColumn id="12" name="31/05" dataDxfId="3"/>
+    <tableColumn id="13" name="01/06" dataDxfId="2"/>
+    <tableColumn id="14" name="02/06" dataDxfId="1"/>
+    <tableColumn id="15" name="End" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10461,7 +10517,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="C14" s="354">
+      <c r="C14" s="388">
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -10472,7 +10528,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="C15" s="355"/>
+      <c r="C15" s="389"/>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
@@ -10480,28 +10536,28 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="C16" s="355"/>
+      <c r="C16" s="389"/>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="355"/>
+      <c r="C17" s="389"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="361"/>
+      <c r="C18" s="390"/>
       <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="368">
+      <c r="C19" s="393">
         <v>3</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -10512,7 +10568,7 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="369"/>
+      <c r="C20" s="394"/>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
@@ -10522,7 +10578,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="369"/>
+      <c r="C21" s="394"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -10532,42 +10588,42 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="369"/>
+      <c r="C22" s="394"/>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="369"/>
+      <c r="C23" s="394"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="369"/>
+      <c r="C24" s="394"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="369"/>
+      <c r="C25" s="394"/>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="370"/>
+      <c r="C26" s="395"/>
       <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="53"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="354">
+      <c r="C27" s="388">
         <v>4</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -10578,56 +10634,56 @@
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="355"/>
+      <c r="C28" s="389"/>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="355"/>
+      <c r="C29" s="389"/>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="355"/>
+      <c r="C30" s="389"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="355"/>
+      <c r="C31" s="389"/>
       <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="355"/>
+      <c r="C32" s="389"/>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="C33" s="355"/>
+      <c r="C33" s="389"/>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="C34" s="361"/>
+      <c r="C34" s="390"/>
       <c r="D34" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="360">
+      <c r="C35" s="385">
         <v>5</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -10638,14 +10694,14 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="358"/>
+      <c r="C36" s="386"/>
       <c r="D36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="358"/>
+      <c r="C37" s="386"/>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
@@ -10653,14 +10709,14 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="365"/>
+      <c r="C38" s="387"/>
       <c r="D38" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="49"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="354">
+      <c r="C39" s="388">
         <v>6</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -10671,21 +10727,21 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="355"/>
+      <c r="C40" s="389"/>
       <c r="D40" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="361"/>
+      <c r="C41" s="390"/>
       <c r="D41" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="366" t="s">
+      <c r="C42" s="391" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -10696,7 +10752,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="C43" s="367"/>
+      <c r="C43" s="392"/>
       <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
@@ -10736,10 +10792,10 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="C52" s="364" t="s">
+      <c r="C52" s="398" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="364"/>
+      <c r="D52" s="398"/>
       <c r="E52" s="42"/>
     </row>
     <row r="53" spans="2:5">
@@ -10761,10 +10817,10 @@
       <c r="E54" s="40"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="C55" s="362" t="s">
+      <c r="C55" s="396" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="363"/>
+      <c r="D55" s="397"/>
       <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5">
@@ -10786,10 +10842,10 @@
       <c r="E57" s="40"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="C58" s="362" t="s">
+      <c r="C58" s="396" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="363"/>
+      <c r="D58" s="397"/>
       <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5">
@@ -10802,7 +10858,7 @@
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="C60" s="355">
+      <c r="C60" s="389">
         <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
@@ -10811,70 +10867,70 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="C61" s="355"/>
+      <c r="C61" s="389"/>
       <c r="D61" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="C62" s="355"/>
+      <c r="C62" s="389"/>
       <c r="D62" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="C63" s="355"/>
+      <c r="C63" s="389"/>
       <c r="D63" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="C64" s="355"/>
+      <c r="C64" s="389"/>
       <c r="D64" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="355"/>
+      <c r="C65" s="389"/>
       <c r="D65" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="355"/>
+      <c r="C66" s="389"/>
       <c r="D66" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="18"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="355"/>
+      <c r="C67" s="389"/>
       <c r="D67" s="32" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="355"/>
+      <c r="C68" s="389"/>
       <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="361"/>
+      <c r="C69" s="390"/>
       <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="18"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="360">
+      <c r="C70" s="385">
         <v>2</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -10883,35 +10939,35 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="358"/>
+      <c r="C71" s="386"/>
       <c r="D71" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="3:5">
-      <c r="C72" s="358"/>
+      <c r="C72" s="386"/>
       <c r="D72" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="358"/>
+      <c r="C73" s="386"/>
       <c r="D73" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="358"/>
+      <c r="C74" s="386"/>
       <c r="D74" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="49"/>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="354">
+      <c r="C75" s="388">
         <v>3</v>
       </c>
       <c r="D75" s="44" t="s">
@@ -10920,42 +10976,42 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="355"/>
+      <c r="C76" s="389"/>
       <c r="D76" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="355"/>
+      <c r="C77" s="389"/>
       <c r="D77" s="33" t="s">
         <v>72</v>
       </c>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="355"/>
+      <c r="C78" s="389"/>
       <c r="D78" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E78" s="18"/>
     </row>
     <row r="79" spans="3:5">
-      <c r="C79" s="355"/>
+      <c r="C79" s="389"/>
       <c r="D79" s="33" t="s">
         <v>74</v>
       </c>
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C80" s="356"/>
+      <c r="C80" s="399"/>
       <c r="D80" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="3:5">
-      <c r="C81" s="357">
+      <c r="C81" s="400">
         <v>4</v>
       </c>
       <c r="D81" s="57" t="s">
@@ -10964,63 +11020,63 @@
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="358"/>
+      <c r="C82" s="386"/>
       <c r="D82" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E82" s="48"/>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="358"/>
+      <c r="C83" s="386"/>
       <c r="D83" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="3:5">
-      <c r="C84" s="358"/>
+      <c r="C84" s="386"/>
       <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="48"/>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="358"/>
+      <c r="C85" s="386"/>
       <c r="D85" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="48"/>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="358"/>
+      <c r="C86" s="386"/>
       <c r="D86" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="48"/>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="358"/>
+      <c r="C87" s="386"/>
       <c r="D87" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="358"/>
+      <c r="C88" s="386"/>
       <c r="D88" s="34" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="48"/>
     </row>
     <row r="89" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C89" s="359"/>
+      <c r="C89" s="401"/>
       <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="3:5">
-      <c r="C90" s="354">
+      <c r="C90" s="388">
         <v>5</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -11029,28 +11085,28 @@
       <c r="E90" s="18"/>
     </row>
     <row r="91" spans="3:5">
-      <c r="C91" s="355"/>
+      <c r="C91" s="389"/>
       <c r="D91" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="3:5">
-      <c r="C92" s="355"/>
+      <c r="C92" s="389"/>
       <c r="D92" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="3:5">
-      <c r="C93" s="355"/>
+      <c r="C93" s="389"/>
       <c r="D93" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="3:5">
-      <c r="C94" s="360">
+      <c r="C94" s="385">
         <v>6</v>
       </c>
       <c r="D94" s="57" t="s">
@@ -11059,21 +11115,21 @@
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="358"/>
+      <c r="C95" s="386"/>
       <c r="D95" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="358"/>
+      <c r="C96" s="386"/>
       <c r="D96" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="48"/>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="354">
+      <c r="C97" s="388">
         <v>7</v>
       </c>
       <c r="D97" s="44" t="s">
@@ -11082,35 +11138,35 @@
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="355"/>
+      <c r="C98" s="389"/>
       <c r="D98" s="32" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="18"/>
     </row>
     <row r="99" spans="3:5">
-      <c r="C99" s="355"/>
+      <c r="C99" s="389"/>
       <c r="D99" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="18"/>
     </row>
     <row r="100" spans="3:5">
-      <c r="C100" s="355"/>
+      <c r="C100" s="389"/>
       <c r="D100" s="32" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="18"/>
     </row>
     <row r="101" spans="3:5">
-      <c r="C101" s="361"/>
+      <c r="C101" s="390"/>
       <c r="D101" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="18"/>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="360">
+      <c r="C102" s="385">
         <v>8</v>
       </c>
       <c r="D102" s="57" t="s">
@@ -11119,21 +11175,21 @@
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="3:5">
-      <c r="C103" s="358"/>
+      <c r="C103" s="386"/>
       <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="3:5">
-      <c r="C104" s="358"/>
+      <c r="C104" s="386"/>
       <c r="D104" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="48"/>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="354" t="s">
+      <c r="C105" s="388" t="s">
         <v>99</v>
       </c>
       <c r="D105" s="58" t="s">
@@ -11144,23 +11200,12 @@
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="355"/>
+      <c r="C106" s="389"/>
       <c r="D106" s="38"/>
       <c r="E106" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C75:C80"/>
     <mergeCell ref="C81:C89"/>
@@ -11168,6 +11213,17 @@
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C27:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
@@ -11217,12 +11273,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="371" t="s">
+      <c r="B7" s="402" t="s">
         <v>393</v>
       </c>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
+      <c r="C7" s="402"/>
+      <c r="D7" s="402"/>
+      <c r="E7" s="402"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -11262,7 +11318,7 @@
         <v>404</v>
       </c>
       <c r="N10" s="274" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="O10" s="311" t="s">
         <v>284</v>
@@ -11272,7 +11328,7 @@
       <c r="B11" s="335">
         <v>1</v>
       </c>
-      <c r="C11" s="334" t="s">
+      <c r="C11" s="358" t="s">
         <v>394</v>
       </c>
       <c r="D11" s="289" t="s">
@@ -11281,46 +11337,62 @@
       <c r="E11" s="336" t="s">
         <v>351</v>
       </c>
-      <c r="F11" s="285" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="321">
+      <c r="F11" s="359" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="360">
         <v>20</v>
       </c>
-      <c r="H11" s="326"/>
-      <c r="I11" s="326"/>
-      <c r="J11" s="326"/>
-      <c r="K11" s="326"/>
-      <c r="L11" s="326"/>
-      <c r="M11" s="333"/>
-      <c r="N11" s="337"/>
-      <c r="O11" s="337"/>
+      <c r="H11" s="326">
+        <v>18</v>
+      </c>
+      <c r="I11" s="326">
+        <v>14</v>
+      </c>
+      <c r="J11" s="326">
+        <v>10</v>
+      </c>
+      <c r="K11" s="326">
+        <v>6</v>
+      </c>
+      <c r="L11" s="326">
+        <v>2</v>
+      </c>
+      <c r="M11" s="333">
+        <v>0</v>
+      </c>
+      <c r="N11" s="361">
+        <v>0</v>
+      </c>
+      <c r="O11" s="361">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="338">
         <v>2</v>
       </c>
-      <c r="C12" s="334" t="s">
+      <c r="C12" s="358" t="s">
         <v>397</v>
       </c>
       <c r="D12" s="289"/>
       <c r="E12" s="336"/>
-      <c r="F12" s="285"/>
-      <c r="G12" s="321"/>
+      <c r="F12" s="359"/>
+      <c r="G12" s="360"/>
       <c r="H12" s="326"/>
       <c r="I12" s="339"/>
       <c r="J12" s="339"/>
       <c r="K12" s="339"/>
       <c r="L12" s="339"/>
       <c r="M12" s="331"/>
-      <c r="N12" s="332"/>
-      <c r="O12" s="332"/>
+      <c r="N12" s="362"/>
+      <c r="O12" s="362"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="335">
         <v>3</v>
       </c>
-      <c r="C13" s="340" t="s">
+      <c r="C13" s="363" t="s">
         <v>398</v>
       </c>
       <c r="D13" s="289" t="s">
@@ -11329,27 +11401,43 @@
       <c r="E13" s="336" t="s">
         <v>351</v>
       </c>
-      <c r="F13" s="285" t="s">
+      <c r="F13" s="359" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="321">
+      <c r="G13" s="360">
         <v>15</v>
       </c>
-      <c r="H13" s="326"/>
-      <c r="I13" s="339"/>
-      <c r="J13" s="339"/>
-      <c r="K13" s="339"/>
-      <c r="L13" s="339"/>
-      <c r="M13" s="331"/>
-      <c r="N13" s="332"/>
-      <c r="O13" s="332"/>
+      <c r="H13" s="326">
+        <v>15</v>
+      </c>
+      <c r="I13" s="339">
+        <v>15</v>
+      </c>
+      <c r="J13" s="339">
+        <v>15</v>
+      </c>
+      <c r="K13" s="339">
+        <v>15</v>
+      </c>
+      <c r="L13" s="339">
+        <v>15</v>
+      </c>
+      <c r="M13" s="331">
+        <v>15</v>
+      </c>
+      <c r="N13" s="362">
+        <v>15</v>
+      </c>
+      <c r="O13" s="362">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="338">
         <v>4</v>
       </c>
-      <c r="C14" s="340" t="s">
-        <v>406</v>
+      <c r="C14" s="363" t="s">
+        <v>405</v>
       </c>
       <c r="D14" s="289" t="s">
         <v>107</v>
@@ -11357,74 +11445,106 @@
       <c r="E14" s="336" t="s">
         <v>351</v>
       </c>
-      <c r="F14" s="285" t="s">
+      <c r="F14" s="359" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="321">
+      <c r="G14" s="360">
         <v>30</v>
       </c>
-      <c r="H14" s="326"/>
-      <c r="I14" s="339"/>
-      <c r="J14" s="339"/>
-      <c r="K14" s="339"/>
-      <c r="L14" s="339"/>
-      <c r="M14" s="331"/>
-      <c r="N14" s="332"/>
-      <c r="O14" s="332"/>
+      <c r="H14" s="326">
+        <v>30</v>
+      </c>
+      <c r="I14" s="339">
+        <v>30</v>
+      </c>
+      <c r="J14" s="339">
+        <v>30</v>
+      </c>
+      <c r="K14" s="339">
+        <v>30</v>
+      </c>
+      <c r="L14" s="339">
+        <v>30</v>
+      </c>
+      <c r="M14" s="331">
+        <v>30</v>
+      </c>
+      <c r="N14" s="362">
+        <v>30</v>
+      </c>
+      <c r="O14" s="362">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="335">
         <v>5</v>
       </c>
-      <c r="C15" s="384" t="s">
-        <v>407</v>
-      </c>
-      <c r="D15" s="375" t="s">
+      <c r="C15" s="364" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15" s="365" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="373" t="s">
+      <c r="E15" s="366" t="s">
         <v>351</v>
       </c>
-      <c r="F15" s="375" t="s">
+      <c r="F15" s="365" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="378">
+      <c r="G15" s="367">
         <v>10</v>
       </c>
-      <c r="H15" s="326"/>
-      <c r="I15" s="339"/>
-      <c r="J15" s="339"/>
-      <c r="K15" s="339"/>
-      <c r="L15" s="326"/>
-      <c r="M15" s="333"/>
-      <c r="N15" s="332"/>
-      <c r="O15" s="332"/>
+      <c r="H15" s="326">
+        <v>10</v>
+      </c>
+      <c r="I15" s="339">
+        <v>10</v>
+      </c>
+      <c r="J15" s="339">
+        <v>10</v>
+      </c>
+      <c r="K15" s="339">
+        <v>10</v>
+      </c>
+      <c r="L15" s="326">
+        <v>10</v>
+      </c>
+      <c r="M15" s="333">
+        <v>10</v>
+      </c>
+      <c r="N15" s="362">
+        <v>10</v>
+      </c>
+      <c r="O15" s="362">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="2:15" s="197" customFormat="1">
       <c r="B16" s="338">
         <v>6</v>
       </c>
-      <c r="C16" s="334" t="s">
+      <c r="C16" s="358" t="s">
         <v>359</v>
       </c>
       <c r="D16" s="289"/>
       <c r="E16" s="336"/>
-      <c r="F16" s="285"/>
-      <c r="G16" s="321"/>
+      <c r="F16" s="359"/>
+      <c r="G16" s="360"/>
       <c r="H16" s="326"/>
       <c r="I16" s="339"/>
       <c r="J16" s="339"/>
       <c r="K16" s="339"/>
       <c r="L16" s="339"/>
       <c r="M16" s="331"/>
-      <c r="N16" s="332"/>
-      <c r="O16" s="332"/>
+      <c r="N16" s="362"/>
+      <c r="O16" s="362"/>
     </row>
     <row r="17" spans="2:15" s="197" customFormat="1">
       <c r="B17" s="335">
         <v>7</v>
       </c>
-      <c r="C17" s="372" t="s">
+      <c r="C17" s="368" t="s">
         <v>361</v>
       </c>
       <c r="D17" s="289" t="s">
@@ -11433,110 +11553,174 @@
       <c r="E17" s="336" t="s">
         <v>349</v>
       </c>
-      <c r="F17" s="285" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="321">
+      <c r="F17" s="359" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="360">
         <v>10</v>
       </c>
-      <c r="H17" s="326"/>
-      <c r="I17" s="339"/>
-      <c r="J17" s="339"/>
-      <c r="K17" s="339"/>
-      <c r="L17" s="339"/>
-      <c r="M17" s="331"/>
-      <c r="N17" s="332"/>
-      <c r="O17" s="332"/>
+      <c r="H17" s="326">
+        <v>8</v>
+      </c>
+      <c r="I17" s="339">
+        <v>5</v>
+      </c>
+      <c r="J17" s="339">
+        <v>4</v>
+      </c>
+      <c r="K17" s="339">
+        <v>1</v>
+      </c>
+      <c r="L17" s="339">
+        <v>0</v>
+      </c>
+      <c r="M17" s="331">
+        <v>0</v>
+      </c>
+      <c r="N17" s="362">
+        <v>0</v>
+      </c>
+      <c r="O17" s="362">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:15" s="197" customFormat="1">
       <c r="B18" s="338">
         <v>8</v>
       </c>
-      <c r="C18" s="372" t="s">
+      <c r="C18" s="368" t="s">
         <v>362</v>
       </c>
-      <c r="D18" s="374" t="s">
+      <c r="D18" s="354" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="376" t="s">
+      <c r="E18" s="355" t="s">
         <v>349</v>
       </c>
-      <c r="F18" s="377" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="321">
+      <c r="F18" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="360">
         <v>15</v>
       </c>
-      <c r="H18" s="326"/>
-      <c r="I18" s="339"/>
-      <c r="J18" s="339"/>
-      <c r="K18" s="339"/>
-      <c r="L18" s="339"/>
-      <c r="M18" s="331"/>
-      <c r="N18" s="332"/>
-      <c r="O18" s="332"/>
+      <c r="H18" s="326">
+        <v>13</v>
+      </c>
+      <c r="I18" s="339">
+        <v>10</v>
+      </c>
+      <c r="J18" s="339">
+        <v>7</v>
+      </c>
+      <c r="K18" s="339">
+        <v>4</v>
+      </c>
+      <c r="L18" s="339">
+        <v>2</v>
+      </c>
+      <c r="M18" s="331">
+        <v>0</v>
+      </c>
+      <c r="N18" s="362">
+        <v>0</v>
+      </c>
+      <c r="O18" s="362">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:15" s="197" customFormat="1">
       <c r="B19" s="335">
         <v>9</v>
       </c>
-      <c r="C19" s="341" t="s">
+      <c r="C19" s="370" t="s">
         <v>386</v>
       </c>
-      <c r="D19" s="375" t="s">
+      <c r="D19" s="365" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="373" t="s">
+      <c r="E19" s="366" t="s">
         <v>349</v>
       </c>
-      <c r="F19" s="375" t="s">
+      <c r="F19" s="365" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="378">
+      <c r="G19" s="367">
         <v>12</v>
       </c>
-      <c r="H19" s="326"/>
-      <c r="I19" s="339"/>
-      <c r="J19" s="339"/>
-      <c r="K19" s="326"/>
-      <c r="L19" s="326"/>
-      <c r="M19" s="333"/>
-      <c r="N19" s="332"/>
-      <c r="O19" s="332"/>
+      <c r="H19" s="326">
+        <v>12</v>
+      </c>
+      <c r="I19" s="339">
+        <v>12</v>
+      </c>
+      <c r="J19" s="339">
+        <v>12</v>
+      </c>
+      <c r="K19" s="326">
+        <v>12</v>
+      </c>
+      <c r="L19" s="326">
+        <v>12</v>
+      </c>
+      <c r="M19" s="333">
+        <v>12</v>
+      </c>
+      <c r="N19" s="362">
+        <v>12</v>
+      </c>
+      <c r="O19" s="362">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="338">
         <v>10</v>
       </c>
-      <c r="C20" s="334" t="s">
+      <c r="C20" s="358" t="s">
         <v>395</v>
       </c>
-      <c r="D20" s="375" t="s">
+      <c r="D20" s="365" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="373" t="s">
+      <c r="E20" s="366" t="s">
         <v>349</v>
       </c>
-      <c r="F20" s="375" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="321">
+      <c r="F20" s="365" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="360">
         <v>10</v>
       </c>
-      <c r="H20" s="321"/>
-      <c r="I20" s="326"/>
-      <c r="J20" s="326"/>
-      <c r="K20" s="326"/>
-      <c r="L20" s="326"/>
-      <c r="M20" s="333"/>
-      <c r="N20" s="332"/>
-      <c r="O20" s="332"/>
+      <c r="H20" s="360">
+        <v>8</v>
+      </c>
+      <c r="I20" s="326">
+        <v>6</v>
+      </c>
+      <c r="J20" s="326">
+        <v>4</v>
+      </c>
+      <c r="K20" s="326">
+        <v>2</v>
+      </c>
+      <c r="L20" s="326">
+        <v>0</v>
+      </c>
+      <c r="M20" s="333">
+        <v>0</v>
+      </c>
+      <c r="N20" s="362">
+        <v>0</v>
+      </c>
+      <c r="O20" s="362">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="335">
         <v>11</v>
       </c>
-      <c r="C21" s="334" t="s">
+      <c r="C21" s="358" t="s">
         <v>396</v>
       </c>
       <c r="D21" s="289" t="s">
@@ -11545,46 +11729,62 @@
       <c r="E21" s="336" t="s">
         <v>349</v>
       </c>
-      <c r="F21" s="285" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="321">
+      <c r="F21" s="359" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="360">
         <v>15</v>
       </c>
-      <c r="H21" s="326"/>
-      <c r="I21" s="326"/>
-      <c r="J21" s="326"/>
-      <c r="K21" s="326"/>
-      <c r="L21" s="326"/>
-      <c r="M21" s="333"/>
-      <c r="N21" s="332"/>
-      <c r="O21" s="332"/>
+      <c r="H21" s="326">
+        <v>13</v>
+      </c>
+      <c r="I21" s="326">
+        <v>10</v>
+      </c>
+      <c r="J21" s="326">
+        <v>7</v>
+      </c>
+      <c r="K21" s="326">
+        <v>4</v>
+      </c>
+      <c r="L21" s="326">
+        <v>2</v>
+      </c>
+      <c r="M21" s="333">
+        <v>0</v>
+      </c>
+      <c r="N21" s="362">
+        <v>0</v>
+      </c>
+      <c r="O21" s="362">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="338">
         <v>12</v>
       </c>
-      <c r="C22" s="334" t="s">
+      <c r="C22" s="358" t="s">
         <v>367</v>
       </c>
-      <c r="D22" s="375"/>
-      <c r="E22" s="373"/>
-      <c r="F22" s="375"/>
-      <c r="G22" s="378"/>
+      <c r="D22" s="365"/>
+      <c r="E22" s="366"/>
+      <c r="F22" s="365"/>
+      <c r="G22" s="367"/>
       <c r="H22" s="326"/>
       <c r="I22" s="339"/>
       <c r="J22" s="339"/>
       <c r="K22" s="339"/>
       <c r="L22" s="339"/>
       <c r="M22" s="331"/>
-      <c r="N22" s="332"/>
-      <c r="O22" s="332"/>
+      <c r="N22" s="362"/>
+      <c r="O22" s="362"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="335">
         <v>13</v>
       </c>
-      <c r="C23" s="340" t="s">
+      <c r="C23" s="363" t="s">
         <v>368</v>
       </c>
       <c r="D23" s="289" t="s">
@@ -11593,660 +11793,804 @@
       <c r="E23" s="336" t="s">
         <v>350</v>
       </c>
-      <c r="F23" s="285" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="321">
+      <c r="F23" s="359" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="360">
         <v>10</v>
       </c>
-      <c r="H23" s="380"/>
-      <c r="I23" s="382"/>
-      <c r="J23" s="382"/>
-      <c r="K23" s="382"/>
-      <c r="L23" s="382"/>
-      <c r="M23" s="382"/>
-      <c r="N23" s="383"/>
-      <c r="O23" s="383"/>
+      <c r="H23" s="356">
+        <v>8</v>
+      </c>
+      <c r="I23" s="357">
+        <v>6</v>
+      </c>
+      <c r="J23" s="357">
+        <v>4</v>
+      </c>
+      <c r="K23" s="357">
+        <v>3</v>
+      </c>
+      <c r="L23" s="357">
+        <v>1</v>
+      </c>
+      <c r="M23" s="357">
+        <v>0</v>
+      </c>
+      <c r="N23" s="371">
+        <v>0</v>
+      </c>
+      <c r="O23" s="371">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="338">
         <v>14</v>
       </c>
-      <c r="C24" s="379" t="s">
+      <c r="C24" s="372" t="s">
         <v>370</v>
       </c>
-      <c r="D24" s="374" t="s">
+      <c r="D24" s="354" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="376" t="s">
+      <c r="E24" s="355" t="s">
         <v>350</v>
       </c>
-      <c r="F24" s="377" t="s">
+      <c r="F24" s="369" t="s">
         <v>117</v>
       </c>
-      <c r="G24" s="378">
+      <c r="G24" s="367">
         <v>12</v>
       </c>
-      <c r="H24" s="380"/>
-      <c r="I24" s="382"/>
-      <c r="J24" s="382"/>
-      <c r="K24" s="382"/>
-      <c r="L24" s="382"/>
-      <c r="M24" s="382"/>
-      <c r="N24" s="383"/>
-      <c r="O24" s="383"/>
+      <c r="H24" s="356">
+        <v>12</v>
+      </c>
+      <c r="I24" s="357">
+        <v>12</v>
+      </c>
+      <c r="J24" s="357">
+        <v>12</v>
+      </c>
+      <c r="K24" s="357">
+        <v>12</v>
+      </c>
+      <c r="L24" s="357">
+        <v>12</v>
+      </c>
+      <c r="M24" s="357">
+        <v>12</v>
+      </c>
+      <c r="N24" s="371">
+        <v>12</v>
+      </c>
+      <c r="O24" s="371">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="335">
         <v>15</v>
       </c>
-      <c r="C25" s="372" t="s">
+      <c r="C25" s="368" t="s">
         <v>369</v>
       </c>
-      <c r="D25" s="374" t="s">
+      <c r="D25" s="354" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="376" t="s">
+      <c r="E25" s="355" t="s">
         <v>350</v>
       </c>
-      <c r="F25" s="377" t="s">
+      <c r="F25" s="369" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="378">
+      <c r="G25" s="367">
         <v>10</v>
       </c>
-      <c r="H25" s="380"/>
-      <c r="I25" s="382"/>
-      <c r="J25" s="382"/>
-      <c r="K25" s="382"/>
-      <c r="L25" s="382"/>
-      <c r="M25" s="382"/>
-      <c r="N25" s="383"/>
-      <c r="O25" s="383"/>
+      <c r="H25" s="356">
+        <v>10</v>
+      </c>
+      <c r="I25" s="357">
+        <v>10</v>
+      </c>
+      <c r="J25" s="357">
+        <v>10</v>
+      </c>
+      <c r="K25" s="357">
+        <v>10</v>
+      </c>
+      <c r="L25" s="357">
+        <v>10</v>
+      </c>
+      <c r="M25" s="357">
+        <v>10</v>
+      </c>
+      <c r="N25" s="371">
+        <v>10</v>
+      </c>
+      <c r="O25" s="371">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="338">
         <v>16</v>
       </c>
-      <c r="C26" s="379" t="s">
+      <c r="C26" s="372" t="s">
         <v>371</v>
       </c>
-      <c r="D26" s="374" t="s">
+      <c r="D26" s="354" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="376" t="s">
+      <c r="E26" s="355" t="s">
         <v>350</v>
       </c>
-      <c r="F26" s="377" t="s">
+      <c r="F26" s="369" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="378">
+      <c r="G26" s="367">
         <v>12</v>
       </c>
-      <c r="H26" s="381"/>
-      <c r="I26" s="381"/>
-      <c r="J26" s="381"/>
-      <c r="K26" s="381"/>
-      <c r="L26" s="381"/>
-      <c r="M26" s="381"/>
-      <c r="N26" s="383"/>
-      <c r="O26" s="383"/>
+      <c r="H26" s="373">
+        <v>12</v>
+      </c>
+      <c r="I26" s="373">
+        <v>12</v>
+      </c>
+      <c r="J26" s="373">
+        <v>12</v>
+      </c>
+      <c r="K26" s="373">
+        <v>12</v>
+      </c>
+      <c r="L26" s="373">
+        <v>12</v>
+      </c>
+      <c r="M26" s="373">
+        <v>12</v>
+      </c>
+      <c r="N26" s="371">
+        <v>12</v>
+      </c>
+      <c r="O26" s="371">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="2:15" ht="36" customHeight="1">
       <c r="B27" s="335">
         <v>17</v>
       </c>
-      <c r="C27" s="385" t="s">
-        <v>408</v>
-      </c>
-      <c r="D27" s="375" t="s">
+      <c r="C27" s="374" t="s">
+        <v>407</v>
+      </c>
+      <c r="D27" s="365" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="376" t="s">
+      <c r="E27" s="355" t="s">
         <v>350</v>
       </c>
-      <c r="F27" s="377" t="s">
+      <c r="F27" s="369" t="s">
         <v>117</v>
       </c>
-      <c r="G27" s="378">
+      <c r="G27" s="367">
         <v>10</v>
       </c>
-      <c r="H27" s="326"/>
-      <c r="I27" s="339"/>
-      <c r="J27" s="339"/>
-      <c r="K27" s="339"/>
-      <c r="L27" s="339"/>
-      <c r="M27" s="331"/>
-      <c r="N27" s="332"/>
-      <c r="O27" s="332"/>
+      <c r="H27" s="326">
+        <v>10</v>
+      </c>
+      <c r="I27" s="339">
+        <v>10</v>
+      </c>
+      <c r="J27" s="339">
+        <v>10</v>
+      </c>
+      <c r="K27" s="339">
+        <v>10</v>
+      </c>
+      <c r="L27" s="339">
+        <v>10</v>
+      </c>
+      <c r="M27" s="331">
+        <v>10</v>
+      </c>
+      <c r="N27" s="362">
+        <v>10</v>
+      </c>
+      <c r="O27" s="362">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="338">
         <v>18</v>
       </c>
-      <c r="C28" s="334"/>
+      <c r="C28" s="358" t="s">
+        <v>388</v>
+      </c>
       <c r="D28" s="289"/>
       <c r="E28" s="336"/>
-      <c r="F28" s="285"/>
-      <c r="G28" s="321"/>
+      <c r="F28" s="359"/>
+      <c r="G28" s="360"/>
       <c r="H28" s="326"/>
       <c r="I28" s="339"/>
       <c r="J28" s="339"/>
       <c r="K28" s="339"/>
       <c r="L28" s="339"/>
       <c r="M28" s="331"/>
-      <c r="N28" s="332"/>
-      <c r="O28" s="332"/>
+      <c r="N28" s="362"/>
+      <c r="O28" s="362"/>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="335">
         <v>19</v>
       </c>
-      <c r="C29" s="334" t="s">
-        <v>388</v>
-      </c>
-      <c r="D29" s="289"/>
-      <c r="E29" s="336"/>
-      <c r="F29" s="285"/>
-      <c r="G29" s="321"/>
-      <c r="H29" s="326"/>
-      <c r="I29" s="326"/>
-      <c r="J29" s="326"/>
-      <c r="K29" s="326"/>
-      <c r="L29" s="326"/>
-      <c r="M29" s="333"/>
-      <c r="N29" s="332"/>
-      <c r="O29" s="332"/>
+      <c r="C29" s="372" t="s">
+        <v>391</v>
+      </c>
+      <c r="D29" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="355" t="s">
+        <v>352</v>
+      </c>
+      <c r="F29" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="367">
+        <v>12</v>
+      </c>
+      <c r="H29" s="326">
+        <v>10</v>
+      </c>
+      <c r="I29" s="326">
+        <v>8</v>
+      </c>
+      <c r="J29" s="326">
+        <v>7</v>
+      </c>
+      <c r="K29" s="326">
+        <v>6</v>
+      </c>
+      <c r="L29" s="326">
+        <v>5</v>
+      </c>
+      <c r="M29" s="333">
+        <v>5</v>
+      </c>
+      <c r="N29" s="362">
+        <v>5</v>
+      </c>
+      <c r="O29" s="362">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="338">
         <v>20</v>
       </c>
-      <c r="C30" s="341" t="s">
-        <v>391</v>
-      </c>
-      <c r="D30" s="289" t="s">
+      <c r="C30" s="368" t="s">
+        <v>389</v>
+      </c>
+      <c r="D30" s="354" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="336" t="s">
+      <c r="E30" s="355" t="s">
         <v>352</v>
       </c>
-      <c r="F30" s="285" t="s">
+      <c r="F30" s="369" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="321">
+      <c r="G30" s="367">
         <v>12</v>
       </c>
-      <c r="H30" s="326"/>
-      <c r="I30" s="326"/>
-      <c r="J30" s="326"/>
-      <c r="K30" s="326"/>
-      <c r="L30" s="326"/>
-      <c r="M30" s="333"/>
-      <c r="N30" s="332"/>
-      <c r="O30" s="332"/>
+      <c r="H30" s="326">
+        <v>10</v>
+      </c>
+      <c r="I30" s="326">
+        <v>8</v>
+      </c>
+      <c r="J30" s="326">
+        <v>7</v>
+      </c>
+      <c r="K30" s="326">
+        <v>6</v>
+      </c>
+      <c r="L30" s="326">
+        <v>4</v>
+      </c>
+      <c r="M30" s="333">
+        <v>2</v>
+      </c>
+      <c r="N30" s="362">
+        <v>0</v>
+      </c>
+      <c r="O30" s="362">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="335">
         <v>21</v>
       </c>
-      <c r="C31" s="372" t="s">
-        <v>389</v>
-      </c>
-      <c r="D31" s="374" t="s">
+      <c r="C31" s="368" t="s">
+        <v>390</v>
+      </c>
+      <c r="D31" s="354" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="376" t="s">
+      <c r="E31" s="355" t="s">
         <v>352</v>
       </c>
-      <c r="F31" s="377" t="s">
+      <c r="F31" s="369" t="s">
         <v>117</v>
       </c>
-      <c r="G31" s="378">
+      <c r="G31" s="367">
         <v>12</v>
       </c>
-      <c r="H31" s="326"/>
-      <c r="I31" s="326"/>
-      <c r="J31" s="326"/>
-      <c r="K31" s="326"/>
-      <c r="L31" s="326"/>
-      <c r="M31" s="333"/>
-      <c r="N31" s="332"/>
-      <c r="O31" s="332"/>
+      <c r="H31" s="326">
+        <v>12</v>
+      </c>
+      <c r="I31" s="326">
+        <v>12</v>
+      </c>
+      <c r="J31" s="326">
+        <v>12</v>
+      </c>
+      <c r="K31" s="326">
+        <v>12</v>
+      </c>
+      <c r="L31" s="326">
+        <v>12</v>
+      </c>
+      <c r="M31" s="333">
+        <v>12</v>
+      </c>
+      <c r="N31" s="362">
+        <v>12</v>
+      </c>
+      <c r="O31" s="362">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="338">
         <v>22</v>
       </c>
-      <c r="C32" s="372" t="s">
-        <v>390</v>
-      </c>
-      <c r="D32" s="374" t="s">
+      <c r="C32" s="368" t="s">
+        <v>408</v>
+      </c>
+      <c r="D32" s="354" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="376" t="s">
+      <c r="E32" s="355" t="s">
         <v>352</v>
       </c>
-      <c r="F32" s="377" t="s">
+      <c r="F32" s="369" t="s">
         <v>117</v>
       </c>
-      <c r="G32" s="378">
-        <v>12</v>
-      </c>
-      <c r="H32" s="326"/>
-      <c r="I32" s="326"/>
-      <c r="J32" s="326"/>
-      <c r="K32" s="326"/>
-      <c r="L32" s="326"/>
-      <c r="M32" s="333"/>
-      <c r="N32" s="332"/>
-      <c r="O32" s="332"/>
+      <c r="G32" s="367">
+        <v>20</v>
+      </c>
+      <c r="H32" s="326">
+        <v>20</v>
+      </c>
+      <c r="I32" s="326">
+        <v>20</v>
+      </c>
+      <c r="J32" s="326">
+        <v>20</v>
+      </c>
+      <c r="K32" s="326">
+        <v>20</v>
+      </c>
+      <c r="L32" s="326">
+        <v>20</v>
+      </c>
+      <c r="M32" s="333">
+        <v>20</v>
+      </c>
+      <c r="N32" s="362">
+        <v>20</v>
+      </c>
+      <c r="O32" s="362">
+        <v>20</v>
+      </c>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="335">
         <v>23</v>
       </c>
-      <c r="C33" s="340" t="s">
-        <v>409</v>
-      </c>
-      <c r="D33" s="289" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="336" t="s">
-        <v>352</v>
-      </c>
-      <c r="F33" s="285" t="s">
-        <v>117</v>
-      </c>
-      <c r="G33" s="321">
-        <v>20</v>
-      </c>
+      <c r="C33" s="366"/>
+      <c r="D33" s="365"/>
+      <c r="E33" s="366"/>
+      <c r="F33" s="365"/>
+      <c r="G33" s="367"/>
       <c r="H33" s="326"/>
       <c r="I33" s="326"/>
       <c r="J33" s="326"/>
       <c r="K33" s="326"/>
       <c r="L33" s="326"/>
       <c r="M33" s="333"/>
-      <c r="N33" s="332"/>
-      <c r="O33" s="332"/>
+      <c r="N33" s="362"/>
+      <c r="O33" s="362"/>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="338">
         <v>24</v>
       </c>
-      <c r="C34" s="342"/>
+      <c r="C34" s="375"/>
       <c r="D34" s="289"/>
       <c r="E34" s="336"/>
-      <c r="F34" s="285"/>
-      <c r="G34" s="321"/>
+      <c r="F34" s="359"/>
+      <c r="G34" s="360"/>
       <c r="H34" s="326"/>
       <c r="I34" s="326"/>
       <c r="J34" s="326"/>
       <c r="K34" s="326"/>
       <c r="L34" s="326"/>
       <c r="M34" s="333"/>
-      <c r="N34" s="332"/>
-      <c r="O34" s="332"/>
+      <c r="N34" s="362"/>
+      <c r="O34" s="362"/>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="335">
         <v>25</v>
       </c>
-      <c r="C35" s="373"/>
-      <c r="D35" s="375"/>
-      <c r="E35" s="373"/>
-      <c r="F35" s="375"/>
-      <c r="G35" s="378"/>
+      <c r="C35" s="366"/>
+      <c r="D35" s="365"/>
+      <c r="E35" s="366"/>
+      <c r="F35" s="365"/>
+      <c r="G35" s="367"/>
       <c r="H35" s="326"/>
       <c r="I35" s="326"/>
       <c r="J35" s="326"/>
       <c r="K35" s="326"/>
       <c r="L35" s="326"/>
       <c r="M35" s="333"/>
-      <c r="N35" s="332"/>
-      <c r="O35" s="332"/>
+      <c r="N35" s="362"/>
+      <c r="O35" s="362"/>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="338">
         <v>26</v>
       </c>
-      <c r="C36" s="373"/>
-      <c r="D36" s="375"/>
-      <c r="E36" s="373"/>
-      <c r="F36" s="375"/>
-      <c r="G36" s="378"/>
+      <c r="C36" s="366"/>
+      <c r="D36" s="365"/>
+      <c r="E36" s="366"/>
+      <c r="F36" s="365"/>
+      <c r="G36" s="367"/>
       <c r="H36" s="326"/>
       <c r="I36" s="326"/>
       <c r="J36" s="326"/>
       <c r="K36" s="326"/>
       <c r="L36" s="326"/>
       <c r="M36" s="333"/>
-      <c r="N36" s="332"/>
-      <c r="O36" s="332"/>
+      <c r="N36" s="362"/>
+      <c r="O36" s="362"/>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="335">
         <v>27</v>
       </c>
-      <c r="C37" s="373"/>
-      <c r="D37" s="375"/>
-      <c r="E37" s="373"/>
-      <c r="F37" s="375"/>
-      <c r="G37" s="378"/>
+      <c r="C37" s="366"/>
+      <c r="D37" s="365"/>
+      <c r="E37" s="366"/>
+      <c r="F37" s="365"/>
+      <c r="G37" s="367"/>
       <c r="H37" s="326"/>
       <c r="I37" s="326"/>
       <c r="J37" s="326"/>
       <c r="K37" s="326"/>
       <c r="L37" s="326"/>
       <c r="M37" s="333"/>
-      <c r="N37" s="332"/>
-      <c r="O37" s="332"/>
+      <c r="N37" s="362"/>
+      <c r="O37" s="362"/>
     </row>
     <row r="38" spans="2:15">
       <c r="B38" s="338">
         <v>28</v>
       </c>
-      <c r="C38" s="373"/>
-      <c r="D38" s="375"/>
-      <c r="E38" s="373"/>
-      <c r="F38" s="375"/>
-      <c r="G38" s="378"/>
+      <c r="C38" s="366"/>
+      <c r="D38" s="365"/>
+      <c r="E38" s="366"/>
+      <c r="F38" s="365"/>
+      <c r="G38" s="367"/>
       <c r="H38" s="326"/>
       <c r="I38" s="326"/>
       <c r="J38" s="326"/>
       <c r="K38" s="326"/>
       <c r="L38" s="326"/>
       <c r="M38" s="333"/>
-      <c r="N38" s="332"/>
-      <c r="O38" s="332"/>
+      <c r="N38" s="362"/>
+      <c r="O38" s="362"/>
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="335">
         <v>29</v>
       </c>
-      <c r="C39" s="373"/>
-      <c r="D39" s="375"/>
-      <c r="E39" s="373"/>
-      <c r="F39" s="375"/>
-      <c r="G39" s="378"/>
+      <c r="C39" s="366"/>
+      <c r="D39" s="365"/>
+      <c r="E39" s="366"/>
+      <c r="F39" s="365"/>
+      <c r="G39" s="367"/>
       <c r="H39" s="326"/>
       <c r="I39" s="326"/>
       <c r="J39" s="326"/>
       <c r="K39" s="326"/>
       <c r="L39" s="326"/>
       <c r="M39" s="333"/>
-      <c r="N39" s="332"/>
-      <c r="O39" s="332"/>
+      <c r="N39" s="362"/>
+      <c r="O39" s="362"/>
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="338">
         <v>30</v>
       </c>
-      <c r="C40" s="373"/>
-      <c r="D40" s="375"/>
-      <c r="E40" s="373"/>
-      <c r="F40" s="375"/>
-      <c r="G40" s="378"/>
+      <c r="C40" s="366"/>
+      <c r="D40" s="365"/>
+      <c r="E40" s="366"/>
+      <c r="F40" s="365"/>
+      <c r="G40" s="367"/>
       <c r="H40" s="326"/>
       <c r="I40" s="326"/>
       <c r="J40" s="326"/>
       <c r="K40" s="326"/>
       <c r="L40" s="326"/>
       <c r="M40" s="333"/>
-      <c r="N40" s="332"/>
-      <c r="O40" s="332"/>
+      <c r="N40" s="362"/>
+      <c r="O40" s="362"/>
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="335">
         <v>31</v>
       </c>
-      <c r="C41" s="373"/>
-      <c r="D41" s="375"/>
-      <c r="E41" s="373"/>
-      <c r="F41" s="375"/>
-      <c r="G41" s="378"/>
+      <c r="C41" s="366"/>
+      <c r="D41" s="365"/>
+      <c r="E41" s="366"/>
+      <c r="F41" s="365"/>
+      <c r="G41" s="367"/>
       <c r="H41" s="326"/>
       <c r="I41" s="326"/>
       <c r="J41" s="326"/>
       <c r="K41" s="326"/>
       <c r="L41" s="326"/>
       <c r="M41" s="333"/>
-      <c r="N41" s="332"/>
-      <c r="O41" s="332"/>
+      <c r="N41" s="362"/>
+      <c r="O41" s="362"/>
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="338">
         <v>32</v>
       </c>
-      <c r="C42" s="373"/>
-      <c r="D42" s="375"/>
-      <c r="E42" s="373"/>
-      <c r="F42" s="375"/>
-      <c r="G42" s="378"/>
+      <c r="C42" s="366"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="366"/>
+      <c r="F42" s="365"/>
+      <c r="G42" s="367"/>
       <c r="H42" s="326"/>
       <c r="I42" s="326"/>
       <c r="J42" s="326"/>
       <c r="K42" s="326"/>
       <c r="L42" s="326"/>
       <c r="M42" s="333"/>
-      <c r="N42" s="332"/>
-      <c r="O42" s="332"/>
+      <c r="N42" s="362"/>
+      <c r="O42" s="362"/>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="335">
         <v>33</v>
       </c>
-      <c r="C43" s="373"/>
-      <c r="D43" s="375"/>
-      <c r="E43" s="373"/>
-      <c r="F43" s="375"/>
-      <c r="G43" s="378"/>
+      <c r="C43" s="366"/>
+      <c r="D43" s="365"/>
+      <c r="E43" s="366"/>
+      <c r="F43" s="365"/>
+      <c r="G43" s="367"/>
       <c r="H43" s="326"/>
       <c r="I43" s="326"/>
       <c r="J43" s="326"/>
       <c r="K43" s="326"/>
       <c r="L43" s="326"/>
       <c r="M43" s="333"/>
-      <c r="N43" s="332"/>
-      <c r="O43" s="332"/>
+      <c r="N43" s="362"/>
+      <c r="O43" s="362"/>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="338">
         <v>34</v>
       </c>
-      <c r="C44" s="373"/>
-      <c r="D44" s="375"/>
-      <c r="E44" s="373"/>
-      <c r="F44" s="375"/>
-      <c r="G44" s="378"/>
+      <c r="C44" s="366"/>
+      <c r="D44" s="365"/>
+      <c r="E44" s="366"/>
+      <c r="F44" s="365"/>
+      <c r="G44" s="367"/>
       <c r="H44" s="326"/>
       <c r="I44" s="326"/>
       <c r="J44" s="326"/>
       <c r="K44" s="326"/>
       <c r="L44" s="326"/>
       <c r="M44" s="333"/>
-      <c r="N44" s="332"/>
-      <c r="O44" s="332"/>
+      <c r="N44" s="362"/>
+      <c r="O44" s="362"/>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="335">
         <v>35</v>
       </c>
-      <c r="C45" s="373"/>
-      <c r="D45" s="375"/>
-      <c r="E45" s="373"/>
-      <c r="F45" s="375"/>
-      <c r="G45" s="378"/>
+      <c r="C45" s="366"/>
+      <c r="D45" s="365"/>
+      <c r="E45" s="366"/>
+      <c r="F45" s="365"/>
+      <c r="G45" s="367"/>
       <c r="H45" s="326"/>
       <c r="I45" s="326"/>
       <c r="J45" s="326"/>
       <c r="K45" s="326"/>
       <c r="L45" s="326"/>
       <c r="M45" s="333"/>
-      <c r="N45" s="332"/>
-      <c r="O45" s="332"/>
+      <c r="N45" s="362"/>
+      <c r="O45" s="362"/>
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="338">
         <v>36</v>
       </c>
-      <c r="C46" s="373"/>
-      <c r="D46" s="375"/>
-      <c r="E46" s="373"/>
-      <c r="F46" s="375"/>
-      <c r="G46" s="378"/>
+      <c r="C46" s="366"/>
+      <c r="D46" s="365"/>
+      <c r="E46" s="366"/>
+      <c r="F46" s="365"/>
+      <c r="G46" s="367"/>
       <c r="H46" s="326"/>
       <c r="I46" s="326"/>
       <c r="J46" s="326"/>
       <c r="K46" s="326"/>
       <c r="L46" s="326"/>
       <c r="M46" s="333"/>
-      <c r="N46" s="332"/>
-      <c r="O46" s="332"/>
+      <c r="N46" s="362"/>
+      <c r="O46" s="362"/>
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="335">
         <v>37</v>
       </c>
-      <c r="C47" s="373"/>
-      <c r="D47" s="375"/>
-      <c r="E47" s="373"/>
-      <c r="F47" s="375"/>
-      <c r="G47" s="378"/>
+      <c r="C47" s="366"/>
+      <c r="D47" s="365"/>
+      <c r="E47" s="366"/>
+      <c r="F47" s="365"/>
+      <c r="G47" s="367"/>
       <c r="H47" s="326"/>
       <c r="I47" s="326"/>
       <c r="J47" s="326"/>
       <c r="K47" s="326"/>
       <c r="L47" s="326"/>
       <c r="M47" s="333"/>
-      <c r="N47" s="332"/>
-      <c r="O47" s="332"/>
+      <c r="N47" s="362"/>
+      <c r="O47" s="362"/>
     </row>
     <row r="48" spans="2:15">
       <c r="B48" s="338">
         <v>38</v>
       </c>
-      <c r="C48" s="373"/>
-      <c r="D48" s="375"/>
-      <c r="E48" s="373"/>
-      <c r="F48" s="375"/>
-      <c r="G48" s="378"/>
+      <c r="C48" s="366"/>
+      <c r="D48" s="365"/>
+      <c r="E48" s="366"/>
+      <c r="F48" s="365"/>
+      <c r="G48" s="367"/>
       <c r="H48" s="326"/>
       <c r="I48" s="326"/>
       <c r="J48" s="326"/>
       <c r="K48" s="326"/>
       <c r="L48" s="326"/>
       <c r="M48" s="333"/>
-      <c r="N48" s="332"/>
-      <c r="O48" s="332"/>
+      <c r="N48" s="362"/>
+      <c r="O48" s="362"/>
     </row>
     <row r="49" spans="2:15">
       <c r="B49" s="335">
         <v>39</v>
       </c>
-      <c r="C49" s="373"/>
-      <c r="D49" s="375"/>
-      <c r="E49" s="373"/>
-      <c r="F49" s="375"/>
-      <c r="G49" s="378"/>
+      <c r="C49" s="366"/>
+      <c r="D49" s="365"/>
+      <c r="E49" s="366"/>
+      <c r="F49" s="365"/>
+      <c r="G49" s="367"/>
       <c r="H49" s="326"/>
       <c r="I49" s="326"/>
       <c r="J49" s="326"/>
       <c r="K49" s="326"/>
       <c r="L49" s="326"/>
       <c r="M49" s="333"/>
-      <c r="N49" s="332"/>
-      <c r="O49" s="332"/>
+      <c r="N49" s="362"/>
+      <c r="O49" s="362"/>
     </row>
     <row r="50" spans="2:15">
       <c r="B50" s="338">
         <v>40</v>
       </c>
-      <c r="C50" s="373"/>
-      <c r="D50" s="375"/>
-      <c r="E50" s="373"/>
-      <c r="F50" s="375"/>
-      <c r="G50" s="378"/>
+      <c r="C50" s="366"/>
+      <c r="D50" s="365"/>
+      <c r="E50" s="366"/>
+      <c r="F50" s="365"/>
+      <c r="G50" s="367"/>
       <c r="H50" s="326"/>
       <c r="I50" s="326"/>
       <c r="J50" s="326"/>
       <c r="K50" s="326"/>
       <c r="L50" s="326"/>
       <c r="M50" s="333"/>
-      <c r="N50" s="332"/>
-      <c r="O50" s="332"/>
+      <c r="N50" s="362"/>
+      <c r="O50" s="362"/>
     </row>
     <row r="51" spans="2:15">
       <c r="B51" s="335">
         <v>41</v>
       </c>
-      <c r="C51" s="373"/>
-      <c r="D51" s="375"/>
-      <c r="E51" s="373"/>
-      <c r="F51" s="375"/>
-      <c r="G51" s="378"/>
+      <c r="C51" s="366"/>
+      <c r="D51" s="365"/>
+      <c r="E51" s="366"/>
+      <c r="F51" s="365"/>
+      <c r="G51" s="367"/>
       <c r="H51" s="326"/>
       <c r="I51" s="326"/>
       <c r="J51" s="326"/>
       <c r="K51" s="326"/>
       <c r="L51" s="326"/>
       <c r="M51" s="333"/>
-      <c r="N51" s="332"/>
-      <c r="O51" s="332"/>
+      <c r="N51" s="362"/>
+      <c r="O51" s="362"/>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" s="338">
         <v>42</v>
       </c>
-      <c r="C52" s="340"/>
+      <c r="C52" s="363"/>
       <c r="D52" s="289"/>
       <c r="E52" s="336"/>
-      <c r="F52" s="285"/>
-      <c r="G52" s="321"/>
+      <c r="F52" s="359"/>
+      <c r="G52" s="360"/>
       <c r="H52" s="326"/>
       <c r="I52" s="326"/>
       <c r="J52" s="326"/>
       <c r="K52" s="326"/>
       <c r="L52" s="326"/>
       <c r="M52" s="333"/>
-      <c r="N52" s="332"/>
-      <c r="O52" s="332"/>
+      <c r="N52" s="362"/>
+      <c r="O52" s="362"/>
     </row>
     <row r="53" spans="2:15">
       <c r="B53" s="335">
         <v>43</v>
       </c>
-      <c r="C53" s="344"/>
+      <c r="C53" s="376"/>
       <c r="D53" s="289"/>
       <c r="E53" s="336"/>
-      <c r="F53" s="285"/>
-      <c r="G53" s="321"/>
-      <c r="H53" s="321"/>
-      <c r="I53" s="321"/>
-      <c r="J53" s="321"/>
-      <c r="K53" s="321"/>
-      <c r="L53" s="321"/>
-      <c r="M53" s="345"/>
-      <c r="N53" s="332"/>
-      <c r="O53" s="332"/>
+      <c r="F53" s="359"/>
+      <c r="G53" s="360"/>
+      <c r="H53" s="360"/>
+      <c r="I53" s="360"/>
+      <c r="J53" s="360"/>
+      <c r="K53" s="360"/>
+      <c r="L53" s="360"/>
+      <c r="M53" s="377"/>
+      <c r="N53" s="362"/>
+      <c r="O53" s="362"/>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="346" t="s">
+      <c r="B54" s="378" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="347"/>
+      <c r="C54" s="379"/>
       <c r="D54" s="348"/>
-      <c r="E54" s="349"/>
-      <c r="F54" s="350"/>
-      <c r="G54" s="351"/>
-      <c r="H54" s="351"/>
-      <c r="I54" s="351"/>
-      <c r="J54" s="351"/>
-      <c r="K54" s="351"/>
-      <c r="L54" s="351"/>
-      <c r="M54" s="352"/>
-      <c r="N54" s="353"/>
-      <c r="O54" s="353"/>
+      <c r="E54" s="380"/>
+      <c r="F54" s="381"/>
+      <c r="G54" s="382"/>
+      <c r="H54" s="382"/>
+      <c r="I54" s="382"/>
+      <c r="J54" s="382"/>
+      <c r="K54" s="382"/>
+      <c r="L54" s="382"/>
+      <c r="M54" s="383"/>
+      <c r="N54" s="384"/>
+      <c r="O54" s="384"/>
     </row>
     <row r="101" spans="2:15" s="97" customFormat="1">
       <c r="B101" t="s">
@@ -12525,13 +12869,13 @@
     <mergeCell ref="B7:E7"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F52:F54 F11:F14 F16:F34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F52:F54 F34 F16:F32 F11:F14">
       <formula1>$C$114:$C$119</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E52:E54 E11:E14 E16:E34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E52:E54 E34 E16:E32 E11:E14">
       <formula1>$C$107:$C$111</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D52:D54 D11:D14 D16:D26 D28:D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D52:D54 D28:D32 D34 D16:D26 D11:D14">
       <formula1>$C$101:$C$105</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F55:F91">
@@ -15074,12 +15418,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:27" ht="18">
-      <c r="B7" s="371" t="s">
+      <c r="B7" s="402" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
+      <c r="C7" s="402"/>
+      <c r="D7" s="402"/>
+      <c r="E7" s="402"/>
     </row>
     <row r="10" spans="2:27" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -19255,12 +19599,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:14" ht="18">
-      <c r="B7" s="371" t="s">
+      <c r="B7" s="402" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
+      <c r="C7" s="402"/>
+      <c r="D7" s="402"/>
+      <c r="E7" s="402"/>
     </row>
     <row r="10" spans="2:14" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -20876,12 +21220,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:13" ht="18">
-      <c r="B7" s="371" t="s">
+      <c r="B7" s="402" t="s">
         <v>348</v>
       </c>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
+      <c r="C7" s="402"/>
+      <c r="D7" s="402"/>
+      <c r="E7" s="402"/>
     </row>
     <row r="10" spans="2:13" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -22107,7 +22451,7 @@
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E28"/>
+      <selection activeCell="C25" sqref="C25:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22145,12 +22489,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="371" t="s">
+      <c r="B7" s="402" t="s">
         <v>372</v>
       </c>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
+      <c r="C7" s="402"/>
+      <c r="D7" s="402"/>
+      <c r="E7" s="402"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -23670,7 +24014,7 @@
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:G33"/>
+      <selection activeCell="C31" sqref="C31:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23708,12 +24052,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="371" t="s">
+      <c r="B7" s="402" t="s">
         <v>392</v>
       </c>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
+      <c r="C7" s="402"/>
+      <c r="D7" s="402"/>
+      <c r="E7" s="402"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Sprint02_1305_1905" sheetId="10" r:id="rId8"/>
     <sheet name="Sprint03_2005_2605" sheetId="11" r:id="rId9"/>
     <sheet name="Sprint04_2705_0206" sheetId="12" r:id="rId10"/>
+    <sheet name="Sprint05_0306_0906" sheetId="14" r:id="rId11"/>
+    <sheet name="Sprint06_1006_1606" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$1:$G$106</definedName>
@@ -559,8 +561,56 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tu Huynh</author>
+  </authors>
+  <commentList>
+    <comment ref="G13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:May Span TWO Sprint</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tu Huynh</author>
+  </authors>
+  <commentList>
+    <comment ref="G12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:May Span TWO Sprint</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="433">
   <si>
     <t>Introduction</t>
   </si>
@@ -1817,6 +1867,75 @@
   </si>
   <si>
     <t>02/06</t>
+  </si>
+  <si>
+    <t>SPRINT 05 FROM 03/06 TO 09/06</t>
+  </si>
+  <si>
+    <t>+Report 3 - Use Case</t>
+  </si>
+  <si>
+    <t>+Report 3 - Entity diagram</t>
+  </si>
+  <si>
+    <t>SPRINT 06 FROM 10/06 TO 16/06</t>
+  </si>
+  <si>
+    <t>+List upcoming Tests</t>
+  </si>
+  <si>
+    <t>+Report 4 - User Interface Detail</t>
+  </si>
+  <si>
+    <t>03/06</t>
+  </si>
+  <si>
+    <t>04/06</t>
+  </si>
+  <si>
+    <t>05/06</t>
+  </si>
+  <si>
+    <t>06/06</t>
+  </si>
+  <si>
+    <t>07/06</t>
+  </si>
+  <si>
+    <t>08/06</t>
+  </si>
+  <si>
+    <t>09/06</t>
+  </si>
+  <si>
+    <t>+Report 4 - Sequence Diagram</t>
+  </si>
+  <si>
+    <t>+Report 4 - Class diagram</t>
+  </si>
+  <si>
+    <t>+New Tests Page - Score Tab</t>
+  </si>
+  <si>
+    <t>10/06</t>
+  </si>
+  <si>
+    <t>11/06</t>
+  </si>
+  <si>
+    <t>12/06</t>
+  </si>
+  <si>
+    <t>13/06</t>
+  </si>
+  <si>
+    <t>14/06</t>
+  </si>
+  <si>
+    <t>15/06</t>
+  </si>
+  <si>
+    <t>16/06</t>
   </si>
 </sst>
 </file>
@@ -2659,7 +2778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="405">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -3779,24 +3898,42 @@
     <xf numFmtId="0" fontId="21" fillId="21" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3812,33 +3949,1117 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="162">
+  <dxfs count="200">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -9915,154 +11136,262 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:N30" totalsRowShown="0" headerRowDxfId="161" headerRowBorderDxfId="160" tableBorderDxfId="159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:N30" totalsRowShown="0" headerRowDxfId="199" headerRowBorderDxfId="198" tableBorderDxfId="197">
   <autoFilter ref="B10:N30"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="158"/>
-    <tableColumn id="2" name="Task description" dataDxfId="157"/>
-    <tableColumn id="3" name="Type" dataDxfId="156"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="155"/>
-    <tableColumn id="5" name="Status" dataDxfId="154"/>
-    <tableColumn id="8" name="(W)23/5" dataDxfId="153"/>
-    <tableColumn id="9" name="(Th)24/5" dataDxfId="152"/>
-    <tableColumn id="10" name="(Fr)25/5" dataDxfId="151"/>
-    <tableColumn id="11" name="(Sa)26/5" dataDxfId="150"/>
-    <tableColumn id="12" name="(Su)27/5" dataDxfId="149"/>
+    <tableColumn id="1" name="No." dataDxfId="196"/>
+    <tableColumn id="2" name="Task description" dataDxfId="195"/>
+    <tableColumn id="3" name="Type" dataDxfId="194"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="193"/>
+    <tableColumn id="5" name="Status" dataDxfId="192"/>
+    <tableColumn id="8" name="(W)23/5" dataDxfId="191"/>
+    <tableColumn id="9" name="(Th)24/5" dataDxfId="190"/>
+    <tableColumn id="10" name="(Fr)25/5" dataDxfId="189"/>
+    <tableColumn id="11" name="(Sa)26/5" dataDxfId="188"/>
+    <tableColumn id="12" name="(Su)27/5" dataDxfId="187"/>
     <tableColumn id="13" name="(Mo)28/5"/>
-    <tableColumn id="14" name="(Tu)29/5" dataDxfId="148"/>
+    <tableColumn id="14" name="(Tu)29/5" dataDxfId="186"/>
     <tableColumn id="7" name="End Sprint"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table134567891011" displayName="Table134567891011" ref="B10:O54" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+  <autoFilter ref="B10:O54">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="37"/>
+    <tableColumn id="2" name="Task description" dataDxfId="36"/>
+    <tableColumn id="3" name="Type" dataDxfId="35"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="34"/>
+    <tableColumn id="5" name="Status" dataDxfId="33"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="32"/>
+    <tableColumn id="8" name="03/06" dataDxfId="31"/>
+    <tableColumn id="9" name="04/06" dataDxfId="30"/>
+    <tableColumn id="10" name="05/06" dataDxfId="29"/>
+    <tableColumn id="11" name="06/06" dataDxfId="28"/>
+    <tableColumn id="12" name="07/06" dataDxfId="27"/>
+    <tableColumn id="13" name="08/06" dataDxfId="26"/>
+    <tableColumn id="14" name="09/06" dataDxfId="25"/>
+    <tableColumn id="15" name="End" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table13456789101112" displayName="Table13456789101112" ref="B10:O54" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
+  <autoFilter ref="B10:O54">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="18"/>
+    <tableColumn id="2" name="Task description" dataDxfId="17"/>
+    <tableColumn id="3" name="Type" dataDxfId="16"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="15"/>
+    <tableColumn id="5" name="Status" dataDxfId="14"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="13"/>
+    <tableColumn id="8" name="10/06" dataDxfId="12"/>
+    <tableColumn id="9" name="11/06" dataDxfId="11"/>
+    <tableColumn id="10" name="12/06" dataDxfId="10"/>
+    <tableColumn id="11" name="13/06" dataDxfId="9"/>
+    <tableColumn id="12" name="14/06" dataDxfId="8"/>
+    <tableColumn id="13" name="15/06" dataDxfId="7"/>
+    <tableColumn id="14" name="16/06" dataDxfId="6"/>
+    <tableColumn id="15" name="End" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:O28" totalsRowShown="0" headerRowDxfId="147" headerRowBorderDxfId="146" tableBorderDxfId="145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:O28" totalsRowShown="0" headerRowDxfId="185" headerRowBorderDxfId="184" tableBorderDxfId="183">
   <autoFilter ref="B10:O28"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="144"/>
-    <tableColumn id="2" name="Task description" dataDxfId="143"/>
-    <tableColumn id="3" name="Type" dataDxfId="142"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="141"/>
-    <tableColumn id="5" name="Status" dataDxfId="140"/>
-    <tableColumn id="17" name="Percentage" dataDxfId="139"/>
-    <tableColumn id="8" name="(W)30/5" dataDxfId="138"/>
-    <tableColumn id="9" name="(Th)31/5" dataDxfId="137"/>
-    <tableColumn id="10" name="(Fr)1/6" dataDxfId="136"/>
-    <tableColumn id="11" name="(Sa)2/6" dataDxfId="135"/>
-    <tableColumn id="12" name="(Su)3/6" dataDxfId="134"/>
+    <tableColumn id="1" name="No." dataDxfId="182"/>
+    <tableColumn id="2" name="Task description" dataDxfId="181"/>
+    <tableColumn id="3" name="Type" dataDxfId="180"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="179"/>
+    <tableColumn id="5" name="Status" dataDxfId="178"/>
+    <tableColumn id="17" name="Percentage" dataDxfId="177"/>
+    <tableColumn id="8" name="(W)30/5" dataDxfId="176"/>
+    <tableColumn id="9" name="(Th)31/5" dataDxfId="175"/>
+    <tableColumn id="10" name="(Fr)1/6" dataDxfId="174"/>
+    <tableColumn id="11" name="(Sa)2/6" dataDxfId="173"/>
+    <tableColumn id="12" name="(Su)3/6" dataDxfId="172"/>
     <tableColumn id="13" name="(Mo)4/6"/>
-    <tableColumn id="14" name="(Tu)5/6" dataDxfId="133"/>
-    <tableColumn id="7" name="End Sprint" dataDxfId="132"/>
+    <tableColumn id="14" name="(Tu)5/6" dataDxfId="171"/>
+    <tableColumn id="7" name="End Sprint" dataDxfId="170"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B10:N27" totalsRowShown="0" headerRowDxfId="131" headerRowBorderDxfId="130" tableBorderDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B10:N27" totalsRowShown="0" headerRowDxfId="169" headerRowBorderDxfId="168" tableBorderDxfId="167">
   <autoFilter ref="B10:N27"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="128"/>
-    <tableColumn id="2" name="Task description" dataDxfId="127"/>
-    <tableColumn id="3" name="Type" dataDxfId="126"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="125"/>
-    <tableColumn id="5" name="Status" dataDxfId="124"/>
-    <tableColumn id="8" name="(W)06/6" dataDxfId="123"/>
-    <tableColumn id="9" name="(Th)07/6" dataDxfId="122"/>
-    <tableColumn id="10" name="(Fr)08/6" dataDxfId="121"/>
-    <tableColumn id="11" name="(Sa)09/6" dataDxfId="120"/>
-    <tableColumn id="12" name="(Su)10/6" dataDxfId="119"/>
+    <tableColumn id="1" name="No." dataDxfId="166"/>
+    <tableColumn id="2" name="Task description" dataDxfId="165"/>
+    <tableColumn id="3" name="Type" dataDxfId="164"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="163"/>
+    <tableColumn id="5" name="Status" dataDxfId="162"/>
+    <tableColumn id="8" name="(W)06/6" dataDxfId="161"/>
+    <tableColumn id="9" name="(Th)07/6" dataDxfId="160"/>
+    <tableColumn id="10" name="(Fr)08/6" dataDxfId="159"/>
+    <tableColumn id="11" name="(Sa)09/6" dataDxfId="158"/>
+    <tableColumn id="12" name="(Su)10/6" dataDxfId="157"/>
     <tableColumn id="13" name="(Mo)11/6"/>
-    <tableColumn id="14" name="(Tu)12/6" dataDxfId="118"/>
-    <tableColumn id="7" name="End Sprint" dataDxfId="117"/>
+    <tableColumn id="14" name="(Tu)12/6" dataDxfId="156"/>
+    <tableColumn id="7" name="End Sprint" dataDxfId="155"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B10:AA76" totalsRowShown="0" headerRowDxfId="116" headerRowBorderDxfId="115" tableBorderDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B10:AA76" totalsRowShown="0" headerRowDxfId="154" headerRowBorderDxfId="153" tableBorderDxfId="152">
   <autoFilter ref="B10:AA76"/>
   <tableColumns count="26">
-    <tableColumn id="1" name="No." dataDxfId="113"/>
-    <tableColumn id="2" name="Task description" dataDxfId="112"/>
-    <tableColumn id="3" name="Type" dataDxfId="111"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="110"/>
-    <tableColumn id="5" name="Status" dataDxfId="109"/>
-    <tableColumn id="8" name="25/6" dataDxfId="108"/>
-    <tableColumn id="9" name="26/6" dataDxfId="107"/>
-    <tableColumn id="10" name="27/6" dataDxfId="106"/>
-    <tableColumn id="11" name="28/6" dataDxfId="105"/>
-    <tableColumn id="12" name="29/6" dataDxfId="104"/>
+    <tableColumn id="1" name="No." dataDxfId="151"/>
+    <tableColumn id="2" name="Task description" dataDxfId="150"/>
+    <tableColumn id="3" name="Type" dataDxfId="149"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="148"/>
+    <tableColumn id="5" name="Status" dataDxfId="147"/>
+    <tableColumn id="8" name="25/6" dataDxfId="146"/>
+    <tableColumn id="9" name="26/6" dataDxfId="145"/>
+    <tableColumn id="10" name="27/6" dataDxfId="144"/>
+    <tableColumn id="11" name="28/6" dataDxfId="143"/>
+    <tableColumn id="12" name="29/6" dataDxfId="142"/>
     <tableColumn id="13" name="30/6"/>
-    <tableColumn id="14" name="1/7" dataDxfId="103"/>
-    <tableColumn id="6" name="2/7" dataDxfId="102"/>
-    <tableColumn id="7" name="3/7" dataDxfId="101"/>
-    <tableColumn id="15" name="4/7" dataDxfId="100"/>
-    <tableColumn id="16" name="5/7" dataDxfId="99"/>
-    <tableColumn id="17" name="6/7" dataDxfId="98"/>
-    <tableColumn id="24" name="7/7" dataDxfId="97"/>
-    <tableColumn id="23" name="8/7" dataDxfId="96"/>
-    <tableColumn id="22" name="9/7" dataDxfId="95"/>
-    <tableColumn id="21" name="10/7" dataDxfId="94"/>
-    <tableColumn id="20" name="11/7" dataDxfId="93"/>
-    <tableColumn id="18" name="12/7" dataDxfId="92"/>
-    <tableColumn id="25" name="13/7" dataDxfId="91"/>
-    <tableColumn id="26" name="14/7" dataDxfId="90"/>
-    <tableColumn id="19" name="End" dataDxfId="89"/>
+    <tableColumn id="14" name="1/7" dataDxfId="141"/>
+    <tableColumn id="6" name="2/7" dataDxfId="140"/>
+    <tableColumn id="7" name="3/7" dataDxfId="139"/>
+    <tableColumn id="15" name="4/7" dataDxfId="138"/>
+    <tableColumn id="16" name="5/7" dataDxfId="137"/>
+    <tableColumn id="17" name="6/7" dataDxfId="136"/>
+    <tableColumn id="24" name="7/7" dataDxfId="135"/>
+    <tableColumn id="23" name="8/7" dataDxfId="134"/>
+    <tableColumn id="22" name="9/7" dataDxfId="133"/>
+    <tableColumn id="21" name="10/7" dataDxfId="132"/>
+    <tableColumn id="20" name="11/7" dataDxfId="131"/>
+    <tableColumn id="18" name="12/7" dataDxfId="130"/>
+    <tableColumn id="25" name="13/7" dataDxfId="129"/>
+    <tableColumn id="26" name="14/7" dataDxfId="128"/>
+    <tableColumn id="19" name="End" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B10:N56" totalsRowShown="0" headerRowDxfId="88" headerRowBorderDxfId="87" tableBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B10:N56" totalsRowShown="0" headerRowDxfId="126" headerRowBorderDxfId="125" tableBorderDxfId="124">
   <autoFilter ref="B10:N56"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="85"/>
-    <tableColumn id="2" name="Task description" dataDxfId="84"/>
-    <tableColumn id="3" name="Type" dataDxfId="83"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="82"/>
-    <tableColumn id="5" name="Status" dataDxfId="81"/>
-    <tableColumn id="8" name="16/7" dataDxfId="80"/>
-    <tableColumn id="9" name="17/7" dataDxfId="79"/>
-    <tableColumn id="10" name="18/7" dataDxfId="78"/>
-    <tableColumn id="11" name="19/7" dataDxfId="77"/>
-    <tableColumn id="12" name="20/7" dataDxfId="76"/>
+    <tableColumn id="1" name="No." dataDxfId="123"/>
+    <tableColumn id="2" name="Task description" dataDxfId="122"/>
+    <tableColumn id="3" name="Type" dataDxfId="121"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="120"/>
+    <tableColumn id="5" name="Status" dataDxfId="119"/>
+    <tableColumn id="8" name="16/7" dataDxfId="118"/>
+    <tableColumn id="9" name="17/7" dataDxfId="117"/>
+    <tableColumn id="10" name="18/7" dataDxfId="116"/>
+    <tableColumn id="11" name="19/7" dataDxfId="115"/>
+    <tableColumn id="12" name="20/7" dataDxfId="114"/>
     <tableColumn id="13" name="21/7"/>
-    <tableColumn id="14" name="22/7" dataDxfId="75"/>
-    <tableColumn id="19" name="End" dataDxfId="74"/>
+    <tableColumn id="14" name="22/7" dataDxfId="113"/>
+    <tableColumn id="19" name="End" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
   <autoFilter ref="B10:M54">
     <filterColumn colId="5"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="No." dataDxfId="68"/>
-    <tableColumn id="2" name="Task description" dataDxfId="67"/>
-    <tableColumn id="3" name="Type" dataDxfId="66"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="65"/>
-    <tableColumn id="5" name="Status" dataDxfId="64"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="63"/>
-    <tableColumn id="8" name="08/05" dataDxfId="62"/>
-    <tableColumn id="9" name="09/05" dataDxfId="61"/>
-    <tableColumn id="10" name="10/05" dataDxfId="60"/>
-    <tableColumn id="11" name="11/05" dataDxfId="59"/>
-    <tableColumn id="12" name="12/05" dataDxfId="58"/>
-    <tableColumn id="13" name="End" dataDxfId="57"/>
+    <tableColumn id="1" name="No." dataDxfId="106"/>
+    <tableColumn id="2" name="Task description" dataDxfId="105"/>
+    <tableColumn id="3" name="Type" dataDxfId="104"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="103"/>
+    <tableColumn id="5" name="Status" dataDxfId="102"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="101"/>
+    <tableColumn id="8" name="08/05" dataDxfId="100"/>
+    <tableColumn id="9" name="09/05" dataDxfId="99"/>
+    <tableColumn id="10" name="10/05" dataDxfId="98"/>
+    <tableColumn id="11" name="11/05" dataDxfId="97"/>
+    <tableColumn id="12" name="12/05" dataDxfId="96"/>
+    <tableColumn id="13" name="End" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
+  <autoFilter ref="B10:O54">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="89"/>
+    <tableColumn id="2" name="Task description" dataDxfId="88"/>
+    <tableColumn id="3" name="Type" dataDxfId="87"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="86"/>
+    <tableColumn id="5" name="Status" dataDxfId="85"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="84"/>
+    <tableColumn id="8" name="13/05" dataDxfId="83"/>
+    <tableColumn id="9" name="14/05" dataDxfId="82"/>
+    <tableColumn id="10" name="15/05" dataDxfId="81"/>
+    <tableColumn id="11" name="16/05" dataDxfId="80"/>
+    <tableColumn id="12" name="17/05" dataDxfId="79"/>
+    <tableColumn id="13" name="18/05" dataDxfId="78"/>
+    <tableColumn id="14" name="19/05" dataDxfId="77"/>
+    <tableColumn id="15" name="End" dataDxfId="76"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13456789" displayName="Table13456789" ref="B10:O54" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
+  <autoFilter ref="B10:O54">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="70"/>
+    <tableColumn id="2" name="Task description" dataDxfId="69"/>
+    <tableColumn id="3" name="Type" dataDxfId="68"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="67"/>
+    <tableColumn id="5" name="Status" dataDxfId="66"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="65"/>
+    <tableColumn id="8" name="20/05" dataDxfId="64"/>
+    <tableColumn id="9" name="21/05" dataDxfId="63"/>
+    <tableColumn id="10" name="22/05" dataDxfId="62"/>
+    <tableColumn id="11" name="23/05" dataDxfId="61"/>
+    <tableColumn id="12" name="24/05" dataDxfId="60"/>
+    <tableColumn id="13" name="25/05" dataDxfId="59"/>
+    <tableColumn id="14" name="26/05" dataDxfId="58"/>
+    <tableColumn id="15" name="End" dataDxfId="57"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1345678910" displayName="Table1345678910" ref="B10:O54" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="B10:O54">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
@@ -10075,68 +11404,14 @@
     <tableColumn id="4" name="Assign To" dataDxfId="48"/>
     <tableColumn id="5" name="Status" dataDxfId="47"/>
     <tableColumn id="7" name="Estimate" dataDxfId="46"/>
-    <tableColumn id="8" name="13/05" dataDxfId="45"/>
-    <tableColumn id="9" name="14/05" dataDxfId="44"/>
-    <tableColumn id="10" name="15/05" dataDxfId="43"/>
-    <tableColumn id="11" name="16/05" dataDxfId="42"/>
-    <tableColumn id="12" name="17/05" dataDxfId="41"/>
-    <tableColumn id="13" name="18/05" dataDxfId="40"/>
-    <tableColumn id="14" name="19/05" dataDxfId="39"/>
+    <tableColumn id="8" name="27/05" dataDxfId="45"/>
+    <tableColumn id="9" name="28/05" dataDxfId="44"/>
+    <tableColumn id="10" name="29/05" dataDxfId="43"/>
+    <tableColumn id="11" name="30/05" dataDxfId="42"/>
+    <tableColumn id="12" name="31/05" dataDxfId="41"/>
+    <tableColumn id="13" name="01/06" dataDxfId="40"/>
+    <tableColumn id="14" name="02/06" dataDxfId="39"/>
     <tableColumn id="15" name="End" dataDxfId="38"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13456789" displayName="Table13456789" ref="B10:O54" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
-  <autoFilter ref="B10:O54">
-    <filterColumn colId="5"/>
-    <filterColumn colId="12"/>
-    <filterColumn colId="13"/>
-  </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="32"/>
-    <tableColumn id="2" name="Task description" dataDxfId="31"/>
-    <tableColumn id="3" name="Type" dataDxfId="30"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="29"/>
-    <tableColumn id="5" name="Status" dataDxfId="28"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="27"/>
-    <tableColumn id="8" name="20/05" dataDxfId="26"/>
-    <tableColumn id="9" name="21/05" dataDxfId="25"/>
-    <tableColumn id="10" name="22/05" dataDxfId="24"/>
-    <tableColumn id="11" name="23/05" dataDxfId="23"/>
-    <tableColumn id="12" name="24/05" dataDxfId="22"/>
-    <tableColumn id="13" name="25/05" dataDxfId="21"/>
-    <tableColumn id="14" name="26/05" dataDxfId="20"/>
-    <tableColumn id="15" name="End" dataDxfId="19"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1345678910" displayName="Table1345678910" ref="B10:O54" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="B10:O54">
-    <filterColumn colId="5"/>
-    <filterColumn colId="12"/>
-    <filterColumn colId="13"/>
-  </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="13"/>
-    <tableColumn id="2" name="Task description" dataDxfId="12"/>
-    <tableColumn id="3" name="Type" dataDxfId="11"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="10"/>
-    <tableColumn id="5" name="Status" dataDxfId="9"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="8"/>
-    <tableColumn id="8" name="27/05" dataDxfId="7"/>
-    <tableColumn id="9" name="28/05" dataDxfId="6"/>
-    <tableColumn id="10" name="29/05" dataDxfId="5"/>
-    <tableColumn id="11" name="30/05" dataDxfId="4"/>
-    <tableColumn id="12" name="31/05" dataDxfId="3"/>
-    <tableColumn id="13" name="01/06" dataDxfId="2"/>
-    <tableColumn id="14" name="02/06" dataDxfId="1"/>
-    <tableColumn id="15" name="End" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10517,7 +11792,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="C14" s="388">
+      <c r="C14" s="385">
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -10528,7 +11803,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="C15" s="389"/>
+      <c r="C15" s="386"/>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
@@ -10536,28 +11811,28 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="C16" s="389"/>
+      <c r="C16" s="386"/>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="389"/>
+      <c r="C17" s="386"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="390"/>
+      <c r="C18" s="392"/>
       <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="393">
+      <c r="C19" s="399">
         <v>3</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -10568,7 +11843,7 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="394"/>
+      <c r="C20" s="400"/>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
@@ -10578,7 +11853,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="394"/>
+      <c r="C21" s="400"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -10588,42 +11863,42 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="394"/>
+      <c r="C22" s="400"/>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="394"/>
+      <c r="C23" s="400"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="394"/>
+      <c r="C24" s="400"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="394"/>
+      <c r="C25" s="400"/>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="395"/>
+      <c r="C26" s="401"/>
       <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="53"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="388">
+      <c r="C27" s="385">
         <v>4</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -10634,56 +11909,56 @@
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="389"/>
+      <c r="C28" s="386"/>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="389"/>
+      <c r="C29" s="386"/>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="389"/>
+      <c r="C30" s="386"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="389"/>
+      <c r="C31" s="386"/>
       <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="389"/>
+      <c r="C32" s="386"/>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="C33" s="389"/>
+      <c r="C33" s="386"/>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="C34" s="390"/>
+      <c r="C34" s="392"/>
       <c r="D34" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="385">
+      <c r="C35" s="391">
         <v>5</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -10694,14 +11969,14 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="386"/>
+      <c r="C36" s="389"/>
       <c r="D36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="386"/>
+      <c r="C37" s="389"/>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
@@ -10709,14 +11984,14 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="387"/>
+      <c r="C38" s="396"/>
       <c r="D38" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="49"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="388">
+      <c r="C39" s="385">
         <v>6</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -10727,21 +12002,21 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="389"/>
+      <c r="C40" s="386"/>
       <c r="D40" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="390"/>
+      <c r="C41" s="392"/>
       <c r="D41" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="391" t="s">
+      <c r="C42" s="397" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -10752,7 +12027,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="C43" s="392"/>
+      <c r="C43" s="398"/>
       <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
@@ -10792,10 +12067,10 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="C52" s="398" t="s">
+      <c r="C52" s="395" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="398"/>
+      <c r="D52" s="395"/>
       <c r="E52" s="42"/>
     </row>
     <row r="53" spans="2:5">
@@ -10817,10 +12092,10 @@
       <c r="E54" s="40"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="C55" s="396" t="s">
+      <c r="C55" s="393" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="397"/>
+      <c r="D55" s="394"/>
       <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5">
@@ -10842,10 +12117,10 @@
       <c r="E57" s="40"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="C58" s="396" t="s">
+      <c r="C58" s="393" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="397"/>
+      <c r="D58" s="394"/>
       <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5">
@@ -10858,7 +12133,7 @@
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="C60" s="389">
+      <c r="C60" s="386">
         <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
@@ -10867,70 +12142,70 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="C61" s="389"/>
+      <c r="C61" s="386"/>
       <c r="D61" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="C62" s="389"/>
+      <c r="C62" s="386"/>
       <c r="D62" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="C63" s="389"/>
+      <c r="C63" s="386"/>
       <c r="D63" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="C64" s="389"/>
+      <c r="C64" s="386"/>
       <c r="D64" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="389"/>
+      <c r="C65" s="386"/>
       <c r="D65" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="389"/>
+      <c r="C66" s="386"/>
       <c r="D66" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="18"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="389"/>
+      <c r="C67" s="386"/>
       <c r="D67" s="32" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="389"/>
+      <c r="C68" s="386"/>
       <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="390"/>
+      <c r="C69" s="392"/>
       <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="18"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="385">
+      <c r="C70" s="391">
         <v>2</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -10939,35 +12214,35 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="386"/>
+      <c r="C71" s="389"/>
       <c r="D71" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="3:5">
-      <c r="C72" s="386"/>
+      <c r="C72" s="389"/>
       <c r="D72" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="386"/>
+      <c r="C73" s="389"/>
       <c r="D73" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="386"/>
+      <c r="C74" s="389"/>
       <c r="D74" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="49"/>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="388">
+      <c r="C75" s="385">
         <v>3</v>
       </c>
       <c r="D75" s="44" t="s">
@@ -10976,42 +12251,42 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="389"/>
+      <c r="C76" s="386"/>
       <c r="D76" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="389"/>
+      <c r="C77" s="386"/>
       <c r="D77" s="33" t="s">
         <v>72</v>
       </c>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="389"/>
+      <c r="C78" s="386"/>
       <c r="D78" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E78" s="18"/>
     </row>
     <row r="79" spans="3:5">
-      <c r="C79" s="389"/>
+      <c r="C79" s="386"/>
       <c r="D79" s="33" t="s">
         <v>74</v>
       </c>
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C80" s="399"/>
+      <c r="C80" s="387"/>
       <c r="D80" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="3:5">
-      <c r="C81" s="400">
+      <c r="C81" s="388">
         <v>4</v>
       </c>
       <c r="D81" s="57" t="s">
@@ -11020,63 +12295,63 @@
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="386"/>
+      <c r="C82" s="389"/>
       <c r="D82" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E82" s="48"/>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="386"/>
+      <c r="C83" s="389"/>
       <c r="D83" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="3:5">
-      <c r="C84" s="386"/>
+      <c r="C84" s="389"/>
       <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="48"/>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="386"/>
+      <c r="C85" s="389"/>
       <c r="D85" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="48"/>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="386"/>
+      <c r="C86" s="389"/>
       <c r="D86" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="48"/>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="386"/>
+      <c r="C87" s="389"/>
       <c r="D87" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="386"/>
+      <c r="C88" s="389"/>
       <c r="D88" s="34" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="48"/>
     </row>
     <row r="89" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C89" s="401"/>
+      <c r="C89" s="390"/>
       <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="3:5">
-      <c r="C90" s="388">
+      <c r="C90" s="385">
         <v>5</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -11085,28 +12360,28 @@
       <c r="E90" s="18"/>
     </row>
     <row r="91" spans="3:5">
-      <c r="C91" s="389"/>
+      <c r="C91" s="386"/>
       <c r="D91" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="3:5">
-      <c r="C92" s="389"/>
+      <c r="C92" s="386"/>
       <c r="D92" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="3:5">
-      <c r="C93" s="389"/>
+      <c r="C93" s="386"/>
       <c r="D93" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="3:5">
-      <c r="C94" s="385">
+      <c r="C94" s="391">
         <v>6</v>
       </c>
       <c r="D94" s="57" t="s">
@@ -11115,21 +12390,21 @@
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="386"/>
+      <c r="C95" s="389"/>
       <c r="D95" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="386"/>
+      <c r="C96" s="389"/>
       <c r="D96" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="48"/>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="388">
+      <c r="C97" s="385">
         <v>7</v>
       </c>
       <c r="D97" s="44" t="s">
@@ -11138,35 +12413,35 @@
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="389"/>
+      <c r="C98" s="386"/>
       <c r="D98" s="32" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="18"/>
     </row>
     <row r="99" spans="3:5">
-      <c r="C99" s="389"/>
+      <c r="C99" s="386"/>
       <c r="D99" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="18"/>
     </row>
     <row r="100" spans="3:5">
-      <c r="C100" s="389"/>
+      <c r="C100" s="386"/>
       <c r="D100" s="32" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="18"/>
     </row>
     <row r="101" spans="3:5">
-      <c r="C101" s="390"/>
+      <c r="C101" s="392"/>
       <c r="D101" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="18"/>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="385">
+      <c r="C102" s="391">
         <v>8</v>
       </c>
       <c r="D102" s="57" t="s">
@@ -11175,21 +12450,21 @@
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="3:5">
-      <c r="C103" s="386"/>
+      <c r="C103" s="389"/>
       <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="3:5">
-      <c r="C104" s="386"/>
+      <c r="C104" s="389"/>
       <c r="D104" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="48"/>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="388" t="s">
+      <c r="C105" s="385" t="s">
         <v>99</v>
       </c>
       <c r="D105" s="58" t="s">
@@ -11200,12 +12475,23 @@
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="389"/>
+      <c r="C106" s="386"/>
       <c r="D106" s="38"/>
       <c r="E106" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C75:C80"/>
     <mergeCell ref="C81:C89"/>
@@ -11213,17 +12499,6 @@
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C27:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
@@ -11234,8 +12509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12876,6 +14151,2858 @@
       <formula1>$C$107:$C$111</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D52:D54 D28:D32 D34 D16:D26 D11:D14">
+      <formula1>$C$101:$C$105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F55:F91">
+      <formula1>$C$115:$C$119</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="28" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:O119"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="97" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" style="97" customWidth="1"/>
+    <col min="8" max="15" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="18">
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="3" spans="2:15" ht="18">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="C4" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="C5" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" ht="18">
+      <c r="B7" s="402" t="s">
+        <v>410</v>
+      </c>
+      <c r="C7" s="402"/>
+      <c r="D7" s="402"/>
+      <c r="E7" s="402"/>
+    </row>
+    <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
+      <c r="B10" s="275" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="276" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="276" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="276" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="276" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="310" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="272" t="s">
+        <v>416</v>
+      </c>
+      <c r="I10" s="272" t="s">
+        <v>417</v>
+      </c>
+      <c r="J10" s="273" t="s">
+        <v>418</v>
+      </c>
+      <c r="K10" s="273" t="s">
+        <v>419</v>
+      </c>
+      <c r="L10" s="273" t="s">
+        <v>420</v>
+      </c>
+      <c r="M10" s="273" t="s">
+        <v>421</v>
+      </c>
+      <c r="N10" s="274" t="s">
+        <v>422</v>
+      </c>
+      <c r="O10" s="311" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="335">
+        <v>1</v>
+      </c>
+      <c r="C11" s="358" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" s="289"/>
+      <c r="E11" s="336"/>
+      <c r="F11" s="359"/>
+      <c r="G11" s="360"/>
+      <c r="H11" s="326"/>
+      <c r="I11" s="339"/>
+      <c r="J11" s="339"/>
+      <c r="K11" s="339"/>
+      <c r="L11" s="339"/>
+      <c r="M11" s="331"/>
+      <c r="N11" s="362"/>
+      <c r="O11" s="362"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="338">
+        <v>2</v>
+      </c>
+      <c r="C12" s="368" t="s">
+        <v>398</v>
+      </c>
+      <c r="D12" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="355" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="367">
+        <v>15</v>
+      </c>
+      <c r="H12" s="356">
+        <v>14</v>
+      </c>
+      <c r="I12" s="357">
+        <v>12</v>
+      </c>
+      <c r="J12" s="357">
+        <v>10</v>
+      </c>
+      <c r="K12" s="357">
+        <v>8</v>
+      </c>
+      <c r="L12" s="357">
+        <v>5</v>
+      </c>
+      <c r="M12" s="357">
+        <v>3</v>
+      </c>
+      <c r="N12" s="371">
+        <v>0</v>
+      </c>
+      <c r="O12" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="335">
+        <v>3</v>
+      </c>
+      <c r="C13" s="368" t="s">
+        <v>405</v>
+      </c>
+      <c r="D13" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="355" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="367">
+        <v>30</v>
+      </c>
+      <c r="H13" s="356">
+        <v>28</v>
+      </c>
+      <c r="I13" s="357">
+        <v>25</v>
+      </c>
+      <c r="J13" s="357">
+        <v>22</v>
+      </c>
+      <c r="K13" s="357">
+        <v>20</v>
+      </c>
+      <c r="L13" s="357">
+        <v>18</v>
+      </c>
+      <c r="M13" s="357">
+        <v>16</v>
+      </c>
+      <c r="N13" s="371">
+        <v>15</v>
+      </c>
+      <c r="O13" s="371">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="338">
+        <v>4</v>
+      </c>
+      <c r="C14" s="364" t="s">
+        <v>406</v>
+      </c>
+      <c r="D14" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="366" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" s="365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="367">
+        <v>10</v>
+      </c>
+      <c r="H14" s="356">
+        <v>10</v>
+      </c>
+      <c r="I14" s="357">
+        <v>10</v>
+      </c>
+      <c r="J14" s="357">
+        <v>10</v>
+      </c>
+      <c r="K14" s="357">
+        <v>10</v>
+      </c>
+      <c r="L14" s="356">
+        <v>10</v>
+      </c>
+      <c r="M14" s="356">
+        <v>10</v>
+      </c>
+      <c r="N14" s="371">
+        <v>10</v>
+      </c>
+      <c r="O14" s="371">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="335">
+        <v>5</v>
+      </c>
+      <c r="C15" s="358" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15" s="289"/>
+      <c r="E15" s="336"/>
+      <c r="F15" s="359"/>
+      <c r="G15" s="360"/>
+      <c r="H15" s="326"/>
+      <c r="I15" s="339"/>
+      <c r="J15" s="339"/>
+      <c r="K15" s="339"/>
+      <c r="L15" s="339"/>
+      <c r="M15" s="331"/>
+      <c r="N15" s="362"/>
+      <c r="O15" s="362"/>
+    </row>
+    <row r="16" spans="2:15" s="197" customFormat="1">
+      <c r="B16" s="338">
+        <v>6</v>
+      </c>
+      <c r="C16" s="368" t="s">
+        <v>411</v>
+      </c>
+      <c r="D16" s="354" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="367">
+        <v>20</v>
+      </c>
+      <c r="H16" s="356">
+        <v>18</v>
+      </c>
+      <c r="I16" s="357">
+        <v>17</v>
+      </c>
+      <c r="J16" s="357">
+        <v>15</v>
+      </c>
+      <c r="K16" s="357">
+        <v>12</v>
+      </c>
+      <c r="L16" s="357">
+        <v>8</v>
+      </c>
+      <c r="M16" s="357">
+        <v>4</v>
+      </c>
+      <c r="N16" s="371">
+        <v>0</v>
+      </c>
+      <c r="O16" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" s="197" customFormat="1">
+      <c r="B17" s="335">
+        <v>7</v>
+      </c>
+      <c r="C17" s="368" t="s">
+        <v>412</v>
+      </c>
+      <c r="D17" s="354" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F17" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="367">
+        <v>20</v>
+      </c>
+      <c r="H17" s="356">
+        <v>18</v>
+      </c>
+      <c r="I17" s="357">
+        <v>17</v>
+      </c>
+      <c r="J17" s="357">
+        <v>15</v>
+      </c>
+      <c r="K17" s="357">
+        <v>12</v>
+      </c>
+      <c r="L17" s="357">
+        <v>8</v>
+      </c>
+      <c r="M17" s="357">
+        <v>4</v>
+      </c>
+      <c r="N17" s="371">
+        <v>0</v>
+      </c>
+      <c r="O17" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" s="197" customFormat="1">
+      <c r="B18" s="338">
+        <v>8</v>
+      </c>
+      <c r="C18" s="372" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" s="365" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="367">
+        <v>12</v>
+      </c>
+      <c r="H18" s="356">
+        <v>10</v>
+      </c>
+      <c r="I18" s="357">
+        <v>8</v>
+      </c>
+      <c r="J18" s="357">
+        <v>7</v>
+      </c>
+      <c r="K18" s="356">
+        <v>5</v>
+      </c>
+      <c r="L18" s="356">
+        <v>3</v>
+      </c>
+      <c r="M18" s="356">
+        <v>1</v>
+      </c>
+      <c r="N18" s="371">
+        <v>0</v>
+      </c>
+      <c r="O18" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" s="197" customFormat="1">
+      <c r="B19" s="335">
+        <v>9</v>
+      </c>
+      <c r="C19" s="358" t="s">
+        <v>367</v>
+      </c>
+      <c r="D19" s="365"/>
+      <c r="E19" s="366"/>
+      <c r="F19" s="365"/>
+      <c r="G19" s="367"/>
+      <c r="H19" s="326"/>
+      <c r="I19" s="339"/>
+      <c r="J19" s="339"/>
+      <c r="K19" s="339"/>
+      <c r="L19" s="339"/>
+      <c r="M19" s="331"/>
+      <c r="N19" s="362"/>
+      <c r="O19" s="362"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="338">
+        <v>10</v>
+      </c>
+      <c r="C20" s="372" t="s">
+        <v>370</v>
+      </c>
+      <c r="D20" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="355" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="367">
+        <v>12</v>
+      </c>
+      <c r="H20" s="356">
+        <v>12</v>
+      </c>
+      <c r="I20" s="357">
+        <v>12</v>
+      </c>
+      <c r="J20" s="357">
+        <v>12</v>
+      </c>
+      <c r="K20" s="357">
+        <v>12</v>
+      </c>
+      <c r="L20" s="357">
+        <v>12</v>
+      </c>
+      <c r="M20" s="357">
+        <v>12</v>
+      </c>
+      <c r="N20" s="371">
+        <v>12</v>
+      </c>
+      <c r="O20" s="371">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="335">
+        <v>11</v>
+      </c>
+      <c r="C21" s="368" t="s">
+        <v>369</v>
+      </c>
+      <c r="D21" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="355" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="367">
+        <v>10</v>
+      </c>
+      <c r="H21" s="356">
+        <v>10</v>
+      </c>
+      <c r="I21" s="357">
+        <v>10</v>
+      </c>
+      <c r="J21" s="357">
+        <v>10</v>
+      </c>
+      <c r="K21" s="357">
+        <v>10</v>
+      </c>
+      <c r="L21" s="357">
+        <v>10</v>
+      </c>
+      <c r="M21" s="357">
+        <v>10</v>
+      </c>
+      <c r="N21" s="371">
+        <v>10</v>
+      </c>
+      <c r="O21" s="371">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="338">
+        <v>12</v>
+      </c>
+      <c r="C22" s="372" t="s">
+        <v>371</v>
+      </c>
+      <c r="D22" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="355" t="s">
+        <v>350</v>
+      </c>
+      <c r="F22" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="367">
+        <v>12</v>
+      </c>
+      <c r="H22" s="373">
+        <v>12</v>
+      </c>
+      <c r="I22" s="373">
+        <v>12</v>
+      </c>
+      <c r="J22" s="373">
+        <v>12</v>
+      </c>
+      <c r="K22" s="373">
+        <v>12</v>
+      </c>
+      <c r="L22" s="373">
+        <v>12</v>
+      </c>
+      <c r="M22" s="373">
+        <v>12</v>
+      </c>
+      <c r="N22" s="371">
+        <v>12</v>
+      </c>
+      <c r="O22" s="371">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="335">
+        <v>13</v>
+      </c>
+      <c r="C23" s="374" t="s">
+        <v>407</v>
+      </c>
+      <c r="D23" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="355" t="s">
+        <v>350</v>
+      </c>
+      <c r="F23" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="367">
+        <v>10</v>
+      </c>
+      <c r="H23" s="356">
+        <v>10</v>
+      </c>
+      <c r="I23" s="357">
+        <v>10</v>
+      </c>
+      <c r="J23" s="357">
+        <v>10</v>
+      </c>
+      <c r="K23" s="357">
+        <v>10</v>
+      </c>
+      <c r="L23" s="357">
+        <v>10</v>
+      </c>
+      <c r="M23" s="357">
+        <v>10</v>
+      </c>
+      <c r="N23" s="371">
+        <v>10</v>
+      </c>
+      <c r="O23" s="371">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="338">
+        <v>14</v>
+      </c>
+      <c r="C24" s="358" t="s">
+        <v>388</v>
+      </c>
+      <c r="D24" s="289"/>
+      <c r="E24" s="336"/>
+      <c r="F24" s="359"/>
+      <c r="G24" s="360"/>
+      <c r="H24" s="326"/>
+      <c r="I24" s="339"/>
+      <c r="J24" s="339"/>
+      <c r="K24" s="339"/>
+      <c r="L24" s="339"/>
+      <c r="M24" s="331"/>
+      <c r="N24" s="362"/>
+      <c r="O24" s="362"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="335">
+        <v>15</v>
+      </c>
+      <c r="C25" s="372" t="s">
+        <v>391</v>
+      </c>
+      <c r="D25" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="355" t="s">
+        <v>352</v>
+      </c>
+      <c r="F25" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="367">
+        <v>5</v>
+      </c>
+      <c r="H25" s="326">
+        <v>5</v>
+      </c>
+      <c r="I25" s="326">
+        <v>5</v>
+      </c>
+      <c r="J25" s="326">
+        <v>5</v>
+      </c>
+      <c r="K25" s="326">
+        <v>5</v>
+      </c>
+      <c r="L25" s="326">
+        <v>5</v>
+      </c>
+      <c r="M25" s="333">
+        <v>5</v>
+      </c>
+      <c r="N25" s="362">
+        <v>5</v>
+      </c>
+      <c r="O25" s="362">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="338">
+        <v>16</v>
+      </c>
+      <c r="C26" s="368" t="s">
+        <v>390</v>
+      </c>
+      <c r="D26" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="355" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="367">
+        <v>12</v>
+      </c>
+      <c r="H26" s="326">
+        <v>12</v>
+      </c>
+      <c r="I26" s="326">
+        <v>12</v>
+      </c>
+      <c r="J26" s="326">
+        <v>12</v>
+      </c>
+      <c r="K26" s="326">
+        <v>12</v>
+      </c>
+      <c r="L26" s="326">
+        <v>12</v>
+      </c>
+      <c r="M26" s="333">
+        <v>12</v>
+      </c>
+      <c r="N26" s="362">
+        <v>12</v>
+      </c>
+      <c r="O26" s="362">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="21.75" customHeight="1">
+      <c r="B27" s="335">
+        <v>17</v>
+      </c>
+      <c r="C27" s="368" t="s">
+        <v>408</v>
+      </c>
+      <c r="D27" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="355" t="s">
+        <v>352</v>
+      </c>
+      <c r="F27" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="367">
+        <v>20</v>
+      </c>
+      <c r="H27" s="356">
+        <v>20</v>
+      </c>
+      <c r="I27" s="356">
+        <v>20</v>
+      </c>
+      <c r="J27" s="356">
+        <v>20</v>
+      </c>
+      <c r="K27" s="356">
+        <v>20</v>
+      </c>
+      <c r="L27" s="356">
+        <v>20</v>
+      </c>
+      <c r="M27" s="356">
+        <v>20</v>
+      </c>
+      <c r="N27" s="371">
+        <v>20</v>
+      </c>
+      <c r="O27" s="371">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="338">
+        <v>18</v>
+      </c>
+      <c r="C28" s="366"/>
+      <c r="D28" s="365"/>
+      <c r="E28" s="366"/>
+      <c r="F28" s="365"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="373"/>
+      <c r="I28" s="373"/>
+      <c r="J28" s="373"/>
+      <c r="K28" s="373"/>
+      <c r="L28" s="373"/>
+      <c r="M28" s="373"/>
+      <c r="N28" s="371"/>
+      <c r="O28" s="371"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="335">
+        <v>19</v>
+      </c>
+      <c r="C29" s="366"/>
+      <c r="D29" s="365"/>
+      <c r="E29" s="366"/>
+      <c r="F29" s="365"/>
+      <c r="G29" s="367"/>
+      <c r="H29" s="373"/>
+      <c r="I29" s="373"/>
+      <c r="J29" s="373"/>
+      <c r="K29" s="373"/>
+      <c r="L29" s="373"/>
+      <c r="M29" s="373"/>
+      <c r="N29" s="371"/>
+      <c r="O29" s="371"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="338">
+        <v>20</v>
+      </c>
+      <c r="C30" s="366"/>
+      <c r="D30" s="365"/>
+      <c r="E30" s="366"/>
+      <c r="F30" s="365"/>
+      <c r="G30" s="367"/>
+      <c r="H30" s="373"/>
+      <c r="I30" s="373"/>
+      <c r="J30" s="373"/>
+      <c r="K30" s="373"/>
+      <c r="L30" s="373"/>
+      <c r="M30" s="373"/>
+      <c r="N30" s="371"/>
+      <c r="O30" s="371"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="335">
+        <v>21</v>
+      </c>
+      <c r="C31" s="366"/>
+      <c r="D31" s="365"/>
+      <c r="E31" s="366"/>
+      <c r="F31" s="365"/>
+      <c r="G31" s="367"/>
+      <c r="H31" s="373"/>
+      <c r="I31" s="373"/>
+      <c r="J31" s="373"/>
+      <c r="K31" s="373"/>
+      <c r="L31" s="373"/>
+      <c r="M31" s="373"/>
+      <c r="N31" s="371"/>
+      <c r="O31" s="371"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="338">
+        <v>22</v>
+      </c>
+      <c r="C32" s="366"/>
+      <c r="D32" s="365"/>
+      <c r="E32" s="366"/>
+      <c r="F32" s="365"/>
+      <c r="G32" s="367"/>
+      <c r="H32" s="373"/>
+      <c r="I32" s="373"/>
+      <c r="J32" s="373"/>
+      <c r="K32" s="373"/>
+      <c r="L32" s="373"/>
+      <c r="M32" s="373"/>
+      <c r="N32" s="371"/>
+      <c r="O32" s="371"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="335">
+        <v>23</v>
+      </c>
+      <c r="C33" s="366"/>
+      <c r="D33" s="365"/>
+      <c r="E33" s="366"/>
+      <c r="F33" s="365"/>
+      <c r="G33" s="367"/>
+      <c r="H33" s="326"/>
+      <c r="I33" s="326"/>
+      <c r="J33" s="326"/>
+      <c r="K33" s="326"/>
+      <c r="L33" s="326"/>
+      <c r="M33" s="333"/>
+      <c r="N33" s="362"/>
+      <c r="O33" s="362"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="338">
+        <v>24</v>
+      </c>
+      <c r="C34" s="375"/>
+      <c r="D34" s="289"/>
+      <c r="E34" s="336"/>
+      <c r="F34" s="359"/>
+      <c r="G34" s="360"/>
+      <c r="H34" s="326"/>
+      <c r="I34" s="326"/>
+      <c r="J34" s="326"/>
+      <c r="K34" s="326"/>
+      <c r="L34" s="326"/>
+      <c r="M34" s="333"/>
+      <c r="N34" s="362"/>
+      <c r="O34" s="362"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="335">
+        <v>25</v>
+      </c>
+      <c r="C35" s="366"/>
+      <c r="D35" s="365"/>
+      <c r="E35" s="366"/>
+      <c r="F35" s="365"/>
+      <c r="G35" s="367"/>
+      <c r="H35" s="326"/>
+      <c r="I35" s="326"/>
+      <c r="J35" s="326"/>
+      <c r="K35" s="326"/>
+      <c r="L35" s="326"/>
+      <c r="M35" s="333"/>
+      <c r="N35" s="362"/>
+      <c r="O35" s="362"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="338">
+        <v>26</v>
+      </c>
+      <c r="C36" s="366"/>
+      <c r="D36" s="365"/>
+      <c r="E36" s="366"/>
+      <c r="F36" s="365"/>
+      <c r="G36" s="367"/>
+      <c r="H36" s="326"/>
+      <c r="I36" s="326"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="326"/>
+      <c r="L36" s="326"/>
+      <c r="M36" s="333"/>
+      <c r="N36" s="362"/>
+      <c r="O36" s="362"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="335">
+        <v>27</v>
+      </c>
+      <c r="C37" s="366"/>
+      <c r="D37" s="365"/>
+      <c r="E37" s="366"/>
+      <c r="F37" s="365"/>
+      <c r="G37" s="367"/>
+      <c r="H37" s="326"/>
+      <c r="I37" s="326"/>
+      <c r="J37" s="326"/>
+      <c r="K37" s="326"/>
+      <c r="L37" s="326"/>
+      <c r="M37" s="333"/>
+      <c r="N37" s="362"/>
+      <c r="O37" s="362"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="338">
+        <v>28</v>
+      </c>
+      <c r="C38" s="366"/>
+      <c r="D38" s="365"/>
+      <c r="E38" s="366"/>
+      <c r="F38" s="365"/>
+      <c r="G38" s="367"/>
+      <c r="H38" s="326"/>
+      <c r="I38" s="326"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="326"/>
+      <c r="L38" s="326"/>
+      <c r="M38" s="333"/>
+      <c r="N38" s="362"/>
+      <c r="O38" s="362"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="335">
+        <v>29</v>
+      </c>
+      <c r="C39" s="366"/>
+      <c r="D39" s="365"/>
+      <c r="E39" s="366"/>
+      <c r="F39" s="365"/>
+      <c r="G39" s="367"/>
+      <c r="H39" s="326"/>
+      <c r="I39" s="326"/>
+      <c r="J39" s="326"/>
+      <c r="K39" s="326"/>
+      <c r="L39" s="326"/>
+      <c r="M39" s="333"/>
+      <c r="N39" s="362"/>
+      <c r="O39" s="362"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="338">
+        <v>30</v>
+      </c>
+      <c r="C40" s="366"/>
+      <c r="D40" s="365"/>
+      <c r="E40" s="366"/>
+      <c r="F40" s="365"/>
+      <c r="G40" s="367"/>
+      <c r="H40" s="326"/>
+      <c r="I40" s="326"/>
+      <c r="J40" s="326"/>
+      <c r="K40" s="326"/>
+      <c r="L40" s="326"/>
+      <c r="M40" s="333"/>
+      <c r="N40" s="362"/>
+      <c r="O40" s="362"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="335">
+        <v>31</v>
+      </c>
+      <c r="C41" s="366"/>
+      <c r="D41" s="365"/>
+      <c r="E41" s="366"/>
+      <c r="F41" s="365"/>
+      <c r="G41" s="367"/>
+      <c r="H41" s="326"/>
+      <c r="I41" s="326"/>
+      <c r="J41" s="326"/>
+      <c r="K41" s="326"/>
+      <c r="L41" s="326"/>
+      <c r="M41" s="333"/>
+      <c r="N41" s="362"/>
+      <c r="O41" s="362"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="338">
+        <v>32</v>
+      </c>
+      <c r="C42" s="366"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="366"/>
+      <c r="F42" s="365"/>
+      <c r="G42" s="367"/>
+      <c r="H42" s="326"/>
+      <c r="I42" s="326"/>
+      <c r="J42" s="326"/>
+      <c r="K42" s="326"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="333"/>
+      <c r="N42" s="362"/>
+      <c r="O42" s="362"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="335">
+        <v>33</v>
+      </c>
+      <c r="C43" s="366"/>
+      <c r="D43" s="365"/>
+      <c r="E43" s="366"/>
+      <c r="F43" s="365"/>
+      <c r="G43" s="367"/>
+      <c r="H43" s="326"/>
+      <c r="I43" s="326"/>
+      <c r="J43" s="326"/>
+      <c r="K43" s="326"/>
+      <c r="L43" s="326"/>
+      <c r="M43" s="333"/>
+      <c r="N43" s="362"/>
+      <c r="O43" s="362"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="338">
+        <v>34</v>
+      </c>
+      <c r="C44" s="366"/>
+      <c r="D44" s="365"/>
+      <c r="E44" s="366"/>
+      <c r="F44" s="365"/>
+      <c r="G44" s="367"/>
+      <c r="H44" s="326"/>
+      <c r="I44" s="326"/>
+      <c r="J44" s="326"/>
+      <c r="K44" s="326"/>
+      <c r="L44" s="326"/>
+      <c r="M44" s="333"/>
+      <c r="N44" s="362"/>
+      <c r="O44" s="362"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="335">
+        <v>35</v>
+      </c>
+      <c r="C45" s="366"/>
+      <c r="D45" s="365"/>
+      <c r="E45" s="366"/>
+      <c r="F45" s="365"/>
+      <c r="G45" s="367"/>
+      <c r="H45" s="326"/>
+      <c r="I45" s="326"/>
+      <c r="J45" s="326"/>
+      <c r="K45" s="326"/>
+      <c r="L45" s="326"/>
+      <c r="M45" s="333"/>
+      <c r="N45" s="362"/>
+      <c r="O45" s="362"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="338">
+        <v>36</v>
+      </c>
+      <c r="C46" s="366"/>
+      <c r="D46" s="365"/>
+      <c r="E46" s="366"/>
+      <c r="F46" s="365"/>
+      <c r="G46" s="367"/>
+      <c r="H46" s="326"/>
+      <c r="I46" s="326"/>
+      <c r="J46" s="326"/>
+      <c r="K46" s="326"/>
+      <c r="L46" s="326"/>
+      <c r="M46" s="333"/>
+      <c r="N46" s="362"/>
+      <c r="O46" s="362"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="335">
+        <v>37</v>
+      </c>
+      <c r="C47" s="366"/>
+      <c r="D47" s="365"/>
+      <c r="E47" s="366"/>
+      <c r="F47" s="365"/>
+      <c r="G47" s="367"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="326"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="333"/>
+      <c r="N47" s="362"/>
+      <c r="O47" s="362"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="338">
+        <v>38</v>
+      </c>
+      <c r="C48" s="366"/>
+      <c r="D48" s="365"/>
+      <c r="E48" s="366"/>
+      <c r="F48" s="365"/>
+      <c r="G48" s="367"/>
+      <c r="H48" s="326"/>
+      <c r="I48" s="326"/>
+      <c r="J48" s="326"/>
+      <c r="K48" s="326"/>
+      <c r="L48" s="326"/>
+      <c r="M48" s="333"/>
+      <c r="N48" s="362"/>
+      <c r="O48" s="362"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="335">
+        <v>39</v>
+      </c>
+      <c r="C49" s="366"/>
+      <c r="D49" s="365"/>
+      <c r="E49" s="366"/>
+      <c r="F49" s="365"/>
+      <c r="G49" s="367"/>
+      <c r="H49" s="326"/>
+      <c r="I49" s="326"/>
+      <c r="J49" s="326"/>
+      <c r="K49" s="326"/>
+      <c r="L49" s="326"/>
+      <c r="M49" s="333"/>
+      <c r="N49" s="362"/>
+      <c r="O49" s="362"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="338">
+        <v>40</v>
+      </c>
+      <c r="C50" s="366"/>
+      <c r="D50" s="365"/>
+      <c r="E50" s="366"/>
+      <c r="F50" s="365"/>
+      <c r="G50" s="367"/>
+      <c r="H50" s="326"/>
+      <c r="I50" s="326"/>
+      <c r="J50" s="326"/>
+      <c r="K50" s="326"/>
+      <c r="L50" s="326"/>
+      <c r="M50" s="333"/>
+      <c r="N50" s="362"/>
+      <c r="O50" s="362"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="335">
+        <v>41</v>
+      </c>
+      <c r="C51" s="366"/>
+      <c r="D51" s="365"/>
+      <c r="E51" s="366"/>
+      <c r="F51" s="365"/>
+      <c r="G51" s="367"/>
+      <c r="H51" s="326"/>
+      <c r="I51" s="326"/>
+      <c r="J51" s="326"/>
+      <c r="K51" s="326"/>
+      <c r="L51" s="326"/>
+      <c r="M51" s="333"/>
+      <c r="N51" s="362"/>
+      <c r="O51" s="362"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="338">
+        <v>42</v>
+      </c>
+      <c r="C52" s="363"/>
+      <c r="D52" s="289"/>
+      <c r="E52" s="336"/>
+      <c r="F52" s="359"/>
+      <c r="G52" s="360"/>
+      <c r="H52" s="326"/>
+      <c r="I52" s="326"/>
+      <c r="J52" s="326"/>
+      <c r="K52" s="326"/>
+      <c r="L52" s="326"/>
+      <c r="M52" s="333"/>
+      <c r="N52" s="362"/>
+      <c r="O52" s="362"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="335">
+        <v>43</v>
+      </c>
+      <c r="C53" s="376"/>
+      <c r="D53" s="289"/>
+      <c r="E53" s="336"/>
+      <c r="F53" s="359"/>
+      <c r="G53" s="360"/>
+      <c r="H53" s="360"/>
+      <c r="I53" s="360"/>
+      <c r="J53" s="360"/>
+      <c r="K53" s="360"/>
+      <c r="L53" s="360"/>
+      <c r="M53" s="377"/>
+      <c r="N53" s="362"/>
+      <c r="O53" s="362"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="378" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="379"/>
+      <c r="D54" s="348"/>
+      <c r="E54" s="380"/>
+      <c r="F54" s="381"/>
+      <c r="G54" s="382"/>
+      <c r="H54" s="382"/>
+      <c r="I54" s="382"/>
+      <c r="J54" s="382"/>
+      <c r="K54" s="382"/>
+      <c r="L54" s="382"/>
+      <c r="M54" s="383"/>
+      <c r="N54" s="384"/>
+      <c r="O54" s="384"/>
+    </row>
+    <row r="101" spans="2:15" s="97" customFormat="1">
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+    </row>
+    <row r="102" spans="2:15" s="97" customFormat="1">
+      <c r="B102"/>
+      <c r="C102" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+    </row>
+    <row r="103" spans="2:15" s="97" customFormat="1">
+      <c r="B103"/>
+      <c r="C103" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+    </row>
+    <row r="104" spans="2:15" s="97" customFormat="1">
+      <c r="B104"/>
+      <c r="C104" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+    </row>
+    <row r="105" spans="2:15" s="97" customFormat="1">
+      <c r="B105"/>
+      <c r="C105" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+    </row>
+    <row r="106" spans="2:15" s="97" customFormat="1">
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106"/>
+      <c r="E106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+    </row>
+    <row r="107" spans="2:15" s="97" customFormat="1">
+      <c r="B107"/>
+      <c r="C107" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="E107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="2:15" s="97" customFormat="1">
+      <c r="B108"/>
+      <c r="C108" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="E108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+    </row>
+    <row r="109" spans="2:15" s="97" customFormat="1">
+      <c r="B109"/>
+      <c r="C109" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+    </row>
+    <row r="110" spans="2:15" s="97" customFormat="1">
+      <c r="B110"/>
+      <c r="C110" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="E110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+    </row>
+    <row r="111" spans="2:15" s="97" customFormat="1">
+      <c r="B111"/>
+      <c r="C111" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+    </row>
+    <row r="113" spans="2:15" s="97" customFormat="1">
+      <c r="B113" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113"/>
+      <c r="E113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+    </row>
+    <row r="114" spans="2:15" s="97" customFormat="1">
+      <c r="B114"/>
+      <c r="C114" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="E114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+    </row>
+    <row r="115" spans="2:15" s="97" customFormat="1">
+      <c r="B115"/>
+      <c r="C115" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+    </row>
+    <row r="116" spans="2:15" s="97" customFormat="1">
+      <c r="B116"/>
+      <c r="C116" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+    </row>
+    <row r="117" spans="2:15" s="97" customFormat="1">
+      <c r="B117"/>
+      <c r="C117" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+    </row>
+    <row r="118" spans="2:15" s="97" customFormat="1">
+      <c r="B118"/>
+      <c r="C118" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+    </row>
+    <row r="119" spans="2:15" s="97" customFormat="1">
+      <c r="B119"/>
+      <c r="C119" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D27 D52:D54 D11:D13 D34 D15:D22">
+      <formula1>$C$101:$C$105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E52:E54 E34 E15:E27 E11:E13">
+      <formula1>$C$107:$C$111</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F34 F15:F27 F52:F54 F11:F13">
+      <formula1>$C$114:$C$119</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F55:F91">
+      <formula1>$C$115:$C$119</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="28" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:O119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="97" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" style="97" customWidth="1"/>
+    <col min="8" max="15" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="18">
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="3" spans="2:15" ht="18">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="C4" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="C5" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" ht="18">
+      <c r="B7" s="402" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" s="402"/>
+      <c r="D7" s="402"/>
+      <c r="E7" s="402"/>
+    </row>
+    <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
+      <c r="B10" s="275" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="276" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="276" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="276" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="276" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="310" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="272" t="s">
+        <v>426</v>
+      </c>
+      <c r="I10" s="272" t="s">
+        <v>427</v>
+      </c>
+      <c r="J10" s="273" t="s">
+        <v>428</v>
+      </c>
+      <c r="K10" s="273" t="s">
+        <v>429</v>
+      </c>
+      <c r="L10" s="273" t="s">
+        <v>430</v>
+      </c>
+      <c r="M10" s="273" t="s">
+        <v>431</v>
+      </c>
+      <c r="N10" s="274" t="s">
+        <v>432</v>
+      </c>
+      <c r="O10" s="311" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="335">
+        <v>1</v>
+      </c>
+      <c r="C11" s="358" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" s="289"/>
+      <c r="E11" s="336"/>
+      <c r="F11" s="359"/>
+      <c r="G11" s="360"/>
+      <c r="H11" s="326"/>
+      <c r="I11" s="339"/>
+      <c r="J11" s="339"/>
+      <c r="K11" s="339"/>
+      <c r="L11" s="339"/>
+      <c r="M11" s="331"/>
+      <c r="N11" s="362"/>
+      <c r="O11" s="362"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="338">
+        <v>2</v>
+      </c>
+      <c r="C12" s="368" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="355" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="367">
+        <v>15</v>
+      </c>
+      <c r="H12" s="356"/>
+      <c r="I12" s="357"/>
+      <c r="J12" s="357"/>
+      <c r="K12" s="357"/>
+      <c r="L12" s="357"/>
+      <c r="M12" s="357"/>
+      <c r="N12" s="371"/>
+      <c r="O12" s="371"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="335">
+        <v>3</v>
+      </c>
+      <c r="C13" s="372" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="366" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" s="365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="367">
+        <v>10</v>
+      </c>
+      <c r="H13" s="356"/>
+      <c r="I13" s="357"/>
+      <c r="J13" s="357"/>
+      <c r="K13" s="357"/>
+      <c r="L13" s="356"/>
+      <c r="M13" s="356"/>
+      <c r="N13" s="371"/>
+      <c r="O13" s="371"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="338">
+        <v>4</v>
+      </c>
+      <c r="C14" s="403" t="s">
+        <v>415</v>
+      </c>
+      <c r="D14" s="365" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="366" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" s="365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="367">
+        <v>30</v>
+      </c>
+      <c r="H14" s="373"/>
+      <c r="I14" s="373"/>
+      <c r="J14" s="373"/>
+      <c r="K14" s="373"/>
+      <c r="L14" s="373"/>
+      <c r="M14" s="373"/>
+      <c r="N14" s="371"/>
+      <c r="O14" s="371"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="335">
+        <v>5</v>
+      </c>
+      <c r="C15" s="363" t="s">
+        <v>423</v>
+      </c>
+      <c r="D15" s="289" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="336" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="359" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="360">
+        <v>20</v>
+      </c>
+      <c r="H15" s="326"/>
+      <c r="I15" s="339"/>
+      <c r="J15" s="339"/>
+      <c r="K15" s="339"/>
+      <c r="L15" s="339"/>
+      <c r="M15" s="331"/>
+      <c r="N15" s="362"/>
+      <c r="O15" s="362"/>
+    </row>
+    <row r="16" spans="2:15" s="197" customFormat="1">
+      <c r="B16" s="338">
+        <v>6</v>
+      </c>
+      <c r="C16" s="368" t="s">
+        <v>424</v>
+      </c>
+      <c r="D16" s="354" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="367">
+        <v>20</v>
+      </c>
+      <c r="H16" s="356"/>
+      <c r="I16" s="357"/>
+      <c r="J16" s="357"/>
+      <c r="K16" s="357"/>
+      <c r="L16" s="357"/>
+      <c r="M16" s="357"/>
+      <c r="N16" s="371"/>
+      <c r="O16" s="371"/>
+    </row>
+    <row r="17" spans="2:15" s="197" customFormat="1">
+      <c r="B17" s="335">
+        <v>7</v>
+      </c>
+      <c r="C17" s="368" t="s">
+        <v>425</v>
+      </c>
+      <c r="D17" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F17" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="367">
+        <v>15</v>
+      </c>
+      <c r="H17" s="356"/>
+      <c r="I17" s="357"/>
+      <c r="J17" s="357"/>
+      <c r="K17" s="357"/>
+      <c r="L17" s="357"/>
+      <c r="M17" s="357"/>
+      <c r="N17" s="371"/>
+      <c r="O17" s="371"/>
+    </row>
+    <row r="18" spans="2:15" s="197" customFormat="1">
+      <c r="B18" s="338">
+        <v>8</v>
+      </c>
+      <c r="C18" s="358" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" s="365"/>
+      <c r="E18" s="366"/>
+      <c r="F18" s="365"/>
+      <c r="G18" s="367"/>
+      <c r="H18" s="356"/>
+      <c r="I18" s="357"/>
+      <c r="J18" s="357"/>
+      <c r="K18" s="356"/>
+      <c r="L18" s="356"/>
+      <c r="M18" s="356"/>
+      <c r="N18" s="371"/>
+      <c r="O18" s="371"/>
+    </row>
+    <row r="19" spans="2:15" s="197" customFormat="1">
+      <c r="B19" s="335">
+        <v>9</v>
+      </c>
+      <c r="C19" s="372" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="355" t="s">
+        <v>350</v>
+      </c>
+      <c r="F19" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="367">
+        <v>12</v>
+      </c>
+      <c r="H19" s="326"/>
+      <c r="I19" s="339"/>
+      <c r="J19" s="339"/>
+      <c r="K19" s="339"/>
+      <c r="L19" s="339"/>
+      <c r="M19" s="331"/>
+      <c r="N19" s="362"/>
+      <c r="O19" s="362"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="338">
+        <v>10</v>
+      </c>
+      <c r="C20" s="368" t="s">
+        <v>369</v>
+      </c>
+      <c r="D20" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="355" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="367">
+        <v>10</v>
+      </c>
+      <c r="H20" s="356"/>
+      <c r="I20" s="357"/>
+      <c r="J20" s="357"/>
+      <c r="K20" s="357"/>
+      <c r="L20" s="357"/>
+      <c r="M20" s="357"/>
+      <c r="N20" s="371"/>
+      <c r="O20" s="371"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="335">
+        <v>11</v>
+      </c>
+      <c r="C21" s="372" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="355" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="367">
+        <v>12</v>
+      </c>
+      <c r="H21" s="356"/>
+      <c r="I21" s="357"/>
+      <c r="J21" s="357"/>
+      <c r="K21" s="357"/>
+      <c r="L21" s="357"/>
+      <c r="M21" s="357"/>
+      <c r="N21" s="371"/>
+      <c r="O21" s="371"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="338">
+        <v>12</v>
+      </c>
+      <c r="C22" s="374" t="s">
+        <v>407</v>
+      </c>
+      <c r="D22" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="355" t="s">
+        <v>350</v>
+      </c>
+      <c r="F22" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="367">
+        <v>10</v>
+      </c>
+      <c r="H22" s="373"/>
+      <c r="I22" s="373"/>
+      <c r="J22" s="373"/>
+      <c r="K22" s="373"/>
+      <c r="L22" s="373"/>
+      <c r="M22" s="373"/>
+      <c r="N22" s="371"/>
+      <c r="O22" s="371"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="335">
+        <v>13</v>
+      </c>
+      <c r="C23" s="404" t="s">
+        <v>388</v>
+      </c>
+      <c r="D23" s="354"/>
+      <c r="E23" s="355"/>
+      <c r="F23" s="369"/>
+      <c r="G23" s="367"/>
+      <c r="H23" s="356"/>
+      <c r="I23" s="357"/>
+      <c r="J23" s="357"/>
+      <c r="K23" s="357"/>
+      <c r="L23" s="357"/>
+      <c r="M23" s="357"/>
+      <c r="N23" s="371"/>
+      <c r="O23" s="371"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="338">
+        <v>14</v>
+      </c>
+      <c r="C24" s="372" t="s">
+        <v>391</v>
+      </c>
+      <c r="D24" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="355" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="367">
+        <v>5</v>
+      </c>
+      <c r="H24" s="326"/>
+      <c r="I24" s="339"/>
+      <c r="J24" s="339"/>
+      <c r="K24" s="339"/>
+      <c r="L24" s="339"/>
+      <c r="M24" s="331"/>
+      <c r="N24" s="362"/>
+      <c r="O24" s="362"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="335">
+        <v>15</v>
+      </c>
+      <c r="C25" s="368" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="355" t="s">
+        <v>352</v>
+      </c>
+      <c r="F25" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="367">
+        <v>12</v>
+      </c>
+      <c r="H25" s="326"/>
+      <c r="I25" s="326"/>
+      <c r="J25" s="326"/>
+      <c r="K25" s="326"/>
+      <c r="L25" s="326"/>
+      <c r="M25" s="333"/>
+      <c r="N25" s="362"/>
+      <c r="O25" s="362"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="338">
+        <v>16</v>
+      </c>
+      <c r="C26" s="368" t="s">
+        <v>408</v>
+      </c>
+      <c r="D26" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="355" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="367">
+        <v>20</v>
+      </c>
+      <c r="H26" s="326"/>
+      <c r="I26" s="326"/>
+      <c r="J26" s="326"/>
+      <c r="K26" s="326"/>
+      <c r="L26" s="326"/>
+      <c r="M26" s="333"/>
+      <c r="N26" s="362"/>
+      <c r="O26" s="362"/>
+    </row>
+    <row r="27" spans="2:15" ht="21.75" customHeight="1">
+      <c r="B27" s="335">
+        <v>17</v>
+      </c>
+      <c r="C27" s="366"/>
+      <c r="D27" s="365"/>
+      <c r="E27" s="366"/>
+      <c r="F27" s="365"/>
+      <c r="G27" s="367"/>
+      <c r="H27" s="356"/>
+      <c r="I27" s="356"/>
+      <c r="J27" s="356"/>
+      <c r="K27" s="356"/>
+      <c r="L27" s="356"/>
+      <c r="M27" s="356"/>
+      <c r="N27" s="371"/>
+      <c r="O27" s="371"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="338">
+        <v>18</v>
+      </c>
+      <c r="C28" s="366"/>
+      <c r="D28" s="365"/>
+      <c r="E28" s="366"/>
+      <c r="F28" s="365"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="373"/>
+      <c r="I28" s="373"/>
+      <c r="J28" s="373"/>
+      <c r="K28" s="373"/>
+      <c r="L28" s="373"/>
+      <c r="M28" s="373"/>
+      <c r="N28" s="371"/>
+      <c r="O28" s="371"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="335">
+        <v>19</v>
+      </c>
+      <c r="C29" s="366"/>
+      <c r="D29" s="365"/>
+      <c r="E29" s="366"/>
+      <c r="F29" s="365"/>
+      <c r="G29" s="367"/>
+      <c r="H29" s="373"/>
+      <c r="I29" s="373"/>
+      <c r="J29" s="373"/>
+      <c r="K29" s="373"/>
+      <c r="L29" s="373"/>
+      <c r="M29" s="373"/>
+      <c r="N29" s="371"/>
+      <c r="O29" s="371"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="338">
+        <v>20</v>
+      </c>
+      <c r="C30" s="366"/>
+      <c r="D30" s="365"/>
+      <c r="E30" s="366"/>
+      <c r="F30" s="365"/>
+      <c r="G30" s="367"/>
+      <c r="H30" s="373"/>
+      <c r="I30" s="373"/>
+      <c r="J30" s="373"/>
+      <c r="K30" s="373"/>
+      <c r="L30" s="373"/>
+      <c r="M30" s="373"/>
+      <c r="N30" s="371"/>
+      <c r="O30" s="371"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="335">
+        <v>21</v>
+      </c>
+      <c r="C31" s="366"/>
+      <c r="D31" s="365"/>
+      <c r="E31" s="366"/>
+      <c r="F31" s="365"/>
+      <c r="G31" s="367"/>
+      <c r="H31" s="373"/>
+      <c r="I31" s="373"/>
+      <c r="J31" s="373"/>
+      <c r="K31" s="373"/>
+      <c r="L31" s="373"/>
+      <c r="M31" s="373"/>
+      <c r="N31" s="371"/>
+      <c r="O31" s="371"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="338">
+        <v>22</v>
+      </c>
+      <c r="C32" s="366"/>
+      <c r="D32" s="365"/>
+      <c r="E32" s="366"/>
+      <c r="F32" s="365"/>
+      <c r="G32" s="367"/>
+      <c r="H32" s="373"/>
+      <c r="I32" s="373"/>
+      <c r="J32" s="373"/>
+      <c r="K32" s="373"/>
+      <c r="L32" s="373"/>
+      <c r="M32" s="373"/>
+      <c r="N32" s="371"/>
+      <c r="O32" s="371"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="335">
+        <v>23</v>
+      </c>
+      <c r="C33" s="366"/>
+      <c r="D33" s="365"/>
+      <c r="E33" s="366"/>
+      <c r="F33" s="365"/>
+      <c r="G33" s="367"/>
+      <c r="H33" s="326"/>
+      <c r="I33" s="326"/>
+      <c r="J33" s="326"/>
+      <c r="K33" s="326"/>
+      <c r="L33" s="326"/>
+      <c r="M33" s="333"/>
+      <c r="N33" s="362"/>
+      <c r="O33" s="362"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="338">
+        <v>24</v>
+      </c>
+      <c r="C34" s="375"/>
+      <c r="D34" s="289"/>
+      <c r="E34" s="336"/>
+      <c r="F34" s="359"/>
+      <c r="G34" s="360"/>
+      <c r="H34" s="326"/>
+      <c r="I34" s="326"/>
+      <c r="J34" s="326"/>
+      <c r="K34" s="326"/>
+      <c r="L34" s="326"/>
+      <c r="M34" s="333"/>
+      <c r="N34" s="362"/>
+      <c r="O34" s="362"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="335">
+        <v>25</v>
+      </c>
+      <c r="C35" s="366"/>
+      <c r="D35" s="365"/>
+      <c r="E35" s="366"/>
+      <c r="F35" s="365"/>
+      <c r="G35" s="367"/>
+      <c r="H35" s="326"/>
+      <c r="I35" s="326"/>
+      <c r="J35" s="326"/>
+      <c r="K35" s="326"/>
+      <c r="L35" s="326"/>
+      <c r="M35" s="333"/>
+      <c r="N35" s="362"/>
+      <c r="O35" s="362"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="338">
+        <v>26</v>
+      </c>
+      <c r="C36" s="366"/>
+      <c r="D36" s="365"/>
+      <c r="E36" s="366"/>
+      <c r="F36" s="365"/>
+      <c r="G36" s="367"/>
+      <c r="H36" s="326"/>
+      <c r="I36" s="326"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="326"/>
+      <c r="L36" s="326"/>
+      <c r="M36" s="333"/>
+      <c r="N36" s="362"/>
+      <c r="O36" s="362"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="335">
+        <v>27</v>
+      </c>
+      <c r="C37" s="366"/>
+      <c r="D37" s="365"/>
+      <c r="E37" s="366"/>
+      <c r="F37" s="365"/>
+      <c r="G37" s="367"/>
+      <c r="H37" s="326"/>
+      <c r="I37" s="326"/>
+      <c r="J37" s="326"/>
+      <c r="K37" s="326"/>
+      <c r="L37" s="326"/>
+      <c r="M37" s="333"/>
+      <c r="N37" s="362"/>
+      <c r="O37" s="362"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="338">
+        <v>28</v>
+      </c>
+      <c r="C38" s="366"/>
+      <c r="D38" s="365"/>
+      <c r="E38" s="366"/>
+      <c r="F38" s="365"/>
+      <c r="G38" s="367"/>
+      <c r="H38" s="326"/>
+      <c r="I38" s="326"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="326"/>
+      <c r="L38" s="326"/>
+      <c r="M38" s="333"/>
+      <c r="N38" s="362"/>
+      <c r="O38" s="362"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="335">
+        <v>29</v>
+      </c>
+      <c r="C39" s="366"/>
+      <c r="D39" s="365"/>
+      <c r="E39" s="366"/>
+      <c r="F39" s="365"/>
+      <c r="G39" s="367"/>
+      <c r="H39" s="326"/>
+      <c r="I39" s="326"/>
+      <c r="J39" s="326"/>
+      <c r="K39" s="326"/>
+      <c r="L39" s="326"/>
+      <c r="M39" s="333"/>
+      <c r="N39" s="362"/>
+      <c r="O39" s="362"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="338">
+        <v>30</v>
+      </c>
+      <c r="C40" s="366"/>
+      <c r="D40" s="365"/>
+      <c r="E40" s="366"/>
+      <c r="F40" s="365"/>
+      <c r="G40" s="367"/>
+      <c r="H40" s="326"/>
+      <c r="I40" s="326"/>
+      <c r="J40" s="326"/>
+      <c r="K40" s="326"/>
+      <c r="L40" s="326"/>
+      <c r="M40" s="333"/>
+      <c r="N40" s="362"/>
+      <c r="O40" s="362"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="335">
+        <v>31</v>
+      </c>
+      <c r="C41" s="366"/>
+      <c r="D41" s="365"/>
+      <c r="E41" s="366"/>
+      <c r="F41" s="365"/>
+      <c r="G41" s="367"/>
+      <c r="H41" s="326"/>
+      <c r="I41" s="326"/>
+      <c r="J41" s="326"/>
+      <c r="K41" s="326"/>
+      <c r="L41" s="326"/>
+      <c r="M41" s="333"/>
+      <c r="N41" s="362"/>
+      <c r="O41" s="362"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="338">
+        <v>32</v>
+      </c>
+      <c r="C42" s="366"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="366"/>
+      <c r="F42" s="365"/>
+      <c r="G42" s="367"/>
+      <c r="H42" s="326"/>
+      <c r="I42" s="326"/>
+      <c r="J42" s="326"/>
+      <c r="K42" s="326"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="333"/>
+      <c r="N42" s="362"/>
+      <c r="O42" s="362"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="335">
+        <v>33</v>
+      </c>
+      <c r="C43" s="366"/>
+      <c r="D43" s="365"/>
+      <c r="E43" s="366"/>
+      <c r="F43" s="365"/>
+      <c r="G43" s="367"/>
+      <c r="H43" s="326"/>
+      <c r="I43" s="326"/>
+      <c r="J43" s="326"/>
+      <c r="K43" s="326"/>
+      <c r="L43" s="326"/>
+      <c r="M43" s="333"/>
+      <c r="N43" s="362"/>
+      <c r="O43" s="362"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="338">
+        <v>34</v>
+      </c>
+      <c r="C44" s="366"/>
+      <c r="D44" s="365"/>
+      <c r="E44" s="366"/>
+      <c r="F44" s="365"/>
+      <c r="G44" s="367"/>
+      <c r="H44" s="326"/>
+      <c r="I44" s="326"/>
+      <c r="J44" s="326"/>
+      <c r="K44" s="326"/>
+      <c r="L44" s="326"/>
+      <c r="M44" s="333"/>
+      <c r="N44" s="362"/>
+      <c r="O44" s="362"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="335">
+        <v>35</v>
+      </c>
+      <c r="C45" s="366"/>
+      <c r="D45" s="365"/>
+      <c r="E45" s="366"/>
+      <c r="F45" s="365"/>
+      <c r="G45" s="367"/>
+      <c r="H45" s="326"/>
+      <c r="I45" s="326"/>
+      <c r="J45" s="326"/>
+      <c r="K45" s="326"/>
+      <c r="L45" s="326"/>
+      <c r="M45" s="333"/>
+      <c r="N45" s="362"/>
+      <c r="O45" s="362"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="338">
+        <v>36</v>
+      </c>
+      <c r="C46" s="366"/>
+      <c r="D46" s="365"/>
+      <c r="E46" s="366"/>
+      <c r="F46" s="365"/>
+      <c r="G46" s="367"/>
+      <c r="H46" s="326"/>
+      <c r="I46" s="326"/>
+      <c r="J46" s="326"/>
+      <c r="K46" s="326"/>
+      <c r="L46" s="326"/>
+      <c r="M46" s="333"/>
+      <c r="N46" s="362"/>
+      <c r="O46" s="362"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="335">
+        <v>37</v>
+      </c>
+      <c r="C47" s="366"/>
+      <c r="D47" s="365"/>
+      <c r="E47" s="366"/>
+      <c r="F47" s="365"/>
+      <c r="G47" s="367"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="326"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="333"/>
+      <c r="N47" s="362"/>
+      <c r="O47" s="362"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="338">
+        <v>38</v>
+      </c>
+      <c r="C48" s="366"/>
+      <c r="D48" s="365"/>
+      <c r="E48" s="366"/>
+      <c r="F48" s="365"/>
+      <c r="G48" s="367"/>
+      <c r="H48" s="326"/>
+      <c r="I48" s="326"/>
+      <c r="J48" s="326"/>
+      <c r="K48" s="326"/>
+      <c r="L48" s="326"/>
+      <c r="M48" s="333"/>
+      <c r="N48" s="362"/>
+      <c r="O48" s="362"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="335">
+        <v>39</v>
+      </c>
+      <c r="C49" s="366"/>
+      <c r="D49" s="365"/>
+      <c r="E49" s="366"/>
+      <c r="F49" s="365"/>
+      <c r="G49" s="367"/>
+      <c r="H49" s="326"/>
+      <c r="I49" s="326"/>
+      <c r="J49" s="326"/>
+      <c r="K49" s="326"/>
+      <c r="L49" s="326"/>
+      <c r="M49" s="333"/>
+      <c r="N49" s="362"/>
+      <c r="O49" s="362"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="338">
+        <v>40</v>
+      </c>
+      <c r="C50" s="366"/>
+      <c r="D50" s="365"/>
+      <c r="E50" s="366"/>
+      <c r="F50" s="365"/>
+      <c r="G50" s="367"/>
+      <c r="H50" s="326"/>
+      <c r="I50" s="326"/>
+      <c r="J50" s="326"/>
+      <c r="K50" s="326"/>
+      <c r="L50" s="326"/>
+      <c r="M50" s="333"/>
+      <c r="N50" s="362"/>
+      <c r="O50" s="362"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="335">
+        <v>41</v>
+      </c>
+      <c r="C51" s="366"/>
+      <c r="D51" s="365"/>
+      <c r="E51" s="366"/>
+      <c r="F51" s="365"/>
+      <c r="G51" s="367"/>
+      <c r="H51" s="326"/>
+      <c r="I51" s="326"/>
+      <c r="J51" s="326"/>
+      <c r="K51" s="326"/>
+      <c r="L51" s="326"/>
+      <c r="M51" s="333"/>
+      <c r="N51" s="362"/>
+      <c r="O51" s="362"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="338">
+        <v>42</v>
+      </c>
+      <c r="C52" s="363"/>
+      <c r="D52" s="289"/>
+      <c r="E52" s="336"/>
+      <c r="F52" s="359"/>
+      <c r="G52" s="360"/>
+      <c r="H52" s="326"/>
+      <c r="I52" s="326"/>
+      <c r="J52" s="326"/>
+      <c r="K52" s="326"/>
+      <c r="L52" s="326"/>
+      <c r="M52" s="333"/>
+      <c r="N52" s="362"/>
+      <c r="O52" s="362"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="335">
+        <v>43</v>
+      </c>
+      <c r="C53" s="376"/>
+      <c r="D53" s="289"/>
+      <c r="E53" s="336"/>
+      <c r="F53" s="359"/>
+      <c r="G53" s="360"/>
+      <c r="H53" s="360"/>
+      <c r="I53" s="360"/>
+      <c r="J53" s="360"/>
+      <c r="K53" s="360"/>
+      <c r="L53" s="360"/>
+      <c r="M53" s="377"/>
+      <c r="N53" s="362"/>
+      <c r="O53" s="362"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="378" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="379"/>
+      <c r="D54" s="348"/>
+      <c r="E54" s="380"/>
+      <c r="F54" s="381"/>
+      <c r="G54" s="382"/>
+      <c r="H54" s="382"/>
+      <c r="I54" s="382"/>
+      <c r="J54" s="382"/>
+      <c r="K54" s="382"/>
+      <c r="L54" s="382"/>
+      <c r="M54" s="383"/>
+      <c r="N54" s="384"/>
+      <c r="O54" s="384"/>
+    </row>
+    <row r="101" spans="2:15" s="97" customFormat="1">
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+    </row>
+    <row r="102" spans="2:15" s="97" customFormat="1">
+      <c r="B102"/>
+      <c r="C102" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+    </row>
+    <row r="103" spans="2:15" s="97" customFormat="1">
+      <c r="B103"/>
+      <c r="C103" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+    </row>
+    <row r="104" spans="2:15" s="97" customFormat="1">
+      <c r="B104"/>
+      <c r="C104" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+    </row>
+    <row r="105" spans="2:15" s="97" customFormat="1">
+      <c r="B105"/>
+      <c r="C105" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+    </row>
+    <row r="106" spans="2:15" s="97" customFormat="1">
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106"/>
+      <c r="E106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+    </row>
+    <row r="107" spans="2:15" s="97" customFormat="1">
+      <c r="B107"/>
+      <c r="C107" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="E107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="2:15" s="97" customFormat="1">
+      <c r="B108"/>
+      <c r="C108" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="E108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+    </row>
+    <row r="109" spans="2:15" s="97" customFormat="1">
+      <c r="B109"/>
+      <c r="C109" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+    </row>
+    <row r="110" spans="2:15" s="97" customFormat="1">
+      <c r="B110"/>
+      <c r="C110" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="E110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+    </row>
+    <row r="111" spans="2:15" s="97" customFormat="1">
+      <c r="B111"/>
+      <c r="C111" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+    </row>
+    <row r="113" spans="2:15" s="97" customFormat="1">
+      <c r="B113" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113"/>
+      <c r="E113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+    </row>
+    <row r="114" spans="2:15" s="97" customFormat="1">
+      <c r="B114"/>
+      <c r="C114" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="E114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+    </row>
+    <row r="115" spans="2:15" s="97" customFormat="1">
+      <c r="B115"/>
+      <c r="C115" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+    </row>
+    <row r="116" spans="2:15" s="97" customFormat="1">
+      <c r="B116"/>
+      <c r="C116" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+    </row>
+    <row r="117" spans="2:15" s="97" customFormat="1">
+      <c r="B117"/>
+      <c r="C117" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+    </row>
+    <row r="118" spans="2:15" s="97" customFormat="1">
+      <c r="B118"/>
+      <c r="C118" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+    </row>
+    <row r="119" spans="2:15" s="97" customFormat="1">
+      <c r="B119"/>
+      <c r="C119" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <dataValidations disablePrompts="1" count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F26 F34 F52:F54 F11:F12">
+      <formula1>$C$114:$C$119</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E15:E26 E34 E52:E54 E11:E12">
+      <formula1>$C$107:$C$111</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:D26 D15:D21 D52:D54 D34 D11:D12">
       <formula1>$C$101:$C$105</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F55:F91">

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sprint04_2705_0206" sheetId="12" r:id="rId10"/>
     <sheet name="Sprint05_0306_0906" sheetId="14" r:id="rId11"/>
     <sheet name="Sprint06_1006_1606" sheetId="15" r:id="rId12"/>
+    <sheet name="Sprint06_1706_2306" sheetId="16" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$1:$G$106</definedName>
@@ -609,8 +610,32 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tu Huynh</author>
+  </authors>
+  <commentList>
+    <comment ref="G11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:May Span TWO Sprint</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="449">
   <si>
     <t>Introduction</t>
   </si>
@@ -1884,9 +1909,6 @@
     <t>+List upcoming Tests</t>
   </si>
   <si>
-    <t>+Report 4 - User Interface Detail</t>
-  </si>
-  <si>
     <t>03/06</t>
   </si>
   <si>
@@ -1936,6 +1958,57 @@
   </si>
   <si>
     <t>16/06</t>
+  </si>
+  <si>
+    <t>+Report 4 - User Interface Detail(7)</t>
+  </si>
+  <si>
+    <t>+Authentication</t>
+  </si>
+  <si>
+    <t>SPRINT 07 FROM 17/06 TO 23/06</t>
+  </si>
+  <si>
+    <t>17/06</t>
+  </si>
+  <si>
+    <t>18/06</t>
+  </si>
+  <si>
+    <t>19/06</t>
+  </si>
+  <si>
+    <t>20/06</t>
+  </si>
+  <si>
+    <t>21/06</t>
+  </si>
+  <si>
+    <t>22/06</t>
+  </si>
+  <si>
+    <t>23/06</t>
+  </si>
+  <si>
+    <t>+New Tests Page - Response Tab</t>
+  </si>
+  <si>
+    <t>+Role in invitation</t>
+  </si>
+  <si>
+    <t>+Apply seting on Do Test</t>
+  </si>
+  <si>
+    <t>+Send mail notify users when invite</t>
+  </si>
+  <si>
+    <t>+Manage Tags</t>
+  </si>
+  <si>
+    <t>+Student feedback on test</t>
+  </si>
+  <si>
+    <t>+Teacher see feedback of student</t>
   </si>
 </sst>
 </file>
@@ -2119,7 +2192,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2250,6 +2323,18 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2778,7 +2863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="405">
+  <cellXfs count="418">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -3898,72 +3983,111 @@
     <xf numFmtId="0" fontId="21" fillId="21" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="23" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="200">
+  <dxfs count="219">
     <dxf>
       <border>
         <top style="thin">
@@ -4513,19 +4637,460 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -4579,6 +5144,15 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -5058,6 +5632,104 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -11136,21 +11808,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:N30" totalsRowShown="0" headerRowDxfId="199" headerRowBorderDxfId="198" tableBorderDxfId="197">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:N30" totalsRowShown="0" headerRowDxfId="218" headerRowBorderDxfId="217" tableBorderDxfId="216">
   <autoFilter ref="B10:N30"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="196"/>
-    <tableColumn id="2" name="Task description" dataDxfId="195"/>
-    <tableColumn id="3" name="Type" dataDxfId="194"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="193"/>
-    <tableColumn id="5" name="Status" dataDxfId="192"/>
-    <tableColumn id="8" name="(W)23/5" dataDxfId="191"/>
-    <tableColumn id="9" name="(Th)24/5" dataDxfId="190"/>
-    <tableColumn id="10" name="(Fr)25/5" dataDxfId="189"/>
-    <tableColumn id="11" name="(Sa)26/5" dataDxfId="188"/>
-    <tableColumn id="12" name="(Su)27/5" dataDxfId="187"/>
+    <tableColumn id="1" name="No." dataDxfId="215"/>
+    <tableColumn id="2" name="Task description" dataDxfId="214"/>
+    <tableColumn id="3" name="Type" dataDxfId="213"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="212"/>
+    <tableColumn id="5" name="Status" dataDxfId="211"/>
+    <tableColumn id="8" name="(W)23/5" dataDxfId="210"/>
+    <tableColumn id="9" name="(Th)24/5" dataDxfId="209"/>
+    <tableColumn id="10" name="(Fr)25/5" dataDxfId="208"/>
+    <tableColumn id="11" name="(Sa)26/5" dataDxfId="207"/>
+    <tableColumn id="12" name="(Su)27/5" dataDxfId="206"/>
     <tableColumn id="13" name="(Mo)28/5"/>
-    <tableColumn id="14" name="(Tu)29/5" dataDxfId="186"/>
+    <tableColumn id="14" name="(Tu)29/5" dataDxfId="205"/>
     <tableColumn id="7" name="End Sprint"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11158,35 +11830,62 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table134567891011" displayName="Table134567891011" ref="B10:O54" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table134567891011" displayName="Table134567891011" ref="B10:O54" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="B10:O54">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="37"/>
-    <tableColumn id="2" name="Task description" dataDxfId="36"/>
-    <tableColumn id="3" name="Type" dataDxfId="35"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="34"/>
-    <tableColumn id="5" name="Status" dataDxfId="33"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="32"/>
-    <tableColumn id="8" name="03/06" dataDxfId="31"/>
-    <tableColumn id="9" name="04/06" dataDxfId="30"/>
-    <tableColumn id="10" name="05/06" dataDxfId="29"/>
-    <tableColumn id="11" name="06/06" dataDxfId="28"/>
-    <tableColumn id="12" name="07/06" dataDxfId="27"/>
-    <tableColumn id="13" name="08/06" dataDxfId="26"/>
-    <tableColumn id="14" name="09/06" dataDxfId="25"/>
-    <tableColumn id="15" name="End" dataDxfId="24"/>
+    <tableColumn id="1" name="No." dataDxfId="51"/>
+    <tableColumn id="2" name="Task description" dataDxfId="50"/>
+    <tableColumn id="3" name="Type" dataDxfId="49"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="48"/>
+    <tableColumn id="5" name="Status" dataDxfId="47"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="46"/>
+    <tableColumn id="8" name="03/06" dataDxfId="45"/>
+    <tableColumn id="9" name="04/06" dataDxfId="44"/>
+    <tableColumn id="10" name="05/06" dataDxfId="43"/>
+    <tableColumn id="11" name="06/06" dataDxfId="42"/>
+    <tableColumn id="12" name="07/06" dataDxfId="41"/>
+    <tableColumn id="13" name="08/06" dataDxfId="40"/>
+    <tableColumn id="14" name="09/06" dataDxfId="39"/>
+    <tableColumn id="15" name="End" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table13456789101112" displayName="Table13456789101112" ref="B10:O54" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
-  <autoFilter ref="B10:O54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table13456789101112" displayName="Table13456789101112" ref="B10:O56" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="B10:O56">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="32"/>
+    <tableColumn id="2" name="Task description" dataDxfId="31"/>
+    <tableColumn id="3" name="Type" dataDxfId="30"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="29"/>
+    <tableColumn id="5" name="Status" dataDxfId="28"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="27"/>
+    <tableColumn id="8" name="10/06" dataDxfId="26"/>
+    <tableColumn id="9" name="11/06" dataDxfId="25"/>
+    <tableColumn id="10" name="12/06" dataDxfId="24"/>
+    <tableColumn id="11" name="13/06" dataDxfId="23"/>
+    <tableColumn id="12" name="14/06" dataDxfId="22"/>
+    <tableColumn id="13" name="15/06" dataDxfId="21"/>
+    <tableColumn id="14" name="16/06" dataDxfId="20"/>
+    <tableColumn id="15" name="End" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1345678910111213" displayName="Table1345678910111213" ref="B10:O56" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
+  <autoFilter ref="B10:O56">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
@@ -11198,13 +11897,13 @@
     <tableColumn id="4" name="Assign To" dataDxfId="15"/>
     <tableColumn id="5" name="Status" dataDxfId="14"/>
     <tableColumn id="7" name="Estimate" dataDxfId="13"/>
-    <tableColumn id="8" name="10/06" dataDxfId="12"/>
-    <tableColumn id="9" name="11/06" dataDxfId="11"/>
-    <tableColumn id="10" name="12/06" dataDxfId="10"/>
-    <tableColumn id="11" name="13/06" dataDxfId="9"/>
-    <tableColumn id="12" name="14/06" dataDxfId="8"/>
-    <tableColumn id="13" name="15/06" dataDxfId="7"/>
-    <tableColumn id="14" name="16/06" dataDxfId="6"/>
+    <tableColumn id="8" name="17/06" dataDxfId="12"/>
+    <tableColumn id="9" name="18/06" dataDxfId="11"/>
+    <tableColumn id="10" name="19/06" dataDxfId="10"/>
+    <tableColumn id="11" name="20/06" dataDxfId="9"/>
+    <tableColumn id="12" name="21/06" dataDxfId="8"/>
+    <tableColumn id="13" name="22/06" dataDxfId="7"/>
+    <tableColumn id="14" name="23/06" dataDxfId="6"/>
     <tableColumn id="15" name="End" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11212,132 +11911,159 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:O28" totalsRowShown="0" headerRowDxfId="185" headerRowBorderDxfId="184" tableBorderDxfId="183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:O28" totalsRowShown="0" headerRowDxfId="204" headerRowBorderDxfId="203" tableBorderDxfId="202">
   <autoFilter ref="B10:O28"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="182"/>
-    <tableColumn id="2" name="Task description" dataDxfId="181"/>
-    <tableColumn id="3" name="Type" dataDxfId="180"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="179"/>
-    <tableColumn id="5" name="Status" dataDxfId="178"/>
-    <tableColumn id="17" name="Percentage" dataDxfId="177"/>
-    <tableColumn id="8" name="(W)30/5" dataDxfId="176"/>
-    <tableColumn id="9" name="(Th)31/5" dataDxfId="175"/>
-    <tableColumn id="10" name="(Fr)1/6" dataDxfId="174"/>
-    <tableColumn id="11" name="(Sa)2/6" dataDxfId="173"/>
-    <tableColumn id="12" name="(Su)3/6" dataDxfId="172"/>
+    <tableColumn id="1" name="No." dataDxfId="201"/>
+    <tableColumn id="2" name="Task description" dataDxfId="200"/>
+    <tableColumn id="3" name="Type" dataDxfId="199"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="198"/>
+    <tableColumn id="5" name="Status" dataDxfId="197"/>
+    <tableColumn id="17" name="Percentage" dataDxfId="196"/>
+    <tableColumn id="8" name="(W)30/5" dataDxfId="195"/>
+    <tableColumn id="9" name="(Th)31/5" dataDxfId="194"/>
+    <tableColumn id="10" name="(Fr)1/6" dataDxfId="193"/>
+    <tableColumn id="11" name="(Sa)2/6" dataDxfId="192"/>
+    <tableColumn id="12" name="(Su)3/6" dataDxfId="191"/>
     <tableColumn id="13" name="(Mo)4/6"/>
-    <tableColumn id="14" name="(Tu)5/6" dataDxfId="171"/>
-    <tableColumn id="7" name="End Sprint" dataDxfId="170"/>
+    <tableColumn id="14" name="(Tu)5/6" dataDxfId="190"/>
+    <tableColumn id="7" name="End Sprint" dataDxfId="189"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B10:N27" totalsRowShown="0" headerRowDxfId="169" headerRowBorderDxfId="168" tableBorderDxfId="167">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B10:N27" totalsRowShown="0" headerRowDxfId="188" headerRowBorderDxfId="187" tableBorderDxfId="186">
   <autoFilter ref="B10:N27"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="166"/>
-    <tableColumn id="2" name="Task description" dataDxfId="165"/>
-    <tableColumn id="3" name="Type" dataDxfId="164"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="163"/>
-    <tableColumn id="5" name="Status" dataDxfId="162"/>
-    <tableColumn id="8" name="(W)06/6" dataDxfId="161"/>
-    <tableColumn id="9" name="(Th)07/6" dataDxfId="160"/>
-    <tableColumn id="10" name="(Fr)08/6" dataDxfId="159"/>
-    <tableColumn id="11" name="(Sa)09/6" dataDxfId="158"/>
-    <tableColumn id="12" name="(Su)10/6" dataDxfId="157"/>
+    <tableColumn id="1" name="No." dataDxfId="185"/>
+    <tableColumn id="2" name="Task description" dataDxfId="184"/>
+    <tableColumn id="3" name="Type" dataDxfId="183"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="182"/>
+    <tableColumn id="5" name="Status" dataDxfId="181"/>
+    <tableColumn id="8" name="(W)06/6" dataDxfId="180"/>
+    <tableColumn id="9" name="(Th)07/6" dataDxfId="179"/>
+    <tableColumn id="10" name="(Fr)08/6" dataDxfId="178"/>
+    <tableColumn id="11" name="(Sa)09/6" dataDxfId="177"/>
+    <tableColumn id="12" name="(Su)10/6" dataDxfId="176"/>
     <tableColumn id="13" name="(Mo)11/6"/>
-    <tableColumn id="14" name="(Tu)12/6" dataDxfId="156"/>
-    <tableColumn id="7" name="End Sprint" dataDxfId="155"/>
+    <tableColumn id="14" name="(Tu)12/6" dataDxfId="175"/>
+    <tableColumn id="7" name="End Sprint" dataDxfId="174"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B10:AA76" totalsRowShown="0" headerRowDxfId="154" headerRowBorderDxfId="153" tableBorderDxfId="152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B10:AA76" totalsRowShown="0" headerRowDxfId="173" headerRowBorderDxfId="172" tableBorderDxfId="171">
   <autoFilter ref="B10:AA76"/>
   <tableColumns count="26">
-    <tableColumn id="1" name="No." dataDxfId="151"/>
-    <tableColumn id="2" name="Task description" dataDxfId="150"/>
-    <tableColumn id="3" name="Type" dataDxfId="149"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="148"/>
-    <tableColumn id="5" name="Status" dataDxfId="147"/>
-    <tableColumn id="8" name="25/6" dataDxfId="146"/>
-    <tableColumn id="9" name="26/6" dataDxfId="145"/>
-    <tableColumn id="10" name="27/6" dataDxfId="144"/>
-    <tableColumn id="11" name="28/6" dataDxfId="143"/>
-    <tableColumn id="12" name="29/6" dataDxfId="142"/>
+    <tableColumn id="1" name="No." dataDxfId="170"/>
+    <tableColumn id="2" name="Task description" dataDxfId="169"/>
+    <tableColumn id="3" name="Type" dataDxfId="168"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="167"/>
+    <tableColumn id="5" name="Status" dataDxfId="166"/>
+    <tableColumn id="8" name="25/6" dataDxfId="165"/>
+    <tableColumn id="9" name="26/6" dataDxfId="164"/>
+    <tableColumn id="10" name="27/6" dataDxfId="163"/>
+    <tableColumn id="11" name="28/6" dataDxfId="162"/>
+    <tableColumn id="12" name="29/6" dataDxfId="161"/>
     <tableColumn id="13" name="30/6"/>
-    <tableColumn id="14" name="1/7" dataDxfId="141"/>
-    <tableColumn id="6" name="2/7" dataDxfId="140"/>
-    <tableColumn id="7" name="3/7" dataDxfId="139"/>
-    <tableColumn id="15" name="4/7" dataDxfId="138"/>
-    <tableColumn id="16" name="5/7" dataDxfId="137"/>
-    <tableColumn id="17" name="6/7" dataDxfId="136"/>
-    <tableColumn id="24" name="7/7" dataDxfId="135"/>
-    <tableColumn id="23" name="8/7" dataDxfId="134"/>
-    <tableColumn id="22" name="9/7" dataDxfId="133"/>
-    <tableColumn id="21" name="10/7" dataDxfId="132"/>
-    <tableColumn id="20" name="11/7" dataDxfId="131"/>
-    <tableColumn id="18" name="12/7" dataDxfId="130"/>
-    <tableColumn id="25" name="13/7" dataDxfId="129"/>
-    <tableColumn id="26" name="14/7" dataDxfId="128"/>
-    <tableColumn id="19" name="End" dataDxfId="127"/>
+    <tableColumn id="14" name="1/7" dataDxfId="160"/>
+    <tableColumn id="6" name="2/7" dataDxfId="159"/>
+    <tableColumn id="7" name="3/7" dataDxfId="158"/>
+    <tableColumn id="15" name="4/7" dataDxfId="157"/>
+    <tableColumn id="16" name="5/7" dataDxfId="156"/>
+    <tableColumn id="17" name="6/7" dataDxfId="155"/>
+    <tableColumn id="24" name="7/7" dataDxfId="154"/>
+    <tableColumn id="23" name="8/7" dataDxfId="153"/>
+    <tableColumn id="22" name="9/7" dataDxfId="152"/>
+    <tableColumn id="21" name="10/7" dataDxfId="151"/>
+    <tableColumn id="20" name="11/7" dataDxfId="150"/>
+    <tableColumn id="18" name="12/7" dataDxfId="149"/>
+    <tableColumn id="25" name="13/7" dataDxfId="148"/>
+    <tableColumn id="26" name="14/7" dataDxfId="147"/>
+    <tableColumn id="19" name="End" dataDxfId="146"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B10:N56" totalsRowShown="0" headerRowDxfId="126" headerRowBorderDxfId="125" tableBorderDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B10:N56" totalsRowShown="0" headerRowDxfId="145" headerRowBorderDxfId="144" tableBorderDxfId="143">
   <autoFilter ref="B10:N56"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="123"/>
-    <tableColumn id="2" name="Task description" dataDxfId="122"/>
-    <tableColumn id="3" name="Type" dataDxfId="121"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="120"/>
-    <tableColumn id="5" name="Status" dataDxfId="119"/>
-    <tableColumn id="8" name="16/7" dataDxfId="118"/>
-    <tableColumn id="9" name="17/7" dataDxfId="117"/>
-    <tableColumn id="10" name="18/7" dataDxfId="116"/>
-    <tableColumn id="11" name="19/7" dataDxfId="115"/>
-    <tableColumn id="12" name="20/7" dataDxfId="114"/>
+    <tableColumn id="1" name="No." dataDxfId="142"/>
+    <tableColumn id="2" name="Task description" dataDxfId="141"/>
+    <tableColumn id="3" name="Type" dataDxfId="140"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="139"/>
+    <tableColumn id="5" name="Status" dataDxfId="138"/>
+    <tableColumn id="8" name="16/7" dataDxfId="137"/>
+    <tableColumn id="9" name="17/7" dataDxfId="136"/>
+    <tableColumn id="10" name="18/7" dataDxfId="135"/>
+    <tableColumn id="11" name="19/7" dataDxfId="134"/>
+    <tableColumn id="12" name="20/7" dataDxfId="133"/>
     <tableColumn id="13" name="21/7"/>
-    <tableColumn id="14" name="22/7" dataDxfId="113"/>
-    <tableColumn id="19" name="End" dataDxfId="112"/>
+    <tableColumn id="14" name="22/7" dataDxfId="132"/>
+    <tableColumn id="19" name="End" dataDxfId="131"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="130" dataDxfId="128" headerRowBorderDxfId="129" tableBorderDxfId="127" totalsRowBorderDxfId="126">
   <autoFilter ref="B10:M54">
     <filterColumn colId="5"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="No." dataDxfId="106"/>
-    <tableColumn id="2" name="Task description" dataDxfId="105"/>
-    <tableColumn id="3" name="Type" dataDxfId="104"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="103"/>
-    <tableColumn id="5" name="Status" dataDxfId="102"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="101"/>
-    <tableColumn id="8" name="08/05" dataDxfId="100"/>
-    <tableColumn id="9" name="09/05" dataDxfId="99"/>
-    <tableColumn id="10" name="10/05" dataDxfId="98"/>
-    <tableColumn id="11" name="11/05" dataDxfId="97"/>
-    <tableColumn id="12" name="12/05" dataDxfId="96"/>
-    <tableColumn id="13" name="End" dataDxfId="95"/>
+    <tableColumn id="1" name="No." dataDxfId="125"/>
+    <tableColumn id="2" name="Task description" dataDxfId="124"/>
+    <tableColumn id="3" name="Type" dataDxfId="123"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="122"/>
+    <tableColumn id="5" name="Status" dataDxfId="121"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="120"/>
+    <tableColumn id="8" name="08/05" dataDxfId="119"/>
+    <tableColumn id="9" name="09/05" dataDxfId="118"/>
+    <tableColumn id="10" name="10/05" dataDxfId="117"/>
+    <tableColumn id="11" name="11/05" dataDxfId="116"/>
+    <tableColumn id="12" name="12/05" dataDxfId="115"/>
+    <tableColumn id="13" name="End" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110" totalsRowBorderDxfId="109">
+  <autoFilter ref="B10:O54">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="108"/>
+    <tableColumn id="2" name="Task description" dataDxfId="107"/>
+    <tableColumn id="3" name="Type" dataDxfId="106"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="105"/>
+    <tableColumn id="5" name="Status" dataDxfId="104"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="103"/>
+    <tableColumn id="8" name="13/05" dataDxfId="102"/>
+    <tableColumn id="9" name="14/05" dataDxfId="101"/>
+    <tableColumn id="10" name="15/05" dataDxfId="100"/>
+    <tableColumn id="11" name="16/05" dataDxfId="99"/>
+    <tableColumn id="12" name="17/05" dataDxfId="98"/>
+    <tableColumn id="13" name="18/05" dataDxfId="97"/>
+    <tableColumn id="14" name="19/05" dataDxfId="96"/>
+    <tableColumn id="15" name="End" dataDxfId="95"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13456789" displayName="Table13456789" ref="B10:O54" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
   <autoFilter ref="B10:O54">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
@@ -11350,21 +12076,21 @@
     <tableColumn id="4" name="Assign To" dataDxfId="86"/>
     <tableColumn id="5" name="Status" dataDxfId="85"/>
     <tableColumn id="7" name="Estimate" dataDxfId="84"/>
-    <tableColumn id="8" name="13/05" dataDxfId="83"/>
-    <tableColumn id="9" name="14/05" dataDxfId="82"/>
-    <tableColumn id="10" name="15/05" dataDxfId="81"/>
-    <tableColumn id="11" name="16/05" dataDxfId="80"/>
-    <tableColumn id="12" name="17/05" dataDxfId="79"/>
-    <tableColumn id="13" name="18/05" dataDxfId="78"/>
-    <tableColumn id="14" name="19/05" dataDxfId="77"/>
+    <tableColumn id="8" name="20/05" dataDxfId="83"/>
+    <tableColumn id="9" name="21/05" dataDxfId="82"/>
+    <tableColumn id="10" name="22/05" dataDxfId="81"/>
+    <tableColumn id="11" name="23/05" dataDxfId="80"/>
+    <tableColumn id="12" name="24/05" dataDxfId="79"/>
+    <tableColumn id="13" name="25/05" dataDxfId="78"/>
+    <tableColumn id="14" name="26/05" dataDxfId="77"/>
     <tableColumn id="15" name="End" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13456789" displayName="Table13456789" ref="B10:O54" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1345678910" displayName="Table1345678910" ref="B10:O54" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
   <autoFilter ref="B10:O54">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
@@ -11377,41 +12103,14 @@
     <tableColumn id="4" name="Assign To" dataDxfId="67"/>
     <tableColumn id="5" name="Status" dataDxfId="66"/>
     <tableColumn id="7" name="Estimate" dataDxfId="65"/>
-    <tableColumn id="8" name="20/05" dataDxfId="64"/>
-    <tableColumn id="9" name="21/05" dataDxfId="63"/>
-    <tableColumn id="10" name="22/05" dataDxfId="62"/>
-    <tableColumn id="11" name="23/05" dataDxfId="61"/>
-    <tableColumn id="12" name="24/05" dataDxfId="60"/>
-    <tableColumn id="13" name="25/05" dataDxfId="59"/>
-    <tableColumn id="14" name="26/05" dataDxfId="58"/>
+    <tableColumn id="8" name="27/05" dataDxfId="64"/>
+    <tableColumn id="9" name="28/05" dataDxfId="63"/>
+    <tableColumn id="10" name="29/05" dataDxfId="62"/>
+    <tableColumn id="11" name="30/05" dataDxfId="61"/>
+    <tableColumn id="12" name="31/05" dataDxfId="60"/>
+    <tableColumn id="13" name="01/06" dataDxfId="59"/>
+    <tableColumn id="14" name="02/06" dataDxfId="58"/>
     <tableColumn id="15" name="End" dataDxfId="57"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1345678910" displayName="Table1345678910" ref="B10:O54" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
-  <autoFilter ref="B10:O54">
-    <filterColumn colId="5"/>
-    <filterColumn colId="12"/>
-    <filterColumn colId="13"/>
-  </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="51"/>
-    <tableColumn id="2" name="Task description" dataDxfId="50"/>
-    <tableColumn id="3" name="Type" dataDxfId="49"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="48"/>
-    <tableColumn id="5" name="Status" dataDxfId="47"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="46"/>
-    <tableColumn id="8" name="27/05" dataDxfId="45"/>
-    <tableColumn id="9" name="28/05" dataDxfId="44"/>
-    <tableColumn id="10" name="29/05" dataDxfId="43"/>
-    <tableColumn id="11" name="30/05" dataDxfId="42"/>
-    <tableColumn id="12" name="31/05" dataDxfId="41"/>
-    <tableColumn id="13" name="01/06" dataDxfId="40"/>
-    <tableColumn id="14" name="02/06" dataDxfId="39"/>
-    <tableColumn id="15" name="End" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11792,7 +12491,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="C14" s="385">
+      <c r="C14" s="390">
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -11803,7 +12502,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="C15" s="386"/>
+      <c r="C15" s="391"/>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
@@ -11811,14 +12510,14 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="C16" s="386"/>
+      <c r="C16" s="391"/>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="386"/>
+      <c r="C17" s="391"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
@@ -11832,7 +12531,7 @@
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="399">
+      <c r="C19" s="395">
         <v>3</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -11843,7 +12542,7 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="400"/>
+      <c r="C20" s="396"/>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
@@ -11853,7 +12552,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="400"/>
+      <c r="C21" s="396"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -11863,42 +12562,42 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="400"/>
+      <c r="C22" s="396"/>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="400"/>
+      <c r="C23" s="396"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="400"/>
+      <c r="C24" s="396"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="400"/>
+      <c r="C25" s="396"/>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="401"/>
+      <c r="C26" s="397"/>
       <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="53"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="385">
+      <c r="C27" s="390">
         <v>4</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -11909,42 +12608,42 @@
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="386"/>
+      <c r="C28" s="391"/>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="386"/>
+      <c r="C29" s="391"/>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="386"/>
+      <c r="C30" s="391"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="386"/>
+      <c r="C31" s="391"/>
       <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="386"/>
+      <c r="C32" s="391"/>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="C33" s="386"/>
+      <c r="C33" s="391"/>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
@@ -11958,7 +12657,7 @@
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="391">
+      <c r="C35" s="387">
         <v>5</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -11969,14 +12668,14 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="389"/>
+      <c r="C36" s="388"/>
       <c r="D36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="389"/>
+      <c r="C37" s="388"/>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
@@ -11984,14 +12683,14 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="396"/>
+      <c r="C38" s="389"/>
       <c r="D38" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="49"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="385">
+      <c r="C39" s="390">
         <v>6</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -12002,7 +12701,7 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="386"/>
+      <c r="C40" s="391"/>
       <c r="D40" s="8" t="s">
         <v>25</v>
       </c>
@@ -12016,7 +12715,7 @@
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="397" t="s">
+      <c r="C42" s="393" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -12027,7 +12726,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="C43" s="398"/>
+      <c r="C43" s="394"/>
       <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
@@ -12067,10 +12766,10 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="C52" s="395" t="s">
+      <c r="C52" s="400" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="395"/>
+      <c r="D52" s="400"/>
       <c r="E52" s="42"/>
     </row>
     <row r="53" spans="2:5">
@@ -12092,10 +12791,10 @@
       <c r="E54" s="40"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="C55" s="393" t="s">
+      <c r="C55" s="398" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="394"/>
+      <c r="D55" s="399"/>
       <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5">
@@ -12117,10 +12816,10 @@
       <c r="E57" s="40"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="C58" s="393" t="s">
+      <c r="C58" s="398" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="394"/>
+      <c r="D58" s="399"/>
       <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5">
@@ -12133,7 +12832,7 @@
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="C60" s="386">
+      <c r="C60" s="391">
         <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
@@ -12142,56 +12841,56 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="C61" s="386"/>
+      <c r="C61" s="391"/>
       <c r="D61" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="C62" s="386"/>
+      <c r="C62" s="391"/>
       <c r="D62" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="C63" s="386"/>
+      <c r="C63" s="391"/>
       <c r="D63" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="C64" s="386"/>
+      <c r="C64" s="391"/>
       <c r="D64" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="386"/>
+      <c r="C65" s="391"/>
       <c r="D65" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="386"/>
+      <c r="C66" s="391"/>
       <c r="D66" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="18"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="386"/>
+      <c r="C67" s="391"/>
       <c r="D67" s="32" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="386"/>
+      <c r="C68" s="391"/>
       <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
@@ -12205,7 +12904,7 @@
       <c r="E69" s="18"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="391">
+      <c r="C70" s="387">
         <v>2</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -12214,35 +12913,35 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="389"/>
+      <c r="C71" s="388"/>
       <c r="D71" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="3:5">
-      <c r="C72" s="389"/>
+      <c r="C72" s="388"/>
       <c r="D72" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="389"/>
+      <c r="C73" s="388"/>
       <c r="D73" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="389"/>
+      <c r="C74" s="388"/>
       <c r="D74" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="49"/>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="385">
+      <c r="C75" s="390">
         <v>3</v>
       </c>
       <c r="D75" s="44" t="s">
@@ -12251,42 +12950,42 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="386"/>
+      <c r="C76" s="391"/>
       <c r="D76" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="386"/>
+      <c r="C77" s="391"/>
       <c r="D77" s="33" t="s">
         <v>72</v>
       </c>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="386"/>
+      <c r="C78" s="391"/>
       <c r="D78" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E78" s="18"/>
     </row>
     <row r="79" spans="3:5">
-      <c r="C79" s="386"/>
+      <c r="C79" s="391"/>
       <c r="D79" s="33" t="s">
         <v>74</v>
       </c>
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C80" s="387"/>
+      <c r="C80" s="401"/>
       <c r="D80" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="3:5">
-      <c r="C81" s="388">
+      <c r="C81" s="402">
         <v>4</v>
       </c>
       <c r="D81" s="57" t="s">
@@ -12295,63 +12994,63 @@
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="389"/>
+      <c r="C82" s="388"/>
       <c r="D82" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E82" s="48"/>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="389"/>
+      <c r="C83" s="388"/>
       <c r="D83" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="3:5">
-      <c r="C84" s="389"/>
+      <c r="C84" s="388"/>
       <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="48"/>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="389"/>
+      <c r="C85" s="388"/>
       <c r="D85" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="48"/>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="389"/>
+      <c r="C86" s="388"/>
       <c r="D86" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="48"/>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="389"/>
+      <c r="C87" s="388"/>
       <c r="D87" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="389"/>
+      <c r="C88" s="388"/>
       <c r="D88" s="34" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="48"/>
     </row>
     <row r="89" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C89" s="390"/>
+      <c r="C89" s="403"/>
       <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="3:5">
-      <c r="C90" s="385">
+      <c r="C90" s="390">
         <v>5</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -12360,28 +13059,28 @@
       <c r="E90" s="18"/>
     </row>
     <row r="91" spans="3:5">
-      <c r="C91" s="386"/>
+      <c r="C91" s="391"/>
       <c r="D91" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="3:5">
-      <c r="C92" s="386"/>
+      <c r="C92" s="391"/>
       <c r="D92" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="3:5">
-      <c r="C93" s="386"/>
+      <c r="C93" s="391"/>
       <c r="D93" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="3:5">
-      <c r="C94" s="391">
+      <c r="C94" s="387">
         <v>6</v>
       </c>
       <c r="D94" s="57" t="s">
@@ -12390,21 +13089,21 @@
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="389"/>
+      <c r="C95" s="388"/>
       <c r="D95" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="389"/>
+      <c r="C96" s="388"/>
       <c r="D96" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="48"/>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="385">
+      <c r="C97" s="390">
         <v>7</v>
       </c>
       <c r="D97" s="44" t="s">
@@ -12413,21 +13112,21 @@
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="386"/>
+      <c r="C98" s="391"/>
       <c r="D98" s="32" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="18"/>
     </row>
     <row r="99" spans="3:5">
-      <c r="C99" s="386"/>
+      <c r="C99" s="391"/>
       <c r="D99" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="18"/>
     </row>
     <row r="100" spans="3:5">
-      <c r="C100" s="386"/>
+      <c r="C100" s="391"/>
       <c r="D100" s="32" t="s">
         <v>94</v>
       </c>
@@ -12441,7 +13140,7 @@
       <c r="E101" s="18"/>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="391">
+      <c r="C102" s="387">
         <v>8</v>
       </c>
       <c r="D102" s="57" t="s">
@@ -12450,21 +13149,21 @@
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="3:5">
-      <c r="C103" s="389"/>
+      <c r="C103" s="388"/>
       <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="3:5">
-      <c r="C104" s="389"/>
+      <c r="C104" s="388"/>
       <c r="D104" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="48"/>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="385" t="s">
+      <c r="C105" s="390" t="s">
         <v>99</v>
       </c>
       <c r="D105" s="58" t="s">
@@ -12475,23 +13174,12 @@
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="386"/>
+      <c r="C106" s="391"/>
       <c r="D106" s="38"/>
       <c r="E106" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C75:C80"/>
     <mergeCell ref="C81:C89"/>
@@ -12499,6 +13187,17 @@
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C27:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
@@ -12548,12 +13247,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="404" t="s">
         <v>393</v>
       </c>
-      <c r="C7" s="402"/>
-      <c r="D7" s="402"/>
-      <c r="E7" s="402"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="404"/>
+      <c r="E7" s="404"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -14209,12 +14908,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="404" t="s">
         <v>410</v>
       </c>
-      <c r="C7" s="402"/>
-      <c r="D7" s="402"/>
-      <c r="E7" s="402"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="404"/>
+      <c r="E7" s="404"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -14236,25 +14935,25 @@
         <v>347</v>
       </c>
       <c r="H10" s="272" t="s">
+        <v>415</v>
+      </c>
+      <c r="I10" s="272" t="s">
         <v>416</v>
       </c>
-      <c r="I10" s="272" t="s">
+      <c r="J10" s="273" t="s">
         <v>417</v>
       </c>
-      <c r="J10" s="273" t="s">
+      <c r="K10" s="273" t="s">
         <v>418</v>
       </c>
-      <c r="K10" s="273" t="s">
+      <c r="L10" s="273" t="s">
         <v>419</v>
       </c>
-      <c r="L10" s="273" t="s">
+      <c r="M10" s="273" t="s">
         <v>420</v>
       </c>
-      <c r="M10" s="273" t="s">
+      <c r="N10" s="274" t="s">
         <v>421</v>
-      </c>
-      <c r="N10" s="274" t="s">
-        <v>422</v>
       </c>
       <c r="O10" s="311" t="s">
         <v>284</v>
@@ -15699,10 +16398,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:O119"/>
+  <dimension ref="B2:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15740,12 +16439,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="404" t="s">
         <v>413</v>
       </c>
-      <c r="C7" s="402"/>
-      <c r="D7" s="402"/>
-      <c r="E7" s="402"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="404"/>
+      <c r="E7" s="404"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -15767,25 +16466,25 @@
         <v>347</v>
       </c>
       <c r="H10" s="272" t="s">
+        <v>425</v>
+      </c>
+      <c r="I10" s="272" t="s">
         <v>426</v>
       </c>
-      <c r="I10" s="272" t="s">
+      <c r="J10" s="273" t="s">
         <v>427</v>
       </c>
-      <c r="J10" s="273" t="s">
+      <c r="K10" s="273" t="s">
         <v>428</v>
       </c>
-      <c r="K10" s="273" t="s">
+      <c r="L10" s="273" t="s">
         <v>429</v>
       </c>
-      <c r="L10" s="273" t="s">
+      <c r="M10" s="273" t="s">
         <v>430</v>
       </c>
-      <c r="M10" s="273" t="s">
+      <c r="N10" s="274" t="s">
         <v>431</v>
-      </c>
-      <c r="N10" s="274" t="s">
-        <v>432</v>
       </c>
       <c r="O10" s="311" t="s">
         <v>284</v>
@@ -15830,14 +16529,30 @@
       <c r="G12" s="367">
         <v>15</v>
       </c>
-      <c r="H12" s="356"/>
-      <c r="I12" s="357"/>
-      <c r="J12" s="357"/>
-      <c r="K12" s="357"/>
-      <c r="L12" s="357"/>
-      <c r="M12" s="357"/>
-      <c r="N12" s="371"/>
-      <c r="O12" s="371"/>
+      <c r="H12" s="356">
+        <v>13</v>
+      </c>
+      <c r="I12" s="357">
+        <v>13</v>
+      </c>
+      <c r="J12" s="357">
+        <v>13</v>
+      </c>
+      <c r="K12" s="357">
+        <v>13</v>
+      </c>
+      <c r="L12" s="357">
+        <v>13</v>
+      </c>
+      <c r="M12" s="357">
+        <v>13</v>
+      </c>
+      <c r="N12" s="371">
+        <v>13</v>
+      </c>
+      <c r="O12" s="371">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="335">
@@ -15858,21 +16573,37 @@
       <c r="G13" s="367">
         <v>10</v>
       </c>
-      <c r="H13" s="356"/>
-      <c r="I13" s="357"/>
-      <c r="J13" s="357"/>
-      <c r="K13" s="357"/>
-      <c r="L13" s="356"/>
-      <c r="M13" s="356"/>
-      <c r="N13" s="371"/>
-      <c r="O13" s="371"/>
+      <c r="H13" s="356">
+        <v>10</v>
+      </c>
+      <c r="I13" s="357">
+        <v>10</v>
+      </c>
+      <c r="J13" s="357">
+        <v>10</v>
+      </c>
+      <c r="K13" s="357">
+        <v>10</v>
+      </c>
+      <c r="L13" s="356">
+        <v>10</v>
+      </c>
+      <c r="M13" s="356">
+        <v>10</v>
+      </c>
+      <c r="N13" s="371">
+        <v>10</v>
+      </c>
+      <c r="O13" s="371">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="338">
         <v>4</v>
       </c>
-      <c r="C14" s="403" t="s">
-        <v>415</v>
+      <c r="C14" s="363" t="s">
+        <v>422</v>
       </c>
       <c r="D14" s="365" t="s">
         <v>125</v>
@@ -15881,54 +16612,86 @@
         <v>351</v>
       </c>
       <c r="F14" s="365" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G14" s="367">
-        <v>30</v>
-      </c>
-      <c r="H14" s="373"/>
-      <c r="I14" s="373"/>
-      <c r="J14" s="373"/>
-      <c r="K14" s="373"/>
-      <c r="L14" s="373"/>
-      <c r="M14" s="373"/>
-      <c r="N14" s="371"/>
-      <c r="O14" s="371"/>
+        <v>20</v>
+      </c>
+      <c r="H14" s="373">
+        <v>18</v>
+      </c>
+      <c r="I14" s="373">
+        <v>15</v>
+      </c>
+      <c r="J14" s="373">
+        <v>13</v>
+      </c>
+      <c r="K14" s="373">
+        <v>9</v>
+      </c>
+      <c r="L14" s="373">
+        <v>6</v>
+      </c>
+      <c r="M14" s="373">
+        <v>3</v>
+      </c>
+      <c r="N14" s="371">
+        <v>0</v>
+      </c>
+      <c r="O14" s="371">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="335">
         <v>5</v>
       </c>
-      <c r="C15" s="363" t="s">
-        <v>423</v>
+      <c r="C15" s="385" t="s">
+        <v>433</v>
       </c>
       <c r="D15" s="289" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E15" s="336" t="s">
         <v>349</v>
       </c>
       <c r="F15" s="359" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G15" s="360">
         <v>20</v>
       </c>
-      <c r="H15" s="326"/>
-      <c r="I15" s="339"/>
-      <c r="J15" s="339"/>
-      <c r="K15" s="339"/>
-      <c r="L15" s="339"/>
-      <c r="M15" s="331"/>
-      <c r="N15" s="362"/>
-      <c r="O15" s="362"/>
+      <c r="H15" s="326">
+        <v>18</v>
+      </c>
+      <c r="I15" s="339">
+        <v>15</v>
+      </c>
+      <c r="J15" s="339">
+        <v>13</v>
+      </c>
+      <c r="K15" s="339">
+        <v>8</v>
+      </c>
+      <c r="L15" s="339">
+        <v>6</v>
+      </c>
+      <c r="M15" s="331">
+        <v>3</v>
+      </c>
+      <c r="N15" s="362">
+        <v>0</v>
+      </c>
+      <c r="O15" s="362">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:15" s="197" customFormat="1">
       <c r="B16" s="338">
         <v>6</v>
       </c>
       <c r="C16" s="368" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D16" s="354" t="s">
         <v>125</v>
@@ -15937,26 +16700,42 @@
         <v>349</v>
       </c>
       <c r="F16" s="369" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G16" s="367">
         <v>20</v>
       </c>
-      <c r="H16" s="356"/>
-      <c r="I16" s="357"/>
-      <c r="J16" s="357"/>
-      <c r="K16" s="357"/>
-      <c r="L16" s="357"/>
-      <c r="M16" s="357"/>
-      <c r="N16" s="371"/>
-      <c r="O16" s="371"/>
+      <c r="H16" s="356">
+        <v>18</v>
+      </c>
+      <c r="I16" s="357">
+        <v>16</v>
+      </c>
+      <c r="J16" s="357">
+        <v>14</v>
+      </c>
+      <c r="K16" s="357">
+        <v>10</v>
+      </c>
+      <c r="L16" s="357">
+        <v>7</v>
+      </c>
+      <c r="M16" s="357">
+        <v>3</v>
+      </c>
+      <c r="N16" s="371">
+        <v>0</v>
+      </c>
+      <c r="O16" s="371">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:15" s="197" customFormat="1">
       <c r="B17" s="335">
         <v>7</v>
       </c>
       <c r="C17" s="368" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D17" s="354" t="s">
         <v>107</v>
@@ -15970,14 +16749,30 @@
       <c r="G17" s="367">
         <v>15</v>
       </c>
-      <c r="H17" s="356"/>
-      <c r="I17" s="357"/>
-      <c r="J17" s="357"/>
-      <c r="K17" s="357"/>
-      <c r="L17" s="357"/>
-      <c r="M17" s="357"/>
-      <c r="N17" s="371"/>
-      <c r="O17" s="371"/>
+      <c r="H17" s="356">
+        <v>14</v>
+      </c>
+      <c r="I17" s="357">
+        <v>12</v>
+      </c>
+      <c r="J17" s="357">
+        <v>10</v>
+      </c>
+      <c r="K17" s="357">
+        <v>10</v>
+      </c>
+      <c r="L17" s="357">
+        <v>10</v>
+      </c>
+      <c r="M17" s="357">
+        <v>10</v>
+      </c>
+      <c r="N17" s="371">
+        <v>10</v>
+      </c>
+      <c r="O17" s="371">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="2:15" s="197" customFormat="1">
       <c r="B18" s="338">
@@ -16012,20 +16807,20 @@
       <c r="E19" s="355" t="s">
         <v>350</v>
       </c>
-      <c r="F19" s="369" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="367">
+      <c r="F19" s="405" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="406">
         <v>12</v>
       </c>
-      <c r="H19" s="326"/>
-      <c r="I19" s="339"/>
-      <c r="J19" s="339"/>
-      <c r="K19" s="339"/>
-      <c r="L19" s="339"/>
-      <c r="M19" s="331"/>
-      <c r="N19" s="362"/>
-      <c r="O19" s="362"/>
+      <c r="H19" s="407"/>
+      <c r="I19" s="413"/>
+      <c r="J19" s="413"/>
+      <c r="K19" s="413"/>
+      <c r="L19" s="413"/>
+      <c r="M19" s="414"/>
+      <c r="N19" s="409"/>
+      <c r="O19" s="409"/>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="338">
@@ -16041,19 +16836,35 @@
         <v>350</v>
       </c>
       <c r="F20" s="369" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G20" s="367">
         <v>10</v>
       </c>
-      <c r="H20" s="356"/>
-      <c r="I20" s="357"/>
-      <c r="J20" s="357"/>
-      <c r="K20" s="357"/>
-      <c r="L20" s="357"/>
-      <c r="M20" s="357"/>
-      <c r="N20" s="371"/>
-      <c r="O20" s="371"/>
+      <c r="H20" s="356">
+        <v>9</v>
+      </c>
+      <c r="I20" s="357">
+        <v>7</v>
+      </c>
+      <c r="J20" s="357">
+        <v>6</v>
+      </c>
+      <c r="K20" s="357">
+        <v>5</v>
+      </c>
+      <c r="L20" s="357">
+        <v>3</v>
+      </c>
+      <c r="M20" s="357">
+        <v>1</v>
+      </c>
+      <c r="N20" s="371">
+        <v>0</v>
+      </c>
+      <c r="O20" s="371">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="335">
@@ -16068,20 +16879,20 @@
       <c r="E21" s="355" t="s">
         <v>350</v>
       </c>
-      <c r="F21" s="369" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="367">
+      <c r="F21" s="405" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="406">
         <v>12</v>
       </c>
-      <c r="H21" s="356"/>
-      <c r="I21" s="357"/>
-      <c r="J21" s="357"/>
-      <c r="K21" s="357"/>
-      <c r="L21" s="357"/>
-      <c r="M21" s="357"/>
-      <c r="N21" s="371"/>
-      <c r="O21" s="371"/>
+      <c r="H21" s="410"/>
+      <c r="I21" s="411"/>
+      <c r="J21" s="411"/>
+      <c r="K21" s="411"/>
+      <c r="L21" s="411"/>
+      <c r="M21" s="411"/>
+      <c r="N21" s="412"/>
+      <c r="O21" s="412"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="338">
@@ -16097,102 +16908,150 @@
         <v>350</v>
       </c>
       <c r="F22" s="369" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G22" s="367">
         <v>10</v>
       </c>
-      <c r="H22" s="373"/>
-      <c r="I22" s="373"/>
-      <c r="J22" s="373"/>
-      <c r="K22" s="373"/>
-      <c r="L22" s="373"/>
-      <c r="M22" s="373"/>
-      <c r="N22" s="371"/>
-      <c r="O22" s="371"/>
+      <c r="H22" s="373">
+        <v>9</v>
+      </c>
+      <c r="I22" s="373">
+        <v>7</v>
+      </c>
+      <c r="J22" s="373">
+        <v>6</v>
+      </c>
+      <c r="K22" s="373">
+        <v>5</v>
+      </c>
+      <c r="L22" s="373">
+        <v>3</v>
+      </c>
+      <c r="M22" s="373">
+        <v>1</v>
+      </c>
+      <c r="N22" s="371">
+        <v>0</v>
+      </c>
+      <c r="O22" s="371">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="335">
         <v>13</v>
       </c>
-      <c r="C23" s="404" t="s">
-        <v>388</v>
-      </c>
-      <c r="D23" s="354"/>
-      <c r="E23" s="355"/>
-      <c r="F23" s="369"/>
-      <c r="G23" s="367"/>
-      <c r="H23" s="356"/>
-      <c r="I23" s="357"/>
-      <c r="J23" s="357"/>
-      <c r="K23" s="357"/>
-      <c r="L23" s="357"/>
-      <c r="M23" s="357"/>
-      <c r="N23" s="371"/>
-      <c r="O23" s="371"/>
+      <c r="C23" s="385" t="s">
+        <v>432</v>
+      </c>
+      <c r="D23" s="365" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="355" t="s">
+        <v>350</v>
+      </c>
+      <c r="F23" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="367">
+        <v>15</v>
+      </c>
+      <c r="H23" s="373">
+        <v>13</v>
+      </c>
+      <c r="I23" s="373">
+        <v>12</v>
+      </c>
+      <c r="J23" s="373">
+        <v>10</v>
+      </c>
+      <c r="K23" s="373">
+        <v>7</v>
+      </c>
+      <c r="L23" s="373">
+        <v>4</v>
+      </c>
+      <c r="M23" s="373">
+        <v>2</v>
+      </c>
+      <c r="N23" s="371">
+        <v>0</v>
+      </c>
+      <c r="O23" s="371">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="338">
         <v>14</v>
       </c>
-      <c r="C24" s="372" t="s">
-        <v>391</v>
-      </c>
-      <c r="D24" s="354" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="355" t="s">
-        <v>352</v>
-      </c>
-      <c r="F24" s="369" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="367">
-        <v>5</v>
-      </c>
-      <c r="H24" s="326"/>
-      <c r="I24" s="339"/>
-      <c r="J24" s="339"/>
-      <c r="K24" s="339"/>
-      <c r="L24" s="339"/>
-      <c r="M24" s="331"/>
-      <c r="N24" s="362"/>
-      <c r="O24" s="362"/>
+      <c r="C24" s="386" t="s">
+        <v>388</v>
+      </c>
+      <c r="D24" s="354"/>
+      <c r="E24" s="355"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="367"/>
+      <c r="H24" s="356"/>
+      <c r="I24" s="357"/>
+      <c r="J24" s="357"/>
+      <c r="K24" s="357"/>
+      <c r="L24" s="357"/>
+      <c r="M24" s="357"/>
+      <c r="N24" s="371"/>
+      <c r="O24" s="371"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="335">
         <v>15</v>
       </c>
-      <c r="C25" s="368" t="s">
-        <v>390</v>
+      <c r="C25" s="385" t="s">
+        <v>432</v>
       </c>
       <c r="D25" s="354" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E25" s="355" t="s">
         <v>352</v>
       </c>
       <c r="F25" s="369" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G25" s="367">
+        <v>15</v>
+      </c>
+      <c r="H25" s="356">
+        <v>13</v>
+      </c>
+      <c r="I25" s="357">
         <v>12</v>
       </c>
-      <c r="H25" s="326"/>
-      <c r="I25" s="326"/>
-      <c r="J25" s="326"/>
-      <c r="K25" s="326"/>
-      <c r="L25" s="326"/>
-      <c r="M25" s="333"/>
-      <c r="N25" s="362"/>
-      <c r="O25" s="362"/>
+      <c r="J25" s="357">
+        <v>10</v>
+      </c>
+      <c r="K25" s="357">
+        <v>7</v>
+      </c>
+      <c r="L25" s="357">
+        <v>4</v>
+      </c>
+      <c r="M25" s="357">
+        <v>2</v>
+      </c>
+      <c r="N25" s="371">
+        <v>0</v>
+      </c>
+      <c r="O25" s="371">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="338">
         <v>16</v>
       </c>
-      <c r="C26" s="368" t="s">
-        <v>408</v>
+      <c r="C26" s="372" t="s">
+        <v>391</v>
       </c>
       <c r="D26" s="354" t="s">
         <v>107</v>
@@ -16201,57 +17060,109 @@
         <v>352</v>
       </c>
       <c r="F26" s="369" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G26" s="367">
-        <v>20</v>
-      </c>
-      <c r="H26" s="326"/>
-      <c r="I26" s="326"/>
-      <c r="J26" s="326"/>
-      <c r="K26" s="326"/>
-      <c r="L26" s="326"/>
-      <c r="M26" s="333"/>
-      <c r="N26" s="362"/>
-      <c r="O26" s="362"/>
-    </row>
-    <row r="27" spans="2:15" ht="21.75" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="326">
+        <v>5</v>
+      </c>
+      <c r="I26" s="339">
+        <v>4</v>
+      </c>
+      <c r="J26" s="339">
+        <v>2</v>
+      </c>
+      <c r="K26" s="339">
+        <v>1</v>
+      </c>
+      <c r="L26" s="339">
+        <v>0</v>
+      </c>
+      <c r="M26" s="331">
+        <v>0</v>
+      </c>
+      <c r="N26" s="362">
+        <v>0</v>
+      </c>
+      <c r="O26" s="362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
       <c r="B27" s="335">
         <v>17</v>
       </c>
-      <c r="C27" s="366"/>
-      <c r="D27" s="365"/>
-      <c r="E27" s="366"/>
-      <c r="F27" s="365"/>
-      <c r="G27" s="367"/>
-      <c r="H27" s="356"/>
-      <c r="I27" s="356"/>
-      <c r="J27" s="356"/>
-      <c r="K27" s="356"/>
-      <c r="L27" s="356"/>
-      <c r="M27" s="356"/>
-      <c r="N27" s="371"/>
-      <c r="O27" s="371"/>
+      <c r="C27" s="368" t="s">
+        <v>390</v>
+      </c>
+      <c r="D27" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="355" t="s">
+        <v>352</v>
+      </c>
+      <c r="F27" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="367">
+        <v>12</v>
+      </c>
+      <c r="H27" s="326">
+        <v>10</v>
+      </c>
+      <c r="I27" s="326">
+        <v>8</v>
+      </c>
+      <c r="J27" s="326">
+        <v>6</v>
+      </c>
+      <c r="K27" s="326">
+        <v>5</v>
+      </c>
+      <c r="L27" s="326">
+        <v>3</v>
+      </c>
+      <c r="M27" s="333">
+        <v>1</v>
+      </c>
+      <c r="N27" s="362">
+        <v>0</v>
+      </c>
+      <c r="O27" s="362">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="338">
         <v>18</v>
       </c>
-      <c r="C28" s="366"/>
-      <c r="D28" s="365"/>
-      <c r="E28" s="366"/>
-      <c r="F28" s="365"/>
-      <c r="G28" s="367"/>
-      <c r="H28" s="373"/>
-      <c r="I28" s="373"/>
-      <c r="J28" s="373"/>
-      <c r="K28" s="373"/>
-      <c r="L28" s="373"/>
-      <c r="M28" s="373"/>
-      <c r="N28" s="371"/>
-      <c r="O28" s="371"/>
-    </row>
-    <row r="29" spans="2:15">
+      <c r="C28" s="368" t="s">
+        <v>408</v>
+      </c>
+      <c r="D28" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="355" t="s">
+        <v>352</v>
+      </c>
+      <c r="F28" s="405" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="406">
+        <v>20</v>
+      </c>
+      <c r="H28" s="407"/>
+      <c r="I28" s="407"/>
+      <c r="J28" s="407"/>
+      <c r="K28" s="407"/>
+      <c r="L28" s="407"/>
+      <c r="M28" s="408"/>
+      <c r="N28" s="409"/>
+      <c r="O28" s="409"/>
+    </row>
+    <row r="29" spans="2:15" ht="21.75" customHeight="1">
       <c r="B29" s="335">
         <v>19</v>
       </c>
@@ -16260,12 +17171,12 @@
       <c r="E29" s="366"/>
       <c r="F29" s="365"/>
       <c r="G29" s="367"/>
-      <c r="H29" s="373"/>
-      <c r="I29" s="373"/>
-      <c r="J29" s="373"/>
-      <c r="K29" s="373"/>
-      <c r="L29" s="373"/>
-      <c r="M29" s="373"/>
+      <c r="H29" s="356"/>
+      <c r="I29" s="356"/>
+      <c r="J29" s="356"/>
+      <c r="K29" s="356"/>
+      <c r="L29" s="356"/>
+      <c r="M29" s="356"/>
       <c r="N29" s="371"/>
       <c r="O29" s="371"/>
     </row>
@@ -16332,32 +17243,32 @@
       <c r="E33" s="366"/>
       <c r="F33" s="365"/>
       <c r="G33" s="367"/>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326"/>
-      <c r="J33" s="326"/>
-      <c r="K33" s="326"/>
-      <c r="L33" s="326"/>
-      <c r="M33" s="333"/>
-      <c r="N33" s="362"/>
-      <c r="O33" s="362"/>
+      <c r="H33" s="373"/>
+      <c r="I33" s="373"/>
+      <c r="J33" s="373"/>
+      <c r="K33" s="373"/>
+      <c r="L33" s="373"/>
+      <c r="M33" s="373"/>
+      <c r="N33" s="371"/>
+      <c r="O33" s="371"/>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="338">
         <v>24</v>
       </c>
-      <c r="C34" s="375"/>
-      <c r="D34" s="289"/>
-      <c r="E34" s="336"/>
-      <c r="F34" s="359"/>
-      <c r="G34" s="360"/>
-      <c r="H34" s="326"/>
-      <c r="I34" s="326"/>
-      <c r="J34" s="326"/>
-      <c r="K34" s="326"/>
-      <c r="L34" s="326"/>
-      <c r="M34" s="333"/>
-      <c r="N34" s="362"/>
-      <c r="O34" s="362"/>
+      <c r="C34" s="366"/>
+      <c r="D34" s="365"/>
+      <c r="E34" s="366"/>
+      <c r="F34" s="365"/>
+      <c r="G34" s="367"/>
+      <c r="H34" s="373"/>
+      <c r="I34" s="373"/>
+      <c r="J34" s="373"/>
+      <c r="K34" s="373"/>
+      <c r="L34" s="373"/>
+      <c r="M34" s="373"/>
+      <c r="N34" s="371"/>
+      <c r="O34" s="371"/>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="335">
@@ -16381,11 +17292,11 @@
       <c r="B36" s="338">
         <v>26</v>
       </c>
-      <c r="C36" s="366"/>
-      <c r="D36" s="365"/>
-      <c r="E36" s="366"/>
-      <c r="F36" s="365"/>
-      <c r="G36" s="367"/>
+      <c r="C36" s="375"/>
+      <c r="D36" s="289"/>
+      <c r="E36" s="336"/>
+      <c r="F36" s="359"/>
+      <c r="G36" s="360"/>
       <c r="H36" s="326"/>
       <c r="I36" s="326"/>
       <c r="J36" s="326"/>
@@ -16669,11 +17580,11 @@
       <c r="B52" s="338">
         <v>42</v>
       </c>
-      <c r="C52" s="363"/>
-      <c r="D52" s="289"/>
-      <c r="E52" s="336"/>
-      <c r="F52" s="359"/>
-      <c r="G52" s="360"/>
+      <c r="C52" s="366"/>
+      <c r="D52" s="365"/>
+      <c r="E52" s="366"/>
+      <c r="F52" s="365"/>
+      <c r="G52" s="367"/>
       <c r="H52" s="326"/>
       <c r="I52" s="326"/>
       <c r="J52" s="326"/>
@@ -16687,74 +17598,80 @@
       <c r="B53" s="335">
         <v>43</v>
       </c>
-      <c r="C53" s="376"/>
-      <c r="D53" s="289"/>
-      <c r="E53" s="336"/>
-      <c r="F53" s="359"/>
-      <c r="G53" s="360"/>
-      <c r="H53" s="360"/>
-      <c r="I53" s="360"/>
-      <c r="J53" s="360"/>
-      <c r="K53" s="360"/>
-      <c r="L53" s="360"/>
-      <c r="M53" s="377"/>
+      <c r="C53" s="366"/>
+      <c r="D53" s="365"/>
+      <c r="E53" s="366"/>
+      <c r="F53" s="365"/>
+      <c r="G53" s="367"/>
+      <c r="H53" s="326"/>
+      <c r="I53" s="326"/>
+      <c r="J53" s="326"/>
+      <c r="K53" s="326"/>
+      <c r="L53" s="326"/>
+      <c r="M53" s="333"/>
       <c r="N53" s="362"/>
       <c r="O53" s="362"/>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="378" t="s">
+      <c r="B54" s="338">
+        <v>44</v>
+      </c>
+      <c r="C54" s="363"/>
+      <c r="D54" s="289"/>
+      <c r="E54" s="336"/>
+      <c r="F54" s="359"/>
+      <c r="G54" s="360"/>
+      <c r="H54" s="326"/>
+      <c r="I54" s="326"/>
+      <c r="J54" s="326"/>
+      <c r="K54" s="326"/>
+      <c r="L54" s="326"/>
+      <c r="M54" s="333"/>
+      <c r="N54" s="362"/>
+      <c r="O54" s="362"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="335">
+        <v>45</v>
+      </c>
+      <c r="C55" s="376"/>
+      <c r="D55" s="289"/>
+      <c r="E55" s="336"/>
+      <c r="F55" s="359"/>
+      <c r="G55" s="360"/>
+      <c r="H55" s="360"/>
+      <c r="I55" s="360"/>
+      <c r="J55" s="360"/>
+      <c r="K55" s="360"/>
+      <c r="L55" s="360"/>
+      <c r="M55" s="377"/>
+      <c r="N55" s="362"/>
+      <c r="O55" s="362"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="378" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="379"/>
-      <c r="D54" s="348"/>
-      <c r="E54" s="380"/>
-      <c r="F54" s="381"/>
-      <c r="G54" s="382"/>
-      <c r="H54" s="382"/>
-      <c r="I54" s="382"/>
-      <c r="J54" s="382"/>
-      <c r="K54" s="382"/>
-      <c r="L54" s="382"/>
-      <c r="M54" s="383"/>
-      <c r="N54" s="384"/>
-      <c r="O54" s="384"/>
-    </row>
-    <row r="101" spans="2:15" s="97" customFormat="1">
-      <c r="B101" t="s">
+      <c r="C56" s="379"/>
+      <c r="D56" s="348"/>
+      <c r="E56" s="380"/>
+      <c r="F56" s="381"/>
+      <c r="G56" s="382"/>
+      <c r="H56" s="382"/>
+      <c r="I56" s="382"/>
+      <c r="J56" s="382"/>
+      <c r="K56" s="382"/>
+      <c r="L56" s="382"/>
+      <c r="M56" s="383"/>
+      <c r="N56" s="384"/>
+      <c r="O56" s="384"/>
+    </row>
+    <row r="103" spans="2:15" s="97" customFormat="1">
+      <c r="B103" t="s">
         <v>104</v>
       </c>
-      <c r="C101" s="63" t="s">
+      <c r="C103" s="63" t="s">
         <v>107</v>
-      </c>
-      <c r="E101"/>
-      <c r="H101"/>
-      <c r="I101"/>
-      <c r="J101"/>
-      <c r="K101"/>
-      <c r="L101"/>
-      <c r="M101"/>
-      <c r="N101"/>
-      <c r="O101"/>
-    </row>
-    <row r="102" spans="2:15" s="97" customFormat="1">
-      <c r="B102"/>
-      <c r="C102" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="E102"/>
-      <c r="H102"/>
-      <c r="I102"/>
-      <c r="J102"/>
-      <c r="K102"/>
-      <c r="L102"/>
-      <c r="M102"/>
-      <c r="N102"/>
-      <c r="O102"/>
-    </row>
-    <row r="103" spans="2:15" s="97" customFormat="1">
-      <c r="B103"/>
-      <c r="C103" s="63" t="s">
-        <v>109</v>
       </c>
       <c r="E103"/>
       <c r="H103"/>
@@ -16769,7 +17686,7 @@
     <row r="104" spans="2:15" s="97" customFormat="1">
       <c r="B104"/>
       <c r="C104" s="63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E104"/>
       <c r="H104"/>
@@ -16783,8 +17700,8 @@
     </row>
     <row r="105" spans="2:15" s="97" customFormat="1">
       <c r="B105"/>
-      <c r="C105" s="64" t="s">
-        <v>125</v>
+      <c r="C105" s="63" t="s">
+        <v>109</v>
       </c>
       <c r="E105"/>
       <c r="H105"/>
@@ -16797,10 +17714,10 @@
       <c r="O105"/>
     </row>
     <row r="106" spans="2:15" s="97" customFormat="1">
-      <c r="B106" t="s">
-        <v>111</v>
-      </c>
-      <c r="C106"/>
+      <c r="B106"/>
+      <c r="C106" s="63" t="s">
+        <v>110</v>
+      </c>
       <c r="E106"/>
       <c r="H106"/>
       <c r="I106"/>
@@ -16814,7 +17731,7 @@
     <row r="107" spans="2:15" s="97" customFormat="1">
       <c r="B107"/>
       <c r="C107" s="64" t="s">
-        <v>349</v>
+        <v>125</v>
       </c>
       <c r="E107"/>
       <c r="H107"/>
@@ -16827,10 +17744,10 @@
       <c r="O107"/>
     </row>
     <row r="108" spans="2:15" s="97" customFormat="1">
-      <c r="B108"/>
-      <c r="C108" s="64" t="s">
-        <v>350</v>
-      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108"/>
       <c r="E108"/>
       <c r="H108"/>
       <c r="I108"/>
@@ -16844,7 +17761,7 @@
     <row r="109" spans="2:15" s="97" customFormat="1">
       <c r="B109"/>
       <c r="C109" s="64" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E109"/>
       <c r="H109"/>
@@ -16859,7 +17776,7 @@
     <row r="110" spans="2:15" s="97" customFormat="1">
       <c r="B110"/>
       <c r="C110" s="64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E110"/>
       <c r="H110"/>
@@ -16874,7 +17791,7 @@
     <row r="111" spans="2:15" s="97" customFormat="1">
       <c r="B111"/>
       <c r="C111" s="64" t="s">
-        <v>116</v>
+        <v>351</v>
       </c>
       <c r="E111"/>
       <c r="H111"/>
@@ -16886,11 +17803,26 @@
       <c r="N111"/>
       <c r="O111"/>
     </row>
+    <row r="112" spans="2:15" s="97" customFormat="1">
+      <c r="B112"/>
+      <c r="C112" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="E112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+    </row>
     <row r="113" spans="2:15" s="97" customFormat="1">
-      <c r="B113" t="s">
-        <v>106</v>
-      </c>
-      <c r="C113"/>
+      <c r="B113"/>
+      <c r="C113" s="64" t="s">
+        <v>116</v>
+      </c>
       <c r="E113"/>
       <c r="H113"/>
       <c r="I113"/>
@@ -16901,26 +17833,11 @@
       <c r="N113"/>
       <c r="O113"/>
     </row>
-    <row r="114" spans="2:15" s="97" customFormat="1">
-      <c r="B114"/>
-      <c r="C114" s="64" t="s">
-        <v>339</v>
-      </c>
-      <c r="E114"/>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="J114"/>
-      <c r="K114"/>
-      <c r="L114"/>
-      <c r="M114"/>
-      <c r="N114"/>
-      <c r="O114"/>
-    </row>
     <row r="115" spans="2:15" s="97" customFormat="1">
-      <c r="B115"/>
-      <c r="C115" s="64" t="s">
-        <v>117</v>
-      </c>
+      <c r="B115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115"/>
       <c r="E115"/>
       <c r="H115"/>
       <c r="I115"/>
@@ -16934,7 +17851,7 @@
     <row r="116" spans="2:15" s="97" customFormat="1">
       <c r="B116"/>
       <c r="C116" s="64" t="s">
-        <v>118</v>
+        <v>339</v>
       </c>
       <c r="E116"/>
       <c r="H116"/>
@@ -16949,7 +17866,7 @@
     <row r="117" spans="2:15" s="97" customFormat="1">
       <c r="B117"/>
       <c r="C117" s="64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E117"/>
       <c r="H117"/>
@@ -16964,7 +17881,7 @@
     <row r="118" spans="2:15" s="97" customFormat="1">
       <c r="B118"/>
       <c r="C118" s="64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E118"/>
       <c r="H118"/>
@@ -16979,7 +17896,7 @@
     <row r="119" spans="2:15" s="97" customFormat="1">
       <c r="B119"/>
       <c r="C119" s="64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E119"/>
       <c r="H119"/>
@@ -16991,22 +17908,1361 @@
       <c r="N119"/>
       <c r="O119"/>
     </row>
+    <row r="120" spans="2:15" s="97" customFormat="1">
+      <c r="B120"/>
+      <c r="C120" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+    </row>
+    <row r="121" spans="2:15" s="97" customFormat="1">
+      <c r="B121"/>
+      <c r="C121" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B7:E7"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F26 F34 F52:F54 F11:F12">
-      <formula1>$C$114:$C$119</formula1>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54:F56 F11:F39">
+      <formula1>$C$116:$C$121</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E15:E26 E34 E52:E54 E11:E12">
-      <formula1>$C$107:$C$111</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E54:E56 E11:E33 E36">
+      <formula1>$C$109:$C$113</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:D26 D15:D21 D52:D54 D34 D11:D12">
-      <formula1>$C$101:$C$105</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D28 D15:D21 D54:D56 D36 D11:D12">
+      <formula1>$C$103:$C$107</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F55:F91">
-      <formula1>$C$115:$C$119</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57:F93">
+      <formula1>$C$117:$C$121</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="28" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:O121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="97" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" style="97" customWidth="1"/>
+    <col min="8" max="15" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="18">
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="3" spans="2:15" ht="18">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="C4" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="C5" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" ht="18">
+      <c r="B7" s="404" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" s="404"/>
+      <c r="D7" s="404"/>
+      <c r="E7" s="404"/>
+    </row>
+    <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
+      <c r="B10" s="275" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="276" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="276" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="276" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="276" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="310" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="272" t="s">
+        <v>435</v>
+      </c>
+      <c r="I10" s="272" t="s">
+        <v>436</v>
+      </c>
+      <c r="J10" s="273" t="s">
+        <v>437</v>
+      </c>
+      <c r="K10" s="273" t="s">
+        <v>438</v>
+      </c>
+      <c r="L10" s="273" t="s">
+        <v>439</v>
+      </c>
+      <c r="M10" s="273" t="s">
+        <v>440</v>
+      </c>
+      <c r="N10" s="274" t="s">
+        <v>441</v>
+      </c>
+      <c r="O10" s="311" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="338">
+        <v>2</v>
+      </c>
+      <c r="C11" s="368" t="s">
+        <v>444</v>
+      </c>
+      <c r="D11" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="355" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="367">
+        <v>30</v>
+      </c>
+      <c r="H11" s="356"/>
+      <c r="I11" s="357"/>
+      <c r="J11" s="357"/>
+      <c r="K11" s="357"/>
+      <c r="L11" s="357"/>
+      <c r="M11" s="357"/>
+      <c r="N11" s="371"/>
+      <c r="O11" s="371"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="335">
+        <v>3</v>
+      </c>
+      <c r="C12" s="372" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="366" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="367">
+        <v>20</v>
+      </c>
+      <c r="H12" s="356"/>
+      <c r="I12" s="357"/>
+      <c r="J12" s="357"/>
+      <c r="K12" s="357"/>
+      <c r="L12" s="356"/>
+      <c r="M12" s="356"/>
+      <c r="N12" s="371"/>
+      <c r="O12" s="371"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="338">
+        <v>4</v>
+      </c>
+      <c r="C13" s="385" t="s">
+        <v>443</v>
+      </c>
+      <c r="D13" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="336" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13" s="359" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="360">
+        <v>20</v>
+      </c>
+      <c r="H13" s="373"/>
+      <c r="I13" s="373"/>
+      <c r="J13" s="373"/>
+      <c r="K13" s="373"/>
+      <c r="L13" s="373"/>
+      <c r="M13" s="373"/>
+      <c r="N13" s="371"/>
+      <c r="O13" s="371"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="415"/>
+      <c r="C14" s="368" t="s">
+        <v>442</v>
+      </c>
+      <c r="D14" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F14" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="367">
+        <v>20</v>
+      </c>
+      <c r="H14" s="373"/>
+      <c r="I14" s="373"/>
+      <c r="J14" s="373"/>
+      <c r="K14" s="373"/>
+      <c r="L14" s="373"/>
+      <c r="M14" s="373"/>
+      <c r="N14" s="371"/>
+      <c r="O14" s="371"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="335">
+        <v>5</v>
+      </c>
+      <c r="C15" s="368" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="367">
+        <v>20</v>
+      </c>
+      <c r="H15" s="326"/>
+      <c r="I15" s="339"/>
+      <c r="J15" s="339"/>
+      <c r="K15" s="339"/>
+      <c r="L15" s="339"/>
+      <c r="M15" s="331"/>
+      <c r="N15" s="362"/>
+      <c r="O15" s="362"/>
+    </row>
+    <row r="16" spans="2:15" s="197" customFormat="1">
+      <c r="B16" s="338">
+        <v>6</v>
+      </c>
+      <c r="C16" s="385" t="s">
+        <v>445</v>
+      </c>
+      <c r="D16" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="366" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16" s="365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="367">
+        <v>25</v>
+      </c>
+      <c r="H16" s="356"/>
+      <c r="I16" s="357"/>
+      <c r="J16" s="357"/>
+      <c r="K16" s="357"/>
+      <c r="L16" s="357"/>
+      <c r="M16" s="357"/>
+      <c r="N16" s="371"/>
+      <c r="O16" s="371"/>
+    </row>
+    <row r="17" spans="2:15" s="197" customFormat="1">
+      <c r="B17" s="335">
+        <v>7</v>
+      </c>
+      <c r="C17" s="368" t="s">
+        <v>446</v>
+      </c>
+      <c r="D17" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="366" t="s">
+        <v>352</v>
+      </c>
+      <c r="F17" s="365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="367">
+        <v>25</v>
+      </c>
+      <c r="H17" s="356"/>
+      <c r="I17" s="357"/>
+      <c r="J17" s="357"/>
+      <c r="K17" s="357"/>
+      <c r="L17" s="357"/>
+      <c r="M17" s="357"/>
+      <c r="N17" s="371"/>
+      <c r="O17" s="371"/>
+    </row>
+    <row r="18" spans="2:15" s="197" customFormat="1">
+      <c r="B18" s="338">
+        <v>8</v>
+      </c>
+      <c r="C18" s="385" t="s">
+        <v>447</v>
+      </c>
+      <c r="D18" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="366" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" s="365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="367">
+        <v>25</v>
+      </c>
+      <c r="H18" s="356"/>
+      <c r="I18" s="357"/>
+      <c r="J18" s="357"/>
+      <c r="K18" s="356"/>
+      <c r="L18" s="356"/>
+      <c r="M18" s="356"/>
+      <c r="N18" s="371"/>
+      <c r="O18" s="371"/>
+    </row>
+    <row r="19" spans="2:15" s="197" customFormat="1">
+      <c r="B19" s="335">
+        <v>9</v>
+      </c>
+      <c r="C19" s="372" t="s">
+        <v>448</v>
+      </c>
+      <c r="D19" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="355" t="s">
+        <v>350</v>
+      </c>
+      <c r="F19" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="367">
+        <v>25</v>
+      </c>
+      <c r="H19" s="326"/>
+      <c r="I19" s="339"/>
+      <c r="J19" s="339"/>
+      <c r="K19" s="339"/>
+      <c r="L19" s="339"/>
+      <c r="M19" s="331"/>
+      <c r="N19" s="416"/>
+      <c r="O19" s="416"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="338">
+        <v>10</v>
+      </c>
+      <c r="C20" s="368"/>
+      <c r="D20" s="354"/>
+      <c r="E20" s="355"/>
+      <c r="F20" s="369"/>
+      <c r="G20" s="367"/>
+      <c r="H20" s="356"/>
+      <c r="I20" s="357"/>
+      <c r="J20" s="357"/>
+      <c r="K20" s="357"/>
+      <c r="L20" s="357"/>
+      <c r="M20" s="357"/>
+      <c r="N20" s="417"/>
+      <c r="O20" s="417"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="335">
+        <v>11</v>
+      </c>
+      <c r="C21" s="372"/>
+      <c r="D21" s="354"/>
+      <c r="E21" s="355"/>
+      <c r="F21" s="369"/>
+      <c r="G21" s="367"/>
+      <c r="H21" s="356"/>
+      <c r="I21" s="357"/>
+      <c r="J21" s="357"/>
+      <c r="K21" s="357"/>
+      <c r="L21" s="357"/>
+      <c r="M21" s="357"/>
+      <c r="N21" s="417"/>
+      <c r="O21" s="417"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="338">
+        <v>12</v>
+      </c>
+      <c r="C22" s="374"/>
+      <c r="D22" s="365"/>
+      <c r="E22" s="355"/>
+      <c r="F22" s="369"/>
+      <c r="G22" s="367"/>
+      <c r="H22" s="367"/>
+      <c r="I22" s="367"/>
+      <c r="J22" s="367"/>
+      <c r="K22" s="367"/>
+      <c r="L22" s="367"/>
+      <c r="M22" s="367"/>
+      <c r="N22" s="417"/>
+      <c r="O22" s="417"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="335">
+        <v>13</v>
+      </c>
+      <c r="C23" s="385"/>
+      <c r="D23" s="365"/>
+      <c r="E23" s="355"/>
+      <c r="F23" s="369"/>
+      <c r="G23" s="367"/>
+      <c r="H23" s="367"/>
+      <c r="I23" s="367"/>
+      <c r="J23" s="367"/>
+      <c r="K23" s="367"/>
+      <c r="L23" s="367"/>
+      <c r="M23" s="367"/>
+      <c r="N23" s="417"/>
+      <c r="O23" s="417"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="338">
+        <v>14</v>
+      </c>
+      <c r="C24" s="386"/>
+      <c r="D24" s="354"/>
+      <c r="E24" s="355"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="367"/>
+      <c r="H24" s="356"/>
+      <c r="I24" s="357"/>
+      <c r="J24" s="357"/>
+      <c r="K24" s="357"/>
+      <c r="L24" s="357"/>
+      <c r="M24" s="357"/>
+      <c r="N24" s="417"/>
+      <c r="O24" s="417"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="335">
+        <v>15</v>
+      </c>
+      <c r="C25" s="385"/>
+      <c r="D25" s="354"/>
+      <c r="E25" s="355"/>
+      <c r="F25" s="369"/>
+      <c r="G25" s="367"/>
+      <c r="H25" s="356"/>
+      <c r="I25" s="357"/>
+      <c r="J25" s="357"/>
+      <c r="K25" s="357"/>
+      <c r="L25" s="357"/>
+      <c r="M25" s="357"/>
+      <c r="N25" s="417"/>
+      <c r="O25" s="417"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="338">
+        <v>16</v>
+      </c>
+      <c r="C26" s="372"/>
+      <c r="D26" s="354"/>
+      <c r="E26" s="355"/>
+      <c r="F26" s="369"/>
+      <c r="G26" s="367"/>
+      <c r="H26" s="326"/>
+      <c r="I26" s="339"/>
+      <c r="J26" s="339"/>
+      <c r="K26" s="339"/>
+      <c r="L26" s="339"/>
+      <c r="M26" s="331"/>
+      <c r="N26" s="416"/>
+      <c r="O26" s="416"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="335">
+        <v>17</v>
+      </c>
+      <c r="C27" s="368"/>
+      <c r="D27" s="354"/>
+      <c r="E27" s="355"/>
+      <c r="F27" s="369"/>
+      <c r="G27" s="367"/>
+      <c r="H27" s="326"/>
+      <c r="I27" s="326"/>
+      <c r="J27" s="326"/>
+      <c r="K27" s="326"/>
+      <c r="L27" s="326"/>
+      <c r="M27" s="333"/>
+      <c r="N27" s="416"/>
+      <c r="O27" s="416"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="338">
+        <v>18</v>
+      </c>
+      <c r="C28" s="368"/>
+      <c r="D28" s="354"/>
+      <c r="E28" s="355"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="326"/>
+      <c r="I28" s="326"/>
+      <c r="J28" s="326"/>
+      <c r="K28" s="326"/>
+      <c r="L28" s="326"/>
+      <c r="M28" s="333"/>
+      <c r="N28" s="416"/>
+      <c r="O28" s="416"/>
+    </row>
+    <row r="29" spans="2:15" ht="21.75" customHeight="1">
+      <c r="B29" s="335">
+        <v>19</v>
+      </c>
+      <c r="C29" s="366"/>
+      <c r="D29" s="365"/>
+      <c r="E29" s="366"/>
+      <c r="F29" s="365"/>
+      <c r="G29" s="367"/>
+      <c r="H29" s="356"/>
+      <c r="I29" s="356"/>
+      <c r="J29" s="356"/>
+      <c r="K29" s="356"/>
+      <c r="L29" s="356"/>
+      <c r="M29" s="356"/>
+      <c r="N29" s="371"/>
+      <c r="O29" s="371"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="338">
+        <v>20</v>
+      </c>
+      <c r="C30" s="366"/>
+      <c r="D30" s="365"/>
+      <c r="E30" s="366"/>
+      <c r="F30" s="365"/>
+      <c r="G30" s="367"/>
+      <c r="H30" s="373"/>
+      <c r="I30" s="373"/>
+      <c r="J30" s="373"/>
+      <c r="K30" s="373"/>
+      <c r="L30" s="373"/>
+      <c r="M30" s="373"/>
+      <c r="N30" s="371"/>
+      <c r="O30" s="371"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="335">
+        <v>21</v>
+      </c>
+      <c r="C31" s="366"/>
+      <c r="D31" s="365"/>
+      <c r="E31" s="366"/>
+      <c r="F31" s="365"/>
+      <c r="G31" s="367"/>
+      <c r="H31" s="373"/>
+      <c r="I31" s="373"/>
+      <c r="J31" s="373"/>
+      <c r="K31" s="373"/>
+      <c r="L31" s="373"/>
+      <c r="M31" s="373"/>
+      <c r="N31" s="371"/>
+      <c r="O31" s="371"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="338">
+        <v>22</v>
+      </c>
+      <c r="C32" s="366"/>
+      <c r="D32" s="365"/>
+      <c r="E32" s="366"/>
+      <c r="F32" s="365"/>
+      <c r="G32" s="367"/>
+      <c r="H32" s="373"/>
+      <c r="I32" s="373"/>
+      <c r="J32" s="373"/>
+      <c r="K32" s="373"/>
+      <c r="L32" s="373"/>
+      <c r="M32" s="373"/>
+      <c r="N32" s="371"/>
+      <c r="O32" s="371"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="335">
+        <v>23</v>
+      </c>
+      <c r="C33" s="366"/>
+      <c r="D33" s="365"/>
+      <c r="E33" s="366"/>
+      <c r="F33" s="365"/>
+      <c r="G33" s="367"/>
+      <c r="H33" s="373"/>
+      <c r="I33" s="373"/>
+      <c r="J33" s="373"/>
+      <c r="K33" s="373"/>
+      <c r="L33" s="373"/>
+      <c r="M33" s="373"/>
+      <c r="N33" s="371"/>
+      <c r="O33" s="371"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="338">
+        <v>24</v>
+      </c>
+      <c r="C34" s="366"/>
+      <c r="D34" s="365"/>
+      <c r="E34" s="366"/>
+      <c r="F34" s="365"/>
+      <c r="G34" s="367"/>
+      <c r="H34" s="373"/>
+      <c r="I34" s="373"/>
+      <c r="J34" s="373"/>
+      <c r="K34" s="373"/>
+      <c r="L34" s="373"/>
+      <c r="M34" s="373"/>
+      <c r="N34" s="371"/>
+      <c r="O34" s="371"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="335">
+        <v>25</v>
+      </c>
+      <c r="C35" s="366"/>
+      <c r="D35" s="365"/>
+      <c r="E35" s="366"/>
+      <c r="F35" s="365"/>
+      <c r="G35" s="367"/>
+      <c r="H35" s="326"/>
+      <c r="I35" s="326"/>
+      <c r="J35" s="326"/>
+      <c r="K35" s="326"/>
+      <c r="L35" s="326"/>
+      <c r="M35" s="333"/>
+      <c r="N35" s="362"/>
+      <c r="O35" s="362"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="338">
+        <v>26</v>
+      </c>
+      <c r="C36" s="375"/>
+      <c r="D36" s="289"/>
+      <c r="E36" s="336"/>
+      <c r="F36" s="359"/>
+      <c r="G36" s="360"/>
+      <c r="H36" s="326"/>
+      <c r="I36" s="326"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="326"/>
+      <c r="L36" s="326"/>
+      <c r="M36" s="333"/>
+      <c r="N36" s="362"/>
+      <c r="O36" s="362"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="335">
+        <v>27</v>
+      </c>
+      <c r="C37" s="366"/>
+      <c r="D37" s="365"/>
+      <c r="E37" s="366"/>
+      <c r="F37" s="365"/>
+      <c r="G37" s="367"/>
+      <c r="H37" s="326"/>
+      <c r="I37" s="326"/>
+      <c r="J37" s="326"/>
+      <c r="K37" s="326"/>
+      <c r="L37" s="326"/>
+      <c r="M37" s="333"/>
+      <c r="N37" s="362"/>
+      <c r="O37" s="362"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="338">
+        <v>28</v>
+      </c>
+      <c r="C38" s="366"/>
+      <c r="D38" s="365"/>
+      <c r="E38" s="366"/>
+      <c r="F38" s="365"/>
+      <c r="G38" s="367"/>
+      <c r="H38" s="326"/>
+      <c r="I38" s="326"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="326"/>
+      <c r="L38" s="326"/>
+      <c r="M38" s="333"/>
+      <c r="N38" s="362"/>
+      <c r="O38" s="362"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="335">
+        <v>29</v>
+      </c>
+      <c r="C39" s="366"/>
+      <c r="D39" s="365"/>
+      <c r="E39" s="366"/>
+      <c r="F39" s="365"/>
+      <c r="G39" s="367"/>
+      <c r="H39" s="326"/>
+      <c r="I39" s="326"/>
+      <c r="J39" s="326"/>
+      <c r="K39" s="326"/>
+      <c r="L39" s="326"/>
+      <c r="M39" s="333"/>
+      <c r="N39" s="362"/>
+      <c r="O39" s="362"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="338">
+        <v>30</v>
+      </c>
+      <c r="C40" s="366"/>
+      <c r="D40" s="365"/>
+      <c r="E40" s="366"/>
+      <c r="F40" s="365"/>
+      <c r="G40" s="367"/>
+      <c r="H40" s="326"/>
+      <c r="I40" s="326"/>
+      <c r="J40" s="326"/>
+      <c r="K40" s="326"/>
+      <c r="L40" s="326"/>
+      <c r="M40" s="333"/>
+      <c r="N40" s="362"/>
+      <c r="O40" s="362"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="335">
+        <v>31</v>
+      </c>
+      <c r="C41" s="366"/>
+      <c r="D41" s="365"/>
+      <c r="E41" s="366"/>
+      <c r="F41" s="365"/>
+      <c r="G41" s="367"/>
+      <c r="H41" s="326"/>
+      <c r="I41" s="326"/>
+      <c r="J41" s="326"/>
+      <c r="K41" s="326"/>
+      <c r="L41" s="326"/>
+      <c r="M41" s="333"/>
+      <c r="N41" s="362"/>
+      <c r="O41" s="362"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="338">
+        <v>32</v>
+      </c>
+      <c r="C42" s="366"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="366"/>
+      <c r="F42" s="365"/>
+      <c r="G42" s="367"/>
+      <c r="H42" s="326"/>
+      <c r="I42" s="326"/>
+      <c r="J42" s="326"/>
+      <c r="K42" s="326"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="333"/>
+      <c r="N42" s="362"/>
+      <c r="O42" s="362"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="335">
+        <v>33</v>
+      </c>
+      <c r="C43" s="366"/>
+      <c r="D43" s="365"/>
+      <c r="E43" s="366"/>
+      <c r="F43" s="365"/>
+      <c r="G43" s="367"/>
+      <c r="H43" s="326"/>
+      <c r="I43" s="326"/>
+      <c r="J43" s="326"/>
+      <c r="K43" s="326"/>
+      <c r="L43" s="326"/>
+      <c r="M43" s="333"/>
+      <c r="N43" s="362"/>
+      <c r="O43" s="362"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="338">
+        <v>34</v>
+      </c>
+      <c r="C44" s="366"/>
+      <c r="D44" s="365"/>
+      <c r="E44" s="366"/>
+      <c r="F44" s="365"/>
+      <c r="G44" s="367"/>
+      <c r="H44" s="326"/>
+      <c r="I44" s="326"/>
+      <c r="J44" s="326"/>
+      <c r="K44" s="326"/>
+      <c r="L44" s="326"/>
+      <c r="M44" s="333"/>
+      <c r="N44" s="362"/>
+      <c r="O44" s="362"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="335">
+        <v>35</v>
+      </c>
+      <c r="C45" s="366"/>
+      <c r="D45" s="365"/>
+      <c r="E45" s="366"/>
+      <c r="F45" s="365"/>
+      <c r="G45" s="367"/>
+      <c r="H45" s="326"/>
+      <c r="I45" s="326"/>
+      <c r="J45" s="326"/>
+      <c r="K45" s="326"/>
+      <c r="L45" s="326"/>
+      <c r="M45" s="333"/>
+      <c r="N45" s="362"/>
+      <c r="O45" s="362"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="338">
+        <v>36</v>
+      </c>
+      <c r="C46" s="366"/>
+      <c r="D46" s="365"/>
+      <c r="E46" s="366"/>
+      <c r="F46" s="365"/>
+      <c r="G46" s="367"/>
+      <c r="H46" s="326"/>
+      <c r="I46" s="326"/>
+      <c r="J46" s="326"/>
+      <c r="K46" s="326"/>
+      <c r="L46" s="326"/>
+      <c r="M46" s="333"/>
+      <c r="N46" s="362"/>
+      <c r="O46" s="362"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="335">
+        <v>37</v>
+      </c>
+      <c r="C47" s="366"/>
+      <c r="D47" s="365"/>
+      <c r="E47" s="366"/>
+      <c r="F47" s="365"/>
+      <c r="G47" s="367"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="326"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="333"/>
+      <c r="N47" s="362"/>
+      <c r="O47" s="362"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="338">
+        <v>38</v>
+      </c>
+      <c r="C48" s="366"/>
+      <c r="D48" s="365"/>
+      <c r="E48" s="366"/>
+      <c r="F48" s="365"/>
+      <c r="G48" s="367"/>
+      <c r="H48" s="326"/>
+      <c r="I48" s="326"/>
+      <c r="J48" s="326"/>
+      <c r="K48" s="326"/>
+      <c r="L48" s="326"/>
+      <c r="M48" s="333"/>
+      <c r="N48" s="362"/>
+      <c r="O48" s="362"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="335">
+        <v>39</v>
+      </c>
+      <c r="C49" s="366"/>
+      <c r="D49" s="365"/>
+      <c r="E49" s="366"/>
+      <c r="F49" s="365"/>
+      <c r="G49" s="367"/>
+      <c r="H49" s="326"/>
+      <c r="I49" s="326"/>
+      <c r="J49" s="326"/>
+      <c r="K49" s="326"/>
+      <c r="L49" s="326"/>
+      <c r="M49" s="333"/>
+      <c r="N49" s="362"/>
+      <c r="O49" s="362"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="338">
+        <v>40</v>
+      </c>
+      <c r="C50" s="366"/>
+      <c r="D50" s="365"/>
+      <c r="E50" s="366"/>
+      <c r="F50" s="365"/>
+      <c r="G50" s="367"/>
+      <c r="H50" s="326"/>
+      <c r="I50" s="326"/>
+      <c r="J50" s="326"/>
+      <c r="K50" s="326"/>
+      <c r="L50" s="326"/>
+      <c r="M50" s="333"/>
+      <c r="N50" s="362"/>
+      <c r="O50" s="362"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="335">
+        <v>41</v>
+      </c>
+      <c r="C51" s="366"/>
+      <c r="D51" s="365"/>
+      <c r="E51" s="366"/>
+      <c r="F51" s="365"/>
+      <c r="G51" s="367"/>
+      <c r="H51" s="326"/>
+      <c r="I51" s="326"/>
+      <c r="J51" s="326"/>
+      <c r="K51" s="326"/>
+      <c r="L51" s="326"/>
+      <c r="M51" s="333"/>
+      <c r="N51" s="362"/>
+      <c r="O51" s="362"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="338">
+        <v>42</v>
+      </c>
+      <c r="C52" s="366"/>
+      <c r="D52" s="365"/>
+      <c r="E52" s="366"/>
+      <c r="F52" s="365"/>
+      <c r="G52" s="367"/>
+      <c r="H52" s="326"/>
+      <c r="I52" s="326"/>
+      <c r="J52" s="326"/>
+      <c r="K52" s="326"/>
+      <c r="L52" s="326"/>
+      <c r="M52" s="333"/>
+      <c r="N52" s="362"/>
+      <c r="O52" s="362"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="335">
+        <v>43</v>
+      </c>
+      <c r="C53" s="366"/>
+      <c r="D53" s="365"/>
+      <c r="E53" s="366"/>
+      <c r="F53" s="365"/>
+      <c r="G53" s="367"/>
+      <c r="H53" s="326"/>
+      <c r="I53" s="326"/>
+      <c r="J53" s="326"/>
+      <c r="K53" s="326"/>
+      <c r="L53" s="326"/>
+      <c r="M53" s="333"/>
+      <c r="N53" s="362"/>
+      <c r="O53" s="362"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="338">
+        <v>44</v>
+      </c>
+      <c r="C54" s="363"/>
+      <c r="D54" s="289"/>
+      <c r="E54" s="336"/>
+      <c r="F54" s="359"/>
+      <c r="G54" s="360"/>
+      <c r="H54" s="326"/>
+      <c r="I54" s="326"/>
+      <c r="J54" s="326"/>
+      <c r="K54" s="326"/>
+      <c r="L54" s="326"/>
+      <c r="M54" s="333"/>
+      <c r="N54" s="362"/>
+      <c r="O54" s="362"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="335">
+        <v>45</v>
+      </c>
+      <c r="C55" s="376"/>
+      <c r="D55" s="289"/>
+      <c r="E55" s="336"/>
+      <c r="F55" s="359"/>
+      <c r="G55" s="360"/>
+      <c r="H55" s="360"/>
+      <c r="I55" s="360"/>
+      <c r="J55" s="360"/>
+      <c r="K55" s="360"/>
+      <c r="L55" s="360"/>
+      <c r="M55" s="377"/>
+      <c r="N55" s="362"/>
+      <c r="O55" s="362"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="378" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="379"/>
+      <c r="D56" s="348"/>
+      <c r="E56" s="380"/>
+      <c r="F56" s="381"/>
+      <c r="G56" s="382"/>
+      <c r="H56" s="382"/>
+      <c r="I56" s="382"/>
+      <c r="J56" s="382"/>
+      <c r="K56" s="382"/>
+      <c r="L56" s="382"/>
+      <c r="M56" s="383"/>
+      <c r="N56" s="384"/>
+      <c r="O56" s="384"/>
+    </row>
+    <row r="103" spans="2:15" s="97" customFormat="1">
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+    </row>
+    <row r="104" spans="2:15" s="97" customFormat="1">
+      <c r="B104"/>
+      <c r="C104" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+    </row>
+    <row r="105" spans="2:15" s="97" customFormat="1">
+      <c r="B105"/>
+      <c r="C105" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+    </row>
+    <row r="106" spans="2:15" s="97" customFormat="1">
+      <c r="B106"/>
+      <c r="C106" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+    </row>
+    <row r="107" spans="2:15" s="97" customFormat="1">
+      <c r="B107"/>
+      <c r="C107" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="2:15" s="97" customFormat="1">
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108"/>
+      <c r="E108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+    </row>
+    <row r="109" spans="2:15" s="97" customFormat="1">
+      <c r="B109"/>
+      <c r="C109" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="E109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+    </row>
+    <row r="110" spans="2:15" s="97" customFormat="1">
+      <c r="B110"/>
+      <c r="C110" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="E110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+    </row>
+    <row r="111" spans="2:15" s="97" customFormat="1">
+      <c r="B111"/>
+      <c r="C111" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+    </row>
+    <row r="112" spans="2:15" s="97" customFormat="1">
+      <c r="B112"/>
+      <c r="C112" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="E112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+    </row>
+    <row r="113" spans="2:15" s="97" customFormat="1">
+      <c r="B113"/>
+      <c r="C113" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+    </row>
+    <row r="115" spans="2:15" s="97" customFormat="1">
+      <c r="B115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115"/>
+      <c r="E115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+    </row>
+    <row r="116" spans="2:15" s="97" customFormat="1">
+      <c r="B116"/>
+      <c r="C116" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="E116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+    </row>
+    <row r="117" spans="2:15" s="97" customFormat="1">
+      <c r="B117"/>
+      <c r="C117" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+    </row>
+    <row r="118" spans="2:15" s="97" customFormat="1">
+      <c r="B118"/>
+      <c r="C118" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+    </row>
+    <row r="119" spans="2:15" s="97" customFormat="1">
+      <c r="B119"/>
+      <c r="C119" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+    </row>
+    <row r="120" spans="2:15" s="97" customFormat="1">
+      <c r="B120"/>
+      <c r="C120" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+    </row>
+    <row r="121" spans="2:15" s="97" customFormat="1">
+      <c r="B121"/>
+      <c r="C121" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57:F93">
+      <formula1>$C$117:$C$121</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54:D56 D36 D31 D11:D30">
+      <formula1>$C$103:$C$107</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E54:E56 E30:E33 E36 E11:E29">
+      <formula1>$C$109:$C$113</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54:F56 F11:F17 F19:F39">
+      <formula1>$C$116:$C$121</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19545,12 +21801,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:27" ht="18">
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="404" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="402"/>
-      <c r="D7" s="402"/>
-      <c r="E7" s="402"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="404"/>
+      <c r="E7" s="404"/>
     </row>
     <row r="10" spans="2:27" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -23726,12 +25982,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:14" ht="18">
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="404" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="402"/>
-      <c r="D7" s="402"/>
-      <c r="E7" s="402"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="404"/>
+      <c r="E7" s="404"/>
     </row>
     <row r="10" spans="2:14" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -25347,12 +27603,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:13" ht="18">
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="404" t="s">
         <v>348</v>
       </c>
-      <c r="C7" s="402"/>
-      <c r="D7" s="402"/>
-      <c r="E7" s="402"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="404"/>
+      <c r="E7" s="404"/>
     </row>
     <row r="10" spans="2:13" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -26616,12 +28872,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="404" t="s">
         <v>372</v>
       </c>
-      <c r="C7" s="402"/>
-      <c r="D7" s="402"/>
-      <c r="E7" s="402"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="404"/>
+      <c r="E7" s="404"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -28179,12 +30435,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="402" t="s">
+      <c r="B7" s="404" t="s">
         <v>392</v>
       </c>
-      <c r="C7" s="402"/>
-      <c r="D7" s="402"/>
-      <c r="E7" s="402"/>
+      <c r="C7" s="404"/>
+      <c r="D7" s="404"/>
+      <c r="E7" s="404"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sprint04_2705_0206" sheetId="12" r:id="rId10"/>
     <sheet name="Sprint05_0306_0906" sheetId="14" r:id="rId11"/>
     <sheet name="Sprint06_1006_1606" sheetId="15" r:id="rId12"/>
-    <sheet name="Sprint06_1706_2306" sheetId="16" r:id="rId13"/>
+    <sheet name="Sprint07_1706_2306" sheetId="16" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$1:$G$106</definedName>
@@ -3989,24 +3989,81 @@
     <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="23" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4022,65 +4079,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4089,19 +4089,460 @@
   </cellStyles>
   <dxfs count="219">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -4155,6 +4596,15 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4184,456 +4634,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -11884,27 +11884,27 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1345678910111213" displayName="Table1345678910111213" ref="B10:O56" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1345678910111213" displayName="Table1345678910111213" ref="B10:O56" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="B10:O56">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="18"/>
-    <tableColumn id="2" name="Task description" dataDxfId="17"/>
-    <tableColumn id="3" name="Type" dataDxfId="16"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="15"/>
-    <tableColumn id="5" name="Status" dataDxfId="14"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="13"/>
-    <tableColumn id="8" name="17/06" dataDxfId="12"/>
-    <tableColumn id="9" name="18/06" dataDxfId="11"/>
-    <tableColumn id="10" name="19/06" dataDxfId="10"/>
-    <tableColumn id="11" name="20/06" dataDxfId="9"/>
-    <tableColumn id="12" name="21/06" dataDxfId="8"/>
-    <tableColumn id="13" name="22/06" dataDxfId="7"/>
-    <tableColumn id="14" name="23/06" dataDxfId="6"/>
-    <tableColumn id="15" name="End" dataDxfId="5"/>
+    <tableColumn id="1" name="No." dataDxfId="13"/>
+    <tableColumn id="2" name="Task description" dataDxfId="12"/>
+    <tableColumn id="3" name="Type" dataDxfId="11"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="10"/>
+    <tableColumn id="5" name="Status" dataDxfId="9"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="8"/>
+    <tableColumn id="8" name="17/06" dataDxfId="7"/>
+    <tableColumn id="9" name="18/06" dataDxfId="6"/>
+    <tableColumn id="10" name="19/06" dataDxfId="5"/>
+    <tableColumn id="11" name="20/06" dataDxfId="4"/>
+    <tableColumn id="12" name="21/06" dataDxfId="3"/>
+    <tableColumn id="13" name="22/06" dataDxfId="2"/>
+    <tableColumn id="14" name="23/06" dataDxfId="1"/>
+    <tableColumn id="15" name="End" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12491,7 +12491,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="C14" s="390">
+      <c r="C14" s="400">
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -12502,7 +12502,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="C15" s="391"/>
+      <c r="C15" s="401"/>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
@@ -12510,28 +12510,28 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="C16" s="391"/>
+      <c r="C16" s="401"/>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="391"/>
+      <c r="C17" s="401"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="392"/>
+      <c r="C18" s="407"/>
       <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="395">
+      <c r="C19" s="414">
         <v>3</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -12542,7 +12542,7 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="396"/>
+      <c r="C20" s="415"/>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
@@ -12552,7 +12552,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="396"/>
+      <c r="C21" s="415"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -12562,42 +12562,42 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="396"/>
+      <c r="C22" s="415"/>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="396"/>
+      <c r="C23" s="415"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="396"/>
+      <c r="C24" s="415"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="396"/>
+      <c r="C25" s="415"/>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="397"/>
+      <c r="C26" s="416"/>
       <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="53"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="390">
+      <c r="C27" s="400">
         <v>4</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -12608,56 +12608,56 @@
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="391"/>
+      <c r="C28" s="401"/>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="391"/>
+      <c r="C29" s="401"/>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="391"/>
+      <c r="C30" s="401"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="391"/>
+      <c r="C31" s="401"/>
       <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="391"/>
+      <c r="C32" s="401"/>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="C33" s="391"/>
+      <c r="C33" s="401"/>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="C34" s="392"/>
+      <c r="C34" s="407"/>
       <c r="D34" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="387">
+      <c r="C35" s="406">
         <v>5</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -12668,14 +12668,14 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="388"/>
+      <c r="C36" s="404"/>
       <c r="D36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="388"/>
+      <c r="C37" s="404"/>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
@@ -12683,14 +12683,14 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="389"/>
+      <c r="C38" s="411"/>
       <c r="D38" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="49"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="390">
+      <c r="C39" s="400">
         <v>6</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -12701,21 +12701,21 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="391"/>
+      <c r="C40" s="401"/>
       <c r="D40" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="392"/>
+      <c r="C41" s="407"/>
       <c r="D41" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="393" t="s">
+      <c r="C42" s="412" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -12726,7 +12726,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="C43" s="394"/>
+      <c r="C43" s="413"/>
       <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
@@ -12766,10 +12766,10 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="C52" s="400" t="s">
+      <c r="C52" s="410" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="400"/>
+      <c r="D52" s="410"/>
       <c r="E52" s="42"/>
     </row>
     <row r="53" spans="2:5">
@@ -12791,10 +12791,10 @@
       <c r="E54" s="40"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="C55" s="398" t="s">
+      <c r="C55" s="408" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="399"/>
+      <c r="D55" s="409"/>
       <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5">
@@ -12816,10 +12816,10 @@
       <c r="E57" s="40"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="C58" s="398" t="s">
+      <c r="C58" s="408" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="399"/>
+      <c r="D58" s="409"/>
       <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5">
@@ -12832,7 +12832,7 @@
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="C60" s="391">
+      <c r="C60" s="401">
         <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
@@ -12841,70 +12841,70 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="C61" s="391"/>
+      <c r="C61" s="401"/>
       <c r="D61" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="C62" s="391"/>
+      <c r="C62" s="401"/>
       <c r="D62" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="C63" s="391"/>
+      <c r="C63" s="401"/>
       <c r="D63" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="C64" s="391"/>
+      <c r="C64" s="401"/>
       <c r="D64" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="391"/>
+      <c r="C65" s="401"/>
       <c r="D65" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="391"/>
+      <c r="C66" s="401"/>
       <c r="D66" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="18"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="391"/>
+      <c r="C67" s="401"/>
       <c r="D67" s="32" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="391"/>
+      <c r="C68" s="401"/>
       <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="392"/>
+      <c r="C69" s="407"/>
       <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="18"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="387">
+      <c r="C70" s="406">
         <v>2</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -12913,35 +12913,35 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="388"/>
+      <c r="C71" s="404"/>
       <c r="D71" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="3:5">
-      <c r="C72" s="388"/>
+      <c r="C72" s="404"/>
       <c r="D72" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="388"/>
+      <c r="C73" s="404"/>
       <c r="D73" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="388"/>
+      <c r="C74" s="404"/>
       <c r="D74" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="49"/>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="390">
+      <c r="C75" s="400">
         <v>3</v>
       </c>
       <c r="D75" s="44" t="s">
@@ -12950,42 +12950,42 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="391"/>
+      <c r="C76" s="401"/>
       <c r="D76" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="391"/>
+      <c r="C77" s="401"/>
       <c r="D77" s="33" t="s">
         <v>72</v>
       </c>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="391"/>
+      <c r="C78" s="401"/>
       <c r="D78" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E78" s="18"/>
     </row>
     <row r="79" spans="3:5">
-      <c r="C79" s="391"/>
+      <c r="C79" s="401"/>
       <c r="D79" s="33" t="s">
         <v>74</v>
       </c>
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C80" s="401"/>
+      <c r="C80" s="402"/>
       <c r="D80" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="3:5">
-      <c r="C81" s="402">
+      <c r="C81" s="403">
         <v>4</v>
       </c>
       <c r="D81" s="57" t="s">
@@ -12994,63 +12994,63 @@
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="388"/>
+      <c r="C82" s="404"/>
       <c r="D82" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E82" s="48"/>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="388"/>
+      <c r="C83" s="404"/>
       <c r="D83" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="3:5">
-      <c r="C84" s="388"/>
+      <c r="C84" s="404"/>
       <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="48"/>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="388"/>
+      <c r="C85" s="404"/>
       <c r="D85" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="48"/>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="388"/>
+      <c r="C86" s="404"/>
       <c r="D86" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="48"/>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="388"/>
+      <c r="C87" s="404"/>
       <c r="D87" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="388"/>
+      <c r="C88" s="404"/>
       <c r="D88" s="34" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="48"/>
     </row>
     <row r="89" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C89" s="403"/>
+      <c r="C89" s="405"/>
       <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="3:5">
-      <c r="C90" s="390">
+      <c r="C90" s="400">
         <v>5</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -13059,28 +13059,28 @@
       <c r="E90" s="18"/>
     </row>
     <row r="91" spans="3:5">
-      <c r="C91" s="391"/>
+      <c r="C91" s="401"/>
       <c r="D91" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="3:5">
-      <c r="C92" s="391"/>
+      <c r="C92" s="401"/>
       <c r="D92" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="3:5">
-      <c r="C93" s="391"/>
+      <c r="C93" s="401"/>
       <c r="D93" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="3:5">
-      <c r="C94" s="387">
+      <c r="C94" s="406">
         <v>6</v>
       </c>
       <c r="D94" s="57" t="s">
@@ -13089,21 +13089,21 @@
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="388"/>
+      <c r="C95" s="404"/>
       <c r="D95" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="388"/>
+      <c r="C96" s="404"/>
       <c r="D96" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="48"/>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="390">
+      <c r="C97" s="400">
         <v>7</v>
       </c>
       <c r="D97" s="44" t="s">
@@ -13112,35 +13112,35 @@
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="391"/>
+      <c r="C98" s="401"/>
       <c r="D98" s="32" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="18"/>
     </row>
     <row r="99" spans="3:5">
-      <c r="C99" s="391"/>
+      <c r="C99" s="401"/>
       <c r="D99" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="18"/>
     </row>
     <row r="100" spans="3:5">
-      <c r="C100" s="391"/>
+      <c r="C100" s="401"/>
       <c r="D100" s="32" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="18"/>
     </row>
     <row r="101" spans="3:5">
-      <c r="C101" s="392"/>
+      <c r="C101" s="407"/>
       <c r="D101" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="18"/>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="387">
+      <c r="C102" s="406">
         <v>8</v>
       </c>
       <c r="D102" s="57" t="s">
@@ -13149,21 +13149,21 @@
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="3:5">
-      <c r="C103" s="388"/>
+      <c r="C103" s="404"/>
       <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="3:5">
-      <c r="C104" s="388"/>
+      <c r="C104" s="404"/>
       <c r="D104" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="48"/>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="390" t="s">
+      <c r="C105" s="400" t="s">
         <v>99</v>
       </c>
       <c r="D105" s="58" t="s">
@@ -13174,12 +13174,23 @@
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="391"/>
+      <c r="C106" s="401"/>
       <c r="D106" s="38"/>
       <c r="E106" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C75:C80"/>
     <mergeCell ref="C81:C89"/>
@@ -13187,17 +13198,6 @@
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C27:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
@@ -13247,12 +13247,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="404" t="s">
+      <c r="B7" s="417" t="s">
         <v>393</v>
       </c>
-      <c r="C7" s="404"/>
-      <c r="D7" s="404"/>
-      <c r="E7" s="404"/>
+      <c r="C7" s="417"/>
+      <c r="D7" s="417"/>
+      <c r="E7" s="417"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -14908,12 +14908,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="404" t="s">
+      <c r="B7" s="417" t="s">
         <v>410</v>
       </c>
-      <c r="C7" s="404"/>
-      <c r="D7" s="404"/>
-      <c r="E7" s="404"/>
+      <c r="C7" s="417"/>
+      <c r="D7" s="417"/>
+      <c r="E7" s="417"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -16439,12 +16439,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="404" t="s">
+      <c r="B7" s="417" t="s">
         <v>413</v>
       </c>
-      <c r="C7" s="404"/>
-      <c r="D7" s="404"/>
-      <c r="E7" s="404"/>
+      <c r="C7" s="417"/>
+      <c r="D7" s="417"/>
+      <c r="E7" s="417"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -16807,20 +16807,20 @@
       <c r="E19" s="355" t="s">
         <v>350</v>
       </c>
-      <c r="F19" s="405" t="s">
+      <c r="F19" s="387" t="s">
         <v>120</v>
       </c>
-      <c r="G19" s="406">
+      <c r="G19" s="388">
         <v>12</v>
       </c>
-      <c r="H19" s="407"/>
-      <c r="I19" s="413"/>
-      <c r="J19" s="413"/>
-      <c r="K19" s="413"/>
-      <c r="L19" s="413"/>
-      <c r="M19" s="414"/>
-      <c r="N19" s="409"/>
-      <c r="O19" s="409"/>
+      <c r="H19" s="389"/>
+      <c r="I19" s="395"/>
+      <c r="J19" s="395"/>
+      <c r="K19" s="395"/>
+      <c r="L19" s="395"/>
+      <c r="M19" s="396"/>
+      <c r="N19" s="391"/>
+      <c r="O19" s="391"/>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="338">
@@ -16879,20 +16879,20 @@
       <c r="E21" s="355" t="s">
         <v>350</v>
       </c>
-      <c r="F21" s="405" t="s">
+      <c r="F21" s="387" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="406">
+      <c r="G21" s="388">
         <v>12</v>
       </c>
-      <c r="H21" s="410"/>
-      <c r="I21" s="411"/>
-      <c r="J21" s="411"/>
-      <c r="K21" s="411"/>
-      <c r="L21" s="411"/>
-      <c r="M21" s="411"/>
-      <c r="N21" s="412"/>
-      <c r="O21" s="412"/>
+      <c r="H21" s="392"/>
+      <c r="I21" s="393"/>
+      <c r="J21" s="393"/>
+      <c r="K21" s="393"/>
+      <c r="L21" s="393"/>
+      <c r="M21" s="393"/>
+      <c r="N21" s="394"/>
+      <c r="O21" s="394"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="338">
@@ -17147,20 +17147,20 @@
       <c r="E28" s="355" t="s">
         <v>352</v>
       </c>
-      <c r="F28" s="405" t="s">
+      <c r="F28" s="387" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="406">
+      <c r="G28" s="388">
         <v>20</v>
       </c>
-      <c r="H28" s="407"/>
-      <c r="I28" s="407"/>
-      <c r="J28" s="407"/>
-      <c r="K28" s="407"/>
-      <c r="L28" s="407"/>
-      <c r="M28" s="408"/>
-      <c r="N28" s="409"/>
-      <c r="O28" s="409"/>
+      <c r="H28" s="389"/>
+      <c r="I28" s="389"/>
+      <c r="J28" s="389"/>
+      <c r="K28" s="389"/>
+      <c r="L28" s="389"/>
+      <c r="M28" s="390"/>
+      <c r="N28" s="391"/>
+      <c r="O28" s="391"/>
     </row>
     <row r="29" spans="2:15" ht="21.75" customHeight="1">
       <c r="B29" s="335">
@@ -17970,7 +17970,7 @@
   <dimension ref="B2:O121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18008,12 +18008,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="404" t="s">
+      <c r="B7" s="417" t="s">
         <v>434</v>
       </c>
-      <c r="C7" s="404"/>
-      <c r="D7" s="404"/>
-      <c r="E7" s="404"/>
+      <c r="C7" s="417"/>
+      <c r="D7" s="417"/>
+      <c r="E7" s="417"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -18144,7 +18144,7 @@
       <c r="O13" s="371"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="415"/>
+      <c r="B14" s="397"/>
       <c r="C14" s="368" t="s">
         <v>442</v>
       </c>
@@ -18306,8 +18306,8 @@
       <c r="K19" s="339"/>
       <c r="L19" s="339"/>
       <c r="M19" s="331"/>
-      <c r="N19" s="416"/>
-      <c r="O19" s="416"/>
+      <c r="N19" s="398"/>
+      <c r="O19" s="398"/>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="338">
@@ -18324,8 +18324,8 @@
       <c r="K20" s="357"/>
       <c r="L20" s="357"/>
       <c r="M20" s="357"/>
-      <c r="N20" s="417"/>
-      <c r="O20" s="417"/>
+      <c r="N20" s="399"/>
+      <c r="O20" s="399"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="335">
@@ -18342,8 +18342,8 @@
       <c r="K21" s="357"/>
       <c r="L21" s="357"/>
       <c r="M21" s="357"/>
-      <c r="N21" s="417"/>
-      <c r="O21" s="417"/>
+      <c r="N21" s="399"/>
+      <c r="O21" s="399"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="338">
@@ -18360,8 +18360,8 @@
       <c r="K22" s="367"/>
       <c r="L22" s="367"/>
       <c r="M22" s="367"/>
-      <c r="N22" s="417"/>
-      <c r="O22" s="417"/>
+      <c r="N22" s="399"/>
+      <c r="O22" s="399"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="335">
@@ -18378,8 +18378,8 @@
       <c r="K23" s="367"/>
       <c r="L23" s="367"/>
       <c r="M23" s="367"/>
-      <c r="N23" s="417"/>
-      <c r="O23" s="417"/>
+      <c r="N23" s="399"/>
+      <c r="O23" s="399"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="338">
@@ -18396,8 +18396,8 @@
       <c r="K24" s="357"/>
       <c r="L24" s="357"/>
       <c r="M24" s="357"/>
-      <c r="N24" s="417"/>
-      <c r="O24" s="417"/>
+      <c r="N24" s="399"/>
+      <c r="O24" s="399"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="335">
@@ -18414,8 +18414,8 @@
       <c r="K25" s="357"/>
       <c r="L25" s="357"/>
       <c r="M25" s="357"/>
-      <c r="N25" s="417"/>
-      <c r="O25" s="417"/>
+      <c r="N25" s="399"/>
+      <c r="O25" s="399"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="338">
@@ -18432,8 +18432,8 @@
       <c r="K26" s="339"/>
       <c r="L26" s="339"/>
       <c r="M26" s="331"/>
-      <c r="N26" s="416"/>
-      <c r="O26" s="416"/>
+      <c r="N26" s="398"/>
+      <c r="O26" s="398"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="335">
@@ -18450,8 +18450,8 @@
       <c r="K27" s="326"/>
       <c r="L27" s="326"/>
       <c r="M27" s="333"/>
-      <c r="N27" s="416"/>
-      <c r="O27" s="416"/>
+      <c r="N27" s="398"/>
+      <c r="O27" s="398"/>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="338">
@@ -18468,8 +18468,8 @@
       <c r="K28" s="326"/>
       <c r="L28" s="326"/>
       <c r="M28" s="333"/>
-      <c r="N28" s="416"/>
-      <c r="O28" s="416"/>
+      <c r="N28" s="398"/>
+      <c r="O28" s="398"/>
     </row>
     <row r="29" spans="2:15" ht="21.75" customHeight="1">
       <c r="B29" s="335">
@@ -21801,12 +21801,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:27" ht="18">
-      <c r="B7" s="404" t="s">
+      <c r="B7" s="417" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="404"/>
-      <c r="D7" s="404"/>
-      <c r="E7" s="404"/>
+      <c r="C7" s="417"/>
+      <c r="D7" s="417"/>
+      <c r="E7" s="417"/>
     </row>
     <row r="10" spans="2:27" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -25982,12 +25982,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:14" ht="18">
-      <c r="B7" s="404" t="s">
+      <c r="B7" s="417" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="404"/>
-      <c r="D7" s="404"/>
-      <c r="E7" s="404"/>
+      <c r="C7" s="417"/>
+      <c r="D7" s="417"/>
+      <c r="E7" s="417"/>
     </row>
     <row r="10" spans="2:14" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -27603,12 +27603,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:13" ht="18">
-      <c r="B7" s="404" t="s">
+      <c r="B7" s="417" t="s">
         <v>348</v>
       </c>
-      <c r="C7" s="404"/>
-      <c r="D7" s="404"/>
-      <c r="E7" s="404"/>
+      <c r="C7" s="417"/>
+      <c r="D7" s="417"/>
+      <c r="E7" s="417"/>
     </row>
     <row r="10" spans="2:13" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -28872,12 +28872,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="404" t="s">
+      <c r="B7" s="417" t="s">
         <v>372</v>
       </c>
-      <c r="C7" s="404"/>
-      <c r="D7" s="404"/>
-      <c r="E7" s="404"/>
+      <c r="C7" s="417"/>
+      <c r="D7" s="417"/>
+      <c r="E7" s="417"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -30435,12 +30435,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="404" t="s">
+      <c r="B7" s="417" t="s">
         <v>392</v>
       </c>
-      <c r="C7" s="404"/>
-      <c r="D7" s="404"/>
-      <c r="E7" s="404"/>
+      <c r="C7" s="417"/>
+      <c r="D7" s="417"/>
+      <c r="E7" s="417"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -4028,55 +4028,55 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12491,7 +12491,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="C14" s="400">
+      <c r="C14" s="403">
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -12502,7 +12502,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="C15" s="401"/>
+      <c r="C15" s="404"/>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
@@ -12510,28 +12510,28 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="C16" s="401"/>
+      <c r="C16" s="404"/>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="401"/>
+      <c r="C17" s="404"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="407"/>
+      <c r="C18" s="405"/>
       <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="414">
+      <c r="C19" s="408">
         <v>3</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -12542,7 +12542,7 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="415"/>
+      <c r="C20" s="409"/>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
@@ -12552,7 +12552,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="415"/>
+      <c r="C21" s="409"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -12562,42 +12562,42 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="415"/>
+      <c r="C22" s="409"/>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="415"/>
+      <c r="C23" s="409"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="415"/>
+      <c r="C24" s="409"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="415"/>
+      <c r="C25" s="409"/>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="416"/>
+      <c r="C26" s="410"/>
       <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="53"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="400">
+      <c r="C27" s="403">
         <v>4</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -12608,56 +12608,56 @@
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="401"/>
+      <c r="C28" s="404"/>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="401"/>
+      <c r="C29" s="404"/>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="401"/>
+      <c r="C30" s="404"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="401"/>
+      <c r="C31" s="404"/>
       <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="401"/>
+      <c r="C32" s="404"/>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="C33" s="401"/>
+      <c r="C33" s="404"/>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="C34" s="407"/>
+      <c r="C34" s="405"/>
       <c r="D34" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="406">
+      <c r="C35" s="400">
         <v>5</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -12668,14 +12668,14 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="404"/>
+      <c r="C36" s="401"/>
       <c r="D36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="404"/>
+      <c r="C37" s="401"/>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
@@ -12683,14 +12683,14 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="411"/>
+      <c r="C38" s="402"/>
       <c r="D38" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="49"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="400">
+      <c r="C39" s="403">
         <v>6</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -12701,21 +12701,21 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="401"/>
+      <c r="C40" s="404"/>
       <c r="D40" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="407"/>
+      <c r="C41" s="405"/>
       <c r="D41" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="412" t="s">
+      <c r="C42" s="406" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -12726,7 +12726,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="C43" s="413"/>
+      <c r="C43" s="407"/>
       <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
@@ -12766,10 +12766,10 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="C52" s="410" t="s">
+      <c r="C52" s="413" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="410"/>
+      <c r="D52" s="413"/>
       <c r="E52" s="42"/>
     </row>
     <row r="53" spans="2:5">
@@ -12791,10 +12791,10 @@
       <c r="E54" s="40"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="C55" s="408" t="s">
+      <c r="C55" s="411" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="409"/>
+      <c r="D55" s="412"/>
       <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5">
@@ -12816,10 +12816,10 @@
       <c r="E57" s="40"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="C58" s="408" t="s">
+      <c r="C58" s="411" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="409"/>
+      <c r="D58" s="412"/>
       <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5">
@@ -12832,7 +12832,7 @@
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="C60" s="401">
+      <c r="C60" s="404">
         <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
@@ -12841,70 +12841,70 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="C61" s="401"/>
+      <c r="C61" s="404"/>
       <c r="D61" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="C62" s="401"/>
+      <c r="C62" s="404"/>
       <c r="D62" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="C63" s="401"/>
+      <c r="C63" s="404"/>
       <c r="D63" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="C64" s="401"/>
+      <c r="C64" s="404"/>
       <c r="D64" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="401"/>
+      <c r="C65" s="404"/>
       <c r="D65" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="401"/>
+      <c r="C66" s="404"/>
       <c r="D66" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="18"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="401"/>
+      <c r="C67" s="404"/>
       <c r="D67" s="32" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="401"/>
+      <c r="C68" s="404"/>
       <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="407"/>
+      <c r="C69" s="405"/>
       <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="18"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="406">
+      <c r="C70" s="400">
         <v>2</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -12913,35 +12913,35 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="404"/>
+      <c r="C71" s="401"/>
       <c r="D71" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="3:5">
-      <c r="C72" s="404"/>
+      <c r="C72" s="401"/>
       <c r="D72" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="404"/>
+      <c r="C73" s="401"/>
       <c r="D73" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="404"/>
+      <c r="C74" s="401"/>
       <c r="D74" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="49"/>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="400">
+      <c r="C75" s="403">
         <v>3</v>
       </c>
       <c r="D75" s="44" t="s">
@@ -12950,42 +12950,42 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="401"/>
+      <c r="C76" s="404"/>
       <c r="D76" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="401"/>
+      <c r="C77" s="404"/>
       <c r="D77" s="33" t="s">
         <v>72</v>
       </c>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="401"/>
+      <c r="C78" s="404"/>
       <c r="D78" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E78" s="18"/>
     </row>
     <row r="79" spans="3:5">
-      <c r="C79" s="401"/>
+      <c r="C79" s="404"/>
       <c r="D79" s="33" t="s">
         <v>74</v>
       </c>
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C80" s="402"/>
+      <c r="C80" s="414"/>
       <c r="D80" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="3:5">
-      <c r="C81" s="403">
+      <c r="C81" s="415">
         <v>4</v>
       </c>
       <c r="D81" s="57" t="s">
@@ -12994,63 +12994,63 @@
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="404"/>
+      <c r="C82" s="401"/>
       <c r="D82" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E82" s="48"/>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="404"/>
+      <c r="C83" s="401"/>
       <c r="D83" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="3:5">
-      <c r="C84" s="404"/>
+      <c r="C84" s="401"/>
       <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="48"/>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="404"/>
+      <c r="C85" s="401"/>
       <c r="D85" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="48"/>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="404"/>
+      <c r="C86" s="401"/>
       <c r="D86" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="48"/>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="404"/>
+      <c r="C87" s="401"/>
       <c r="D87" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="404"/>
+      <c r="C88" s="401"/>
       <c r="D88" s="34" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="48"/>
     </row>
     <row r="89" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C89" s="405"/>
+      <c r="C89" s="416"/>
       <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="3:5">
-      <c r="C90" s="400">
+      <c r="C90" s="403">
         <v>5</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -13059,28 +13059,28 @@
       <c r="E90" s="18"/>
     </row>
     <row r="91" spans="3:5">
-      <c r="C91" s="401"/>
+      <c r="C91" s="404"/>
       <c r="D91" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="3:5">
-      <c r="C92" s="401"/>
+      <c r="C92" s="404"/>
       <c r="D92" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="3:5">
-      <c r="C93" s="401"/>
+      <c r="C93" s="404"/>
       <c r="D93" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="3:5">
-      <c r="C94" s="406">
+      <c r="C94" s="400">
         <v>6</v>
       </c>
       <c r="D94" s="57" t="s">
@@ -13089,21 +13089,21 @@
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="404"/>
+      <c r="C95" s="401"/>
       <c r="D95" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="404"/>
+      <c r="C96" s="401"/>
       <c r="D96" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="48"/>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="400">
+      <c r="C97" s="403">
         <v>7</v>
       </c>
       <c r="D97" s="44" t="s">
@@ -13112,35 +13112,35 @@
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="401"/>
+      <c r="C98" s="404"/>
       <c r="D98" s="32" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="18"/>
     </row>
     <row r="99" spans="3:5">
-      <c r="C99" s="401"/>
+      <c r="C99" s="404"/>
       <c r="D99" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="18"/>
     </row>
     <row r="100" spans="3:5">
-      <c r="C100" s="401"/>
+      <c r="C100" s="404"/>
       <c r="D100" s="32" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="18"/>
     </row>
     <row r="101" spans="3:5">
-      <c r="C101" s="407"/>
+      <c r="C101" s="405"/>
       <c r="D101" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="18"/>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="406">
+      <c r="C102" s="400">
         <v>8</v>
       </c>
       <c r="D102" s="57" t="s">
@@ -13149,21 +13149,21 @@
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="3:5">
-      <c r="C103" s="404"/>
+      <c r="C103" s="401"/>
       <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="3:5">
-      <c r="C104" s="404"/>
+      <c r="C104" s="401"/>
       <c r="D104" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="48"/>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="400" t="s">
+      <c r="C105" s="403" t="s">
         <v>99</v>
       </c>
       <c r="D105" s="58" t="s">
@@ -13174,23 +13174,12 @@
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="401"/>
+      <c r="C106" s="404"/>
       <c r="D106" s="38"/>
       <c r="E106" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C75:C80"/>
     <mergeCell ref="C81:C89"/>
@@ -13198,6 +13187,17 @@
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C27:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
@@ -17970,7 +17970,7 @@
   <dimension ref="B2:O121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18078,14 +18078,30 @@
       <c r="G11" s="367">
         <v>30</v>
       </c>
-      <c r="H11" s="356"/>
-      <c r="I11" s="357"/>
-      <c r="J11" s="357"/>
-      <c r="K11" s="357"/>
-      <c r="L11" s="357"/>
-      <c r="M11" s="357"/>
-      <c r="N11" s="371"/>
-      <c r="O11" s="371"/>
+      <c r="H11" s="356">
+        <v>29</v>
+      </c>
+      <c r="I11" s="357">
+        <v>28</v>
+      </c>
+      <c r="J11" s="357">
+        <v>27</v>
+      </c>
+      <c r="K11" s="357">
+        <v>26</v>
+      </c>
+      <c r="L11" s="357">
+        <v>25</v>
+      </c>
+      <c r="M11" s="357">
+        <v>25</v>
+      </c>
+      <c r="N11" s="371">
+        <v>25</v>
+      </c>
+      <c r="O11" s="371">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="335">
@@ -18106,14 +18122,30 @@
       <c r="G12" s="367">
         <v>20</v>
       </c>
-      <c r="H12" s="356"/>
-      <c r="I12" s="357"/>
-      <c r="J12" s="357"/>
-      <c r="K12" s="357"/>
-      <c r="L12" s="356"/>
-      <c r="M12" s="356"/>
-      <c r="N12" s="371"/>
-      <c r="O12" s="371"/>
+      <c r="H12" s="356">
+        <v>20</v>
+      </c>
+      <c r="I12" s="357">
+        <v>20</v>
+      </c>
+      <c r="J12" s="357">
+        <v>20</v>
+      </c>
+      <c r="K12" s="357">
+        <v>20</v>
+      </c>
+      <c r="L12" s="356">
+        <v>20</v>
+      </c>
+      <c r="M12" s="356">
+        <v>20</v>
+      </c>
+      <c r="N12" s="371">
+        <v>20</v>
+      </c>
+      <c r="O12" s="371">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="338">
@@ -18129,19 +18161,35 @@
         <v>349</v>
       </c>
       <c r="F13" s="359" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G13" s="360">
         <v>20</v>
       </c>
-      <c r="H13" s="373"/>
-      <c r="I13" s="373"/>
-      <c r="J13" s="373"/>
-      <c r="K13" s="373"/>
-      <c r="L13" s="373"/>
-      <c r="M13" s="373"/>
-      <c r="N13" s="371"/>
-      <c r="O13" s="371"/>
+      <c r="H13" s="373">
+        <v>18</v>
+      </c>
+      <c r="I13" s="373">
+        <v>15</v>
+      </c>
+      <c r="J13" s="373">
+        <v>12</v>
+      </c>
+      <c r="K13" s="373">
+        <v>8</v>
+      </c>
+      <c r="L13" s="373">
+        <v>5</v>
+      </c>
+      <c r="M13" s="373">
+        <v>3</v>
+      </c>
+      <c r="N13" s="371">
+        <v>0</v>
+      </c>
+      <c r="O13" s="371">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="397"/>
@@ -18155,19 +18203,35 @@
         <v>349</v>
       </c>
       <c r="F14" s="369" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G14" s="367">
         <v>20</v>
       </c>
-      <c r="H14" s="373"/>
-      <c r="I14" s="373"/>
-      <c r="J14" s="373"/>
-      <c r="K14" s="373"/>
-      <c r="L14" s="373"/>
-      <c r="M14" s="373"/>
-      <c r="N14" s="371"/>
-      <c r="O14" s="371"/>
+      <c r="H14" s="373">
+        <v>18</v>
+      </c>
+      <c r="I14" s="373">
+        <v>15</v>
+      </c>
+      <c r="J14" s="373">
+        <v>12</v>
+      </c>
+      <c r="K14" s="373">
+        <v>8</v>
+      </c>
+      <c r="L14" s="373">
+        <v>5</v>
+      </c>
+      <c r="M14" s="373">
+        <v>3</v>
+      </c>
+      <c r="N14" s="371">
+        <v>0</v>
+      </c>
+      <c r="O14" s="371">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="335">
@@ -18188,14 +18252,30 @@
       <c r="G15" s="367">
         <v>20</v>
       </c>
-      <c r="H15" s="326"/>
-      <c r="I15" s="339"/>
-      <c r="J15" s="339"/>
-      <c r="K15" s="339"/>
-      <c r="L15" s="339"/>
-      <c r="M15" s="331"/>
-      <c r="N15" s="362"/>
-      <c r="O15" s="362"/>
+      <c r="H15" s="326">
+        <v>18</v>
+      </c>
+      <c r="I15" s="339">
+        <v>16</v>
+      </c>
+      <c r="J15" s="339">
+        <v>14</v>
+      </c>
+      <c r="K15" s="339">
+        <v>13</v>
+      </c>
+      <c r="L15" s="339">
+        <v>10</v>
+      </c>
+      <c r="M15" s="331">
+        <v>8</v>
+      </c>
+      <c r="N15" s="362">
+        <v>7</v>
+      </c>
+      <c r="O15" s="362">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="2:15" s="197" customFormat="1">
       <c r="B16" s="338">
@@ -18216,14 +18296,30 @@
       <c r="G16" s="367">
         <v>25</v>
       </c>
-      <c r="H16" s="356"/>
-      <c r="I16" s="357"/>
-      <c r="J16" s="357"/>
-      <c r="K16" s="357"/>
-      <c r="L16" s="357"/>
-      <c r="M16" s="357"/>
-      <c r="N16" s="371"/>
-      <c r="O16" s="371"/>
+      <c r="H16" s="356">
+        <v>23</v>
+      </c>
+      <c r="I16" s="357">
+        <v>20</v>
+      </c>
+      <c r="J16" s="357">
+        <v>18</v>
+      </c>
+      <c r="K16" s="357">
+        <v>15</v>
+      </c>
+      <c r="L16" s="357">
+        <v>12</v>
+      </c>
+      <c r="M16" s="357">
+        <v>10</v>
+      </c>
+      <c r="N16" s="371">
+        <v>10</v>
+      </c>
+      <c r="O16" s="371">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="2:15" s="197" customFormat="1">
       <c r="B17" s="335">
@@ -18238,20 +18334,20 @@
       <c r="E17" s="366" t="s">
         <v>352</v>
       </c>
-      <c r="F17" s="365" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="367">
+      <c r="F17" s="387" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="388">
         <v>25</v>
       </c>
-      <c r="H17" s="356"/>
-      <c r="I17" s="357"/>
-      <c r="J17" s="357"/>
-      <c r="K17" s="357"/>
-      <c r="L17" s="357"/>
-      <c r="M17" s="357"/>
-      <c r="N17" s="371"/>
-      <c r="O17" s="371"/>
+      <c r="H17" s="392"/>
+      <c r="I17" s="393"/>
+      <c r="J17" s="393"/>
+      <c r="K17" s="393"/>
+      <c r="L17" s="393"/>
+      <c r="M17" s="393"/>
+      <c r="N17" s="394"/>
+      <c r="O17" s="394"/>
     </row>
     <row r="18" spans="2:15" s="197" customFormat="1">
       <c r="B18" s="338">
@@ -18272,14 +18368,30 @@
       <c r="G18" s="367">
         <v>25</v>
       </c>
-      <c r="H18" s="356"/>
-      <c r="I18" s="357"/>
-      <c r="J18" s="357"/>
-      <c r="K18" s="356"/>
-      <c r="L18" s="356"/>
-      <c r="M18" s="356"/>
-      <c r="N18" s="371"/>
-      <c r="O18" s="371"/>
+      <c r="H18" s="356">
+        <v>24</v>
+      </c>
+      <c r="I18" s="357">
+        <v>23</v>
+      </c>
+      <c r="J18" s="357">
+        <v>22</v>
+      </c>
+      <c r="K18" s="356">
+        <v>20</v>
+      </c>
+      <c r="L18" s="356">
+        <v>20</v>
+      </c>
+      <c r="M18" s="356">
+        <v>20</v>
+      </c>
+      <c r="N18" s="371">
+        <v>20</v>
+      </c>
+      <c r="O18" s="371">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="2:15" s="197" customFormat="1">
       <c r="B19" s="335">
@@ -18300,14 +18412,30 @@
       <c r="G19" s="367">
         <v>25</v>
       </c>
-      <c r="H19" s="326"/>
-      <c r="I19" s="339"/>
-      <c r="J19" s="339"/>
-      <c r="K19" s="339"/>
-      <c r="L19" s="339"/>
-      <c r="M19" s="331"/>
-      <c r="N19" s="398"/>
-      <c r="O19" s="398"/>
+      <c r="H19" s="326">
+        <v>25</v>
+      </c>
+      <c r="I19" s="339">
+        <v>25</v>
+      </c>
+      <c r="J19" s="339">
+        <v>25</v>
+      </c>
+      <c r="K19" s="339">
+        <v>25</v>
+      </c>
+      <c r="L19" s="339">
+        <v>25</v>
+      </c>
+      <c r="M19" s="331">
+        <v>25</v>
+      </c>
+      <c r="N19" s="398">
+        <v>25</v>
+      </c>
+      <c r="O19" s="398">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="338">

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="Sprint04_2705_0206" sheetId="12" r:id="rId10"/>
     <sheet name="Sprint05_0306_0906" sheetId="14" r:id="rId11"/>
     <sheet name="Sprint06_1006_1606" sheetId="15" r:id="rId12"/>
-    <sheet name="Sprint07_1706_2306" sheetId="16" r:id="rId13"/>
+    <sheet name="Sprint07_1706_2306 " sheetId="17" r:id="rId13"/>
+    <sheet name="Sprint08_2406_3006" sheetId="16" r:id="rId14"/>
+    <sheet name="Sprint09_0107_0707" sheetId="19" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$1:$G$106</definedName>
@@ -634,8 +636,56 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tu Huynh</author>
+  </authors>
+  <commentList>
+    <comment ref="G11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:May Span TWO Sprint</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tu Huynh</author>
+  </authors>
+  <commentList>
+    <comment ref="G11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tu Huynh:May Span TWO Sprint</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="473">
   <si>
     <t>Introduction</t>
   </si>
@@ -1966,9 +2016,6 @@
     <t>+Authentication</t>
   </si>
   <si>
-    <t>SPRINT 07 FROM 17/06 TO 23/06</t>
-  </si>
-  <si>
     <t>17/06</t>
   </si>
   <si>
@@ -2009,6 +2056,81 @@
   </si>
   <si>
     <t>+Teacher see feedback of student</t>
+  </si>
+  <si>
+    <t>SPRINT 08 FROM 24/06 TO 30/06</t>
+  </si>
+  <si>
+    <t>24/06</t>
+  </si>
+  <si>
+    <t>25/06</t>
+  </si>
+  <si>
+    <t>26/06</t>
+  </si>
+  <si>
+    <t>27/06</t>
+  </si>
+  <si>
+    <t>28/06</t>
+  </si>
+  <si>
+    <t>29/06</t>
+  </si>
+  <si>
+    <t>30/06</t>
+  </si>
+  <si>
+    <t>+New Tests Page - Score - Chart</t>
+  </si>
+  <si>
+    <t>+Send mail notify users when re-invite</t>
+  </si>
+  <si>
+    <t>SPRINT 08 FROM 17/06 TO 23/06</t>
+  </si>
+  <si>
+    <t>SPRINT 09 FROM 01/07 TO 07/07</t>
+  </si>
+  <si>
+    <t>01/07</t>
+  </si>
+  <si>
+    <t>02/07</t>
+  </si>
+  <si>
+    <t>03/07</t>
+  </si>
+  <si>
+    <t>04/07</t>
+  </si>
+  <si>
+    <t>05/07</t>
+  </si>
+  <si>
+    <t>06/07</t>
+  </si>
+  <si>
+    <t>07/07</t>
+  </si>
+  <si>
+    <t>+Apply start-end date on test</t>
+  </si>
+  <si>
+    <t>+Search test by Tags</t>
+  </si>
+  <si>
+    <t>+Email to access test by token</t>
+  </si>
+  <si>
+    <t>+Asynchornous send mail</t>
+  </si>
+  <si>
+    <t>+Search student in Popups of invitation tab</t>
+  </si>
+  <si>
+    <t>+Sort name/date when teacher see feedback list</t>
   </si>
 </sst>
 </file>
@@ -2019,7 +2141,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2191,6 +2313,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -2338,7 +2468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -2858,12 +2988,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="418">
+  <cellXfs count="423">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -4028,24 +4203,42 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4061,33 +4254,1126 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="10" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="219">
+  <dxfs count="257">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -11808,21 +13094,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:N30" totalsRowShown="0" headerRowDxfId="218" headerRowBorderDxfId="217" tableBorderDxfId="216">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:N30" totalsRowShown="0" headerRowDxfId="256" headerRowBorderDxfId="255" tableBorderDxfId="254">
   <autoFilter ref="B10:N30"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="215"/>
-    <tableColumn id="2" name="Task description" dataDxfId="214"/>
-    <tableColumn id="3" name="Type" dataDxfId="213"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="212"/>
-    <tableColumn id="5" name="Status" dataDxfId="211"/>
-    <tableColumn id="8" name="(W)23/5" dataDxfId="210"/>
-    <tableColumn id="9" name="(Th)24/5" dataDxfId="209"/>
-    <tableColumn id="10" name="(Fr)25/5" dataDxfId="208"/>
-    <tableColumn id="11" name="(Sa)26/5" dataDxfId="207"/>
-    <tableColumn id="12" name="(Su)27/5" dataDxfId="206"/>
+    <tableColumn id="1" name="No." dataDxfId="253"/>
+    <tableColumn id="2" name="Task description" dataDxfId="252"/>
+    <tableColumn id="3" name="Type" dataDxfId="251"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="250"/>
+    <tableColumn id="5" name="Status" dataDxfId="249"/>
+    <tableColumn id="8" name="(W)23/5" dataDxfId="248"/>
+    <tableColumn id="9" name="(Th)24/5" dataDxfId="247"/>
+    <tableColumn id="10" name="(Fr)25/5" dataDxfId="246"/>
+    <tableColumn id="11" name="(Sa)26/5" dataDxfId="245"/>
+    <tableColumn id="12" name="(Su)27/5" dataDxfId="244"/>
     <tableColumn id="13" name="(Mo)28/5"/>
-    <tableColumn id="14" name="(Tu)29/5" dataDxfId="205"/>
+    <tableColumn id="14" name="(Tu)29/5" dataDxfId="243"/>
     <tableColumn id="7" name="End Sprint"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11830,8 +13116,89 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table134567891011" displayName="Table134567891011" ref="B10:O54" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table134567891011" displayName="Table134567891011" ref="B10:O54" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
   <autoFilter ref="B10:O54">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="89"/>
+    <tableColumn id="2" name="Task description" dataDxfId="88"/>
+    <tableColumn id="3" name="Type" dataDxfId="87"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="86"/>
+    <tableColumn id="5" name="Status" dataDxfId="85"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="84"/>
+    <tableColumn id="8" name="03/06" dataDxfId="83"/>
+    <tableColumn id="9" name="04/06" dataDxfId="82"/>
+    <tableColumn id="10" name="05/06" dataDxfId="81"/>
+    <tableColumn id="11" name="06/06" dataDxfId="80"/>
+    <tableColumn id="12" name="07/06" dataDxfId="79"/>
+    <tableColumn id="13" name="08/06" dataDxfId="78"/>
+    <tableColumn id="14" name="09/06" dataDxfId="77"/>
+    <tableColumn id="15" name="End" dataDxfId="76"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table13456789101112" displayName="Table13456789101112" ref="B10:O56" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
+  <autoFilter ref="B10:O56">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="70"/>
+    <tableColumn id="2" name="Task description" dataDxfId="69"/>
+    <tableColumn id="3" name="Type" dataDxfId="68"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="67"/>
+    <tableColumn id="5" name="Status" dataDxfId="66"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="65"/>
+    <tableColumn id="8" name="10/06" dataDxfId="64"/>
+    <tableColumn id="9" name="11/06" dataDxfId="63"/>
+    <tableColumn id="10" name="12/06" dataDxfId="62"/>
+    <tableColumn id="11" name="13/06" dataDxfId="61"/>
+    <tableColumn id="12" name="14/06" dataDxfId="60"/>
+    <tableColumn id="13" name="15/06" dataDxfId="59"/>
+    <tableColumn id="14" name="16/06" dataDxfId="58"/>
+    <tableColumn id="15" name="End" dataDxfId="57"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table134567891011121314" displayName="Table134567891011121314" ref="B10:O56" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+  <autoFilter ref="B10:O56">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="37"/>
+    <tableColumn id="2" name="Task description" dataDxfId="36"/>
+    <tableColumn id="3" name="Type" dataDxfId="35"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="34"/>
+    <tableColumn id="5" name="Status" dataDxfId="33"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="32"/>
+    <tableColumn id="8" name="17/06" dataDxfId="31"/>
+    <tableColumn id="9" name="18/06" dataDxfId="30"/>
+    <tableColumn id="10" name="19/06" dataDxfId="29"/>
+    <tableColumn id="11" name="20/06" dataDxfId="28"/>
+    <tableColumn id="12" name="21/06" dataDxfId="27"/>
+    <tableColumn id="13" name="22/06" dataDxfId="26"/>
+    <tableColumn id="14" name="23/06" dataDxfId="25"/>
+    <tableColumn id="15" name="End" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1345678910111213" displayName="Table1345678910111213" ref="B10:O56" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+  <autoFilter ref="B10:O56">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
@@ -11843,200 +13210,227 @@
     <tableColumn id="4" name="Assign To" dataDxfId="48"/>
     <tableColumn id="5" name="Status" dataDxfId="47"/>
     <tableColumn id="7" name="Estimate" dataDxfId="46"/>
-    <tableColumn id="8" name="03/06" dataDxfId="45"/>
-    <tableColumn id="9" name="04/06" dataDxfId="44"/>
-    <tableColumn id="10" name="05/06" dataDxfId="43"/>
-    <tableColumn id="11" name="06/06" dataDxfId="42"/>
-    <tableColumn id="12" name="07/06" dataDxfId="41"/>
-    <tableColumn id="13" name="08/06" dataDxfId="40"/>
-    <tableColumn id="14" name="09/06" dataDxfId="39"/>
+    <tableColumn id="8" name="24/06" dataDxfId="45"/>
+    <tableColumn id="9" name="25/06" dataDxfId="44"/>
+    <tableColumn id="10" name="26/06" dataDxfId="43"/>
+    <tableColumn id="11" name="27/06" dataDxfId="42"/>
+    <tableColumn id="12" name="28/06" dataDxfId="41"/>
+    <tableColumn id="13" name="29/06" dataDxfId="40"/>
+    <tableColumn id="14" name="30/06" dataDxfId="39"/>
     <tableColumn id="15" name="End" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table13456789101112" displayName="Table13456789101112" ref="B10:O56" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table134567891011121315" displayName="Table134567891011121315" ref="B10:O56" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
   <autoFilter ref="B10:O56">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="32"/>
-    <tableColumn id="2" name="Task description" dataDxfId="31"/>
-    <tableColumn id="3" name="Type" dataDxfId="30"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="29"/>
-    <tableColumn id="5" name="Status" dataDxfId="28"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="27"/>
-    <tableColumn id="8" name="10/06" dataDxfId="26"/>
-    <tableColumn id="9" name="11/06" dataDxfId="25"/>
-    <tableColumn id="10" name="12/06" dataDxfId="24"/>
-    <tableColumn id="11" name="13/06" dataDxfId="23"/>
-    <tableColumn id="12" name="14/06" dataDxfId="22"/>
-    <tableColumn id="13" name="15/06" dataDxfId="21"/>
-    <tableColumn id="14" name="16/06" dataDxfId="20"/>
-    <tableColumn id="15" name="End" dataDxfId="19"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1345678910111213" displayName="Table1345678910111213" ref="B10:O56" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="B10:O56">
-    <filterColumn colId="5"/>
-    <filterColumn colId="12"/>
-    <filterColumn colId="13"/>
-  </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="13"/>
-    <tableColumn id="2" name="Task description" dataDxfId="12"/>
-    <tableColumn id="3" name="Type" dataDxfId="11"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="10"/>
-    <tableColumn id="5" name="Status" dataDxfId="9"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="8"/>
-    <tableColumn id="8" name="17/06" dataDxfId="7"/>
-    <tableColumn id="9" name="18/06" dataDxfId="6"/>
-    <tableColumn id="10" name="19/06" dataDxfId="5"/>
-    <tableColumn id="11" name="20/06" dataDxfId="4"/>
-    <tableColumn id="12" name="21/06" dataDxfId="3"/>
-    <tableColumn id="13" name="22/06" dataDxfId="2"/>
-    <tableColumn id="14" name="23/06" dataDxfId="1"/>
-    <tableColumn id="15" name="End" dataDxfId="0"/>
+    <tableColumn id="1" name="No." dataDxfId="18"/>
+    <tableColumn id="2" name="Task description" dataDxfId="17"/>
+    <tableColumn id="3" name="Type" dataDxfId="16"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="15"/>
+    <tableColumn id="5" name="Status" dataDxfId="14"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="13"/>
+    <tableColumn id="8" name="01/07" dataDxfId="12"/>
+    <tableColumn id="9" name="02/07" dataDxfId="11"/>
+    <tableColumn id="10" name="03/07" dataDxfId="10"/>
+    <tableColumn id="11" name="04/07" dataDxfId="9"/>
+    <tableColumn id="12" name="05/07" dataDxfId="8"/>
+    <tableColumn id="13" name="06/07" dataDxfId="7"/>
+    <tableColumn id="14" name="07/07" dataDxfId="6"/>
+    <tableColumn id="15" name="End" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:O28" totalsRowShown="0" headerRowDxfId="204" headerRowBorderDxfId="203" tableBorderDxfId="202">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:O28" totalsRowShown="0" headerRowDxfId="242" headerRowBorderDxfId="241" tableBorderDxfId="240">
   <autoFilter ref="B10:O28"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="201"/>
-    <tableColumn id="2" name="Task description" dataDxfId="200"/>
-    <tableColumn id="3" name="Type" dataDxfId="199"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="198"/>
-    <tableColumn id="5" name="Status" dataDxfId="197"/>
-    <tableColumn id="17" name="Percentage" dataDxfId="196"/>
-    <tableColumn id="8" name="(W)30/5" dataDxfId="195"/>
-    <tableColumn id="9" name="(Th)31/5" dataDxfId="194"/>
-    <tableColumn id="10" name="(Fr)1/6" dataDxfId="193"/>
-    <tableColumn id="11" name="(Sa)2/6" dataDxfId="192"/>
-    <tableColumn id="12" name="(Su)3/6" dataDxfId="191"/>
+    <tableColumn id="1" name="No." dataDxfId="239"/>
+    <tableColumn id="2" name="Task description" dataDxfId="238"/>
+    <tableColumn id="3" name="Type" dataDxfId="237"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="236"/>
+    <tableColumn id="5" name="Status" dataDxfId="235"/>
+    <tableColumn id="17" name="Percentage" dataDxfId="234"/>
+    <tableColumn id="8" name="(W)30/5" dataDxfId="233"/>
+    <tableColumn id="9" name="(Th)31/5" dataDxfId="232"/>
+    <tableColumn id="10" name="(Fr)1/6" dataDxfId="231"/>
+    <tableColumn id="11" name="(Sa)2/6" dataDxfId="230"/>
+    <tableColumn id="12" name="(Su)3/6" dataDxfId="229"/>
     <tableColumn id="13" name="(Mo)4/6"/>
-    <tableColumn id="14" name="(Tu)5/6" dataDxfId="190"/>
-    <tableColumn id="7" name="End Sprint" dataDxfId="189"/>
+    <tableColumn id="14" name="(Tu)5/6" dataDxfId="228"/>
+    <tableColumn id="7" name="End Sprint" dataDxfId="227"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B10:N27" totalsRowShown="0" headerRowDxfId="188" headerRowBorderDxfId="187" tableBorderDxfId="186">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B10:N27" totalsRowShown="0" headerRowDxfId="226" headerRowBorderDxfId="225" tableBorderDxfId="224">
   <autoFilter ref="B10:N27"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="185"/>
-    <tableColumn id="2" name="Task description" dataDxfId="184"/>
-    <tableColumn id="3" name="Type" dataDxfId="183"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="182"/>
-    <tableColumn id="5" name="Status" dataDxfId="181"/>
-    <tableColumn id="8" name="(W)06/6" dataDxfId="180"/>
-    <tableColumn id="9" name="(Th)07/6" dataDxfId="179"/>
-    <tableColumn id="10" name="(Fr)08/6" dataDxfId="178"/>
-    <tableColumn id="11" name="(Sa)09/6" dataDxfId="177"/>
-    <tableColumn id="12" name="(Su)10/6" dataDxfId="176"/>
+    <tableColumn id="1" name="No." dataDxfId="223"/>
+    <tableColumn id="2" name="Task description" dataDxfId="222"/>
+    <tableColumn id="3" name="Type" dataDxfId="221"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="220"/>
+    <tableColumn id="5" name="Status" dataDxfId="219"/>
+    <tableColumn id="8" name="(W)06/6" dataDxfId="218"/>
+    <tableColumn id="9" name="(Th)07/6" dataDxfId="217"/>
+    <tableColumn id="10" name="(Fr)08/6" dataDxfId="216"/>
+    <tableColumn id="11" name="(Sa)09/6" dataDxfId="215"/>
+    <tableColumn id="12" name="(Su)10/6" dataDxfId="214"/>
     <tableColumn id="13" name="(Mo)11/6"/>
-    <tableColumn id="14" name="(Tu)12/6" dataDxfId="175"/>
-    <tableColumn id="7" name="End Sprint" dataDxfId="174"/>
+    <tableColumn id="14" name="(Tu)12/6" dataDxfId="213"/>
+    <tableColumn id="7" name="End Sprint" dataDxfId="212"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B10:AA76" totalsRowShown="0" headerRowDxfId="173" headerRowBorderDxfId="172" tableBorderDxfId="171">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B10:AA76" totalsRowShown="0" headerRowDxfId="211" headerRowBorderDxfId="210" tableBorderDxfId="209">
   <autoFilter ref="B10:AA76"/>
   <tableColumns count="26">
-    <tableColumn id="1" name="No." dataDxfId="170"/>
-    <tableColumn id="2" name="Task description" dataDxfId="169"/>
-    <tableColumn id="3" name="Type" dataDxfId="168"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="167"/>
-    <tableColumn id="5" name="Status" dataDxfId="166"/>
-    <tableColumn id="8" name="25/6" dataDxfId="165"/>
-    <tableColumn id="9" name="26/6" dataDxfId="164"/>
-    <tableColumn id="10" name="27/6" dataDxfId="163"/>
-    <tableColumn id="11" name="28/6" dataDxfId="162"/>
-    <tableColumn id="12" name="29/6" dataDxfId="161"/>
+    <tableColumn id="1" name="No." dataDxfId="208"/>
+    <tableColumn id="2" name="Task description" dataDxfId="207"/>
+    <tableColumn id="3" name="Type" dataDxfId="206"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="205"/>
+    <tableColumn id="5" name="Status" dataDxfId="204"/>
+    <tableColumn id="8" name="25/6" dataDxfId="203"/>
+    <tableColumn id="9" name="26/6" dataDxfId="202"/>
+    <tableColumn id="10" name="27/6" dataDxfId="201"/>
+    <tableColumn id="11" name="28/6" dataDxfId="200"/>
+    <tableColumn id="12" name="29/6" dataDxfId="199"/>
     <tableColumn id="13" name="30/6"/>
-    <tableColumn id="14" name="1/7" dataDxfId="160"/>
-    <tableColumn id="6" name="2/7" dataDxfId="159"/>
-    <tableColumn id="7" name="3/7" dataDxfId="158"/>
-    <tableColumn id="15" name="4/7" dataDxfId="157"/>
-    <tableColumn id="16" name="5/7" dataDxfId="156"/>
-    <tableColumn id="17" name="6/7" dataDxfId="155"/>
-    <tableColumn id="24" name="7/7" dataDxfId="154"/>
-    <tableColumn id="23" name="8/7" dataDxfId="153"/>
-    <tableColumn id="22" name="9/7" dataDxfId="152"/>
-    <tableColumn id="21" name="10/7" dataDxfId="151"/>
-    <tableColumn id="20" name="11/7" dataDxfId="150"/>
-    <tableColumn id="18" name="12/7" dataDxfId="149"/>
-    <tableColumn id="25" name="13/7" dataDxfId="148"/>
-    <tableColumn id="26" name="14/7" dataDxfId="147"/>
-    <tableColumn id="19" name="End" dataDxfId="146"/>
+    <tableColumn id="14" name="1/7" dataDxfId="198"/>
+    <tableColumn id="6" name="2/7" dataDxfId="197"/>
+    <tableColumn id="7" name="3/7" dataDxfId="196"/>
+    <tableColumn id="15" name="4/7" dataDxfId="195"/>
+    <tableColumn id="16" name="5/7" dataDxfId="194"/>
+    <tableColumn id="17" name="6/7" dataDxfId="193"/>
+    <tableColumn id="24" name="7/7" dataDxfId="192"/>
+    <tableColumn id="23" name="8/7" dataDxfId="191"/>
+    <tableColumn id="22" name="9/7" dataDxfId="190"/>
+    <tableColumn id="21" name="10/7" dataDxfId="189"/>
+    <tableColumn id="20" name="11/7" dataDxfId="188"/>
+    <tableColumn id="18" name="12/7" dataDxfId="187"/>
+    <tableColumn id="25" name="13/7" dataDxfId="186"/>
+    <tableColumn id="26" name="14/7" dataDxfId="185"/>
+    <tableColumn id="19" name="End" dataDxfId="184"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B10:N56" totalsRowShown="0" headerRowDxfId="145" headerRowBorderDxfId="144" tableBorderDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B10:N56" totalsRowShown="0" headerRowDxfId="183" headerRowBorderDxfId="182" tableBorderDxfId="181">
   <autoFilter ref="B10:N56"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="142"/>
-    <tableColumn id="2" name="Task description" dataDxfId="141"/>
-    <tableColumn id="3" name="Type" dataDxfId="140"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="139"/>
-    <tableColumn id="5" name="Status" dataDxfId="138"/>
-    <tableColumn id="8" name="16/7" dataDxfId="137"/>
-    <tableColumn id="9" name="17/7" dataDxfId="136"/>
-    <tableColumn id="10" name="18/7" dataDxfId="135"/>
-    <tableColumn id="11" name="19/7" dataDxfId="134"/>
-    <tableColumn id="12" name="20/7" dataDxfId="133"/>
+    <tableColumn id="1" name="No." dataDxfId="180"/>
+    <tableColumn id="2" name="Task description" dataDxfId="179"/>
+    <tableColumn id="3" name="Type" dataDxfId="178"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="177"/>
+    <tableColumn id="5" name="Status" dataDxfId="176"/>
+    <tableColumn id="8" name="16/7" dataDxfId="175"/>
+    <tableColumn id="9" name="17/7" dataDxfId="174"/>
+    <tableColumn id="10" name="18/7" dataDxfId="173"/>
+    <tableColumn id="11" name="19/7" dataDxfId="172"/>
+    <tableColumn id="12" name="20/7" dataDxfId="171"/>
     <tableColumn id="13" name="21/7"/>
-    <tableColumn id="14" name="22/7" dataDxfId="132"/>
-    <tableColumn id="19" name="End" dataDxfId="131"/>
+    <tableColumn id="14" name="22/7" dataDxfId="170"/>
+    <tableColumn id="19" name="End" dataDxfId="169"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="130" dataDxfId="128" headerRowBorderDxfId="129" tableBorderDxfId="127" totalsRowBorderDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="168" dataDxfId="166" headerRowBorderDxfId="167" tableBorderDxfId="165" totalsRowBorderDxfId="164">
   <autoFilter ref="B10:M54">
     <filterColumn colId="5"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="No." dataDxfId="125"/>
-    <tableColumn id="2" name="Task description" dataDxfId="124"/>
-    <tableColumn id="3" name="Type" dataDxfId="123"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="122"/>
-    <tableColumn id="5" name="Status" dataDxfId="121"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="120"/>
-    <tableColumn id="8" name="08/05" dataDxfId="119"/>
-    <tableColumn id="9" name="09/05" dataDxfId="118"/>
-    <tableColumn id="10" name="10/05" dataDxfId="117"/>
-    <tableColumn id="11" name="11/05" dataDxfId="116"/>
-    <tableColumn id="12" name="12/05" dataDxfId="115"/>
-    <tableColumn id="13" name="End" dataDxfId="114"/>
+    <tableColumn id="1" name="No." dataDxfId="163"/>
+    <tableColumn id="2" name="Task description" dataDxfId="162"/>
+    <tableColumn id="3" name="Type" dataDxfId="161"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="160"/>
+    <tableColumn id="5" name="Status" dataDxfId="159"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="158"/>
+    <tableColumn id="8" name="08/05" dataDxfId="157"/>
+    <tableColumn id="9" name="09/05" dataDxfId="156"/>
+    <tableColumn id="10" name="10/05" dataDxfId="155"/>
+    <tableColumn id="11" name="11/05" dataDxfId="154"/>
+    <tableColumn id="12" name="12/05" dataDxfId="153"/>
+    <tableColumn id="13" name="End" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110" totalsRowBorderDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148" totalsRowBorderDxfId="147">
+  <autoFilter ref="B10:O54">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="146"/>
+    <tableColumn id="2" name="Task description" dataDxfId="145"/>
+    <tableColumn id="3" name="Type" dataDxfId="144"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="143"/>
+    <tableColumn id="5" name="Status" dataDxfId="142"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="141"/>
+    <tableColumn id="8" name="13/05" dataDxfId="140"/>
+    <tableColumn id="9" name="14/05" dataDxfId="139"/>
+    <tableColumn id="10" name="15/05" dataDxfId="138"/>
+    <tableColumn id="11" name="16/05" dataDxfId="137"/>
+    <tableColumn id="12" name="17/05" dataDxfId="136"/>
+    <tableColumn id="13" name="18/05" dataDxfId="135"/>
+    <tableColumn id="14" name="19/05" dataDxfId="134"/>
+    <tableColumn id="15" name="End" dataDxfId="133"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13456789" displayName="Table13456789" ref="B10:O54" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131" tableBorderDxfId="129" totalsRowBorderDxfId="128">
+  <autoFilter ref="B10:O54">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="127"/>
+    <tableColumn id="2" name="Task description" dataDxfId="126"/>
+    <tableColumn id="3" name="Type" dataDxfId="125"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="124"/>
+    <tableColumn id="5" name="Status" dataDxfId="123"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="122"/>
+    <tableColumn id="8" name="20/05" dataDxfId="121"/>
+    <tableColumn id="9" name="21/05" dataDxfId="120"/>
+    <tableColumn id="10" name="22/05" dataDxfId="119"/>
+    <tableColumn id="11" name="23/05" dataDxfId="118"/>
+    <tableColumn id="12" name="24/05" dataDxfId="117"/>
+    <tableColumn id="13" name="25/05" dataDxfId="116"/>
+    <tableColumn id="14" name="26/05" dataDxfId="115"/>
+    <tableColumn id="15" name="End" dataDxfId="114"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1345678910" displayName="Table1345678910" ref="B10:O54" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110" totalsRowBorderDxfId="109">
   <autoFilter ref="B10:O54">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
@@ -12049,68 +13443,14 @@
     <tableColumn id="4" name="Assign To" dataDxfId="105"/>
     <tableColumn id="5" name="Status" dataDxfId="104"/>
     <tableColumn id="7" name="Estimate" dataDxfId="103"/>
-    <tableColumn id="8" name="13/05" dataDxfId="102"/>
-    <tableColumn id="9" name="14/05" dataDxfId="101"/>
-    <tableColumn id="10" name="15/05" dataDxfId="100"/>
-    <tableColumn id="11" name="16/05" dataDxfId="99"/>
-    <tableColumn id="12" name="17/05" dataDxfId="98"/>
-    <tableColumn id="13" name="18/05" dataDxfId="97"/>
-    <tableColumn id="14" name="19/05" dataDxfId="96"/>
+    <tableColumn id="8" name="27/05" dataDxfId="102"/>
+    <tableColumn id="9" name="28/05" dataDxfId="101"/>
+    <tableColumn id="10" name="29/05" dataDxfId="100"/>
+    <tableColumn id="11" name="30/05" dataDxfId="99"/>
+    <tableColumn id="12" name="31/05" dataDxfId="98"/>
+    <tableColumn id="13" name="01/06" dataDxfId="97"/>
+    <tableColumn id="14" name="02/06" dataDxfId="96"/>
     <tableColumn id="15" name="End" dataDxfId="95"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13456789" displayName="Table13456789" ref="B10:O54" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
-  <autoFilter ref="B10:O54">
-    <filterColumn colId="5"/>
-    <filterColumn colId="12"/>
-    <filterColumn colId="13"/>
-  </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="89"/>
-    <tableColumn id="2" name="Task description" dataDxfId="88"/>
-    <tableColumn id="3" name="Type" dataDxfId="87"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="86"/>
-    <tableColumn id="5" name="Status" dataDxfId="85"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="84"/>
-    <tableColumn id="8" name="20/05" dataDxfId="83"/>
-    <tableColumn id="9" name="21/05" dataDxfId="82"/>
-    <tableColumn id="10" name="22/05" dataDxfId="81"/>
-    <tableColumn id="11" name="23/05" dataDxfId="80"/>
-    <tableColumn id="12" name="24/05" dataDxfId="79"/>
-    <tableColumn id="13" name="25/05" dataDxfId="78"/>
-    <tableColumn id="14" name="26/05" dataDxfId="77"/>
-    <tableColumn id="15" name="End" dataDxfId="76"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1345678910" displayName="Table1345678910" ref="B10:O54" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
-  <autoFilter ref="B10:O54">
-    <filterColumn colId="5"/>
-    <filterColumn colId="12"/>
-    <filterColumn colId="13"/>
-  </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="70"/>
-    <tableColumn id="2" name="Task description" dataDxfId="69"/>
-    <tableColumn id="3" name="Type" dataDxfId="68"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="67"/>
-    <tableColumn id="5" name="Status" dataDxfId="66"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="65"/>
-    <tableColumn id="8" name="27/05" dataDxfId="64"/>
-    <tableColumn id="9" name="28/05" dataDxfId="63"/>
-    <tableColumn id="10" name="29/05" dataDxfId="62"/>
-    <tableColumn id="11" name="30/05" dataDxfId="61"/>
-    <tableColumn id="12" name="31/05" dataDxfId="60"/>
-    <tableColumn id="13" name="01/06" dataDxfId="59"/>
-    <tableColumn id="14" name="02/06" dataDxfId="58"/>
-    <tableColumn id="15" name="End" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12491,7 +13831,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="C14" s="403">
+      <c r="C14" s="400">
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -12502,7 +13842,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="C15" s="404"/>
+      <c r="C15" s="401"/>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
@@ -12510,28 +13850,28 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="C16" s="404"/>
+      <c r="C16" s="401"/>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="404"/>
+      <c r="C17" s="401"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="405"/>
+      <c r="C18" s="407"/>
       <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="408">
+      <c r="C19" s="414">
         <v>3</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -12542,7 +13882,7 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="409"/>
+      <c r="C20" s="415"/>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
@@ -12552,7 +13892,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="409"/>
+      <c r="C21" s="415"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -12562,42 +13902,42 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="409"/>
+      <c r="C22" s="415"/>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="409"/>
+      <c r="C23" s="415"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="409"/>
+      <c r="C24" s="415"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="409"/>
+      <c r="C25" s="415"/>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="410"/>
+      <c r="C26" s="416"/>
       <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="53"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="403">
+      <c r="C27" s="400">
         <v>4</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -12608,56 +13948,56 @@
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="404"/>
+      <c r="C28" s="401"/>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="404"/>
+      <c r="C29" s="401"/>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="404"/>
+      <c r="C30" s="401"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="404"/>
+      <c r="C31" s="401"/>
       <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="404"/>
+      <c r="C32" s="401"/>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="C33" s="404"/>
+      <c r="C33" s="401"/>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="C34" s="405"/>
+      <c r="C34" s="407"/>
       <c r="D34" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="400">
+      <c r="C35" s="406">
         <v>5</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -12668,14 +14008,14 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="401"/>
+      <c r="C36" s="404"/>
       <c r="D36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="401"/>
+      <c r="C37" s="404"/>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
@@ -12683,14 +14023,14 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="402"/>
+      <c r="C38" s="411"/>
       <c r="D38" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="49"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="403">
+      <c r="C39" s="400">
         <v>6</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -12701,21 +14041,21 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="404"/>
+      <c r="C40" s="401"/>
       <c r="D40" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="405"/>
+      <c r="C41" s="407"/>
       <c r="D41" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="406" t="s">
+      <c r="C42" s="412" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -12726,7 +14066,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="C43" s="407"/>
+      <c r="C43" s="413"/>
       <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
@@ -12766,10 +14106,10 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="C52" s="413" t="s">
+      <c r="C52" s="410" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="413"/>
+      <c r="D52" s="410"/>
       <c r="E52" s="42"/>
     </row>
     <row r="53" spans="2:5">
@@ -12791,10 +14131,10 @@
       <c r="E54" s="40"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="C55" s="411" t="s">
+      <c r="C55" s="408" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="412"/>
+      <c r="D55" s="409"/>
       <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5">
@@ -12816,10 +14156,10 @@
       <c r="E57" s="40"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="C58" s="411" t="s">
+      <c r="C58" s="408" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="412"/>
+      <c r="D58" s="409"/>
       <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5">
@@ -12832,7 +14172,7 @@
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="C60" s="404">
+      <c r="C60" s="401">
         <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
@@ -12841,70 +14181,70 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="C61" s="404"/>
+      <c r="C61" s="401"/>
       <c r="D61" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="C62" s="404"/>
+      <c r="C62" s="401"/>
       <c r="D62" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="C63" s="404"/>
+      <c r="C63" s="401"/>
       <c r="D63" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="C64" s="404"/>
+      <c r="C64" s="401"/>
       <c r="D64" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="404"/>
+      <c r="C65" s="401"/>
       <c r="D65" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="404"/>
+      <c r="C66" s="401"/>
       <c r="D66" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="18"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="404"/>
+      <c r="C67" s="401"/>
       <c r="D67" s="32" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="404"/>
+      <c r="C68" s="401"/>
       <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="405"/>
+      <c r="C69" s="407"/>
       <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="18"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="400">
+      <c r="C70" s="406">
         <v>2</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -12913,35 +14253,35 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="401"/>
+      <c r="C71" s="404"/>
       <c r="D71" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="3:5">
-      <c r="C72" s="401"/>
+      <c r="C72" s="404"/>
       <c r="D72" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="401"/>
+      <c r="C73" s="404"/>
       <c r="D73" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="401"/>
+      <c r="C74" s="404"/>
       <c r="D74" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="49"/>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="403">
+      <c r="C75" s="400">
         <v>3</v>
       </c>
       <c r="D75" s="44" t="s">
@@ -12950,42 +14290,42 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="404"/>
+      <c r="C76" s="401"/>
       <c r="D76" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="404"/>
+      <c r="C77" s="401"/>
       <c r="D77" s="33" t="s">
         <v>72</v>
       </c>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="404"/>
+      <c r="C78" s="401"/>
       <c r="D78" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E78" s="18"/>
     </row>
     <row r="79" spans="3:5">
-      <c r="C79" s="404"/>
+      <c r="C79" s="401"/>
       <c r="D79" s="33" t="s">
         <v>74</v>
       </c>
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C80" s="414"/>
+      <c r="C80" s="402"/>
       <c r="D80" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="3:5">
-      <c r="C81" s="415">
+      <c r="C81" s="403">
         <v>4</v>
       </c>
       <c r="D81" s="57" t="s">
@@ -12994,63 +14334,63 @@
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="401"/>
+      <c r="C82" s="404"/>
       <c r="D82" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E82" s="48"/>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="401"/>
+      <c r="C83" s="404"/>
       <c r="D83" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="3:5">
-      <c r="C84" s="401"/>
+      <c r="C84" s="404"/>
       <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="48"/>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="401"/>
+      <c r="C85" s="404"/>
       <c r="D85" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="48"/>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="401"/>
+      <c r="C86" s="404"/>
       <c r="D86" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="48"/>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="401"/>
+      <c r="C87" s="404"/>
       <c r="D87" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="401"/>
+      <c r="C88" s="404"/>
       <c r="D88" s="34" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="48"/>
     </row>
     <row r="89" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C89" s="416"/>
+      <c r="C89" s="405"/>
       <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="3:5">
-      <c r="C90" s="403">
+      <c r="C90" s="400">
         <v>5</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -13059,28 +14399,28 @@
       <c r="E90" s="18"/>
     </row>
     <row r="91" spans="3:5">
-      <c r="C91" s="404"/>
+      <c r="C91" s="401"/>
       <c r="D91" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="3:5">
-      <c r="C92" s="404"/>
+      <c r="C92" s="401"/>
       <c r="D92" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="3:5">
-      <c r="C93" s="404"/>
+      <c r="C93" s="401"/>
       <c r="D93" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="3:5">
-      <c r="C94" s="400">
+      <c r="C94" s="406">
         <v>6</v>
       </c>
       <c r="D94" s="57" t="s">
@@ -13089,21 +14429,21 @@
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="401"/>
+      <c r="C95" s="404"/>
       <c r="D95" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="401"/>
+      <c r="C96" s="404"/>
       <c r="D96" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="48"/>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="403">
+      <c r="C97" s="400">
         <v>7</v>
       </c>
       <c r="D97" s="44" t="s">
@@ -13112,35 +14452,35 @@
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="404"/>
+      <c r="C98" s="401"/>
       <c r="D98" s="32" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="18"/>
     </row>
     <row r="99" spans="3:5">
-      <c r="C99" s="404"/>
+      <c r="C99" s="401"/>
       <c r="D99" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="18"/>
     </row>
     <row r="100" spans="3:5">
-      <c r="C100" s="404"/>
+      <c r="C100" s="401"/>
       <c r="D100" s="32" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="18"/>
     </row>
     <row r="101" spans="3:5">
-      <c r="C101" s="405"/>
+      <c r="C101" s="407"/>
       <c r="D101" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="18"/>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="400">
+      <c r="C102" s="406">
         <v>8</v>
       </c>
       <c r="D102" s="57" t="s">
@@ -13149,21 +14489,21 @@
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="3:5">
-      <c r="C103" s="401"/>
+      <c r="C103" s="404"/>
       <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="3:5">
-      <c r="C104" s="401"/>
+      <c r="C104" s="404"/>
       <c r="D104" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="48"/>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="403" t="s">
+      <c r="C105" s="400" t="s">
         <v>99</v>
       </c>
       <c r="D105" s="58" t="s">
@@ -13174,12 +14514,23 @@
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="404"/>
+      <c r="C106" s="401"/>
       <c r="D106" s="38"/>
       <c r="E106" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C75:C80"/>
     <mergeCell ref="C81:C89"/>
@@ -13187,17 +14538,6 @@
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C27:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
@@ -17969,8 +19309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18009,7 +19349,7 @@
     </row>
     <row r="7" spans="2:15" ht="18">
       <c r="B7" s="417" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="C7" s="417"/>
       <c r="D7" s="417"/>
@@ -18034,28 +19374,28 @@
       <c r="G10" s="310" t="s">
         <v>347</v>
       </c>
-      <c r="H10" s="272" t="s">
+      <c r="H10" s="419" t="s">
+        <v>434</v>
+      </c>
+      <c r="I10" s="419" t="s">
         <v>435</v>
       </c>
-      <c r="I10" s="272" t="s">
+      <c r="J10" s="420" t="s">
         <v>436</v>
       </c>
-      <c r="J10" s="273" t="s">
+      <c r="K10" s="420" t="s">
         <v>437</v>
       </c>
-      <c r="K10" s="273" t="s">
+      <c r="L10" s="420" t="s">
         <v>438</v>
       </c>
-      <c r="L10" s="273" t="s">
+      <c r="M10" s="420" t="s">
         <v>439</v>
       </c>
-      <c r="M10" s="273" t="s">
+      <c r="N10" s="421" t="s">
         <v>440</v>
       </c>
-      <c r="N10" s="274" t="s">
-        <v>441</v>
-      </c>
-      <c r="O10" s="311" t="s">
+      <c r="O10" s="422" t="s">
         <v>284</v>
       </c>
     </row>
@@ -18064,7 +19404,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="368" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D11" s="354" t="s">
         <v>107</v>
@@ -18076,31 +19416,31 @@
         <v>117</v>
       </c>
       <c r="G11" s="367">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H11" s="356">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I11" s="357">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J11" s="357">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K11" s="357">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L11" s="357">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M11" s="357">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N11" s="371">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O11" s="371">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -18152,7 +19492,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="385" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D13" s="289" t="s">
         <v>107</v>
@@ -18194,7 +19534,7 @@
     <row r="14" spans="2:15">
       <c r="B14" s="397"/>
       <c r="C14" s="368" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D14" s="354" t="s">
         <v>107</v>
@@ -18282,7 +19622,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="385" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D16" s="365" t="s">
         <v>107</v>
@@ -18326,7 +19666,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="368" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D17" s="365" t="s">
         <v>107</v>
@@ -18354,7 +19694,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="385" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D18" s="365" t="s">
         <v>107</v>
@@ -18398,7 +19738,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="372" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D19" s="354" t="s">
         <v>107</v>
@@ -19380,17 +20720,2783 @@
     <mergeCell ref="B7:E7"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54:F56 F19:F39 F11:F17">
+      <formula1>$C$116:$C$121</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E54:E56 E36 E11:E33">
+      <formula1>$C$109:$C$113</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54:D56 D11:D31 D36">
+      <formula1>$C$103:$C$107</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57:F93">
       <formula1>$C$117:$C$121</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54:D56 D36 D31 D11:D30">
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="28" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:O121"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="97" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" style="97" customWidth="1"/>
+    <col min="8" max="15" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="18">
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="3" spans="2:15" ht="18">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="C4" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="C5" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" ht="18">
+      <c r="B7" s="417" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" s="417"/>
+      <c r="D7" s="417"/>
+      <c r="E7" s="417"/>
+    </row>
+    <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
+      <c r="B10" s="275" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="276" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="276" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="276" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="276" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="310" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="272" t="s">
+        <v>449</v>
+      </c>
+      <c r="I10" s="272" t="s">
+        <v>450</v>
+      </c>
+      <c r="J10" s="273" t="s">
+        <v>451</v>
+      </c>
+      <c r="K10" s="273" t="s">
+        <v>452</v>
+      </c>
+      <c r="L10" s="273" t="s">
+        <v>453</v>
+      </c>
+      <c r="M10" s="273" t="s">
+        <v>454</v>
+      </c>
+      <c r="N10" s="274" t="s">
+        <v>455</v>
+      </c>
+      <c r="O10" s="311" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="338">
+        <v>1</v>
+      </c>
+      <c r="C11" s="368" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="355" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="367">
+        <v>30</v>
+      </c>
+      <c r="H11" s="356">
+        <v>29</v>
+      </c>
+      <c r="I11" s="357">
+        <v>28</v>
+      </c>
+      <c r="J11" s="357">
+        <v>27</v>
+      </c>
+      <c r="K11" s="357">
+        <v>26</v>
+      </c>
+      <c r="L11" s="357">
+        <v>25</v>
+      </c>
+      <c r="M11" s="357">
+        <v>25</v>
+      </c>
+      <c r="N11" s="371">
+        <v>25</v>
+      </c>
+      <c r="O11" s="371">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="335">
+        <v>2</v>
+      </c>
+      <c r="C12" s="372" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="366" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="367">
+        <v>20</v>
+      </c>
+      <c r="H12" s="356">
+        <v>20</v>
+      </c>
+      <c r="I12" s="357">
+        <v>20</v>
+      </c>
+      <c r="J12" s="357">
+        <v>20</v>
+      </c>
+      <c r="K12" s="357">
+        <v>20</v>
+      </c>
+      <c r="L12" s="356">
+        <v>20</v>
+      </c>
+      <c r="M12" s="356">
+        <v>20</v>
+      </c>
+      <c r="N12" s="371">
+        <v>20</v>
+      </c>
+      <c r="O12" s="371">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="338">
+        <v>3</v>
+      </c>
+      <c r="C13" s="368" t="s">
+        <v>445</v>
+      </c>
+      <c r="D13" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="336" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13" s="359" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="360">
+        <v>25</v>
+      </c>
+      <c r="H13" s="373">
+        <v>22</v>
+      </c>
+      <c r="I13" s="373">
+        <v>18</v>
+      </c>
+      <c r="J13" s="373">
+        <v>14</v>
+      </c>
+      <c r="K13" s="373">
+        <v>10</v>
+      </c>
+      <c r="L13" s="373">
+        <v>6</v>
+      </c>
+      <c r="M13" s="373">
+        <v>2</v>
+      </c>
+      <c r="N13" s="371">
+        <v>0</v>
+      </c>
+      <c r="O13" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="338">
+        <v>4</v>
+      </c>
+      <c r="C14" s="368" t="s">
+        <v>456</v>
+      </c>
+      <c r="D14" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F14" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="367">
+        <v>10</v>
+      </c>
+      <c r="H14" s="373">
+        <v>8</v>
+      </c>
+      <c r="I14" s="373">
+        <v>5</v>
+      </c>
+      <c r="J14" s="373">
+        <v>3</v>
+      </c>
+      <c r="K14" s="373">
+        <v>0</v>
+      </c>
+      <c r="L14" s="373">
+        <v>0</v>
+      </c>
+      <c r="M14" s="373">
+        <v>0</v>
+      </c>
+      <c r="N14" s="371">
+        <v>0</v>
+      </c>
+      <c r="O14" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="335">
+        <v>5</v>
+      </c>
+      <c r="C15" s="368" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="367">
+        <v>7</v>
+      </c>
+      <c r="H15" s="326">
+        <v>5</v>
+      </c>
+      <c r="I15" s="339">
+        <v>3</v>
+      </c>
+      <c r="J15" s="339">
+        <v>0</v>
+      </c>
+      <c r="K15" s="339">
+        <v>0</v>
+      </c>
+      <c r="L15" s="339">
+        <v>0</v>
+      </c>
+      <c r="M15" s="331">
+        <v>0</v>
+      </c>
+      <c r="N15" s="362">
+        <v>0</v>
+      </c>
+      <c r="O15" s="362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" s="197" customFormat="1">
+      <c r="B16" s="338">
+        <v>6</v>
+      </c>
+      <c r="C16" s="385" t="s">
+        <v>444</v>
+      </c>
+      <c r="D16" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="366" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16" s="365" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="367">
+        <v>25</v>
+      </c>
+      <c r="H16" s="356">
+        <v>22</v>
+      </c>
+      <c r="I16" s="357">
+        <v>18</v>
+      </c>
+      <c r="J16" s="357">
+        <v>15</v>
+      </c>
+      <c r="K16" s="357">
+        <v>10</v>
+      </c>
+      <c r="L16" s="357">
+        <v>7</v>
+      </c>
+      <c r="M16" s="357">
+        <v>3</v>
+      </c>
+      <c r="N16" s="371">
+        <v>0</v>
+      </c>
+      <c r="O16" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" s="197" customFormat="1">
+      <c r="B17" s="338">
+        <v>7</v>
+      </c>
+      <c r="C17" s="368" t="s">
+        <v>457</v>
+      </c>
+      <c r="D17" s="369" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="418" t="s">
+        <v>352</v>
+      </c>
+      <c r="F17" s="369" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="367">
+        <v>15</v>
+      </c>
+      <c r="H17" s="356">
+        <v>13</v>
+      </c>
+      <c r="I17" s="357">
+        <v>10</v>
+      </c>
+      <c r="J17" s="357">
+        <v>7</v>
+      </c>
+      <c r="K17" s="357">
+        <v>4</v>
+      </c>
+      <c r="L17" s="357">
+        <v>2</v>
+      </c>
+      <c r="M17" s="357">
+        <v>1</v>
+      </c>
+      <c r="N17" s="399">
+        <v>0</v>
+      </c>
+      <c r="O17" s="399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" s="197" customFormat="1">
+      <c r="B18" s="335">
+        <v>8</v>
+      </c>
+      <c r="C18" s="385" t="s">
+        <v>446</v>
+      </c>
+      <c r="D18" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="366" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" s="365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="367">
+        <v>20</v>
+      </c>
+      <c r="H18" s="356">
+        <v>20</v>
+      </c>
+      <c r="I18" s="357">
+        <v>20</v>
+      </c>
+      <c r="J18" s="357">
+        <v>20</v>
+      </c>
+      <c r="K18" s="356">
+        <v>20</v>
+      </c>
+      <c r="L18" s="356">
+        <v>20</v>
+      </c>
+      <c r="M18" s="356">
+        <v>20</v>
+      </c>
+      <c r="N18" s="371">
+        <v>20</v>
+      </c>
+      <c r="O18" s="371">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" s="197" customFormat="1">
+      <c r="B19" s="338">
+        <v>9</v>
+      </c>
+      <c r="C19" s="372" t="s">
+        <v>447</v>
+      </c>
+      <c r="D19" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="355" t="s">
+        <v>350</v>
+      </c>
+      <c r="F19" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="367">
+        <v>25</v>
+      </c>
+      <c r="H19" s="326">
+        <v>20</v>
+      </c>
+      <c r="I19" s="339">
+        <v>15</v>
+      </c>
+      <c r="J19" s="339">
+        <v>10</v>
+      </c>
+      <c r="K19" s="339">
+        <v>8</v>
+      </c>
+      <c r="L19" s="339">
+        <v>5</v>
+      </c>
+      <c r="M19" s="331">
+        <v>3</v>
+      </c>
+      <c r="N19" s="398">
+        <v>0</v>
+      </c>
+      <c r="O19" s="398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="338">
+        <v>10</v>
+      </c>
+      <c r="C20" s="368"/>
+      <c r="D20" s="354"/>
+      <c r="E20" s="355"/>
+      <c r="F20" s="369"/>
+      <c r="G20" s="367"/>
+      <c r="H20" s="356"/>
+      <c r="I20" s="357"/>
+      <c r="J20" s="357"/>
+      <c r="K20" s="357"/>
+      <c r="L20" s="357"/>
+      <c r="M20" s="357"/>
+      <c r="N20" s="399"/>
+      <c r="O20" s="399"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="335">
+        <v>11</v>
+      </c>
+      <c r="C21" s="372"/>
+      <c r="D21" s="354"/>
+      <c r="E21" s="355"/>
+      <c r="F21" s="369"/>
+      <c r="G21" s="367"/>
+      <c r="H21" s="356"/>
+      <c r="I21" s="357"/>
+      <c r="J21" s="357"/>
+      <c r="K21" s="357"/>
+      <c r="L21" s="357"/>
+      <c r="M21" s="357"/>
+      <c r="N21" s="399"/>
+      <c r="O21" s="399"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="338">
+        <v>12</v>
+      </c>
+      <c r="C22" s="374"/>
+      <c r="D22" s="365"/>
+      <c r="E22" s="355"/>
+      <c r="F22" s="369"/>
+      <c r="G22" s="367"/>
+      <c r="H22" s="367"/>
+      <c r="I22" s="367"/>
+      <c r="J22" s="367"/>
+      <c r="K22" s="367"/>
+      <c r="L22" s="367"/>
+      <c r="M22" s="367"/>
+      <c r="N22" s="399"/>
+      <c r="O22" s="399"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="338">
+        <v>13</v>
+      </c>
+      <c r="C23" s="385"/>
+      <c r="D23" s="365"/>
+      <c r="E23" s="355"/>
+      <c r="F23" s="369"/>
+      <c r="G23" s="367"/>
+      <c r="H23" s="367"/>
+      <c r="I23" s="367"/>
+      <c r="J23" s="367"/>
+      <c r="K23" s="367"/>
+      <c r="L23" s="367"/>
+      <c r="M23" s="367"/>
+      <c r="N23" s="399"/>
+      <c r="O23" s="399"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="335">
+        <v>14</v>
+      </c>
+      <c r="C24" s="386"/>
+      <c r="D24" s="354"/>
+      <c r="E24" s="355"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="367"/>
+      <c r="H24" s="356"/>
+      <c r="I24" s="357"/>
+      <c r="J24" s="357"/>
+      <c r="K24" s="357"/>
+      <c r="L24" s="357"/>
+      <c r="M24" s="357"/>
+      <c r="N24" s="399"/>
+      <c r="O24" s="399"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="338">
+        <v>15</v>
+      </c>
+      <c r="C25" s="385"/>
+      <c r="D25" s="354"/>
+      <c r="E25" s="355"/>
+      <c r="F25" s="369"/>
+      <c r="G25" s="367"/>
+      <c r="H25" s="356"/>
+      <c r="I25" s="357"/>
+      <c r="J25" s="357"/>
+      <c r="K25" s="357"/>
+      <c r="L25" s="357"/>
+      <c r="M25" s="357"/>
+      <c r="N25" s="399"/>
+      <c r="O25" s="399"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="338">
+        <v>16</v>
+      </c>
+      <c r="C26" s="372"/>
+      <c r="D26" s="354"/>
+      <c r="E26" s="355"/>
+      <c r="F26" s="369"/>
+      <c r="G26" s="367"/>
+      <c r="H26" s="326"/>
+      <c r="I26" s="339"/>
+      <c r="J26" s="339"/>
+      <c r="K26" s="339"/>
+      <c r="L26" s="339"/>
+      <c r="M26" s="331"/>
+      <c r="N26" s="398"/>
+      <c r="O26" s="398"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="335">
+        <v>17</v>
+      </c>
+      <c r="C27" s="368"/>
+      <c r="D27" s="354"/>
+      <c r="E27" s="355"/>
+      <c r="F27" s="369"/>
+      <c r="G27" s="367"/>
+      <c r="H27" s="326"/>
+      <c r="I27" s="326"/>
+      <c r="J27" s="326"/>
+      <c r="K27" s="326"/>
+      <c r="L27" s="326"/>
+      <c r="M27" s="333"/>
+      <c r="N27" s="398"/>
+      <c r="O27" s="398"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="338">
+        <v>18</v>
+      </c>
+      <c r="C28" s="368"/>
+      <c r="D28" s="354"/>
+      <c r="E28" s="355"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="326"/>
+      <c r="I28" s="326"/>
+      <c r="J28" s="326"/>
+      <c r="K28" s="326"/>
+      <c r="L28" s="326"/>
+      <c r="M28" s="333"/>
+      <c r="N28" s="398"/>
+      <c r="O28" s="398"/>
+    </row>
+    <row r="29" spans="2:15" ht="21.75" customHeight="1">
+      <c r="B29" s="338">
+        <v>19</v>
+      </c>
+      <c r="C29" s="366"/>
+      <c r="D29" s="365"/>
+      <c r="E29" s="366"/>
+      <c r="F29" s="365"/>
+      <c r="G29" s="367"/>
+      <c r="H29" s="356"/>
+      <c r="I29" s="356"/>
+      <c r="J29" s="356"/>
+      <c r="K29" s="356"/>
+      <c r="L29" s="356"/>
+      <c r="M29" s="356"/>
+      <c r="N29" s="371"/>
+      <c r="O29" s="371"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="335">
+        <v>20</v>
+      </c>
+      <c r="C30" s="366"/>
+      <c r="D30" s="365"/>
+      <c r="E30" s="366"/>
+      <c r="F30" s="365"/>
+      <c r="G30" s="367"/>
+      <c r="H30" s="373"/>
+      <c r="I30" s="373"/>
+      <c r="J30" s="373"/>
+      <c r="K30" s="373"/>
+      <c r="L30" s="373"/>
+      <c r="M30" s="373"/>
+      <c r="N30" s="371"/>
+      <c r="O30" s="371"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="338">
+        <v>21</v>
+      </c>
+      <c r="C31" s="366"/>
+      <c r="D31" s="365"/>
+      <c r="E31" s="366"/>
+      <c r="F31" s="365"/>
+      <c r="G31" s="367"/>
+      <c r="H31" s="373"/>
+      <c r="I31" s="373"/>
+      <c r="J31" s="373"/>
+      <c r="K31" s="373"/>
+      <c r="L31" s="373"/>
+      <c r="M31" s="373"/>
+      <c r="N31" s="371"/>
+      <c r="O31" s="371"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="338">
+        <v>22</v>
+      </c>
+      <c r="C32" s="366"/>
+      <c r="D32" s="365"/>
+      <c r="E32" s="366"/>
+      <c r="F32" s="365"/>
+      <c r="G32" s="367"/>
+      <c r="H32" s="373"/>
+      <c r="I32" s="373"/>
+      <c r="J32" s="373"/>
+      <c r="K32" s="373"/>
+      <c r="L32" s="373"/>
+      <c r="M32" s="373"/>
+      <c r="N32" s="371"/>
+      <c r="O32" s="371"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="335">
+        <v>23</v>
+      </c>
+      <c r="C33" s="366"/>
+      <c r="D33" s="365"/>
+      <c r="E33" s="366"/>
+      <c r="F33" s="365"/>
+      <c r="G33" s="367"/>
+      <c r="H33" s="373"/>
+      <c r="I33" s="373"/>
+      <c r="J33" s="373"/>
+      <c r="K33" s="373"/>
+      <c r="L33" s="373"/>
+      <c r="M33" s="373"/>
+      <c r="N33" s="371"/>
+      <c r="O33" s="371"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="338">
+        <v>24</v>
+      </c>
+      <c r="C34" s="366"/>
+      <c r="D34" s="365"/>
+      <c r="E34" s="366"/>
+      <c r="F34" s="365"/>
+      <c r="G34" s="367"/>
+      <c r="H34" s="373"/>
+      <c r="I34" s="373"/>
+      <c r="J34" s="373"/>
+      <c r="K34" s="373"/>
+      <c r="L34" s="373"/>
+      <c r="M34" s="373"/>
+      <c r="N34" s="371"/>
+      <c r="O34" s="371"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="338">
+        <v>25</v>
+      </c>
+      <c r="C35" s="366"/>
+      <c r="D35" s="365"/>
+      <c r="E35" s="366"/>
+      <c r="F35" s="365"/>
+      <c r="G35" s="367"/>
+      <c r="H35" s="326"/>
+      <c r="I35" s="326"/>
+      <c r="J35" s="326"/>
+      <c r="K35" s="326"/>
+      <c r="L35" s="326"/>
+      <c r="M35" s="333"/>
+      <c r="N35" s="362"/>
+      <c r="O35" s="362"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="335">
+        <v>26</v>
+      </c>
+      <c r="C36" s="375"/>
+      <c r="D36" s="289"/>
+      <c r="E36" s="336"/>
+      <c r="F36" s="359"/>
+      <c r="G36" s="360"/>
+      <c r="H36" s="326"/>
+      <c r="I36" s="326"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="326"/>
+      <c r="L36" s="326"/>
+      <c r="M36" s="333"/>
+      <c r="N36" s="362"/>
+      <c r="O36" s="362"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="338">
+        <v>27</v>
+      </c>
+      <c r="C37" s="366"/>
+      <c r="D37" s="365"/>
+      <c r="E37" s="366"/>
+      <c r="F37" s="365"/>
+      <c r="G37" s="367"/>
+      <c r="H37" s="326"/>
+      <c r="I37" s="326"/>
+      <c r="J37" s="326"/>
+      <c r="K37" s="326"/>
+      <c r="L37" s="326"/>
+      <c r="M37" s="333"/>
+      <c r="N37" s="362"/>
+      <c r="O37" s="362"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="338">
+        <v>28</v>
+      </c>
+      <c r="C38" s="366"/>
+      <c r="D38" s="365"/>
+      <c r="E38" s="366"/>
+      <c r="F38" s="365"/>
+      <c r="G38" s="367"/>
+      <c r="H38" s="326"/>
+      <c r="I38" s="326"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="326"/>
+      <c r="L38" s="326"/>
+      <c r="M38" s="333"/>
+      <c r="N38" s="362"/>
+      <c r="O38" s="362"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="335">
+        <v>29</v>
+      </c>
+      <c r="C39" s="366"/>
+      <c r="D39" s="365"/>
+      <c r="E39" s="366"/>
+      <c r="F39" s="365"/>
+      <c r="G39" s="367"/>
+      <c r="H39" s="326"/>
+      <c r="I39" s="326"/>
+      <c r="J39" s="326"/>
+      <c r="K39" s="326"/>
+      <c r="L39" s="326"/>
+      <c r="M39" s="333"/>
+      <c r="N39" s="362"/>
+      <c r="O39" s="362"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="338">
+        <v>30</v>
+      </c>
+      <c r="C40" s="366"/>
+      <c r="D40" s="365"/>
+      <c r="E40" s="366"/>
+      <c r="F40" s="365"/>
+      <c r="G40" s="367"/>
+      <c r="H40" s="326"/>
+      <c r="I40" s="326"/>
+      <c r="J40" s="326"/>
+      <c r="K40" s="326"/>
+      <c r="L40" s="326"/>
+      <c r="M40" s="333"/>
+      <c r="N40" s="362"/>
+      <c r="O40" s="362"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="338">
+        <v>31</v>
+      </c>
+      <c r="C41" s="366"/>
+      <c r="D41" s="365"/>
+      <c r="E41" s="366"/>
+      <c r="F41" s="365"/>
+      <c r="G41" s="367"/>
+      <c r="H41" s="326"/>
+      <c r="I41" s="326"/>
+      <c r="J41" s="326"/>
+      <c r="K41" s="326"/>
+      <c r="L41" s="326"/>
+      <c r="M41" s="333"/>
+      <c r="N41" s="362"/>
+      <c r="O41" s="362"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="335">
+        <v>32</v>
+      </c>
+      <c r="C42" s="366"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="366"/>
+      <c r="F42" s="365"/>
+      <c r="G42" s="367"/>
+      <c r="H42" s="326"/>
+      <c r="I42" s="326"/>
+      <c r="J42" s="326"/>
+      <c r="K42" s="326"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="333"/>
+      <c r="N42" s="362"/>
+      <c r="O42" s="362"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="338">
+        <v>33</v>
+      </c>
+      <c r="C43" s="366"/>
+      <c r="D43" s="365"/>
+      <c r="E43" s="366"/>
+      <c r="F43" s="365"/>
+      <c r="G43" s="367"/>
+      <c r="H43" s="326"/>
+      <c r="I43" s="326"/>
+      <c r="J43" s="326"/>
+      <c r="K43" s="326"/>
+      <c r="L43" s="326"/>
+      <c r="M43" s="333"/>
+      <c r="N43" s="362"/>
+      <c r="O43" s="362"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="338">
+        <v>34</v>
+      </c>
+      <c r="C44" s="366"/>
+      <c r="D44" s="365"/>
+      <c r="E44" s="366"/>
+      <c r="F44" s="365"/>
+      <c r="G44" s="367"/>
+      <c r="H44" s="326"/>
+      <c r="I44" s="326"/>
+      <c r="J44" s="326"/>
+      <c r="K44" s="326"/>
+      <c r="L44" s="326"/>
+      <c r="M44" s="333"/>
+      <c r="N44" s="362"/>
+      <c r="O44" s="362"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="335">
+        <v>35</v>
+      </c>
+      <c r="C45" s="366"/>
+      <c r="D45" s="365"/>
+      <c r="E45" s="366"/>
+      <c r="F45" s="365"/>
+      <c r="G45" s="367"/>
+      <c r="H45" s="326"/>
+      <c r="I45" s="326"/>
+      <c r="J45" s="326"/>
+      <c r="K45" s="326"/>
+      <c r="L45" s="326"/>
+      <c r="M45" s="333"/>
+      <c r="N45" s="362"/>
+      <c r="O45" s="362"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="338">
+        <v>36</v>
+      </c>
+      <c r="C46" s="366"/>
+      <c r="D46" s="365"/>
+      <c r="E46" s="366"/>
+      <c r="F46" s="365"/>
+      <c r="G46" s="367"/>
+      <c r="H46" s="326"/>
+      <c r="I46" s="326"/>
+      <c r="J46" s="326"/>
+      <c r="K46" s="326"/>
+      <c r="L46" s="326"/>
+      <c r="M46" s="333"/>
+      <c r="N46" s="362"/>
+      <c r="O46" s="362"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="338">
+        <v>37</v>
+      </c>
+      <c r="C47" s="366"/>
+      <c r="D47" s="365"/>
+      <c r="E47" s="366"/>
+      <c r="F47" s="365"/>
+      <c r="G47" s="367"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="326"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="333"/>
+      <c r="N47" s="362"/>
+      <c r="O47" s="362"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="335">
+        <v>38</v>
+      </c>
+      <c r="C48" s="366"/>
+      <c r="D48" s="365"/>
+      <c r="E48" s="366"/>
+      <c r="F48" s="365"/>
+      <c r="G48" s="367"/>
+      <c r="H48" s="326"/>
+      <c r="I48" s="326"/>
+      <c r="J48" s="326"/>
+      <c r="K48" s="326"/>
+      <c r="L48" s="326"/>
+      <c r="M48" s="333"/>
+      <c r="N48" s="362"/>
+      <c r="O48" s="362"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="338">
+        <v>39</v>
+      </c>
+      <c r="C49" s="366"/>
+      <c r="D49" s="365"/>
+      <c r="E49" s="366"/>
+      <c r="F49" s="365"/>
+      <c r="G49" s="367"/>
+      <c r="H49" s="326"/>
+      <c r="I49" s="326"/>
+      <c r="J49" s="326"/>
+      <c r="K49" s="326"/>
+      <c r="L49" s="326"/>
+      <c r="M49" s="333"/>
+      <c r="N49" s="362"/>
+      <c r="O49" s="362"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="338">
+        <v>40</v>
+      </c>
+      <c r="C50" s="366"/>
+      <c r="D50" s="365"/>
+      <c r="E50" s="366"/>
+      <c r="F50" s="365"/>
+      <c r="G50" s="367"/>
+      <c r="H50" s="326"/>
+      <c r="I50" s="326"/>
+      <c r="J50" s="326"/>
+      <c r="K50" s="326"/>
+      <c r="L50" s="326"/>
+      <c r="M50" s="333"/>
+      <c r="N50" s="362"/>
+      <c r="O50" s="362"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="335">
+        <v>41</v>
+      </c>
+      <c r="C51" s="366"/>
+      <c r="D51" s="365"/>
+      <c r="E51" s="366"/>
+      <c r="F51" s="365"/>
+      <c r="G51" s="367"/>
+      <c r="H51" s="326"/>
+      <c r="I51" s="326"/>
+      <c r="J51" s="326"/>
+      <c r="K51" s="326"/>
+      <c r="L51" s="326"/>
+      <c r="M51" s="333"/>
+      <c r="N51" s="362"/>
+      <c r="O51" s="362"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="338">
+        <v>42</v>
+      </c>
+      <c r="C52" s="366"/>
+      <c r="D52" s="365"/>
+      <c r="E52" s="366"/>
+      <c r="F52" s="365"/>
+      <c r="G52" s="367"/>
+      <c r="H52" s="326"/>
+      <c r="I52" s="326"/>
+      <c r="J52" s="326"/>
+      <c r="K52" s="326"/>
+      <c r="L52" s="326"/>
+      <c r="M52" s="333"/>
+      <c r="N52" s="362"/>
+      <c r="O52" s="362"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="338">
+        <v>43</v>
+      </c>
+      <c r="C53" s="366"/>
+      <c r="D53" s="365"/>
+      <c r="E53" s="366"/>
+      <c r="F53" s="365"/>
+      <c r="G53" s="367"/>
+      <c r="H53" s="326"/>
+      <c r="I53" s="326"/>
+      <c r="J53" s="326"/>
+      <c r="K53" s="326"/>
+      <c r="L53" s="326"/>
+      <c r="M53" s="333"/>
+      <c r="N53" s="362"/>
+      <c r="O53" s="362"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="335">
+        <v>44</v>
+      </c>
+      <c r="C54" s="363"/>
+      <c r="D54" s="289"/>
+      <c r="E54" s="336"/>
+      <c r="F54" s="359"/>
+      <c r="G54" s="360"/>
+      <c r="H54" s="326"/>
+      <c r="I54" s="326"/>
+      <c r="J54" s="326"/>
+      <c r="K54" s="326"/>
+      <c r="L54" s="326"/>
+      <c r="M54" s="333"/>
+      <c r="N54" s="362"/>
+      <c r="O54" s="362"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="338">
+        <v>45</v>
+      </c>
+      <c r="C55" s="376"/>
+      <c r="D55" s="289"/>
+      <c r="E55" s="336"/>
+      <c r="F55" s="359"/>
+      <c r="G55" s="360"/>
+      <c r="H55" s="360"/>
+      <c r="I55" s="360"/>
+      <c r="J55" s="360"/>
+      <c r="K55" s="360"/>
+      <c r="L55" s="360"/>
+      <c r="M55" s="377"/>
+      <c r="N55" s="362"/>
+      <c r="O55" s="362"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="378" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="379"/>
+      <c r="D56" s="348"/>
+      <c r="E56" s="380"/>
+      <c r="F56" s="381"/>
+      <c r="G56" s="382"/>
+      <c r="H56" s="382"/>
+      <c r="I56" s="382"/>
+      <c r="J56" s="382"/>
+      <c r="K56" s="382"/>
+      <c r="L56" s="382"/>
+      <c r="M56" s="383"/>
+      <c r="N56" s="384"/>
+      <c r="O56" s="384"/>
+    </row>
+    <row r="103" spans="2:15" s="97" customFormat="1">
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+    </row>
+    <row r="104" spans="2:15" s="97" customFormat="1">
+      <c r="B104"/>
+      <c r="C104" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+    </row>
+    <row r="105" spans="2:15" s="97" customFormat="1">
+      <c r="B105"/>
+      <c r="C105" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+    </row>
+    <row r="106" spans="2:15" s="97" customFormat="1">
+      <c r="B106"/>
+      <c r="C106" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+    </row>
+    <row r="107" spans="2:15" s="97" customFormat="1">
+      <c r="B107"/>
+      <c r="C107" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="2:15" s="97" customFormat="1">
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108"/>
+      <c r="E108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+    </row>
+    <row r="109" spans="2:15" s="97" customFormat="1">
+      <c r="B109"/>
+      <c r="C109" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="E109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+    </row>
+    <row r="110" spans="2:15" s="97" customFormat="1">
+      <c r="B110"/>
+      <c r="C110" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="E110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+    </row>
+    <row r="111" spans="2:15" s="97" customFormat="1">
+      <c r="B111"/>
+      <c r="C111" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+    </row>
+    <row r="112" spans="2:15" s="97" customFormat="1">
+      <c r="B112"/>
+      <c r="C112" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="E112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+    </row>
+    <row r="113" spans="2:15" s="97" customFormat="1">
+      <c r="B113"/>
+      <c r="C113" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+    </row>
+    <row r="115" spans="2:15" s="97" customFormat="1">
+      <c r="B115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115"/>
+      <c r="E115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+    </row>
+    <row r="116" spans="2:15" s="97" customFormat="1">
+      <c r="B116"/>
+      <c r="C116" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="E116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+    </row>
+    <row r="117" spans="2:15" s="97" customFormat="1">
+      <c r="B117"/>
+      <c r="C117" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+    </row>
+    <row r="118" spans="2:15" s="97" customFormat="1">
+      <c r="B118"/>
+      <c r="C118" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+    </row>
+    <row r="119" spans="2:15" s="97" customFormat="1">
+      <c r="B119"/>
+      <c r="C119" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+    </row>
+    <row r="120" spans="2:15" s="97" customFormat="1">
+      <c r="B120"/>
+      <c r="C120" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+    </row>
+    <row r="121" spans="2:15" s="97" customFormat="1">
+      <c r="B121"/>
+      <c r="C121" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57:F93">
+      <formula1>$C$117:$C$121</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54:D56 D36 D11:D31">
       <formula1>$C$103:$C$107</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E54:E56 E30:E33 E36 E11:E29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E54:E56 E36 E11:E33">
       <formula1>$C$109:$C$113</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54:F56 F11:F17 F19:F39">
       <formula1>$C$116:$C$121</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="28" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:O121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="97" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" style="97" customWidth="1"/>
+    <col min="8" max="15" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="18">
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="3" spans="2:15" ht="18">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="C4" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="C5" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" ht="18">
+      <c r="B7" s="417" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" s="417"/>
+      <c r="D7" s="417"/>
+      <c r="E7" s="417"/>
+    </row>
+    <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
+      <c r="B10" s="275" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="276" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="276" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="276" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="276" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="310" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="272" t="s">
+        <v>460</v>
+      </c>
+      <c r="I10" s="272" t="s">
+        <v>461</v>
+      </c>
+      <c r="J10" s="273" t="s">
+        <v>462</v>
+      </c>
+      <c r="K10" s="273" t="s">
+        <v>463</v>
+      </c>
+      <c r="L10" s="273" t="s">
+        <v>464</v>
+      </c>
+      <c r="M10" s="273" t="s">
+        <v>465</v>
+      </c>
+      <c r="N10" s="274" t="s">
+        <v>466</v>
+      </c>
+      <c r="O10" s="311" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="338">
+        <v>1</v>
+      </c>
+      <c r="C11" s="368" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="355" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="367">
+        <v>25</v>
+      </c>
+      <c r="H11" s="356"/>
+      <c r="I11" s="357"/>
+      <c r="J11" s="357"/>
+      <c r="K11" s="357"/>
+      <c r="L11" s="357"/>
+      <c r="M11" s="357"/>
+      <c r="N11" s="371"/>
+      <c r="O11" s="371"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="335">
+        <v>2</v>
+      </c>
+      <c r="C12" s="372" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="366" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="367">
+        <v>20</v>
+      </c>
+      <c r="H12" s="356"/>
+      <c r="I12" s="357"/>
+      <c r="J12" s="357"/>
+      <c r="K12" s="357"/>
+      <c r="L12" s="356"/>
+      <c r="M12" s="356"/>
+      <c r="N12" s="371"/>
+      <c r="O12" s="371"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="338">
+        <v>3</v>
+      </c>
+      <c r="C13" s="368" t="s">
+        <v>469</v>
+      </c>
+      <c r="D13" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="336" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13" s="359" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="360">
+        <v>20</v>
+      </c>
+      <c r="H13" s="373"/>
+      <c r="I13" s="373"/>
+      <c r="J13" s="373"/>
+      <c r="K13" s="373"/>
+      <c r="L13" s="373"/>
+      <c r="M13" s="373"/>
+      <c r="N13" s="371"/>
+      <c r="O13" s="371"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="338">
+        <v>4</v>
+      </c>
+      <c r="C14" s="368" t="s">
+        <v>467</v>
+      </c>
+      <c r="D14" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F14" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="367">
+        <v>10</v>
+      </c>
+      <c r="H14" s="373"/>
+      <c r="I14" s="373"/>
+      <c r="J14" s="373"/>
+      <c r="K14" s="373"/>
+      <c r="L14" s="373"/>
+      <c r="M14" s="373"/>
+      <c r="N14" s="371"/>
+      <c r="O14" s="371"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="335">
+        <v>5</v>
+      </c>
+      <c r="C15" s="368" t="s">
+        <v>468</v>
+      </c>
+      <c r="D15" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="367">
+        <v>20</v>
+      </c>
+      <c r="H15" s="326"/>
+      <c r="I15" s="339"/>
+      <c r="J15" s="339"/>
+      <c r="K15" s="339"/>
+      <c r="L15" s="339"/>
+      <c r="M15" s="331"/>
+      <c r="N15" s="362"/>
+      <c r="O15" s="362"/>
+    </row>
+    <row r="16" spans="2:15" s="197" customFormat="1">
+      <c r="B16" s="338">
+        <v>6</v>
+      </c>
+      <c r="C16" s="385" t="s">
+        <v>470</v>
+      </c>
+      <c r="D16" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="366" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16" s="365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="367">
+        <v>15</v>
+      </c>
+      <c r="H16" s="356"/>
+      <c r="I16" s="357"/>
+      <c r="J16" s="357"/>
+      <c r="K16" s="357"/>
+      <c r="L16" s="357"/>
+      <c r="M16" s="357"/>
+      <c r="N16" s="371"/>
+      <c r="O16" s="371"/>
+    </row>
+    <row r="17" spans="2:15" s="197" customFormat="1">
+      <c r="B17" s="338">
+        <v>7</v>
+      </c>
+      <c r="C17" s="368" t="s">
+        <v>471</v>
+      </c>
+      <c r="D17" s="369" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="418" t="s">
+        <v>352</v>
+      </c>
+      <c r="F17" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="367">
+        <v>15</v>
+      </c>
+      <c r="H17" s="356"/>
+      <c r="I17" s="357"/>
+      <c r="J17" s="357"/>
+      <c r="K17" s="357"/>
+      <c r="L17" s="357"/>
+      <c r="M17" s="357"/>
+      <c r="N17" s="399"/>
+      <c r="O17" s="399"/>
+    </row>
+    <row r="18" spans="2:15" s="197" customFormat="1">
+      <c r="B18" s="335">
+        <v>8</v>
+      </c>
+      <c r="C18" s="385" t="s">
+        <v>446</v>
+      </c>
+      <c r="D18" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="366" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" s="365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="367">
+        <v>20</v>
+      </c>
+      <c r="H18" s="356"/>
+      <c r="I18" s="357"/>
+      <c r="J18" s="357"/>
+      <c r="K18" s="356"/>
+      <c r="L18" s="356"/>
+      <c r="M18" s="356"/>
+      <c r="N18" s="371"/>
+      <c r="O18" s="371"/>
+    </row>
+    <row r="19" spans="2:15" s="197" customFormat="1" ht="36" customHeight="1">
+      <c r="B19" s="338">
+        <v>9</v>
+      </c>
+      <c r="C19" s="374" t="s">
+        <v>472</v>
+      </c>
+      <c r="D19" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="355" t="s">
+        <v>350</v>
+      </c>
+      <c r="F19" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="367">
+        <v>10</v>
+      </c>
+      <c r="H19" s="326"/>
+      <c r="I19" s="339"/>
+      <c r="J19" s="339"/>
+      <c r="K19" s="339"/>
+      <c r="L19" s="339"/>
+      <c r="M19" s="331"/>
+      <c r="N19" s="398"/>
+      <c r="O19" s="398"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="338">
+        <v>10</v>
+      </c>
+      <c r="C20" s="368"/>
+      <c r="D20" s="354"/>
+      <c r="E20" s="355"/>
+      <c r="F20" s="369"/>
+      <c r="G20" s="367"/>
+      <c r="H20" s="356"/>
+      <c r="I20" s="357"/>
+      <c r="J20" s="357"/>
+      <c r="K20" s="357"/>
+      <c r="L20" s="357"/>
+      <c r="M20" s="357"/>
+      <c r="N20" s="399"/>
+      <c r="O20" s="399"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="335">
+        <v>11</v>
+      </c>
+      <c r="C21" s="372"/>
+      <c r="D21" s="354"/>
+      <c r="E21" s="355"/>
+      <c r="F21" s="369"/>
+      <c r="G21" s="367"/>
+      <c r="H21" s="356"/>
+      <c r="I21" s="357"/>
+      <c r="J21" s="357"/>
+      <c r="K21" s="357"/>
+      <c r="L21" s="357"/>
+      <c r="M21" s="357"/>
+      <c r="N21" s="399"/>
+      <c r="O21" s="399"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="338">
+        <v>12</v>
+      </c>
+      <c r="C22" s="374"/>
+      <c r="D22" s="365"/>
+      <c r="E22" s="355"/>
+      <c r="F22" s="369"/>
+      <c r="G22" s="367"/>
+      <c r="H22" s="367"/>
+      <c r="I22" s="367"/>
+      <c r="J22" s="367"/>
+      <c r="K22" s="367"/>
+      <c r="L22" s="367"/>
+      <c r="M22" s="367"/>
+      <c r="N22" s="399"/>
+      <c r="O22" s="399"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="338">
+        <v>13</v>
+      </c>
+      <c r="C23" s="385"/>
+      <c r="D23" s="365"/>
+      <c r="E23" s="355"/>
+      <c r="F23" s="369"/>
+      <c r="G23" s="367"/>
+      <c r="H23" s="367"/>
+      <c r="I23" s="367"/>
+      <c r="J23" s="367"/>
+      <c r="K23" s="367"/>
+      <c r="L23" s="367"/>
+      <c r="M23" s="367"/>
+      <c r="N23" s="399"/>
+      <c r="O23" s="399"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="335">
+        <v>14</v>
+      </c>
+      <c r="C24" s="386"/>
+      <c r="D24" s="354"/>
+      <c r="E24" s="355"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="367"/>
+      <c r="H24" s="356"/>
+      <c r="I24" s="357"/>
+      <c r="J24" s="357"/>
+      <c r="K24" s="357"/>
+      <c r="L24" s="357"/>
+      <c r="M24" s="357"/>
+      <c r="N24" s="399"/>
+      <c r="O24" s="399"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="338">
+        <v>15</v>
+      </c>
+      <c r="C25" s="385"/>
+      <c r="D25" s="354"/>
+      <c r="E25" s="355"/>
+      <c r="F25" s="369"/>
+      <c r="G25" s="367"/>
+      <c r="H25" s="356"/>
+      <c r="I25" s="357"/>
+      <c r="J25" s="357"/>
+      <c r="K25" s="357"/>
+      <c r="L25" s="357"/>
+      <c r="M25" s="357"/>
+      <c r="N25" s="399"/>
+      <c r="O25" s="399"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="338">
+        <v>16</v>
+      </c>
+      <c r="C26" s="372"/>
+      <c r="D26" s="354"/>
+      <c r="E26" s="355"/>
+      <c r="F26" s="369"/>
+      <c r="G26" s="367"/>
+      <c r="H26" s="326"/>
+      <c r="I26" s="339"/>
+      <c r="J26" s="339"/>
+      <c r="K26" s="339"/>
+      <c r="L26" s="339"/>
+      <c r="M26" s="331"/>
+      <c r="N26" s="398"/>
+      <c r="O26" s="398"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="335">
+        <v>17</v>
+      </c>
+      <c r="C27" s="368"/>
+      <c r="D27" s="354"/>
+      <c r="E27" s="355"/>
+      <c r="F27" s="369"/>
+      <c r="G27" s="367"/>
+      <c r="H27" s="326"/>
+      <c r="I27" s="326"/>
+      <c r="J27" s="326"/>
+      <c r="K27" s="326"/>
+      <c r="L27" s="326"/>
+      <c r="M27" s="333"/>
+      <c r="N27" s="398"/>
+      <c r="O27" s="398"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="338">
+        <v>18</v>
+      </c>
+      <c r="C28" s="368"/>
+      <c r="D28" s="354"/>
+      <c r="E28" s="355"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="326"/>
+      <c r="I28" s="326"/>
+      <c r="J28" s="326"/>
+      <c r="K28" s="326"/>
+      <c r="L28" s="326"/>
+      <c r="M28" s="333"/>
+      <c r="N28" s="398"/>
+      <c r="O28" s="398"/>
+    </row>
+    <row r="29" spans="2:15" ht="21.75" customHeight="1">
+      <c r="B29" s="338">
+        <v>19</v>
+      </c>
+      <c r="C29" s="366"/>
+      <c r="D29" s="365"/>
+      <c r="E29" s="366"/>
+      <c r="F29" s="365"/>
+      <c r="G29" s="367"/>
+      <c r="H29" s="356"/>
+      <c r="I29" s="356"/>
+      <c r="J29" s="356"/>
+      <c r="K29" s="356"/>
+      <c r="L29" s="356"/>
+      <c r="M29" s="356"/>
+      <c r="N29" s="371"/>
+      <c r="O29" s="371"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="335">
+        <v>20</v>
+      </c>
+      <c r="C30" s="366"/>
+      <c r="D30" s="365"/>
+      <c r="E30" s="366"/>
+      <c r="F30" s="365"/>
+      <c r="G30" s="367"/>
+      <c r="H30" s="373"/>
+      <c r="I30" s="373"/>
+      <c r="J30" s="373"/>
+      <c r="K30" s="373"/>
+      <c r="L30" s="373"/>
+      <c r="M30" s="373"/>
+      <c r="N30" s="371"/>
+      <c r="O30" s="371"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="338">
+        <v>21</v>
+      </c>
+      <c r="C31" s="366"/>
+      <c r="D31" s="365"/>
+      <c r="E31" s="366"/>
+      <c r="F31" s="365"/>
+      <c r="G31" s="367"/>
+      <c r="H31" s="373"/>
+      <c r="I31" s="373"/>
+      <c r="J31" s="373"/>
+      <c r="K31" s="373"/>
+      <c r="L31" s="373"/>
+      <c r="M31" s="373"/>
+      <c r="N31" s="371"/>
+      <c r="O31" s="371"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="338">
+        <v>22</v>
+      </c>
+      <c r="C32" s="366"/>
+      <c r="D32" s="365"/>
+      <c r="E32" s="366"/>
+      <c r="F32" s="365"/>
+      <c r="G32" s="367"/>
+      <c r="H32" s="373"/>
+      <c r="I32" s="373"/>
+      <c r="J32" s="373"/>
+      <c r="K32" s="373"/>
+      <c r="L32" s="373"/>
+      <c r="M32" s="373"/>
+      <c r="N32" s="371"/>
+      <c r="O32" s="371"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="335">
+        <v>23</v>
+      </c>
+      <c r="C33" s="366"/>
+      <c r="D33" s="365"/>
+      <c r="E33" s="366"/>
+      <c r="F33" s="365"/>
+      <c r="G33" s="367"/>
+      <c r="H33" s="373"/>
+      <c r="I33" s="373"/>
+      <c r="J33" s="373"/>
+      <c r="K33" s="373"/>
+      <c r="L33" s="373"/>
+      <c r="M33" s="373"/>
+      <c r="N33" s="371"/>
+      <c r="O33" s="371"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="338">
+        <v>24</v>
+      </c>
+      <c r="C34" s="366"/>
+      <c r="D34" s="365"/>
+      <c r="E34" s="366"/>
+      <c r="F34" s="365"/>
+      <c r="G34" s="367"/>
+      <c r="H34" s="373"/>
+      <c r="I34" s="373"/>
+      <c r="J34" s="373"/>
+      <c r="K34" s="373"/>
+      <c r="L34" s="373"/>
+      <c r="M34" s="373"/>
+      <c r="N34" s="371"/>
+      <c r="O34" s="371"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="338">
+        <v>25</v>
+      </c>
+      <c r="C35" s="366"/>
+      <c r="D35" s="365"/>
+      <c r="E35" s="366"/>
+      <c r="F35" s="365"/>
+      <c r="G35" s="367"/>
+      <c r="H35" s="326"/>
+      <c r="I35" s="326"/>
+      <c r="J35" s="326"/>
+      <c r="K35" s="326"/>
+      <c r="L35" s="326"/>
+      <c r="M35" s="333"/>
+      <c r="N35" s="362"/>
+      <c r="O35" s="362"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="335">
+        <v>26</v>
+      </c>
+      <c r="C36" s="375"/>
+      <c r="D36" s="289"/>
+      <c r="E36" s="336"/>
+      <c r="F36" s="359"/>
+      <c r="G36" s="360"/>
+      <c r="H36" s="326"/>
+      <c r="I36" s="326"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="326"/>
+      <c r="L36" s="326"/>
+      <c r="M36" s="333"/>
+      <c r="N36" s="362"/>
+      <c r="O36" s="362"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="338">
+        <v>27</v>
+      </c>
+      <c r="C37" s="366"/>
+      <c r="D37" s="365"/>
+      <c r="E37" s="366"/>
+      <c r="F37" s="365"/>
+      <c r="G37" s="367"/>
+      <c r="H37" s="326"/>
+      <c r="I37" s="326"/>
+      <c r="J37" s="326"/>
+      <c r="K37" s="326"/>
+      <c r="L37" s="326"/>
+      <c r="M37" s="333"/>
+      <c r="N37" s="362"/>
+      <c r="O37" s="362"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="338">
+        <v>28</v>
+      </c>
+      <c r="C38" s="366"/>
+      <c r="D38" s="365"/>
+      <c r="E38" s="366"/>
+      <c r="F38" s="365"/>
+      <c r="G38" s="367"/>
+      <c r="H38" s="326"/>
+      <c r="I38" s="326"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="326"/>
+      <c r="L38" s="326"/>
+      <c r="M38" s="333"/>
+      <c r="N38" s="362"/>
+      <c r="O38" s="362"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="335">
+        <v>29</v>
+      </c>
+      <c r="C39" s="366"/>
+      <c r="D39" s="365"/>
+      <c r="E39" s="366"/>
+      <c r="F39" s="365"/>
+      <c r="G39" s="367"/>
+      <c r="H39" s="326"/>
+      <c r="I39" s="326"/>
+      <c r="J39" s="326"/>
+      <c r="K39" s="326"/>
+      <c r="L39" s="326"/>
+      <c r="M39" s="333"/>
+      <c r="N39" s="362"/>
+      <c r="O39" s="362"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="338">
+        <v>30</v>
+      </c>
+      <c r="C40" s="366"/>
+      <c r="D40" s="365"/>
+      <c r="E40" s="366"/>
+      <c r="F40" s="365"/>
+      <c r="G40" s="367"/>
+      <c r="H40" s="326"/>
+      <c r="I40" s="326"/>
+      <c r="J40" s="326"/>
+      <c r="K40" s="326"/>
+      <c r="L40" s="326"/>
+      <c r="M40" s="333"/>
+      <c r="N40" s="362"/>
+      <c r="O40" s="362"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="338">
+        <v>31</v>
+      </c>
+      <c r="C41" s="366"/>
+      <c r="D41" s="365"/>
+      <c r="E41" s="366"/>
+      <c r="F41" s="365"/>
+      <c r="G41" s="367"/>
+      <c r="H41" s="326"/>
+      <c r="I41" s="326"/>
+      <c r="J41" s="326"/>
+      <c r="K41" s="326"/>
+      <c r="L41" s="326"/>
+      <c r="M41" s="333"/>
+      <c r="N41" s="362"/>
+      <c r="O41" s="362"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="335">
+        <v>32</v>
+      </c>
+      <c r="C42" s="366"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="366"/>
+      <c r="F42" s="365"/>
+      <c r="G42" s="367"/>
+      <c r="H42" s="326"/>
+      <c r="I42" s="326"/>
+      <c r="J42" s="326"/>
+      <c r="K42" s="326"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="333"/>
+      <c r="N42" s="362"/>
+      <c r="O42" s="362"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="338">
+        <v>33</v>
+      </c>
+      <c r="C43" s="366"/>
+      <c r="D43" s="365"/>
+      <c r="E43" s="366"/>
+      <c r="F43" s="365"/>
+      <c r="G43" s="367"/>
+      <c r="H43" s="326"/>
+      <c r="I43" s="326"/>
+      <c r="J43" s="326"/>
+      <c r="K43" s="326"/>
+      <c r="L43" s="326"/>
+      <c r="M43" s="333"/>
+      <c r="N43" s="362"/>
+      <c r="O43" s="362"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="338">
+        <v>34</v>
+      </c>
+      <c r="C44" s="366"/>
+      <c r="D44" s="365"/>
+      <c r="E44" s="366"/>
+      <c r="F44" s="365"/>
+      <c r="G44" s="367"/>
+      <c r="H44" s="326"/>
+      <c r="I44" s="326"/>
+      <c r="J44" s="326"/>
+      <c r="K44" s="326"/>
+      <c r="L44" s="326"/>
+      <c r="M44" s="333"/>
+      <c r="N44" s="362"/>
+      <c r="O44" s="362"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="335">
+        <v>35</v>
+      </c>
+      <c r="C45" s="366"/>
+      <c r="D45" s="365"/>
+      <c r="E45" s="366"/>
+      <c r="F45" s="365"/>
+      <c r="G45" s="367"/>
+      <c r="H45" s="326"/>
+      <c r="I45" s="326"/>
+      <c r="J45" s="326"/>
+      <c r="K45" s="326"/>
+      <c r="L45" s="326"/>
+      <c r="M45" s="333"/>
+      <c r="N45" s="362"/>
+      <c r="O45" s="362"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="338">
+        <v>36</v>
+      </c>
+      <c r="C46" s="366"/>
+      <c r="D46" s="365"/>
+      <c r="E46" s="366"/>
+      <c r="F46" s="365"/>
+      <c r="G46" s="367"/>
+      <c r="H46" s="326"/>
+      <c r="I46" s="326"/>
+      <c r="J46" s="326"/>
+      <c r="K46" s="326"/>
+      <c r="L46" s="326"/>
+      <c r="M46" s="333"/>
+      <c r="N46" s="362"/>
+      <c r="O46" s="362"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="338">
+        <v>37</v>
+      </c>
+      <c r="C47" s="366"/>
+      <c r="D47" s="365"/>
+      <c r="E47" s="366"/>
+      <c r="F47" s="365"/>
+      <c r="G47" s="367"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="326"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="333"/>
+      <c r="N47" s="362"/>
+      <c r="O47" s="362"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="335">
+        <v>38</v>
+      </c>
+      <c r="C48" s="366"/>
+      <c r="D48" s="365"/>
+      <c r="E48" s="366"/>
+      <c r="F48" s="365"/>
+      <c r="G48" s="367"/>
+      <c r="H48" s="326"/>
+      <c r="I48" s="326"/>
+      <c r="J48" s="326"/>
+      <c r="K48" s="326"/>
+      <c r="L48" s="326"/>
+      <c r="M48" s="333"/>
+      <c r="N48" s="362"/>
+      <c r="O48" s="362"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="338">
+        <v>39</v>
+      </c>
+      <c r="C49" s="366"/>
+      <c r="D49" s="365"/>
+      <c r="E49" s="366"/>
+      <c r="F49" s="365"/>
+      <c r="G49" s="367"/>
+      <c r="H49" s="326"/>
+      <c r="I49" s="326"/>
+      <c r="J49" s="326"/>
+      <c r="K49" s="326"/>
+      <c r="L49" s="326"/>
+      <c r="M49" s="333"/>
+      <c r="N49" s="362"/>
+      <c r="O49" s="362"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="338">
+        <v>40</v>
+      </c>
+      <c r="C50" s="366"/>
+      <c r="D50" s="365"/>
+      <c r="E50" s="366"/>
+      <c r="F50" s="365"/>
+      <c r="G50" s="367"/>
+      <c r="H50" s="326"/>
+      <c r="I50" s="326"/>
+      <c r="J50" s="326"/>
+      <c r="K50" s="326"/>
+      <c r="L50" s="326"/>
+      <c r="M50" s="333"/>
+      <c r="N50" s="362"/>
+      <c r="O50" s="362"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="335">
+        <v>41</v>
+      </c>
+      <c r="C51" s="366"/>
+      <c r="D51" s="365"/>
+      <c r="E51" s="366"/>
+      <c r="F51" s="365"/>
+      <c r="G51" s="367"/>
+      <c r="H51" s="326"/>
+      <c r="I51" s="326"/>
+      <c r="J51" s="326"/>
+      <c r="K51" s="326"/>
+      <c r="L51" s="326"/>
+      <c r="M51" s="333"/>
+      <c r="N51" s="362"/>
+      <c r="O51" s="362"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="338">
+        <v>42</v>
+      </c>
+      <c r="C52" s="366"/>
+      <c r="D52" s="365"/>
+      <c r="E52" s="366"/>
+      <c r="F52" s="365"/>
+      <c r="G52" s="367"/>
+      <c r="H52" s="326"/>
+      <c r="I52" s="326"/>
+      <c r="J52" s="326"/>
+      <c r="K52" s="326"/>
+      <c r="L52" s="326"/>
+      <c r="M52" s="333"/>
+      <c r="N52" s="362"/>
+      <c r="O52" s="362"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="338">
+        <v>43</v>
+      </c>
+      <c r="C53" s="366"/>
+      <c r="D53" s="365"/>
+      <c r="E53" s="366"/>
+      <c r="F53" s="365"/>
+      <c r="G53" s="367"/>
+      <c r="H53" s="326"/>
+      <c r="I53" s="326"/>
+      <c r="J53" s="326"/>
+      <c r="K53" s="326"/>
+      <c r="L53" s="326"/>
+      <c r="M53" s="333"/>
+      <c r="N53" s="362"/>
+      <c r="O53" s="362"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="335">
+        <v>44</v>
+      </c>
+      <c r="C54" s="363"/>
+      <c r="D54" s="289"/>
+      <c r="E54" s="336"/>
+      <c r="F54" s="359"/>
+      <c r="G54" s="360"/>
+      <c r="H54" s="326"/>
+      <c r="I54" s="326"/>
+      <c r="J54" s="326"/>
+      <c r="K54" s="326"/>
+      <c r="L54" s="326"/>
+      <c r="M54" s="333"/>
+      <c r="N54" s="362"/>
+      <c r="O54" s="362"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="338">
+        <v>45</v>
+      </c>
+      <c r="C55" s="376"/>
+      <c r="D55" s="289"/>
+      <c r="E55" s="336"/>
+      <c r="F55" s="359"/>
+      <c r="G55" s="360"/>
+      <c r="H55" s="360"/>
+      <c r="I55" s="360"/>
+      <c r="J55" s="360"/>
+      <c r="K55" s="360"/>
+      <c r="L55" s="360"/>
+      <c r="M55" s="377"/>
+      <c r="N55" s="362"/>
+      <c r="O55" s="362"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="378" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="379"/>
+      <c r="D56" s="348"/>
+      <c r="E56" s="380"/>
+      <c r="F56" s="381"/>
+      <c r="G56" s="382"/>
+      <c r="H56" s="382"/>
+      <c r="I56" s="382"/>
+      <c r="J56" s="382"/>
+      <c r="K56" s="382"/>
+      <c r="L56" s="382"/>
+      <c r="M56" s="383"/>
+      <c r="N56" s="384"/>
+      <c r="O56" s="384"/>
+    </row>
+    <row r="103" spans="2:15" s="97" customFormat="1">
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+    </row>
+    <row r="104" spans="2:15" s="97" customFormat="1">
+      <c r="B104"/>
+      <c r="C104" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+    </row>
+    <row r="105" spans="2:15" s="97" customFormat="1">
+      <c r="B105"/>
+      <c r="C105" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+    </row>
+    <row r="106" spans="2:15" s="97" customFormat="1">
+      <c r="B106"/>
+      <c r="C106" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+    </row>
+    <row r="107" spans="2:15" s="97" customFormat="1">
+      <c r="B107"/>
+      <c r="C107" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="2:15" s="97" customFormat="1">
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108"/>
+      <c r="E108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+    </row>
+    <row r="109" spans="2:15" s="97" customFormat="1">
+      <c r="B109"/>
+      <c r="C109" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="E109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+    </row>
+    <row r="110" spans="2:15" s="97" customFormat="1">
+      <c r="B110"/>
+      <c r="C110" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="E110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+    </row>
+    <row r="111" spans="2:15" s="97" customFormat="1">
+      <c r="B111"/>
+      <c r="C111" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+    </row>
+    <row r="112" spans="2:15" s="97" customFormat="1">
+      <c r="B112"/>
+      <c r="C112" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="E112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+    </row>
+    <row r="113" spans="2:15" s="97" customFormat="1">
+      <c r="B113"/>
+      <c r="C113" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+    </row>
+    <row r="115" spans="2:15" s="97" customFormat="1">
+      <c r="B115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115"/>
+      <c r="E115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+    </row>
+    <row r="116" spans="2:15" s="97" customFormat="1">
+      <c r="B116"/>
+      <c r="C116" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="E116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+    </row>
+    <row r="117" spans="2:15" s="97" customFormat="1">
+      <c r="B117"/>
+      <c r="C117" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+    </row>
+    <row r="118" spans="2:15" s="97" customFormat="1">
+      <c r="B118"/>
+      <c r="C118" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+    </row>
+    <row r="119" spans="2:15" s="97" customFormat="1">
+      <c r="B119"/>
+      <c r="C119" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+    </row>
+    <row r="120" spans="2:15" s="97" customFormat="1">
+      <c r="B120"/>
+      <c r="C120" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+    </row>
+    <row r="121" spans="2:15" s="97" customFormat="1">
+      <c r="B121"/>
+      <c r="C121" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54:F56 F11:F17 F19:F39">
+      <formula1>$C$116:$C$121</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E54:E56 E36 E11:E33">
+      <formula1>$C$109:$C$113</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54:D56 D36 D11:D31">
+      <formula1>$C$103:$C$107</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57:F93">
+      <formula1>$C$117:$C$121</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sprint07_1706_2306 " sheetId="17" r:id="rId13"/>
     <sheet name="Sprint08_2406_3006" sheetId="16" r:id="rId14"/>
     <sheet name="Sprint09_0107_0707" sheetId="19" r:id="rId15"/>
+    <sheet name="Sprint10_0807_1407" sheetId="20" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$1:$G$106</definedName>
@@ -685,7 +686,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="477">
   <si>
     <t>Introduction</t>
   </si>
@@ -2131,6 +2132,18 @@
   </si>
   <si>
     <t>+Sort name/date when teacher see feedback list</t>
+  </si>
+  <si>
+    <t>+Import question by file</t>
+  </si>
+  <si>
+    <t>+Search reuse with test tags</t>
+  </si>
+  <si>
+    <t>+Real time feedback using Signal-R</t>
+  </si>
+  <si>
+    <t>SPRINT 10 FROM 08/07 TO 14/07</t>
   </si>
 </sst>
 </file>
@@ -4203,6 +4216,21 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="10" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4256,42 +4284,468 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="10" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="257">
+  <dxfs count="276">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -4345,6 +4799,15 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4831,15 +5294,6 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -4893,6 +5347,15 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -5372,6 +5835,104 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -13094,21 +13655,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:N30" totalsRowShown="0" headerRowDxfId="256" headerRowBorderDxfId="255" tableBorderDxfId="254">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:N30" totalsRowShown="0" headerRowDxfId="275" headerRowBorderDxfId="274" tableBorderDxfId="273">
   <autoFilter ref="B10:N30"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="253"/>
-    <tableColumn id="2" name="Task description" dataDxfId="252"/>
-    <tableColumn id="3" name="Type" dataDxfId="251"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="250"/>
-    <tableColumn id="5" name="Status" dataDxfId="249"/>
-    <tableColumn id="8" name="(W)23/5" dataDxfId="248"/>
-    <tableColumn id="9" name="(Th)24/5" dataDxfId="247"/>
-    <tableColumn id="10" name="(Fr)25/5" dataDxfId="246"/>
-    <tableColumn id="11" name="(Sa)26/5" dataDxfId="245"/>
-    <tableColumn id="12" name="(Su)27/5" dataDxfId="244"/>
+    <tableColumn id="1" name="No." dataDxfId="272"/>
+    <tableColumn id="2" name="Task description" dataDxfId="271"/>
+    <tableColumn id="3" name="Type" dataDxfId="270"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="269"/>
+    <tableColumn id="5" name="Status" dataDxfId="268"/>
+    <tableColumn id="8" name="(W)23/5" dataDxfId="267"/>
+    <tableColumn id="9" name="(Th)24/5" dataDxfId="266"/>
+    <tableColumn id="10" name="(Fr)25/5" dataDxfId="265"/>
+    <tableColumn id="11" name="(Sa)26/5" dataDxfId="264"/>
+    <tableColumn id="12" name="(Su)27/5" dataDxfId="263"/>
     <tableColumn id="13" name="(Mo)28/5"/>
-    <tableColumn id="14" name="(Tu)29/5" dataDxfId="243"/>
+    <tableColumn id="14" name="(Tu)29/5" dataDxfId="262"/>
     <tableColumn id="7" name="End Sprint"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13116,8 +13677,35 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table134567891011" displayName="Table134567891011" ref="B10:O54" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table134567891011" displayName="Table134567891011" ref="B10:O54" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110" totalsRowBorderDxfId="109">
   <autoFilter ref="B10:O54">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="108"/>
+    <tableColumn id="2" name="Task description" dataDxfId="107"/>
+    <tableColumn id="3" name="Type" dataDxfId="106"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="105"/>
+    <tableColumn id="5" name="Status" dataDxfId="104"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="103"/>
+    <tableColumn id="8" name="03/06" dataDxfId="102"/>
+    <tableColumn id="9" name="04/06" dataDxfId="101"/>
+    <tableColumn id="10" name="05/06" dataDxfId="100"/>
+    <tableColumn id="11" name="06/06" dataDxfId="99"/>
+    <tableColumn id="12" name="07/06" dataDxfId="98"/>
+    <tableColumn id="13" name="08/06" dataDxfId="97"/>
+    <tableColumn id="14" name="09/06" dataDxfId="96"/>
+    <tableColumn id="15" name="End" dataDxfId="95"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table13456789101112" displayName="Table13456789101112" ref="B10:O56" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
+  <autoFilter ref="B10:O56">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
@@ -13129,21 +13717,21 @@
     <tableColumn id="4" name="Assign To" dataDxfId="86"/>
     <tableColumn id="5" name="Status" dataDxfId="85"/>
     <tableColumn id="7" name="Estimate" dataDxfId="84"/>
-    <tableColumn id="8" name="03/06" dataDxfId="83"/>
-    <tableColumn id="9" name="04/06" dataDxfId="82"/>
-    <tableColumn id="10" name="05/06" dataDxfId="81"/>
-    <tableColumn id="11" name="06/06" dataDxfId="80"/>
-    <tableColumn id="12" name="07/06" dataDxfId="79"/>
-    <tableColumn id="13" name="08/06" dataDxfId="78"/>
-    <tableColumn id="14" name="09/06" dataDxfId="77"/>
+    <tableColumn id="8" name="10/06" dataDxfId="83"/>
+    <tableColumn id="9" name="11/06" dataDxfId="82"/>
+    <tableColumn id="10" name="12/06" dataDxfId="81"/>
+    <tableColumn id="11" name="13/06" dataDxfId="80"/>
+    <tableColumn id="12" name="14/06" dataDxfId="79"/>
+    <tableColumn id="13" name="15/06" dataDxfId="78"/>
+    <tableColumn id="14" name="16/06" dataDxfId="77"/>
     <tableColumn id="15" name="End" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table13456789101112" displayName="Table13456789101112" ref="B10:O56" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table134567891011121314" displayName="Table134567891011121314" ref="B10:O56" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
   <autoFilter ref="B10:O56">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
@@ -13156,41 +13744,14 @@
     <tableColumn id="4" name="Assign To" dataDxfId="67"/>
     <tableColumn id="5" name="Status" dataDxfId="66"/>
     <tableColumn id="7" name="Estimate" dataDxfId="65"/>
-    <tableColumn id="8" name="10/06" dataDxfId="64"/>
-    <tableColumn id="9" name="11/06" dataDxfId="63"/>
-    <tableColumn id="10" name="12/06" dataDxfId="62"/>
-    <tableColumn id="11" name="13/06" dataDxfId="61"/>
-    <tableColumn id="12" name="14/06" dataDxfId="60"/>
-    <tableColumn id="13" name="15/06" dataDxfId="59"/>
-    <tableColumn id="14" name="16/06" dataDxfId="58"/>
+    <tableColumn id="8" name="17/06" dataDxfId="64"/>
+    <tableColumn id="9" name="18/06" dataDxfId="63"/>
+    <tableColumn id="10" name="19/06" dataDxfId="62"/>
+    <tableColumn id="11" name="20/06" dataDxfId="61"/>
+    <tableColumn id="12" name="21/06" dataDxfId="60"/>
+    <tableColumn id="13" name="22/06" dataDxfId="59"/>
+    <tableColumn id="14" name="23/06" dataDxfId="58"/>
     <tableColumn id="15" name="End" dataDxfId="57"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table134567891011121314" displayName="Table134567891011121314" ref="B10:O56" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
-  <autoFilter ref="B10:O56">
-    <filterColumn colId="5"/>
-    <filterColumn colId="12"/>
-    <filterColumn colId="13"/>
-  </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="37"/>
-    <tableColumn id="2" name="Task description" dataDxfId="36"/>
-    <tableColumn id="3" name="Type" dataDxfId="35"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="34"/>
-    <tableColumn id="5" name="Status" dataDxfId="33"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="32"/>
-    <tableColumn id="8" name="17/06" dataDxfId="31"/>
-    <tableColumn id="9" name="18/06" dataDxfId="30"/>
-    <tableColumn id="10" name="19/06" dataDxfId="29"/>
-    <tableColumn id="11" name="20/06" dataDxfId="28"/>
-    <tableColumn id="12" name="21/06" dataDxfId="27"/>
-    <tableColumn id="13" name="22/06" dataDxfId="26"/>
-    <tableColumn id="14" name="23/06" dataDxfId="25"/>
-    <tableColumn id="15" name="End" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13224,159 +13785,213 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table134567891011121315" displayName="Table134567891011121315" ref="B10:O56" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table134567891011121315" displayName="Table134567891011121315" ref="B10:O57" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="B10:O57">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="32"/>
+    <tableColumn id="2" name="Task description" dataDxfId="31"/>
+    <tableColumn id="3" name="Type" dataDxfId="30"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="29"/>
+    <tableColumn id="5" name="Status" dataDxfId="28"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="27"/>
+    <tableColumn id="8" name="01/07" dataDxfId="26"/>
+    <tableColumn id="9" name="02/07" dataDxfId="25"/>
+    <tableColumn id="10" name="03/07" dataDxfId="24"/>
+    <tableColumn id="11" name="04/07" dataDxfId="23"/>
+    <tableColumn id="12" name="05/07" dataDxfId="22"/>
+    <tableColumn id="13" name="06/07" dataDxfId="21"/>
+    <tableColumn id="14" name="07/07" dataDxfId="20"/>
+    <tableColumn id="15" name="End" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table13456789101112131516" displayName="Table13456789101112131516" ref="B10:O56" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="B10:O56">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="18"/>
-    <tableColumn id="2" name="Task description" dataDxfId="17"/>
-    <tableColumn id="3" name="Type" dataDxfId="16"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="15"/>
-    <tableColumn id="5" name="Status" dataDxfId="14"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="13"/>
-    <tableColumn id="8" name="01/07" dataDxfId="12"/>
-    <tableColumn id="9" name="02/07" dataDxfId="11"/>
-    <tableColumn id="10" name="03/07" dataDxfId="10"/>
-    <tableColumn id="11" name="04/07" dataDxfId="9"/>
-    <tableColumn id="12" name="05/07" dataDxfId="8"/>
-    <tableColumn id="13" name="06/07" dataDxfId="7"/>
-    <tableColumn id="14" name="07/07" dataDxfId="6"/>
-    <tableColumn id="15" name="End" dataDxfId="5"/>
+    <tableColumn id="1" name="No." dataDxfId="13"/>
+    <tableColumn id="2" name="Task description" dataDxfId="12"/>
+    <tableColumn id="3" name="Type" dataDxfId="11"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="10"/>
+    <tableColumn id="5" name="Status" dataDxfId="9"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="8"/>
+    <tableColumn id="8" name="01/07" dataDxfId="7"/>
+    <tableColumn id="9" name="02/07" dataDxfId="6"/>
+    <tableColumn id="10" name="03/07" dataDxfId="5"/>
+    <tableColumn id="11" name="04/07" dataDxfId="4"/>
+    <tableColumn id="12" name="05/07" dataDxfId="3"/>
+    <tableColumn id="13" name="06/07" dataDxfId="2"/>
+    <tableColumn id="14" name="07/07" dataDxfId="1"/>
+    <tableColumn id="15" name="End" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:O28" totalsRowShown="0" headerRowDxfId="242" headerRowBorderDxfId="241" tableBorderDxfId="240">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:O28" totalsRowShown="0" headerRowDxfId="261" headerRowBorderDxfId="260" tableBorderDxfId="259">
   <autoFilter ref="B10:O28"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="239"/>
-    <tableColumn id="2" name="Task description" dataDxfId="238"/>
-    <tableColumn id="3" name="Type" dataDxfId="237"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="236"/>
-    <tableColumn id="5" name="Status" dataDxfId="235"/>
-    <tableColumn id="17" name="Percentage" dataDxfId="234"/>
-    <tableColumn id="8" name="(W)30/5" dataDxfId="233"/>
-    <tableColumn id="9" name="(Th)31/5" dataDxfId="232"/>
-    <tableColumn id="10" name="(Fr)1/6" dataDxfId="231"/>
-    <tableColumn id="11" name="(Sa)2/6" dataDxfId="230"/>
-    <tableColumn id="12" name="(Su)3/6" dataDxfId="229"/>
+    <tableColumn id="1" name="No." dataDxfId="258"/>
+    <tableColumn id="2" name="Task description" dataDxfId="257"/>
+    <tableColumn id="3" name="Type" dataDxfId="256"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="255"/>
+    <tableColumn id="5" name="Status" dataDxfId="254"/>
+    <tableColumn id="17" name="Percentage" dataDxfId="253"/>
+    <tableColumn id="8" name="(W)30/5" dataDxfId="252"/>
+    <tableColumn id="9" name="(Th)31/5" dataDxfId="251"/>
+    <tableColumn id="10" name="(Fr)1/6" dataDxfId="250"/>
+    <tableColumn id="11" name="(Sa)2/6" dataDxfId="249"/>
+    <tableColumn id="12" name="(Su)3/6" dataDxfId="248"/>
     <tableColumn id="13" name="(Mo)4/6"/>
-    <tableColumn id="14" name="(Tu)5/6" dataDxfId="228"/>
-    <tableColumn id="7" name="End Sprint" dataDxfId="227"/>
+    <tableColumn id="14" name="(Tu)5/6" dataDxfId="247"/>
+    <tableColumn id="7" name="End Sprint" dataDxfId="246"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B10:N27" totalsRowShown="0" headerRowDxfId="226" headerRowBorderDxfId="225" tableBorderDxfId="224">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B10:N27" totalsRowShown="0" headerRowDxfId="245" headerRowBorderDxfId="244" tableBorderDxfId="243">
   <autoFilter ref="B10:N27"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="223"/>
-    <tableColumn id="2" name="Task description" dataDxfId="222"/>
-    <tableColumn id="3" name="Type" dataDxfId="221"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="220"/>
-    <tableColumn id="5" name="Status" dataDxfId="219"/>
-    <tableColumn id="8" name="(W)06/6" dataDxfId="218"/>
-    <tableColumn id="9" name="(Th)07/6" dataDxfId="217"/>
-    <tableColumn id="10" name="(Fr)08/6" dataDxfId="216"/>
-    <tableColumn id="11" name="(Sa)09/6" dataDxfId="215"/>
-    <tableColumn id="12" name="(Su)10/6" dataDxfId="214"/>
+    <tableColumn id="1" name="No." dataDxfId="242"/>
+    <tableColumn id="2" name="Task description" dataDxfId="241"/>
+    <tableColumn id="3" name="Type" dataDxfId="240"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="239"/>
+    <tableColumn id="5" name="Status" dataDxfId="238"/>
+    <tableColumn id="8" name="(W)06/6" dataDxfId="237"/>
+    <tableColumn id="9" name="(Th)07/6" dataDxfId="236"/>
+    <tableColumn id="10" name="(Fr)08/6" dataDxfId="235"/>
+    <tableColumn id="11" name="(Sa)09/6" dataDxfId="234"/>
+    <tableColumn id="12" name="(Su)10/6" dataDxfId="233"/>
     <tableColumn id="13" name="(Mo)11/6"/>
-    <tableColumn id="14" name="(Tu)12/6" dataDxfId="213"/>
-    <tableColumn id="7" name="End Sprint" dataDxfId="212"/>
+    <tableColumn id="14" name="(Tu)12/6" dataDxfId="232"/>
+    <tableColumn id="7" name="End Sprint" dataDxfId="231"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B10:AA76" totalsRowShown="0" headerRowDxfId="211" headerRowBorderDxfId="210" tableBorderDxfId="209">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B10:AA76" totalsRowShown="0" headerRowDxfId="230" headerRowBorderDxfId="229" tableBorderDxfId="228">
   <autoFilter ref="B10:AA76"/>
   <tableColumns count="26">
-    <tableColumn id="1" name="No." dataDxfId="208"/>
-    <tableColumn id="2" name="Task description" dataDxfId="207"/>
-    <tableColumn id="3" name="Type" dataDxfId="206"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="205"/>
-    <tableColumn id="5" name="Status" dataDxfId="204"/>
-    <tableColumn id="8" name="25/6" dataDxfId="203"/>
-    <tableColumn id="9" name="26/6" dataDxfId="202"/>
-    <tableColumn id="10" name="27/6" dataDxfId="201"/>
-    <tableColumn id="11" name="28/6" dataDxfId="200"/>
-    <tableColumn id="12" name="29/6" dataDxfId="199"/>
+    <tableColumn id="1" name="No." dataDxfId="227"/>
+    <tableColumn id="2" name="Task description" dataDxfId="226"/>
+    <tableColumn id="3" name="Type" dataDxfId="225"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="224"/>
+    <tableColumn id="5" name="Status" dataDxfId="223"/>
+    <tableColumn id="8" name="25/6" dataDxfId="222"/>
+    <tableColumn id="9" name="26/6" dataDxfId="221"/>
+    <tableColumn id="10" name="27/6" dataDxfId="220"/>
+    <tableColumn id="11" name="28/6" dataDxfId="219"/>
+    <tableColumn id="12" name="29/6" dataDxfId="218"/>
     <tableColumn id="13" name="30/6"/>
-    <tableColumn id="14" name="1/7" dataDxfId="198"/>
-    <tableColumn id="6" name="2/7" dataDxfId="197"/>
-    <tableColumn id="7" name="3/7" dataDxfId="196"/>
-    <tableColumn id="15" name="4/7" dataDxfId="195"/>
-    <tableColumn id="16" name="5/7" dataDxfId="194"/>
-    <tableColumn id="17" name="6/7" dataDxfId="193"/>
-    <tableColumn id="24" name="7/7" dataDxfId="192"/>
-    <tableColumn id="23" name="8/7" dataDxfId="191"/>
-    <tableColumn id="22" name="9/7" dataDxfId="190"/>
-    <tableColumn id="21" name="10/7" dataDxfId="189"/>
-    <tableColumn id="20" name="11/7" dataDxfId="188"/>
-    <tableColumn id="18" name="12/7" dataDxfId="187"/>
-    <tableColumn id="25" name="13/7" dataDxfId="186"/>
-    <tableColumn id="26" name="14/7" dataDxfId="185"/>
-    <tableColumn id="19" name="End" dataDxfId="184"/>
+    <tableColumn id="14" name="1/7" dataDxfId="217"/>
+    <tableColumn id="6" name="2/7" dataDxfId="216"/>
+    <tableColumn id="7" name="3/7" dataDxfId="215"/>
+    <tableColumn id="15" name="4/7" dataDxfId="214"/>
+    <tableColumn id="16" name="5/7" dataDxfId="213"/>
+    <tableColumn id="17" name="6/7" dataDxfId="212"/>
+    <tableColumn id="24" name="7/7" dataDxfId="211"/>
+    <tableColumn id="23" name="8/7" dataDxfId="210"/>
+    <tableColumn id="22" name="9/7" dataDxfId="209"/>
+    <tableColumn id="21" name="10/7" dataDxfId="208"/>
+    <tableColumn id="20" name="11/7" dataDxfId="207"/>
+    <tableColumn id="18" name="12/7" dataDxfId="206"/>
+    <tableColumn id="25" name="13/7" dataDxfId="205"/>
+    <tableColumn id="26" name="14/7" dataDxfId="204"/>
+    <tableColumn id="19" name="End" dataDxfId="203"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B10:N56" totalsRowShown="0" headerRowDxfId="183" headerRowBorderDxfId="182" tableBorderDxfId="181">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B10:N56" totalsRowShown="0" headerRowDxfId="202" headerRowBorderDxfId="201" tableBorderDxfId="200">
   <autoFilter ref="B10:N56"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="180"/>
-    <tableColumn id="2" name="Task description" dataDxfId="179"/>
-    <tableColumn id="3" name="Type" dataDxfId="178"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="177"/>
-    <tableColumn id="5" name="Status" dataDxfId="176"/>
-    <tableColumn id="8" name="16/7" dataDxfId="175"/>
-    <tableColumn id="9" name="17/7" dataDxfId="174"/>
-    <tableColumn id="10" name="18/7" dataDxfId="173"/>
-    <tableColumn id="11" name="19/7" dataDxfId="172"/>
-    <tableColumn id="12" name="20/7" dataDxfId="171"/>
+    <tableColumn id="1" name="No." dataDxfId="199"/>
+    <tableColumn id="2" name="Task description" dataDxfId="198"/>
+    <tableColumn id="3" name="Type" dataDxfId="197"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="196"/>
+    <tableColumn id="5" name="Status" dataDxfId="195"/>
+    <tableColumn id="8" name="16/7" dataDxfId="194"/>
+    <tableColumn id="9" name="17/7" dataDxfId="193"/>
+    <tableColumn id="10" name="18/7" dataDxfId="192"/>
+    <tableColumn id="11" name="19/7" dataDxfId="191"/>
+    <tableColumn id="12" name="20/7" dataDxfId="190"/>
     <tableColumn id="13" name="21/7"/>
-    <tableColumn id="14" name="22/7" dataDxfId="170"/>
-    <tableColumn id="19" name="End" dataDxfId="169"/>
+    <tableColumn id="14" name="22/7" dataDxfId="189"/>
+    <tableColumn id="19" name="End" dataDxfId="188"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="168" dataDxfId="166" headerRowBorderDxfId="167" tableBorderDxfId="165" totalsRowBorderDxfId="164">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="187" dataDxfId="185" headerRowBorderDxfId="186" tableBorderDxfId="184" totalsRowBorderDxfId="183">
   <autoFilter ref="B10:M54">
     <filterColumn colId="5"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="No." dataDxfId="163"/>
-    <tableColumn id="2" name="Task description" dataDxfId="162"/>
-    <tableColumn id="3" name="Type" dataDxfId="161"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="160"/>
-    <tableColumn id="5" name="Status" dataDxfId="159"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="158"/>
-    <tableColumn id="8" name="08/05" dataDxfId="157"/>
-    <tableColumn id="9" name="09/05" dataDxfId="156"/>
-    <tableColumn id="10" name="10/05" dataDxfId="155"/>
-    <tableColumn id="11" name="11/05" dataDxfId="154"/>
-    <tableColumn id="12" name="12/05" dataDxfId="153"/>
-    <tableColumn id="13" name="End" dataDxfId="152"/>
+    <tableColumn id="1" name="No." dataDxfId="182"/>
+    <tableColumn id="2" name="Task description" dataDxfId="181"/>
+    <tableColumn id="3" name="Type" dataDxfId="180"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="179"/>
+    <tableColumn id="5" name="Status" dataDxfId="178"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="177"/>
+    <tableColumn id="8" name="08/05" dataDxfId="176"/>
+    <tableColumn id="9" name="09/05" dataDxfId="175"/>
+    <tableColumn id="10" name="10/05" dataDxfId="174"/>
+    <tableColumn id="11" name="11/05" dataDxfId="173"/>
+    <tableColumn id="12" name="12/05" dataDxfId="172"/>
+    <tableColumn id="13" name="End" dataDxfId="171"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148" totalsRowBorderDxfId="147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
+  <autoFilter ref="B10:O54">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="165"/>
+    <tableColumn id="2" name="Task description" dataDxfId="164"/>
+    <tableColumn id="3" name="Type" dataDxfId="163"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="162"/>
+    <tableColumn id="5" name="Status" dataDxfId="161"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="160"/>
+    <tableColumn id="8" name="13/05" dataDxfId="159"/>
+    <tableColumn id="9" name="14/05" dataDxfId="158"/>
+    <tableColumn id="10" name="15/05" dataDxfId="157"/>
+    <tableColumn id="11" name="16/05" dataDxfId="156"/>
+    <tableColumn id="12" name="17/05" dataDxfId="155"/>
+    <tableColumn id="13" name="18/05" dataDxfId="154"/>
+    <tableColumn id="14" name="19/05" dataDxfId="153"/>
+    <tableColumn id="15" name="End" dataDxfId="152"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13456789" displayName="Table13456789" ref="B10:O54" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148" totalsRowBorderDxfId="147">
   <autoFilter ref="B10:O54">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
@@ -13389,21 +14004,21 @@
     <tableColumn id="4" name="Assign To" dataDxfId="143"/>
     <tableColumn id="5" name="Status" dataDxfId="142"/>
     <tableColumn id="7" name="Estimate" dataDxfId="141"/>
-    <tableColumn id="8" name="13/05" dataDxfId="140"/>
-    <tableColumn id="9" name="14/05" dataDxfId="139"/>
-    <tableColumn id="10" name="15/05" dataDxfId="138"/>
-    <tableColumn id="11" name="16/05" dataDxfId="137"/>
-    <tableColumn id="12" name="17/05" dataDxfId="136"/>
-    <tableColumn id="13" name="18/05" dataDxfId="135"/>
-    <tableColumn id="14" name="19/05" dataDxfId="134"/>
+    <tableColumn id="8" name="20/05" dataDxfId="140"/>
+    <tableColumn id="9" name="21/05" dataDxfId="139"/>
+    <tableColumn id="10" name="22/05" dataDxfId="138"/>
+    <tableColumn id="11" name="23/05" dataDxfId="137"/>
+    <tableColumn id="12" name="24/05" dataDxfId="136"/>
+    <tableColumn id="13" name="25/05" dataDxfId="135"/>
+    <tableColumn id="14" name="26/05" dataDxfId="134"/>
     <tableColumn id="15" name="End" dataDxfId="133"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13456789" displayName="Table13456789" ref="B10:O54" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131" tableBorderDxfId="129" totalsRowBorderDxfId="128">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1345678910" displayName="Table1345678910" ref="B10:O54" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131" tableBorderDxfId="129" totalsRowBorderDxfId="128">
   <autoFilter ref="B10:O54">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
@@ -13416,41 +14031,14 @@
     <tableColumn id="4" name="Assign To" dataDxfId="124"/>
     <tableColumn id="5" name="Status" dataDxfId="123"/>
     <tableColumn id="7" name="Estimate" dataDxfId="122"/>
-    <tableColumn id="8" name="20/05" dataDxfId="121"/>
-    <tableColumn id="9" name="21/05" dataDxfId="120"/>
-    <tableColumn id="10" name="22/05" dataDxfId="119"/>
-    <tableColumn id="11" name="23/05" dataDxfId="118"/>
-    <tableColumn id="12" name="24/05" dataDxfId="117"/>
-    <tableColumn id="13" name="25/05" dataDxfId="116"/>
-    <tableColumn id="14" name="26/05" dataDxfId="115"/>
+    <tableColumn id="8" name="27/05" dataDxfId="121"/>
+    <tableColumn id="9" name="28/05" dataDxfId="120"/>
+    <tableColumn id="10" name="29/05" dataDxfId="119"/>
+    <tableColumn id="11" name="30/05" dataDxfId="118"/>
+    <tableColumn id="12" name="31/05" dataDxfId="117"/>
+    <tableColumn id="13" name="01/06" dataDxfId="116"/>
+    <tableColumn id="14" name="02/06" dataDxfId="115"/>
     <tableColumn id="15" name="End" dataDxfId="114"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1345678910" displayName="Table1345678910" ref="B10:O54" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110" totalsRowBorderDxfId="109">
-  <autoFilter ref="B10:O54">
-    <filterColumn colId="5"/>
-    <filterColumn colId="12"/>
-    <filterColumn colId="13"/>
-  </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="108"/>
-    <tableColumn id="2" name="Task description" dataDxfId="107"/>
-    <tableColumn id="3" name="Type" dataDxfId="106"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="105"/>
-    <tableColumn id="5" name="Status" dataDxfId="104"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="103"/>
-    <tableColumn id="8" name="27/05" dataDxfId="102"/>
-    <tableColumn id="9" name="28/05" dataDxfId="101"/>
-    <tableColumn id="10" name="29/05" dataDxfId="100"/>
-    <tableColumn id="11" name="30/05" dataDxfId="99"/>
-    <tableColumn id="12" name="31/05" dataDxfId="98"/>
-    <tableColumn id="13" name="01/06" dataDxfId="97"/>
-    <tableColumn id="14" name="02/06" dataDxfId="96"/>
-    <tableColumn id="15" name="End" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13831,7 +14419,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="C14" s="400">
+      <c r="C14" s="405">
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -13842,7 +14430,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="C15" s="401"/>
+      <c r="C15" s="406"/>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
@@ -13850,28 +14438,28 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="C16" s="401"/>
+      <c r="C16" s="406"/>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="401"/>
+      <c r="C17" s="406"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="407"/>
+      <c r="C18" s="412"/>
       <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="414">
+      <c r="C19" s="419">
         <v>3</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -13882,7 +14470,7 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="415"/>
+      <c r="C20" s="420"/>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
@@ -13892,7 +14480,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="415"/>
+      <c r="C21" s="420"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -13902,42 +14490,42 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="415"/>
+      <c r="C22" s="420"/>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="415"/>
+      <c r="C23" s="420"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="415"/>
+      <c r="C24" s="420"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="415"/>
+      <c r="C25" s="420"/>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="416"/>
+      <c r="C26" s="421"/>
       <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="53"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="400">
+      <c r="C27" s="405">
         <v>4</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -13948,56 +14536,56 @@
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="401"/>
+      <c r="C28" s="406"/>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="401"/>
+      <c r="C29" s="406"/>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="401"/>
+      <c r="C30" s="406"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="401"/>
+      <c r="C31" s="406"/>
       <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="401"/>
+      <c r="C32" s="406"/>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="C33" s="401"/>
+      <c r="C33" s="406"/>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="C34" s="407"/>
+      <c r="C34" s="412"/>
       <c r="D34" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="406">
+      <c r="C35" s="411">
         <v>5</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -14008,14 +14596,14 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="404"/>
+      <c r="C36" s="409"/>
       <c r="D36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="404"/>
+      <c r="C37" s="409"/>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
@@ -14023,14 +14611,14 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="411"/>
+      <c r="C38" s="416"/>
       <c r="D38" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="49"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="400">
+      <c r="C39" s="405">
         <v>6</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -14041,21 +14629,21 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="401"/>
+      <c r="C40" s="406"/>
       <c r="D40" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="407"/>
+      <c r="C41" s="412"/>
       <c r="D41" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="412" t="s">
+      <c r="C42" s="417" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -14066,7 +14654,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="C43" s="413"/>
+      <c r="C43" s="418"/>
       <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
@@ -14106,10 +14694,10 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="C52" s="410" t="s">
+      <c r="C52" s="415" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="410"/>
+      <c r="D52" s="415"/>
       <c r="E52" s="42"/>
     </row>
     <row r="53" spans="2:5">
@@ -14131,10 +14719,10 @@
       <c r="E54" s="40"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="C55" s="408" t="s">
+      <c r="C55" s="413" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="409"/>
+      <c r="D55" s="414"/>
       <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5">
@@ -14156,10 +14744,10 @@
       <c r="E57" s="40"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="C58" s="408" t="s">
+      <c r="C58" s="413" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="409"/>
+      <c r="D58" s="414"/>
       <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5">
@@ -14172,7 +14760,7 @@
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="C60" s="401">
+      <c r="C60" s="406">
         <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
@@ -14181,70 +14769,70 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="C61" s="401"/>
+      <c r="C61" s="406"/>
       <c r="D61" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="C62" s="401"/>
+      <c r="C62" s="406"/>
       <c r="D62" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="C63" s="401"/>
+      <c r="C63" s="406"/>
       <c r="D63" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="C64" s="401"/>
+      <c r="C64" s="406"/>
       <c r="D64" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="401"/>
+      <c r="C65" s="406"/>
       <c r="D65" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="401"/>
+      <c r="C66" s="406"/>
       <c r="D66" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="18"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="401"/>
+      <c r="C67" s="406"/>
       <c r="D67" s="32" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="401"/>
+      <c r="C68" s="406"/>
       <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="407"/>
+      <c r="C69" s="412"/>
       <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="18"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="406">
+      <c r="C70" s="411">
         <v>2</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -14253,35 +14841,35 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="404"/>
+      <c r="C71" s="409"/>
       <c r="D71" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="3:5">
-      <c r="C72" s="404"/>
+      <c r="C72" s="409"/>
       <c r="D72" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="404"/>
+      <c r="C73" s="409"/>
       <c r="D73" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="404"/>
+      <c r="C74" s="409"/>
       <c r="D74" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="49"/>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="400">
+      <c r="C75" s="405">
         <v>3</v>
       </c>
       <c r="D75" s="44" t="s">
@@ -14290,42 +14878,42 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="401"/>
+      <c r="C76" s="406"/>
       <c r="D76" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="401"/>
+      <c r="C77" s="406"/>
       <c r="D77" s="33" t="s">
         <v>72</v>
       </c>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="401"/>
+      <c r="C78" s="406"/>
       <c r="D78" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E78" s="18"/>
     </row>
     <row r="79" spans="3:5">
-      <c r="C79" s="401"/>
+      <c r="C79" s="406"/>
       <c r="D79" s="33" t="s">
         <v>74</v>
       </c>
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C80" s="402"/>
+      <c r="C80" s="407"/>
       <c r="D80" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="3:5">
-      <c r="C81" s="403">
+      <c r="C81" s="408">
         <v>4</v>
       </c>
       <c r="D81" s="57" t="s">
@@ -14334,63 +14922,63 @@
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="404"/>
+      <c r="C82" s="409"/>
       <c r="D82" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E82" s="48"/>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="404"/>
+      <c r="C83" s="409"/>
       <c r="D83" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="3:5">
-      <c r="C84" s="404"/>
+      <c r="C84" s="409"/>
       <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="48"/>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="404"/>
+      <c r="C85" s="409"/>
       <c r="D85" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="48"/>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="404"/>
+      <c r="C86" s="409"/>
       <c r="D86" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="48"/>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="404"/>
+      <c r="C87" s="409"/>
       <c r="D87" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="404"/>
+      <c r="C88" s="409"/>
       <c r="D88" s="34" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="48"/>
     </row>
     <row r="89" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C89" s="405"/>
+      <c r="C89" s="410"/>
       <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="3:5">
-      <c r="C90" s="400">
+      <c r="C90" s="405">
         <v>5</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -14399,28 +14987,28 @@
       <c r="E90" s="18"/>
     </row>
     <row r="91" spans="3:5">
-      <c r="C91" s="401"/>
+      <c r="C91" s="406"/>
       <c r="D91" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="3:5">
-      <c r="C92" s="401"/>
+      <c r="C92" s="406"/>
       <c r="D92" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="3:5">
-      <c r="C93" s="401"/>
+      <c r="C93" s="406"/>
       <c r="D93" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="3:5">
-      <c r="C94" s="406">
+      <c r="C94" s="411">
         <v>6</v>
       </c>
       <c r="D94" s="57" t="s">
@@ -14429,21 +15017,21 @@
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="404"/>
+      <c r="C95" s="409"/>
       <c r="D95" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="404"/>
+      <c r="C96" s="409"/>
       <c r="D96" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="48"/>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="400">
+      <c r="C97" s="405">
         <v>7</v>
       </c>
       <c r="D97" s="44" t="s">
@@ -14452,35 +15040,35 @@
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="401"/>
+      <c r="C98" s="406"/>
       <c r="D98" s="32" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="18"/>
     </row>
     <row r="99" spans="3:5">
-      <c r="C99" s="401"/>
+      <c r="C99" s="406"/>
       <c r="D99" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="18"/>
     </row>
     <row r="100" spans="3:5">
-      <c r="C100" s="401"/>
+      <c r="C100" s="406"/>
       <c r="D100" s="32" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="18"/>
     </row>
     <row r="101" spans="3:5">
-      <c r="C101" s="407"/>
+      <c r="C101" s="412"/>
       <c r="D101" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="18"/>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="406">
+      <c r="C102" s="411">
         <v>8</v>
       </c>
       <c r="D102" s="57" t="s">
@@ -14489,21 +15077,21 @@
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="3:5">
-      <c r="C103" s="404"/>
+      <c r="C103" s="409"/>
       <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="3:5">
-      <c r="C104" s="404"/>
+      <c r="C104" s="409"/>
       <c r="D104" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="48"/>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="400" t="s">
+      <c r="C105" s="405" t="s">
         <v>99</v>
       </c>
       <c r="D105" s="58" t="s">
@@ -14514,7 +15102,7 @@
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="401"/>
+      <c r="C106" s="406"/>
       <c r="D106" s="38"/>
       <c r="E106" s="18"/>
     </row>
@@ -14587,12 +15175,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="417" t="s">
+      <c r="B7" s="422" t="s">
         <v>393</v>
       </c>
-      <c r="C7" s="417"/>
-      <c r="D7" s="417"/>
-      <c r="E7" s="417"/>
+      <c r="C7" s="422"/>
+      <c r="D7" s="422"/>
+      <c r="E7" s="422"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -16248,12 +16836,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="417" t="s">
+      <c r="B7" s="422" t="s">
         <v>410</v>
       </c>
-      <c r="C7" s="417"/>
-      <c r="D7" s="417"/>
-      <c r="E7" s="417"/>
+      <c r="C7" s="422"/>
+      <c r="D7" s="422"/>
+      <c r="E7" s="422"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -17779,12 +18367,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="417" t="s">
+      <c r="B7" s="422" t="s">
         <v>413</v>
       </c>
-      <c r="C7" s="417"/>
-      <c r="D7" s="417"/>
-      <c r="E7" s="417"/>
+      <c r="C7" s="422"/>
+      <c r="D7" s="422"/>
+      <c r="E7" s="422"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -19348,12 +19936,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="417" t="s">
+      <c r="B7" s="422" t="s">
         <v>458</v>
       </c>
-      <c r="C7" s="417"/>
-      <c r="D7" s="417"/>
-      <c r="E7" s="417"/>
+      <c r="C7" s="422"/>
+      <c r="D7" s="422"/>
+      <c r="E7" s="422"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -19374,28 +19962,28 @@
       <c r="G10" s="310" t="s">
         <v>347</v>
       </c>
-      <c r="H10" s="419" t="s">
+      <c r="H10" s="401" t="s">
         <v>434</v>
       </c>
-      <c r="I10" s="419" t="s">
+      <c r="I10" s="401" t="s">
         <v>435</v>
       </c>
-      <c r="J10" s="420" t="s">
+      <c r="J10" s="402" t="s">
         <v>436</v>
       </c>
-      <c r="K10" s="420" t="s">
+      <c r="K10" s="402" t="s">
         <v>437</v>
       </c>
-      <c r="L10" s="420" t="s">
+      <c r="L10" s="402" t="s">
         <v>438</v>
       </c>
-      <c r="M10" s="420" t="s">
+      <c r="M10" s="402" t="s">
         <v>439</v>
       </c>
-      <c r="N10" s="421" t="s">
+      <c r="N10" s="403" t="s">
         <v>440</v>
       </c>
-      <c r="O10" s="422" t="s">
+      <c r="O10" s="404" t="s">
         <v>284</v>
       </c>
     </row>
@@ -20785,12 +21373,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="417" t="s">
+      <c r="B7" s="422" t="s">
         <v>448</v>
       </c>
-      <c r="C7" s="417"/>
-      <c r="D7" s="417"/>
-      <c r="E7" s="417"/>
+      <c r="C7" s="422"/>
+      <c r="D7" s="422"/>
+      <c r="E7" s="422"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -21110,7 +21698,7 @@
       <c r="D17" s="369" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="418" t="s">
+      <c r="E17" s="400" t="s">
         <v>352</v>
       </c>
       <c r="F17" s="369" t="s">
@@ -22199,10 +22787,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:O121"/>
+  <dimension ref="B2:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22240,12 +22828,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="417" t="s">
+      <c r="B7" s="422" t="s">
         <v>459</v>
       </c>
-      <c r="C7" s="417"/>
-      <c r="D7" s="417"/>
-      <c r="E7" s="417"/>
+      <c r="C7" s="422"/>
+      <c r="D7" s="422"/>
+      <c r="E7" s="422"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -22309,6 +22897,1505 @@
       </c>
       <c r="G11" s="367">
         <v>25</v>
+      </c>
+      <c r="H11" s="356">
+        <v>23</v>
+      </c>
+      <c r="I11" s="357">
+        <v>20</v>
+      </c>
+      <c r="J11" s="357">
+        <v>18</v>
+      </c>
+      <c r="K11" s="357">
+        <v>17</v>
+      </c>
+      <c r="L11" s="357">
+        <v>16</v>
+      </c>
+      <c r="M11" s="357">
+        <v>15</v>
+      </c>
+      <c r="N11" s="371">
+        <v>15</v>
+      </c>
+      <c r="O11" s="371">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="335">
+        <v>2</v>
+      </c>
+      <c r="C12" s="372" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="366" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="367">
+        <v>20</v>
+      </c>
+      <c r="H12" s="356">
+        <v>20</v>
+      </c>
+      <c r="I12" s="357">
+        <v>20</v>
+      </c>
+      <c r="J12" s="357">
+        <v>20</v>
+      </c>
+      <c r="K12" s="357">
+        <v>20</v>
+      </c>
+      <c r="L12" s="356">
+        <v>20</v>
+      </c>
+      <c r="M12" s="356">
+        <v>20</v>
+      </c>
+      <c r="N12" s="371">
+        <v>20</v>
+      </c>
+      <c r="O12" s="371">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="338">
+        <v>3</v>
+      </c>
+      <c r="C13" s="368" t="s">
+        <v>469</v>
+      </c>
+      <c r="D13" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="336" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13" s="359" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="360">
+        <v>20</v>
+      </c>
+      <c r="H13" s="373">
+        <v>20</v>
+      </c>
+      <c r="I13" s="373">
+        <v>20</v>
+      </c>
+      <c r="J13" s="373">
+        <v>20</v>
+      </c>
+      <c r="K13" s="373">
+        <v>20</v>
+      </c>
+      <c r="L13" s="373">
+        <v>20</v>
+      </c>
+      <c r="M13" s="373">
+        <v>20</v>
+      </c>
+      <c r="N13" s="371">
+        <v>20</v>
+      </c>
+      <c r="O13" s="371">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="338">
+        <v>4</v>
+      </c>
+      <c r="C14" s="368" t="s">
+        <v>467</v>
+      </c>
+      <c r="D14" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F14" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="367">
+        <v>10</v>
+      </c>
+      <c r="H14" s="373">
+        <v>10</v>
+      </c>
+      <c r="I14" s="373">
+        <v>10</v>
+      </c>
+      <c r="J14" s="373">
+        <v>10</v>
+      </c>
+      <c r="K14" s="373">
+        <v>10</v>
+      </c>
+      <c r="L14" s="373">
+        <v>10</v>
+      </c>
+      <c r="M14" s="373">
+        <v>10</v>
+      </c>
+      <c r="N14" s="371">
+        <v>10</v>
+      </c>
+      <c r="O14" s="371">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="335">
+        <v>5</v>
+      </c>
+      <c r="C15" s="368" t="s">
+        <v>473</v>
+      </c>
+      <c r="D15" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="367">
+        <v>8</v>
+      </c>
+      <c r="H15" s="373">
+        <v>6</v>
+      </c>
+      <c r="I15" s="373">
+        <v>4</v>
+      </c>
+      <c r="J15" s="373">
+        <v>3</v>
+      </c>
+      <c r="K15" s="373">
+        <v>2</v>
+      </c>
+      <c r="L15" s="373">
+        <v>0</v>
+      </c>
+      <c r="M15" s="373">
+        <v>0</v>
+      </c>
+      <c r="N15" s="371">
+        <v>0</v>
+      </c>
+      <c r="O15" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="338">
+        <v>6</v>
+      </c>
+      <c r="C16" s="368" t="s">
+        <v>468</v>
+      </c>
+      <c r="D16" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="367">
+        <v>20</v>
+      </c>
+      <c r="H16" s="326">
+        <v>15</v>
+      </c>
+      <c r="I16" s="339">
+        <v>12</v>
+      </c>
+      <c r="J16" s="339">
+        <v>9</v>
+      </c>
+      <c r="K16" s="339">
+        <v>7</v>
+      </c>
+      <c r="L16" s="339">
+        <v>5</v>
+      </c>
+      <c r="M16" s="331">
+        <v>3</v>
+      </c>
+      <c r="N16" s="362">
+        <v>0</v>
+      </c>
+      <c r="O16" s="362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" s="197" customFormat="1">
+      <c r="B17" s="338">
+        <v>7</v>
+      </c>
+      <c r="C17" s="385" t="s">
+        <v>470</v>
+      </c>
+      <c r="D17" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="366" t="s">
+        <v>352</v>
+      </c>
+      <c r="F17" s="365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="367">
+        <v>15</v>
+      </c>
+      <c r="H17" s="356">
+        <v>15</v>
+      </c>
+      <c r="I17" s="357">
+        <v>15</v>
+      </c>
+      <c r="J17" s="357">
+        <v>15</v>
+      </c>
+      <c r="K17" s="357">
+        <v>15</v>
+      </c>
+      <c r="L17" s="357">
+        <v>15</v>
+      </c>
+      <c r="M17" s="357">
+        <v>15</v>
+      </c>
+      <c r="N17" s="371">
+        <v>15</v>
+      </c>
+      <c r="O17" s="371">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" s="197" customFormat="1">
+      <c r="B18" s="335">
+        <v>8</v>
+      </c>
+      <c r="C18" s="368" t="s">
+        <v>471</v>
+      </c>
+      <c r="D18" s="369" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="400" t="s">
+        <v>352</v>
+      </c>
+      <c r="F18" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="367">
+        <v>15</v>
+      </c>
+      <c r="H18" s="356">
+        <v>15</v>
+      </c>
+      <c r="I18" s="357">
+        <v>15</v>
+      </c>
+      <c r="J18" s="357">
+        <v>15</v>
+      </c>
+      <c r="K18" s="357">
+        <v>15</v>
+      </c>
+      <c r="L18" s="357">
+        <v>15</v>
+      </c>
+      <c r="M18" s="357">
+        <v>15</v>
+      </c>
+      <c r="N18" s="399">
+        <v>15</v>
+      </c>
+      <c r="O18" s="399">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" s="197" customFormat="1">
+      <c r="B19" s="338">
+        <v>9</v>
+      </c>
+      <c r="C19" s="385" t="s">
+        <v>446</v>
+      </c>
+      <c r="D19" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="366" t="s">
+        <v>350</v>
+      </c>
+      <c r="F19" s="365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="367">
+        <v>20</v>
+      </c>
+      <c r="H19" s="356">
+        <v>18</v>
+      </c>
+      <c r="I19" s="357">
+        <v>15</v>
+      </c>
+      <c r="J19" s="357">
+        <v>13</v>
+      </c>
+      <c r="K19" s="356">
+        <v>10</v>
+      </c>
+      <c r="L19" s="356">
+        <v>10</v>
+      </c>
+      <c r="M19" s="356">
+        <v>10</v>
+      </c>
+      <c r="N19" s="371">
+        <v>10</v>
+      </c>
+      <c r="O19" s="371">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" s="197" customFormat="1" ht="36" customHeight="1">
+      <c r="B20" s="338">
+        <v>10</v>
+      </c>
+      <c r="C20" s="374" t="s">
+        <v>472</v>
+      </c>
+      <c r="D20" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="355" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="367">
+        <v>10</v>
+      </c>
+      <c r="H20" s="326">
+        <v>8</v>
+      </c>
+      <c r="I20" s="339">
+        <v>5</v>
+      </c>
+      <c r="J20" s="339">
+        <v>3</v>
+      </c>
+      <c r="K20" s="339">
+        <v>1</v>
+      </c>
+      <c r="L20" s="339">
+        <v>0</v>
+      </c>
+      <c r="M20" s="331">
+        <v>0</v>
+      </c>
+      <c r="N20" s="398">
+        <v>0</v>
+      </c>
+      <c r="O20" s="398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="335">
+        <v>11</v>
+      </c>
+      <c r="C21" s="368"/>
+      <c r="D21" s="354"/>
+      <c r="E21" s="355"/>
+      <c r="F21" s="369"/>
+      <c r="G21" s="367"/>
+      <c r="H21" s="356"/>
+      <c r="I21" s="357"/>
+      <c r="J21" s="357"/>
+      <c r="K21" s="357"/>
+      <c r="L21" s="357"/>
+      <c r="M21" s="357"/>
+      <c r="N21" s="399"/>
+      <c r="O21" s="399"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="338">
+        <v>12</v>
+      </c>
+      <c r="C22" s="372"/>
+      <c r="D22" s="354"/>
+      <c r="E22" s="355"/>
+      <c r="F22" s="369"/>
+      <c r="G22" s="367"/>
+      <c r="H22" s="356"/>
+      <c r="I22" s="357"/>
+      <c r="J22" s="357"/>
+      <c r="K22" s="357"/>
+      <c r="L22" s="357"/>
+      <c r="M22" s="357"/>
+      <c r="N22" s="399"/>
+      <c r="O22" s="399"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="338">
+        <v>13</v>
+      </c>
+      <c r="C23" s="374"/>
+      <c r="D23" s="365"/>
+      <c r="E23" s="355"/>
+      <c r="F23" s="369"/>
+      <c r="G23" s="367"/>
+      <c r="H23" s="367"/>
+      <c r="I23" s="367"/>
+      <c r="J23" s="367"/>
+      <c r="K23" s="367"/>
+      <c r="L23" s="367"/>
+      <c r="M23" s="367"/>
+      <c r="N23" s="399"/>
+      <c r="O23" s="399"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="335">
+        <v>14</v>
+      </c>
+      <c r="C24" s="385"/>
+      <c r="D24" s="365"/>
+      <c r="E24" s="355"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="367"/>
+      <c r="H24" s="367"/>
+      <c r="I24" s="367"/>
+      <c r="J24" s="367"/>
+      <c r="K24" s="367"/>
+      <c r="L24" s="367"/>
+      <c r="M24" s="367"/>
+      <c r="N24" s="399"/>
+      <c r="O24" s="399"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="338">
+        <v>15</v>
+      </c>
+      <c r="C25" s="386"/>
+      <c r="D25" s="354"/>
+      <c r="E25" s="355"/>
+      <c r="F25" s="369"/>
+      <c r="G25" s="367"/>
+      <c r="H25" s="356"/>
+      <c r="I25" s="357"/>
+      <c r="J25" s="357"/>
+      <c r="K25" s="357"/>
+      <c r="L25" s="357"/>
+      <c r="M25" s="357"/>
+      <c r="N25" s="399"/>
+      <c r="O25" s="399"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="338">
+        <v>16</v>
+      </c>
+      <c r="C26" s="385"/>
+      <c r="D26" s="354"/>
+      <c r="E26" s="355"/>
+      <c r="F26" s="369"/>
+      <c r="G26" s="367"/>
+      <c r="H26" s="356"/>
+      <c r="I26" s="357"/>
+      <c r="J26" s="357"/>
+      <c r="K26" s="357"/>
+      <c r="L26" s="357"/>
+      <c r="M26" s="357"/>
+      <c r="N26" s="399"/>
+      <c r="O26" s="399"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="335">
+        <v>17</v>
+      </c>
+      <c r="C27" s="372"/>
+      <c r="D27" s="354"/>
+      <c r="E27" s="355"/>
+      <c r="F27" s="369"/>
+      <c r="G27" s="367"/>
+      <c r="H27" s="326"/>
+      <c r="I27" s="339"/>
+      <c r="J27" s="339"/>
+      <c r="K27" s="339"/>
+      <c r="L27" s="339"/>
+      <c r="M27" s="331"/>
+      <c r="N27" s="398"/>
+      <c r="O27" s="398"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="338">
+        <v>18</v>
+      </c>
+      <c r="C28" s="368"/>
+      <c r="D28" s="354"/>
+      <c r="E28" s="355"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="326"/>
+      <c r="I28" s="326"/>
+      <c r="J28" s="326"/>
+      <c r="K28" s="326"/>
+      <c r="L28" s="326"/>
+      <c r="M28" s="333"/>
+      <c r="N28" s="398"/>
+      <c r="O28" s="398"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="338">
+        <v>19</v>
+      </c>
+      <c r="C29" s="368"/>
+      <c r="D29" s="354"/>
+      <c r="E29" s="355"/>
+      <c r="F29" s="369"/>
+      <c r="G29" s="367"/>
+      <c r="H29" s="326"/>
+      <c r="I29" s="326"/>
+      <c r="J29" s="326"/>
+      <c r="K29" s="326"/>
+      <c r="L29" s="326"/>
+      <c r="M29" s="333"/>
+      <c r="N29" s="398"/>
+      <c r="O29" s="398"/>
+    </row>
+    <row r="30" spans="2:15" ht="21.75" customHeight="1">
+      <c r="B30" s="335">
+        <v>20</v>
+      </c>
+      <c r="C30" s="366"/>
+      <c r="D30" s="365"/>
+      <c r="E30" s="366"/>
+      <c r="F30" s="365"/>
+      <c r="G30" s="367"/>
+      <c r="H30" s="356"/>
+      <c r="I30" s="356"/>
+      <c r="J30" s="356"/>
+      <c r="K30" s="356"/>
+      <c r="L30" s="356"/>
+      <c r="M30" s="356"/>
+      <c r="N30" s="371"/>
+      <c r="O30" s="371"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="338">
+        <v>21</v>
+      </c>
+      <c r="C31" s="366"/>
+      <c r="D31" s="365"/>
+      <c r="E31" s="366"/>
+      <c r="F31" s="365"/>
+      <c r="G31" s="367"/>
+      <c r="H31" s="373"/>
+      <c r="I31" s="373"/>
+      <c r="J31" s="373"/>
+      <c r="K31" s="373"/>
+      <c r="L31" s="373"/>
+      <c r="M31" s="373"/>
+      <c r="N31" s="371"/>
+      <c r="O31" s="371"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="338">
+        <v>22</v>
+      </c>
+      <c r="C32" s="366"/>
+      <c r="D32" s="365"/>
+      <c r="E32" s="366"/>
+      <c r="F32" s="365"/>
+      <c r="G32" s="367"/>
+      <c r="H32" s="373"/>
+      <c r="I32" s="373"/>
+      <c r="J32" s="373"/>
+      <c r="K32" s="373"/>
+      <c r="L32" s="373"/>
+      <c r="M32" s="373"/>
+      <c r="N32" s="371"/>
+      <c r="O32" s="371"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="335">
+        <v>23</v>
+      </c>
+      <c r="C33" s="366"/>
+      <c r="D33" s="365"/>
+      <c r="E33" s="366"/>
+      <c r="F33" s="365"/>
+      <c r="G33" s="367"/>
+      <c r="H33" s="373"/>
+      <c r="I33" s="373"/>
+      <c r="J33" s="373"/>
+      <c r="K33" s="373"/>
+      <c r="L33" s="373"/>
+      <c r="M33" s="373"/>
+      <c r="N33" s="371"/>
+      <c r="O33" s="371"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="338">
+        <v>24</v>
+      </c>
+      <c r="C34" s="366"/>
+      <c r="D34" s="365"/>
+      <c r="E34" s="366"/>
+      <c r="F34" s="365"/>
+      <c r="G34" s="367"/>
+      <c r="H34" s="373"/>
+      <c r="I34" s="373"/>
+      <c r="J34" s="373"/>
+      <c r="K34" s="373"/>
+      <c r="L34" s="373"/>
+      <c r="M34" s="373"/>
+      <c r="N34" s="371"/>
+      <c r="O34" s="371"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="338">
+        <v>25</v>
+      </c>
+      <c r="C35" s="366"/>
+      <c r="D35" s="365"/>
+      <c r="E35" s="366"/>
+      <c r="F35" s="365"/>
+      <c r="G35" s="367"/>
+      <c r="H35" s="373"/>
+      <c r="I35" s="373"/>
+      <c r="J35" s="373"/>
+      <c r="K35" s="373"/>
+      <c r="L35" s="373"/>
+      <c r="M35" s="373"/>
+      <c r="N35" s="371"/>
+      <c r="O35" s="371"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="335">
+        <v>26</v>
+      </c>
+      <c r="C36" s="366"/>
+      <c r="D36" s="365"/>
+      <c r="E36" s="366"/>
+      <c r="F36" s="365"/>
+      <c r="G36" s="367"/>
+      <c r="H36" s="326"/>
+      <c r="I36" s="326"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="326"/>
+      <c r="L36" s="326"/>
+      <c r="M36" s="333"/>
+      <c r="N36" s="362"/>
+      <c r="O36" s="362"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="338">
+        <v>27</v>
+      </c>
+      <c r="C37" s="375"/>
+      <c r="D37" s="289"/>
+      <c r="E37" s="336"/>
+      <c r="F37" s="359"/>
+      <c r="G37" s="360"/>
+      <c r="H37" s="326"/>
+      <c r="I37" s="326"/>
+      <c r="J37" s="326"/>
+      <c r="K37" s="326"/>
+      <c r="L37" s="326"/>
+      <c r="M37" s="333"/>
+      <c r="N37" s="362"/>
+      <c r="O37" s="362"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="338">
+        <v>28</v>
+      </c>
+      <c r="C38" s="366"/>
+      <c r="D38" s="365"/>
+      <c r="E38" s="366"/>
+      <c r="F38" s="365"/>
+      <c r="G38" s="367"/>
+      <c r="H38" s="326"/>
+      <c r="I38" s="326"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="326"/>
+      <c r="L38" s="326"/>
+      <c r="M38" s="333"/>
+      <c r="N38" s="362"/>
+      <c r="O38" s="362"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="335">
+        <v>29</v>
+      </c>
+      <c r="C39" s="366"/>
+      <c r="D39" s="365"/>
+      <c r="E39" s="366"/>
+      <c r="F39" s="365"/>
+      <c r="G39" s="367"/>
+      <c r="H39" s="326"/>
+      <c r="I39" s="326"/>
+      <c r="J39" s="326"/>
+      <c r="K39" s="326"/>
+      <c r="L39" s="326"/>
+      <c r="M39" s="333"/>
+      <c r="N39" s="362"/>
+      <c r="O39" s="362"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="338">
+        <v>30</v>
+      </c>
+      <c r="C40" s="366"/>
+      <c r="D40" s="365"/>
+      <c r="E40" s="366"/>
+      <c r="F40" s="365"/>
+      <c r="G40" s="367"/>
+      <c r="H40" s="326"/>
+      <c r="I40" s="326"/>
+      <c r="J40" s="326"/>
+      <c r="K40" s="326"/>
+      <c r="L40" s="326"/>
+      <c r="M40" s="333"/>
+      <c r="N40" s="362"/>
+      <c r="O40" s="362"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="338">
+        <v>31</v>
+      </c>
+      <c r="C41" s="366"/>
+      <c r="D41" s="365"/>
+      <c r="E41" s="366"/>
+      <c r="F41" s="365"/>
+      <c r="G41" s="367"/>
+      <c r="H41" s="326"/>
+      <c r="I41" s="326"/>
+      <c r="J41" s="326"/>
+      <c r="K41" s="326"/>
+      <c r="L41" s="326"/>
+      <c r="M41" s="333"/>
+      <c r="N41" s="362"/>
+      <c r="O41" s="362"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="335">
+        <v>32</v>
+      </c>
+      <c r="C42" s="366"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="366"/>
+      <c r="F42" s="365"/>
+      <c r="G42" s="367"/>
+      <c r="H42" s="326"/>
+      <c r="I42" s="326"/>
+      <c r="J42" s="326"/>
+      <c r="K42" s="326"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="333"/>
+      <c r="N42" s="362"/>
+      <c r="O42" s="362"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="338">
+        <v>33</v>
+      </c>
+      <c r="C43" s="366"/>
+      <c r="D43" s="365"/>
+      <c r="E43" s="366"/>
+      <c r="F43" s="365"/>
+      <c r="G43" s="367"/>
+      <c r="H43" s="326"/>
+      <c r="I43" s="326"/>
+      <c r="J43" s="326"/>
+      <c r="K43" s="326"/>
+      <c r="L43" s="326"/>
+      <c r="M43" s="333"/>
+      <c r="N43" s="362"/>
+      <c r="O43" s="362"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="338">
+        <v>34</v>
+      </c>
+      <c r="C44" s="366"/>
+      <c r="D44" s="365"/>
+      <c r="E44" s="366"/>
+      <c r="F44" s="365"/>
+      <c r="G44" s="367"/>
+      <c r="H44" s="326"/>
+      <c r="I44" s="326"/>
+      <c r="J44" s="326"/>
+      <c r="K44" s="326"/>
+      <c r="L44" s="326"/>
+      <c r="M44" s="333"/>
+      <c r="N44" s="362"/>
+      <c r="O44" s="362"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="335">
+        <v>35</v>
+      </c>
+      <c r="C45" s="366"/>
+      <c r="D45" s="365"/>
+      <c r="E45" s="366"/>
+      <c r="F45" s="365"/>
+      <c r="G45" s="367"/>
+      <c r="H45" s="326"/>
+      <c r="I45" s="326"/>
+      <c r="J45" s="326"/>
+      <c r="K45" s="326"/>
+      <c r="L45" s="326"/>
+      <c r="M45" s="333"/>
+      <c r="N45" s="362"/>
+      <c r="O45" s="362"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="338">
+        <v>36</v>
+      </c>
+      <c r="C46" s="366"/>
+      <c r="D46" s="365"/>
+      <c r="E46" s="366"/>
+      <c r="F46" s="365"/>
+      <c r="G46" s="367"/>
+      <c r="H46" s="326"/>
+      <c r="I46" s="326"/>
+      <c r="J46" s="326"/>
+      <c r="K46" s="326"/>
+      <c r="L46" s="326"/>
+      <c r="M46" s="333"/>
+      <c r="N46" s="362"/>
+      <c r="O46" s="362"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="338">
+        <v>37</v>
+      </c>
+      <c r="C47" s="366"/>
+      <c r="D47" s="365"/>
+      <c r="E47" s="366"/>
+      <c r="F47" s="365"/>
+      <c r="G47" s="367"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="326"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="333"/>
+      <c r="N47" s="362"/>
+      <c r="O47" s="362"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="335">
+        <v>38</v>
+      </c>
+      <c r="C48" s="366"/>
+      <c r="D48" s="365"/>
+      <c r="E48" s="366"/>
+      <c r="F48" s="365"/>
+      <c r="G48" s="367"/>
+      <c r="H48" s="326"/>
+      <c r="I48" s="326"/>
+      <c r="J48" s="326"/>
+      <c r="K48" s="326"/>
+      <c r="L48" s="326"/>
+      <c r="M48" s="333"/>
+      <c r="N48" s="362"/>
+      <c r="O48" s="362"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="338">
+        <v>39</v>
+      </c>
+      <c r="C49" s="366"/>
+      <c r="D49" s="365"/>
+      <c r="E49" s="366"/>
+      <c r="F49" s="365"/>
+      <c r="G49" s="367"/>
+      <c r="H49" s="326"/>
+      <c r="I49" s="326"/>
+      <c r="J49" s="326"/>
+      <c r="K49" s="326"/>
+      <c r="L49" s="326"/>
+      <c r="M49" s="333"/>
+      <c r="N49" s="362"/>
+      <c r="O49" s="362"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="338">
+        <v>40</v>
+      </c>
+      <c r="C50" s="366"/>
+      <c r="D50" s="365"/>
+      <c r="E50" s="366"/>
+      <c r="F50" s="365"/>
+      <c r="G50" s="367"/>
+      <c r="H50" s="326"/>
+      <c r="I50" s="326"/>
+      <c r="J50" s="326"/>
+      <c r="K50" s="326"/>
+      <c r="L50" s="326"/>
+      <c r="M50" s="333"/>
+      <c r="N50" s="362"/>
+      <c r="O50" s="362"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="335">
+        <v>41</v>
+      </c>
+      <c r="C51" s="366"/>
+      <c r="D51" s="365"/>
+      <c r="E51" s="366"/>
+      <c r="F51" s="365"/>
+      <c r="G51" s="367"/>
+      <c r="H51" s="326"/>
+      <c r="I51" s="326"/>
+      <c r="J51" s="326"/>
+      <c r="K51" s="326"/>
+      <c r="L51" s="326"/>
+      <c r="M51" s="333"/>
+      <c r="N51" s="362"/>
+      <c r="O51" s="362"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="338">
+        <v>42</v>
+      </c>
+      <c r="C52" s="366"/>
+      <c r="D52" s="365"/>
+      <c r="E52" s="366"/>
+      <c r="F52" s="365"/>
+      <c r="G52" s="367"/>
+      <c r="H52" s="326"/>
+      <c r="I52" s="326"/>
+      <c r="J52" s="326"/>
+      <c r="K52" s="326"/>
+      <c r="L52" s="326"/>
+      <c r="M52" s="333"/>
+      <c r="N52" s="362"/>
+      <c r="O52" s="362"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="338">
+        <v>43</v>
+      </c>
+      <c r="C53" s="366"/>
+      <c r="D53" s="365"/>
+      <c r="E53" s="366"/>
+      <c r="F53" s="365"/>
+      <c r="G53" s="367"/>
+      <c r="H53" s="326"/>
+      <c r="I53" s="326"/>
+      <c r="J53" s="326"/>
+      <c r="K53" s="326"/>
+      <c r="L53" s="326"/>
+      <c r="M53" s="333"/>
+      <c r="N53" s="362"/>
+      <c r="O53" s="362"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="335">
+        <v>44</v>
+      </c>
+      <c r="C54" s="366"/>
+      <c r="D54" s="365"/>
+      <c r="E54" s="366"/>
+      <c r="F54" s="365"/>
+      <c r="G54" s="367"/>
+      <c r="H54" s="326"/>
+      <c r="I54" s="326"/>
+      <c r="J54" s="326"/>
+      <c r="K54" s="326"/>
+      <c r="L54" s="326"/>
+      <c r="M54" s="333"/>
+      <c r="N54" s="362"/>
+      <c r="O54" s="362"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="338">
+        <v>45</v>
+      </c>
+      <c r="C55" s="363"/>
+      <c r="D55" s="289"/>
+      <c r="E55" s="336"/>
+      <c r="F55" s="359"/>
+      <c r="G55" s="360"/>
+      <c r="H55" s="326"/>
+      <c r="I55" s="326"/>
+      <c r="J55" s="326"/>
+      <c r="K55" s="326"/>
+      <c r="L55" s="326"/>
+      <c r="M55" s="333"/>
+      <c r="N55" s="362"/>
+      <c r="O55" s="362"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="338">
+        <v>46</v>
+      </c>
+      <c r="C56" s="376"/>
+      <c r="D56" s="289"/>
+      <c r="E56" s="336"/>
+      <c r="F56" s="359"/>
+      <c r="G56" s="360"/>
+      <c r="H56" s="360"/>
+      <c r="I56" s="360"/>
+      <c r="J56" s="360"/>
+      <c r="K56" s="360"/>
+      <c r="L56" s="360"/>
+      <c r="M56" s="377"/>
+      <c r="N56" s="362"/>
+      <c r="O56" s="362"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="378" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="379"/>
+      <c r="D57" s="348"/>
+      <c r="E57" s="380"/>
+      <c r="F57" s="381"/>
+      <c r="G57" s="382"/>
+      <c r="H57" s="382"/>
+      <c r="I57" s="382"/>
+      <c r="J57" s="382"/>
+      <c r="K57" s="382"/>
+      <c r="L57" s="382"/>
+      <c r="M57" s="383"/>
+      <c r="N57" s="384"/>
+      <c r="O57" s="384"/>
+    </row>
+    <row r="104" spans="2:15" s="97" customFormat="1">
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+    </row>
+    <row r="105" spans="2:15" s="97" customFormat="1">
+      <c r="B105"/>
+      <c r="C105" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+    </row>
+    <row r="106" spans="2:15" s="97" customFormat="1">
+      <c r="B106"/>
+      <c r="C106" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+    </row>
+    <row r="107" spans="2:15" s="97" customFormat="1">
+      <c r="B107"/>
+      <c r="C107" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="2:15" s="97" customFormat="1">
+      <c r="B108"/>
+      <c r="C108" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+    </row>
+    <row r="109" spans="2:15" s="97" customFormat="1">
+      <c r="B109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109"/>
+      <c r="E109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+    </row>
+    <row r="110" spans="2:15" s="97" customFormat="1">
+      <c r="B110"/>
+      <c r="C110" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="E110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+    </row>
+    <row r="111" spans="2:15" s="97" customFormat="1">
+      <c r="B111"/>
+      <c r="C111" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="E111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+    </row>
+    <row r="112" spans="2:15" s="97" customFormat="1">
+      <c r="B112"/>
+      <c r="C112" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+    </row>
+    <row r="113" spans="2:15" s="97" customFormat="1">
+      <c r="B113"/>
+      <c r="C113" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="E113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+    </row>
+    <row r="114" spans="2:15" s="97" customFormat="1">
+      <c r="B114"/>
+      <c r="C114" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+    </row>
+    <row r="116" spans="2:15" s="97" customFormat="1">
+      <c r="B116" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116"/>
+      <c r="E116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+    </row>
+    <row r="117" spans="2:15" s="97" customFormat="1">
+      <c r="B117"/>
+      <c r="C117" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="E117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+    </row>
+    <row r="118" spans="2:15" s="97" customFormat="1">
+      <c r="B118"/>
+      <c r="C118" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+    </row>
+    <row r="119" spans="2:15" s="97" customFormat="1">
+      <c r="B119"/>
+      <c r="C119" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+    </row>
+    <row r="120" spans="2:15" s="97" customFormat="1">
+      <c r="B120"/>
+      <c r="C120" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+    </row>
+    <row r="121" spans="2:15" s="97" customFormat="1">
+      <c r="B121"/>
+      <c r="C121" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+    </row>
+    <row r="122" spans="2:15" s="97" customFormat="1">
+      <c r="B122"/>
+      <c r="C122" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F55:F57 F20:F40 F11:F18">
+      <formula1>$C$117:$C$122</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E55:E57 E11:E34 E37">
+      <formula1>$C$110:$C$114</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D55:D57 D11:D32 D37">
+      <formula1>$C$104:$C$108</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F58:F94">
+      <formula1>$C$118:$C$122</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="28" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:O121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="97" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" style="97" customWidth="1"/>
+    <col min="8" max="15" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="18">
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="3" spans="2:15" ht="18">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="C4" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="C5" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" ht="18">
+      <c r="B7" s="422" t="s">
+        <v>476</v>
+      </c>
+      <c r="C7" s="422"/>
+      <c r="D7" s="422"/>
+      <c r="E7" s="422"/>
+    </row>
+    <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
+      <c r="B10" s="275" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="276" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="276" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="276" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="276" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="310" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="272" t="s">
+        <v>460</v>
+      </c>
+      <c r="I10" s="272" t="s">
+        <v>461</v>
+      </c>
+      <c r="J10" s="273" t="s">
+        <v>462</v>
+      </c>
+      <c r="K10" s="273" t="s">
+        <v>463</v>
+      </c>
+      <c r="L10" s="273" t="s">
+        <v>464</v>
+      </c>
+      <c r="M10" s="273" t="s">
+        <v>465</v>
+      </c>
+      <c r="N10" s="274" t="s">
+        <v>466</v>
+      </c>
+      <c r="O10" s="311" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="338">
+        <v>1</v>
+      </c>
+      <c r="C11" s="368" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="355" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="367">
+        <v>15</v>
       </c>
       <c r="H11" s="356"/>
       <c r="I11" s="357"/>
@@ -22408,7 +24495,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="368" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D15" s="354" t="s">
         <v>107</v>
@@ -22420,7 +24507,7 @@
         <v>117</v>
       </c>
       <c r="G15" s="367">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H15" s="326"/>
       <c r="I15" s="339"/>
@@ -22469,7 +24556,7 @@
       <c r="D17" s="369" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="418" t="s">
+      <c r="E17" s="400" t="s">
         <v>352</v>
       </c>
       <c r="F17" s="369" t="s">
@@ -22504,7 +24591,7 @@
         <v>117</v>
       </c>
       <c r="G18" s="367">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H18" s="356"/>
       <c r="I18" s="357"/>
@@ -22520,7 +24607,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="374" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D19" s="354" t="s">
         <v>107</v>
@@ -22529,10 +24616,10 @@
         <v>350</v>
       </c>
       <c r="F19" s="369" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G19" s="367">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H19" s="326"/>
       <c r="I19" s="339"/>
@@ -23486,24 +25573,23 @@
     <mergeCell ref="B7:E7"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54:F56 F11:F17 F19:F39">
-      <formula1>$C$116:$C$121</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57:F93">
+      <formula1>$C$117:$C$121</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54:D56 D36 D11:D31">
+      <formula1>$C$103:$C$107</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E54:E56 E36 E11:E33">
       <formula1>$C$109:$C$113</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54:D56 D36 D11:D31">
-      <formula1>$C$103:$C$107</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57:F93">
-      <formula1>$C$117:$C$121</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54:F56 F11:F17 F19:F39">
+      <formula1>$C$116:$C$121</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="28" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -26035,12 +28121,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:27" ht="18">
-      <c r="B7" s="417" t="s">
+      <c r="B7" s="422" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="417"/>
-      <c r="D7" s="417"/>
-      <c r="E7" s="417"/>
+      <c r="C7" s="422"/>
+      <c r="D7" s="422"/>
+      <c r="E7" s="422"/>
     </row>
     <row r="10" spans="2:27" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -30216,12 +32302,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:14" ht="18">
-      <c r="B7" s="417" t="s">
+      <c r="B7" s="422" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="417"/>
-      <c r="D7" s="417"/>
-      <c r="E7" s="417"/>
+      <c r="C7" s="422"/>
+      <c r="D7" s="422"/>
+      <c r="E7" s="422"/>
     </row>
     <row r="10" spans="2:14" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="117" t="s">
@@ -31837,12 +33923,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:13" ht="18">
-      <c r="B7" s="417" t="s">
+      <c r="B7" s="422" t="s">
         <v>348</v>
       </c>
-      <c r="C7" s="417"/>
-      <c r="D7" s="417"/>
-      <c r="E7" s="417"/>
+      <c r="C7" s="422"/>
+      <c r="D7" s="422"/>
+      <c r="E7" s="422"/>
     </row>
     <row r="10" spans="2:13" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -33106,12 +35192,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="417" t="s">
+      <c r="B7" s="422" t="s">
         <v>372</v>
       </c>
-      <c r="C7" s="417"/>
-      <c r="D7" s="417"/>
-      <c r="E7" s="417"/>
+      <c r="C7" s="422"/>
+      <c r="D7" s="422"/>
+      <c r="E7" s="422"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">
@@ -34669,12 +36755,12 @@
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="417" t="s">
+      <c r="B7" s="422" t="s">
         <v>392</v>
       </c>
-      <c r="C7" s="417"/>
-      <c r="D7" s="417"/>
-      <c r="E7" s="417"/>
+      <c r="C7" s="422"/>
+      <c r="D7" s="422"/>
+      <c r="E7" s="422"/>
     </row>
     <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="275" t="s">

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -4231,55 +4231,55 @@
     <xf numFmtId="1" fontId="27" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14419,7 +14419,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="C14" s="405">
+      <c r="C14" s="408">
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -14430,7 +14430,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="C15" s="406"/>
+      <c r="C15" s="409"/>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
@@ -14438,28 +14438,28 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="C16" s="406"/>
+      <c r="C16" s="409"/>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="406"/>
+      <c r="C17" s="409"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="412"/>
+      <c r="C18" s="410"/>
       <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="419">
+      <c r="C19" s="413">
         <v>3</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -14470,7 +14470,7 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="420"/>
+      <c r="C20" s="414"/>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
@@ -14480,7 +14480,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="420"/>
+      <c r="C21" s="414"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -14490,42 +14490,42 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="420"/>
+      <c r="C22" s="414"/>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="420"/>
+      <c r="C23" s="414"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="420"/>
+      <c r="C24" s="414"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="420"/>
+      <c r="C25" s="414"/>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="421"/>
+      <c r="C26" s="415"/>
       <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="53"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="405">
+      <c r="C27" s="408">
         <v>4</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -14536,56 +14536,56 @@
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="406"/>
+      <c r="C28" s="409"/>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="406"/>
+      <c r="C29" s="409"/>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="406"/>
+      <c r="C30" s="409"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="406"/>
+      <c r="C31" s="409"/>
       <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="406"/>
+      <c r="C32" s="409"/>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="C33" s="406"/>
+      <c r="C33" s="409"/>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="C34" s="412"/>
+      <c r="C34" s="410"/>
       <c r="D34" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="411">
+      <c r="C35" s="405">
         <v>5</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -14596,14 +14596,14 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="409"/>
+      <c r="C36" s="406"/>
       <c r="D36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="409"/>
+      <c r="C37" s="406"/>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
@@ -14611,14 +14611,14 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="416"/>
+      <c r="C38" s="407"/>
       <c r="D38" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="49"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="405">
+      <c r="C39" s="408">
         <v>6</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -14629,21 +14629,21 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="406"/>
+      <c r="C40" s="409"/>
       <c r="D40" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="412"/>
+      <c r="C41" s="410"/>
       <c r="D41" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="417" t="s">
+      <c r="C42" s="411" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -14654,7 +14654,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="C43" s="418"/>
+      <c r="C43" s="412"/>
       <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
@@ -14694,10 +14694,10 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="C52" s="415" t="s">
+      <c r="C52" s="418" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="415"/>
+      <c r="D52" s="418"/>
       <c r="E52" s="42"/>
     </row>
     <row r="53" spans="2:5">
@@ -14719,10 +14719,10 @@
       <c r="E54" s="40"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="C55" s="413" t="s">
+      <c r="C55" s="416" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="414"/>
+      <c r="D55" s="417"/>
       <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5">
@@ -14744,10 +14744,10 @@
       <c r="E57" s="40"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="C58" s="413" t="s">
+      <c r="C58" s="416" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="414"/>
+      <c r="D58" s="417"/>
       <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5">
@@ -14760,7 +14760,7 @@
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="C60" s="406">
+      <c r="C60" s="409">
         <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
@@ -14769,70 +14769,70 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="C61" s="406"/>
+      <c r="C61" s="409"/>
       <c r="D61" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="C62" s="406"/>
+      <c r="C62" s="409"/>
       <c r="D62" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="C63" s="406"/>
+      <c r="C63" s="409"/>
       <c r="D63" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="C64" s="406"/>
+      <c r="C64" s="409"/>
       <c r="D64" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="406"/>
+      <c r="C65" s="409"/>
       <c r="D65" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="406"/>
+      <c r="C66" s="409"/>
       <c r="D66" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="18"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="406"/>
+      <c r="C67" s="409"/>
       <c r="D67" s="32" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="406"/>
+      <c r="C68" s="409"/>
       <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="412"/>
+      <c r="C69" s="410"/>
       <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="18"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="411">
+      <c r="C70" s="405">
         <v>2</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -14841,35 +14841,35 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="409"/>
+      <c r="C71" s="406"/>
       <c r="D71" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="3:5">
-      <c r="C72" s="409"/>
+      <c r="C72" s="406"/>
       <c r="D72" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="409"/>
+      <c r="C73" s="406"/>
       <c r="D73" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="409"/>
+      <c r="C74" s="406"/>
       <c r="D74" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="49"/>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="405">
+      <c r="C75" s="408">
         <v>3</v>
       </c>
       <c r="D75" s="44" t="s">
@@ -14878,42 +14878,42 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="406"/>
+      <c r="C76" s="409"/>
       <c r="D76" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="406"/>
+      <c r="C77" s="409"/>
       <c r="D77" s="33" t="s">
         <v>72</v>
       </c>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="406"/>
+      <c r="C78" s="409"/>
       <c r="D78" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E78" s="18"/>
     </row>
     <row r="79" spans="3:5">
-      <c r="C79" s="406"/>
+      <c r="C79" s="409"/>
       <c r="D79" s="33" t="s">
         <v>74</v>
       </c>
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C80" s="407"/>
+      <c r="C80" s="419"/>
       <c r="D80" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="3:5">
-      <c r="C81" s="408">
+      <c r="C81" s="420">
         <v>4</v>
       </c>
       <c r="D81" s="57" t="s">
@@ -14922,63 +14922,63 @@
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="409"/>
+      <c r="C82" s="406"/>
       <c r="D82" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E82" s="48"/>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="409"/>
+      <c r="C83" s="406"/>
       <c r="D83" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="3:5">
-      <c r="C84" s="409"/>
+      <c r="C84" s="406"/>
       <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="48"/>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="409"/>
+      <c r="C85" s="406"/>
       <c r="D85" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="48"/>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="409"/>
+      <c r="C86" s="406"/>
       <c r="D86" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="48"/>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="409"/>
+      <c r="C87" s="406"/>
       <c r="D87" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="409"/>
+      <c r="C88" s="406"/>
       <c r="D88" s="34" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="48"/>
     </row>
     <row r="89" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C89" s="410"/>
+      <c r="C89" s="421"/>
       <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="3:5">
-      <c r="C90" s="405">
+      <c r="C90" s="408">
         <v>5</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -14987,28 +14987,28 @@
       <c r="E90" s="18"/>
     </row>
     <row r="91" spans="3:5">
-      <c r="C91" s="406"/>
+      <c r="C91" s="409"/>
       <c r="D91" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="3:5">
-      <c r="C92" s="406"/>
+      <c r="C92" s="409"/>
       <c r="D92" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="3:5">
-      <c r="C93" s="406"/>
+      <c r="C93" s="409"/>
       <c r="D93" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="3:5">
-      <c r="C94" s="411">
+      <c r="C94" s="405">
         <v>6</v>
       </c>
       <c r="D94" s="57" t="s">
@@ -15017,21 +15017,21 @@
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="409"/>
+      <c r="C95" s="406"/>
       <c r="D95" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="409"/>
+      <c r="C96" s="406"/>
       <c r="D96" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="48"/>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="405">
+      <c r="C97" s="408">
         <v>7</v>
       </c>
       <c r="D97" s="44" t="s">
@@ -15040,35 +15040,35 @@
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="406"/>
+      <c r="C98" s="409"/>
       <c r="D98" s="32" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="18"/>
     </row>
     <row r="99" spans="3:5">
-      <c r="C99" s="406"/>
+      <c r="C99" s="409"/>
       <c r="D99" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="18"/>
     </row>
     <row r="100" spans="3:5">
-      <c r="C100" s="406"/>
+      <c r="C100" s="409"/>
       <c r="D100" s="32" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="18"/>
     </row>
     <row r="101" spans="3:5">
-      <c r="C101" s="412"/>
+      <c r="C101" s="410"/>
       <c r="D101" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="18"/>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="411">
+      <c r="C102" s="405">
         <v>8</v>
       </c>
       <c r="D102" s="57" t="s">
@@ -15077,21 +15077,21 @@
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="3:5">
-      <c r="C103" s="409"/>
+      <c r="C103" s="406"/>
       <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="3:5">
-      <c r="C104" s="409"/>
+      <c r="C104" s="406"/>
       <c r="D104" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="48"/>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="405" t="s">
+      <c r="C105" s="408" t="s">
         <v>99</v>
       </c>
       <c r="D105" s="58" t="s">
@@ -15102,23 +15102,12 @@
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="406"/>
+      <c r="C106" s="409"/>
       <c r="D106" s="38"/>
       <c r="E106" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C75:C80"/>
     <mergeCell ref="C81:C89"/>
@@ -15126,6 +15115,17 @@
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C27:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
@@ -24289,7 +24289,7 @@
   <dimension ref="B2:O121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24397,14 +24397,30 @@
       <c r="G11" s="367">
         <v>15</v>
       </c>
-      <c r="H11" s="356"/>
-      <c r="I11" s="357"/>
-      <c r="J11" s="357"/>
-      <c r="K11" s="357"/>
-      <c r="L11" s="357"/>
-      <c r="M11" s="357"/>
-      <c r="N11" s="371"/>
-      <c r="O11" s="371"/>
+      <c r="H11" s="356">
+        <v>14</v>
+      </c>
+      <c r="I11" s="357">
+        <v>13</v>
+      </c>
+      <c r="J11" s="357">
+        <v>12</v>
+      </c>
+      <c r="K11" s="357">
+        <v>12</v>
+      </c>
+      <c r="L11" s="357">
+        <v>12</v>
+      </c>
+      <c r="M11" s="357">
+        <v>12</v>
+      </c>
+      <c r="N11" s="371">
+        <v>12</v>
+      </c>
+      <c r="O11" s="371">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="335">
@@ -24425,14 +24441,30 @@
       <c r="G12" s="367">
         <v>20</v>
       </c>
-      <c r="H12" s="356"/>
-      <c r="I12" s="357"/>
-      <c r="J12" s="357"/>
-      <c r="K12" s="357"/>
-      <c r="L12" s="356"/>
-      <c r="M12" s="356"/>
-      <c r="N12" s="371"/>
-      <c r="O12" s="371"/>
+      <c r="H12" s="356">
+        <v>20</v>
+      </c>
+      <c r="I12" s="357">
+        <v>20</v>
+      </c>
+      <c r="J12" s="357">
+        <v>20</v>
+      </c>
+      <c r="K12" s="357">
+        <v>20</v>
+      </c>
+      <c r="L12" s="356">
+        <v>20</v>
+      </c>
+      <c r="M12" s="356">
+        <v>20</v>
+      </c>
+      <c r="N12" s="371">
+        <v>20</v>
+      </c>
+      <c r="O12" s="371">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="338">
@@ -24448,19 +24480,35 @@
         <v>349</v>
       </c>
       <c r="F13" s="359" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G13" s="360">
         <v>20</v>
       </c>
-      <c r="H13" s="373"/>
-      <c r="I13" s="373"/>
-      <c r="J13" s="373"/>
-      <c r="K13" s="373"/>
-      <c r="L13" s="373"/>
-      <c r="M13" s="373"/>
-      <c r="N13" s="371"/>
-      <c r="O13" s="371"/>
+      <c r="H13" s="373">
+        <v>17</v>
+      </c>
+      <c r="I13" s="373">
+        <v>13</v>
+      </c>
+      <c r="J13" s="373">
+        <v>10</v>
+      </c>
+      <c r="K13" s="373">
+        <v>6</v>
+      </c>
+      <c r="L13" s="373">
+        <v>4</v>
+      </c>
+      <c r="M13" s="373">
+        <v>2</v>
+      </c>
+      <c r="N13" s="371">
+        <v>0</v>
+      </c>
+      <c r="O13" s="371">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="338">
@@ -24481,14 +24529,30 @@
       <c r="G14" s="367">
         <v>10</v>
       </c>
-      <c r="H14" s="373"/>
-      <c r="I14" s="373"/>
-      <c r="J14" s="373"/>
-      <c r="K14" s="373"/>
-      <c r="L14" s="373"/>
-      <c r="M14" s="373"/>
-      <c r="N14" s="371"/>
-      <c r="O14" s="371"/>
+      <c r="H14" s="373">
+        <v>10</v>
+      </c>
+      <c r="I14" s="373">
+        <v>10</v>
+      </c>
+      <c r="J14" s="373">
+        <v>10</v>
+      </c>
+      <c r="K14" s="373">
+        <v>10</v>
+      </c>
+      <c r="L14" s="373">
+        <v>10</v>
+      </c>
+      <c r="M14" s="373">
+        <v>10</v>
+      </c>
+      <c r="N14" s="371">
+        <v>10</v>
+      </c>
+      <c r="O14" s="371">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="335">
@@ -24504,19 +24568,35 @@
         <v>349</v>
       </c>
       <c r="F15" s="369" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G15" s="367">
+        <v>20</v>
+      </c>
+      <c r="H15" s="326">
+        <v>17</v>
+      </c>
+      <c r="I15" s="339">
+        <v>15</v>
+      </c>
+      <c r="J15" s="339">
+        <v>13</v>
+      </c>
+      <c r="K15" s="339">
         <v>10</v>
       </c>
-      <c r="H15" s="326"/>
-      <c r="I15" s="339"/>
-      <c r="J15" s="339"/>
-      <c r="K15" s="339"/>
-      <c r="L15" s="339"/>
-      <c r="M15" s="331"/>
-      <c r="N15" s="362"/>
-      <c r="O15" s="362"/>
+      <c r="L15" s="339">
+        <v>6</v>
+      </c>
+      <c r="M15" s="331">
+        <v>3</v>
+      </c>
+      <c r="N15" s="362">
+        <v>0</v>
+      </c>
+      <c r="O15" s="362">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:15" s="197" customFormat="1">
       <c r="B16" s="338">
@@ -24532,19 +24612,35 @@
         <v>352</v>
       </c>
       <c r="F16" s="365" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G16" s="367">
         <v>15</v>
       </c>
-      <c r="H16" s="356"/>
-      <c r="I16" s="357"/>
-      <c r="J16" s="357"/>
-      <c r="K16" s="357"/>
-      <c r="L16" s="357"/>
-      <c r="M16" s="357"/>
-      <c r="N16" s="371"/>
-      <c r="O16" s="371"/>
+      <c r="H16" s="356">
+        <v>13</v>
+      </c>
+      <c r="I16" s="357">
+        <v>10</v>
+      </c>
+      <c r="J16" s="357">
+        <v>7</v>
+      </c>
+      <c r="K16" s="357">
+        <v>5</v>
+      </c>
+      <c r="L16" s="357">
+        <v>3</v>
+      </c>
+      <c r="M16" s="357">
+        <v>0</v>
+      </c>
+      <c r="N16" s="371">
+        <v>0</v>
+      </c>
+      <c r="O16" s="371">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:15" s="197" customFormat="1">
       <c r="B17" s="338">
@@ -24560,19 +24656,35 @@
         <v>352</v>
       </c>
       <c r="F17" s="369" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G17" s="367">
         <v>15</v>
       </c>
-      <c r="H17" s="356"/>
-      <c r="I17" s="357"/>
-      <c r="J17" s="357"/>
-      <c r="K17" s="357"/>
-      <c r="L17" s="357"/>
-      <c r="M17" s="357"/>
-      <c r="N17" s="399"/>
-      <c r="O17" s="399"/>
+      <c r="H17" s="356">
+        <v>13</v>
+      </c>
+      <c r="I17" s="357">
+        <v>10</v>
+      </c>
+      <c r="J17" s="357">
+        <v>7</v>
+      </c>
+      <c r="K17" s="357">
+        <v>6</v>
+      </c>
+      <c r="L17" s="357">
+        <v>5</v>
+      </c>
+      <c r="M17" s="357">
+        <v>4</v>
+      </c>
+      <c r="N17" s="399">
+        <v>0</v>
+      </c>
+      <c r="O17" s="399">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:15" s="197" customFormat="1">
       <c r="B18" s="335">
@@ -24587,20 +24699,36 @@
       <c r="E18" s="366" t="s">
         <v>350</v>
       </c>
-      <c r="F18" s="365" t="s">
-        <v>117</v>
+      <c r="F18" s="369" t="s">
+        <v>119</v>
       </c>
       <c r="G18" s="367">
         <v>10</v>
       </c>
-      <c r="H18" s="356"/>
-      <c r="I18" s="357"/>
-      <c r="J18" s="357"/>
-      <c r="K18" s="356"/>
-      <c r="L18" s="356"/>
-      <c r="M18" s="356"/>
-      <c r="N18" s="371"/>
-      <c r="O18" s="371"/>
+      <c r="H18" s="356">
+        <v>8</v>
+      </c>
+      <c r="I18" s="357">
+        <v>6</v>
+      </c>
+      <c r="J18" s="357">
+        <v>4</v>
+      </c>
+      <c r="K18" s="356">
+        <v>2</v>
+      </c>
+      <c r="L18" s="356">
+        <v>1</v>
+      </c>
+      <c r="M18" s="356">
+        <v>0</v>
+      </c>
+      <c r="N18" s="371">
+        <v>0</v>
+      </c>
+      <c r="O18" s="371">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:15" s="197" customFormat="1" ht="36" customHeight="1">
       <c r="B19" s="338">
@@ -24621,14 +24749,30 @@
       <c r="G19" s="367">
         <v>15</v>
       </c>
-      <c r="H19" s="326"/>
-      <c r="I19" s="339"/>
-      <c r="J19" s="339"/>
-      <c r="K19" s="339"/>
-      <c r="L19" s="339"/>
-      <c r="M19" s="331"/>
-      <c r="N19" s="398"/>
-      <c r="O19" s="398"/>
+      <c r="H19" s="326">
+        <v>13</v>
+      </c>
+      <c r="I19" s="339">
+        <v>12</v>
+      </c>
+      <c r="J19" s="339">
+        <v>10</v>
+      </c>
+      <c r="K19" s="339">
+        <v>8</v>
+      </c>
+      <c r="L19" s="339">
+        <v>6</v>
+      </c>
+      <c r="M19" s="331">
+        <v>3</v>
+      </c>
+      <c r="N19" s="398">
+        <v>0</v>
+      </c>
+      <c r="O19" s="398">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="338">
@@ -25582,7 +25726,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E54:E56 E36 E11:E33">
       <formula1>$C$109:$C$113</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54:F56 F11:F17 F19:F39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54:F56 F11:F39">
       <formula1>$C$116:$C$121</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Sprint08_2406_3006" sheetId="16" r:id="rId14"/>
     <sheet name="Sprint09_0107_0707" sheetId="19" r:id="rId15"/>
     <sheet name="Sprint10_0807_1407" sheetId="20" r:id="rId16"/>
+    <sheet name="Sprint11_1507_2107" sheetId="21" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Product Backlog'!$A$1:$G$106</definedName>
@@ -686,7 +687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="487">
   <si>
     <t>Introduction</t>
   </si>
@@ -2144,6 +2145,36 @@
   </si>
   <si>
     <t>SPRINT 10 FROM 08/07 TO 14/07</t>
+  </si>
+  <si>
+    <t>SPRINT 11 FROM 15/07 TO 21/07</t>
+  </si>
+  <si>
+    <t>+Teacher feedback to Teacher</t>
+  </si>
+  <si>
+    <t>+Send mail access test by token</t>
+  </si>
+  <si>
+    <t>+Test introduction</t>
+  </si>
+  <si>
+    <t>+Report 3 Test Case</t>
+  </si>
+  <si>
+    <t>+Student can view their history of test</t>
+  </si>
+  <si>
+    <t>+Export score on tests</t>
+  </si>
+  <si>
+    <t>+Export score of all test on teacher</t>
+  </si>
+  <si>
+    <t>+Invitation outside users</t>
+  </si>
+  <si>
+    <t>+Forgot password</t>
   </si>
 </sst>
 </file>
@@ -4231,22 +4262,40 @@
     <xf numFmtId="1" fontId="27" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4264,24 +4313,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4290,7 +4321,555 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="276">
+  <dxfs count="295">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -13655,21 +14234,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:N30" totalsRowShown="0" headerRowDxfId="275" headerRowBorderDxfId="274" tableBorderDxfId="273">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:N30" totalsRowShown="0" headerRowDxfId="294" headerRowBorderDxfId="293" tableBorderDxfId="292">
   <autoFilter ref="B10:N30"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="272"/>
-    <tableColumn id="2" name="Task description" dataDxfId="271"/>
-    <tableColumn id="3" name="Type" dataDxfId="270"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="269"/>
-    <tableColumn id="5" name="Status" dataDxfId="268"/>
-    <tableColumn id="8" name="(W)23/5" dataDxfId="267"/>
-    <tableColumn id="9" name="(Th)24/5" dataDxfId="266"/>
-    <tableColumn id="10" name="(Fr)25/5" dataDxfId="265"/>
-    <tableColumn id="11" name="(Sa)26/5" dataDxfId="264"/>
-    <tableColumn id="12" name="(Su)27/5" dataDxfId="263"/>
+    <tableColumn id="1" name="No." dataDxfId="291"/>
+    <tableColumn id="2" name="Task description" dataDxfId="290"/>
+    <tableColumn id="3" name="Type" dataDxfId="289"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="288"/>
+    <tableColumn id="5" name="Status" dataDxfId="287"/>
+    <tableColumn id="8" name="(W)23/5" dataDxfId="286"/>
+    <tableColumn id="9" name="(Th)24/5" dataDxfId="285"/>
+    <tableColumn id="10" name="(Fr)25/5" dataDxfId="284"/>
+    <tableColumn id="11" name="(Sa)26/5" dataDxfId="283"/>
+    <tableColumn id="12" name="(Su)27/5" dataDxfId="282"/>
     <tableColumn id="13" name="(Mo)28/5"/>
-    <tableColumn id="14" name="(Tu)29/5" dataDxfId="262"/>
+    <tableColumn id="14" name="(Tu)29/5" dataDxfId="281"/>
     <tableColumn id="7" name="End Sprint"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13677,8 +14256,35 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table134567891011" displayName="Table134567891011" ref="B10:O54" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110" totalsRowBorderDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table134567891011" displayName="Table134567891011" ref="B10:O54" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131" tableBorderDxfId="129" totalsRowBorderDxfId="128">
   <autoFilter ref="B10:O54">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="127"/>
+    <tableColumn id="2" name="Task description" dataDxfId="126"/>
+    <tableColumn id="3" name="Type" dataDxfId="125"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="124"/>
+    <tableColumn id="5" name="Status" dataDxfId="123"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="122"/>
+    <tableColumn id="8" name="03/06" dataDxfId="121"/>
+    <tableColumn id="9" name="04/06" dataDxfId="120"/>
+    <tableColumn id="10" name="05/06" dataDxfId="119"/>
+    <tableColumn id="11" name="06/06" dataDxfId="118"/>
+    <tableColumn id="12" name="07/06" dataDxfId="117"/>
+    <tableColumn id="13" name="08/06" dataDxfId="116"/>
+    <tableColumn id="14" name="09/06" dataDxfId="115"/>
+    <tableColumn id="15" name="End" dataDxfId="114"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table13456789101112" displayName="Table13456789101112" ref="B10:O56" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110" totalsRowBorderDxfId="109">
+  <autoFilter ref="B10:O56">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
@@ -13690,21 +14296,21 @@
     <tableColumn id="4" name="Assign To" dataDxfId="105"/>
     <tableColumn id="5" name="Status" dataDxfId="104"/>
     <tableColumn id="7" name="Estimate" dataDxfId="103"/>
-    <tableColumn id="8" name="03/06" dataDxfId="102"/>
-    <tableColumn id="9" name="04/06" dataDxfId="101"/>
-    <tableColumn id="10" name="05/06" dataDxfId="100"/>
-    <tableColumn id="11" name="06/06" dataDxfId="99"/>
-    <tableColumn id="12" name="07/06" dataDxfId="98"/>
-    <tableColumn id="13" name="08/06" dataDxfId="97"/>
-    <tableColumn id="14" name="09/06" dataDxfId="96"/>
+    <tableColumn id="8" name="10/06" dataDxfId="102"/>
+    <tableColumn id="9" name="11/06" dataDxfId="101"/>
+    <tableColumn id="10" name="12/06" dataDxfId="100"/>
+    <tableColumn id="11" name="13/06" dataDxfId="99"/>
+    <tableColumn id="12" name="14/06" dataDxfId="98"/>
+    <tableColumn id="13" name="15/06" dataDxfId="97"/>
+    <tableColumn id="14" name="16/06" dataDxfId="96"/>
     <tableColumn id="15" name="End" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table13456789101112" displayName="Table13456789101112" ref="B10:O56" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table134567891011121314" displayName="Table134567891011121314" ref="B10:O56" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
   <autoFilter ref="B10:O56">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
@@ -13717,21 +14323,21 @@
     <tableColumn id="4" name="Assign To" dataDxfId="86"/>
     <tableColumn id="5" name="Status" dataDxfId="85"/>
     <tableColumn id="7" name="Estimate" dataDxfId="84"/>
-    <tableColumn id="8" name="10/06" dataDxfId="83"/>
-    <tableColumn id="9" name="11/06" dataDxfId="82"/>
-    <tableColumn id="10" name="12/06" dataDxfId="81"/>
-    <tableColumn id="11" name="13/06" dataDxfId="80"/>
-    <tableColumn id="12" name="14/06" dataDxfId="79"/>
-    <tableColumn id="13" name="15/06" dataDxfId="78"/>
-    <tableColumn id="14" name="16/06" dataDxfId="77"/>
+    <tableColumn id="8" name="17/06" dataDxfId="83"/>
+    <tableColumn id="9" name="18/06" dataDxfId="82"/>
+    <tableColumn id="10" name="19/06" dataDxfId="81"/>
+    <tableColumn id="11" name="20/06" dataDxfId="80"/>
+    <tableColumn id="12" name="21/06" dataDxfId="79"/>
+    <tableColumn id="13" name="22/06" dataDxfId="78"/>
+    <tableColumn id="14" name="23/06" dataDxfId="77"/>
     <tableColumn id="15" name="End" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table134567891011121314" displayName="Table134567891011121314" ref="B10:O56" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1345678910111213" displayName="Table1345678910111213" ref="B10:O56" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
   <autoFilter ref="B10:O56">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
@@ -13744,22 +14350,22 @@
     <tableColumn id="4" name="Assign To" dataDxfId="67"/>
     <tableColumn id="5" name="Status" dataDxfId="66"/>
     <tableColumn id="7" name="Estimate" dataDxfId="65"/>
-    <tableColumn id="8" name="17/06" dataDxfId="64"/>
-    <tableColumn id="9" name="18/06" dataDxfId="63"/>
-    <tableColumn id="10" name="19/06" dataDxfId="62"/>
-    <tableColumn id="11" name="20/06" dataDxfId="61"/>
-    <tableColumn id="12" name="21/06" dataDxfId="60"/>
-    <tableColumn id="13" name="22/06" dataDxfId="59"/>
-    <tableColumn id="14" name="23/06" dataDxfId="58"/>
+    <tableColumn id="8" name="24/06" dataDxfId="64"/>
+    <tableColumn id="9" name="25/06" dataDxfId="63"/>
+    <tableColumn id="10" name="26/06" dataDxfId="62"/>
+    <tableColumn id="11" name="27/06" dataDxfId="61"/>
+    <tableColumn id="12" name="28/06" dataDxfId="60"/>
+    <tableColumn id="13" name="29/06" dataDxfId="59"/>
+    <tableColumn id="14" name="30/06" dataDxfId="58"/>
     <tableColumn id="15" name="End" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1345678910111213" displayName="Table1345678910111213" ref="B10:O56" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
-  <autoFilter ref="B10:O56">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table134567891011121315" displayName="Table134567891011121315" ref="B10:O57" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+  <autoFilter ref="B10:O57">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
@@ -13771,22 +14377,22 @@
     <tableColumn id="4" name="Assign To" dataDxfId="48"/>
     <tableColumn id="5" name="Status" dataDxfId="47"/>
     <tableColumn id="7" name="Estimate" dataDxfId="46"/>
-    <tableColumn id="8" name="24/06" dataDxfId="45"/>
-    <tableColumn id="9" name="25/06" dataDxfId="44"/>
-    <tableColumn id="10" name="26/06" dataDxfId="43"/>
-    <tableColumn id="11" name="27/06" dataDxfId="42"/>
-    <tableColumn id="12" name="28/06" dataDxfId="41"/>
-    <tableColumn id="13" name="29/06" dataDxfId="40"/>
-    <tableColumn id="14" name="30/06" dataDxfId="39"/>
+    <tableColumn id="8" name="01/07" dataDxfId="45"/>
+    <tableColumn id="9" name="02/07" dataDxfId="44"/>
+    <tableColumn id="10" name="03/07" dataDxfId="43"/>
+    <tableColumn id="11" name="04/07" dataDxfId="42"/>
+    <tableColumn id="12" name="05/07" dataDxfId="41"/>
+    <tableColumn id="13" name="06/07" dataDxfId="40"/>
+    <tableColumn id="14" name="07/07" dataDxfId="39"/>
     <tableColumn id="15" name="End" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table134567891011121315" displayName="Table134567891011121315" ref="B10:O57" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
-  <autoFilter ref="B10:O57">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table13456789101112131516" displayName="Table13456789101112131516" ref="B10:O56" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="B10:O56">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
@@ -13811,160 +14417,187 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table13456789101112131516" displayName="Table13456789101112131516" ref="B10:O56" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1345678910111213151617" displayName="Table1345678910111213151617" ref="B10:O56" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
   <autoFilter ref="B10:O56">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="13"/>
-    <tableColumn id="2" name="Task description" dataDxfId="12"/>
-    <tableColumn id="3" name="Type" dataDxfId="11"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="10"/>
-    <tableColumn id="5" name="Status" dataDxfId="9"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="8"/>
-    <tableColumn id="8" name="01/07" dataDxfId="7"/>
-    <tableColumn id="9" name="02/07" dataDxfId="6"/>
-    <tableColumn id="10" name="03/07" dataDxfId="5"/>
-    <tableColumn id="11" name="04/07" dataDxfId="4"/>
-    <tableColumn id="12" name="05/07" dataDxfId="3"/>
-    <tableColumn id="13" name="06/07" dataDxfId="2"/>
-    <tableColumn id="14" name="07/07" dataDxfId="1"/>
-    <tableColumn id="15" name="End" dataDxfId="0"/>
+    <tableColumn id="1" name="No." dataDxfId="18"/>
+    <tableColumn id="2" name="Task description" dataDxfId="17"/>
+    <tableColumn id="3" name="Type" dataDxfId="16"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="15"/>
+    <tableColumn id="5" name="Status" dataDxfId="14"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="13"/>
+    <tableColumn id="8" name="01/07" dataDxfId="12"/>
+    <tableColumn id="9" name="02/07" dataDxfId="11"/>
+    <tableColumn id="10" name="03/07" dataDxfId="10"/>
+    <tableColumn id="11" name="04/07" dataDxfId="9"/>
+    <tableColumn id="12" name="05/07" dataDxfId="8"/>
+    <tableColumn id="13" name="06/07" dataDxfId="7"/>
+    <tableColumn id="14" name="07/07" dataDxfId="6"/>
+    <tableColumn id="15" name="End" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:O28" totalsRowShown="0" headerRowDxfId="261" headerRowBorderDxfId="260" tableBorderDxfId="259">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B10:O28" totalsRowShown="0" headerRowDxfId="280" headerRowBorderDxfId="279" tableBorderDxfId="278">
   <autoFilter ref="B10:O28"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="258"/>
-    <tableColumn id="2" name="Task description" dataDxfId="257"/>
-    <tableColumn id="3" name="Type" dataDxfId="256"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="255"/>
-    <tableColumn id="5" name="Status" dataDxfId="254"/>
-    <tableColumn id="17" name="Percentage" dataDxfId="253"/>
-    <tableColumn id="8" name="(W)30/5" dataDxfId="252"/>
-    <tableColumn id="9" name="(Th)31/5" dataDxfId="251"/>
-    <tableColumn id="10" name="(Fr)1/6" dataDxfId="250"/>
-    <tableColumn id="11" name="(Sa)2/6" dataDxfId="249"/>
-    <tableColumn id="12" name="(Su)3/6" dataDxfId="248"/>
+    <tableColumn id="1" name="No." dataDxfId="277"/>
+    <tableColumn id="2" name="Task description" dataDxfId="276"/>
+    <tableColumn id="3" name="Type" dataDxfId="275"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="274"/>
+    <tableColumn id="5" name="Status" dataDxfId="273"/>
+    <tableColumn id="17" name="Percentage" dataDxfId="272"/>
+    <tableColumn id="8" name="(W)30/5" dataDxfId="271"/>
+    <tableColumn id="9" name="(Th)31/5" dataDxfId="270"/>
+    <tableColumn id="10" name="(Fr)1/6" dataDxfId="269"/>
+    <tableColumn id="11" name="(Sa)2/6" dataDxfId="268"/>
+    <tableColumn id="12" name="(Su)3/6" dataDxfId="267"/>
     <tableColumn id="13" name="(Mo)4/6"/>
-    <tableColumn id="14" name="(Tu)5/6" dataDxfId="247"/>
-    <tableColumn id="7" name="End Sprint" dataDxfId="246"/>
+    <tableColumn id="14" name="(Tu)5/6" dataDxfId="266"/>
+    <tableColumn id="7" name="End Sprint" dataDxfId="265"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B10:N27" totalsRowShown="0" headerRowDxfId="245" headerRowBorderDxfId="244" tableBorderDxfId="243">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B10:N27" totalsRowShown="0" headerRowDxfId="264" headerRowBorderDxfId="263" tableBorderDxfId="262">
   <autoFilter ref="B10:N27"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="242"/>
-    <tableColumn id="2" name="Task description" dataDxfId="241"/>
-    <tableColumn id="3" name="Type" dataDxfId="240"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="239"/>
-    <tableColumn id="5" name="Status" dataDxfId="238"/>
-    <tableColumn id="8" name="(W)06/6" dataDxfId="237"/>
-    <tableColumn id="9" name="(Th)07/6" dataDxfId="236"/>
-    <tableColumn id="10" name="(Fr)08/6" dataDxfId="235"/>
-    <tableColumn id="11" name="(Sa)09/6" dataDxfId="234"/>
-    <tableColumn id="12" name="(Su)10/6" dataDxfId="233"/>
+    <tableColumn id="1" name="No." dataDxfId="261"/>
+    <tableColumn id="2" name="Task description" dataDxfId="260"/>
+    <tableColumn id="3" name="Type" dataDxfId="259"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="258"/>
+    <tableColumn id="5" name="Status" dataDxfId="257"/>
+    <tableColumn id="8" name="(W)06/6" dataDxfId="256"/>
+    <tableColumn id="9" name="(Th)07/6" dataDxfId="255"/>
+    <tableColumn id="10" name="(Fr)08/6" dataDxfId="254"/>
+    <tableColumn id="11" name="(Sa)09/6" dataDxfId="253"/>
+    <tableColumn id="12" name="(Su)10/6" dataDxfId="252"/>
     <tableColumn id="13" name="(Mo)11/6"/>
-    <tableColumn id="14" name="(Tu)12/6" dataDxfId="232"/>
-    <tableColumn id="7" name="End Sprint" dataDxfId="231"/>
+    <tableColumn id="14" name="(Tu)12/6" dataDxfId="251"/>
+    <tableColumn id="7" name="End Sprint" dataDxfId="250"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B10:AA76" totalsRowShown="0" headerRowDxfId="230" headerRowBorderDxfId="229" tableBorderDxfId="228">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="B10:AA76" totalsRowShown="0" headerRowDxfId="249" headerRowBorderDxfId="248" tableBorderDxfId="247">
   <autoFilter ref="B10:AA76"/>
   <tableColumns count="26">
-    <tableColumn id="1" name="No." dataDxfId="227"/>
-    <tableColumn id="2" name="Task description" dataDxfId="226"/>
-    <tableColumn id="3" name="Type" dataDxfId="225"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="224"/>
-    <tableColumn id="5" name="Status" dataDxfId="223"/>
-    <tableColumn id="8" name="25/6" dataDxfId="222"/>
-    <tableColumn id="9" name="26/6" dataDxfId="221"/>
-    <tableColumn id="10" name="27/6" dataDxfId="220"/>
-    <tableColumn id="11" name="28/6" dataDxfId="219"/>
-    <tableColumn id="12" name="29/6" dataDxfId="218"/>
+    <tableColumn id="1" name="No." dataDxfId="246"/>
+    <tableColumn id="2" name="Task description" dataDxfId="245"/>
+    <tableColumn id="3" name="Type" dataDxfId="244"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="243"/>
+    <tableColumn id="5" name="Status" dataDxfId="242"/>
+    <tableColumn id="8" name="25/6" dataDxfId="241"/>
+    <tableColumn id="9" name="26/6" dataDxfId="240"/>
+    <tableColumn id="10" name="27/6" dataDxfId="239"/>
+    <tableColumn id="11" name="28/6" dataDxfId="238"/>
+    <tableColumn id="12" name="29/6" dataDxfId="237"/>
     <tableColumn id="13" name="30/6"/>
-    <tableColumn id="14" name="1/7" dataDxfId="217"/>
-    <tableColumn id="6" name="2/7" dataDxfId="216"/>
-    <tableColumn id="7" name="3/7" dataDxfId="215"/>
-    <tableColumn id="15" name="4/7" dataDxfId="214"/>
-    <tableColumn id="16" name="5/7" dataDxfId="213"/>
-    <tableColumn id="17" name="6/7" dataDxfId="212"/>
-    <tableColumn id="24" name="7/7" dataDxfId="211"/>
-    <tableColumn id="23" name="8/7" dataDxfId="210"/>
-    <tableColumn id="22" name="9/7" dataDxfId="209"/>
-    <tableColumn id="21" name="10/7" dataDxfId="208"/>
-    <tableColumn id="20" name="11/7" dataDxfId="207"/>
-    <tableColumn id="18" name="12/7" dataDxfId="206"/>
-    <tableColumn id="25" name="13/7" dataDxfId="205"/>
-    <tableColumn id="26" name="14/7" dataDxfId="204"/>
-    <tableColumn id="19" name="End" dataDxfId="203"/>
+    <tableColumn id="14" name="1/7" dataDxfId="236"/>
+    <tableColumn id="6" name="2/7" dataDxfId="235"/>
+    <tableColumn id="7" name="3/7" dataDxfId="234"/>
+    <tableColumn id="15" name="4/7" dataDxfId="233"/>
+    <tableColumn id="16" name="5/7" dataDxfId="232"/>
+    <tableColumn id="17" name="6/7" dataDxfId="231"/>
+    <tableColumn id="24" name="7/7" dataDxfId="230"/>
+    <tableColumn id="23" name="8/7" dataDxfId="229"/>
+    <tableColumn id="22" name="9/7" dataDxfId="228"/>
+    <tableColumn id="21" name="10/7" dataDxfId="227"/>
+    <tableColumn id="20" name="11/7" dataDxfId="226"/>
+    <tableColumn id="18" name="12/7" dataDxfId="225"/>
+    <tableColumn id="25" name="13/7" dataDxfId="224"/>
+    <tableColumn id="26" name="14/7" dataDxfId="223"/>
+    <tableColumn id="19" name="End" dataDxfId="222"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B10:N56" totalsRowShown="0" headerRowDxfId="202" headerRowBorderDxfId="201" tableBorderDxfId="200">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table13456" displayName="Table13456" ref="B10:N56" totalsRowShown="0" headerRowDxfId="221" headerRowBorderDxfId="220" tableBorderDxfId="219">
   <autoFilter ref="B10:N56"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="No." dataDxfId="199"/>
-    <tableColumn id="2" name="Task description" dataDxfId="198"/>
-    <tableColumn id="3" name="Type" dataDxfId="197"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="196"/>
-    <tableColumn id="5" name="Status" dataDxfId="195"/>
-    <tableColumn id="8" name="16/7" dataDxfId="194"/>
-    <tableColumn id="9" name="17/7" dataDxfId="193"/>
-    <tableColumn id="10" name="18/7" dataDxfId="192"/>
-    <tableColumn id="11" name="19/7" dataDxfId="191"/>
-    <tableColumn id="12" name="20/7" dataDxfId="190"/>
+    <tableColumn id="1" name="No." dataDxfId="218"/>
+    <tableColumn id="2" name="Task description" dataDxfId="217"/>
+    <tableColumn id="3" name="Type" dataDxfId="216"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="215"/>
+    <tableColumn id="5" name="Status" dataDxfId="214"/>
+    <tableColumn id="8" name="16/7" dataDxfId="213"/>
+    <tableColumn id="9" name="17/7" dataDxfId="212"/>
+    <tableColumn id="10" name="18/7" dataDxfId="211"/>
+    <tableColumn id="11" name="19/7" dataDxfId="210"/>
+    <tableColumn id="12" name="20/7" dataDxfId="209"/>
     <tableColumn id="13" name="21/7"/>
-    <tableColumn id="14" name="22/7" dataDxfId="189"/>
-    <tableColumn id="19" name="End" dataDxfId="188"/>
+    <tableColumn id="14" name="22/7" dataDxfId="208"/>
+    <tableColumn id="19" name="End" dataDxfId="207"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="187" dataDxfId="185" headerRowBorderDxfId="186" tableBorderDxfId="184" totalsRowBorderDxfId="183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table134567" displayName="Table134567" ref="B10:M54" totalsRowShown="0" headerRowDxfId="206" dataDxfId="204" headerRowBorderDxfId="205" tableBorderDxfId="203" totalsRowBorderDxfId="202">
   <autoFilter ref="B10:M54">
     <filterColumn colId="5"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="No." dataDxfId="182"/>
-    <tableColumn id="2" name="Task description" dataDxfId="181"/>
-    <tableColumn id="3" name="Type" dataDxfId="180"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="179"/>
-    <tableColumn id="5" name="Status" dataDxfId="178"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="177"/>
-    <tableColumn id="8" name="08/05" dataDxfId="176"/>
-    <tableColumn id="9" name="09/05" dataDxfId="175"/>
-    <tableColumn id="10" name="10/05" dataDxfId="174"/>
-    <tableColumn id="11" name="11/05" dataDxfId="173"/>
-    <tableColumn id="12" name="12/05" dataDxfId="172"/>
-    <tableColumn id="13" name="End" dataDxfId="171"/>
+    <tableColumn id="1" name="No." dataDxfId="201"/>
+    <tableColumn id="2" name="Task description" dataDxfId="200"/>
+    <tableColumn id="3" name="Type" dataDxfId="199"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="198"/>
+    <tableColumn id="5" name="Status" dataDxfId="197"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="196"/>
+    <tableColumn id="8" name="08/05" dataDxfId="195"/>
+    <tableColumn id="9" name="09/05" dataDxfId="194"/>
+    <tableColumn id="10" name="10/05" dataDxfId="193"/>
+    <tableColumn id="11" name="11/05" dataDxfId="192"/>
+    <tableColumn id="12" name="12/05" dataDxfId="191"/>
+    <tableColumn id="13" name="End" dataDxfId="190"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1345678" displayName="Table1345678" ref="B10:O54" totalsRowShown="0" headerRowDxfId="189" dataDxfId="187" headerRowBorderDxfId="188" tableBorderDxfId="186" totalsRowBorderDxfId="185">
+  <autoFilter ref="B10:O54">
+    <filterColumn colId="5"/>
+    <filterColumn colId="12"/>
+    <filterColumn colId="13"/>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" name="No." dataDxfId="184"/>
+    <tableColumn id="2" name="Task description" dataDxfId="183"/>
+    <tableColumn id="3" name="Type" dataDxfId="182"/>
+    <tableColumn id="4" name="Assign To" dataDxfId="181"/>
+    <tableColumn id="5" name="Status" dataDxfId="180"/>
+    <tableColumn id="7" name="Estimate" dataDxfId="179"/>
+    <tableColumn id="8" name="13/05" dataDxfId="178"/>
+    <tableColumn id="9" name="14/05" dataDxfId="177"/>
+    <tableColumn id="10" name="15/05" dataDxfId="176"/>
+    <tableColumn id="11" name="16/05" dataDxfId="175"/>
+    <tableColumn id="12" name="17/05" dataDxfId="174"/>
+    <tableColumn id="13" name="18/05" dataDxfId="173"/>
+    <tableColumn id="14" name="19/05" dataDxfId="172"/>
+    <tableColumn id="15" name="End" dataDxfId="171"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13456789" displayName="Table13456789" ref="B10:O54" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
   <autoFilter ref="B10:O54">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
@@ -13977,21 +14610,21 @@
     <tableColumn id="4" name="Assign To" dataDxfId="162"/>
     <tableColumn id="5" name="Status" dataDxfId="161"/>
     <tableColumn id="7" name="Estimate" dataDxfId="160"/>
-    <tableColumn id="8" name="13/05" dataDxfId="159"/>
-    <tableColumn id="9" name="14/05" dataDxfId="158"/>
-    <tableColumn id="10" name="15/05" dataDxfId="157"/>
-    <tableColumn id="11" name="16/05" dataDxfId="156"/>
-    <tableColumn id="12" name="17/05" dataDxfId="155"/>
-    <tableColumn id="13" name="18/05" dataDxfId="154"/>
-    <tableColumn id="14" name="19/05" dataDxfId="153"/>
+    <tableColumn id="8" name="20/05" dataDxfId="159"/>
+    <tableColumn id="9" name="21/05" dataDxfId="158"/>
+    <tableColumn id="10" name="22/05" dataDxfId="157"/>
+    <tableColumn id="11" name="23/05" dataDxfId="156"/>
+    <tableColumn id="12" name="24/05" dataDxfId="155"/>
+    <tableColumn id="13" name="25/05" dataDxfId="154"/>
+    <tableColumn id="14" name="26/05" dataDxfId="153"/>
     <tableColumn id="15" name="End" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table13456789" displayName="Table13456789" ref="B10:O54" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148" totalsRowBorderDxfId="147">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1345678910" displayName="Table1345678910" ref="B10:O54" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148" totalsRowBorderDxfId="147">
   <autoFilter ref="B10:O54">
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
@@ -14004,41 +14637,14 @@
     <tableColumn id="4" name="Assign To" dataDxfId="143"/>
     <tableColumn id="5" name="Status" dataDxfId="142"/>
     <tableColumn id="7" name="Estimate" dataDxfId="141"/>
-    <tableColumn id="8" name="20/05" dataDxfId="140"/>
-    <tableColumn id="9" name="21/05" dataDxfId="139"/>
-    <tableColumn id="10" name="22/05" dataDxfId="138"/>
-    <tableColumn id="11" name="23/05" dataDxfId="137"/>
-    <tableColumn id="12" name="24/05" dataDxfId="136"/>
-    <tableColumn id="13" name="25/05" dataDxfId="135"/>
-    <tableColumn id="14" name="26/05" dataDxfId="134"/>
+    <tableColumn id="8" name="27/05" dataDxfId="140"/>
+    <tableColumn id="9" name="28/05" dataDxfId="139"/>
+    <tableColumn id="10" name="29/05" dataDxfId="138"/>
+    <tableColumn id="11" name="30/05" dataDxfId="137"/>
+    <tableColumn id="12" name="31/05" dataDxfId="136"/>
+    <tableColumn id="13" name="01/06" dataDxfId="135"/>
+    <tableColumn id="14" name="02/06" dataDxfId="134"/>
     <tableColumn id="15" name="End" dataDxfId="133"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1345678910" displayName="Table1345678910" ref="B10:O54" totalsRowShown="0" headerRowDxfId="132" dataDxfId="130" headerRowBorderDxfId="131" tableBorderDxfId="129" totalsRowBorderDxfId="128">
-  <autoFilter ref="B10:O54">
-    <filterColumn colId="5"/>
-    <filterColumn colId="12"/>
-    <filterColumn colId="13"/>
-  </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" name="No." dataDxfId="127"/>
-    <tableColumn id="2" name="Task description" dataDxfId="126"/>
-    <tableColumn id="3" name="Type" dataDxfId="125"/>
-    <tableColumn id="4" name="Assign To" dataDxfId="124"/>
-    <tableColumn id="5" name="Status" dataDxfId="123"/>
-    <tableColumn id="7" name="Estimate" dataDxfId="122"/>
-    <tableColumn id="8" name="27/05" dataDxfId="121"/>
-    <tableColumn id="9" name="28/05" dataDxfId="120"/>
-    <tableColumn id="10" name="29/05" dataDxfId="119"/>
-    <tableColumn id="11" name="30/05" dataDxfId="118"/>
-    <tableColumn id="12" name="31/05" dataDxfId="117"/>
-    <tableColumn id="13" name="01/06" dataDxfId="116"/>
-    <tableColumn id="14" name="02/06" dataDxfId="115"/>
-    <tableColumn id="15" name="End" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14419,7 +15025,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="C14" s="408">
+      <c r="C14" s="405">
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -14430,7 +15036,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="C15" s="409"/>
+      <c r="C15" s="406"/>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
@@ -14438,28 +15044,28 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="C16" s="409"/>
+      <c r="C16" s="406"/>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="409"/>
+      <c r="C17" s="406"/>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="410"/>
+      <c r="C18" s="412"/>
       <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="413">
+      <c r="C19" s="419">
         <v>3</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -14470,7 +15076,7 @@
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="414"/>
+      <c r="C20" s="420"/>
       <c r="D20" s="4" t="s">
         <v>7</v>
       </c>
@@ -14480,7 +15086,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="414"/>
+      <c r="C21" s="420"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -14490,42 +15096,42 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="414"/>
+      <c r="C22" s="420"/>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="414"/>
+      <c r="C23" s="420"/>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="50"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="414"/>
+      <c r="C24" s="420"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="414"/>
+      <c r="C25" s="420"/>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="415"/>
+      <c r="C26" s="421"/>
       <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="53"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="408">
+      <c r="C27" s="405">
         <v>4</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -14536,56 +15142,56 @@
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="409"/>
+      <c r="C28" s="406"/>
       <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="409"/>
+      <c r="C29" s="406"/>
       <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="409"/>
+      <c r="C30" s="406"/>
       <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="409"/>
+      <c r="C31" s="406"/>
       <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="409"/>
+      <c r="C32" s="406"/>
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="C33" s="409"/>
+      <c r="C33" s="406"/>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="C34" s="410"/>
+      <c r="C34" s="412"/>
       <c r="D34" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="C35" s="405">
+      <c r="C35" s="411">
         <v>5</v>
       </c>
       <c r="D35" s="46" t="s">
@@ -14596,14 +15202,14 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="C36" s="406"/>
+      <c r="C36" s="409"/>
       <c r="D36" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="406"/>
+      <c r="C37" s="409"/>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
@@ -14611,14 +15217,14 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="407"/>
+      <c r="C38" s="416"/>
       <c r="D38" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="49"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="408">
+      <c r="C39" s="405">
         <v>6</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -14629,21 +15235,21 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="C40" s="409"/>
+      <c r="C40" s="406"/>
       <c r="D40" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="C41" s="410"/>
+      <c r="C41" s="412"/>
       <c r="D41" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="C42" s="411" t="s">
+      <c r="C42" s="417" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -14654,7 +15260,7 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="C43" s="412"/>
+      <c r="C43" s="418"/>
       <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
@@ -14694,10 +15300,10 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="C52" s="418" t="s">
+      <c r="C52" s="415" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="418"/>
+      <c r="D52" s="415"/>
       <c r="E52" s="42"/>
     </row>
     <row r="53" spans="2:5">
@@ -14719,10 +15325,10 @@
       <c r="E54" s="40"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="C55" s="416" t="s">
+      <c r="C55" s="413" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="417"/>
+      <c r="D55" s="414"/>
       <c r="E55" s="36"/>
     </row>
     <row r="56" spans="2:5">
@@ -14744,10 +15350,10 @@
       <c r="E57" s="40"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="C58" s="416" t="s">
+      <c r="C58" s="413" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="417"/>
+      <c r="D58" s="414"/>
       <c r="E58" s="36"/>
     </row>
     <row r="59" spans="2:5">
@@ -14760,7 +15366,7 @@
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="C60" s="409">
+      <c r="C60" s="406">
         <v>1</v>
       </c>
       <c r="D60" s="31" t="s">
@@ -14769,70 +15375,70 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="C61" s="409"/>
+      <c r="C61" s="406"/>
       <c r="D61" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="C62" s="409"/>
+      <c r="C62" s="406"/>
       <c r="D62" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="C63" s="409"/>
+      <c r="C63" s="406"/>
       <c r="D63" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="C64" s="409"/>
+      <c r="C64" s="406"/>
       <c r="D64" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="409"/>
+      <c r="C65" s="406"/>
       <c r="D65" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="409"/>
+      <c r="C66" s="406"/>
       <c r="D66" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="18"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="409"/>
+      <c r="C67" s="406"/>
       <c r="D67" s="32" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="409"/>
+      <c r="C68" s="406"/>
       <c r="D68" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="410"/>
+      <c r="C69" s="412"/>
       <c r="D69" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="18"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="405">
+      <c r="C70" s="411">
         <v>2</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -14841,35 +15447,35 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="406"/>
+      <c r="C71" s="409"/>
       <c r="D71" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="3:5">
-      <c r="C72" s="406"/>
+      <c r="C72" s="409"/>
       <c r="D72" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="3:5">
-      <c r="C73" s="406"/>
+      <c r="C73" s="409"/>
       <c r="D73" s="32" t="s">
         <v>69</v>
       </c>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="3:5">
-      <c r="C74" s="406"/>
+      <c r="C74" s="409"/>
       <c r="D74" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="49"/>
     </row>
     <row r="75" spans="3:5">
-      <c r="C75" s="408">
+      <c r="C75" s="405">
         <v>3</v>
       </c>
       <c r="D75" s="44" t="s">
@@ -14878,42 +15484,42 @@
       <c r="E75" s="18"/>
     </row>
     <row r="76" spans="3:5">
-      <c r="C76" s="409"/>
+      <c r="C76" s="406"/>
       <c r="D76" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="3:5">
-      <c r="C77" s="409"/>
+      <c r="C77" s="406"/>
       <c r="D77" s="33" t="s">
         <v>72</v>
       </c>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="3:5">
-      <c r="C78" s="409"/>
+      <c r="C78" s="406"/>
       <c r="D78" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E78" s="18"/>
     </row>
     <row r="79" spans="3:5">
-      <c r="C79" s="409"/>
+      <c r="C79" s="406"/>
       <c r="D79" s="33" t="s">
         <v>74</v>
       </c>
       <c r="E79" s="19"/>
     </row>
     <row r="80" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C80" s="419"/>
+      <c r="C80" s="407"/>
       <c r="D80" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="3:5">
-      <c r="C81" s="420">
+      <c r="C81" s="408">
         <v>4</v>
       </c>
       <c r="D81" s="57" t="s">
@@ -14922,63 +15528,63 @@
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="406"/>
+      <c r="C82" s="409"/>
       <c r="D82" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E82" s="48"/>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="406"/>
+      <c r="C83" s="409"/>
       <c r="D83" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="3:5">
-      <c r="C84" s="406"/>
+      <c r="C84" s="409"/>
       <c r="D84" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E84" s="48"/>
     </row>
     <row r="85" spans="3:5">
-      <c r="C85" s="406"/>
+      <c r="C85" s="409"/>
       <c r="D85" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="48"/>
     </row>
     <row r="86" spans="3:5">
-      <c r="C86" s="406"/>
+      <c r="C86" s="409"/>
       <c r="D86" s="32" t="s">
         <v>137</v>
       </c>
       <c r="E86" s="48"/>
     </row>
     <row r="87" spans="3:5">
-      <c r="C87" s="406"/>
+      <c r="C87" s="409"/>
       <c r="D87" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="3:5">
-      <c r="C88" s="406"/>
+      <c r="C88" s="409"/>
       <c r="D88" s="34" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="48"/>
     </row>
     <row r="89" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C89" s="421"/>
+      <c r="C89" s="410"/>
       <c r="D89" s="35" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="3:5">
-      <c r="C90" s="408">
+      <c r="C90" s="405">
         <v>5</v>
       </c>
       <c r="D90" s="44" t="s">
@@ -14987,28 +15593,28 @@
       <c r="E90" s="18"/>
     </row>
     <row r="91" spans="3:5">
-      <c r="C91" s="409"/>
+      <c r="C91" s="406"/>
       <c r="D91" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="3:5">
-      <c r="C92" s="409"/>
+      <c r="C92" s="406"/>
       <c r="D92" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="3:5">
-      <c r="C93" s="409"/>
+      <c r="C93" s="406"/>
       <c r="D93" s="33" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="3:5">
-      <c r="C94" s="405">
+      <c r="C94" s="411">
         <v>6</v>
       </c>
       <c r="D94" s="57" t="s">
@@ -15017,21 +15623,21 @@
       <c r="E94" s="48"/>
     </row>
     <row r="95" spans="3:5">
-      <c r="C95" s="406"/>
+      <c r="C95" s="409"/>
       <c r="D95" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="48"/>
     </row>
     <row r="96" spans="3:5">
-      <c r="C96" s="406"/>
+      <c r="C96" s="409"/>
       <c r="D96" s="32" t="s">
         <v>90</v>
       </c>
       <c r="E96" s="48"/>
     </row>
     <row r="97" spans="3:5">
-      <c r="C97" s="408">
+      <c r="C97" s="405">
         <v>7</v>
       </c>
       <c r="D97" s="44" t="s">
@@ -15040,35 +15646,35 @@
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="3:5">
-      <c r="C98" s="409"/>
+      <c r="C98" s="406"/>
       <c r="D98" s="32" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="18"/>
     </row>
     <row r="99" spans="3:5">
-      <c r="C99" s="409"/>
+      <c r="C99" s="406"/>
       <c r="D99" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E99" s="18"/>
     </row>
     <row r="100" spans="3:5">
-      <c r="C100" s="409"/>
+      <c r="C100" s="406"/>
       <c r="D100" s="32" t="s">
         <v>94</v>
       </c>
       <c r="E100" s="18"/>
     </row>
     <row r="101" spans="3:5">
-      <c r="C101" s="410"/>
+      <c r="C101" s="412"/>
       <c r="D101" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="18"/>
     </row>
     <row r="102" spans="3:5">
-      <c r="C102" s="405">
+      <c r="C102" s="411">
         <v>8</v>
       </c>
       <c r="D102" s="57" t="s">
@@ -15077,21 +15683,21 @@
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="3:5">
-      <c r="C103" s="406"/>
+      <c r="C103" s="409"/>
       <c r="D103" s="33" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="3:5">
-      <c r="C104" s="406"/>
+      <c r="C104" s="409"/>
       <c r="D104" s="32" t="s">
         <v>98</v>
       </c>
       <c r="E104" s="48"/>
     </row>
     <row r="105" spans="3:5">
-      <c r="C105" s="408" t="s">
+      <c r="C105" s="405" t="s">
         <v>99</v>
       </c>
       <c r="D105" s="58" t="s">
@@ -15102,12 +15708,23 @@
       </c>
     </row>
     <row r="106" spans="3:5">
-      <c r="C106" s="409"/>
+      <c r="C106" s="406"/>
       <c r="D106" s="38"/>
       <c r="E106" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C75:C80"/>
     <mergeCell ref="C81:C89"/>
@@ -15115,17 +15732,6 @@
     <mergeCell ref="C94:C96"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C27:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
@@ -24288,7 +24894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -25728,6 +26334,1590 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54:F56 F11:F39">
       <formula1>$C$116:$C$121</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="28" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:O121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="97" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" style="97" customWidth="1"/>
+    <col min="8" max="15" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="18">
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="156"/>
+    </row>
+    <row r="3" spans="2:15" ht="18">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="C4" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="C5" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" ht="18">
+      <c r="B7" s="422" t="s">
+        <v>477</v>
+      </c>
+      <c r="C7" s="422"/>
+      <c r="D7" s="422"/>
+      <c r="E7" s="422"/>
+    </row>
+    <row r="10" spans="2:15" s="107" customFormat="1" ht="12" customHeight="1">
+      <c r="B10" s="275" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="276" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="276" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="276" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="276" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="310" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="272" t="s">
+        <v>460</v>
+      </c>
+      <c r="I10" s="272" t="s">
+        <v>461</v>
+      </c>
+      <c r="J10" s="273" t="s">
+        <v>462</v>
+      </c>
+      <c r="K10" s="273" t="s">
+        <v>463</v>
+      </c>
+      <c r="L10" s="273" t="s">
+        <v>464</v>
+      </c>
+      <c r="M10" s="273" t="s">
+        <v>465</v>
+      </c>
+      <c r="N10" s="274" t="s">
+        <v>466</v>
+      </c>
+      <c r="O10" s="311" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="338">
+        <v>1</v>
+      </c>
+      <c r="C11" s="368" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="355" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="367">
+        <v>12</v>
+      </c>
+      <c r="H11" s="356">
+        <v>10</v>
+      </c>
+      <c r="I11" s="357">
+        <v>9</v>
+      </c>
+      <c r="J11" s="357">
+        <v>8</v>
+      </c>
+      <c r="K11" s="357">
+        <v>7</v>
+      </c>
+      <c r="L11" s="357">
+        <v>6</v>
+      </c>
+      <c r="M11" s="357">
+        <v>6</v>
+      </c>
+      <c r="N11" s="371">
+        <v>5</v>
+      </c>
+      <c r="O11" s="371">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="335">
+        <v>2</v>
+      </c>
+      <c r="C12" s="372" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="365" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="366" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="367">
+        <v>20</v>
+      </c>
+      <c r="H12" s="356">
+        <v>20</v>
+      </c>
+      <c r="I12" s="357">
+        <v>20</v>
+      </c>
+      <c r="J12" s="357">
+        <v>20</v>
+      </c>
+      <c r="K12" s="357">
+        <v>20</v>
+      </c>
+      <c r="L12" s="356">
+        <v>20</v>
+      </c>
+      <c r="M12" s="356">
+        <v>20</v>
+      </c>
+      <c r="N12" s="371">
+        <v>20</v>
+      </c>
+      <c r="O12" s="371">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="338">
+        <v>3</v>
+      </c>
+      <c r="C13" s="368" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" s="289" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="366" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" s="359" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="360">
+        <v>20</v>
+      </c>
+      <c r="H13" s="373">
+        <v>18</v>
+      </c>
+      <c r="I13" s="373">
+        <v>15</v>
+      </c>
+      <c r="J13" s="373">
+        <v>13</v>
+      </c>
+      <c r="K13" s="373">
+        <v>10</v>
+      </c>
+      <c r="L13" s="373">
+        <v>6</v>
+      </c>
+      <c r="M13" s="373">
+        <v>4</v>
+      </c>
+      <c r="N13" s="371">
+        <v>0</v>
+      </c>
+      <c r="O13" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="338">
+        <v>4</v>
+      </c>
+      <c r="C14" s="368" t="s">
+        <v>467</v>
+      </c>
+      <c r="D14" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F14" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="367">
+        <v>10</v>
+      </c>
+      <c r="H14" s="373">
+        <v>8</v>
+      </c>
+      <c r="I14" s="373">
+        <v>6</v>
+      </c>
+      <c r="J14" s="373">
+        <v>4</v>
+      </c>
+      <c r="K14" s="373">
+        <v>2</v>
+      </c>
+      <c r="L14" s="373">
+        <v>0</v>
+      </c>
+      <c r="M14" s="373">
+        <v>0</v>
+      </c>
+      <c r="N14" s="371">
+        <v>0</v>
+      </c>
+      <c r="O14" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="335">
+        <v>5</v>
+      </c>
+      <c r="C15" s="368" t="s">
+        <v>480</v>
+      </c>
+      <c r="D15" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="367">
+        <v>20</v>
+      </c>
+      <c r="H15" s="326">
+        <v>18</v>
+      </c>
+      <c r="I15" s="339">
+        <v>16</v>
+      </c>
+      <c r="J15" s="339">
+        <v>14</v>
+      </c>
+      <c r="K15" s="339">
+        <v>10</v>
+      </c>
+      <c r="L15" s="339">
+        <v>8</v>
+      </c>
+      <c r="M15" s="331">
+        <v>3</v>
+      </c>
+      <c r="N15" s="362">
+        <v>0</v>
+      </c>
+      <c r="O15" s="362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="338">
+        <v>6</v>
+      </c>
+      <c r="C16" s="368" t="s">
+        <v>482</v>
+      </c>
+      <c r="D16" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="367">
+        <v>5</v>
+      </c>
+      <c r="H16" s="356">
+        <v>5</v>
+      </c>
+      <c r="I16" s="357">
+        <v>5</v>
+      </c>
+      <c r="J16" s="357">
+        <v>5</v>
+      </c>
+      <c r="K16" s="357">
+        <v>3</v>
+      </c>
+      <c r="L16" s="357">
+        <v>2</v>
+      </c>
+      <c r="M16" s="357">
+        <v>0</v>
+      </c>
+      <c r="N16" s="371">
+        <v>0</v>
+      </c>
+      <c r="O16" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B17" s="335">
+        <v>7</v>
+      </c>
+      <c r="C17" s="368" t="s">
+        <v>483</v>
+      </c>
+      <c r="D17" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F17" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="367">
+        <v>10</v>
+      </c>
+      <c r="H17" s="356">
+        <v>10</v>
+      </c>
+      <c r="I17" s="357">
+        <v>10</v>
+      </c>
+      <c r="J17" s="357">
+        <v>10</v>
+      </c>
+      <c r="K17" s="357">
+        <v>10</v>
+      </c>
+      <c r="L17" s="357">
+        <v>7</v>
+      </c>
+      <c r="M17" s="357">
+        <v>3</v>
+      </c>
+      <c r="N17" s="371">
+        <v>0</v>
+      </c>
+      <c r="O17" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B18" s="338">
+        <v>8</v>
+      </c>
+      <c r="C18" s="368" t="s">
+        <v>484</v>
+      </c>
+      <c r="D18" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="367">
+        <v>10</v>
+      </c>
+      <c r="H18" s="356">
+        <v>10</v>
+      </c>
+      <c r="I18" s="357">
+        <v>10</v>
+      </c>
+      <c r="J18" s="357">
+        <v>10</v>
+      </c>
+      <c r="K18" s="357">
+        <v>10</v>
+      </c>
+      <c r="L18" s="357">
+        <v>10</v>
+      </c>
+      <c r="M18" s="357">
+        <v>10</v>
+      </c>
+      <c r="N18" s="371">
+        <v>0</v>
+      </c>
+      <c r="O18" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B19" s="338">
+        <v>9</v>
+      </c>
+      <c r="C19" s="368" t="s">
+        <v>485</v>
+      </c>
+      <c r="D19" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F19" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="367">
+        <v>5</v>
+      </c>
+      <c r="H19" s="356">
+        <v>3</v>
+      </c>
+      <c r="I19" s="357">
+        <v>0</v>
+      </c>
+      <c r="J19" s="357">
+        <v>0</v>
+      </c>
+      <c r="K19" s="357">
+        <v>0</v>
+      </c>
+      <c r="L19" s="357">
+        <v>0</v>
+      </c>
+      <c r="M19" s="357">
+        <v>0</v>
+      </c>
+      <c r="N19" s="371">
+        <v>0</v>
+      </c>
+      <c r="O19" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B20" s="335">
+        <v>10</v>
+      </c>
+      <c r="C20" s="368" t="s">
+        <v>486</v>
+      </c>
+      <c r="D20" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="F20" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="367">
+        <v>10</v>
+      </c>
+      <c r="H20" s="356">
+        <v>8</v>
+      </c>
+      <c r="I20" s="357">
+        <v>6</v>
+      </c>
+      <c r="J20" s="357">
+        <v>7</v>
+      </c>
+      <c r="K20" s="357">
+        <v>3</v>
+      </c>
+      <c r="L20" s="357">
+        <v>0</v>
+      </c>
+      <c r="M20" s="357">
+        <v>0</v>
+      </c>
+      <c r="N20" s="371">
+        <v>0</v>
+      </c>
+      <c r="O20" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" s="197" customFormat="1">
+      <c r="B21" s="338">
+        <v>11</v>
+      </c>
+      <c r="C21" s="385" t="s">
+        <v>479</v>
+      </c>
+      <c r="D21" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="366" t="s">
+        <v>352</v>
+      </c>
+      <c r="F21" s="365" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="367">
+        <v>15</v>
+      </c>
+      <c r="H21" s="356">
+        <v>18</v>
+      </c>
+      <c r="I21" s="357">
+        <v>16</v>
+      </c>
+      <c r="J21" s="357">
+        <v>14</v>
+      </c>
+      <c r="K21" s="357">
+        <v>10</v>
+      </c>
+      <c r="L21" s="357">
+        <v>6</v>
+      </c>
+      <c r="M21" s="357">
+        <v>3</v>
+      </c>
+      <c r="N21" s="371">
+        <v>0</v>
+      </c>
+      <c r="O21" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" s="197" customFormat="1">
+      <c r="B22" s="335">
+        <v>12</v>
+      </c>
+      <c r="C22" s="368" t="s">
+        <v>481</v>
+      </c>
+      <c r="D22" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="400" t="s">
+        <v>352</v>
+      </c>
+      <c r="F22" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="367">
+        <v>30</v>
+      </c>
+      <c r="H22" s="356">
+        <v>26</v>
+      </c>
+      <c r="I22" s="357">
+        <v>22</v>
+      </c>
+      <c r="J22" s="357">
+        <v>18</v>
+      </c>
+      <c r="K22" s="357">
+        <v>15</v>
+      </c>
+      <c r="L22" s="357">
+        <v>10</v>
+      </c>
+      <c r="M22" s="357">
+        <v>6</v>
+      </c>
+      <c r="N22" s="399">
+        <v>0</v>
+      </c>
+      <c r="O22" s="399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" s="197" customFormat="1">
+      <c r="B23" s="338">
+        <v>13</v>
+      </c>
+      <c r="C23" s="385" t="s">
+        <v>478</v>
+      </c>
+      <c r="D23" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="366" t="s">
+        <v>350</v>
+      </c>
+      <c r="F23" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="367">
+        <v>10</v>
+      </c>
+      <c r="H23" s="356">
+        <v>8</v>
+      </c>
+      <c r="I23" s="357">
+        <v>5</v>
+      </c>
+      <c r="J23" s="357">
+        <v>3</v>
+      </c>
+      <c r="K23" s="356">
+        <v>2</v>
+      </c>
+      <c r="L23" s="356">
+        <v>0</v>
+      </c>
+      <c r="M23" s="356">
+        <v>0</v>
+      </c>
+      <c r="N23" s="371">
+        <v>0</v>
+      </c>
+      <c r="O23" s="371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" s="197" customFormat="1" ht="18" customHeight="1">
+      <c r="B24" s="338">
+        <v>14</v>
+      </c>
+      <c r="C24" s="368" t="s">
+        <v>481</v>
+      </c>
+      <c r="D24" s="354" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="355" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" s="369" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="367">
+        <v>30</v>
+      </c>
+      <c r="H24" s="326">
+        <v>26</v>
+      </c>
+      <c r="I24" s="339">
+        <v>22</v>
+      </c>
+      <c r="J24" s="339">
+        <v>18</v>
+      </c>
+      <c r="K24" s="339">
+        <v>15</v>
+      </c>
+      <c r="L24" s="339">
+        <v>10</v>
+      </c>
+      <c r="M24" s="331">
+        <v>6</v>
+      </c>
+      <c r="N24" s="398">
+        <v>0</v>
+      </c>
+      <c r="O24" s="398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="335">
+        <v>15</v>
+      </c>
+      <c r="C25" s="368"/>
+      <c r="D25" s="354"/>
+      <c r="E25" s="355"/>
+      <c r="F25" s="369"/>
+      <c r="G25" s="367"/>
+      <c r="H25" s="356"/>
+      <c r="I25" s="357"/>
+      <c r="J25" s="357"/>
+      <c r="K25" s="357"/>
+      <c r="L25" s="357"/>
+      <c r="M25" s="357"/>
+      <c r="N25" s="399"/>
+      <c r="O25" s="399"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="338">
+        <v>16</v>
+      </c>
+      <c r="C26" s="372"/>
+      <c r="D26" s="354"/>
+      <c r="E26" s="355"/>
+      <c r="F26" s="369"/>
+      <c r="G26" s="367"/>
+      <c r="H26" s="326"/>
+      <c r="I26" s="339"/>
+      <c r="J26" s="339"/>
+      <c r="K26" s="339"/>
+      <c r="L26" s="339"/>
+      <c r="M26" s="331"/>
+      <c r="N26" s="398"/>
+      <c r="O26" s="398"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="335">
+        <v>17</v>
+      </c>
+      <c r="C27" s="368"/>
+      <c r="D27" s="354"/>
+      <c r="E27" s="355"/>
+      <c r="F27" s="369"/>
+      <c r="G27" s="367"/>
+      <c r="H27" s="326"/>
+      <c r="I27" s="326"/>
+      <c r="J27" s="326"/>
+      <c r="K27" s="326"/>
+      <c r="L27" s="326"/>
+      <c r="M27" s="333"/>
+      <c r="N27" s="398"/>
+      <c r="O27" s="398"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="338">
+        <v>18</v>
+      </c>
+      <c r="C28" s="368"/>
+      <c r="D28" s="354"/>
+      <c r="E28" s="355"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="326"/>
+      <c r="I28" s="326"/>
+      <c r="J28" s="326"/>
+      <c r="K28" s="326"/>
+      <c r="L28" s="326"/>
+      <c r="M28" s="333"/>
+      <c r="N28" s="398"/>
+      <c r="O28" s="398"/>
+    </row>
+    <row r="29" spans="2:15" ht="21.75" customHeight="1">
+      <c r="B29" s="338">
+        <v>19</v>
+      </c>
+      <c r="C29" s="366"/>
+      <c r="D29" s="365"/>
+      <c r="E29" s="366"/>
+      <c r="F29" s="365"/>
+      <c r="G29" s="367"/>
+      <c r="H29" s="356"/>
+      <c r="I29" s="356"/>
+      <c r="J29" s="356"/>
+      <c r="K29" s="356"/>
+      <c r="L29" s="356"/>
+      <c r="M29" s="356"/>
+      <c r="N29" s="371"/>
+      <c r="O29" s="371"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="335">
+        <v>20</v>
+      </c>
+      <c r="C30" s="366"/>
+      <c r="D30" s="365"/>
+      <c r="E30" s="366"/>
+      <c r="F30" s="365"/>
+      <c r="G30" s="367"/>
+      <c r="H30" s="373"/>
+      <c r="I30" s="373"/>
+      <c r="J30" s="373"/>
+      <c r="K30" s="373"/>
+      <c r="L30" s="373"/>
+      <c r="M30" s="373"/>
+      <c r="N30" s="371"/>
+      <c r="O30" s="371"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="338">
+        <v>21</v>
+      </c>
+      <c r="C31" s="366"/>
+      <c r="D31" s="365"/>
+      <c r="E31" s="366"/>
+      <c r="F31" s="365"/>
+      <c r="G31" s="367"/>
+      <c r="H31" s="373"/>
+      <c r="I31" s="373"/>
+      <c r="J31" s="373"/>
+      <c r="K31" s="373"/>
+      <c r="L31" s="373"/>
+      <c r="M31" s="373"/>
+      <c r="N31" s="371"/>
+      <c r="O31" s="371"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="335">
+        <v>22</v>
+      </c>
+      <c r="C32" s="366"/>
+      <c r="D32" s="365"/>
+      <c r="E32" s="366"/>
+      <c r="F32" s="365"/>
+      <c r="G32" s="367"/>
+      <c r="H32" s="373"/>
+      <c r="I32" s="373"/>
+      <c r="J32" s="373"/>
+      <c r="K32" s="373"/>
+      <c r="L32" s="373"/>
+      <c r="M32" s="373"/>
+      <c r="N32" s="371"/>
+      <c r="O32" s="371"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="338">
+        <v>23</v>
+      </c>
+      <c r="C33" s="366"/>
+      <c r="D33" s="365"/>
+      <c r="E33" s="366"/>
+      <c r="F33" s="365"/>
+      <c r="G33" s="367"/>
+      <c r="H33" s="373"/>
+      <c r="I33" s="373"/>
+      <c r="J33" s="373"/>
+      <c r="K33" s="373"/>
+      <c r="L33" s="373"/>
+      <c r="M33" s="373"/>
+      <c r="N33" s="371"/>
+      <c r="O33" s="371"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="338">
+        <v>24</v>
+      </c>
+      <c r="C34" s="366"/>
+      <c r="D34" s="365"/>
+      <c r="E34" s="366"/>
+      <c r="F34" s="365"/>
+      <c r="G34" s="367"/>
+      <c r="H34" s="373"/>
+      <c r="I34" s="373"/>
+      <c r="J34" s="373"/>
+      <c r="K34" s="373"/>
+      <c r="L34" s="373"/>
+      <c r="M34" s="373"/>
+      <c r="N34" s="371"/>
+      <c r="O34" s="371"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="335">
+        <v>25</v>
+      </c>
+      <c r="C35" s="366"/>
+      <c r="D35" s="365"/>
+      <c r="E35" s="366"/>
+      <c r="F35" s="365"/>
+      <c r="G35" s="367"/>
+      <c r="H35" s="326"/>
+      <c r="I35" s="326"/>
+      <c r="J35" s="326"/>
+      <c r="K35" s="326"/>
+      <c r="L35" s="326"/>
+      <c r="M35" s="333"/>
+      <c r="N35" s="362"/>
+      <c r="O35" s="362"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="338">
+        <v>26</v>
+      </c>
+      <c r="C36" s="375"/>
+      <c r="D36" s="289"/>
+      <c r="E36" s="336"/>
+      <c r="F36" s="359"/>
+      <c r="G36" s="360"/>
+      <c r="H36" s="326"/>
+      <c r="I36" s="326"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="326"/>
+      <c r="L36" s="326"/>
+      <c r="M36" s="333"/>
+      <c r="N36" s="362"/>
+      <c r="O36" s="362"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="335">
+        <v>27</v>
+      </c>
+      <c r="C37" s="366"/>
+      <c r="D37" s="365"/>
+      <c r="E37" s="366"/>
+      <c r="F37" s="365"/>
+      <c r="G37" s="367"/>
+      <c r="H37" s="326"/>
+      <c r="I37" s="326"/>
+      <c r="J37" s="326"/>
+      <c r="K37" s="326"/>
+      <c r="L37" s="326"/>
+      <c r="M37" s="333"/>
+      <c r="N37" s="362"/>
+      <c r="O37" s="362"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="338">
+        <v>28</v>
+      </c>
+      <c r="C38" s="366"/>
+      <c r="D38" s="365"/>
+      <c r="E38" s="366"/>
+      <c r="F38" s="365"/>
+      <c r="G38" s="367"/>
+      <c r="H38" s="326"/>
+      <c r="I38" s="326"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="326"/>
+      <c r="L38" s="326"/>
+      <c r="M38" s="333"/>
+      <c r="N38" s="362"/>
+      <c r="O38" s="362"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="338">
+        <v>29</v>
+      </c>
+      <c r="C39" s="366"/>
+      <c r="D39" s="365"/>
+      <c r="E39" s="366"/>
+      <c r="F39" s="365"/>
+      <c r="G39" s="367"/>
+      <c r="H39" s="326"/>
+      <c r="I39" s="326"/>
+      <c r="J39" s="326"/>
+      <c r="K39" s="326"/>
+      <c r="L39" s="326"/>
+      <c r="M39" s="333"/>
+      <c r="N39" s="362"/>
+      <c r="O39" s="362"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="335">
+        <v>30</v>
+      </c>
+      <c r="C40" s="366"/>
+      <c r="D40" s="365"/>
+      <c r="E40" s="366"/>
+      <c r="F40" s="365"/>
+      <c r="G40" s="367"/>
+      <c r="H40" s="326"/>
+      <c r="I40" s="326"/>
+      <c r="J40" s="326"/>
+      <c r="K40" s="326"/>
+      <c r="L40" s="326"/>
+      <c r="M40" s="333"/>
+      <c r="N40" s="362"/>
+      <c r="O40" s="362"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="338">
+        <v>31</v>
+      </c>
+      <c r="C41" s="366"/>
+      <c r="D41" s="365"/>
+      <c r="E41" s="366"/>
+      <c r="F41" s="365"/>
+      <c r="G41" s="367"/>
+      <c r="H41" s="326"/>
+      <c r="I41" s="326"/>
+      <c r="J41" s="326"/>
+      <c r="K41" s="326"/>
+      <c r="L41" s="326"/>
+      <c r="M41" s="333"/>
+      <c r="N41" s="362"/>
+      <c r="O41" s="362"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="335">
+        <v>32</v>
+      </c>
+      <c r="C42" s="366"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="366"/>
+      <c r="F42" s="365"/>
+      <c r="G42" s="367"/>
+      <c r="H42" s="326"/>
+      <c r="I42" s="326"/>
+      <c r="J42" s="326"/>
+      <c r="K42" s="326"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="333"/>
+      <c r="N42" s="362"/>
+      <c r="O42" s="362"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="338">
+        <v>33</v>
+      </c>
+      <c r="C43" s="366"/>
+      <c r="D43" s="365"/>
+      <c r="E43" s="366"/>
+      <c r="F43" s="365"/>
+      <c r="G43" s="367"/>
+      <c r="H43" s="326"/>
+      <c r="I43" s="326"/>
+      <c r="J43" s="326"/>
+      <c r="K43" s="326"/>
+      <c r="L43" s="326"/>
+      <c r="M43" s="333"/>
+      <c r="N43" s="362"/>
+      <c r="O43" s="362"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="338">
+        <v>34</v>
+      </c>
+      <c r="C44" s="366"/>
+      <c r="D44" s="365"/>
+      <c r="E44" s="366"/>
+      <c r="F44" s="365"/>
+      <c r="G44" s="367"/>
+      <c r="H44" s="326"/>
+      <c r="I44" s="326"/>
+      <c r="J44" s="326"/>
+      <c r="K44" s="326"/>
+      <c r="L44" s="326"/>
+      <c r="M44" s="333"/>
+      <c r="N44" s="362"/>
+      <c r="O44" s="362"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="335">
+        <v>35</v>
+      </c>
+      <c r="C45" s="366"/>
+      <c r="D45" s="365"/>
+      <c r="E45" s="366"/>
+      <c r="F45" s="365"/>
+      <c r="G45" s="367"/>
+      <c r="H45" s="326"/>
+      <c r="I45" s="326"/>
+      <c r="J45" s="326"/>
+      <c r="K45" s="326"/>
+      <c r="L45" s="326"/>
+      <c r="M45" s="333"/>
+      <c r="N45" s="362"/>
+      <c r="O45" s="362"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="338">
+        <v>36</v>
+      </c>
+      <c r="C46" s="366"/>
+      <c r="D46" s="365"/>
+      <c r="E46" s="366"/>
+      <c r="F46" s="365"/>
+      <c r="G46" s="367"/>
+      <c r="H46" s="326"/>
+      <c r="I46" s="326"/>
+      <c r="J46" s="326"/>
+      <c r="K46" s="326"/>
+      <c r="L46" s="326"/>
+      <c r="M46" s="333"/>
+      <c r="N46" s="362"/>
+      <c r="O46" s="362"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="335">
+        <v>37</v>
+      </c>
+      <c r="C47" s="366"/>
+      <c r="D47" s="365"/>
+      <c r="E47" s="366"/>
+      <c r="F47" s="365"/>
+      <c r="G47" s="367"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="326"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="333"/>
+      <c r="N47" s="362"/>
+      <c r="O47" s="362"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="338">
+        <v>38</v>
+      </c>
+      <c r="C48" s="366"/>
+      <c r="D48" s="365"/>
+      <c r="E48" s="366"/>
+      <c r="F48" s="365"/>
+      <c r="G48" s="367"/>
+      <c r="H48" s="326"/>
+      <c r="I48" s="326"/>
+      <c r="J48" s="326"/>
+      <c r="K48" s="326"/>
+      <c r="L48" s="326"/>
+      <c r="M48" s="333"/>
+      <c r="N48" s="362"/>
+      <c r="O48" s="362"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="338">
+        <v>39</v>
+      </c>
+      <c r="C49" s="366"/>
+      <c r="D49" s="365"/>
+      <c r="E49" s="366"/>
+      <c r="F49" s="365"/>
+      <c r="G49" s="367"/>
+      <c r="H49" s="326"/>
+      <c r="I49" s="326"/>
+      <c r="J49" s="326"/>
+      <c r="K49" s="326"/>
+      <c r="L49" s="326"/>
+      <c r="M49" s="333"/>
+      <c r="N49" s="362"/>
+      <c r="O49" s="362"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="335">
+        <v>40</v>
+      </c>
+      <c r="C50" s="366"/>
+      <c r="D50" s="365"/>
+      <c r="E50" s="366"/>
+      <c r="F50" s="365"/>
+      <c r="G50" s="367"/>
+      <c r="H50" s="326"/>
+      <c r="I50" s="326"/>
+      <c r="J50" s="326"/>
+      <c r="K50" s="326"/>
+      <c r="L50" s="326"/>
+      <c r="M50" s="333"/>
+      <c r="N50" s="362"/>
+      <c r="O50" s="362"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="338">
+        <v>41</v>
+      </c>
+      <c r="C51" s="366"/>
+      <c r="D51" s="365"/>
+      <c r="E51" s="366"/>
+      <c r="F51" s="365"/>
+      <c r="G51" s="367"/>
+      <c r="H51" s="326"/>
+      <c r="I51" s="326"/>
+      <c r="J51" s="326"/>
+      <c r="K51" s="326"/>
+      <c r="L51" s="326"/>
+      <c r="M51" s="333"/>
+      <c r="N51" s="362"/>
+      <c r="O51" s="362"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="335">
+        <v>42</v>
+      </c>
+      <c r="C52" s="366"/>
+      <c r="D52" s="365"/>
+      <c r="E52" s="366"/>
+      <c r="F52" s="365"/>
+      <c r="G52" s="367"/>
+      <c r="H52" s="326"/>
+      <c r="I52" s="326"/>
+      <c r="J52" s="326"/>
+      <c r="K52" s="326"/>
+      <c r="L52" s="326"/>
+      <c r="M52" s="333"/>
+      <c r="N52" s="362"/>
+      <c r="O52" s="362"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="338">
+        <v>43</v>
+      </c>
+      <c r="C53" s="366"/>
+      <c r="D53" s="365"/>
+      <c r="E53" s="366"/>
+      <c r="F53" s="365"/>
+      <c r="G53" s="367"/>
+      <c r="H53" s="326"/>
+      <c r="I53" s="326"/>
+      <c r="J53" s="326"/>
+      <c r="K53" s="326"/>
+      <c r="L53" s="326"/>
+      <c r="M53" s="333"/>
+      <c r="N53" s="362"/>
+      <c r="O53" s="362"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="338">
+        <v>44</v>
+      </c>
+      <c r="C54" s="363"/>
+      <c r="D54" s="289"/>
+      <c r="E54" s="336"/>
+      <c r="F54" s="359"/>
+      <c r="G54" s="360"/>
+      <c r="H54" s="326"/>
+      <c r="I54" s="326"/>
+      <c r="J54" s="326"/>
+      <c r="K54" s="326"/>
+      <c r="L54" s="326"/>
+      <c r="M54" s="333"/>
+      <c r="N54" s="362"/>
+      <c r="O54" s="362"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="335">
+        <v>45</v>
+      </c>
+      <c r="C55" s="376"/>
+      <c r="D55" s="289"/>
+      <c r="E55" s="336"/>
+      <c r="F55" s="359"/>
+      <c r="G55" s="360"/>
+      <c r="H55" s="360"/>
+      <c r="I55" s="360"/>
+      <c r="J55" s="360"/>
+      <c r="K55" s="360"/>
+      <c r="L55" s="360"/>
+      <c r="M55" s="377"/>
+      <c r="N55" s="362"/>
+      <c r="O55" s="362"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="378" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="379"/>
+      <c r="D56" s="348"/>
+      <c r="E56" s="380"/>
+      <c r="F56" s="381"/>
+      <c r="G56" s="382"/>
+      <c r="H56" s="382"/>
+      <c r="I56" s="382"/>
+      <c r="J56" s="382"/>
+      <c r="K56" s="382"/>
+      <c r="L56" s="382"/>
+      <c r="M56" s="383"/>
+      <c r="N56" s="384"/>
+      <c r="O56" s="384"/>
+    </row>
+    <row r="103" spans="2:15" s="97" customFormat="1">
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+    </row>
+    <row r="104" spans="2:15" s="97" customFormat="1">
+      <c r="B104"/>
+      <c r="C104" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+    </row>
+    <row r="105" spans="2:15" s="97" customFormat="1">
+      <c r="B105"/>
+      <c r="C105" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+    </row>
+    <row r="106" spans="2:15" s="97" customFormat="1">
+      <c r="B106"/>
+      <c r="C106" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+    </row>
+    <row r="107" spans="2:15" s="97" customFormat="1">
+      <c r="B107"/>
+      <c r="C107" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="2:15" s="97" customFormat="1">
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108"/>
+      <c r="E108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+    </row>
+    <row r="109" spans="2:15" s="97" customFormat="1">
+      <c r="B109"/>
+      <c r="C109" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="E109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+    </row>
+    <row r="110" spans="2:15" s="97" customFormat="1">
+      <c r="B110"/>
+      <c r="C110" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="E110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+    </row>
+    <row r="111" spans="2:15" s="97" customFormat="1">
+      <c r="B111"/>
+      <c r="C111" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+    </row>
+    <row r="112" spans="2:15" s="97" customFormat="1">
+      <c r="B112"/>
+      <c r="C112" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="E112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+    </row>
+    <row r="113" spans="2:15" s="97" customFormat="1">
+      <c r="B113"/>
+      <c r="C113" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+    </row>
+    <row r="115" spans="2:15" s="97" customFormat="1">
+      <c r="B115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115"/>
+      <c r="E115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+    </row>
+    <row r="116" spans="2:15" s="97" customFormat="1">
+      <c r="B116"/>
+      <c r="C116" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="E116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+    </row>
+    <row r="117" spans="2:15" s="97" customFormat="1">
+      <c r="B117"/>
+      <c r="C117" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+    </row>
+    <row r="118" spans="2:15" s="97" customFormat="1">
+      <c r="B118"/>
+      <c r="C118" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+    </row>
+    <row r="119" spans="2:15" s="97" customFormat="1">
+      <c r="B119"/>
+      <c r="C119" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+    </row>
+    <row r="120" spans="2:15" s="97" customFormat="1">
+      <c r="B120"/>
+      <c r="C120" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+    </row>
+    <row r="121" spans="2:15" s="97" customFormat="1">
+      <c r="B121"/>
+      <c r="C121" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54:F56 F11:F39">
+      <formula1>$C$116:$C$121</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E54:E56 E36 E11:E33">
+      <formula1>$C$109:$C$113</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54:D56 D36 D11:D31">
+      <formula1>$C$103:$C$107</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57:F93">
+      <formula1>$C$117:$C$121</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint01_0805_1205" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Sprint13_2907_0408" sheetId="25" r:id="rId13"/>
     <sheet name="Sprint14_0508_1108" sheetId="22" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1414,7 +1414,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm"/>
@@ -2204,7 +2204,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2240,7 +2240,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2271,7 +2271,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2302,7 +2302,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2333,7 +2333,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2364,7 +2364,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2395,7 +2395,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2426,7 +2426,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2465,7 +2465,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2496,7 +2496,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2527,7 +2527,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2558,7 +2558,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2589,7 +2589,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2620,7 +2620,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -2679,7 +2679,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -2720,7 +2720,7 @@
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2752,7 +2752,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2788,7 +2788,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2819,7 +2819,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2850,7 +2850,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2881,7 +2881,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2912,7 +2912,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2943,7 +2943,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2974,7 +2974,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3013,7 +3013,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3044,7 +3044,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3075,7 +3075,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3106,7 +3106,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3137,7 +3137,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3168,7 +3168,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -3227,7 +3227,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -3268,7 +3268,7 @@
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3300,7 +3300,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3336,7 +3336,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3367,7 +3367,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3398,7 +3398,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3429,7 +3429,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3460,7 +3460,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3491,7 +3491,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3522,7 +3522,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3561,7 +3561,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3592,7 +3592,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3623,7 +3623,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3654,7 +3654,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3685,7 +3685,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3716,7 +3716,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -3775,7 +3775,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -3816,7 +3816,7 @@
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3848,7 +3848,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3884,7 +3884,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3915,7 +3915,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3946,7 +3946,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3977,7 +3977,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4008,7 +4008,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4039,7 +4039,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4070,7 +4070,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4109,7 +4109,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4140,7 +4140,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4171,7 +4171,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4202,7 +4202,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4233,7 +4233,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4264,7 +4264,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -4323,7 +4323,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -4364,7 +4364,7 @@
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4396,7 +4396,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4432,7 +4432,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4463,7 +4463,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4494,7 +4494,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4525,7 +4525,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4556,7 +4556,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4587,7 +4587,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4618,7 +4618,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4657,7 +4657,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4688,7 +4688,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4719,7 +4719,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4750,7 +4750,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4781,7 +4781,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4812,7 +4812,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -4871,7 +4871,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -4912,7 +4912,7 @@
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4944,7 +4944,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4980,7 +4980,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5011,7 +5011,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5042,7 +5042,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5073,7 +5073,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5104,7 +5104,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5135,7 +5135,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5166,7 +5166,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5205,7 +5205,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5236,7 +5236,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5267,7 +5267,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5298,7 +5298,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5329,7 +5329,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5360,7 +5360,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -5419,7 +5419,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -5460,7 +5460,7 @@
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5492,7 +5492,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5528,7 +5528,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5559,7 +5559,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5590,7 +5590,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5621,7 +5621,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5652,7 +5652,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5683,7 +5683,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5714,7 +5714,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5753,7 +5753,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5784,7 +5784,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5815,7 +5815,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5846,7 +5846,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5877,7 +5877,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5908,7 +5908,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -5967,7 +5967,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -6008,7 +6008,7 @@
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6040,7 +6040,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6076,7 +6076,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6107,7 +6107,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6138,7 +6138,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6169,7 +6169,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6200,7 +6200,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6231,7 +6231,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6262,7 +6262,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6301,7 +6301,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6332,7 +6332,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6363,7 +6363,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6394,7 +6394,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6425,7 +6425,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6456,7 +6456,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -6515,7 +6515,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -6556,7 +6556,7 @@
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6588,7 +6588,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6624,7 +6624,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6655,7 +6655,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6686,7 +6686,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6717,7 +6717,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6748,7 +6748,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6779,7 +6779,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6810,7 +6810,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6849,7 +6849,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6880,7 +6880,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6911,7 +6911,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6942,7 +6942,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6973,7 +6973,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7004,7 +7004,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -7063,7 +7063,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -7104,7 +7104,7 @@
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7136,7 +7136,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7172,7 +7172,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7203,7 +7203,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7234,7 +7234,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7265,7 +7265,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7296,7 +7296,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7327,7 +7327,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7358,7 +7358,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7397,7 +7397,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7428,7 +7428,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7459,7 +7459,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7490,7 +7490,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7521,7 +7521,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7552,7 +7552,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -7611,7 +7611,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -7652,7 +7652,7 @@
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7684,7 +7684,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7720,7 +7720,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7751,7 +7751,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7782,7 +7782,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7813,7 +7813,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7844,7 +7844,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7875,7 +7875,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7906,7 +7906,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7945,7 +7945,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -7976,7 +7976,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8007,7 +8007,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8038,7 +8038,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8069,7 +8069,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8100,7 +8100,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -8159,7 +8159,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -8200,7 +8200,7 @@
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8232,7 +8232,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8268,7 +8268,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8299,7 +8299,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8330,7 +8330,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8361,7 +8361,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8392,7 +8392,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8423,7 +8423,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8454,7 +8454,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8493,7 +8493,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8524,7 +8524,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8585,7 +8585,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8745,7 +8745,7 @@
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8776,7 +8776,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8811,7 +8811,7 @@
           <fgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8841,7 +8841,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8871,7 +8871,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8901,7 +8901,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8931,7 +8931,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8961,7 +8961,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8991,7 +8991,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -9030,7 +9030,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -9060,7 +9060,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -9121,7 +9121,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -9282,7 +9282,7 @@
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -9503,7 +9503,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -9535,7 +9535,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -9596,7 +9596,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -9757,7 +9757,7 @@
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -10174,7 +10174,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -10209,7 +10208,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10385,7 +10383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O118"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -11654,7 +11652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O121"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -13108,7 +13106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O120"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -14648,7 +14646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -15998,11 +15996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O121"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17442,11 +17440,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17663,7 +17661,9 @@
       <c r="N13" s="108">
         <v>0</v>
       </c>
-      <c r="O13" s="108"/>
+      <c r="O13" s="108">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="72">
@@ -17705,7 +17705,9 @@
       <c r="N14" s="99">
         <v>0</v>
       </c>
-      <c r="O14" s="99"/>
+      <c r="O14" s="99">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="75">
@@ -17747,7 +17749,9 @@
       <c r="N15" s="108">
         <v>0</v>
       </c>
-      <c r="O15" s="108"/>
+      <c r="O15" s="108">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:15" ht="15.75" customHeight="1">
       <c r="B16" s="72">
@@ -17789,7 +17793,9 @@
       <c r="N16" s="108">
         <v>0</v>
       </c>
-      <c r="O16" s="108"/>
+      <c r="O16" s="108">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:15" ht="15.75" customHeight="1">
       <c r="B17" s="75">
@@ -18792,7 +18798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -20355,7 +20361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -22024,7 +22030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O118"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -23641,7 +23647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -25172,7 +25178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O121"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -26741,7 +26747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O121"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -28178,7 +28184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O121"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -29633,7 +29639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" tabRatio="949" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint01_0805_1205" sheetId="9" r:id="rId1"/>
@@ -402,55 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tu Huynh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sprint 3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tu Huynh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Sprint 3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G28" authorId="0">
+    <comment ref="G26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -474,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="0">
+    <comment ref="G27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -498,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G30" authorId="0">
+    <comment ref="G28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -647,7 +599,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="254">
   <si>
     <t>CAPSTONE PROJECT</t>
   </si>
@@ -9962,8 +9914,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1345678910" displayName="Table1345678910" ref="B10:O53" totalsRowShown="0" headerRowDxfId="208" dataDxfId="206" headerRowBorderDxfId="207" tableBorderDxfId="205" totalsRowBorderDxfId="204">
-  <autoFilter ref="B10:O53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1345678910" displayName="Table1345678910" ref="B10:O51" totalsRowShown="0" headerRowDxfId="208" dataDxfId="206" headerRowBorderDxfId="207" tableBorderDxfId="205" totalsRowBorderDxfId="204">
+  <autoFilter ref="B10:O51"/>
   <tableColumns count="14">
     <tableColumn id="1" name="No." dataDxfId="203"/>
     <tableColumn id="2" name="Task description" dataDxfId="202"/>
@@ -15999,7 +15951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -18802,7 +18754,7 @@
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C28"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19428,10 +19380,10 @@
         <v>12</v>
       </c>
       <c r="G25" s="50">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H25" s="51">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I25" s="54">
         <v>15</v>
@@ -19443,16 +19395,16 @@
         <v>13</v>
       </c>
       <c r="L25" s="54">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M25" s="55">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N25" s="65">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O25" s="65">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:15">
@@ -19472,7 +19424,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="50">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H26" s="51">
         <v>12</v>
@@ -19516,7 +19468,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="50">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H27" s="51">
         <v>15</v>
@@ -19540,7 +19492,7 @@
         <v>12</v>
       </c>
       <c r="O27" s="65">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:15">
@@ -19560,7 +19512,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="50">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H28" s="51">
         <v>12</v>
@@ -20364,8 +20316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O119"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C33"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20924,34 +20876,34 @@
         <v>51</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G23" s="58">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23" s="63">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I23" s="76">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J23" s="76">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K23" s="76">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L23" s="76">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M23" s="68">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N23" s="69">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O23" s="69">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:15">
@@ -20977,25 +20929,25 @@
         <v>12</v>
       </c>
       <c r="I24" s="76">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J24" s="76">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K24" s="76">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L24" s="76">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M24" s="68">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N24" s="69">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O24" s="69">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:15">
@@ -21012,34 +20964,34 @@
         <v>51</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G25" s="58">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H25" s="63">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I25" s="76">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J25" s="76">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K25" s="76">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L25" s="76">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M25" s="68">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N25" s="69">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O25" s="69">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:15">
@@ -21062,28 +21014,28 @@
         <v>12</v>
       </c>
       <c r="H26" s="63">
-        <v>12</v>
-      </c>
-      <c r="I26" s="76">
-        <v>12</v>
-      </c>
-      <c r="J26" s="76">
-        <v>12</v>
-      </c>
-      <c r="K26" s="76">
-        <v>12</v>
-      </c>
-      <c r="L26" s="76">
-        <v>12</v>
-      </c>
-      <c r="M26" s="68">
-        <v>12</v>
-      </c>
-      <c r="N26" s="69">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="I26" s="63">
+        <v>10</v>
+      </c>
+      <c r="J26" s="63">
+        <v>10</v>
+      </c>
+      <c r="K26" s="63">
+        <v>10</v>
+      </c>
+      <c r="L26" s="63">
+        <v>10</v>
+      </c>
+      <c r="M26" s="63">
+        <v>6</v>
+      </c>
+      <c r="N26" s="63">
+        <v>6</v>
       </c>
       <c r="O26" s="69">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:15">
@@ -21123,7 +21075,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="58">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H28" s="63">
         <v>12</v>
@@ -21144,10 +21096,10 @@
         <v>12</v>
       </c>
       <c r="N28" s="69">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O28" s="69">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:15">
@@ -22031,10 +21983,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:O118"/>
+  <dimension ref="B2:O116"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22537,37 +22489,37 @@
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="75">
-        <v>12</v>
-      </c>
-      <c r="C22" s="100" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="96" t="s">
+      <c r="F22" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="97">
-        <v>10</v>
+      <c r="G22" s="104">
+        <v>4</v>
       </c>
       <c r="H22" s="93">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I22" s="94">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J22" s="94">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K22" s="94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L22" s="94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="94">
         <v>0</v>
@@ -22581,10 +22533,10 @@
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="75">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="91" t="s">
         <v>6</v>
@@ -22593,44 +22545,44 @@
         <v>51</v>
       </c>
       <c r="F23" s="106" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G23" s="104">
-        <v>12</v>
-      </c>
-      <c r="H23" s="93">
-        <v>12</v>
-      </c>
-      <c r="I23" s="94">
-        <v>12</v>
-      </c>
-      <c r="J23" s="94">
-        <v>12</v>
-      </c>
-      <c r="K23" s="94">
-        <v>12</v>
-      </c>
-      <c r="L23" s="94">
-        <v>12</v>
-      </c>
-      <c r="M23" s="94">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="H23" s="110">
+        <v>4</v>
+      </c>
+      <c r="I23" s="110">
+        <v>3</v>
+      </c>
+      <c r="J23" s="110">
+        <v>0</v>
+      </c>
+      <c r="K23" s="110">
+        <v>0</v>
+      </c>
+      <c r="L23" s="110">
+        <v>0</v>
+      </c>
+      <c r="M23" s="110">
+        <v>0</v>
       </c>
       <c r="N23" s="108">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O23" s="108">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="36" customHeight="1">
       <c r="B24" s="75">
-        <v>14</v>
-      </c>
-      <c r="C24" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="102" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="92" t="s">
@@ -22642,145 +22594,145 @@
       <c r="G24" s="104">
         <v>10</v>
       </c>
-      <c r="H24" s="93">
+      <c r="H24" s="63">
         <v>10</v>
       </c>
-      <c r="I24" s="94">
+      <c r="I24" s="76">
         <v>10</v>
       </c>
-      <c r="J24" s="94">
+      <c r="J24" s="76">
         <v>10</v>
       </c>
-      <c r="K24" s="94">
+      <c r="K24" s="76">
         <v>10</v>
       </c>
-      <c r="L24" s="94">
+      <c r="L24" s="76">
         <v>10</v>
       </c>
-      <c r="M24" s="94">
+      <c r="M24" s="68">
         <v>10</v>
       </c>
-      <c r="N24" s="108">
+      <c r="N24" s="99">
         <v>10</v>
       </c>
-      <c r="O24" s="108">
+      <c r="O24" s="99">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="75">
-        <v>15</v>
-      </c>
-      <c r="C25" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="75">
+        <v>18</v>
+      </c>
+      <c r="C26" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="104">
-        <v>12</v>
-      </c>
-      <c r="H25" s="110">
-        <v>12</v>
-      </c>
-      <c r="I25" s="110">
-        <v>12</v>
-      </c>
-      <c r="J25" s="110">
-        <v>12</v>
-      </c>
-      <c r="K25" s="110">
-        <v>12</v>
-      </c>
-      <c r="L25" s="110">
-        <v>12</v>
-      </c>
-      <c r="M25" s="110">
-        <v>12</v>
-      </c>
-      <c r="N25" s="108">
-        <v>12</v>
-      </c>
-      <c r="O25" s="108">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" ht="36" customHeight="1">
-      <c r="B26" s="75">
-        <v>16</v>
-      </c>
-      <c r="C26" s="111" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="102" t="s">
-        <v>6</v>
-      </c>
       <c r="E26" s="92" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F26" s="106" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="104">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H26" s="63">
         <v>10</v>
       </c>
-      <c r="I26" s="76">
-        <v>10</v>
-      </c>
-      <c r="J26" s="76">
-        <v>10</v>
-      </c>
-      <c r="K26" s="76">
-        <v>10</v>
-      </c>
-      <c r="L26" s="76">
-        <v>10</v>
-      </c>
-      <c r="M26" s="68">
-        <v>10</v>
+      <c r="I26" s="63">
+        <v>8</v>
+      </c>
+      <c r="J26" s="63">
+        <v>7</v>
+      </c>
+      <c r="K26" s="63">
+        <v>6</v>
+      </c>
+      <c r="L26" s="63">
+        <v>5</v>
+      </c>
+      <c r="M26" s="70">
+        <v>5</v>
       </c>
       <c r="N26" s="99">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O26" s="99">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="75">
-        <v>17</v>
-      </c>
-      <c r="C27" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
+        <v>19</v>
+      </c>
+      <c r="C27" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="104">
+        <v>12</v>
+      </c>
+      <c r="H27" s="63">
+        <v>10</v>
+      </c>
+      <c r="I27" s="63">
+        <v>8</v>
+      </c>
+      <c r="J27" s="63">
+        <v>7</v>
+      </c>
+      <c r="K27" s="63">
+        <v>6</v>
+      </c>
+      <c r="L27" s="63">
+        <v>4</v>
+      </c>
+      <c r="M27" s="70">
+        <v>2</v>
+      </c>
+      <c r="N27" s="99">
+        <v>0</v>
+      </c>
+      <c r="O27" s="99">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="75">
-        <v>18</v>
-      </c>
-      <c r="C28" s="109" t="s">
-        <v>92</v>
+        <v>20</v>
+      </c>
+      <c r="C28" s="105" t="s">
+        <v>91</v>
       </c>
       <c r="D28" s="91" t="s">
         <v>6</v>
@@ -22795,36 +22747,36 @@
         <v>12</v>
       </c>
       <c r="H28" s="63">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I28" s="63">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J28" s="63">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K28" s="63">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L28" s="63">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M28" s="70">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N28" s="99">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O28" s="99">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="75">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C29" s="105" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D29" s="91" t="s">
         <v>6</v>
@@ -22836,124 +22788,72 @@
         <v>12</v>
       </c>
       <c r="G29" s="104">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H29" s="63">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I29" s="63">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J29" s="63">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K29" s="63">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L29" s="63">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M29" s="70">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N29" s="99">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O29" s="99">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="75">
-        <v>20</v>
-      </c>
-      <c r="C30" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="104">
-        <v>12</v>
-      </c>
-      <c r="H30" s="63">
-        <v>12</v>
-      </c>
-      <c r="I30" s="63">
-        <v>12</v>
-      </c>
-      <c r="J30" s="63">
-        <v>12</v>
-      </c>
-      <c r="K30" s="63">
-        <v>12</v>
-      </c>
-      <c r="L30" s="63">
-        <v>12</v>
-      </c>
-      <c r="M30" s="70">
-        <v>12</v>
-      </c>
-      <c r="N30" s="99">
-        <v>12</v>
-      </c>
-      <c r="O30" s="99">
-        <v>12</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C30" s="103"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="75">
-        <v>21</v>
-      </c>
-      <c r="C31" s="105" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="104">
-        <v>20</v>
-      </c>
-      <c r="H31" s="63">
-        <v>20</v>
-      </c>
-      <c r="I31" s="63">
-        <v>20</v>
-      </c>
-      <c r="J31" s="63">
-        <v>20</v>
-      </c>
-      <c r="K31" s="63">
-        <v>20</v>
-      </c>
-      <c r="L31" s="63">
-        <v>20</v>
-      </c>
-      <c r="M31" s="70">
-        <v>20</v>
-      </c>
-      <c r="N31" s="99">
-        <v>20</v>
-      </c>
-      <c r="O31" s="99">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C31" s="112"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="75">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C32" s="103"/>
       <c r="D32" s="102"/>
@@ -22971,13 +22871,13 @@
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="75">
-        <v>23</v>
-      </c>
-      <c r="C33" s="112"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
+        <v>25</v>
+      </c>
+      <c r="C33" s="103"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="104"/>
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="63"/>
@@ -22989,7 +22889,7 @@
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="75">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C34" s="103"/>
       <c r="D34" s="102"/>
@@ -23007,7 +22907,7 @@
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="75">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C35" s="103"/>
       <c r="D35" s="102"/>
@@ -23025,7 +22925,7 @@
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="75">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C36" s="103"/>
       <c r="D36" s="102"/>
@@ -23043,7 +22943,7 @@
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="75">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C37" s="103"/>
       <c r="D37" s="102"/>
@@ -23061,7 +22961,7 @@
     </row>
     <row r="38" spans="2:15">
       <c r="B38" s="75">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C38" s="103"/>
       <c r="D38" s="102"/>
@@ -23079,7 +22979,7 @@
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="75">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C39" s="103"/>
       <c r="D39" s="102"/>
@@ -23097,7 +22997,7 @@
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="75">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C40" s="103"/>
       <c r="D40" s="102"/>
@@ -23115,7 +23015,7 @@
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="75">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C41" s="103"/>
       <c r="D41" s="102"/>
@@ -23133,7 +23033,7 @@
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="75">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C42" s="103"/>
       <c r="D42" s="102"/>
@@ -23151,7 +23051,7 @@
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="75">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C43" s="103"/>
       <c r="D43" s="102"/>
@@ -23169,7 +23069,7 @@
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="75">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C44" s="103"/>
       <c r="D44" s="102"/>
@@ -23187,7 +23087,7 @@
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="75">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C45" s="103"/>
       <c r="D45" s="102"/>
@@ -23205,7 +23105,7 @@
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="75">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C46" s="103"/>
       <c r="D46" s="102"/>
@@ -23223,7 +23123,7 @@
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="75">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C47" s="103"/>
       <c r="D47" s="102"/>
@@ -23241,7 +23141,7 @@
     </row>
     <row r="48" spans="2:15">
       <c r="B48" s="75">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C48" s="103"/>
       <c r="D48" s="102"/>
@@ -23259,13 +23159,13 @@
     </row>
     <row r="49" spans="2:15">
       <c r="B49" s="75">
-        <v>39</v>
-      </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="104"/>
+        <v>41</v>
+      </c>
+      <c r="C49" s="100"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="97"/>
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="63"/>
@@ -23277,82 +23177,76 @@
     </row>
     <row r="50" spans="2:15">
       <c r="B50" s="75">
-        <v>40</v>
-      </c>
-      <c r="C50" s="103"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="70"/>
+        <v>42</v>
+      </c>
+      <c r="C50" s="113"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="97"/>
+      <c r="J50" s="97"/>
+      <c r="K50" s="97"/>
+      <c r="L50" s="97"/>
+      <c r="M50" s="114"/>
       <c r="N50" s="99"/>
       <c r="O50" s="99"/>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="75">
-        <v>41</v>
-      </c>
-      <c r="C51" s="100"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="63"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="99"/>
-      <c r="O51" s="99"/>
-    </row>
-    <row r="52" spans="2:15">
-      <c r="B52" s="75">
-        <v>42</v>
-      </c>
-      <c r="C52" s="113"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
-      <c r="L52" s="97"/>
-      <c r="M52" s="114"/>
-      <c r="N52" s="99"/>
-      <c r="O52" s="99"/>
-    </row>
-    <row r="53" spans="2:15">
-      <c r="B53" s="115" t="s">
+      <c r="B51" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="116"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="119"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="119"/>
-      <c r="L53" s="119"/>
-      <c r="M53" s="120"/>
-      <c r="N53" s="121"/>
-      <c r="O53" s="121"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="119"/>
+      <c r="J51" s="119"/>
+      <c r="K51" s="119"/>
+      <c r="L51" s="119"/>
+      <c r="M51" s="120"/>
+      <c r="N51" s="121"/>
+      <c r="O51" s="121"/>
+    </row>
+    <row r="98" spans="2:15" s="5" customFormat="1">
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+    </row>
+    <row r="99" spans="2:15" s="5" customFormat="1">
+      <c r="B99"/>
+      <c r="C99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
     </row>
     <row r="100" spans="2:15" s="5" customFormat="1">
-      <c r="B100" t="s">
-        <v>3</v>
-      </c>
+      <c r="B100"/>
       <c r="C100" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E100"/>
       <c r="H100"/>
@@ -23367,7 +23261,7 @@
     <row r="101" spans="2:15" s="5" customFormat="1">
       <c r="B101"/>
       <c r="C101" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E101"/>
       <c r="H101"/>
@@ -23381,8 +23275,8 @@
     </row>
     <row r="102" spans="2:15" s="5" customFormat="1">
       <c r="B102"/>
-      <c r="C102" s="3" t="s">
-        <v>8</v>
+      <c r="C102" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E102"/>
       <c r="H102"/>
@@ -23395,10 +23289,10 @@
       <c r="O102"/>
     </row>
     <row r="103" spans="2:15" s="5" customFormat="1">
-      <c r="B103"/>
-      <c r="C103" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103"/>
       <c r="E103"/>
       <c r="H103"/>
       <c r="I103"/>
@@ -23412,7 +23306,7 @@
     <row r="104" spans="2:15" s="5" customFormat="1">
       <c r="B104"/>
       <c r="C104" s="4" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E104"/>
       <c r="H104"/>
@@ -23425,10 +23319,10 @@
       <c r="O104"/>
     </row>
     <row r="105" spans="2:15" s="5" customFormat="1">
-      <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105"/>
+      <c r="B105"/>
+      <c r="C105" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E105"/>
       <c r="H105"/>
       <c r="I105"/>
@@ -23442,7 +23336,7 @@
     <row r="106" spans="2:15" s="5" customFormat="1">
       <c r="B106"/>
       <c r="C106" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E106"/>
       <c r="H106"/>
@@ -23457,7 +23351,7 @@
     <row r="107" spans="2:15" s="5" customFormat="1">
       <c r="B107"/>
       <c r="C107" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E107"/>
       <c r="H107"/>
@@ -23472,7 +23366,7 @@
     <row r="108" spans="2:15" s="5" customFormat="1">
       <c r="B108"/>
       <c r="C108" s="4" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="E108"/>
       <c r="H108"/>
@@ -23484,26 +23378,11 @@
       <c r="N108"/>
       <c r="O108"/>
     </row>
-    <row r="109" spans="2:15" s="5" customFormat="1">
-      <c r="B109"/>
-      <c r="C109" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E109"/>
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="J109"/>
-      <c r="K109"/>
-      <c r="L109"/>
-      <c r="M109"/>
-      <c r="N109"/>
-      <c r="O109"/>
-    </row>
     <row r="110" spans="2:15" s="5" customFormat="1">
-      <c r="B110"/>
-      <c r="C110" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110"/>
       <c r="E110"/>
       <c r="H110"/>
       <c r="I110"/>
@@ -23514,11 +23393,26 @@
       <c r="N110"/>
       <c r="O110"/>
     </row>
+    <row r="111" spans="2:15" s="5" customFormat="1">
+      <c r="B111"/>
+      <c r="C111" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+    </row>
     <row r="112" spans="2:15" s="5" customFormat="1">
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112"/>
+      <c r="B112"/>
+      <c r="C112" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="E112"/>
       <c r="H112"/>
       <c r="I112"/>
@@ -23532,7 +23426,7 @@
     <row r="113" spans="2:15" s="5" customFormat="1">
       <c r="B113"/>
       <c r="C113" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E113"/>
       <c r="H113"/>
@@ -23547,7 +23441,7 @@
     <row r="114" spans="2:15" s="5" customFormat="1">
       <c r="B114"/>
       <c r="C114" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E114"/>
       <c r="H114"/>
@@ -23562,7 +23456,7 @@
     <row r="115" spans="2:15" s="5" customFormat="1">
       <c r="B115"/>
       <c r="C115" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E115"/>
       <c r="H115"/>
@@ -23577,7 +23471,7 @@
     <row r="116" spans="2:15" s="5" customFormat="1">
       <c r="B116"/>
       <c r="C116" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E116"/>
       <c r="H116"/>
@@ -23589,52 +23483,22 @@
       <c r="N116"/>
       <c r="O116"/>
     </row>
-    <row r="117" spans="2:15" s="5" customFormat="1">
-      <c r="B117"/>
-      <c r="C117" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117"/>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="J117"/>
-      <c r="K117"/>
-      <c r="L117"/>
-      <c r="M117"/>
-      <c r="N117"/>
-      <c r="O117"/>
-    </row>
-    <row r="118" spans="2:15" s="5" customFormat="1">
-      <c r="B118"/>
-      <c r="C118" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E118"/>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118"/>
-      <c r="K118"/>
-      <c r="L118"/>
-      <c r="M118"/>
-      <c r="N118"/>
-      <c r="O118"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B7:E7"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F51:F53 F11:F13 F15:F31 F33">
-      <formula1>$C$113:$C$118</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F49:F51 F11:F13 F15:F29 F31">
+      <formula1>$C$111:$C$116</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E51:E53 E11:E13 E15:E31 E33">
-      <formula1>$C$106:$C$110</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E49:E51 E11:E13 E15:E29 E31">
+      <formula1>$C$104:$C$108</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51:D53 D11:D13 D15:D25 D33 D27:D31">
-      <formula1>$C$100:$C$104</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:D51 D11:D13 D15:D23 D31 D25:D29">
+      <formula1>$C$98:$C$102</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54:F90">
-      <formula1>$C$114:$C$118</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F52:F88">
+      <formula1>$C$112:$C$116</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23651,7 +23515,7 @@
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25181,7 +25045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O121"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -26751,7 +26615,7 @@
   <dimension ref="B2:O121"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
+++ b/Documents/ProductBackLog/Capstone_Group6_ProductBackLog_SprintTaskList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" tabRatio="949" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" tabRatio="949" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint01_0805_1205" sheetId="9" r:id="rId1"/>
@@ -599,7 +599,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="255">
   <si>
     <t>CAPSTONE PROJECT</t>
   </si>
@@ -1362,6 +1362,9 @@
   <si>
     <t>+Apply events on Calendar</t>
   </si>
+  <si>
+    <t>FeedBack</t>
+  </si>
 </sst>
 </file>
 
@@ -1712,7 +1715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2097,12 +2100,6 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2129,6 +2126,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9937,8 +9937,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table134567891011" displayName="Table134567891011" ref="B10:O54" totalsRowShown="0" headerRowDxfId="189" dataDxfId="187" headerRowBorderDxfId="188" tableBorderDxfId="186" totalsRowBorderDxfId="185">
-  <autoFilter ref="B10:O54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table134567891011" displayName="Table134567891011" ref="B10:O53" totalsRowShown="0" headerRowDxfId="189" dataDxfId="187" headerRowBorderDxfId="188" tableBorderDxfId="186" totalsRowBorderDxfId="185">
+  <autoFilter ref="B10:O53"/>
   <tableColumns count="14">
     <tableColumn id="1" name="No." dataDxfId="184"/>
     <tableColumn id="2" name="Task description" dataDxfId="183"/>
@@ -9960,8 +9960,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table13456789101112" displayName="Table13456789101112" ref="B10:O56" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
-  <autoFilter ref="B10:O56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table13456789101112" displayName="Table13456789101112" ref="B10:O53" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" totalsRowBorderDxfId="166">
+  <autoFilter ref="B10:O53"/>
   <tableColumns count="14">
     <tableColumn id="1" name="No." dataDxfId="165"/>
     <tableColumn id="2" name="Task description" dataDxfId="164"/>
@@ -9983,8 +9983,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table134567891011121314" displayName="Table134567891011121314" ref="B10:O56" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148" totalsRowBorderDxfId="147">
-  <autoFilter ref="B10:O56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table134567891011121314" displayName="Table134567891011121314" ref="B10:O55" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148" totalsRowBorderDxfId="147">
+  <autoFilter ref="B10:O55"/>
   <tableColumns count="14">
     <tableColumn id="1" name="No." dataDxfId="146"/>
     <tableColumn id="2" name="Task description" dataDxfId="145"/>
@@ -10377,12 +10377,12 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="18">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
     </row>
     <row r="10" spans="2:13" s="6" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="12" t="s">
@@ -11608,7 +11608,7 @@
   <dimension ref="B2:O121"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11646,12 +11646,12 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
     </row>
     <row r="10" spans="2:15" s="6" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="12" t="s">
@@ -11971,7 +11971,7 @@
       <c r="D17" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="137" t="s">
+      <c r="E17" s="135" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="106" t="s">
@@ -11998,10 +11998,10 @@
       <c r="M17" s="94">
         <v>4</v>
       </c>
-      <c r="N17" s="136">
+      <c r="N17" s="134">
         <v>0</v>
       </c>
-      <c r="O17" s="136">
+      <c r="O17" s="134">
         <v>0</v>
       </c>
     </row>
@@ -12086,10 +12086,10 @@
       <c r="M19" s="68">
         <v>3</v>
       </c>
-      <c r="N19" s="135">
+      <c r="N19" s="133">
         <v>0</v>
       </c>
-      <c r="O19" s="135">
+      <c r="O19" s="133">
         <v>0</v>
       </c>
     </row>
@@ -12108,8 +12108,8 @@
       <c r="K20" s="94"/>
       <c r="L20" s="94"/>
       <c r="M20" s="94"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="72">
@@ -12126,8 +12126,8 @@
       <c r="K21" s="94"/>
       <c r="L21" s="94"/>
       <c r="M21" s="94"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="75">
@@ -12144,8 +12144,8 @@
       <c r="K22" s="104"/>
       <c r="L22" s="104"/>
       <c r="M22" s="104"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="75">
@@ -12162,8 +12162,8 @@
       <c r="K23" s="104"/>
       <c r="L23" s="104"/>
       <c r="M23" s="104"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="72">
@@ -12180,8 +12180,8 @@
       <c r="K24" s="94"/>
       <c r="L24" s="94"/>
       <c r="M24" s="94"/>
-      <c r="N24" s="136"/>
-      <c r="O24" s="136"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="75">
@@ -12198,8 +12198,8 @@
       <c r="K25" s="94"/>
       <c r="L25" s="94"/>
       <c r="M25" s="94"/>
-      <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="75">
@@ -12216,8 +12216,8 @@
       <c r="K26" s="76"/>
       <c r="L26" s="76"/>
       <c r="M26" s="68"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="133"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="72">
@@ -12234,8 +12234,8 @@
       <c r="K27" s="63"/>
       <c r="L27" s="63"/>
       <c r="M27" s="70"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="133"/>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="75">
@@ -12252,8 +12252,8 @@
       <c r="K28" s="63"/>
       <c r="L28" s="63"/>
       <c r="M28" s="70"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
+      <c r="N28" s="133"/>
+      <c r="O28" s="133"/>
     </row>
     <row r="29" spans="2:15" ht="21.75" customHeight="1">
       <c r="B29" s="75">
@@ -13062,7 +13062,7 @@
   <dimension ref="B2:O120"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13100,12 +13100,12 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="140" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
     </row>
     <row r="10" spans="2:15" s="6" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="12" t="s">
@@ -13601,7 +13601,7 @@
       <c r="D21" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="137" t="s">
+      <c r="E21" s="135" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="106" t="s">
@@ -13628,10 +13628,10 @@
       <c r="M21" s="94">
         <v>6</v>
       </c>
-      <c r="N21" s="136">
+      <c r="N21" s="134">
         <v>0</v>
       </c>
-      <c r="O21" s="136">
+      <c r="O21" s="134">
         <v>0</v>
       </c>
     </row>
@@ -13716,10 +13716,10 @@
       <c r="M23" s="68">
         <v>6</v>
       </c>
-      <c r="N23" s="135">
+      <c r="N23" s="133">
         <v>0</v>
       </c>
-      <c r="O23" s="135">
+      <c r="O23" s="133">
         <v>0</v>
       </c>
     </row>
@@ -13738,8 +13738,8 @@
       <c r="K24" s="94"/>
       <c r="L24" s="94"/>
       <c r="M24" s="94"/>
-      <c r="N24" s="136"/>
-      <c r="O24" s="136"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="75">
@@ -13756,8 +13756,8 @@
       <c r="K25" s="76"/>
       <c r="L25" s="76"/>
       <c r="M25" s="68"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
+      <c r="N25" s="133"/>
+      <c r="O25" s="133"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="72">
@@ -13774,8 +13774,8 @@
       <c r="K26" s="63"/>
       <c r="L26" s="63"/>
       <c r="M26" s="70"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="133"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="75">
@@ -13792,8 +13792,8 @@
       <c r="K27" s="63"/>
       <c r="L27" s="63"/>
       <c r="M27" s="70"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="133"/>
     </row>
     <row r="28" spans="2:15" ht="21.75" customHeight="1">
       <c r="B28" s="75">
@@ -14640,12 +14640,12 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="140" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
     </row>
     <row r="10" spans="2:15" s="6" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="12" t="s">
@@ -15017,7 +15017,7 @@
       <c r="D20" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="137" t="s">
+      <c r="E20" s="135" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="106"/>
@@ -15028,8 +15028,8 @@
       <c r="K20" s="94"/>
       <c r="L20" s="94"/>
       <c r="M20" s="94"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
     </row>
     <row r="21" spans="2:15" s="8" customFormat="1">
       <c r="B21" s="75">
@@ -15070,8 +15070,8 @@
       <c r="K22" s="76"/>
       <c r="L22" s="76"/>
       <c r="M22" s="68"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="133"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="72">
@@ -15088,8 +15088,8 @@
       <c r="K23" s="94"/>
       <c r="L23" s="94"/>
       <c r="M23" s="94"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="75">
@@ -15106,8 +15106,8 @@
       <c r="K24" s="76"/>
       <c r="L24" s="76"/>
       <c r="M24" s="68"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="133"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="72">
@@ -15124,8 +15124,8 @@
       <c r="K25" s="63"/>
       <c r="L25" s="63"/>
       <c r="M25" s="70"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
+      <c r="N25" s="133"/>
+      <c r="O25" s="133"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="75">
@@ -15142,8 +15142,8 @@
       <c r="K26" s="63"/>
       <c r="L26" s="63"/>
       <c r="M26" s="70"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="133"/>
     </row>
     <row r="27" spans="2:15" ht="21.75" customHeight="1">
       <c r="B27" s="75">
@@ -15990,12 +15990,12 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
     </row>
     <row r="10" spans="2:15" s="6" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="12" t="s">
@@ -16466,8 +16466,8 @@
       <c r="K22" s="94"/>
       <c r="L22" s="94"/>
       <c r="M22" s="94"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
     </row>
     <row r="23" spans="2:15" s="8" customFormat="1">
       <c r="B23" s="75">
@@ -16514,8 +16514,8 @@
       <c r="K24" s="76"/>
       <c r="L24" s="76"/>
       <c r="M24" s="68"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="133"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="72">
@@ -16532,8 +16532,8 @@
       <c r="K25" s="94"/>
       <c r="L25" s="94"/>
       <c r="M25" s="94"/>
-      <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="75">
@@ -16550,8 +16550,8 @@
       <c r="K26" s="76"/>
       <c r="L26" s="76"/>
       <c r="M26" s="68"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="133"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="72">
@@ -16568,8 +16568,8 @@
       <c r="K27" s="63"/>
       <c r="L27" s="63"/>
       <c r="M27" s="70"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="133"/>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="75">
@@ -16586,8 +16586,8 @@
       <c r="K28" s="63"/>
       <c r="L28" s="63"/>
       <c r="M28" s="70"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
+      <c r="N28" s="133"/>
+      <c r="O28" s="133"/>
     </row>
     <row r="29" spans="2:15" ht="21.75" customHeight="1">
       <c r="B29" s="75">
@@ -17396,7 +17396,7 @@
   <dimension ref="B2:O118"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17434,12 +17434,12 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="140" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
     </row>
     <row r="10" spans="2:15" s="6" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="12" t="s">
@@ -17807,7 +17807,7 @@
       <c r="D19" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="137" t="s">
+      <c r="E19" s="135" t="s">
         <v>53</v>
       </c>
       <c r="F19" s="106"/>
@@ -17818,8 +17818,8 @@
       <c r="K19" s="94"/>
       <c r="L19" s="94"/>
       <c r="M19" s="94"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
     </row>
     <row r="20" spans="2:15" s="8" customFormat="1">
       <c r="B20" s="75">
@@ -17866,8 +17866,8 @@
       <c r="K21" s="76"/>
       <c r="L21" s="76"/>
       <c r="M21" s="68"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="75">
@@ -17890,8 +17890,8 @@
       <c r="K22" s="94"/>
       <c r="L22" s="94"/>
       <c r="M22" s="94"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="75">
@@ -17908,8 +17908,8 @@
       <c r="K23" s="76"/>
       <c r="L23" s="76"/>
       <c r="M23" s="68"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="135"/>
+      <c r="N23" s="133"/>
+      <c r="O23" s="133"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="72">
@@ -17926,8 +17926,8 @@
       <c r="K24" s="63"/>
       <c r="L24" s="63"/>
       <c r="M24" s="70"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="133"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="75">
@@ -17944,8 +17944,8 @@
       <c r="K25" s="63"/>
       <c r="L25" s="63"/>
       <c r="M25" s="70"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
+      <c r="N25" s="133"/>
+      <c r="O25" s="133"/>
     </row>
     <row r="26" spans="2:15" ht="21.75" customHeight="1">
       <c r="B26" s="72">
@@ -18792,12 +18792,12 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
     </row>
     <row r="10" spans="2:15" s="6" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="12" t="s">
@@ -20317,7 +20317,7 @@
   <dimension ref="B2:O119"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20355,12 +20355,12 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
     </row>
     <row r="10" spans="2:15" s="6" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="12" t="s">
@@ -21985,8 +21985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22024,12 +22024,12 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
     </row>
     <row r="10" spans="2:15" s="6" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="12" t="s">
@@ -22575,7 +22575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="36" customHeight="1">
+    <row r="24" spans="2:15" ht="16.5" customHeight="1">
       <c r="B24" s="75">
         <v>16</v>
       </c>
@@ -22592,19 +22592,19 @@
         <v>12</v>
       </c>
       <c r="G24" s="104">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H24" s="63">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I24" s="76">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J24" s="76">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K24" s="76">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L24" s="76">
         <v>10</v>
@@ -23512,10 +23512,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:O119"/>
+  <dimension ref="B2:O118"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23553,12 +23553,12 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
     </row>
     <row r="10" spans="2:15" s="6" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="12" t="s">
@@ -23909,31 +23909,29 @@
       </c>
     </row>
     <row r="19" spans="2:15" s="8" customFormat="1">
-      <c r="B19" s="72">
-        <v>9</v>
-      </c>
-      <c r="C19" s="95" t="s">
-        <v>68</v>
+      <c r="B19" s="141"/>
+      <c r="C19" s="101" t="s">
+        <v>254</v>
       </c>
       <c r="D19" s="102"/>
       <c r="E19" s="103"/>
       <c r="F19" s="102"/>
       <c r="G19" s="104"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="72">
-        <v>10</v>
-      </c>
-      <c r="C20" s="109" t="s">
-        <v>71</v>
+      <c r="H19" s="93"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+    </row>
+    <row r="20" spans="2:15" s="8" customFormat="1">
+      <c r="B20" s="75">
+        <v>8</v>
+      </c>
+      <c r="C20" s="122" t="s">
+        <v>147</v>
       </c>
       <c r="D20" s="91" t="s">
         <v>6</v>
@@ -23945,39 +23943,39 @@
         <v>12</v>
       </c>
       <c r="G20" s="104">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H20" s="93">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I20" s="94">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J20" s="94">
-        <v>12</v>
-      </c>
-      <c r="K20" s="94">
-        <v>12</v>
-      </c>
-      <c r="L20" s="94">
-        <v>12</v>
-      </c>
-      <c r="M20" s="94">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="K20" s="93">
+        <v>20</v>
+      </c>
+      <c r="L20" s="93">
+        <v>20</v>
+      </c>
+      <c r="M20" s="93">
+        <v>20</v>
       </c>
       <c r="N20" s="108">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O20" s="108">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" s="8" customFormat="1">
       <c r="B21" s="72">
-        <v>11</v>
-      </c>
-      <c r="C21" s="105" t="s">
-        <v>70</v>
+        <v>9</v>
+      </c>
+      <c r="C21" s="109" t="s">
+        <v>148</v>
       </c>
       <c r="D21" s="91" t="s">
         <v>6</v>
@@ -23989,147 +23987,147 @@
         <v>12</v>
       </c>
       <c r="G21" s="104">
-        <v>10</v>
-      </c>
-      <c r="H21" s="93">
-        <v>10</v>
-      </c>
-      <c r="I21" s="94">
-        <v>10</v>
-      </c>
-      <c r="J21" s="94">
-        <v>10</v>
-      </c>
-      <c r="K21" s="94">
-        <v>10</v>
-      </c>
-      <c r="L21" s="94">
-        <v>10</v>
-      </c>
-      <c r="M21" s="94">
-        <v>10</v>
-      </c>
-      <c r="N21" s="108">
-        <v>10</v>
-      </c>
-      <c r="O21" s="108">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="72">
-        <v>12</v>
-      </c>
-      <c r="C22" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="63">
+        <v>24</v>
+      </c>
+      <c r="I21" s="76">
+        <v>23</v>
+      </c>
+      <c r="J21" s="76">
+        <v>22</v>
+      </c>
+      <c r="K21" s="76">
+        <v>20</v>
+      </c>
+      <c r="L21" s="76">
+        <v>20</v>
+      </c>
+      <c r="M21" s="68">
+        <v>15</v>
+      </c>
+      <c r="N21" s="133">
+        <v>15</v>
+      </c>
+      <c r="O21" s="133">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="16.5" customHeight="1">
+      <c r="B22" s="75">
+        <v>16</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="102" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="92" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="106" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G22" s="104">
-        <v>12</v>
-      </c>
-      <c r="H22" s="110">
-        <v>12</v>
-      </c>
-      <c r="I22" s="110">
-        <v>12</v>
-      </c>
-      <c r="J22" s="110">
-        <v>12</v>
-      </c>
-      <c r="K22" s="110">
-        <v>12</v>
-      </c>
-      <c r="L22" s="110">
-        <v>12</v>
-      </c>
-      <c r="M22" s="110">
-        <v>12</v>
-      </c>
-      <c r="N22" s="108">
-        <v>12</v>
-      </c>
-      <c r="O22" s="108">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="H22" s="63">
+        <v>8</v>
+      </c>
+      <c r="I22" s="76">
+        <v>8</v>
+      </c>
+      <c r="J22" s="76">
+        <v>5</v>
+      </c>
+      <c r="K22" s="76">
+        <v>5</v>
+      </c>
+      <c r="L22" s="76">
+        <v>0</v>
+      </c>
+      <c r="M22" s="68">
+        <v>0</v>
+      </c>
+      <c r="N22" s="99">
+        <v>0</v>
+      </c>
+      <c r="O22" s="99">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="72">
-        <v>13</v>
-      </c>
-      <c r="C23" s="111" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="104">
-        <v>10</v>
-      </c>
-      <c r="H23" s="93">
-        <v>10</v>
-      </c>
-      <c r="I23" s="94">
-        <v>10</v>
-      </c>
-      <c r="J23" s="94">
-        <v>10</v>
-      </c>
-      <c r="K23" s="94">
-        <v>10</v>
-      </c>
-      <c r="L23" s="94">
-        <v>10</v>
-      </c>
-      <c r="M23" s="94">
-        <v>10</v>
-      </c>
-      <c r="N23" s="108">
-        <v>10</v>
-      </c>
-      <c r="O23" s="108">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="72">
-        <v>14</v>
-      </c>
-      <c r="C24" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="104">
+        <v>5</v>
+      </c>
+      <c r="H24" s="63">
+        <v>5</v>
+      </c>
+      <c r="I24" s="63">
+        <v>5</v>
+      </c>
+      <c r="J24" s="63">
+        <v>5</v>
+      </c>
+      <c r="K24" s="63">
+        <v>5</v>
+      </c>
+      <c r="L24" s="63">
+        <v>5</v>
+      </c>
+      <c r="M24" s="70">
+        <v>5</v>
+      </c>
+      <c r="N24" s="99">
+        <v>5</v>
+      </c>
+      <c r="O24" s="99">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="72">
-        <v>15</v>
-      </c>
-      <c r="C25" s="109" t="s">
-        <v>92</v>
+        <v>16</v>
+      </c>
+      <c r="C25" s="105" t="s">
+        <v>91</v>
       </c>
       <c r="D25" s="91" t="s">
         <v>6</v>
@@ -24141,39 +24139,39 @@
         <v>12</v>
       </c>
       <c r="G25" s="104">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H25" s="63">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I25" s="63">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J25" s="63">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K25" s="63">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L25" s="63">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M25" s="70">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N25" s="99">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O25" s="99">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="21.75" customHeight="1">
       <c r="B26" s="72">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="105" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D26" s="91" t="s">
         <v>6</v>
@@ -24185,80 +24183,54 @@
         <v>12</v>
       </c>
       <c r="G26" s="104">
-        <v>12</v>
-      </c>
-      <c r="H26" s="63">
-        <v>12</v>
-      </c>
-      <c r="I26" s="63">
-        <v>12</v>
-      </c>
-      <c r="J26" s="63">
-        <v>12</v>
-      </c>
-      <c r="K26" s="63">
-        <v>12</v>
-      </c>
-      <c r="L26" s="63">
-        <v>12</v>
-      </c>
-      <c r="M26" s="70">
-        <v>12</v>
-      </c>
-      <c r="N26" s="99">
-        <v>12</v>
-      </c>
-      <c r="O26" s="99">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" ht="21.75" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="H26" s="93">
+        <v>20</v>
+      </c>
+      <c r="I26" s="93">
+        <v>20</v>
+      </c>
+      <c r="J26" s="93">
+        <v>20</v>
+      </c>
+      <c r="K26" s="93">
+        <v>20</v>
+      </c>
+      <c r="L26" s="93">
+        <v>20</v>
+      </c>
+      <c r="M26" s="93">
+        <v>20</v>
+      </c>
+      <c r="N26" s="108">
+        <v>20</v>
+      </c>
+      <c r="O26" s="108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
       <c r="B27" s="72">
-        <v>17</v>
-      </c>
-      <c r="C27" s="105" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="104">
-        <v>20</v>
-      </c>
-      <c r="H27" s="93">
-        <v>20</v>
-      </c>
-      <c r="I27" s="93">
-        <v>20</v>
-      </c>
-      <c r="J27" s="93">
-        <v>20</v>
-      </c>
-      <c r="K27" s="93">
-        <v>20</v>
-      </c>
-      <c r="L27" s="93">
-        <v>20</v>
-      </c>
-      <c r="M27" s="93">
-        <v>20</v>
-      </c>
-      <c r="N27" s="108">
-        <v>20</v>
-      </c>
-      <c r="O27" s="108">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C27" s="103"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="72">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="103"/>
       <c r="D28" s="102"/>
@@ -24276,7 +24248,7 @@
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="72">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="103"/>
       <c r="D29" s="102"/>
@@ -24294,7 +24266,7 @@
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="72">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" s="103"/>
       <c r="D30" s="102"/>
@@ -24312,7 +24284,7 @@
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="72">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" s="103"/>
       <c r="D31" s="102"/>
@@ -24330,31 +24302,31 @@
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="72">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" s="103"/>
       <c r="D32" s="102"/>
       <c r="E32" s="103"/>
       <c r="F32" s="102"/>
       <c r="G32" s="104"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="72">
-        <v>23</v>
-      </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="104"/>
+        <v>24</v>
+      </c>
+      <c r="C33" s="112"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="97"/>
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="63"/>
@@ -24366,13 +24338,13 @@
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="72">
-        <v>24</v>
-      </c>
-      <c r="C34" s="112"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="97"/>
+        <v>25</v>
+      </c>
+      <c r="C34" s="103"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="104"/>
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="63"/>
@@ -24384,7 +24356,7 @@
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="72">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C35" s="103"/>
       <c r="D35" s="102"/>
@@ -24402,7 +24374,7 @@
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="72">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" s="103"/>
       <c r="D36" s="102"/>
@@ -24420,7 +24392,7 @@
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="72">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" s="103"/>
       <c r="D37" s="102"/>
@@ -24438,7 +24410,7 @@
     </row>
     <row r="38" spans="2:15">
       <c r="B38" s="72">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38" s="103"/>
       <c r="D38" s="102"/>
@@ -24456,7 +24428,7 @@
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="72">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" s="103"/>
       <c r="D39" s="102"/>
@@ -24474,7 +24446,7 @@
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="72">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="103"/>
       <c r="D40" s="102"/>
@@ -24492,7 +24464,7 @@
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="72">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C41" s="103"/>
       <c r="D41" s="102"/>
@@ -24510,7 +24482,7 @@
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="72">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C42" s="103"/>
       <c r="D42" s="102"/>
@@ -24528,7 +24500,7 @@
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="72">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" s="103"/>
       <c r="D43" s="102"/>
@@ -24546,7 +24518,7 @@
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="72">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="103"/>
       <c r="D44" s="102"/>
@@ -24564,7 +24536,7 @@
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="72">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" s="103"/>
       <c r="D45" s="102"/>
@@ -24582,7 +24554,7 @@
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="72">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C46" s="103"/>
       <c r="D46" s="102"/>
@@ -24600,7 +24572,7 @@
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="72">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47" s="103"/>
       <c r="D47" s="102"/>
@@ -24618,7 +24590,7 @@
     </row>
     <row r="48" spans="2:15">
       <c r="B48" s="72">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C48" s="103"/>
       <c r="D48" s="102"/>
@@ -24636,7 +24608,7 @@
     </row>
     <row r="49" spans="2:15">
       <c r="B49" s="72">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C49" s="103"/>
       <c r="D49" s="102"/>
@@ -24654,7 +24626,7 @@
     </row>
     <row r="50" spans="2:15">
       <c r="B50" s="72">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C50" s="103"/>
       <c r="D50" s="102"/>
@@ -24672,13 +24644,13 @@
     </row>
     <row r="51" spans="2:15">
       <c r="B51" s="72">
-        <v>41</v>
-      </c>
-      <c r="C51" s="103"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="104"/>
+        <v>42</v>
+      </c>
+      <c r="C51" s="100"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="97"/>
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="63"/>
@@ -24690,64 +24662,61 @@
     </row>
     <row r="52" spans="2:15">
       <c r="B52" s="72">
-        <v>42</v>
-      </c>
-      <c r="C52" s="100"/>
+        <v>43</v>
+      </c>
+      <c r="C52" s="113"/>
       <c r="D52" s="26"/>
       <c r="E52" s="73"/>
       <c r="F52" s="96"/>
       <c r="G52" s="97"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="63"/>
-      <c r="M52" s="70"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="97"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="97"/>
+      <c r="M52" s="114"/>
       <c r="N52" s="99"/>
       <c r="O52" s="99"/>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" s="72">
-        <v>43</v>
-      </c>
-      <c r="C53" s="113"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="97"/>
-      <c r="M53" s="114"/>
-      <c r="N53" s="99"/>
-      <c r="O53" s="99"/>
-    </row>
-    <row r="54" spans="2:15">
-      <c r="B54" s="115" t="s">
+      <c r="B53" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="116"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="117"/>
-      <c r="F54" s="118"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="119"/>
-      <c r="L54" s="119"/>
-      <c r="M54" s="120"/>
-      <c r="N54" s="121"/>
-      <c r="O54" s="121"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="119"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="119"/>
+      <c r="L53" s="119"/>
+      <c r="M53" s="120"/>
+      <c r="N53" s="121"/>
+      <c r="O53" s="121"/>
+    </row>
+    <row r="100" spans="2:15" s="5" customFormat="1">
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
     </row>
     <row r="101" spans="2:15" s="5" customFormat="1">
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
+      <c r="B101"/>
       <c r="C101" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E101"/>
       <c r="H101"/>
@@ -24762,7 +24731,7 @@
     <row r="102" spans="2:15" s="5" customFormat="1">
       <c r="B102"/>
       <c r="C102" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E102"/>
       <c r="H102"/>
@@ -24777,7 +24746,7 @@
     <row r="103" spans="2:15" s="5" customFormat="1">
       <c r="B103"/>
       <c r="C103" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E103"/>
       <c r="H103"/>
@@ -24791,8 +24760,8 @@
     </row>
     <row r="104" spans="2:15" s="5" customFormat="1">
       <c r="B104"/>
-      <c r="C104" s="3" t="s">
-        <v>9</v>
+      <c r="C104" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E104"/>
       <c r="H104"/>
@@ -24805,10 +24774,10 @@
       <c r="O104"/>
     </row>
     <row r="105" spans="2:15" s="5" customFormat="1">
-      <c r="B105"/>
-      <c r="C105" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105"/>
       <c r="E105"/>
       <c r="H105"/>
       <c r="I105"/>
@@ -24820,10 +24789,10 @@
       <c r="O105"/>
     </row>
     <row r="106" spans="2:15" s="5" customFormat="1">
-      <c r="B106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106"/>
+      <c r="B106"/>
+      <c r="C106" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="E106"/>
       <c r="H106"/>
       <c r="I106"/>
@@ -24837,7 +24806,7 @@
     <row r="107" spans="2:15" s="5" customFormat="1">
       <c r="B107"/>
       <c r="C107" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E107"/>
       <c r="H107"/>
@@ -24852,7 +24821,7 @@
     <row r="108" spans="2:15" s="5" customFormat="1">
       <c r="B108"/>
       <c r="C108" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E108"/>
       <c r="H108"/>
@@ -24867,7 +24836,7 @@
     <row r="109" spans="2:15" s="5" customFormat="1">
       <c r="B109"/>
       <c r="C109" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E109"/>
       <c r="H109"/>
@@ -24882,7 +24851,7 @@
     <row r="110" spans="2:15" s="5" customFormat="1">
       <c r="B110"/>
       <c r="C110" s="4" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E110"/>
       <c r="H110"/>
@@ -24894,26 +24863,26 @@
       <c r="N110"/>
       <c r="O110"/>
     </row>
-    <row r="111" spans="2:15" s="5" customFormat="1">
-      <c r="B111"/>
-      <c r="C111" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111"/>
-      <c r="H111"/>
-      <c r="I111"/>
-      <c r="J111"/>
-      <c r="K111"/>
-      <c r="L111"/>
-      <c r="M111"/>
-      <c r="N111"/>
-      <c r="O111"/>
+    <row r="112" spans="2:15" s="5" customFormat="1">
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112"/>
+      <c r="E112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
     </row>
     <row r="113" spans="2:15" s="5" customFormat="1">
-      <c r="B113" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113"/>
+      <c r="B113"/>
+      <c r="C113" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E113"/>
       <c r="H113"/>
       <c r="I113"/>
@@ -24927,7 +24896,7 @@
     <row r="114" spans="2:15" s="5" customFormat="1">
       <c r="B114"/>
       <c r="C114" s="4" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E114"/>
       <c r="H114"/>
@@ -24942,7 +24911,7 @@
     <row r="115" spans="2:15" s="5" customFormat="1">
       <c r="B115"/>
       <c r="C115" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E115"/>
       <c r="H115"/>
@@ -24957,7 +24926,7 @@
     <row r="116" spans="2:15" s="5" customFormat="1">
       <c r="B116"/>
       <c r="C116" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E116"/>
       <c r="H116"/>
@@ -24972,7 +24941,7 @@
     <row r="117" spans="2:15" s="5" customFormat="1">
       <c r="B117"/>
       <c r="C117" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E117"/>
       <c r="H117"/>
@@ -24987,7 +24956,7 @@
     <row r="118" spans="2:15" s="5" customFormat="1">
       <c r="B118"/>
       <c r="C118" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E118"/>
       <c r="H118"/>
@@ -24999,37 +24968,28 @@
       <c r="N118"/>
       <c r="O118"/>
     </row>
-    <row r="119" spans="2:15" s="5" customFormat="1">
-      <c r="B119"/>
-      <c r="C119" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E119"/>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
-      <c r="K119"/>
-      <c r="L119"/>
-      <c r="M119"/>
-      <c r="N119"/>
-      <c r="O119"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B7:E7"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D27 D52:D54 D15:D22 D34 D11:D13">
-      <formula1>$C$101:$C$105</formula1>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51:D53 D11:D13 D33 D15:D21 D23:D26">
+      <formula1>$C$100:$C$104</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E52:E54 E34 E15:E27 E11:E13">
-      <formula1>$C$107:$C$111</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E51:E53 E23:E26 E15:E19 E11:E13 E33">
+      <formula1>$C$106:$C$110</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F34 F15:F27 F52:F54 F11:F13">
-      <formula1>$C$114:$C$119</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33 F11:F13 F51:F53 F15:F26">
+      <formula1>$C$113:$C$118</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F55:F91">
-      <formula1>$C$115:$C$119</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54:F90">
+      <formula1>$C$114:$C$118</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E20:E21">
+      <formula1>$C$105:$C$109</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E22">
+      <formula1>$C$104:$C$108</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25043,10 +25003,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:O121"/>
+  <dimension ref="B2:O118"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25084,12 +25044,12 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:15" ht="18">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="140" t="s">
